--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -58,8 +58,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -553,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.187292</v>
+                  <v>0.0758843</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.183982</v>
+                  <v>0.0735374</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.179004</v>
+                  <v>0.0747241</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.176892</v>
+                  <v>0.0728557</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.17022</v>
+                  <v>0.0725507</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.163509</v>
+                  <v>0.0714322</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.156318</v>
+                  <v>0.0708246</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.146334</v>
+                  <v>0.0693053</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.231139</v>
+                  <v>0.124614</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.228081</v>
+                  <v>0.123047</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.225517</v>
+                  <v>0.122218</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.222864</v>
+                  <v>0.118435</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.21893</v>
+                  <v>0.116689</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.214659</v>
+                  <v>0.115717</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.209928</v>
+                  <v>0.109993</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.20518</v>
+                  <v>0.107112</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.200207</v>
+                  <v>0.105066</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.195783</v>
+                  <v>0.09945279999999999</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.189275</v>
+                  <v>0.096415</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.181574</v>
+                  <v>0.095169</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.174132</v>
+                  <v>0.0909674</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.16528</v>
+                  <v>0.0868884</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.243142</v>
+                  <v>0.151432</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.239615</v>
+                  <v>0.147713</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.236139</v>
+                  <v>0.144473</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.232566</v>
+                  <v>0.139768</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.227385</v>
+                  <v>0.136365</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.222635</v>
+                  <v>0.132397</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.217695</v>
+                  <v>0.128003</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.212684</v>
+                  <v>0.123668</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.20734</v>
+                  <v>0.11902</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.20071</v>
+                  <v>0.114459</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.194395</v>
+                  <v>0.110177</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.186684</v>
+                  <v>0.105099</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.181061</v>
+                  <v>0.100138</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.169795</v>
+                  <v>0.0948865</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.248879</v>
+                  <v>0.159129</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.244774</v>
+                  <v>0.155682</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.241026</v>
+                  <v>0.151681</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.236858</v>
+                  <v>0.147442</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.232237</v>
+                  <v>0.142735</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.227177</v>
+                  <v>0.138002</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.22226</v>
+                  <v>0.13371</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.216502</v>
+                  <v>0.128795</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.2114</v>
+                  <v>0.124254</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.204573</v>
+                  <v>0.119526</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.198267</v>
+                  <v>0.114363</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.191099</v>
+                  <v>0.109704</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.183731</v>
+                  <v>0.104862</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.172869</v>
+                  <v>0.09999089999999999</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.161871</v>
+                  <v>0.0946162</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.247769</v>
+                  <v>0.15835</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.243592</v>
+                  <v>0.15497</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.239389</v>
+                  <v>0.150224</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.234805</v>
+                  <v>0.146313</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.230401</v>
+                  <v>0.141574</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.224628</v>
+                  <v>0.136479</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.218949</v>
+                  <v>0.131705</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.213275</v>
+                  <v>0.126692</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.206692</v>
+                  <v>0.121648</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.200398</v>
+                  <v>0.117033</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.193096</v>
+                  <v>0.11206</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.185345</v>
+                  <v>0.106931</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177726</v>
+                  <v>0.102032</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.167032</v>
+                  <v>0.09696100000000001</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.250983</v>
+                  <v>0.160578</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.246922</v>
+                  <v>0.156625</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.24234</v>
+                  <v>0.152507</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.237651</v>
+                  <v>0.147923</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.232612</v>
+                  <v>0.143473</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.2275</v>
+                  <v>0.13856</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.222083</v>
+                  <v>0.133469</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.215699</v>
+                  <v>0.128556</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.209667</v>
+                  <v>0.12351</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.202946</v>
+                  <v>0.118643</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.196222</v>
+                  <v>0.113741</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.188555</v>
+                  <v>0.108914</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179944</v>
+                  <v>0.10394</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.169766</v>
+                  <v>0.0991664</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.251071</v>
+                  <v>0.161075</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.247217</v>
+                  <v>0.157541</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.243499</v>
+                  <v>0.153279</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.239247</v>
+                  <v>0.148419</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.233745</v>
+                  <v>0.143563</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.228775</v>
+                  <v>0.138814</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.223145</v>
+                  <v>0.134187</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.217208</v>
+                  <v>0.129007</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.211176</v>
+                  <v>0.12419</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.20484</v>
+                  <v>0.11903</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.197888</v>
+                  <v>0.114376</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.190605</v>
+                  <v>0.109255</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.182097</v>
+                  <v>0.104203</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.1719</v>
+                  <v>0.0994004</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.251299</v>
+                  <v>0.162128</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.248019</v>
+                  <v>0.158397</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.244127</v>
+                  <v>0.154147</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.239723</v>
+                  <v>0.14983</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.23491</v>
+                  <v>0.144916</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.229923</v>
+                  <v>0.140152</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.224131</v>
+                  <v>0.134967</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.218559</v>
+                  <v>0.13013</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.212431</v>
+                  <v>0.125065</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.206093</v>
+                  <v>0.120187</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.199207</v>
+                  <v>0.11521</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.192019</v>
+                  <v>0.110418</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.183749</v>
+                  <v>0.105437</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.174303</v>
+                  <v>0.100497</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.162838</v>
+                  <v>0.0955758</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.249639</v>
+                  <v>0.159347</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.245731</v>
+                  <v>0.155292</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.241243</v>
+                  <v>0.150618</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.236498</v>
+                  <v>0.145909</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.231101</v>
+                  <v>0.140882</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.225563</v>
+                  <v>0.135883</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.219876</v>
+                  <v>0.130815</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.213794</v>
+                  <v>0.125838</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.207545</v>
+                  <v>0.121049</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.200654</v>
+                  <v>0.115996</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.193435</v>
+                  <v>0.111038</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.185456</v>
+                  <v>0.106266</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.175966</v>
+                  <v>0.101484</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.16491</v>
+                  <v>0.0965124</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.251293</v>
+                  <v>0.16875</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.247604</v>
+                  <v>0.165253</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.243229</v>
+                  <v>0.160171</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.237169</v>
+                  <v>0.155079</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.232007</v>
+                  <v>0.150172</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.226576</v>
+                  <v>0.144364</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.221042</v>
+                  <v>0.13909</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.214901</v>
+                  <v>0.133975</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.208636</v>
+                  <v>0.128653</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.201996</v>
+                  <v>0.123312</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.195117</v>
+                  <v>0.118196</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.18742</v>
+                  <v>0.113081</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.178418</v>
+                  <v>0.107936</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.167876</v>
+                  <v>0.102763</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.250586</v>
+                  <v>0.170695</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.247147</v>
+                  <v>0.16605</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.242923</v>
+                  <v>0.159252</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.238252</v>
+                  <v>0.154279</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.2333</v>
+                  <v>0.149255</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.227843</v>
+                  <v>0.143908</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +986,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <v>boost::unordered_flat_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.206229</v>
+                  <v>0.161517</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.206842</v>
+                  <v>0.161284</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.206135</v>
+                  <v>0.161565</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.206722</v>
+                  <v>0.161071</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.206327</v>
+                  <v>0.160359</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.206321</v>
+                  <v>0.160506</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.206192</v>
+                  <v>0.15986</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.205238</v>
+                  <v>0.159816</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224944</v>
+                  <v>0.168688</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.224007</v>
+                  <v>0.169131</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.222663</v>
+                  <v>0.168269</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.221498</v>
+                  <v>0.167974</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.221017</v>
+                  <v>0.166866</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.220245</v>
+                  <v>0.165758</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.219581</v>
+                  <v>0.165987</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.218457</v>
+                  <v>0.165494</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.217573</v>
+                  <v>0.16521</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.217195</v>
+                  <v>0.164933</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.216497</v>
+                  <v>0.165109</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.215746</v>
+                  <v>0.164374</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.214832</v>
+                  <v>0.16526</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.21423</v>
+                  <v>0.16427</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.228939</v>
+                  <v>0.178874</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.227393</v>
+                  <v>0.177374</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.227107</v>
+                  <v>0.174788</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.224972</v>
+                  <v>0.175042</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.224321</v>
+                  <v>0.173708</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.223063</v>
+                  <v>0.172923</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.221902</v>
+                  <v>0.171732</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.220735</v>
+                  <v>0.171195</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.219663</v>
+                  <v>0.170385</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.219014</v>
+                  <v>0.16947</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.21802</v>
+                  <v>0.169146</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.217046</v>
+                  <v>0.167972</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.216342</v>
+                  <v>0.167047</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.215854</v>
+                  <v>0.166171</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.229763</v>
+                  <v>0.182408</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.228245</v>
+                  <v>0.180152</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.226658</v>
+                  <v>0.179135</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.225711</v>
+                  <v>0.177671</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.224436</v>
+                  <v>0.176913</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.223405</v>
+                  <v>0.175601</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.222302</v>
+                  <v>0.175113</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.22123</v>
+                  <v>0.173758</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.220403</v>
+                  <v>0.172944</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.219849</v>
+                  <v>0.172182</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.218845</v>
+                  <v>0.170881</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.217926</v>
+                  <v>0.170105</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.217302</v>
+                  <v>0.169022</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.216228</v>
+                  <v>0.167998</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.215748</v>
+                  <v>0.166696</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.229059</v>
+                  <v>0.182395</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.227574</v>
+                  <v>0.181008</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.226449</v>
+                  <v>0.179806</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.22552</v>
+                  <v>0.17875</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.224386</v>
+                  <v>0.177572</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.223346</v>
+                  <v>0.176431</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.222174</v>
+                  <v>0.175317</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.221052</v>
+                  <v>0.174244</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.220193</v>
+                  <v>0.173258</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.219293</v>
+                  <v>0.172136</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.218512</v>
+                  <v>0.171204</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.217698</v>
+                  <v>0.1701</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.216983</v>
+                  <v>0.168996</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.215886</v>
+                  <v>0.167839</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.231128</v>
+                  <v>0.183252</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.229816</v>
+                  <v>0.181965</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228207</v>
+                  <v>0.1809</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.226759</v>
+                  <v>0.17956</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.225621</v>
+                  <v>0.178444</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.224178</v>
+                  <v>0.177204</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.223074</v>
+                  <v>0.176229</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.221867</v>
+                  <v>0.175094</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.220973</v>
+                  <v>0.173923</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.22015</v>
+                  <v>0.172914</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.219205</v>
+                  <v>0.171849</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.218341</v>
+                  <v>0.170806</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.217394</v>
+                  <v>0.169616</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.216569</v>
+                  <v>0.168566</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.238485</v>
+                  <v>0.183672</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.233573</v>
+                  <v>0.182468</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.230278</v>
+                  <v>0.181136</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.227726</v>
+                  <v>0.179973</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.225567</v>
+                  <v>0.178796</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.224477</v>
+                  <v>0.177617</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.223515</v>
+                  <v>0.176429</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.222424</v>
+                  <v>0.17535</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.221344</v>
+                  <v>0.174264</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.220256</v>
+                  <v>0.173141</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.219415</v>
+                  <v>0.172009</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.218492</v>
+                  <v>0.17091</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.217706</v>
+                  <v>0.169647</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.216915</v>
+                  <v>0.168518</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.235879</v>
+                  <v>0.184283</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.232276</v>
+                  <v>0.182809</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.229777</v>
+                  <v>0.181471</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.227738</v>
+                  <v>0.18041</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.226186</v>
+                  <v>0.179197</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.224924</v>
+                  <v>0.177969</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.223825</v>
+                  <v>0.176773</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.222639</v>
+                  <v>0.175576</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.221594</v>
+                  <v>0.174482</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.220637</v>
+                  <v>0.173485</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.219782</v>
+                  <v>0.172365</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.218899</v>
+                  <v>0.171213</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.218093</v>
+                  <v>0.170121</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.217262</v>
+                  <v>0.168956</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.216542</v>
+                  <v>0.167807</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.233106</v>
+                  <v>0.183413</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.230117</v>
+                  <v>0.181973</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.227957</v>
+                  <v>0.180669</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.226393</v>
+                  <v>0.17938</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.224926</v>
+                  <v>0.178213</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.223667</v>
+                  <v>0.177024</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.223096</v>
+                  <v>0.1759</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.221964</v>
+                  <v>0.174756</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.221041</v>
+                  <v>0.173618</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.220161</v>
+                  <v>0.172618</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.219251</v>
+                  <v>0.171472</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.218443</v>
+                  <v>0.170374</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.217652</v>
+                  <v>0.169252</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.216747</v>
+                  <v>0.167996</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.233339</v>
+                  <v>0.183665</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.230313</v>
+                  <v>0.182248</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.228265</v>
+                  <v>0.180916</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.226554</v>
+                  <v>0.179671</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.225147</v>
+                  <v>0.178468</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.223895</v>
+                  <v>0.177247</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.222836</v>
+                  <v>0.176109</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.221859</v>
+                  <v>0.174977</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.220818</v>
+                  <v>0.173851</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.219893</v>
+                  <v>0.172825</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.219067</v>
+                  <v>0.171717</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.218239</v>
+                  <v>0.170493</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.217829</v>
+                  <v>0.16948</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.21699</v>
+                  <v>0.168276</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.234758</v>
+                  <v>0.194016</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.231578</v>
+                  <v>0.191328</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.229123</v>
+                  <v>0.189598</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.227302</v>
+                  <v>0.188097</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.225811</v>
+                  <v>0.186404</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.22452</v>
+                  <v>0.18492</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2341,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.209873</v>
+                  <v>0.160011</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.211012</v>
+                  <v>0.159645</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.210745</v>
+                  <v>0.160429</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.211549</v>
+                  <v>0.16075</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.212704</v>
+                  <v>0.160315</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.211818</v>
+                  <v>0.159973</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.212862</v>
+                  <v>0.160079</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.227673</v>
+                  <v>0.168025</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.226193</v>
+                  <v>0.168796</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.226517</v>
+                  <v>0.167658</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.225181</v>
+                  <v>0.168587</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.224215</v>
+                  <v>0.167476</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.224629</v>
+                  <v>0.167025</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.224124</v>
+                  <v>0.166834</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.22305</v>
+                  <v>0.166437</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.222995</v>
+                  <v>0.165414</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.221534</v>
+                  <v>0.165111</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.221762</v>
+                  <v>0.165088</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.221599</v>
+                  <v>0.165158</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.220998</v>
+                  <v>0.165465</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.21979</v>
+                  <v>0.163999</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.233436</v>
+                  <v>0.183329</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.232471</v>
+                  <v>0.179675</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.231226</v>
+                  <v>0.178149</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.230275</v>
+                  <v>0.177462</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.229388</v>
+                  <v>0.17597</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.228411</v>
+                  <v>0.175113</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.227283</v>
+                  <v>0.174344</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.226614</v>
+                  <v>0.173993</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.225598</v>
+                  <v>0.171814</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.225321</v>
+                  <v>0.170931</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.224224</v>
+                  <v>0.170148</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.223667</v>
+                  <v>0.169615</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.222733</v>
+                  <v>0.168269</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.222081</v>
+                  <v>0.16735</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.235696</v>
+                  <v>0.184032</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.234257</v>
+                  <v>0.182749</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.233102</v>
+                  <v>0.181447</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.231628</v>
+                  <v>0.179598</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.230805</v>
+                  <v>0.178697</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.229469</v>
+                  <v>0.177654</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.228368</v>
+                  <v>0.176255</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.227503</v>
+                  <v>0.175428</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.226573</v>
+                  <v>0.17424</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.225474</v>
+                  <v>0.172949</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.224613</v>
+                  <v>0.171806</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.223838</v>
+                  <v>0.170594</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.223185</v>
+                  <v>0.170093</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.222298</v>
+                  <v>0.168872</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.236836</v>
+                  <v>0.185726</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.235449</v>
+                  <v>0.183999</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.234269</v>
+                  <v>0.182938</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.232952</v>
+                  <v>0.181135</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.231637</v>
+                  <v>0.179973</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.230491</v>
+                  <v>0.178698</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.229579</v>
+                  <v>0.177695</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.22827</v>
+                  <v>0.176204</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.227342</v>
+                  <v>0.175252</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.226352</v>
+                  <v>0.174049</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.225524</v>
+                  <v>0.172976</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.22462</v>
+                  <v>0.171947</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.223724</v>
+                  <v>0.170843</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.222897</v>
+                  <v>0.169567</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.222256</v>
+                  <v>0.168423</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.236524</v>
+                  <v>0.18501</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.234957</v>
+                  <v>0.183444</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.23352</v>
+                  <v>0.182209</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.232314</v>
+                  <v>0.180939</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.231079</v>
+                  <v>0.179538</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.230032</v>
+                  <v>0.178374</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.228745</v>
+                  <v>0.177105</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.227756</v>
+                  <v>0.176068</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.226814</v>
+                  <v>0.17492</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.225878</v>
+                  <v>0.173763</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.225063</v>
+                  <v>0.172585</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.224187</v>
+                  <v>0.171417</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.223308</v>
+                  <v>0.170196</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.222776</v>
+                  <v>0.168965</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.238898</v>
+                  <v>0.185483</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.236543</v>
+                  <v>0.184099</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.234982</v>
+                  <v>0.182697</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.233183</v>
+                  <v>0.181365</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.231928</v>
+                  <v>0.180176</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.230557</v>
+                  <v>0.178976</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.229474</v>
+                  <v>0.177749</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.228263</v>
+                  <v>0.176552</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.22724</v>
+                  <v>0.175408</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.226241</v>
+                  <v>0.174248</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.225489</v>
+                  <v>0.172985</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.224505</v>
+                  <v>0.171824</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.223735</v>
+                  <v>0.170566</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.222895</v>
+                  <v>0.169184</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.239711</v>
+                  <v>0.185985</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.237182</v>
+                  <v>0.184496</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.235335</v>
+                  <v>0.183031</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.233933</v>
+                  <v>0.181718</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.232964</v>
+                  <v>0.180566</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.231522</v>
+                  <v>0.179185</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.230428</v>
+                  <v>0.177916</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.228937</v>
+                  <v>0.176813</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227841</v>
+                  <v>0.175551</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.226936</v>
+                  <v>0.174353</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.226475</v>
+                  <v>0.173202</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.22552</v>
+                  <v>0.171937</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.22466</v>
+                  <v>0.17075</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.223865</v>
+                  <v>0.169515</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.239576</v>
+                  <v>0.186463</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.237213</v>
+                  <v>0.184955</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.235342</v>
+                  <v>0.18356</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.233703</v>
+                  <v>0.182079</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.232291</v>
+                  <v>0.180726</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.230896</v>
+                  <v>0.17949</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.229691</v>
+                  <v>0.178267</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.22859</v>
+                  <v>0.177074</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.227856</v>
+                  <v>0.175816</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.226983</v>
+                  <v>0.174614</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.226085</v>
+                  <v>0.173493</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.225282</v>
+                  <v>0.172224</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.224461</v>
+                  <v>0.171118</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.223722</v>
+                  <v>0.169817</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.223001</v>
+                  <v>0.168563</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.237285</v>
+                  <v>0.18529</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.235374</v>
+                  <v>0.183782</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.2337</v>
+                  <v>0.182436</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.232315</v>
+                  <v>0.181045</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.230895</v>
+                  <v>0.17969</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.229728</v>
+                  <v>0.178501</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.228673</v>
+                  <v>0.177279</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.227668</v>
+                  <v>0.176081</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.226699</v>
+                  <v>0.174818</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.225807</v>
+                  <v>0.173736</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.224951</v>
+                  <v>0.1725</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.224143</v>
+                  <v>0.17131</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.223409</v>
+                  <v>0.170121</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.223041</v>
+                  <v>0.168793</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.238591</v>
+                  <v>0.194838</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.236406</v>
+                  <v>0.192446</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.234698</v>
+                  <v>0.189943</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.233163</v>
+                  <v>0.188461</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.231711</v>
+                  <v>0.187379</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.230522</v>
+                  <v>0.18564</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.229318</v>
+                  <v>0.184108</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2825,7 +2824,7 @@
         <axId val="163989376"/>
         <scaling>
           <orientation val="minMax"/>
-          <max val="0.4"/>
+          <max val="0.3"/>
         </scaling>
         <delete val="0"/>
         <axPos val="l"/>
@@ -3223,8 +3222,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="6" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="7" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3249,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.204806</v>
+        <v>0.207087</v>
       </c>
       <c r="C2" t="n">
-        <v>0.222686</v>
+        <v>0.21276</v>
       </c>
       <c r="D2" t="n">
-        <v>0.218683</v>
+        <v>0.214676</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.202199</v>
+        <v>0.201814</v>
       </c>
       <c r="C3" t="n">
-        <v>0.213523</v>
+        <v>0.216147</v>
       </c>
       <c r="D3" t="n">
-        <v>0.221341</v>
+        <v>0.215043</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.204782</v>
+        <v>0.197987</v>
       </c>
       <c r="C4" t="n">
-        <v>0.218551</v>
+        <v>0.210663</v>
       </c>
       <c r="D4" t="n">
-        <v>0.219973</v>
+        <v>0.212523</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.196298</v>
+        <v>0.1941</v>
       </c>
       <c r="C5" t="n">
-        <v>0.213145</v>
+        <v>0.211971</v>
       </c>
       <c r="D5" t="n">
-        <v>0.218311</v>
+        <v>0.21222</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.193089</v>
+        <v>0.191626</v>
       </c>
       <c r="C6" t="n">
-        <v>0.212985</v>
+        <v>0.209597</v>
       </c>
       <c r="D6" t="n">
-        <v>0.217346</v>
+        <v>0.209274</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.191694</v>
+        <v>0.187354</v>
       </c>
       <c r="C7" t="n">
-        <v>0.207747</v>
+        <v>0.214434</v>
       </c>
       <c r="D7" t="n">
-        <v>0.217401</v>
+        <v>0.211212</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.183141</v>
+        <v>0.185533</v>
       </c>
       <c r="C8" t="n">
-        <v>0.207034</v>
+        <v>0.212207</v>
       </c>
       <c r="D8" t="n">
-        <v>0.21369</v>
+        <v>0.213971</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.173842</v>
+        <v>0.175374</v>
       </c>
       <c r="C9" t="n">
-        <v>0.209945</v>
+        <v>0.225689</v>
       </c>
       <c r="D9" t="n">
-        <v>0.224894</v>
+        <v>0.222971</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.233699</v>
+        <v>0.22772</v>
       </c>
       <c r="C10" t="n">
-        <v>0.223922</v>
+        <v>0.219139</v>
       </c>
       <c r="D10" t="n">
-        <v>0.22259</v>
+        <v>0.217532</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.227304</v>
+        <v>0.223256</v>
       </c>
       <c r="C11" t="n">
-        <v>0.222226</v>
+        <v>0.21847</v>
       </c>
       <c r="D11" t="n">
-        <v>0.224764</v>
+        <v>0.221428</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.222148</v>
+        <v>0.220316</v>
       </c>
       <c r="C12" t="n">
-        <v>0.221252</v>
+        <v>0.221969</v>
       </c>
       <c r="D12" t="n">
-        <v>0.220132</v>
+        <v>0.220568</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.217793</v>
+        <v>0.215607</v>
       </c>
       <c r="C13" t="n">
-        <v>0.215135</v>
+        <v>0.21855</v>
       </c>
       <c r="D13" t="n">
-        <v>0.219671</v>
+        <v>0.221358</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.218308</v>
+        <v>0.215225</v>
       </c>
       <c r="C14" t="n">
-        <v>0.216459</v>
+        <v>0.217871</v>
       </c>
       <c r="D14" t="n">
-        <v>0.218041</v>
+        <v>0.216419</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.211608</v>
+        <v>0.210599</v>
       </c>
       <c r="C15" t="n">
-        <v>0.216969</v>
+        <v>0.216278</v>
       </c>
       <c r="D15" t="n">
-        <v>0.217106</v>
+        <v>0.215925</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.207509</v>
+        <v>0.206942</v>
       </c>
       <c r="C16" t="n">
-        <v>0.212989</v>
+        <v>0.215044</v>
       </c>
       <c r="D16" t="n">
-        <v>0.219504</v>
+        <v>0.217443</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.208019</v>
+        <v>0.206003</v>
       </c>
       <c r="C17" t="n">
-        <v>0.213638</v>
+        <v>0.214158</v>
       </c>
       <c r="D17" t="n">
-        <v>0.217348</v>
+        <v>0.216803</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.202272</v>
+        <v>0.204047</v>
       </c>
       <c r="C18" t="n">
-        <v>0.21311</v>
+        <v>0.213809</v>
       </c>
       <c r="D18" t="n">
-        <v>0.216835</v>
+        <v>0.218335</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.197596</v>
+        <v>0.199363</v>
       </c>
       <c r="C19" t="n">
-        <v>0.212777</v>
+        <v>0.215781</v>
       </c>
       <c r="D19" t="n">
-        <v>0.216669</v>
+        <v>0.217436</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.196492</v>
+        <v>0.196081</v>
       </c>
       <c r="C20" t="n">
-        <v>0.21608</v>
+        <v>0.212229</v>
       </c>
       <c r="D20" t="n">
-        <v>0.217655</v>
+        <v>0.214303</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.192248</v>
+        <v>0.193302</v>
       </c>
       <c r="C21" t="n">
-        <v>0.210053</v>
+        <v>0.217651</v>
       </c>
       <c r="D21" t="n">
-        <v>0.220474</v>
+        <v>0.222074</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.185752</v>
+        <v>0.186838</v>
       </c>
       <c r="C22" t="n">
-        <v>0.213377</v>
+        <v>0.215686</v>
       </c>
       <c r="D22" t="n">
-        <v>0.21459</v>
+        <v>0.2168</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.178975</v>
+        <v>0.180926</v>
       </c>
       <c r="C23" t="n">
-        <v>0.207424</v>
+        <v>0.227862</v>
       </c>
       <c r="D23" t="n">
-        <v>0.225713</v>
+        <v>0.229887</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.233517</v>
+        <v>0.236011</v>
       </c>
       <c r="C24" t="n">
-        <v>0.223732</v>
+        <v>0.225197</v>
       </c>
       <c r="D24" t="n">
-        <v>0.22286</v>
+        <v>0.226139</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.233864</v>
+        <v>0.230409</v>
       </c>
       <c r="C25" t="n">
-        <v>0.223414</v>
+        <v>0.224095</v>
       </c>
       <c r="D25" t="n">
-        <v>0.22699</v>
+        <v>0.225073</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.228511</v>
+        <v>0.232016</v>
       </c>
       <c r="C26" t="n">
-        <v>0.226393</v>
+        <v>0.223223</v>
       </c>
       <c r="D26" t="n">
-        <v>0.223179</v>
+        <v>0.222447</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.223779</v>
+        <v>0.225966</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2191</v>
+        <v>0.222425</v>
       </c>
       <c r="D27" t="n">
-        <v>0.224167</v>
+        <v>0.2237</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.219679</v>
+        <v>0.221488</v>
       </c>
       <c r="C28" t="n">
-        <v>0.219998</v>
+        <v>0.221211</v>
       </c>
       <c r="D28" t="n">
-        <v>0.221602</v>
+        <v>0.223651</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.217181</v>
+        <v>0.214153</v>
       </c>
       <c r="C29" t="n">
-        <v>0.217946</v>
+        <v>0.222063</v>
       </c>
       <c r="D29" t="n">
-        <v>0.218527</v>
+        <v>0.218693</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.215889</v>
+        <v>0.212756</v>
       </c>
       <c r="C30" t="n">
-        <v>0.218627</v>
+        <v>0.219013</v>
       </c>
       <c r="D30" t="n">
-        <v>0.222471</v>
+        <v>0.222146</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.210731</v>
+        <v>0.211591</v>
       </c>
       <c r="C31" t="n">
-        <v>0.217061</v>
+        <v>0.22289</v>
       </c>
       <c r="D31" t="n">
-        <v>0.220909</v>
+        <v>0.221499</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.208881</v>
+        <v>0.207044</v>
       </c>
       <c r="C32" t="n">
-        <v>0.216989</v>
+        <v>0.216341</v>
       </c>
       <c r="D32" t="n">
-        <v>0.218508</v>
+        <v>0.222726</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.204467</v>
+        <v>0.203582</v>
       </c>
       <c r="C33" t="n">
-        <v>0.214834</v>
+        <v>0.219591</v>
       </c>
       <c r="D33" t="n">
-        <v>0.217979</v>
+        <v>0.21689</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.199566</v>
+        <v>0.200404</v>
       </c>
       <c r="C34" t="n">
-        <v>0.21137</v>
+        <v>0.218081</v>
       </c>
       <c r="D34" t="n">
-        <v>0.213796</v>
+        <v>0.216426</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.199481</v>
+        <v>0.19555</v>
       </c>
       <c r="C35" t="n">
-        <v>0.214191</v>
+        <v>0.21577</v>
       </c>
       <c r="D35" t="n">
-        <v>0.213205</v>
+        <v>0.216595</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.190236</v>
+        <v>0.189242</v>
       </c>
       <c r="C36" t="n">
-        <v>0.211725</v>
+        <v>0.211299</v>
       </c>
       <c r="D36" t="n">
-        <v>0.215243</v>
+        <v>0.212732</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.184332</v>
+        <v>0.184407</v>
       </c>
       <c r="C37" t="n">
-        <v>0.207767</v>
+        <v>0.231123</v>
       </c>
       <c r="D37" t="n">
-        <v>0.242781</v>
+        <v>0.244759</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.241579</v>
+        <v>0.242115</v>
       </c>
       <c r="C38" t="n">
-        <v>0.240585</v>
+        <v>0.232692</v>
       </c>
       <c r="D38" t="n">
-        <v>0.23802</v>
+        <v>0.239685</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.23541</v>
+        <v>0.235144</v>
       </c>
       <c r="C39" t="n">
-        <v>0.237904</v>
+        <v>0.230085</v>
       </c>
       <c r="D39" t="n">
-        <v>0.23787</v>
+        <v>0.238807</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232081</v>
+        <v>0.230616</v>
       </c>
       <c r="C40" t="n">
-        <v>0.234781</v>
+        <v>0.226159</v>
       </c>
       <c r="D40" t="n">
-        <v>0.236159</v>
+        <v>0.235681</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.228448</v>
+        <v>0.228433</v>
       </c>
       <c r="C41" t="n">
-        <v>0.232751</v>
+        <v>0.226931</v>
       </c>
       <c r="D41" t="n">
-        <v>0.233453</v>
+        <v>0.234042</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.225001</v>
+        <v>0.226122</v>
       </c>
       <c r="C42" t="n">
-        <v>0.231554</v>
+        <v>0.226056</v>
       </c>
       <c r="D42" t="n">
-        <v>0.236515</v>
+        <v>0.231509</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.220219</v>
+        <v>0.222733</v>
       </c>
       <c r="C43" t="n">
-        <v>0.23299</v>
+        <v>0.2248</v>
       </c>
       <c r="D43" t="n">
-        <v>0.230348</v>
+        <v>0.228744</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.214894</v>
+        <v>0.218405</v>
       </c>
       <c r="C44" t="n">
-        <v>0.22528</v>
+        <v>0.221992</v>
       </c>
       <c r="D44" t="n">
-        <v>0.229402</v>
+        <v>0.230647</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.211789</v>
+        <v>0.213029</v>
       </c>
       <c r="C45" t="n">
-        <v>0.227422</v>
+        <v>0.220941</v>
       </c>
       <c r="D45" t="n">
-        <v>0.22754</v>
+        <v>0.227547</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.210749</v>
+        <v>0.210008</v>
       </c>
       <c r="C46" t="n">
-        <v>0.226054</v>
+        <v>0.221144</v>
       </c>
       <c r="D46" t="n">
-        <v>0.226308</v>
+        <v>0.227546</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.205745</v>
+        <v>0.207101</v>
       </c>
       <c r="C47" t="n">
-        <v>0.21853</v>
+        <v>0.217776</v>
       </c>
       <c r="D47" t="n">
-        <v>0.224316</v>
+        <v>0.229279</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.203733</v>
+        <v>0.200842</v>
       </c>
       <c r="C48" t="n">
-        <v>0.220935</v>
+        <v>0.217954</v>
       </c>
       <c r="D48" t="n">
-        <v>0.224336</v>
+        <v>0.220653</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.199065</v>
+        <v>0.196984</v>
       </c>
       <c r="C49" t="n">
-        <v>0.218818</v>
+        <v>0.219114</v>
       </c>
       <c r="D49" t="n">
-        <v>0.226248</v>
+        <v>0.222909</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.194763</v>
+        <v>0.195185</v>
       </c>
       <c r="C50" t="n">
-        <v>0.218574</v>
+        <v>0.215774</v>
       </c>
       <c r="D50" t="n">
-        <v>0.219368</v>
+        <v>0.223451</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.187189</v>
+        <v>0.18769</v>
       </c>
       <c r="C51" t="n">
-        <v>0.217306</v>
+        <v>0.244182</v>
       </c>
       <c r="D51" t="n">
-        <v>0.242758</v>
+        <v>0.243795</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.178206</v>
+        <v>0.179124</v>
       </c>
       <c r="C52" t="n">
-        <v>0.213417</v>
+        <v>0.236899</v>
       </c>
       <c r="D52" t="n">
-        <v>0.242227</v>
+        <v>0.244876</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.245572</v>
+        <v>0.243405</v>
       </c>
       <c r="C53" t="n">
-        <v>0.237202</v>
+        <v>0.234992</v>
       </c>
       <c r="D53" t="n">
-        <v>0.238181</v>
+        <v>0.239921</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.241079</v>
+        <v>0.242087</v>
       </c>
       <c r="C54" t="n">
-        <v>0.232646</v>
+        <v>0.234313</v>
       </c>
       <c r="D54" t="n">
-        <v>0.23459</v>
+        <v>0.23796</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.23707</v>
+        <v>0.233779</v>
       </c>
       <c r="C55" t="n">
-        <v>0.233344</v>
+        <v>0.234705</v>
       </c>
       <c r="D55" t="n">
-        <v>0.235891</v>
+        <v>0.236757</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.233876</v>
+        <v>0.231604</v>
       </c>
       <c r="C56" t="n">
-        <v>0.232222</v>
+        <v>0.23208</v>
       </c>
       <c r="D56" t="n">
-        <v>0.234852</v>
+        <v>0.235036</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.225528</v>
+        <v>0.224235</v>
       </c>
       <c r="C57" t="n">
-        <v>0.229485</v>
+        <v>0.225389</v>
       </c>
       <c r="D57" t="n">
-        <v>0.230436</v>
+        <v>0.227401</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.225581</v>
+        <v>0.218206</v>
       </c>
       <c r="C58" t="n">
-        <v>0.226535</v>
+        <v>0.222265</v>
       </c>
       <c r="D58" t="n">
-        <v>0.229574</v>
+        <v>0.22603</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.219715</v>
+        <v>0.216645</v>
       </c>
       <c r="C59" t="n">
-        <v>0.227064</v>
+        <v>0.223099</v>
       </c>
       <c r="D59" t="n">
-        <v>0.228525</v>
+        <v>0.223601</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.215359</v>
+        <v>0.210042</v>
       </c>
       <c r="C60" t="n">
-        <v>0.225084</v>
+        <v>0.219619</v>
       </c>
       <c r="D60" t="n">
-        <v>0.226946</v>
+        <v>0.223159</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.21291</v>
+        <v>0.206562</v>
       </c>
       <c r="C61" t="n">
-        <v>0.222978</v>
+        <v>0.218042</v>
       </c>
       <c r="D61" t="n">
-        <v>0.225893</v>
+        <v>0.221785</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.208457</v>
+        <v>0.205728</v>
       </c>
       <c r="C62" t="n">
-        <v>0.223345</v>
+        <v>0.219474</v>
       </c>
       <c r="D62" t="n">
-        <v>0.223282</v>
+        <v>0.220561</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.202314</v>
+        <v>0.199484</v>
       </c>
       <c r="C63" t="n">
-        <v>0.217893</v>
+        <v>0.217591</v>
       </c>
       <c r="D63" t="n">
-        <v>0.222631</v>
+        <v>0.218999</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.199861</v>
+        <v>0.19349</v>
       </c>
       <c r="C64" t="n">
-        <v>0.21669</v>
+        <v>0.217542</v>
       </c>
       <c r="D64" t="n">
-        <v>0.219579</v>
+        <v>0.217107</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.194303</v>
+        <v>0.187585</v>
       </c>
       <c r="C65" t="n">
-        <v>0.216032</v>
+        <v>0.215372</v>
       </c>
       <c r="D65" t="n">
-        <v>0.224094</v>
+        <v>0.220617</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.186755</v>
+        <v>0.181687</v>
       </c>
       <c r="C66" t="n">
-        <v>0.217499</v>
+        <v>0.237039</v>
       </c>
       <c r="D66" t="n">
-        <v>0.248154</v>
+        <v>0.239014</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.251512</v>
+        <v>0.249069</v>
       </c>
       <c r="C67" t="n">
-        <v>0.241411</v>
+        <v>0.234953</v>
       </c>
       <c r="D67" t="n">
-        <v>0.244715</v>
+        <v>0.237725</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.248065</v>
+        <v>0.244416</v>
       </c>
       <c r="C68" t="n">
-        <v>0.23879</v>
+        <v>0.234465</v>
       </c>
       <c r="D68" t="n">
-        <v>0.242887</v>
+        <v>0.235924</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.248368</v>
+        <v>0.236922</v>
       </c>
       <c r="C69" t="n">
-        <v>0.240064</v>
+        <v>0.232039</v>
       </c>
       <c r="D69" t="n">
-        <v>0.242646</v>
+        <v>0.23236</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.239613</v>
+        <v>0.236003</v>
       </c>
       <c r="C70" t="n">
-        <v>0.238914</v>
+        <v>0.232049</v>
       </c>
       <c r="D70" t="n">
-        <v>0.239176</v>
+        <v>0.231724</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.234745</v>
+        <v>0.235003</v>
       </c>
       <c r="C71" t="n">
-        <v>0.232591</v>
+        <v>0.230565</v>
       </c>
       <c r="D71" t="n">
-        <v>0.23466</v>
+        <v>0.231296</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.229749</v>
+        <v>0.223132</v>
       </c>
       <c r="C72" t="n">
-        <v>0.231043</v>
+        <v>0.225997</v>
       </c>
       <c r="D72" t="n">
-        <v>0.233668</v>
+        <v>0.229954</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.227153</v>
+        <v>0.218485</v>
       </c>
       <c r="C73" t="n">
-        <v>0.230787</v>
+        <v>0.225259</v>
       </c>
       <c r="D73" t="n">
-        <v>0.231857</v>
+        <v>0.22672</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.220745</v>
+        <v>0.214142</v>
       </c>
       <c r="C74" t="n">
-        <v>0.226525</v>
+        <v>0.224132</v>
       </c>
       <c r="D74" t="n">
-        <v>0.230284</v>
+        <v>0.225443</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.220571</v>
+        <v>0.210301</v>
       </c>
       <c r="C75" t="n">
-        <v>0.22663</v>
+        <v>0.224475</v>
       </c>
       <c r="D75" t="n">
-        <v>0.230209</v>
+        <v>0.227059</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.214055</v>
+        <v>0.215258</v>
       </c>
       <c r="C76" t="n">
-        <v>0.224769</v>
+        <v>0.225111</v>
       </c>
       <c r="D76" t="n">
-        <v>0.228618</v>
+        <v>0.22698</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.207664</v>
+        <v>0.210381</v>
       </c>
       <c r="C77" t="n">
-        <v>0.223511</v>
+        <v>0.228218</v>
       </c>
       <c r="D77" t="n">
-        <v>0.229432</v>
+        <v>0.229419</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.202442</v>
+        <v>0.207491</v>
       </c>
       <c r="C78" t="n">
-        <v>0.220594</v>
+        <v>0.223975</v>
       </c>
       <c r="D78" t="n">
-        <v>0.225274</v>
+        <v>0.225394</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.2008</v>
+        <v>0.201059</v>
       </c>
       <c r="C79" t="n">
-        <v>0.219217</v>
+        <v>0.224539</v>
       </c>
       <c r="D79" t="n">
-        <v>0.225138</v>
+        <v>0.224921</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.189597</v>
+        <v>0.194538</v>
       </c>
       <c r="C80" t="n">
-        <v>0.221473</v>
+        <v>0.251225</v>
       </c>
       <c r="D80" t="n">
-        <v>0.257864</v>
+        <v>0.253582</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.259952</v>
+        <v>0.264078</v>
       </c>
       <c r="C81" t="n">
-        <v>0.254155</v>
+        <v>0.249108</v>
       </c>
       <c r="D81" t="n">
-        <v>0.250541</v>
+        <v>0.2505</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.253991</v>
+        <v>0.25797</v>
       </c>
       <c r="C82" t="n">
-        <v>0.244647</v>
+        <v>0.246122</v>
       </c>
       <c r="D82" t="n">
-        <v>0.249644</v>
+        <v>0.248594</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.252945</v>
+        <v>0.24933</v>
       </c>
       <c r="C83" t="n">
-        <v>0.245</v>
+        <v>0.244018</v>
       </c>
       <c r="D83" t="n">
-        <v>0.245372</v>
+        <v>0.245986</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.245012</v>
+        <v>0.24469</v>
       </c>
       <c r="C84" t="n">
-        <v>0.240265</v>
+        <v>0.240755</v>
       </c>
       <c r="D84" t="n">
-        <v>0.243618</v>
+        <v>0.245526</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.240254</v>
+        <v>0.237356</v>
       </c>
       <c r="C85" t="n">
-        <v>0.239768</v>
+        <v>0.238436</v>
       </c>
       <c r="D85" t="n">
-        <v>0.24017</v>
+        <v>0.243346</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.236667</v>
+        <v>0.235989</v>
       </c>
       <c r="C86" t="n">
-        <v>0.237955</v>
+        <v>0.239174</v>
       </c>
       <c r="D86" t="n">
-        <v>0.238168</v>
+        <v>0.240903</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.229885</v>
+        <v>0.230513</v>
       </c>
       <c r="C87" t="n">
-        <v>0.235548</v>
+        <v>0.237286</v>
       </c>
       <c r="D87" t="n">
-        <v>0.238949</v>
+        <v>0.237977</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.22441</v>
+        <v>0.226974</v>
       </c>
       <c r="C88" t="n">
-        <v>0.231979</v>
+        <v>0.232815</v>
       </c>
       <c r="D88" t="n">
-        <v>0.235828</v>
+        <v>0.23584</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.221891</v>
+        <v>0.219914</v>
       </c>
       <c r="C89" t="n">
-        <v>0.232414</v>
+        <v>0.23422</v>
       </c>
       <c r="D89" t="n">
-        <v>0.233301</v>
+        <v>0.23417</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.218952</v>
+        <v>0.215944</v>
       </c>
       <c r="C90" t="n">
-        <v>0.230329</v>
+        <v>0.231625</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2336</v>
+        <v>0.230862</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.212741</v>
+        <v>0.215032</v>
       </c>
       <c r="C91" t="n">
-        <v>0.228335</v>
+        <v>0.230217</v>
       </c>
       <c r="D91" t="n">
-        <v>0.229897</v>
+        <v>0.232005</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.210083</v>
+        <v>0.207129</v>
       </c>
       <c r="C92" t="n">
-        <v>0.225437</v>
+        <v>0.227901</v>
       </c>
       <c r="D92" t="n">
-        <v>0.230826</v>
+        <v>0.23264</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.202816</v>
+        <v>0.203546</v>
       </c>
       <c r="C93" t="n">
-        <v>0.22267</v>
+        <v>0.227317</v>
       </c>
       <c r="D93" t="n">
-        <v>0.228445</v>
+        <v>0.227849</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.196894</v>
+        <v>0.197316</v>
       </c>
       <c r="C94" t="n">
-        <v>0.226524</v>
+        <v>0.255061</v>
       </c>
       <c r="D94" t="n">
-        <v>0.257634</v>
+        <v>0.253065</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.264031</v>
+        <v>0.261875</v>
       </c>
       <c r="C95" t="n">
-        <v>0.249833</v>
+        <v>0.249912</v>
       </c>
       <c r="D95" t="n">
-        <v>0.254015</v>
+        <v>0.251998</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.258072</v>
+        <v>0.256922</v>
       </c>
       <c r="C96" t="n">
-        <v>0.250302</v>
+        <v>0.248029</v>
       </c>
       <c r="D96" t="n">
-        <v>0.254211</v>
+        <v>0.249833</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.252678</v>
+        <v>0.254161</v>
       </c>
       <c r="C97" t="n">
-        <v>0.244935</v>
+        <v>0.248222</v>
       </c>
       <c r="D97" t="n">
-        <v>0.244852</v>
+        <v>0.248641</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.25084</v>
+        <v>0.24688</v>
       </c>
       <c r="C98" t="n">
-        <v>0.246338</v>
+        <v>0.244425</v>
       </c>
       <c r="D98" t="n">
-        <v>0.245395</v>
+        <v>0.247014</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.242766</v>
+        <v>0.239754</v>
       </c>
       <c r="C99" t="n">
-        <v>0.242701</v>
+        <v>0.240267</v>
       </c>
       <c r="D99" t="n">
-        <v>0.24196</v>
+        <v>0.240719</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.237856</v>
+        <v>0.236247</v>
       </c>
       <c r="C100" t="n">
-        <v>0.236896</v>
+        <v>0.241099</v>
       </c>
       <c r="D100" t="n">
-        <v>0.241382</v>
+        <v>0.238533</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.231816</v>
+        <v>0.233066</v>
       </c>
       <c r="C101" t="n">
-        <v>0.23698</v>
+        <v>0.23863</v>
       </c>
       <c r="D101" t="n">
-        <v>0.238583</v>
+        <v>0.239489</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.230038</v>
+        <v>0.226494</v>
       </c>
       <c r="C102" t="n">
-        <v>0.237395</v>
+        <v>0.234492</v>
       </c>
       <c r="D102" t="n">
-        <v>0.236386</v>
+        <v>0.237929</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.225802</v>
+        <v>0.223431</v>
       </c>
       <c r="C103" t="n">
-        <v>0.236097</v>
+        <v>0.233748</v>
       </c>
       <c r="D103" t="n">
-        <v>0.234109</v>
+        <v>0.23377</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.219841</v>
+        <v>0.219598</v>
       </c>
       <c r="C104" t="n">
-        <v>0.230335</v>
+        <v>0.231892</v>
       </c>
       <c r="D104" t="n">
-        <v>0.23531</v>
+        <v>0.232857</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.215745</v>
+        <v>0.212268</v>
       </c>
       <c r="C105" t="n">
-        <v>0.227316</v>
+        <v>0.22793</v>
       </c>
       <c r="D105" t="n">
-        <v>0.233415</v>
+        <v>0.231802</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.20938</v>
+        <v>0.210431</v>
       </c>
       <c r="C106" t="n">
-        <v>0.227156</v>
+        <v>0.230754</v>
       </c>
       <c r="D106" t="n">
-        <v>0.231024</v>
+        <v>0.232439</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.207578</v>
+        <v>0.203869</v>
       </c>
       <c r="C107" t="n">
-        <v>0.224366</v>
+        <v>0.226116</v>
       </c>
       <c r="D107" t="n">
-        <v>0.23382</v>
+        <v>0.229705</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.198107</v>
+        <v>0.195728</v>
       </c>
       <c r="C108" t="n">
-        <v>0.223542</v>
+        <v>0.255579</v>
       </c>
       <c r="D108" t="n">
-        <v>0.259548</v>
+        <v>0.258551</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.190099</v>
+        <v>0.187586</v>
       </c>
       <c r="C109" t="n">
-        <v>0.218434</v>
+        <v>0.257767</v>
       </c>
       <c r="D109" t="n">
-        <v>0.251676</v>
+        <v>0.254654</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.259501</v>
+        <v>0.258134</v>
       </c>
       <c r="C110" t="n">
-        <v>0.247987</v>
+        <v>0.25121</v>
       </c>
       <c r="D110" t="n">
-        <v>0.252481</v>
+        <v>0.256504</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.257028</v>
+        <v>0.255555</v>
       </c>
       <c r="C111" t="n">
-        <v>0.248279</v>
+        <v>0.247921</v>
       </c>
       <c r="D111" t="n">
-        <v>0.250046</v>
+        <v>0.248456</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.248842</v>
+        <v>0.255838</v>
       </c>
       <c r="C112" t="n">
-        <v>0.246784</v>
+        <v>0.246198</v>
       </c>
       <c r="D112" t="n">
-        <v>0.247328</v>
+        <v>0.244917</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.246255</v>
+        <v>0.244016</v>
       </c>
       <c r="C113" t="n">
-        <v>0.244251</v>
+        <v>0.240703</v>
       </c>
       <c r="D113" t="n">
-        <v>0.243251</v>
+        <v>0.247792</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.240066</v>
+        <v>0.236756</v>
       </c>
       <c r="C114" t="n">
-        <v>0.238492</v>
+        <v>0.238106</v>
       </c>
       <c r="D114" t="n">
-        <v>0.244618</v>
+        <v>0.241037</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.234219</v>
+        <v>0.236406</v>
       </c>
       <c r="C115" t="n">
-        <v>0.237992</v>
+        <v>0.23949</v>
       </c>
       <c r="D115" t="n">
-        <v>0.24308</v>
+        <v>0.238269</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.228485</v>
+        <v>0.22967</v>
       </c>
       <c r="C116" t="n">
-        <v>0.235713</v>
+        <v>0.234648</v>
       </c>
       <c r="D116" t="n">
-        <v>0.237897</v>
+        <v>0.237466</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.230221</v>
+        <v>0.224747</v>
       </c>
       <c r="C117" t="n">
-        <v>0.237729</v>
+        <v>0.23738</v>
       </c>
       <c r="D117" t="n">
-        <v>0.234445</v>
+        <v>0.234699</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.219106</v>
+        <v>0.224061</v>
       </c>
       <c r="C118" t="n">
-        <v>0.233854</v>
+        <v>0.234017</v>
       </c>
       <c r="D118" t="n">
-        <v>0.234783</v>
+        <v>0.238426</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.220042</v>
+        <v>0.217427</v>
       </c>
       <c r="C119" t="n">
-        <v>0.22929</v>
+        <v>0.227929</v>
       </c>
       <c r="D119" t="n">
-        <v>0.233161</v>
+        <v>0.236394</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.214041</v>
+        <v>0.214832</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2294</v>
+        <v>0.231032</v>
       </c>
       <c r="D120" t="n">
-        <v>0.231669</v>
+        <v>0.236053</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.208647</v>
+        <v>0.206345</v>
       </c>
       <c r="C121" t="n">
-        <v>0.229807</v>
+        <v>0.227536</v>
       </c>
       <c r="D121" t="n">
-        <v>0.228148</v>
+        <v>0.234103</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.200079</v>
+        <v>0.201037</v>
       </c>
       <c r="C122" t="n">
-        <v>0.225066</v>
+        <v>0.230099</v>
       </c>
       <c r="D122" t="n">
-        <v>0.231163</v>
+        <v>0.228777</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.190807</v>
+        <v>0.191985</v>
       </c>
       <c r="C123" t="n">
-        <v>0.222741</v>
+        <v>0.252103</v>
       </c>
       <c r="D123" t="n">
-        <v>0.254151</v>
+        <v>0.25803</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.26075</v>
+        <v>0.2626</v>
       </c>
       <c r="C124" t="n">
-        <v>0.254434</v>
+        <v>0.252574</v>
       </c>
       <c r="D124" t="n">
-        <v>0.250596</v>
+        <v>0.254733</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.260013</v>
+        <v>0.252063</v>
       </c>
       <c r="C125" t="n">
-        <v>0.248783</v>
+        <v>0.252903</v>
       </c>
       <c r="D125" t="n">
-        <v>0.252149</v>
+        <v>0.24821</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.255943</v>
+        <v>0.248444</v>
       </c>
       <c r="C126" t="n">
-        <v>0.250707</v>
+        <v>0.246091</v>
       </c>
       <c r="D126" t="n">
-        <v>0.247358</v>
+        <v>0.245896</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.24523</v>
+        <v>0.242459</v>
       </c>
       <c r="C127" t="n">
-        <v>0.244956</v>
+        <v>0.24536</v>
       </c>
       <c r="D127" t="n">
-        <v>0.247757</v>
+        <v>0.246181</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.242106</v>
+        <v>0.238006</v>
       </c>
       <c r="C128" t="n">
-        <v>0.243573</v>
+        <v>0.242577</v>
       </c>
       <c r="D128" t="n">
-        <v>0.240256</v>
+        <v>0.241155</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.236805</v>
+        <v>0.236424</v>
       </c>
       <c r="C129" t="n">
-        <v>0.236221</v>
+        <v>0.239463</v>
       </c>
       <c r="D129" t="n">
-        <v>0.23984</v>
+        <v>0.241329</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.229823</v>
+        <v>0.232547</v>
       </c>
       <c r="C130" t="n">
-        <v>0.240047</v>
+        <v>0.23531</v>
       </c>
       <c r="D130" t="n">
-        <v>0.241626</v>
+        <v>0.235632</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.230102</v>
+        <v>0.224406</v>
       </c>
       <c r="C131" t="n">
-        <v>0.232802</v>
+        <v>0.235225</v>
       </c>
       <c r="D131" t="n">
-        <v>0.237262</v>
+        <v>0.238881</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.223631</v>
+        <v>0.219936</v>
       </c>
       <c r="C132" t="n">
-        <v>0.23218</v>
+        <v>0.234169</v>
       </c>
       <c r="D132" t="n">
-        <v>0.235414</v>
+        <v>0.238396</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.222313</v>
+        <v>0.220339</v>
       </c>
       <c r="C133" t="n">
-        <v>0.229034</v>
+        <v>0.231392</v>
       </c>
       <c r="D133" t="n">
-        <v>0.236944</v>
+        <v>0.233983</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.212533</v>
+        <v>0.221291</v>
       </c>
       <c r="C134" t="n">
-        <v>0.228385</v>
+        <v>0.23094</v>
       </c>
       <c r="D134" t="n">
-        <v>0.232686</v>
+        <v>0.2309</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.206721</v>
+        <v>0.206452</v>
       </c>
       <c r="C135" t="n">
-        <v>0.228421</v>
+        <v>0.228437</v>
       </c>
       <c r="D135" t="n">
-        <v>0.23223</v>
+        <v>0.230168</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.199851</v>
+        <v>0.198497</v>
       </c>
       <c r="C136" t="n">
-        <v>0.225696</v>
+        <v>0.226039</v>
       </c>
       <c r="D136" t="n">
-        <v>0.229825</v>
+        <v>0.228499</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.193962</v>
+        <v>0.195245</v>
       </c>
       <c r="C137" t="n">
-        <v>0.228073</v>
+        <v>0.253472</v>
       </c>
       <c r="D137" t="n">
-        <v>0.255113</v>
+        <v>0.253735</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.266273</v>
+        <v>0.256469</v>
       </c>
       <c r="C138" t="n">
-        <v>0.250929</v>
+        <v>0.253516</v>
       </c>
       <c r="D138" t="n">
-        <v>0.248793</v>
+        <v>0.255491</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.257351</v>
+        <v>0.25928</v>
       </c>
       <c r="C139" t="n">
-        <v>0.248922</v>
+        <v>0.247737</v>
       </c>
       <c r="D139" t="n">
-        <v>0.257537</v>
+        <v>0.258451</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.251462</v>
+        <v>0.249019</v>
       </c>
       <c r="C140" t="n">
-        <v>0.24888</v>
+        <v>0.244557</v>
       </c>
       <c r="D140" t="n">
-        <v>0.250135</v>
+        <v>0.24298</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.244005</v>
+        <v>0.239663</v>
       </c>
       <c r="C141" t="n">
-        <v>0.241473</v>
+        <v>0.235869</v>
       </c>
       <c r="D141" t="n">
-        <v>0.244519</v>
+        <v>0.238029</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.241656</v>
+        <v>0.233764</v>
       </c>
       <c r="C142" t="n">
-        <v>0.24316</v>
+        <v>0.234267</v>
       </c>
       <c r="D142" t="n">
-        <v>0.24339</v>
+        <v>0.236966</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.238701</v>
+        <v>0.229614</v>
       </c>
       <c r="C143" t="n">
-        <v>0.240149</v>
+        <v>0.234704</v>
       </c>
       <c r="D143" t="n">
-        <v>0.24408</v>
+        <v>0.238038</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.20409</v>
+        <v>0.200963</v>
       </c>
       <c r="C2" t="n">
-        <v>0.215103</v>
+        <v>0.214471</v>
       </c>
       <c r="D2" t="n">
-        <v>0.21255</v>
+        <v>0.214316</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.201938</v>
+        <v>0.198831</v>
       </c>
       <c r="C3" t="n">
-        <v>0.211928</v>
+        <v>0.213763</v>
       </c>
       <c r="D3" t="n">
-        <v>0.214211</v>
+        <v>0.215488</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.198467</v>
+        <v>0.203319</v>
       </c>
       <c r="C4" t="n">
-        <v>0.216167</v>
+        <v>0.213149</v>
       </c>
       <c r="D4" t="n">
-        <v>0.217368</v>
+        <v>0.219336</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.199857</v>
+        <v>0.196397</v>
       </c>
       <c r="C5" t="n">
-        <v>0.216252</v>
+        <v>0.218671</v>
       </c>
       <c r="D5" t="n">
-        <v>0.220596</v>
+        <v>0.216482</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.194952</v>
+        <v>0.194401</v>
       </c>
       <c r="C6" t="n">
-        <v>0.212553</v>
+        <v>0.211161</v>
       </c>
       <c r="D6" t="n">
-        <v>0.216747</v>
+        <v>0.213385</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.189472</v>
+        <v>0.187823</v>
       </c>
       <c r="C7" t="n">
-        <v>0.213163</v>
+        <v>0.212001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.215598</v>
+        <v>0.211937</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.184423</v>
+        <v>0.18266</v>
       </c>
       <c r="C8" t="n">
-        <v>0.216711</v>
+        <v>0.214063</v>
       </c>
       <c r="D8" t="n">
-        <v>0.212455</v>
+        <v>0.2123</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.176063</v>
+        <v>0.173703</v>
       </c>
       <c r="C9" t="n">
-        <v>0.221924</v>
+        <v>0.221872</v>
       </c>
       <c r="D9" t="n">
-        <v>0.219793</v>
+        <v>0.222376</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.231105</v>
+        <v>0.227487</v>
       </c>
       <c r="C10" t="n">
-        <v>0.221083</v>
+        <v>0.22542</v>
       </c>
       <c r="D10" t="n">
-        <v>0.223075</v>
+        <v>0.226231</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.225462</v>
+        <v>0.223107</v>
       </c>
       <c r="C11" t="n">
-        <v>0.218372</v>
+        <v>0.220231</v>
       </c>
       <c r="D11" t="n">
-        <v>0.220837</v>
+        <v>0.221307</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2213</v>
+        <v>0.221819</v>
       </c>
       <c r="C12" t="n">
-        <v>0.217455</v>
+        <v>0.222004</v>
       </c>
       <c r="D12" t="n">
-        <v>0.216809</v>
+        <v>0.217936</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.215482</v>
+        <v>0.218343</v>
       </c>
       <c r="C13" t="n">
-        <v>0.215365</v>
+        <v>0.220373</v>
       </c>
       <c r="D13" t="n">
-        <v>0.220318</v>
+        <v>0.217764</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.214128</v>
+        <v>0.216859</v>
       </c>
       <c r="C14" t="n">
-        <v>0.220854</v>
+        <v>0.218409</v>
       </c>
       <c r="D14" t="n">
-        <v>0.216816</v>
+        <v>0.217086</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.213298</v>
+        <v>0.214046</v>
       </c>
       <c r="C15" t="n">
-        <v>0.216482</v>
+        <v>0.217496</v>
       </c>
       <c r="D15" t="n">
-        <v>0.217379</v>
+        <v>0.214585</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.204874</v>
+        <v>0.209592</v>
       </c>
       <c r="C16" t="n">
-        <v>0.213658</v>
+        <v>0.217791</v>
       </c>
       <c r="D16" t="n">
-        <v>0.223539</v>
+        <v>0.220393</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.203738</v>
+        <v>0.207946</v>
       </c>
       <c r="C17" t="n">
-        <v>0.216057</v>
+        <v>0.212844</v>
       </c>
       <c r="D17" t="n">
-        <v>0.219838</v>
+        <v>0.216518</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199605</v>
+        <v>0.204</v>
       </c>
       <c r="C18" t="n">
-        <v>0.212773</v>
+        <v>0.212326</v>
       </c>
       <c r="D18" t="n">
-        <v>0.217356</v>
+        <v>0.21585</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.198435</v>
+        <v>0.200735</v>
       </c>
       <c r="C19" t="n">
-        <v>0.214681</v>
+        <v>0.213259</v>
       </c>
       <c r="D19" t="n">
-        <v>0.215388</v>
+        <v>0.21296</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.197677</v>
+        <v>0.194977</v>
       </c>
       <c r="C20" t="n">
-        <v>0.217077</v>
+        <v>0.213715</v>
       </c>
       <c r="D20" t="n">
-        <v>0.212274</v>
+        <v>0.213885</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.191516</v>
+        <v>0.193231</v>
       </c>
       <c r="C21" t="n">
-        <v>0.212754</v>
+        <v>0.216135</v>
       </c>
       <c r="D21" t="n">
-        <v>0.213614</v>
+        <v>0.21534</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.183908</v>
+        <v>0.188888</v>
       </c>
       <c r="C22" t="n">
-        <v>0.216575</v>
+        <v>0.212154</v>
       </c>
       <c r="D22" t="n">
-        <v>0.21845</v>
+        <v>0.213142</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.179626</v>
+        <v>0.177519</v>
       </c>
       <c r="C23" t="n">
-        <v>0.228239</v>
+        <v>0.225692</v>
       </c>
       <c r="D23" t="n">
-        <v>0.225412</v>
+        <v>0.225026</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.237706</v>
+        <v>0.237441</v>
       </c>
       <c r="C24" t="n">
-        <v>0.226148</v>
+        <v>0.225375</v>
       </c>
       <c r="D24" t="n">
-        <v>0.227758</v>
+        <v>0.22396</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.233201</v>
+        <v>0.235811</v>
       </c>
       <c r="C25" t="n">
-        <v>0.221971</v>
+        <v>0.223888</v>
       </c>
       <c r="D25" t="n">
-        <v>0.226149</v>
+        <v>0.22624</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.230186</v>
+        <v>0.23272</v>
       </c>
       <c r="C26" t="n">
-        <v>0.221418</v>
+        <v>0.22298</v>
       </c>
       <c r="D26" t="n">
-        <v>0.220685</v>
+        <v>0.219202</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.225644</v>
+        <v>0.225548</v>
       </c>
       <c r="C27" t="n">
-        <v>0.222854</v>
+        <v>0.224168</v>
       </c>
       <c r="D27" t="n">
-        <v>0.218459</v>
+        <v>0.220016</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.227863</v>
+        <v>0.222099</v>
       </c>
       <c r="C28" t="n">
-        <v>0.218472</v>
+        <v>0.222905</v>
       </c>
       <c r="D28" t="n">
-        <v>0.220482</v>
+        <v>0.220093</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.220487</v>
+        <v>0.218896</v>
       </c>
       <c r="C29" t="n">
-        <v>0.218942</v>
+        <v>0.21993</v>
       </c>
       <c r="D29" t="n">
-        <v>0.221384</v>
+        <v>0.223858</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.21261</v>
+        <v>0.214994</v>
       </c>
       <c r="C30" t="n">
-        <v>0.219636</v>
+        <v>0.221011</v>
       </c>
       <c r="D30" t="n">
-        <v>0.222754</v>
+        <v>0.218268</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.209392</v>
+        <v>0.209405</v>
       </c>
       <c r="C31" t="n">
-        <v>0.219201</v>
+        <v>0.217211</v>
       </c>
       <c r="D31" t="n">
-        <v>0.222413</v>
+        <v>0.226011</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.206425</v>
+        <v>0.208427</v>
       </c>
       <c r="C32" t="n">
-        <v>0.218868</v>
+        <v>0.218228</v>
       </c>
       <c r="D32" t="n">
-        <v>0.216857</v>
+        <v>0.222514</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.202018</v>
+        <v>0.2033</v>
       </c>
       <c r="C33" t="n">
-        <v>0.216974</v>
+        <v>0.216178</v>
       </c>
       <c r="D33" t="n">
-        <v>0.216381</v>
+        <v>0.221964</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.199518</v>
+        <v>0.201455</v>
       </c>
       <c r="C34" t="n">
-        <v>0.218138</v>
+        <v>0.21295</v>
       </c>
       <c r="D34" t="n">
-        <v>0.220783</v>
+        <v>0.219116</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.196491</v>
+        <v>0.195598</v>
       </c>
       <c r="C35" t="n">
-        <v>0.213021</v>
+        <v>0.215128</v>
       </c>
       <c r="D35" t="n">
-        <v>0.219838</v>
+        <v>0.217472</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.190063</v>
+        <v>0.191239</v>
       </c>
       <c r="C36" t="n">
-        <v>0.214584</v>
+        <v>0.213676</v>
       </c>
       <c r="D36" t="n">
-        <v>0.214568</v>
+        <v>0.217922</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.184275</v>
+        <v>0.184353</v>
       </c>
       <c r="C37" t="n">
-        <v>0.230503</v>
+        <v>0.232387</v>
       </c>
       <c r="D37" t="n">
-        <v>0.243803</v>
+        <v>0.241929</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.238035</v>
+        <v>0.240374</v>
       </c>
       <c r="C38" t="n">
-        <v>0.227121</v>
+        <v>0.233897</v>
       </c>
       <c r="D38" t="n">
-        <v>0.23913</v>
+        <v>0.240154</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.235889</v>
+        <v>0.236309</v>
       </c>
       <c r="C39" t="n">
-        <v>0.226161</v>
+        <v>0.230865</v>
       </c>
       <c r="D39" t="n">
-        <v>0.236265</v>
+        <v>0.237982</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.23358</v>
+        <v>0.237071</v>
       </c>
       <c r="C40" t="n">
-        <v>0.226386</v>
+        <v>0.228748</v>
       </c>
       <c r="D40" t="n">
-        <v>0.235795</v>
+        <v>0.234176</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.227366</v>
+        <v>0.229485</v>
       </c>
       <c r="C41" t="n">
-        <v>0.226809</v>
+        <v>0.228233</v>
       </c>
       <c r="D41" t="n">
-        <v>0.235338</v>
+        <v>0.234256</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.221757</v>
+        <v>0.224082</v>
       </c>
       <c r="C42" t="n">
-        <v>0.224735</v>
+        <v>0.225672</v>
       </c>
       <c r="D42" t="n">
-        <v>0.234103</v>
+        <v>0.232013</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.222546</v>
+        <v>0.221414</v>
       </c>
       <c r="C43" t="n">
-        <v>0.226635</v>
+        <v>0.226535</v>
       </c>
       <c r="D43" t="n">
-        <v>0.230387</v>
+        <v>0.232548</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.217872</v>
+        <v>0.218203</v>
       </c>
       <c r="C44" t="n">
-        <v>0.222717</v>
+        <v>0.223617</v>
       </c>
       <c r="D44" t="n">
-        <v>0.228099</v>
+        <v>0.227428</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.214649</v>
+        <v>0.214096</v>
       </c>
       <c r="C45" t="n">
-        <v>0.223283</v>
+        <v>0.223703</v>
       </c>
       <c r="D45" t="n">
-        <v>0.228488</v>
+        <v>0.226457</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.210762</v>
+        <v>0.209775</v>
       </c>
       <c r="C46" t="n">
-        <v>0.221928</v>
+        <v>0.219194</v>
       </c>
       <c r="D46" t="n">
-        <v>0.229527</v>
+        <v>0.2247</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.207161</v>
+        <v>0.206002</v>
       </c>
       <c r="C47" t="n">
-        <v>0.220961</v>
+        <v>0.216289</v>
       </c>
       <c r="D47" t="n">
-        <v>0.226109</v>
+        <v>0.225879</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.202685</v>
+        <v>0.201601</v>
       </c>
       <c r="C48" t="n">
-        <v>0.220964</v>
+        <v>0.217316</v>
       </c>
       <c r="D48" t="n">
-        <v>0.223367</v>
+        <v>0.222914</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.201251</v>
+        <v>0.199815</v>
       </c>
       <c r="C49" t="n">
-        <v>0.214968</v>
+        <v>0.218616</v>
       </c>
       <c r="D49" t="n">
-        <v>0.22148</v>
+        <v>0.222869</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.193943</v>
+        <v>0.194043</v>
       </c>
       <c r="C50" t="n">
-        <v>0.217795</v>
+        <v>0.215079</v>
       </c>
       <c r="D50" t="n">
-        <v>0.222243</v>
+        <v>0.222748</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.189024</v>
+        <v>0.185853</v>
       </c>
       <c r="C51" t="n">
-        <v>0.238025</v>
+        <v>0.241076</v>
       </c>
       <c r="D51" t="n">
-        <v>0.241742</v>
+        <v>0.243833</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.179273</v>
+        <v>0.179529</v>
       </c>
       <c r="C52" t="n">
-        <v>0.236208</v>
+        <v>0.236636</v>
       </c>
       <c r="D52" t="n">
-        <v>0.242143</v>
+        <v>0.242476</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.244524</v>
+        <v>0.246029</v>
       </c>
       <c r="C53" t="n">
-        <v>0.235184</v>
+        <v>0.23361</v>
       </c>
       <c r="D53" t="n">
-        <v>0.238968</v>
+        <v>0.24009</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.244113</v>
+        <v>0.242065</v>
       </c>
       <c r="C54" t="n">
-        <v>0.233084</v>
+        <v>0.233632</v>
       </c>
       <c r="D54" t="n">
-        <v>0.239314</v>
+        <v>0.239816</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237204</v>
+        <v>0.237814</v>
       </c>
       <c r="C55" t="n">
-        <v>0.230096</v>
+        <v>0.229408</v>
       </c>
       <c r="D55" t="n">
-        <v>0.236467</v>
+        <v>0.235131</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.233549</v>
+        <v>0.234385</v>
       </c>
       <c r="C56" t="n">
-        <v>0.227261</v>
+        <v>0.230078</v>
       </c>
       <c r="D56" t="n">
-        <v>0.233545</v>
+        <v>0.236792</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.227181</v>
+        <v>0.227011</v>
       </c>
       <c r="C57" t="n">
-        <v>0.228583</v>
+        <v>0.229312</v>
       </c>
       <c r="D57" t="n">
-        <v>0.231279</v>
+        <v>0.233058</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.222948</v>
+        <v>0.224995</v>
       </c>
       <c r="C58" t="n">
-        <v>0.226725</v>
+        <v>0.227851</v>
       </c>
       <c r="D58" t="n">
-        <v>0.231632</v>
+        <v>0.230313</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.219833</v>
+        <v>0.216744</v>
       </c>
       <c r="C59" t="n">
-        <v>0.227057</v>
+        <v>0.226219</v>
       </c>
       <c r="D59" t="n">
-        <v>0.229806</v>
+        <v>0.230445</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.214679</v>
+        <v>0.215788</v>
       </c>
       <c r="C60" t="n">
-        <v>0.225688</v>
+        <v>0.227205</v>
       </c>
       <c r="D60" t="n">
-        <v>0.228832</v>
+        <v>0.232079</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.211573</v>
+        <v>0.210497</v>
       </c>
       <c r="C61" t="n">
-        <v>0.223793</v>
+        <v>0.222175</v>
       </c>
       <c r="D61" t="n">
-        <v>0.226579</v>
+        <v>0.223878</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.20848</v>
+        <v>0.209157</v>
       </c>
       <c r="C62" t="n">
-        <v>0.223694</v>
+        <v>0.221876</v>
       </c>
       <c r="D62" t="n">
-        <v>0.227465</v>
+        <v>0.223895</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.206958</v>
+        <v>0.204266</v>
       </c>
       <c r="C63" t="n">
-        <v>0.220787</v>
+        <v>0.224121</v>
       </c>
       <c r="D63" t="n">
-        <v>0.224657</v>
+        <v>0.225729</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.199438</v>
+        <v>0.201973</v>
       </c>
       <c r="C64" t="n">
-        <v>0.219583</v>
+        <v>0.220438</v>
       </c>
       <c r="D64" t="n">
-        <v>0.222173</v>
+        <v>0.224862</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.191784</v>
+        <v>0.194396</v>
       </c>
       <c r="C65" t="n">
-        <v>0.221766</v>
+        <v>0.220024</v>
       </c>
       <c r="D65" t="n">
-        <v>0.222128</v>
+        <v>0.221876</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.184004</v>
+        <v>0.184344</v>
       </c>
       <c r="C66" t="n">
-        <v>0.241389</v>
+        <v>0.247609</v>
       </c>
       <c r="D66" t="n">
-        <v>0.249502</v>
+        <v>0.247863</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.253941</v>
+        <v>0.260657</v>
       </c>
       <c r="C67" t="n">
-        <v>0.245753</v>
+        <v>0.244645</v>
       </c>
       <c r="D67" t="n">
-        <v>0.246035</v>
+        <v>0.245513</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.248146</v>
+        <v>0.254008</v>
       </c>
       <c r="C68" t="n">
-        <v>0.239369</v>
+        <v>0.238366</v>
       </c>
       <c r="D68" t="n">
-        <v>0.2402</v>
+        <v>0.242134</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.243528</v>
+        <v>0.24808</v>
       </c>
       <c r="C69" t="n">
-        <v>0.237576</v>
+        <v>0.237897</v>
       </c>
       <c r="D69" t="n">
-        <v>0.237723</v>
+        <v>0.239926</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.241096</v>
+        <v>0.242156</v>
       </c>
       <c r="C70" t="n">
-        <v>0.237114</v>
+        <v>0.235419</v>
       </c>
       <c r="D70" t="n">
-        <v>0.236439</v>
+        <v>0.239595</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.236803</v>
+        <v>0.23633</v>
       </c>
       <c r="C71" t="n">
-        <v>0.241605</v>
+        <v>0.233808</v>
       </c>
       <c r="D71" t="n">
-        <v>0.238546</v>
+        <v>0.235396</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.230943</v>
+        <v>0.231838</v>
       </c>
       <c r="C72" t="n">
-        <v>0.231075</v>
+        <v>0.232104</v>
       </c>
       <c r="D72" t="n">
-        <v>0.233609</v>
+        <v>0.233794</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.225886</v>
+        <v>0.229309</v>
       </c>
       <c r="C73" t="n">
-        <v>0.231266</v>
+        <v>0.232643</v>
       </c>
       <c r="D73" t="n">
-        <v>0.230138</v>
+        <v>0.232333</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.221599</v>
+        <v>0.221993</v>
       </c>
       <c r="C74" t="n">
-        <v>0.234382</v>
+        <v>0.231133</v>
       </c>
       <c r="D74" t="n">
-        <v>0.231861</v>
+        <v>0.231693</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.21801</v>
+        <v>0.220614</v>
       </c>
       <c r="C75" t="n">
-        <v>0.228032</v>
+        <v>0.230656</v>
       </c>
       <c r="D75" t="n">
-        <v>0.228599</v>
+        <v>0.230119</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.217769</v>
+        <v>0.218451</v>
       </c>
       <c r="C76" t="n">
-        <v>0.226378</v>
+        <v>0.228382</v>
       </c>
       <c r="D76" t="n">
-        <v>0.229095</v>
+        <v>0.227457</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.213047</v>
+        <v>0.213327</v>
       </c>
       <c r="C77" t="n">
-        <v>0.225659</v>
+        <v>0.224834</v>
       </c>
       <c r="D77" t="n">
-        <v>0.225772</v>
+        <v>0.225882</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.206555</v>
+        <v>0.205742</v>
       </c>
       <c r="C78" t="n">
-        <v>0.223973</v>
+        <v>0.224528</v>
       </c>
       <c r="D78" t="n">
-        <v>0.228942</v>
+        <v>0.226326</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.204519</v>
+        <v>0.200864</v>
       </c>
       <c r="C79" t="n">
-        <v>0.22611</v>
+        <v>0.225591</v>
       </c>
       <c r="D79" t="n">
-        <v>0.222418</v>
+        <v>0.226131</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.193245</v>
+        <v>0.192294</v>
       </c>
       <c r="C80" t="n">
-        <v>0.251172</v>
+        <v>0.250824</v>
       </c>
       <c r="D80" t="n">
-        <v>0.254161</v>
+        <v>0.249013</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.261741</v>
+        <v>0.259826</v>
       </c>
       <c r="C81" t="n">
-        <v>0.251092</v>
+        <v>0.250799</v>
       </c>
       <c r="D81" t="n">
-        <v>0.252145</v>
+        <v>0.249416</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.2544</v>
+        <v>0.257167</v>
       </c>
       <c r="C82" t="n">
-        <v>0.245309</v>
+        <v>0.24537</v>
       </c>
       <c r="D82" t="n">
-        <v>0.249321</v>
+        <v>0.24974</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.251647</v>
+        <v>0.251099</v>
       </c>
       <c r="C83" t="n">
-        <v>0.240058</v>
+        <v>0.244103</v>
       </c>
       <c r="D83" t="n">
-        <v>0.243089</v>
+        <v>0.245391</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.247832</v>
+        <v>0.248075</v>
       </c>
       <c r="C84" t="n">
-        <v>0.243084</v>
+        <v>0.245226</v>
       </c>
       <c r="D84" t="n">
-        <v>0.242739</v>
+        <v>0.24376</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.240237</v>
+        <v>0.243354</v>
       </c>
       <c r="C85" t="n">
-        <v>0.239786</v>
+        <v>0.239137</v>
       </c>
       <c r="D85" t="n">
-        <v>0.241637</v>
+        <v>0.241301</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.235906</v>
+        <v>0.235326</v>
       </c>
       <c r="C86" t="n">
-        <v>0.234979</v>
+        <v>0.236776</v>
       </c>
       <c r="D86" t="n">
-        <v>0.237834</v>
+        <v>0.244678</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.233012</v>
+        <v>0.230415</v>
       </c>
       <c r="C87" t="n">
-        <v>0.236837</v>
+        <v>0.233984</v>
       </c>
       <c r="D87" t="n">
-        <v>0.235554</v>
+        <v>0.237254</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.225865</v>
+        <v>0.228066</v>
       </c>
       <c r="C88" t="n">
-        <v>0.23076</v>
+        <v>0.234239</v>
       </c>
       <c r="D88" t="n">
-        <v>0.23534</v>
+        <v>0.234773</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.224203</v>
+        <v>0.222724</v>
       </c>
       <c r="C89" t="n">
-        <v>0.233185</v>
+        <v>0.2319</v>
       </c>
       <c r="D89" t="n">
-        <v>0.23275</v>
+        <v>0.232513</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.219127</v>
+        <v>0.218015</v>
       </c>
       <c r="C90" t="n">
-        <v>0.229608</v>
+        <v>0.230094</v>
       </c>
       <c r="D90" t="n">
-        <v>0.229798</v>
+        <v>0.231685</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.215239</v>
+        <v>0.216035</v>
       </c>
       <c r="C91" t="n">
-        <v>0.231065</v>
+        <v>0.23246</v>
       </c>
       <c r="D91" t="n">
-        <v>0.231784</v>
+        <v>0.231097</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.209171</v>
+        <v>0.209054</v>
       </c>
       <c r="C92" t="n">
-        <v>0.226322</v>
+        <v>0.229806</v>
       </c>
       <c r="D92" t="n">
-        <v>0.231764</v>
+        <v>0.22797</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.205036</v>
+        <v>0.203071</v>
       </c>
       <c r="C93" t="n">
-        <v>0.227724</v>
+        <v>0.223747</v>
       </c>
       <c r="D93" t="n">
-        <v>0.22949</v>
+        <v>0.229841</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.194866</v>
+        <v>0.199054</v>
       </c>
       <c r="C94" t="n">
-        <v>0.253191</v>
+        <v>0.255177</v>
       </c>
       <c r="D94" t="n">
-        <v>0.254988</v>
+        <v>0.252201</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.257977</v>
+        <v>0.260298</v>
       </c>
       <c r="C95" t="n">
-        <v>0.25108</v>
+        <v>0.251544</v>
       </c>
       <c r="D95" t="n">
-        <v>0.254152</v>
+        <v>0.253512</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.259211</v>
+        <v>0.256835</v>
       </c>
       <c r="C96" t="n">
-        <v>0.247382</v>
+        <v>0.249536</v>
       </c>
       <c r="D96" t="n">
-        <v>0.248186</v>
+        <v>0.252148</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.25417</v>
+        <v>0.253826</v>
       </c>
       <c r="C97" t="n">
-        <v>0.245831</v>
+        <v>0.24909</v>
       </c>
       <c r="D97" t="n">
-        <v>0.245883</v>
+        <v>0.246395</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.252086</v>
+        <v>0.24649</v>
       </c>
       <c r="C98" t="n">
-        <v>0.245883</v>
+        <v>0.245788</v>
       </c>
       <c r="D98" t="n">
-        <v>0.24494</v>
+        <v>0.243673</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.245047</v>
+        <v>0.246026</v>
       </c>
       <c r="C99" t="n">
-        <v>0.241821</v>
+        <v>0.240122</v>
       </c>
       <c r="D99" t="n">
-        <v>0.242899</v>
+        <v>0.246669</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.240062</v>
+        <v>0.240253</v>
       </c>
       <c r="C100" t="n">
-        <v>0.237396</v>
+        <v>0.240027</v>
       </c>
       <c r="D100" t="n">
-        <v>0.242626</v>
+        <v>0.239107</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.232061</v>
+        <v>0.235925</v>
       </c>
       <c r="C101" t="n">
-        <v>0.239722</v>
+        <v>0.238776</v>
       </c>
       <c r="D101" t="n">
-        <v>0.245949</v>
+        <v>0.238273</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.230333</v>
+        <v>0.227469</v>
       </c>
       <c r="C102" t="n">
-        <v>0.232561</v>
+        <v>0.236328</v>
       </c>
       <c r="D102" t="n">
-        <v>0.236948</v>
+        <v>0.239574</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.224193</v>
+        <v>0.226451</v>
       </c>
       <c r="C103" t="n">
-        <v>0.235949</v>
+        <v>0.234168</v>
       </c>
       <c r="D103" t="n">
-        <v>0.233224</v>
+        <v>0.235467</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.219847</v>
+        <v>0.216583</v>
       </c>
       <c r="C104" t="n">
-        <v>0.232212</v>
+        <v>0.231748</v>
       </c>
       <c r="D104" t="n">
-        <v>0.233236</v>
+        <v>0.230627</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.213972</v>
+        <v>0.215584</v>
       </c>
       <c r="C105" t="n">
-        <v>0.228825</v>
+        <v>0.229123</v>
       </c>
       <c r="D105" t="n">
-        <v>0.231321</v>
+        <v>0.231406</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.212048</v>
+        <v>0.209972</v>
       </c>
       <c r="C106" t="n">
-        <v>0.226082</v>
+        <v>0.229213</v>
       </c>
       <c r="D106" t="n">
-        <v>0.22976</v>
+        <v>0.229474</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.205788</v>
+        <v>0.207577</v>
       </c>
       <c r="C107" t="n">
-        <v>0.227222</v>
+        <v>0.227275</v>
       </c>
       <c r="D107" t="n">
-        <v>0.230913</v>
+        <v>0.231446</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.197361</v>
+        <v>0.200405</v>
       </c>
       <c r="C108" t="n">
-        <v>0.256023</v>
+        <v>0.258393</v>
       </c>
       <c r="D108" t="n">
-        <v>0.258379</v>
+        <v>0.257594</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.190853</v>
+        <v>0.192063</v>
       </c>
       <c r="C109" t="n">
-        <v>0.250102</v>
+        <v>0.251149</v>
       </c>
       <c r="D109" t="n">
-        <v>0.250321</v>
+        <v>0.256188</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.259177</v>
+        <v>0.260843</v>
       </c>
       <c r="C110" t="n">
-        <v>0.248943</v>
+        <v>0.246576</v>
       </c>
       <c r="D110" t="n">
-        <v>0.250925</v>
+        <v>0.256622</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.252323</v>
+        <v>0.256824</v>
       </c>
       <c r="C111" t="n">
-        <v>0.251063</v>
+        <v>0.247309</v>
       </c>
       <c r="D111" t="n">
-        <v>0.245857</v>
+        <v>0.24915</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.248563</v>
+        <v>0.251768</v>
       </c>
       <c r="C112" t="n">
-        <v>0.244874</v>
+        <v>0.244761</v>
       </c>
       <c r="D112" t="n">
-        <v>0.245006</v>
+        <v>0.251577</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.249123</v>
+        <v>0.243066</v>
       </c>
       <c r="C113" t="n">
-        <v>0.23987</v>
+        <v>0.242284</v>
       </c>
       <c r="D113" t="n">
-        <v>0.244319</v>
+        <v>0.246529</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.237184</v>
+        <v>0.241697</v>
       </c>
       <c r="C114" t="n">
-        <v>0.240209</v>
+        <v>0.237913</v>
       </c>
       <c r="D114" t="n">
-        <v>0.245823</v>
+        <v>0.242146</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.231709</v>
+        <v>0.234425</v>
       </c>
       <c r="C115" t="n">
-        <v>0.236363</v>
+        <v>0.240376</v>
       </c>
       <c r="D115" t="n">
-        <v>0.238758</v>
+        <v>0.237232</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.2307</v>
+        <v>0.229974</v>
       </c>
       <c r="C116" t="n">
-        <v>0.239392</v>
+        <v>0.237425</v>
       </c>
       <c r="D116" t="n">
-        <v>0.236605</v>
+        <v>0.240509</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.233243</v>
+        <v>0.223936</v>
       </c>
       <c r="C117" t="n">
-        <v>0.233697</v>
+        <v>0.242179</v>
       </c>
       <c r="D117" t="n">
-        <v>0.235</v>
+        <v>0.237356</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.218558</v>
+        <v>0.221254</v>
       </c>
       <c r="C118" t="n">
-        <v>0.229976</v>
+        <v>0.234974</v>
       </c>
       <c r="D118" t="n">
-        <v>0.237701</v>
+        <v>0.234731</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.214748</v>
+        <v>0.217801</v>
       </c>
       <c r="C119" t="n">
-        <v>0.229854</v>
+        <v>0.230256</v>
       </c>
       <c r="D119" t="n">
-        <v>0.229961</v>
+        <v>0.237236</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.211832</v>
+        <v>0.212217</v>
       </c>
       <c r="C120" t="n">
-        <v>0.230655</v>
+        <v>0.232657</v>
       </c>
       <c r="D120" t="n">
-        <v>0.233712</v>
+        <v>0.232244</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.206276</v>
+        <v>0.207613</v>
       </c>
       <c r="C121" t="n">
-        <v>0.228155</v>
+        <v>0.227198</v>
       </c>
       <c r="D121" t="n">
-        <v>0.230851</v>
+        <v>0.233524</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.200398</v>
+        <v>0.2012</v>
       </c>
       <c r="C122" t="n">
-        <v>0.225279</v>
+        <v>0.227554</v>
       </c>
       <c r="D122" t="n">
-        <v>0.231063</v>
+        <v>0.227342</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.194322</v>
+        <v>0.191694</v>
       </c>
       <c r="C123" t="n">
-        <v>0.251981</v>
+        <v>0.249175</v>
       </c>
       <c r="D123" t="n">
-        <v>0.252654</v>
+        <v>0.256512</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.261623</v>
+        <v>0.26287</v>
       </c>
       <c r="C124" t="n">
-        <v>0.250676</v>
+        <v>0.251083</v>
       </c>
       <c r="D124" t="n">
-        <v>0.252398</v>
+        <v>0.252834</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.259409</v>
+        <v>0.256865</v>
       </c>
       <c r="C125" t="n">
-        <v>0.249171</v>
+        <v>0.245815</v>
       </c>
       <c r="D125" t="n">
-        <v>0.250229</v>
+        <v>0.250382</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.25089</v>
+        <v>0.25139</v>
       </c>
       <c r="C126" t="n">
-        <v>0.24731</v>
+        <v>0.247526</v>
       </c>
       <c r="D126" t="n">
-        <v>0.253057</v>
+        <v>0.246611</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.243133</v>
+        <v>0.242948</v>
       </c>
       <c r="C127" t="n">
-        <v>0.241773</v>
+        <v>0.239437</v>
       </c>
       <c r="D127" t="n">
-        <v>0.243369</v>
+        <v>0.242246</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.240431</v>
+        <v>0.241147</v>
       </c>
       <c r="C128" t="n">
-        <v>0.24353</v>
+        <v>0.23927</v>
       </c>
       <c r="D128" t="n">
-        <v>0.242907</v>
+        <v>0.241856</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.238563</v>
+        <v>0.234343</v>
       </c>
       <c r="C129" t="n">
-        <v>0.239754</v>
+        <v>0.246472</v>
       </c>
       <c r="D129" t="n">
-        <v>0.241074</v>
+        <v>0.240236</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.233363</v>
+        <v>0.230967</v>
       </c>
       <c r="C130" t="n">
-        <v>0.240256</v>
+        <v>0.236219</v>
       </c>
       <c r="D130" t="n">
-        <v>0.236866</v>
+        <v>0.236036</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.224041</v>
+        <v>0.231411</v>
       </c>
       <c r="C131" t="n">
-        <v>0.239902</v>
+        <v>0.234834</v>
       </c>
       <c r="D131" t="n">
-        <v>0.236693</v>
+        <v>0.234749</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.22183</v>
+        <v>0.221261</v>
       </c>
       <c r="C132" t="n">
-        <v>0.237732</v>
+        <v>0.238049</v>
       </c>
       <c r="D132" t="n">
-        <v>0.240374</v>
+        <v>0.235417</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.216779</v>
+        <v>0.217202</v>
       </c>
       <c r="C133" t="n">
-        <v>0.2335</v>
+        <v>0.23292</v>
       </c>
       <c r="D133" t="n">
-        <v>0.234415</v>
+        <v>0.233287</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.217853</v>
+        <v>0.214649</v>
       </c>
       <c r="C134" t="n">
-        <v>0.227652</v>
+        <v>0.229114</v>
       </c>
       <c r="D134" t="n">
-        <v>0.234442</v>
+        <v>0.229107</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.207034</v>
+        <v>0.209021</v>
       </c>
       <c r="C135" t="n">
-        <v>0.231079</v>
+        <v>0.226203</v>
       </c>
       <c r="D135" t="n">
-        <v>0.229735</v>
+        <v>0.237722</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.200803</v>
+        <v>0.20123</v>
       </c>
       <c r="C136" t="n">
-        <v>0.224633</v>
+        <v>0.230672</v>
       </c>
       <c r="D136" t="n">
-        <v>0.231631</v>
+        <v>0.227866</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.195282</v>
+        <v>0.191616</v>
       </c>
       <c r="C137" t="n">
-        <v>0.25275</v>
+        <v>0.252021</v>
       </c>
       <c r="D137" t="n">
-        <v>0.253602</v>
+        <v>0.254807</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.262845</v>
+        <v>0.264551</v>
       </c>
       <c r="C138" t="n">
-        <v>0.248199</v>
+        <v>0.250331</v>
       </c>
       <c r="D138" t="n">
-        <v>0.255101</v>
+        <v>0.252592</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.255206</v>
+        <v>0.257208</v>
       </c>
       <c r="C139" t="n">
-        <v>0.256643</v>
+        <v>0.248006</v>
       </c>
       <c r="D139" t="n">
-        <v>0.250174</v>
+        <v>0.246754</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.252196</v>
+        <v>0.250342</v>
       </c>
       <c r="C140" t="n">
-        <v>0.243443</v>
+        <v>0.249807</v>
       </c>
       <c r="D140" t="n">
-        <v>0.246906</v>
+        <v>0.245097</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.242899</v>
+        <v>0.246617</v>
       </c>
       <c r="C141" t="n">
-        <v>0.242183</v>
+        <v>0.241494</v>
       </c>
       <c r="D141" t="n">
-        <v>0.244811</v>
+        <v>0.244253</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.240743</v>
+        <v>0.237958</v>
       </c>
       <c r="C142" t="n">
-        <v>0.235793</v>
+        <v>0.244044</v>
       </c>
       <c r="D142" t="n">
-        <v>0.247053</v>
+        <v>0.248252</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.247006</v>
+        <v>0.239791</v>
       </c>
       <c r="C143" t="n">
-        <v>0.240736</v>
+        <v>0.238771</v>
       </c>
       <c r="D143" t="n">
-        <v>0.241771</v>
+        <v>0.236684</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.200963</v>
+        <v>0.200732</v>
       </c>
       <c r="C2" t="n">
-        <v>0.214471</v>
+        <v>0.212138</v>
       </c>
       <c r="D2" t="n">
-        <v>0.214316</v>
+        <v>0.522028</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.198831</v>
+        <v>0.199863</v>
       </c>
       <c r="C3" t="n">
-        <v>0.213763</v>
+        <v>0.214242</v>
       </c>
       <c r="D3" t="n">
-        <v>0.215488</v>
+        <v>0.53499</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.203319</v>
+        <v>0.199294</v>
       </c>
       <c r="C4" t="n">
-        <v>0.213149</v>
+        <v>0.211358</v>
       </c>
       <c r="D4" t="n">
-        <v>0.219336</v>
+        <v>0.524142</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.196397</v>
+        <v>0.19015</v>
       </c>
       <c r="C5" t="n">
-        <v>0.218671</v>
+        <v>0.211265</v>
       </c>
       <c r="D5" t="n">
-        <v>0.216482</v>
+        <v>0.531581</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.194401</v>
+        <v>0.190021</v>
       </c>
       <c r="C6" t="n">
-        <v>0.211161</v>
+        <v>0.207405</v>
       </c>
       <c r="D6" t="n">
-        <v>0.213385</v>
+        <v>0.519637</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.187823</v>
+        <v>0.18443</v>
       </c>
       <c r="C7" t="n">
-        <v>0.212001</v>
+        <v>0.212581</v>
       </c>
       <c r="D7" t="n">
-        <v>0.211937</v>
+        <v>0.537135</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.18266</v>
+        <v>0.179898</v>
       </c>
       <c r="C8" t="n">
-        <v>0.214063</v>
+        <v>0.211071</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2123</v>
+        <v>0.532232</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.173703</v>
+        <v>0.17489</v>
       </c>
       <c r="C9" t="n">
-        <v>0.221872</v>
+        <v>0.217876</v>
       </c>
       <c r="D9" t="n">
-        <v>0.222376</v>
+        <v>0.536774</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.227487</v>
+        <v>0.231399</v>
       </c>
       <c r="C10" t="n">
-        <v>0.22542</v>
+        <v>0.215127</v>
       </c>
       <c r="D10" t="n">
-        <v>0.226231</v>
+        <v>0.527956</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.223107</v>
+        <v>0.225304</v>
       </c>
       <c r="C11" t="n">
-        <v>0.220231</v>
+        <v>0.214595</v>
       </c>
       <c r="D11" t="n">
-        <v>0.221307</v>
+        <v>0.527877</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.221819</v>
+        <v>0.217411</v>
       </c>
       <c r="C12" t="n">
-        <v>0.222004</v>
+        <v>0.216937</v>
       </c>
       <c r="D12" t="n">
-        <v>0.217936</v>
+        <v>0.525034</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.218343</v>
+        <v>0.218192</v>
       </c>
       <c r="C13" t="n">
-        <v>0.220373</v>
+        <v>0.215607</v>
       </c>
       <c r="D13" t="n">
-        <v>0.217764</v>
+        <v>0.521313</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.216859</v>
+        <v>0.213073</v>
       </c>
       <c r="C14" t="n">
-        <v>0.218409</v>
+        <v>0.213244</v>
       </c>
       <c r="D14" t="n">
-        <v>0.217086</v>
+        <v>0.517689</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.214046</v>
+        <v>0.210876</v>
       </c>
       <c r="C15" t="n">
-        <v>0.217496</v>
+        <v>0.215038</v>
       </c>
       <c r="D15" t="n">
-        <v>0.214585</v>
+        <v>0.514595</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.209592</v>
+        <v>0.202788</v>
       </c>
       <c r="C16" t="n">
-        <v>0.217791</v>
+        <v>0.219419</v>
       </c>
       <c r="D16" t="n">
-        <v>0.220393</v>
+        <v>0.525271</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.207946</v>
+        <v>0.204736</v>
       </c>
       <c r="C17" t="n">
-        <v>0.212844</v>
+        <v>0.214744</v>
       </c>
       <c r="D17" t="n">
-        <v>0.216518</v>
+        <v>0.521957</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.204</v>
+        <v>0.200207</v>
       </c>
       <c r="C18" t="n">
-        <v>0.212326</v>
+        <v>0.213421</v>
       </c>
       <c r="D18" t="n">
-        <v>0.21585</v>
+        <v>0.512808</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.200735</v>
+        <v>0.194665</v>
       </c>
       <c r="C19" t="n">
-        <v>0.213259</v>
+        <v>0.214974</v>
       </c>
       <c r="D19" t="n">
-        <v>0.21296</v>
+        <v>0.531708</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.194977</v>
+        <v>0.19177</v>
       </c>
       <c r="C20" t="n">
-        <v>0.213715</v>
+        <v>0.212466</v>
       </c>
       <c r="D20" t="n">
-        <v>0.213885</v>
+        <v>0.516717</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.193231</v>
+        <v>0.191575</v>
       </c>
       <c r="C21" t="n">
-        <v>0.216135</v>
+        <v>0.218613</v>
       </c>
       <c r="D21" t="n">
-        <v>0.21534</v>
+        <v>0.537192</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.188888</v>
+        <v>0.18775</v>
       </c>
       <c r="C22" t="n">
-        <v>0.212154</v>
+        <v>0.21511</v>
       </c>
       <c r="D22" t="n">
-        <v>0.213142</v>
+        <v>0.548439</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.177519</v>
+        <v>0.178652</v>
       </c>
       <c r="C23" t="n">
-        <v>0.225692</v>
+        <v>0.225864</v>
       </c>
       <c r="D23" t="n">
-        <v>0.225026</v>
+        <v>0.531297</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.237441</v>
+        <v>0.233469</v>
       </c>
       <c r="C24" t="n">
-        <v>0.225375</v>
+        <v>0.222569</v>
       </c>
       <c r="D24" t="n">
-        <v>0.22396</v>
+        <v>0.524509</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.235811</v>
+        <v>0.230584</v>
       </c>
       <c r="C25" t="n">
-        <v>0.223888</v>
+        <v>0.221258</v>
       </c>
       <c r="D25" t="n">
-        <v>0.22624</v>
+        <v>0.531218</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.23272</v>
+        <v>0.223782</v>
       </c>
       <c r="C26" t="n">
-        <v>0.22298</v>
+        <v>0.22042</v>
       </c>
       <c r="D26" t="n">
-        <v>0.219202</v>
+        <v>0.5266</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.225548</v>
+        <v>0.223991</v>
       </c>
       <c r="C27" t="n">
-        <v>0.224168</v>
+        <v>0.222268</v>
       </c>
       <c r="D27" t="n">
-        <v>0.220016</v>
+        <v>0.54062</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.222099</v>
+        <v>0.219698</v>
       </c>
       <c r="C28" t="n">
-        <v>0.222905</v>
+        <v>0.219372</v>
       </c>
       <c r="D28" t="n">
-        <v>0.220093</v>
+        <v>0.532466</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.218896</v>
+        <v>0.215123</v>
       </c>
       <c r="C29" t="n">
-        <v>0.21993</v>
+        <v>0.219246</v>
       </c>
       <c r="D29" t="n">
-        <v>0.223858</v>
+        <v>0.5357960000000001</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.214994</v>
+        <v>0.209437</v>
       </c>
       <c r="C30" t="n">
-        <v>0.221011</v>
+        <v>0.219921</v>
       </c>
       <c r="D30" t="n">
-        <v>0.218268</v>
+        <v>0.523512</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.209405</v>
+        <v>0.210057</v>
       </c>
       <c r="C31" t="n">
-        <v>0.217211</v>
+        <v>0.217269</v>
       </c>
       <c r="D31" t="n">
-        <v>0.226011</v>
+        <v>0.536733</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.208427</v>
+        <v>0.204841</v>
       </c>
       <c r="C32" t="n">
-        <v>0.218228</v>
+        <v>0.216904</v>
       </c>
       <c r="D32" t="n">
-        <v>0.222514</v>
+        <v>0.523591</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.2033</v>
+        <v>0.200956</v>
       </c>
       <c r="C33" t="n">
-        <v>0.216178</v>
+        <v>0.220232</v>
       </c>
       <c r="D33" t="n">
-        <v>0.221964</v>
+        <v>0.524454</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.201455</v>
+        <v>0.197292</v>
       </c>
       <c r="C34" t="n">
-        <v>0.21295</v>
+        <v>0.218603</v>
       </c>
       <c r="D34" t="n">
-        <v>0.219116</v>
+        <v>0.525749</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.195598</v>
+        <v>0.194308</v>
       </c>
       <c r="C35" t="n">
-        <v>0.215128</v>
+        <v>0.216629</v>
       </c>
       <c r="D35" t="n">
-        <v>0.217472</v>
+        <v>0.560578</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.191239</v>
+        <v>0.190313</v>
       </c>
       <c r="C36" t="n">
-        <v>0.213676</v>
+        <v>0.212656</v>
       </c>
       <c r="D36" t="n">
-        <v>0.217922</v>
+        <v>0.547661</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.184353</v>
+        <v>0.182692</v>
       </c>
       <c r="C37" t="n">
-        <v>0.232387</v>
+        <v>0.22793</v>
       </c>
       <c r="D37" t="n">
-        <v>0.241929</v>
+        <v>0.5513400000000001</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.240374</v>
+        <v>0.238392</v>
       </c>
       <c r="C38" t="n">
-        <v>0.233897</v>
+        <v>0.232834</v>
       </c>
       <c r="D38" t="n">
-        <v>0.240154</v>
+        <v>0.5518459999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.236309</v>
+        <v>0.238617</v>
       </c>
       <c r="C39" t="n">
-        <v>0.230865</v>
+        <v>0.234059</v>
       </c>
       <c r="D39" t="n">
-        <v>0.237982</v>
+        <v>0.556688</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.237071</v>
+        <v>0.231178</v>
       </c>
       <c r="C40" t="n">
-        <v>0.228748</v>
+        <v>0.228419</v>
       </c>
       <c r="D40" t="n">
-        <v>0.234176</v>
+        <v>0.539342</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.229485</v>
+        <v>0.227698</v>
       </c>
       <c r="C41" t="n">
-        <v>0.228233</v>
+        <v>0.228941</v>
       </c>
       <c r="D41" t="n">
-        <v>0.234256</v>
+        <v>0.5518960000000001</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.224082</v>
+        <v>0.222482</v>
       </c>
       <c r="C42" t="n">
-        <v>0.225672</v>
+        <v>0.224474</v>
       </c>
       <c r="D42" t="n">
-        <v>0.232013</v>
+        <v>0.550422</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.221414</v>
+        <v>0.21959</v>
       </c>
       <c r="C43" t="n">
-        <v>0.226535</v>
+        <v>0.224696</v>
       </c>
       <c r="D43" t="n">
-        <v>0.232548</v>
+        <v>0.5687720000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.218203</v>
+        <v>0.21733</v>
       </c>
       <c r="C44" t="n">
-        <v>0.223617</v>
+        <v>0.226546</v>
       </c>
       <c r="D44" t="n">
-        <v>0.227428</v>
+        <v>0.552961</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.214096</v>
+        <v>0.210827</v>
       </c>
       <c r="C45" t="n">
-        <v>0.223703</v>
+        <v>0.221702</v>
       </c>
       <c r="D45" t="n">
-        <v>0.226457</v>
+        <v>0.549549</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209775</v>
+        <v>0.206373</v>
       </c>
       <c r="C46" t="n">
-        <v>0.219194</v>
+        <v>0.222377</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2247</v>
+        <v>0.551285</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.206002</v>
+        <v>0.205124</v>
       </c>
       <c r="C47" t="n">
-        <v>0.216289</v>
+        <v>0.221941</v>
       </c>
       <c r="D47" t="n">
-        <v>0.225879</v>
+        <v>0.558242</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.201601</v>
+        <v>0.202299</v>
       </c>
       <c r="C48" t="n">
-        <v>0.217316</v>
+        <v>0.217797</v>
       </c>
       <c r="D48" t="n">
-        <v>0.222914</v>
+        <v>0.551796</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.199815</v>
+        <v>0.201302</v>
       </c>
       <c r="C49" t="n">
-        <v>0.218616</v>
+        <v>0.219047</v>
       </c>
       <c r="D49" t="n">
-        <v>0.222869</v>
+        <v>0.566581</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.194043</v>
+        <v>0.19192</v>
       </c>
       <c r="C50" t="n">
-        <v>0.215079</v>
+        <v>0.218222</v>
       </c>
       <c r="D50" t="n">
-        <v>0.222748</v>
+        <v>0.6770659999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.185853</v>
+        <v>0.188722</v>
       </c>
       <c r="C51" t="n">
-        <v>0.241076</v>
+        <v>0.240313</v>
       </c>
       <c r="D51" t="n">
-        <v>0.243833</v>
+        <v>0.66794</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.179529</v>
+        <v>0.180662</v>
       </c>
       <c r="C52" t="n">
-        <v>0.236636</v>
+        <v>0.237688</v>
       </c>
       <c r="D52" t="n">
-        <v>0.242476</v>
+        <v>0.65789</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.246029</v>
+        <v>0.24311</v>
       </c>
       <c r="C53" t="n">
-        <v>0.23361</v>
+        <v>0.234032</v>
       </c>
       <c r="D53" t="n">
-        <v>0.24009</v>
+        <v>0.663365</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242065</v>
+        <v>0.242214</v>
       </c>
       <c r="C54" t="n">
-        <v>0.233632</v>
+        <v>0.236047</v>
       </c>
       <c r="D54" t="n">
-        <v>0.239816</v>
+        <v>0.656595</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237814</v>
+        <v>0.234917</v>
       </c>
       <c r="C55" t="n">
-        <v>0.229408</v>
+        <v>0.232065</v>
       </c>
       <c r="D55" t="n">
-        <v>0.235131</v>
+        <v>0.654847</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.234385</v>
+        <v>0.230699</v>
       </c>
       <c r="C56" t="n">
-        <v>0.230078</v>
+        <v>0.231083</v>
       </c>
       <c r="D56" t="n">
-        <v>0.236792</v>
+        <v>0.657019</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.227011</v>
+        <v>0.226585</v>
       </c>
       <c r="C57" t="n">
-        <v>0.229312</v>
+        <v>0.227956</v>
       </c>
       <c r="D57" t="n">
-        <v>0.233058</v>
+        <v>0.664465</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.224995</v>
+        <v>0.221836</v>
       </c>
       <c r="C58" t="n">
-        <v>0.227851</v>
+        <v>0.228441</v>
       </c>
       <c r="D58" t="n">
-        <v>0.230313</v>
+        <v>0.6622400000000001</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.216744</v>
+        <v>0.222059</v>
       </c>
       <c r="C59" t="n">
-        <v>0.226219</v>
+        <v>0.224947</v>
       </c>
       <c r="D59" t="n">
-        <v>0.230445</v>
+        <v>0.649196</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.215788</v>
+        <v>0.212002</v>
       </c>
       <c r="C60" t="n">
-        <v>0.227205</v>
+        <v>0.226167</v>
       </c>
       <c r="D60" t="n">
-        <v>0.232079</v>
+        <v>0.651448</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.210497</v>
+        <v>0.209318</v>
       </c>
       <c r="C61" t="n">
-        <v>0.222175</v>
+        <v>0.226487</v>
       </c>
       <c r="D61" t="n">
-        <v>0.223878</v>
+        <v>0.643703</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.209157</v>
+        <v>0.20702</v>
       </c>
       <c r="C62" t="n">
-        <v>0.221876</v>
+        <v>0.222355</v>
       </c>
       <c r="D62" t="n">
-        <v>0.223895</v>
+        <v>0.650257</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.204266</v>
+        <v>0.205442</v>
       </c>
       <c r="C63" t="n">
-        <v>0.224121</v>
+        <v>0.222495</v>
       </c>
       <c r="D63" t="n">
-        <v>0.225729</v>
+        <v>0.654151</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.201973</v>
+        <v>0.199228</v>
       </c>
       <c r="C64" t="n">
-        <v>0.220438</v>
+        <v>0.221929</v>
       </c>
       <c r="D64" t="n">
-        <v>0.224862</v>
+        <v>0.760171</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.194396</v>
+        <v>0.191792</v>
       </c>
       <c r="C65" t="n">
-        <v>0.220024</v>
+        <v>0.219673</v>
       </c>
       <c r="D65" t="n">
-        <v>0.221876</v>
+        <v>0.751952</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.184344</v>
+        <v>0.186214</v>
       </c>
       <c r="C66" t="n">
-        <v>0.247609</v>
+        <v>0.244305</v>
       </c>
       <c r="D66" t="n">
-        <v>0.247863</v>
+        <v>0.742553</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.260657</v>
+        <v>0.250416</v>
       </c>
       <c r="C67" t="n">
-        <v>0.244645</v>
+        <v>0.240014</v>
       </c>
       <c r="D67" t="n">
-        <v>0.245513</v>
+        <v>0.746779</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.254008</v>
+        <v>0.243166</v>
       </c>
       <c r="C68" t="n">
-        <v>0.238366</v>
+        <v>0.233713</v>
       </c>
       <c r="D68" t="n">
-        <v>0.242134</v>
+        <v>0.710135</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.24808</v>
+        <v>0.239465</v>
       </c>
       <c r="C69" t="n">
-        <v>0.237897</v>
+        <v>0.233713</v>
       </c>
       <c r="D69" t="n">
-        <v>0.239926</v>
+        <v>0.697733</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.242156</v>
+        <v>0.232159</v>
       </c>
       <c r="C70" t="n">
-        <v>0.235419</v>
+        <v>0.230236</v>
       </c>
       <c r="D70" t="n">
-        <v>0.239595</v>
+        <v>0.693622</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.23633</v>
+        <v>0.226265</v>
       </c>
       <c r="C71" t="n">
-        <v>0.233808</v>
+        <v>0.229539</v>
       </c>
       <c r="D71" t="n">
-        <v>0.235396</v>
+        <v>0.686731</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.231838</v>
+        <v>0.225354</v>
       </c>
       <c r="C72" t="n">
-        <v>0.232104</v>
+        <v>0.226732</v>
       </c>
       <c r="D72" t="n">
-        <v>0.233794</v>
+        <v>0.682299</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.229309</v>
+        <v>0.218894</v>
       </c>
       <c r="C73" t="n">
-        <v>0.232643</v>
+        <v>0.225471</v>
       </c>
       <c r="D73" t="n">
-        <v>0.232333</v>
+        <v>0.67683</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.221993</v>
+        <v>0.212843</v>
       </c>
       <c r="C74" t="n">
-        <v>0.231133</v>
+        <v>0.225532</v>
       </c>
       <c r="D74" t="n">
-        <v>0.231693</v>
+        <v>0.682076</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.220614</v>
+        <v>0.209981</v>
       </c>
       <c r="C75" t="n">
-        <v>0.230656</v>
+        <v>0.223333</v>
       </c>
       <c r="D75" t="n">
-        <v>0.230119</v>
+        <v>0.672829</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.218451</v>
+        <v>0.206473</v>
       </c>
       <c r="C76" t="n">
-        <v>0.228382</v>
+        <v>0.224623</v>
       </c>
       <c r="D76" t="n">
-        <v>0.227457</v>
+        <v>0.697916</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.213327</v>
+        <v>0.20667</v>
       </c>
       <c r="C77" t="n">
-        <v>0.224834</v>
+        <v>0.22531</v>
       </c>
       <c r="D77" t="n">
-        <v>0.225882</v>
+        <v>0.701888</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.205742</v>
+        <v>0.205485</v>
       </c>
       <c r="C78" t="n">
-        <v>0.224528</v>
+        <v>0.226533</v>
       </c>
       <c r="D78" t="n">
-        <v>0.226326</v>
+        <v>0.798758</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.200864</v>
+        <v>0.197512</v>
       </c>
       <c r="C79" t="n">
-        <v>0.225591</v>
+        <v>0.220716</v>
       </c>
       <c r="D79" t="n">
-        <v>0.226131</v>
+        <v>0.781249</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.192294</v>
+        <v>0.190135</v>
       </c>
       <c r="C80" t="n">
-        <v>0.250824</v>
+        <v>0.253366</v>
       </c>
       <c r="D80" t="n">
-        <v>0.249013</v>
+        <v>0.786616</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.259826</v>
+        <v>0.257403</v>
       </c>
       <c r="C81" t="n">
-        <v>0.250799</v>
+        <v>0.250579</v>
       </c>
       <c r="D81" t="n">
-        <v>0.249416</v>
+        <v>0.767868</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.257167</v>
+        <v>0.253264</v>
       </c>
       <c r="C82" t="n">
-        <v>0.24537</v>
+        <v>0.246022</v>
       </c>
       <c r="D82" t="n">
-        <v>0.24974</v>
+        <v>0.769936</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.251099</v>
+        <v>0.251272</v>
       </c>
       <c r="C83" t="n">
-        <v>0.244103</v>
+        <v>0.245439</v>
       </c>
       <c r="D83" t="n">
-        <v>0.245391</v>
+        <v>0.75953</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.248075</v>
+        <v>0.24801</v>
       </c>
       <c r="C84" t="n">
-        <v>0.245226</v>
+        <v>0.242309</v>
       </c>
       <c r="D84" t="n">
-        <v>0.24376</v>
+        <v>0.775771</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.243354</v>
+        <v>0.237997</v>
       </c>
       <c r="C85" t="n">
-        <v>0.239137</v>
+        <v>0.240244</v>
       </c>
       <c r="D85" t="n">
-        <v>0.241301</v>
+        <v>0.774654</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.235326</v>
+        <v>0.233648</v>
       </c>
       <c r="C86" t="n">
-        <v>0.236776</v>
+        <v>0.238167</v>
       </c>
       <c r="D86" t="n">
-        <v>0.244678</v>
+        <v>0.763688</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.230415</v>
+        <v>0.230494</v>
       </c>
       <c r="C87" t="n">
-        <v>0.233984</v>
+        <v>0.237029</v>
       </c>
       <c r="D87" t="n">
-        <v>0.237254</v>
+        <v>0.768493</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.228066</v>
+        <v>0.225594</v>
       </c>
       <c r="C88" t="n">
-        <v>0.234239</v>
+        <v>0.234572</v>
       </c>
       <c r="D88" t="n">
-        <v>0.234773</v>
+        <v>0.7644</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.222724</v>
+        <v>0.219582</v>
       </c>
       <c r="C89" t="n">
-        <v>0.2319</v>
+        <v>0.230587</v>
       </c>
       <c r="D89" t="n">
-        <v>0.232513</v>
+        <v>0.759116</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.218015</v>
+        <v>0.214822</v>
       </c>
       <c r="C90" t="n">
-        <v>0.230094</v>
+        <v>0.233784</v>
       </c>
       <c r="D90" t="n">
-        <v>0.231685</v>
+        <v>0.743598</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.216035</v>
+        <v>0.210869</v>
       </c>
       <c r="C91" t="n">
-        <v>0.23246</v>
+        <v>0.226585</v>
       </c>
       <c r="D91" t="n">
-        <v>0.231097</v>
+        <v>0.751891</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.209054</v>
+        <v>0.208934</v>
       </c>
       <c r="C92" t="n">
-        <v>0.229806</v>
+        <v>0.227687</v>
       </c>
       <c r="D92" t="n">
-        <v>0.22797</v>
+        <v>0.703813</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.203071</v>
+        <v>0.203307</v>
       </c>
       <c r="C93" t="n">
-        <v>0.223747</v>
+        <v>0.228138</v>
       </c>
       <c r="D93" t="n">
-        <v>0.229841</v>
+        <v>0.687107</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.199054</v>
+        <v>0.195669</v>
       </c>
       <c r="C94" t="n">
-        <v>0.255177</v>
+        <v>0.253582</v>
       </c>
       <c r="D94" t="n">
-        <v>0.252201</v>
+        <v>0.689078</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.260298</v>
+        <v>0.259758</v>
       </c>
       <c r="C95" t="n">
-        <v>0.251544</v>
+        <v>0.252489</v>
       </c>
       <c r="D95" t="n">
-        <v>0.253512</v>
+        <v>0.68963</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.256835</v>
+        <v>0.261921</v>
       </c>
       <c r="C96" t="n">
-        <v>0.249536</v>
+        <v>0.249221</v>
       </c>
       <c r="D96" t="n">
-        <v>0.252148</v>
+        <v>0.69706</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.253826</v>
+        <v>0.252585</v>
       </c>
       <c r="C97" t="n">
-        <v>0.24909</v>
+        <v>0.245305</v>
       </c>
       <c r="D97" t="n">
-        <v>0.246395</v>
+        <v>0.687115</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.24649</v>
+        <v>0.247301</v>
       </c>
       <c r="C98" t="n">
-        <v>0.245788</v>
+        <v>0.24386</v>
       </c>
       <c r="D98" t="n">
-        <v>0.243673</v>
+        <v>0.683756</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.246026</v>
+        <v>0.242408</v>
       </c>
       <c r="C99" t="n">
-        <v>0.240122</v>
+        <v>0.240719</v>
       </c>
       <c r="D99" t="n">
-        <v>0.246669</v>
+        <v>0.682799</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.240253</v>
+        <v>0.235647</v>
       </c>
       <c r="C100" t="n">
-        <v>0.240027</v>
+        <v>0.239685</v>
       </c>
       <c r="D100" t="n">
-        <v>0.239107</v>
+        <v>0.68684</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.235925</v>
+        <v>0.229429</v>
       </c>
       <c r="C101" t="n">
-        <v>0.238776</v>
+        <v>0.236598</v>
       </c>
       <c r="D101" t="n">
-        <v>0.238273</v>
+        <v>0.694444</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.227469</v>
+        <v>0.225402</v>
       </c>
       <c r="C102" t="n">
-        <v>0.236328</v>
+        <v>0.233618</v>
       </c>
       <c r="D102" t="n">
-        <v>0.239574</v>
+        <v>0.6885559999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.226451</v>
+        <v>0.22285</v>
       </c>
       <c r="C103" t="n">
-        <v>0.234168</v>
+        <v>0.232729</v>
       </c>
       <c r="D103" t="n">
-        <v>0.235467</v>
+        <v>0.672627</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.216583</v>
+        <v>0.218442</v>
       </c>
       <c r="C104" t="n">
-        <v>0.231748</v>
+        <v>0.231277</v>
       </c>
       <c r="D104" t="n">
-        <v>0.230627</v>
+        <v>0.682213</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.215584</v>
+        <v>0.213856</v>
       </c>
       <c r="C105" t="n">
-        <v>0.229123</v>
+        <v>0.23288</v>
       </c>
       <c r="D105" t="n">
-        <v>0.231406</v>
+        <v>0.678013</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.209972</v>
+        <v>0.209335</v>
       </c>
       <c r="C106" t="n">
-        <v>0.229213</v>
+        <v>0.229895</v>
       </c>
       <c r="D106" t="n">
-        <v>0.229474</v>
+        <v>0.6733170000000001</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.207577</v>
+        <v>0.20427</v>
       </c>
       <c r="C107" t="n">
-        <v>0.227275</v>
+        <v>0.227905</v>
       </c>
       <c r="D107" t="n">
-        <v>0.231446</v>
+        <v>0.6968839999999999</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.200405</v>
+        <v>0.197234</v>
       </c>
       <c r="C108" t="n">
-        <v>0.258393</v>
+        <v>0.254915</v>
       </c>
       <c r="D108" t="n">
-        <v>0.257594</v>
+        <v>0.697612</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.192063</v>
+        <v>0.188772</v>
       </c>
       <c r="C109" t="n">
-        <v>0.251149</v>
+        <v>0.256241</v>
       </c>
       <c r="D109" t="n">
-        <v>0.256188</v>
+        <v>0.683886</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.260843</v>
+        <v>0.256604</v>
       </c>
       <c r="C110" t="n">
-        <v>0.246576</v>
+        <v>0.251254</v>
       </c>
       <c r="D110" t="n">
-        <v>0.256622</v>
+        <v>0.687491</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.256824</v>
+        <v>0.256778</v>
       </c>
       <c r="C111" t="n">
-        <v>0.247309</v>
+        <v>0.252305</v>
       </c>
       <c r="D111" t="n">
-        <v>0.24915</v>
+        <v>0.693743</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.251768</v>
+        <v>0.249777</v>
       </c>
       <c r="C112" t="n">
-        <v>0.244761</v>
+        <v>0.246062</v>
       </c>
       <c r="D112" t="n">
-        <v>0.251577</v>
+        <v>0.681982</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.243066</v>
+        <v>0.2449</v>
       </c>
       <c r="C113" t="n">
-        <v>0.242284</v>
+        <v>0.240733</v>
       </c>
       <c r="D113" t="n">
-        <v>0.246529</v>
+        <v>0.688674</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.241697</v>
+        <v>0.238147</v>
       </c>
       <c r="C114" t="n">
-        <v>0.237913</v>
+        <v>0.238776</v>
       </c>
       <c r="D114" t="n">
-        <v>0.242146</v>
+        <v>0.678426</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.234425</v>
+        <v>0.23691</v>
       </c>
       <c r="C115" t="n">
-        <v>0.240376</v>
+        <v>0.237798</v>
       </c>
       <c r="D115" t="n">
-        <v>0.237232</v>
+        <v>0.680273</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.229974</v>
+        <v>0.229336</v>
       </c>
       <c r="C116" t="n">
-        <v>0.237425</v>
+        <v>0.234924</v>
       </c>
       <c r="D116" t="n">
-        <v>0.240509</v>
+        <v>0.678099</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.223936</v>
+        <v>0.223634</v>
       </c>
       <c r="C117" t="n">
-        <v>0.242179</v>
+        <v>0.235986</v>
       </c>
       <c r="D117" t="n">
-        <v>0.237356</v>
+        <v>0.6807569999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.221254</v>
+        <v>0.218219</v>
       </c>
       <c r="C118" t="n">
-        <v>0.234974</v>
+        <v>0.230108</v>
       </c>
       <c r="D118" t="n">
-        <v>0.234731</v>
+        <v>0.692398</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.217801</v>
+        <v>0.21457</v>
       </c>
       <c r="C119" t="n">
-        <v>0.230256</v>
+        <v>0.229524</v>
       </c>
       <c r="D119" t="n">
-        <v>0.237236</v>
+        <v>0.674275</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.212217</v>
+        <v>0.211519</v>
       </c>
       <c r="C120" t="n">
-        <v>0.232657</v>
+        <v>0.22959</v>
       </c>
       <c r="D120" t="n">
-        <v>0.232244</v>
+        <v>0.685617</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.207613</v>
+        <v>0.201145</v>
       </c>
       <c r="C121" t="n">
-        <v>0.227198</v>
+        <v>0.228807</v>
       </c>
       <c r="D121" t="n">
-        <v>0.233524</v>
+        <v>0.695306</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.2012</v>
+        <v>0.198693</v>
       </c>
       <c r="C122" t="n">
-        <v>0.227554</v>
+        <v>0.225727</v>
       </c>
       <c r="D122" t="n">
-        <v>0.227342</v>
+        <v>0.703811</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.191694</v>
+        <v>0.191804</v>
       </c>
       <c r="C123" t="n">
-        <v>0.249175</v>
+        <v>0.254855</v>
       </c>
       <c r="D123" t="n">
-        <v>0.256512</v>
+        <v>0.688223</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.26287</v>
+        <v>0.259433</v>
       </c>
       <c r="C124" t="n">
-        <v>0.251083</v>
+        <v>0.252214</v>
       </c>
       <c r="D124" t="n">
-        <v>0.252834</v>
+        <v>0.698715</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.256865</v>
+        <v>0.259441</v>
       </c>
       <c r="C125" t="n">
-        <v>0.245815</v>
+        <v>0.249669</v>
       </c>
       <c r="D125" t="n">
-        <v>0.250382</v>
+        <v>0.709416</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.25139</v>
+        <v>0.25006</v>
       </c>
       <c r="C126" t="n">
-        <v>0.247526</v>
+        <v>0.243659</v>
       </c>
       <c r="D126" t="n">
-        <v>0.246611</v>
+        <v>0.690366</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.242948</v>
+        <v>0.251455</v>
       </c>
       <c r="C127" t="n">
-        <v>0.239437</v>
+        <v>0.238913</v>
       </c>
       <c r="D127" t="n">
-        <v>0.242246</v>
+        <v>0.673123</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.241147</v>
+        <v>0.235846</v>
       </c>
       <c r="C128" t="n">
-        <v>0.23927</v>
+        <v>0.234801</v>
       </c>
       <c r="D128" t="n">
-        <v>0.241856</v>
+        <v>0.670229</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.234343</v>
+        <v>0.231328</v>
       </c>
       <c r="C129" t="n">
-        <v>0.246472</v>
+        <v>0.236684</v>
       </c>
       <c r="D129" t="n">
-        <v>0.240236</v>
+        <v>0.666048</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.230967</v>
+        <v>0.222058</v>
       </c>
       <c r="C130" t="n">
-        <v>0.236219</v>
+        <v>0.233419</v>
       </c>
       <c r="D130" t="n">
-        <v>0.236036</v>
+        <v>0.676588</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.231411</v>
+        <v>0.219445</v>
       </c>
       <c r="C131" t="n">
-        <v>0.234834</v>
+        <v>0.23257</v>
       </c>
       <c r="D131" t="n">
-        <v>0.234749</v>
+        <v>0.684706</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.221261</v>
+        <v>0.221647</v>
       </c>
       <c r="C132" t="n">
-        <v>0.238049</v>
+        <v>0.236228</v>
       </c>
       <c r="D132" t="n">
-        <v>0.235417</v>
+        <v>0.688661</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.217202</v>
+        <v>0.216794</v>
       </c>
       <c r="C133" t="n">
-        <v>0.23292</v>
+        <v>0.234697</v>
       </c>
       <c r="D133" t="n">
-        <v>0.233287</v>
+        <v>0.6875019999999999</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.214649</v>
+        <v>0.212805</v>
       </c>
       <c r="C134" t="n">
-        <v>0.229114</v>
+        <v>0.22916</v>
       </c>
       <c r="D134" t="n">
-        <v>0.229107</v>
+        <v>0.6833669999999999</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.209021</v>
+        <v>0.207445</v>
       </c>
       <c r="C135" t="n">
-        <v>0.226203</v>
+        <v>0.229862</v>
       </c>
       <c r="D135" t="n">
-        <v>0.237722</v>
+        <v>0.700193</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.20123</v>
+        <v>0.198833</v>
       </c>
       <c r="C136" t="n">
-        <v>0.230672</v>
+        <v>0.223271</v>
       </c>
       <c r="D136" t="n">
-        <v>0.227866</v>
+        <v>0.692997</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.191616</v>
+        <v>0.192542</v>
       </c>
       <c r="C137" t="n">
-        <v>0.252021</v>
+        <v>0.25223</v>
       </c>
       <c r="D137" t="n">
-        <v>0.254807</v>
+        <v>0.703556</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.264551</v>
+        <v>0.261308</v>
       </c>
       <c r="C138" t="n">
-        <v>0.250331</v>
+        <v>0.253002</v>
       </c>
       <c r="D138" t="n">
-        <v>0.252592</v>
+        <v>0.70628</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.257208</v>
+        <v>0.253871</v>
       </c>
       <c r="C139" t="n">
-        <v>0.248006</v>
+        <v>0.25031</v>
       </c>
       <c r="D139" t="n">
-        <v>0.246754</v>
+        <v>0.698122</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.250342</v>
+        <v>0.258856</v>
       </c>
       <c r="C140" t="n">
-        <v>0.249807</v>
+        <v>0.248856</v>
       </c>
       <c r="D140" t="n">
-        <v>0.245097</v>
+        <v>0.695373</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.246617</v>
+        <v>0.249746</v>
       </c>
       <c r="C141" t="n">
-        <v>0.241494</v>
+        <v>0.248682</v>
       </c>
       <c r="D141" t="n">
-        <v>0.244253</v>
+        <v>0.717123</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.237958</v>
+        <v>0.243084</v>
       </c>
       <c r="C142" t="n">
-        <v>0.244044</v>
+        <v>0.248621</v>
       </c>
       <c r="D142" t="n">
-        <v>0.248252</v>
+        <v>0.704556</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.239791</v>
+        <v>0.233473</v>
       </c>
       <c r="C143" t="n">
-        <v>0.238771</v>
+        <v>0.241706</v>
       </c>
       <c r="D143" t="n">
-        <v>0.236684</v>
+        <v>0.709663</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.200963</v>
+        <v>0.199946</v>
       </c>
       <c r="C2" t="n">
-        <v>0.214471</v>
+        <v>0.212433</v>
       </c>
       <c r="D2" t="n">
-        <v>0.214316</v>
+        <v>0.218377</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.198831</v>
+        <v>0.199226</v>
       </c>
       <c r="C3" t="n">
-        <v>0.213763</v>
+        <v>0.211311</v>
       </c>
       <c r="D3" t="n">
-        <v>0.215488</v>
+        <v>0.216175</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.203319</v>
+        <v>0.196195</v>
       </c>
       <c r="C4" t="n">
-        <v>0.213149</v>
+        <v>0.212129</v>
       </c>
       <c r="D4" t="n">
-        <v>0.219336</v>
+        <v>0.216908</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.196397</v>
+        <v>0.197018</v>
       </c>
       <c r="C5" t="n">
-        <v>0.218671</v>
+        <v>0.215997</v>
       </c>
       <c r="D5" t="n">
-        <v>0.216482</v>
+        <v>0.213738</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.194401</v>
+        <v>0.190669</v>
       </c>
       <c r="C6" t="n">
-        <v>0.211161</v>
+        <v>0.211647</v>
       </c>
       <c r="D6" t="n">
-        <v>0.213385</v>
+        <v>0.215453</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.187823</v>
+        <v>0.185719</v>
       </c>
       <c r="C7" t="n">
-        <v>0.212001</v>
+        <v>0.212496</v>
       </c>
       <c r="D7" t="n">
-        <v>0.211937</v>
+        <v>0.21322</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.18266</v>
+        <v>0.179861</v>
       </c>
       <c r="C8" t="n">
-        <v>0.214063</v>
+        <v>0.212378</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2123</v>
+        <v>0.21182</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.173703</v>
+        <v>0.173711</v>
       </c>
       <c r="C9" t="n">
-        <v>0.221872</v>
+        <v>0.221713</v>
       </c>
       <c r="D9" t="n">
-        <v>0.222376</v>
+        <v>0.220562</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.227487</v>
+        <v>0.226059</v>
       </c>
       <c r="C10" t="n">
-        <v>0.22542</v>
+        <v>0.217999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.226231</v>
+        <v>0.223286</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.223107</v>
+        <v>0.220938</v>
       </c>
       <c r="C11" t="n">
-        <v>0.220231</v>
+        <v>0.218957</v>
       </c>
       <c r="D11" t="n">
-        <v>0.221307</v>
+        <v>0.216471</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.221819</v>
+        <v>0.223033</v>
       </c>
       <c r="C12" t="n">
-        <v>0.222004</v>
+        <v>0.218157</v>
       </c>
       <c r="D12" t="n">
-        <v>0.217936</v>
+        <v>0.219151</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.218343</v>
+        <v>0.219194</v>
       </c>
       <c r="C13" t="n">
-        <v>0.220373</v>
+        <v>0.214098</v>
       </c>
       <c r="D13" t="n">
-        <v>0.217764</v>
+        <v>0.215986</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.216859</v>
+        <v>0.215683</v>
       </c>
       <c r="C14" t="n">
-        <v>0.218409</v>
+        <v>0.21871</v>
       </c>
       <c r="D14" t="n">
-        <v>0.217086</v>
+        <v>0.22173</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.214046</v>
+        <v>0.211069</v>
       </c>
       <c r="C15" t="n">
-        <v>0.217496</v>
+        <v>0.217058</v>
       </c>
       <c r="D15" t="n">
-        <v>0.214585</v>
+        <v>0.217397</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.209592</v>
+        <v>0.207429</v>
       </c>
       <c r="C16" t="n">
-        <v>0.217791</v>
+        <v>0.214784</v>
       </c>
       <c r="D16" t="n">
-        <v>0.220393</v>
+        <v>0.217587</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.207946</v>
+        <v>0.20883</v>
       </c>
       <c r="C17" t="n">
-        <v>0.212844</v>
+        <v>0.217682</v>
       </c>
       <c r="D17" t="n">
-        <v>0.216518</v>
+        <v>0.216953</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.204</v>
+        <v>0.205532</v>
       </c>
       <c r="C18" t="n">
-        <v>0.212326</v>
+        <v>0.212504</v>
       </c>
       <c r="D18" t="n">
-        <v>0.21585</v>
+        <v>0.217593</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.200735</v>
+        <v>0.198517</v>
       </c>
       <c r="C19" t="n">
-        <v>0.213259</v>
+        <v>0.215255</v>
       </c>
       <c r="D19" t="n">
-        <v>0.21296</v>
+        <v>0.220715</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.194977</v>
+        <v>0.198973</v>
       </c>
       <c r="C20" t="n">
-        <v>0.213715</v>
+        <v>0.212531</v>
       </c>
       <c r="D20" t="n">
-        <v>0.213885</v>
+        <v>0.216011</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.193231</v>
+        <v>0.191668</v>
       </c>
       <c r="C21" t="n">
-        <v>0.216135</v>
+        <v>0.212624</v>
       </c>
       <c r="D21" t="n">
-        <v>0.21534</v>
+        <v>0.215381</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.188888</v>
+        <v>0.184829</v>
       </c>
       <c r="C22" t="n">
-        <v>0.212154</v>
+        <v>0.212984</v>
       </c>
       <c r="D22" t="n">
-        <v>0.213142</v>
+        <v>0.210689</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.177519</v>
+        <v>0.177461</v>
       </c>
       <c r="C23" t="n">
-        <v>0.225692</v>
+        <v>0.230088</v>
       </c>
       <c r="D23" t="n">
-        <v>0.225026</v>
+        <v>0.225393</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.237441</v>
+        <v>0.237699</v>
       </c>
       <c r="C24" t="n">
-        <v>0.225375</v>
+        <v>0.228698</v>
       </c>
       <c r="D24" t="n">
-        <v>0.22396</v>
+        <v>0.227281</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.235811</v>
+        <v>0.234386</v>
       </c>
       <c r="C25" t="n">
-        <v>0.223888</v>
+        <v>0.231643</v>
       </c>
       <c r="D25" t="n">
-        <v>0.22624</v>
+        <v>0.222276</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.23272</v>
+        <v>0.232329</v>
       </c>
       <c r="C26" t="n">
-        <v>0.22298</v>
+        <v>0.226074</v>
       </c>
       <c r="D26" t="n">
-        <v>0.219202</v>
+        <v>0.221948</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.225548</v>
+        <v>0.229791</v>
       </c>
       <c r="C27" t="n">
-        <v>0.224168</v>
+        <v>0.22314</v>
       </c>
       <c r="D27" t="n">
-        <v>0.220016</v>
+        <v>0.224666</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.222099</v>
+        <v>0.222053</v>
       </c>
       <c r="C28" t="n">
-        <v>0.222905</v>
+        <v>0.221455</v>
       </c>
       <c r="D28" t="n">
-        <v>0.220093</v>
+        <v>0.223904</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.218896</v>
+        <v>0.220476</v>
       </c>
       <c r="C29" t="n">
-        <v>0.21993</v>
+        <v>0.220921</v>
       </c>
       <c r="D29" t="n">
-        <v>0.223858</v>
+        <v>0.222749</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.214994</v>
+        <v>0.215357</v>
       </c>
       <c r="C30" t="n">
-        <v>0.221011</v>
+        <v>0.219163</v>
       </c>
       <c r="D30" t="n">
-        <v>0.218268</v>
+        <v>0.220581</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.209405</v>
+        <v>0.213048</v>
       </c>
       <c r="C31" t="n">
-        <v>0.217211</v>
+        <v>0.220243</v>
       </c>
       <c r="D31" t="n">
-        <v>0.226011</v>
+        <v>0.219581</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.208427</v>
+        <v>0.20886</v>
       </c>
       <c r="C32" t="n">
-        <v>0.218228</v>
+        <v>0.22</v>
       </c>
       <c r="D32" t="n">
-        <v>0.222514</v>
+        <v>0.219349</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.2033</v>
+        <v>0.203368</v>
       </c>
       <c r="C33" t="n">
-        <v>0.216178</v>
+        <v>0.216027</v>
       </c>
       <c r="D33" t="n">
-        <v>0.221964</v>
+        <v>0.219091</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.201455</v>
+        <v>0.199979</v>
       </c>
       <c r="C34" t="n">
-        <v>0.21295</v>
+        <v>0.217992</v>
       </c>
       <c r="D34" t="n">
-        <v>0.219116</v>
+        <v>0.219637</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.195598</v>
+        <v>0.197306</v>
       </c>
       <c r="C35" t="n">
-        <v>0.215128</v>
+        <v>0.215957</v>
       </c>
       <c r="D35" t="n">
-        <v>0.217472</v>
+        <v>0.217579</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.191239</v>
+        <v>0.19503</v>
       </c>
       <c r="C36" t="n">
-        <v>0.213676</v>
+        <v>0.215244</v>
       </c>
       <c r="D36" t="n">
-        <v>0.217922</v>
+        <v>0.217252</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.184353</v>
+        <v>0.18485</v>
       </c>
       <c r="C37" t="n">
-        <v>0.232387</v>
+        <v>0.232927</v>
       </c>
       <c r="D37" t="n">
-        <v>0.241929</v>
+        <v>0.242362</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.240374</v>
+        <v>0.242914</v>
       </c>
       <c r="C38" t="n">
-        <v>0.233897</v>
+        <v>0.237225</v>
       </c>
       <c r="D38" t="n">
-        <v>0.240154</v>
+        <v>0.239817</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.236309</v>
+        <v>0.2413</v>
       </c>
       <c r="C39" t="n">
-        <v>0.230865</v>
+        <v>0.233022</v>
       </c>
       <c r="D39" t="n">
-        <v>0.237982</v>
+        <v>0.24056</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.237071</v>
+        <v>0.235864</v>
       </c>
       <c r="C40" t="n">
-        <v>0.228748</v>
+        <v>0.232892</v>
       </c>
       <c r="D40" t="n">
-        <v>0.234176</v>
+        <v>0.236154</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.229485</v>
+        <v>0.23205</v>
       </c>
       <c r="C41" t="n">
-        <v>0.228233</v>
+        <v>0.231639</v>
       </c>
       <c r="D41" t="n">
-        <v>0.234256</v>
+        <v>0.234559</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.224082</v>
+        <v>0.22786</v>
       </c>
       <c r="C42" t="n">
-        <v>0.225672</v>
+        <v>0.227735</v>
       </c>
       <c r="D42" t="n">
-        <v>0.232013</v>
+        <v>0.233802</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.221414</v>
+        <v>0.219196</v>
       </c>
       <c r="C43" t="n">
-        <v>0.226535</v>
+        <v>0.222352</v>
       </c>
       <c r="D43" t="n">
-        <v>0.232548</v>
+        <v>0.227378</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.218203</v>
+        <v>0.211387</v>
       </c>
       <c r="C44" t="n">
-        <v>0.223617</v>
+        <v>0.221281</v>
       </c>
       <c r="D44" t="n">
-        <v>0.227428</v>
+        <v>0.225827</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.214096</v>
+        <v>0.208065</v>
       </c>
       <c r="C45" t="n">
-        <v>0.223703</v>
+        <v>0.216184</v>
       </c>
       <c r="D45" t="n">
-        <v>0.226457</v>
+        <v>0.22288</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209775</v>
+        <v>0.203943</v>
       </c>
       <c r="C46" t="n">
-        <v>0.219194</v>
+        <v>0.215788</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2247</v>
+        <v>0.221842</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.206002</v>
+        <v>0.201882</v>
       </c>
       <c r="C47" t="n">
-        <v>0.216289</v>
+        <v>0.215224</v>
       </c>
       <c r="D47" t="n">
-        <v>0.225879</v>
+        <v>0.221024</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.201601</v>
+        <v>0.199431</v>
       </c>
       <c r="C48" t="n">
-        <v>0.217316</v>
+        <v>0.213532</v>
       </c>
       <c r="D48" t="n">
-        <v>0.222914</v>
+        <v>0.219509</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.199815</v>
+        <v>0.192907</v>
       </c>
       <c r="C49" t="n">
-        <v>0.218616</v>
+        <v>0.21294</v>
       </c>
       <c r="D49" t="n">
-        <v>0.222869</v>
+        <v>0.217915</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.194043</v>
+        <v>0.187534</v>
       </c>
       <c r="C50" t="n">
-        <v>0.215079</v>
+        <v>0.211401</v>
       </c>
       <c r="D50" t="n">
-        <v>0.222748</v>
+        <v>0.217973</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.185853</v>
+        <v>0.183137</v>
       </c>
       <c r="C51" t="n">
-        <v>0.241076</v>
+        <v>0.236311</v>
       </c>
       <c r="D51" t="n">
-        <v>0.243833</v>
+        <v>0.239247</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.179529</v>
+        <v>0.175107</v>
       </c>
       <c r="C52" t="n">
-        <v>0.236636</v>
+        <v>0.232825</v>
       </c>
       <c r="D52" t="n">
-        <v>0.242476</v>
+        <v>0.236989</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.246029</v>
+        <v>0.241647</v>
       </c>
       <c r="C53" t="n">
-        <v>0.23361</v>
+        <v>0.230622</v>
       </c>
       <c r="D53" t="n">
-        <v>0.24009</v>
+        <v>0.235397</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242065</v>
+        <v>0.236013</v>
       </c>
       <c r="C54" t="n">
-        <v>0.233632</v>
+        <v>0.22729</v>
       </c>
       <c r="D54" t="n">
-        <v>0.239816</v>
+        <v>0.231511</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237814</v>
+        <v>0.23492</v>
       </c>
       <c r="C55" t="n">
-        <v>0.229408</v>
+        <v>0.226923</v>
       </c>
       <c r="D55" t="n">
-        <v>0.235131</v>
+        <v>0.230098</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.234385</v>
+        <v>0.226341</v>
       </c>
       <c r="C56" t="n">
-        <v>0.230078</v>
+        <v>0.225362</v>
       </c>
       <c r="D56" t="n">
-        <v>0.236792</v>
+        <v>0.23066</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.227011</v>
+        <v>0.222368</v>
       </c>
       <c r="C57" t="n">
-        <v>0.229312</v>
+        <v>0.225575</v>
       </c>
       <c r="D57" t="n">
-        <v>0.233058</v>
+        <v>0.227032</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.224995</v>
+        <v>0.217479</v>
       </c>
       <c r="C58" t="n">
-        <v>0.227851</v>
+        <v>0.222732</v>
       </c>
       <c r="D58" t="n">
-        <v>0.230313</v>
+        <v>0.225378</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.216744</v>
+        <v>0.213436</v>
       </c>
       <c r="C59" t="n">
-        <v>0.226219</v>
+        <v>0.222537</v>
       </c>
       <c r="D59" t="n">
-        <v>0.230445</v>
+        <v>0.22965</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.215788</v>
+        <v>0.216525</v>
       </c>
       <c r="C60" t="n">
-        <v>0.227205</v>
+        <v>0.226402</v>
       </c>
       <c r="D60" t="n">
-        <v>0.232079</v>
+        <v>0.228344</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.210497</v>
+        <v>0.210491</v>
       </c>
       <c r="C61" t="n">
-        <v>0.222175</v>
+        <v>0.223024</v>
       </c>
       <c r="D61" t="n">
-        <v>0.223878</v>
+        <v>0.228014</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.209157</v>
+        <v>0.206997</v>
       </c>
       <c r="C62" t="n">
-        <v>0.221876</v>
+        <v>0.221903</v>
       </c>
       <c r="D62" t="n">
-        <v>0.223895</v>
+        <v>0.227198</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.204266</v>
+        <v>0.201581</v>
       </c>
       <c r="C63" t="n">
-        <v>0.224121</v>
+        <v>0.221443</v>
       </c>
       <c r="D63" t="n">
-        <v>0.225729</v>
+        <v>0.226576</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.201973</v>
+        <v>0.201066</v>
       </c>
       <c r="C64" t="n">
-        <v>0.220438</v>
+        <v>0.221227</v>
       </c>
       <c r="D64" t="n">
-        <v>0.224862</v>
+        <v>0.223418</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.194396</v>
+        <v>0.191678</v>
       </c>
       <c r="C65" t="n">
-        <v>0.220024</v>
+        <v>0.21933</v>
       </c>
       <c r="D65" t="n">
-        <v>0.221876</v>
+        <v>0.22296</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.184344</v>
+        <v>0.183769</v>
       </c>
       <c r="C66" t="n">
-        <v>0.247609</v>
+        <v>0.242631</v>
       </c>
       <c r="D66" t="n">
-        <v>0.247863</v>
+        <v>0.244798</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.260657</v>
+        <v>0.252445</v>
       </c>
       <c r="C67" t="n">
-        <v>0.244645</v>
+        <v>0.24119</v>
       </c>
       <c r="D67" t="n">
-        <v>0.245513</v>
+        <v>0.243229</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.254008</v>
+        <v>0.2515</v>
       </c>
       <c r="C68" t="n">
-        <v>0.238366</v>
+        <v>0.240067</v>
       </c>
       <c r="D68" t="n">
-        <v>0.242134</v>
+        <v>0.241211</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.24808</v>
+        <v>0.244359</v>
       </c>
       <c r="C69" t="n">
-        <v>0.237897</v>
+        <v>0.241916</v>
       </c>
       <c r="D69" t="n">
-        <v>0.239926</v>
+        <v>0.239853</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.242156</v>
+        <v>0.24323</v>
       </c>
       <c r="C70" t="n">
-        <v>0.235419</v>
+        <v>0.237883</v>
       </c>
       <c r="D70" t="n">
-        <v>0.239595</v>
+        <v>0.238112</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.23633</v>
+        <v>0.241234</v>
       </c>
       <c r="C71" t="n">
-        <v>0.233808</v>
+        <v>0.234051</v>
       </c>
       <c r="D71" t="n">
-        <v>0.235396</v>
+        <v>0.234673</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.231838</v>
+        <v>0.232792</v>
       </c>
       <c r="C72" t="n">
-        <v>0.232104</v>
+        <v>0.237087</v>
       </c>
       <c r="D72" t="n">
-        <v>0.233794</v>
+        <v>0.239404</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.229309</v>
+        <v>0.228076</v>
       </c>
       <c r="C73" t="n">
-        <v>0.232643</v>
+        <v>0.231682</v>
       </c>
       <c r="D73" t="n">
-        <v>0.232333</v>
+        <v>0.237118</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.221993</v>
+        <v>0.219023</v>
       </c>
       <c r="C74" t="n">
-        <v>0.231133</v>
+        <v>0.231119</v>
       </c>
       <c r="D74" t="n">
-        <v>0.231693</v>
+        <v>0.232139</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.220614</v>
+        <v>0.2196</v>
       </c>
       <c r="C75" t="n">
-        <v>0.230656</v>
+        <v>0.230628</v>
       </c>
       <c r="D75" t="n">
-        <v>0.230119</v>
+        <v>0.230008</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.218451</v>
+        <v>0.215695</v>
       </c>
       <c r="C76" t="n">
-        <v>0.228382</v>
+        <v>0.228229</v>
       </c>
       <c r="D76" t="n">
-        <v>0.227457</v>
+        <v>0.22764</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.213327</v>
+        <v>0.210512</v>
       </c>
       <c r="C77" t="n">
-        <v>0.224834</v>
+        <v>0.229618</v>
       </c>
       <c r="D77" t="n">
-        <v>0.225882</v>
+        <v>0.225957</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.205742</v>
+        <v>0.204845</v>
       </c>
       <c r="C78" t="n">
-        <v>0.224528</v>
+        <v>0.22474</v>
       </c>
       <c r="D78" t="n">
-        <v>0.226326</v>
+        <v>0.225904</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.200864</v>
+        <v>0.200179</v>
       </c>
       <c r="C79" t="n">
-        <v>0.225591</v>
+        <v>0.223848</v>
       </c>
       <c r="D79" t="n">
-        <v>0.226131</v>
+        <v>0.225367</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.192294</v>
+        <v>0.195478</v>
       </c>
       <c r="C80" t="n">
-        <v>0.250824</v>
+        <v>0.251353</v>
       </c>
       <c r="D80" t="n">
-        <v>0.249013</v>
+        <v>0.255758</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.259826</v>
+        <v>0.259005</v>
       </c>
       <c r="C81" t="n">
-        <v>0.250799</v>
+        <v>0.250915</v>
       </c>
       <c r="D81" t="n">
-        <v>0.249416</v>
+        <v>0.250962</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.257167</v>
+        <v>0.254121</v>
       </c>
       <c r="C82" t="n">
-        <v>0.24537</v>
+        <v>0.246633</v>
       </c>
       <c r="D82" t="n">
-        <v>0.24974</v>
+        <v>0.250577</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.251099</v>
+        <v>0.251503</v>
       </c>
       <c r="C83" t="n">
-        <v>0.244103</v>
+        <v>0.243941</v>
       </c>
       <c r="D83" t="n">
-        <v>0.245391</v>
+        <v>0.244548</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.248075</v>
+        <v>0.244961</v>
       </c>
       <c r="C84" t="n">
-        <v>0.245226</v>
+        <v>0.244804</v>
       </c>
       <c r="D84" t="n">
-        <v>0.24376</v>
+        <v>0.243498</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.243354</v>
+        <v>0.243733</v>
       </c>
       <c r="C85" t="n">
-        <v>0.239137</v>
+        <v>0.239638</v>
       </c>
       <c r="D85" t="n">
-        <v>0.241301</v>
+        <v>0.243451</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.235326</v>
+        <v>0.236503</v>
       </c>
       <c r="C86" t="n">
-        <v>0.236776</v>
+        <v>0.235519</v>
       </c>
       <c r="D86" t="n">
-        <v>0.244678</v>
+        <v>0.239474</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.230415</v>
+        <v>0.231458</v>
       </c>
       <c r="C87" t="n">
-        <v>0.233984</v>
+        <v>0.236932</v>
       </c>
       <c r="D87" t="n">
-        <v>0.237254</v>
+        <v>0.238177</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.228066</v>
+        <v>0.224295</v>
       </c>
       <c r="C88" t="n">
-        <v>0.234239</v>
+        <v>0.233027</v>
       </c>
       <c r="D88" t="n">
-        <v>0.234773</v>
+        <v>0.236533</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.222724</v>
+        <v>0.223726</v>
       </c>
       <c r="C89" t="n">
-        <v>0.2319</v>
+        <v>0.2331</v>
       </c>
       <c r="D89" t="n">
-        <v>0.232513</v>
+        <v>0.232976</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.218015</v>
+        <v>0.217048</v>
       </c>
       <c r="C90" t="n">
-        <v>0.230094</v>
+        <v>0.22892</v>
       </c>
       <c r="D90" t="n">
-        <v>0.231685</v>
+        <v>0.233916</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.216035</v>
+        <v>0.214311</v>
       </c>
       <c r="C91" t="n">
-        <v>0.23246</v>
+        <v>0.230186</v>
       </c>
       <c r="D91" t="n">
-        <v>0.231097</v>
+        <v>0.231398</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.209054</v>
+        <v>0.207785</v>
       </c>
       <c r="C92" t="n">
-        <v>0.229806</v>
+        <v>0.226765</v>
       </c>
       <c r="D92" t="n">
-        <v>0.22797</v>
+        <v>0.229573</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.203071</v>
+        <v>0.203394</v>
       </c>
       <c r="C93" t="n">
-        <v>0.223747</v>
+        <v>0.227349</v>
       </c>
       <c r="D93" t="n">
-        <v>0.229841</v>
+        <v>0.229395</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.199054</v>
+        <v>0.195414</v>
       </c>
       <c r="C94" t="n">
-        <v>0.255177</v>
+        <v>0.253635</v>
       </c>
       <c r="D94" t="n">
-        <v>0.252201</v>
+        <v>0.258671</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.260298</v>
+        <v>0.263942</v>
       </c>
       <c r="C95" t="n">
-        <v>0.251544</v>
+        <v>0.251913</v>
       </c>
       <c r="D95" t="n">
-        <v>0.253512</v>
+        <v>0.251025</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.256835</v>
+        <v>0.256774</v>
       </c>
       <c r="C96" t="n">
-        <v>0.249536</v>
+        <v>0.247939</v>
       </c>
       <c r="D96" t="n">
-        <v>0.252148</v>
+        <v>0.250701</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.253826</v>
+        <v>0.256541</v>
       </c>
       <c r="C97" t="n">
-        <v>0.24909</v>
+        <v>0.24529</v>
       </c>
       <c r="D97" t="n">
-        <v>0.246395</v>
+        <v>0.246487</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.24649</v>
+        <v>0.249257</v>
       </c>
       <c r="C98" t="n">
-        <v>0.245788</v>
+        <v>0.240929</v>
       </c>
       <c r="D98" t="n">
-        <v>0.243673</v>
+        <v>0.244802</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.246026</v>
+        <v>0.245023</v>
       </c>
       <c r="C99" t="n">
-        <v>0.240122</v>
+        <v>0.243192</v>
       </c>
       <c r="D99" t="n">
-        <v>0.246669</v>
+        <v>0.240817</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.240253</v>
+        <v>0.238331</v>
       </c>
       <c r="C100" t="n">
-        <v>0.240027</v>
+        <v>0.237125</v>
       </c>
       <c r="D100" t="n">
-        <v>0.239107</v>
+        <v>0.239711</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.235925</v>
+        <v>0.233066</v>
       </c>
       <c r="C101" t="n">
-        <v>0.238776</v>
+        <v>0.238028</v>
       </c>
       <c r="D101" t="n">
-        <v>0.238273</v>
+        <v>0.238495</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.227469</v>
+        <v>0.229163</v>
       </c>
       <c r="C102" t="n">
-        <v>0.236328</v>
+        <v>0.235133</v>
       </c>
       <c r="D102" t="n">
-        <v>0.239574</v>
+        <v>0.24013</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.226451</v>
+        <v>0.223995</v>
       </c>
       <c r="C103" t="n">
-        <v>0.234168</v>
+        <v>0.232321</v>
       </c>
       <c r="D103" t="n">
-        <v>0.235467</v>
+        <v>0.234321</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.216583</v>
+        <v>0.219093</v>
       </c>
       <c r="C104" t="n">
-        <v>0.231748</v>
+        <v>0.231544</v>
       </c>
       <c r="D104" t="n">
-        <v>0.230627</v>
+        <v>0.235183</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.215584</v>
+        <v>0.216288</v>
       </c>
       <c r="C105" t="n">
-        <v>0.229123</v>
+        <v>0.229956</v>
       </c>
       <c r="D105" t="n">
-        <v>0.231406</v>
+        <v>0.232016</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.209972</v>
+        <v>0.209029</v>
       </c>
       <c r="C106" t="n">
-        <v>0.229213</v>
+        <v>0.229718</v>
       </c>
       <c r="D106" t="n">
-        <v>0.229474</v>
+        <v>0.231294</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.207577</v>
+        <v>0.203936</v>
       </c>
       <c r="C107" t="n">
-        <v>0.227275</v>
+        <v>0.226917</v>
       </c>
       <c r="D107" t="n">
-        <v>0.231446</v>
+        <v>0.227905</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.200405</v>
+        <v>0.199469</v>
       </c>
       <c r="C108" t="n">
-        <v>0.258393</v>
+        <v>0.258655</v>
       </c>
       <c r="D108" t="n">
-        <v>0.257594</v>
+        <v>0.261451</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.192063</v>
+        <v>0.187504</v>
       </c>
       <c r="C109" t="n">
-        <v>0.251149</v>
+        <v>0.255442</v>
       </c>
       <c r="D109" t="n">
-        <v>0.256188</v>
+        <v>0.257129</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.260843</v>
+        <v>0.261792</v>
       </c>
       <c r="C110" t="n">
-        <v>0.246576</v>
+        <v>0.250076</v>
       </c>
       <c r="D110" t="n">
-        <v>0.256622</v>
+        <v>0.253019</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.256824</v>
+        <v>0.2581</v>
       </c>
       <c r="C111" t="n">
-        <v>0.247309</v>
+        <v>0.24671</v>
       </c>
       <c r="D111" t="n">
-        <v>0.24915</v>
+        <v>0.24846</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.251768</v>
+        <v>0.244147</v>
       </c>
       <c r="C112" t="n">
-        <v>0.244761</v>
+        <v>0.2471</v>
       </c>
       <c r="D112" t="n">
-        <v>0.251577</v>
+        <v>0.242144</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.243066</v>
+        <v>0.249563</v>
       </c>
       <c r="C113" t="n">
-        <v>0.242284</v>
+        <v>0.239358</v>
       </c>
       <c r="D113" t="n">
-        <v>0.246529</v>
+        <v>0.242155</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.241697</v>
+        <v>0.238344</v>
       </c>
       <c r="C114" t="n">
-        <v>0.237913</v>
+        <v>0.240365</v>
       </c>
       <c r="D114" t="n">
-        <v>0.242146</v>
+        <v>0.240685</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.234425</v>
+        <v>0.234668</v>
       </c>
       <c r="C115" t="n">
-        <v>0.240376</v>
+        <v>0.237915</v>
       </c>
       <c r="D115" t="n">
-        <v>0.237232</v>
+        <v>0.242747</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.229974</v>
+        <v>0.227106</v>
       </c>
       <c r="C116" t="n">
-        <v>0.237425</v>
+        <v>0.234583</v>
       </c>
       <c r="D116" t="n">
-        <v>0.240509</v>
+        <v>0.238608</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.223936</v>
+        <v>0.227535</v>
       </c>
       <c r="C117" t="n">
-        <v>0.242179</v>
+        <v>0.232622</v>
       </c>
       <c r="D117" t="n">
-        <v>0.237356</v>
+        <v>0.231971</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.221254</v>
+        <v>0.219332</v>
       </c>
       <c r="C118" t="n">
-        <v>0.234974</v>
+        <v>0.233253</v>
       </c>
       <c r="D118" t="n">
-        <v>0.234731</v>
+        <v>0.235286</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.217801</v>
+        <v>0.213184</v>
       </c>
       <c r="C119" t="n">
-        <v>0.230256</v>
+        <v>0.233172</v>
       </c>
       <c r="D119" t="n">
-        <v>0.237236</v>
+        <v>0.236008</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.212217</v>
+        <v>0.211343</v>
       </c>
       <c r="C120" t="n">
-        <v>0.232657</v>
+        <v>0.227637</v>
       </c>
       <c r="D120" t="n">
-        <v>0.232244</v>
+        <v>0.231663</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.207613</v>
+        <v>0.207045</v>
       </c>
       <c r="C121" t="n">
-        <v>0.227198</v>
+        <v>0.232258</v>
       </c>
       <c r="D121" t="n">
-        <v>0.233524</v>
+        <v>0.230337</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.2012</v>
+        <v>0.199874</v>
       </c>
       <c r="C122" t="n">
-        <v>0.227554</v>
+        <v>0.22761</v>
       </c>
       <c r="D122" t="n">
-        <v>0.227342</v>
+        <v>0.228845</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.191694</v>
+        <v>0.191212</v>
       </c>
       <c r="C123" t="n">
-        <v>0.249175</v>
+        <v>0.254918</v>
       </c>
       <c r="D123" t="n">
-        <v>0.256512</v>
+        <v>0.257661</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.26287</v>
+        <v>0.259262</v>
       </c>
       <c r="C124" t="n">
-        <v>0.251083</v>
+        <v>0.252604</v>
       </c>
       <c r="D124" t="n">
-        <v>0.252834</v>
+        <v>0.249861</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.256865</v>
+        <v>0.256136</v>
       </c>
       <c r="C125" t="n">
-        <v>0.245815</v>
+        <v>0.248356</v>
       </c>
       <c r="D125" t="n">
-        <v>0.250382</v>
+        <v>0.254761</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.25139</v>
+        <v>0.24817</v>
       </c>
       <c r="C126" t="n">
-        <v>0.247526</v>
+        <v>0.245476</v>
       </c>
       <c r="D126" t="n">
-        <v>0.246611</v>
+        <v>0.246126</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.242948</v>
+        <v>0.242435</v>
       </c>
       <c r="C127" t="n">
-        <v>0.239437</v>
+        <v>0.244061</v>
       </c>
       <c r="D127" t="n">
-        <v>0.242246</v>
+        <v>0.243384</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.241147</v>
+        <v>0.236145</v>
       </c>
       <c r="C128" t="n">
-        <v>0.23927</v>
+        <v>0.240434</v>
       </c>
       <c r="D128" t="n">
-        <v>0.241856</v>
+        <v>0.244666</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.234343</v>
+        <v>0.233406</v>
       </c>
       <c r="C129" t="n">
-        <v>0.246472</v>
+        <v>0.239286</v>
       </c>
       <c r="D129" t="n">
-        <v>0.240236</v>
+        <v>0.243236</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.230967</v>
+        <v>0.231688</v>
       </c>
       <c r="C130" t="n">
-        <v>0.236219</v>
+        <v>0.23353</v>
       </c>
       <c r="D130" t="n">
-        <v>0.236036</v>
+        <v>0.236351</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.231411</v>
+        <v>0.220834</v>
       </c>
       <c r="C131" t="n">
-        <v>0.234834</v>
+        <v>0.229387</v>
       </c>
       <c r="D131" t="n">
-        <v>0.234749</v>
+        <v>0.229805</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.221261</v>
+        <v>0.214468</v>
       </c>
       <c r="C132" t="n">
-        <v>0.238049</v>
+        <v>0.230937</v>
       </c>
       <c r="D132" t="n">
-        <v>0.235417</v>
+        <v>0.229436</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.217202</v>
+        <v>0.210478</v>
       </c>
       <c r="C133" t="n">
-        <v>0.23292</v>
+        <v>0.229352</v>
       </c>
       <c r="D133" t="n">
-        <v>0.233287</v>
+        <v>0.226992</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.214649</v>
+        <v>0.207477</v>
       </c>
       <c r="C134" t="n">
-        <v>0.229114</v>
+        <v>0.2233</v>
       </c>
       <c r="D134" t="n">
-        <v>0.229107</v>
+        <v>0.226791</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.209021</v>
+        <v>0.205034</v>
       </c>
       <c r="C135" t="n">
-        <v>0.226203</v>
+        <v>0.222666</v>
       </c>
       <c r="D135" t="n">
-        <v>0.237722</v>
+        <v>0.224616</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.20123</v>
+        <v>0.196197</v>
       </c>
       <c r="C136" t="n">
-        <v>0.230672</v>
+        <v>0.221759</v>
       </c>
       <c r="D136" t="n">
-        <v>0.227866</v>
+        <v>0.22329</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.191616</v>
+        <v>0.187841</v>
       </c>
       <c r="C137" t="n">
-        <v>0.252021</v>
+        <v>0.248615</v>
       </c>
       <c r="D137" t="n">
-        <v>0.254807</v>
+        <v>0.249944</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.264551</v>
+        <v>0.257464</v>
       </c>
       <c r="C138" t="n">
-        <v>0.250331</v>
+        <v>0.246148</v>
       </c>
       <c r="D138" t="n">
-        <v>0.252592</v>
+        <v>0.246993</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.257208</v>
+        <v>0.251189</v>
       </c>
       <c r="C139" t="n">
-        <v>0.248006</v>
+        <v>0.242199</v>
       </c>
       <c r="D139" t="n">
-        <v>0.246754</v>
+        <v>0.24566</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.250342</v>
+        <v>0.244859</v>
       </c>
       <c r="C140" t="n">
-        <v>0.249807</v>
+        <v>0.243269</v>
       </c>
       <c r="D140" t="n">
-        <v>0.245097</v>
+        <v>0.246661</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.246617</v>
+        <v>0.249956</v>
       </c>
       <c r="C141" t="n">
-        <v>0.241494</v>
+        <v>0.246132</v>
       </c>
       <c r="D141" t="n">
-        <v>0.244253</v>
+        <v>0.250395</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.237958</v>
+        <v>0.24871</v>
       </c>
       <c r="C142" t="n">
-        <v>0.244044</v>
+        <v>0.243197</v>
       </c>
       <c r="D142" t="n">
-        <v>0.248252</v>
+        <v>0.244481</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.239791</v>
+        <v>0.236028</v>
       </c>
       <c r="C143" t="n">
-        <v>0.238771</v>
+        <v>0.240974</v>
       </c>
       <c r="D143" t="n">
-        <v>0.236684</v>
+        <v>0.241173</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.199946</v>
+        <v>0.201076</v>
       </c>
       <c r="C2" t="n">
-        <v>0.212433</v>
+        <v>0.223456</v>
       </c>
       <c r="D2" t="n">
-        <v>0.218377</v>
+        <v>0.217439</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.199226</v>
+        <v>0.198079</v>
       </c>
       <c r="C3" t="n">
-        <v>0.211311</v>
+        <v>0.221732</v>
       </c>
       <c r="D3" t="n">
-        <v>0.216175</v>
+        <v>0.214539</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.196195</v>
+        <v>0.197268</v>
       </c>
       <c r="C4" t="n">
-        <v>0.212129</v>
+        <v>0.222326</v>
       </c>
       <c r="D4" t="n">
-        <v>0.216908</v>
+        <v>0.213885</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.197018</v>
+        <v>0.193263</v>
       </c>
       <c r="C5" t="n">
-        <v>0.215997</v>
+        <v>0.225381</v>
       </c>
       <c r="D5" t="n">
-        <v>0.213738</v>
+        <v>0.214566</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.190669</v>
+        <v>0.195648</v>
       </c>
       <c r="C6" t="n">
-        <v>0.211647</v>
+        <v>0.223328</v>
       </c>
       <c r="D6" t="n">
-        <v>0.215453</v>
+        <v>0.213458</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.185719</v>
+        <v>0.187991</v>
       </c>
       <c r="C7" t="n">
-        <v>0.212496</v>
+        <v>0.225287</v>
       </c>
       <c r="D7" t="n">
-        <v>0.21322</v>
+        <v>0.213023</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.179861</v>
+        <v>0.178474</v>
       </c>
       <c r="C8" t="n">
-        <v>0.212378</v>
+        <v>0.224629</v>
       </c>
       <c r="D8" t="n">
-        <v>0.21182</v>
+        <v>0.214807</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.173711</v>
+        <v>0.177898</v>
       </c>
       <c r="C9" t="n">
-        <v>0.221713</v>
+        <v>0.229582</v>
       </c>
       <c r="D9" t="n">
-        <v>0.220562</v>
+        <v>0.224993</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.226059</v>
+        <v>0.229645</v>
       </c>
       <c r="C10" t="n">
-        <v>0.217999</v>
+        <v>0.228328</v>
       </c>
       <c r="D10" t="n">
-        <v>0.223286</v>
+        <v>0.2221</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.220938</v>
+        <v>0.226642</v>
       </c>
       <c r="C11" t="n">
-        <v>0.218957</v>
+        <v>0.228579</v>
       </c>
       <c r="D11" t="n">
-        <v>0.216471</v>
+        <v>0.220467</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.223033</v>
+        <v>0.218999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.218157</v>
+        <v>0.229335</v>
       </c>
       <c r="D12" t="n">
-        <v>0.219151</v>
+        <v>0.220281</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.219194</v>
+        <v>0.221183</v>
       </c>
       <c r="C13" t="n">
-        <v>0.214098</v>
+        <v>0.230282</v>
       </c>
       <c r="D13" t="n">
-        <v>0.215986</v>
+        <v>0.224926</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.215683</v>
+        <v>0.214738</v>
       </c>
       <c r="C14" t="n">
-        <v>0.21871</v>
+        <v>0.228398</v>
       </c>
       <c r="D14" t="n">
-        <v>0.22173</v>
+        <v>0.220951</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.211069</v>
+        <v>0.212024</v>
       </c>
       <c r="C15" t="n">
-        <v>0.217058</v>
+        <v>0.222744</v>
       </c>
       <c r="D15" t="n">
-        <v>0.217397</v>
+        <v>0.216525</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.207429</v>
+        <v>0.207068</v>
       </c>
       <c r="C16" t="n">
-        <v>0.214784</v>
+        <v>0.226732</v>
       </c>
       <c r="D16" t="n">
-        <v>0.217587</v>
+        <v>0.219089</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.20883</v>
+        <v>0.206087</v>
       </c>
       <c r="C17" t="n">
-        <v>0.217682</v>
+        <v>0.225174</v>
       </c>
       <c r="D17" t="n">
-        <v>0.216953</v>
+        <v>0.219915</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.205532</v>
+        <v>0.201303</v>
       </c>
       <c r="C18" t="n">
-        <v>0.212504</v>
+        <v>0.22692</v>
       </c>
       <c r="D18" t="n">
-        <v>0.217593</v>
+        <v>0.220539</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.198517</v>
+        <v>0.202807</v>
       </c>
       <c r="C19" t="n">
-        <v>0.215255</v>
+        <v>0.227957</v>
       </c>
       <c r="D19" t="n">
-        <v>0.220715</v>
+        <v>0.219304</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.198973</v>
+        <v>0.194844</v>
       </c>
       <c r="C20" t="n">
-        <v>0.212531</v>
+        <v>0.22691</v>
       </c>
       <c r="D20" t="n">
-        <v>0.216011</v>
+        <v>0.21943</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.191668</v>
+        <v>0.195113</v>
       </c>
       <c r="C21" t="n">
-        <v>0.212624</v>
+        <v>0.22637</v>
       </c>
       <c r="D21" t="n">
-        <v>0.215381</v>
+        <v>0.215227</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.184829</v>
+        <v>0.187636</v>
       </c>
       <c r="C22" t="n">
-        <v>0.212984</v>
+        <v>0.225489</v>
       </c>
       <c r="D22" t="n">
-        <v>0.210689</v>
+        <v>0.216571</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.177461</v>
+        <v>0.180915</v>
       </c>
       <c r="C23" t="n">
-        <v>0.230088</v>
+        <v>0.241135</v>
       </c>
       <c r="D23" t="n">
-        <v>0.225393</v>
+        <v>0.229585</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.237699</v>
+        <v>0.238078</v>
       </c>
       <c r="C24" t="n">
-        <v>0.228698</v>
+        <v>0.236047</v>
       </c>
       <c r="D24" t="n">
-        <v>0.227281</v>
+        <v>0.232206</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.234386</v>
+        <v>0.233239</v>
       </c>
       <c r="C25" t="n">
-        <v>0.231643</v>
+        <v>0.235467</v>
       </c>
       <c r="D25" t="n">
-        <v>0.222276</v>
+        <v>0.226136</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.232329</v>
+        <v>0.232128</v>
       </c>
       <c r="C26" t="n">
-        <v>0.226074</v>
+        <v>0.238528</v>
       </c>
       <c r="D26" t="n">
-        <v>0.221948</v>
+        <v>0.227728</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.229791</v>
+        <v>0.22772</v>
       </c>
       <c r="C27" t="n">
-        <v>0.22314</v>
+        <v>0.231838</v>
       </c>
       <c r="D27" t="n">
-        <v>0.224666</v>
+        <v>0.226212</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.222053</v>
+        <v>0.223491</v>
       </c>
       <c r="C28" t="n">
-        <v>0.221455</v>
+        <v>0.232986</v>
       </c>
       <c r="D28" t="n">
-        <v>0.223904</v>
+        <v>0.222229</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.220476</v>
+        <v>0.218478</v>
       </c>
       <c r="C29" t="n">
-        <v>0.220921</v>
+        <v>0.231314</v>
       </c>
       <c r="D29" t="n">
-        <v>0.222749</v>
+        <v>0.222429</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.215357</v>
+        <v>0.217508</v>
       </c>
       <c r="C30" t="n">
-        <v>0.219163</v>
+        <v>0.23185</v>
       </c>
       <c r="D30" t="n">
-        <v>0.220581</v>
+        <v>0.223505</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.213048</v>
+        <v>0.21389</v>
       </c>
       <c r="C31" t="n">
-        <v>0.220243</v>
+        <v>0.231309</v>
       </c>
       <c r="D31" t="n">
-        <v>0.219581</v>
+        <v>0.220465</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.20886</v>
+        <v>0.209412</v>
       </c>
       <c r="C32" t="n">
-        <v>0.22</v>
+        <v>0.229982</v>
       </c>
       <c r="D32" t="n">
-        <v>0.219349</v>
+        <v>0.220305</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.203368</v>
+        <v>0.205997</v>
       </c>
       <c r="C33" t="n">
-        <v>0.216027</v>
+        <v>0.230115</v>
       </c>
       <c r="D33" t="n">
-        <v>0.219091</v>
+        <v>0.22441</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.199979</v>
+        <v>0.201557</v>
       </c>
       <c r="C34" t="n">
-        <v>0.217992</v>
+        <v>0.2273</v>
       </c>
       <c r="D34" t="n">
-        <v>0.219637</v>
+        <v>0.222183</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.197306</v>
+        <v>0.197272</v>
       </c>
       <c r="C35" t="n">
-        <v>0.215957</v>
+        <v>0.225385</v>
       </c>
       <c r="D35" t="n">
-        <v>0.217579</v>
+        <v>0.217517</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.19503</v>
+        <v>0.190706</v>
       </c>
       <c r="C36" t="n">
-        <v>0.215244</v>
+        <v>0.228441</v>
       </c>
       <c r="D36" t="n">
-        <v>0.217252</v>
+        <v>0.217644</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.18485</v>
+        <v>0.186285</v>
       </c>
       <c r="C37" t="n">
-        <v>0.232927</v>
+        <v>0.246171</v>
       </c>
       <c r="D37" t="n">
-        <v>0.242362</v>
+        <v>0.247475</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.242914</v>
+        <v>0.246204</v>
       </c>
       <c r="C38" t="n">
-        <v>0.237225</v>
+        <v>0.243754</v>
       </c>
       <c r="D38" t="n">
-        <v>0.239817</v>
+        <v>0.243736</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2413</v>
+        <v>0.239083</v>
       </c>
       <c r="C39" t="n">
-        <v>0.233022</v>
+        <v>0.242008</v>
       </c>
       <c r="D39" t="n">
-        <v>0.24056</v>
+        <v>0.239997</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.235864</v>
+        <v>0.236685</v>
       </c>
       <c r="C40" t="n">
-        <v>0.232892</v>
+        <v>0.240199</v>
       </c>
       <c r="D40" t="n">
-        <v>0.236154</v>
+        <v>0.238616</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.23205</v>
+        <v>0.232539</v>
       </c>
       <c r="C41" t="n">
-        <v>0.231639</v>
+        <v>0.2372</v>
       </c>
       <c r="D41" t="n">
-        <v>0.234559</v>
+        <v>0.23911</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.22786</v>
+        <v>0.229909</v>
       </c>
       <c r="C42" t="n">
-        <v>0.227735</v>
+        <v>0.236145</v>
       </c>
       <c r="D42" t="n">
-        <v>0.233802</v>
+        <v>0.238097</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.219196</v>
+        <v>0.221007</v>
       </c>
       <c r="C43" t="n">
-        <v>0.222352</v>
+        <v>0.236195</v>
       </c>
       <c r="D43" t="n">
-        <v>0.227378</v>
+        <v>0.234794</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.211387</v>
+        <v>0.220432</v>
       </c>
       <c r="C44" t="n">
-        <v>0.221281</v>
+        <v>0.232809</v>
       </c>
       <c r="D44" t="n">
-        <v>0.225827</v>
+        <v>0.232584</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.208065</v>
+        <v>0.214738</v>
       </c>
       <c r="C45" t="n">
-        <v>0.216184</v>
+        <v>0.233839</v>
       </c>
       <c r="D45" t="n">
-        <v>0.22288</v>
+        <v>0.231307</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.203943</v>
+        <v>0.211192</v>
       </c>
       <c r="C46" t="n">
-        <v>0.215788</v>
+        <v>0.232242</v>
       </c>
       <c r="D46" t="n">
-        <v>0.221842</v>
+        <v>0.229477</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.201882</v>
+        <v>0.207816</v>
       </c>
       <c r="C47" t="n">
-        <v>0.215224</v>
+        <v>0.233048</v>
       </c>
       <c r="D47" t="n">
-        <v>0.221024</v>
+        <v>0.22902</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.199431</v>
+        <v>0.202506</v>
       </c>
       <c r="C48" t="n">
-        <v>0.213532</v>
+        <v>0.228874</v>
       </c>
       <c r="D48" t="n">
-        <v>0.219509</v>
+        <v>0.224228</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.192907</v>
+        <v>0.197809</v>
       </c>
       <c r="C49" t="n">
-        <v>0.21294</v>
+        <v>0.227611</v>
       </c>
       <c r="D49" t="n">
-        <v>0.217915</v>
+        <v>0.229146</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.187534</v>
+        <v>0.194665</v>
       </c>
       <c r="C50" t="n">
-        <v>0.211401</v>
+        <v>0.225867</v>
       </c>
       <c r="D50" t="n">
-        <v>0.217973</v>
+        <v>0.223651</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.183137</v>
+        <v>0.187964</v>
       </c>
       <c r="C51" t="n">
-        <v>0.236311</v>
+        <v>0.249921</v>
       </c>
       <c r="D51" t="n">
-        <v>0.239247</v>
+        <v>0.249458</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175107</v>
+        <v>0.18196</v>
       </c>
       <c r="C52" t="n">
-        <v>0.232825</v>
+        <v>0.245528</v>
       </c>
       <c r="D52" t="n">
-        <v>0.236989</v>
+        <v>0.24328</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.241647</v>
+        <v>0.244698</v>
       </c>
       <c r="C53" t="n">
-        <v>0.230622</v>
+        <v>0.243348</v>
       </c>
       <c r="D53" t="n">
-        <v>0.235397</v>
+        <v>0.24197</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.236013</v>
+        <v>0.239066</v>
       </c>
       <c r="C54" t="n">
-        <v>0.22729</v>
+        <v>0.245171</v>
       </c>
       <c r="D54" t="n">
-        <v>0.231511</v>
+        <v>0.239513</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.23492</v>
+        <v>0.234692</v>
       </c>
       <c r="C55" t="n">
-        <v>0.226923</v>
+        <v>0.240547</v>
       </c>
       <c r="D55" t="n">
-        <v>0.230098</v>
+        <v>0.236418</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.226341</v>
+        <v>0.232816</v>
       </c>
       <c r="C56" t="n">
-        <v>0.225362</v>
+        <v>0.241012</v>
       </c>
       <c r="D56" t="n">
-        <v>0.23066</v>
+        <v>0.236012</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.222368</v>
+        <v>0.225676</v>
       </c>
       <c r="C57" t="n">
-        <v>0.225575</v>
+        <v>0.239823</v>
       </c>
       <c r="D57" t="n">
-        <v>0.227032</v>
+        <v>0.233646</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.217479</v>
+        <v>0.221961</v>
       </c>
       <c r="C58" t="n">
-        <v>0.222732</v>
+        <v>0.238812</v>
       </c>
       <c r="D58" t="n">
-        <v>0.225378</v>
+        <v>0.236698</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.213436</v>
+        <v>0.219412</v>
       </c>
       <c r="C59" t="n">
-        <v>0.222537</v>
+        <v>0.240018</v>
       </c>
       <c r="D59" t="n">
-        <v>0.22965</v>
+        <v>0.229997</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.216525</v>
+        <v>0.212465</v>
       </c>
       <c r="C60" t="n">
-        <v>0.226402</v>
+        <v>0.235322</v>
       </c>
       <c r="D60" t="n">
-        <v>0.228344</v>
+        <v>0.230596</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.210491</v>
+        <v>0.211348</v>
       </c>
       <c r="C61" t="n">
-        <v>0.223024</v>
+        <v>0.234499</v>
       </c>
       <c r="D61" t="n">
-        <v>0.228014</v>
+        <v>0.227357</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.206997</v>
+        <v>0.204909</v>
       </c>
       <c r="C62" t="n">
-        <v>0.221903</v>
+        <v>0.230683</v>
       </c>
       <c r="D62" t="n">
-        <v>0.227198</v>
+        <v>0.229862</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.201581</v>
+        <v>0.204864</v>
       </c>
       <c r="C63" t="n">
-        <v>0.221443</v>
+        <v>0.23522</v>
       </c>
       <c r="D63" t="n">
-        <v>0.226576</v>
+        <v>0.227164</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.201066</v>
+        <v>0.199141</v>
       </c>
       <c r="C64" t="n">
-        <v>0.221227</v>
+        <v>0.229186</v>
       </c>
       <c r="D64" t="n">
-        <v>0.223418</v>
+        <v>0.225325</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.191678</v>
+        <v>0.192007</v>
       </c>
       <c r="C65" t="n">
-        <v>0.21933</v>
+        <v>0.231163</v>
       </c>
       <c r="D65" t="n">
-        <v>0.22296</v>
+        <v>0.223812</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.183769</v>
+        <v>0.187236</v>
       </c>
       <c r="C66" t="n">
-        <v>0.242631</v>
+        <v>0.256732</v>
       </c>
       <c r="D66" t="n">
-        <v>0.244798</v>
+        <v>0.247466</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.252445</v>
+        <v>0.25206</v>
       </c>
       <c r="C67" t="n">
-        <v>0.24119</v>
+        <v>0.250655</v>
       </c>
       <c r="D67" t="n">
-        <v>0.243229</v>
+        <v>0.246507</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.2515</v>
+        <v>0.248569</v>
       </c>
       <c r="C68" t="n">
-        <v>0.240067</v>
+        <v>0.252704</v>
       </c>
       <c r="D68" t="n">
-        <v>0.241211</v>
+        <v>0.249158</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.244359</v>
+        <v>0.246357</v>
       </c>
       <c r="C69" t="n">
-        <v>0.241916</v>
+        <v>0.247182</v>
       </c>
       <c r="D69" t="n">
-        <v>0.239853</v>
+        <v>0.243046</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.24323</v>
+        <v>0.242904</v>
       </c>
       <c r="C70" t="n">
-        <v>0.237883</v>
+        <v>0.247701</v>
       </c>
       <c r="D70" t="n">
-        <v>0.238112</v>
+        <v>0.239485</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.241234</v>
+        <v>0.234437</v>
       </c>
       <c r="C71" t="n">
-        <v>0.234051</v>
+        <v>0.244462</v>
       </c>
       <c r="D71" t="n">
-        <v>0.234673</v>
+        <v>0.239274</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.232792</v>
+        <v>0.231619</v>
       </c>
       <c r="C72" t="n">
-        <v>0.237087</v>
+        <v>0.242542</v>
       </c>
       <c r="D72" t="n">
-        <v>0.239404</v>
+        <v>0.239935</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.228076</v>
+        <v>0.226259</v>
       </c>
       <c r="C73" t="n">
-        <v>0.231682</v>
+        <v>0.240404</v>
       </c>
       <c r="D73" t="n">
-        <v>0.237118</v>
+        <v>0.234503</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.219023</v>
+        <v>0.223099</v>
       </c>
       <c r="C74" t="n">
-        <v>0.231119</v>
+        <v>0.240161</v>
       </c>
       <c r="D74" t="n">
-        <v>0.232139</v>
+        <v>0.2334</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.2196</v>
+        <v>0.217441</v>
       </c>
       <c r="C75" t="n">
-        <v>0.230628</v>
+        <v>0.241417</v>
       </c>
       <c r="D75" t="n">
-        <v>0.230008</v>
+        <v>0.232548</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.215695</v>
+        <v>0.218465</v>
       </c>
       <c r="C76" t="n">
-        <v>0.228229</v>
+        <v>0.236524</v>
       </c>
       <c r="D76" t="n">
-        <v>0.22764</v>
+        <v>0.234764</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.210512</v>
+        <v>0.21009</v>
       </c>
       <c r="C77" t="n">
-        <v>0.229618</v>
+        <v>0.234991</v>
       </c>
       <c r="D77" t="n">
-        <v>0.225957</v>
+        <v>0.228529</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.204845</v>
+        <v>0.208231</v>
       </c>
       <c r="C78" t="n">
-        <v>0.22474</v>
+        <v>0.234525</v>
       </c>
       <c r="D78" t="n">
-        <v>0.225904</v>
+        <v>0.228267</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.200179</v>
+        <v>0.200706</v>
       </c>
       <c r="C79" t="n">
-        <v>0.223848</v>
+        <v>0.23465</v>
       </c>
       <c r="D79" t="n">
-        <v>0.225367</v>
+        <v>0.22961</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.195478</v>
+        <v>0.192264</v>
       </c>
       <c r="C80" t="n">
-        <v>0.251353</v>
+        <v>0.258377</v>
       </c>
       <c r="D80" t="n">
-        <v>0.255758</v>
+        <v>0.254963</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.259005</v>
+        <v>0.261197</v>
       </c>
       <c r="C81" t="n">
-        <v>0.250915</v>
+        <v>0.262582</v>
       </c>
       <c r="D81" t="n">
-        <v>0.250962</v>
+        <v>0.253914</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.254121</v>
+        <v>0.256988</v>
       </c>
       <c r="C82" t="n">
-        <v>0.246633</v>
+        <v>0.257838</v>
       </c>
       <c r="D82" t="n">
-        <v>0.250577</v>
+        <v>0.247335</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.251503</v>
+        <v>0.248872</v>
       </c>
       <c r="C83" t="n">
-        <v>0.243941</v>
+        <v>0.251499</v>
       </c>
       <c r="D83" t="n">
-        <v>0.244548</v>
+        <v>0.248118</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.244961</v>
+        <v>0.245995</v>
       </c>
       <c r="C84" t="n">
-        <v>0.244804</v>
+        <v>0.251004</v>
       </c>
       <c r="D84" t="n">
-        <v>0.243498</v>
+        <v>0.243763</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.243733</v>
+        <v>0.239229</v>
       </c>
       <c r="C85" t="n">
-        <v>0.239638</v>
+        <v>0.250536</v>
       </c>
       <c r="D85" t="n">
-        <v>0.243451</v>
+        <v>0.243238</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.236503</v>
+        <v>0.234976</v>
       </c>
       <c r="C86" t="n">
-        <v>0.235519</v>
+        <v>0.246802</v>
       </c>
       <c r="D86" t="n">
-        <v>0.239474</v>
+        <v>0.242996</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.231458</v>
+        <v>0.230079</v>
       </c>
       <c r="C87" t="n">
-        <v>0.236932</v>
+        <v>0.244474</v>
       </c>
       <c r="D87" t="n">
-        <v>0.238177</v>
+        <v>0.23948</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.224295</v>
+        <v>0.224591</v>
       </c>
       <c r="C88" t="n">
-        <v>0.233027</v>
+        <v>0.243849</v>
       </c>
       <c r="D88" t="n">
-        <v>0.236533</v>
+        <v>0.239811</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.223726</v>
+        <v>0.21781</v>
       </c>
       <c r="C89" t="n">
-        <v>0.2331</v>
+        <v>0.24334</v>
       </c>
       <c r="D89" t="n">
-        <v>0.232976</v>
+        <v>0.237796</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.217048</v>
+        <v>0.216397</v>
       </c>
       <c r="C90" t="n">
-        <v>0.22892</v>
+        <v>0.242853</v>
       </c>
       <c r="D90" t="n">
-        <v>0.233916</v>
+        <v>0.233566</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.214311</v>
+        <v>0.211134</v>
       </c>
       <c r="C91" t="n">
-        <v>0.230186</v>
+        <v>0.237104</v>
       </c>
       <c r="D91" t="n">
-        <v>0.231398</v>
+        <v>0.236865</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.207785</v>
+        <v>0.206473</v>
       </c>
       <c r="C92" t="n">
-        <v>0.226765</v>
+        <v>0.240319</v>
       </c>
       <c r="D92" t="n">
-        <v>0.229573</v>
+        <v>0.230987</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.203394</v>
+        <v>0.204136</v>
       </c>
       <c r="C93" t="n">
-        <v>0.227349</v>
+        <v>0.235477</v>
       </c>
       <c r="D93" t="n">
-        <v>0.229395</v>
+        <v>0.22951</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.195414</v>
+        <v>0.195907</v>
       </c>
       <c r="C94" t="n">
-        <v>0.253635</v>
+        <v>0.262792</v>
       </c>
       <c r="D94" t="n">
-        <v>0.258671</v>
+        <v>0.258492</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.263942</v>
+        <v>0.260256</v>
       </c>
       <c r="C95" t="n">
-        <v>0.251913</v>
+        <v>0.258901</v>
       </c>
       <c r="D95" t="n">
-        <v>0.251025</v>
+        <v>0.252617</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.256774</v>
+        <v>0.261168</v>
       </c>
       <c r="C96" t="n">
-        <v>0.247939</v>
+        <v>0.257891</v>
       </c>
       <c r="D96" t="n">
-        <v>0.250701</v>
+        <v>0.25122</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.256541</v>
+        <v>0.252216</v>
       </c>
       <c r="C97" t="n">
-        <v>0.24529</v>
+        <v>0.255383</v>
       </c>
       <c r="D97" t="n">
-        <v>0.246487</v>
+        <v>0.250004</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.249257</v>
+        <v>0.245636</v>
       </c>
       <c r="C98" t="n">
-        <v>0.240929</v>
+        <v>0.251767</v>
       </c>
       <c r="D98" t="n">
-        <v>0.244802</v>
+        <v>0.246953</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.245023</v>
+        <v>0.246441</v>
       </c>
       <c r="C99" t="n">
-        <v>0.243192</v>
+        <v>0.255463</v>
       </c>
       <c r="D99" t="n">
-        <v>0.240817</v>
+        <v>0.245439</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.238331</v>
+        <v>0.235336</v>
       </c>
       <c r="C100" t="n">
-        <v>0.237125</v>
+        <v>0.246882</v>
       </c>
       <c r="D100" t="n">
-        <v>0.239711</v>
+        <v>0.245512</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.233066</v>
+        <v>0.23096</v>
       </c>
       <c r="C101" t="n">
-        <v>0.238028</v>
+        <v>0.244902</v>
       </c>
       <c r="D101" t="n">
-        <v>0.238495</v>
+        <v>0.242371</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.229163</v>
+        <v>0.227549</v>
       </c>
       <c r="C102" t="n">
-        <v>0.235133</v>
+        <v>0.246994</v>
       </c>
       <c r="D102" t="n">
-        <v>0.24013</v>
+        <v>0.23943</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.223995</v>
+        <v>0.22238</v>
       </c>
       <c r="C103" t="n">
-        <v>0.232321</v>
+        <v>0.244033</v>
       </c>
       <c r="D103" t="n">
-        <v>0.234321</v>
+        <v>0.236668</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.219093</v>
+        <v>0.219056</v>
       </c>
       <c r="C104" t="n">
-        <v>0.231544</v>
+        <v>0.243224</v>
       </c>
       <c r="D104" t="n">
-        <v>0.235183</v>
+        <v>0.233364</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.216288</v>
+        <v>0.215207</v>
       </c>
       <c r="C105" t="n">
-        <v>0.229956</v>
+        <v>0.239702</v>
       </c>
       <c r="D105" t="n">
-        <v>0.232016</v>
+        <v>0.233003</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.209029</v>
+        <v>0.20902</v>
       </c>
       <c r="C106" t="n">
-        <v>0.229718</v>
+        <v>0.236088</v>
       </c>
       <c r="D106" t="n">
-        <v>0.231294</v>
+        <v>0.233582</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.203936</v>
+        <v>0.204462</v>
       </c>
       <c r="C107" t="n">
-        <v>0.226917</v>
+        <v>0.236125</v>
       </c>
       <c r="D107" t="n">
-        <v>0.227905</v>
+        <v>0.23119</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.199469</v>
+        <v>0.196833</v>
       </c>
       <c r="C108" t="n">
-        <v>0.258655</v>
+        <v>0.261518</v>
       </c>
       <c r="D108" t="n">
-        <v>0.261451</v>
+        <v>0.259261</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.187504</v>
+        <v>0.192324</v>
       </c>
       <c r="C109" t="n">
-        <v>0.255442</v>
+        <v>0.261983</v>
       </c>
       <c r="D109" t="n">
-        <v>0.257129</v>
+        <v>0.255077</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.261792</v>
+        <v>0.260551</v>
       </c>
       <c r="C110" t="n">
-        <v>0.250076</v>
+        <v>0.256794</v>
       </c>
       <c r="D110" t="n">
-        <v>0.253019</v>
+        <v>0.251784</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.2581</v>
+        <v>0.252369</v>
       </c>
       <c r="C111" t="n">
-        <v>0.24671</v>
+        <v>0.261406</v>
       </c>
       <c r="D111" t="n">
-        <v>0.24846</v>
+        <v>0.250026</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.244147</v>
+        <v>0.248333</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2471</v>
+        <v>0.253092</v>
       </c>
       <c r="D112" t="n">
-        <v>0.242144</v>
+        <v>0.246613</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.249563</v>
+        <v>0.241567</v>
       </c>
       <c r="C113" t="n">
-        <v>0.239358</v>
+        <v>0.254128</v>
       </c>
       <c r="D113" t="n">
-        <v>0.242155</v>
+        <v>0.247402</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.238344</v>
+        <v>0.239023</v>
       </c>
       <c r="C114" t="n">
-        <v>0.240365</v>
+        <v>0.248335</v>
       </c>
       <c r="D114" t="n">
-        <v>0.240685</v>
+        <v>0.243812</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.234668</v>
+        <v>0.234319</v>
       </c>
       <c r="C115" t="n">
-        <v>0.237915</v>
+        <v>0.249503</v>
       </c>
       <c r="D115" t="n">
-        <v>0.242747</v>
+        <v>0.243573</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.227106</v>
+        <v>0.230239</v>
       </c>
       <c r="C116" t="n">
-        <v>0.234583</v>
+        <v>0.24594</v>
       </c>
       <c r="D116" t="n">
-        <v>0.238608</v>
+        <v>0.237677</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.227535</v>
+        <v>0.22388</v>
       </c>
       <c r="C117" t="n">
-        <v>0.232622</v>
+        <v>0.247991</v>
       </c>
       <c r="D117" t="n">
-        <v>0.231971</v>
+        <v>0.237234</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.219332</v>
+        <v>0.219922</v>
       </c>
       <c r="C118" t="n">
-        <v>0.233253</v>
+        <v>0.240873</v>
       </c>
       <c r="D118" t="n">
-        <v>0.235286</v>
+        <v>0.237485</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.213184</v>
+        <v>0.211689</v>
       </c>
       <c r="C119" t="n">
-        <v>0.233172</v>
+        <v>0.243212</v>
       </c>
       <c r="D119" t="n">
-        <v>0.236008</v>
+        <v>0.235914</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.211343</v>
+        <v>0.217048</v>
       </c>
       <c r="C120" t="n">
-        <v>0.227637</v>
+        <v>0.240485</v>
       </c>
       <c r="D120" t="n">
-        <v>0.231663</v>
+        <v>0.232313</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.207045</v>
+        <v>0.206924</v>
       </c>
       <c r="C121" t="n">
-        <v>0.232258</v>
+        <v>0.240838</v>
       </c>
       <c r="D121" t="n">
-        <v>0.230337</v>
+        <v>0.230819</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.199874</v>
+        <v>0.200688</v>
       </c>
       <c r="C122" t="n">
-        <v>0.22761</v>
+        <v>0.236753</v>
       </c>
       <c r="D122" t="n">
-        <v>0.228845</v>
+        <v>0.230536</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.191212</v>
+        <v>0.189807</v>
       </c>
       <c r="C123" t="n">
-        <v>0.254918</v>
+        <v>0.259246</v>
       </c>
       <c r="D123" t="n">
-        <v>0.257661</v>
+        <v>0.25637</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.259262</v>
+        <v>0.259897</v>
       </c>
       <c r="C124" t="n">
-        <v>0.252604</v>
+        <v>0.259946</v>
       </c>
       <c r="D124" t="n">
-        <v>0.249861</v>
+        <v>0.25388</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.256136</v>
+        <v>0.253146</v>
       </c>
       <c r="C125" t="n">
-        <v>0.248356</v>
+        <v>0.25677</v>
       </c>
       <c r="D125" t="n">
-        <v>0.254761</v>
+        <v>0.252684</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.24817</v>
+        <v>0.255296</v>
       </c>
       <c r="C126" t="n">
-        <v>0.245476</v>
+        <v>0.255709</v>
       </c>
       <c r="D126" t="n">
-        <v>0.246126</v>
+        <v>0.250639</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.242435</v>
+        <v>0.244582</v>
       </c>
       <c r="C127" t="n">
-        <v>0.244061</v>
+        <v>0.252478</v>
       </c>
       <c r="D127" t="n">
-        <v>0.243384</v>
+        <v>0.250506</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.236145</v>
+        <v>0.244639</v>
       </c>
       <c r="C128" t="n">
-        <v>0.240434</v>
+        <v>0.251618</v>
       </c>
       <c r="D128" t="n">
-        <v>0.244666</v>
+        <v>0.247907</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.233406</v>
+        <v>0.237036</v>
       </c>
       <c r="C129" t="n">
-        <v>0.239286</v>
+        <v>0.252128</v>
       </c>
       <c r="D129" t="n">
-        <v>0.243236</v>
+        <v>0.245997</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.231688</v>
+        <v>0.230471</v>
       </c>
       <c r="C130" t="n">
-        <v>0.23353</v>
+        <v>0.250767</v>
       </c>
       <c r="D130" t="n">
-        <v>0.236351</v>
+        <v>0.243348</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.220834</v>
+        <v>0.232713</v>
       </c>
       <c r="C131" t="n">
-        <v>0.229387</v>
+        <v>0.248512</v>
       </c>
       <c r="D131" t="n">
-        <v>0.229805</v>
+        <v>0.242396</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.214468</v>
+        <v>0.221823</v>
       </c>
       <c r="C132" t="n">
-        <v>0.230937</v>
+        <v>0.245447</v>
       </c>
       <c r="D132" t="n">
-        <v>0.229436</v>
+        <v>0.242522</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.210478</v>
+        <v>0.218123</v>
       </c>
       <c r="C133" t="n">
-        <v>0.229352</v>
+        <v>0.241839</v>
       </c>
       <c r="D133" t="n">
-        <v>0.226992</v>
+        <v>0.237533</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.207477</v>
+        <v>0.213745</v>
       </c>
       <c r="C134" t="n">
-        <v>0.2233</v>
+        <v>0.241755</v>
       </c>
       <c r="D134" t="n">
-        <v>0.226791</v>
+        <v>0.236119</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.205034</v>
+        <v>0.208025</v>
       </c>
       <c r="C135" t="n">
-        <v>0.222666</v>
+        <v>0.242217</v>
       </c>
       <c r="D135" t="n">
-        <v>0.224616</v>
+        <v>0.236825</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.196197</v>
+        <v>0.205639</v>
       </c>
       <c r="C136" t="n">
-        <v>0.221759</v>
+        <v>0.239844</v>
       </c>
       <c r="D136" t="n">
-        <v>0.22329</v>
+        <v>0.23274</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.187841</v>
+        <v>0.197885</v>
       </c>
       <c r="C137" t="n">
-        <v>0.248615</v>
+        <v>0.269329</v>
       </c>
       <c r="D137" t="n">
-        <v>0.249944</v>
+        <v>0.259141</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.257464</v>
+        <v>0.266316</v>
       </c>
       <c r="C138" t="n">
-        <v>0.246148</v>
+        <v>0.263647</v>
       </c>
       <c r="D138" t="n">
-        <v>0.246993</v>
+        <v>0.258746</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.251189</v>
+        <v>0.260702</v>
       </c>
       <c r="C139" t="n">
-        <v>0.242199</v>
+        <v>0.263012</v>
       </c>
       <c r="D139" t="n">
-        <v>0.24566</v>
+        <v>0.25385</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.244859</v>
+        <v>0.253174</v>
       </c>
       <c r="C140" t="n">
-        <v>0.243269</v>
+        <v>0.258918</v>
       </c>
       <c r="D140" t="n">
-        <v>0.246661</v>
+        <v>0.251942</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.249956</v>
+        <v>0.249821</v>
       </c>
       <c r="C141" t="n">
-        <v>0.246132</v>
+        <v>0.256766</v>
       </c>
       <c r="D141" t="n">
-        <v>0.250395</v>
+        <v>0.252004</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.24871</v>
+        <v>0.247446</v>
       </c>
       <c r="C142" t="n">
-        <v>0.243197</v>
+        <v>0.255184</v>
       </c>
       <c r="D142" t="n">
-        <v>0.244481</v>
+        <v>0.248452</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.236028</v>
+        <v>0.238041</v>
       </c>
       <c r="C143" t="n">
-        <v>0.240974</v>
+        <v>0.252186</v>
       </c>
       <c r="D143" t="n">
-        <v>0.241173</v>
+        <v>0.245217</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.201076</v>
+        <v>0.202081</v>
       </c>
       <c r="C2" t="n">
-        <v>0.223456</v>
+        <v>0.222007</v>
       </c>
       <c r="D2" t="n">
-        <v>0.217439</v>
+        <v>0.218749</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.198079</v>
+        <v>0.199498</v>
       </c>
       <c r="C3" t="n">
-        <v>0.221732</v>
+        <v>0.225954</v>
       </c>
       <c r="D3" t="n">
-        <v>0.214539</v>
+        <v>0.215707</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.197268</v>
+        <v>0.193771</v>
       </c>
       <c r="C4" t="n">
-        <v>0.222326</v>
+        <v>0.221775</v>
       </c>
       <c r="D4" t="n">
-        <v>0.213885</v>
+        <v>0.215164</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.193263</v>
+        <v>0.194297</v>
       </c>
       <c r="C5" t="n">
-        <v>0.225381</v>
+        <v>0.223476</v>
       </c>
       <c r="D5" t="n">
-        <v>0.214566</v>
+        <v>0.215007</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.195648</v>
+        <v>0.190797</v>
       </c>
       <c r="C6" t="n">
-        <v>0.223328</v>
+        <v>0.219019</v>
       </c>
       <c r="D6" t="n">
-        <v>0.213458</v>
+        <v>0.215343</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.187991</v>
+        <v>0.188749</v>
       </c>
       <c r="C7" t="n">
-        <v>0.225287</v>
+        <v>0.223173</v>
       </c>
       <c r="D7" t="n">
-        <v>0.213023</v>
+        <v>0.216202</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.178474</v>
+        <v>0.180581</v>
       </c>
       <c r="C8" t="n">
-        <v>0.224629</v>
+        <v>0.221804</v>
       </c>
       <c r="D8" t="n">
-        <v>0.214807</v>
+        <v>0.211606</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.177898</v>
+        <v>0.174642</v>
       </c>
       <c r="C9" t="n">
-        <v>0.229582</v>
+        <v>0.232009</v>
       </c>
       <c r="D9" t="n">
-        <v>0.224993</v>
+        <v>0.221858</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.229645</v>
+        <v>0.22612</v>
       </c>
       <c r="C10" t="n">
-        <v>0.228328</v>
+        <v>0.228001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2221</v>
+        <v>0.223823</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.226642</v>
+        <v>0.227629</v>
       </c>
       <c r="C11" t="n">
-        <v>0.228579</v>
+        <v>0.233045</v>
       </c>
       <c r="D11" t="n">
-        <v>0.220467</v>
+        <v>0.226061</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.218999</v>
+        <v>0.218543</v>
       </c>
       <c r="C12" t="n">
-        <v>0.229335</v>
+        <v>0.229281</v>
       </c>
       <c r="D12" t="n">
-        <v>0.220281</v>
+        <v>0.219153</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.221183</v>
+        <v>0.221758</v>
       </c>
       <c r="C13" t="n">
-        <v>0.230282</v>
+        <v>0.229172</v>
       </c>
       <c r="D13" t="n">
-        <v>0.224926</v>
+        <v>0.22257</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.214738</v>
+        <v>0.215788</v>
       </c>
       <c r="C14" t="n">
-        <v>0.228398</v>
+        <v>0.226361</v>
       </c>
       <c r="D14" t="n">
-        <v>0.220951</v>
+        <v>0.220845</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.212024</v>
+        <v>0.212032</v>
       </c>
       <c r="C15" t="n">
-        <v>0.222744</v>
+        <v>0.227636</v>
       </c>
       <c r="D15" t="n">
-        <v>0.216525</v>
+        <v>0.219324</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.207068</v>
+        <v>0.21233</v>
       </c>
       <c r="C16" t="n">
-        <v>0.226732</v>
+        <v>0.225015</v>
       </c>
       <c r="D16" t="n">
-        <v>0.219089</v>
+        <v>0.221377</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.206087</v>
+        <v>0.207646</v>
       </c>
       <c r="C17" t="n">
-        <v>0.225174</v>
+        <v>0.226249</v>
       </c>
       <c r="D17" t="n">
-        <v>0.219915</v>
+        <v>0.218004</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.201303</v>
+        <v>0.204884</v>
       </c>
       <c r="C18" t="n">
-        <v>0.22692</v>
+        <v>0.224433</v>
       </c>
       <c r="D18" t="n">
-        <v>0.220539</v>
+        <v>0.218224</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.202807</v>
+        <v>0.200134</v>
       </c>
       <c r="C19" t="n">
-        <v>0.227957</v>
+        <v>0.22844</v>
       </c>
       <c r="D19" t="n">
-        <v>0.219304</v>
+        <v>0.221941</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.194844</v>
+        <v>0.196019</v>
       </c>
       <c r="C20" t="n">
-        <v>0.22691</v>
+        <v>0.227155</v>
       </c>
       <c r="D20" t="n">
-        <v>0.21943</v>
+        <v>0.219013</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.195113</v>
+        <v>0.191825</v>
       </c>
       <c r="C21" t="n">
-        <v>0.22637</v>
+        <v>0.225024</v>
       </c>
       <c r="D21" t="n">
-        <v>0.215227</v>
+        <v>0.219605</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.187636</v>
+        <v>0.187474</v>
       </c>
       <c r="C22" t="n">
-        <v>0.225489</v>
+        <v>0.225237</v>
       </c>
       <c r="D22" t="n">
-        <v>0.216571</v>
+        <v>0.216643</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.180915</v>
+        <v>0.179765</v>
       </c>
       <c r="C23" t="n">
-        <v>0.241135</v>
+        <v>0.239819</v>
       </c>
       <c r="D23" t="n">
-        <v>0.229585</v>
+        <v>0.231039</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.238078</v>
+        <v>0.241073</v>
       </c>
       <c r="C24" t="n">
-        <v>0.236047</v>
+        <v>0.239114</v>
       </c>
       <c r="D24" t="n">
-        <v>0.232206</v>
+        <v>0.225174</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.233239</v>
+        <v>0.235878</v>
       </c>
       <c r="C25" t="n">
-        <v>0.235467</v>
+        <v>0.235897</v>
       </c>
       <c r="D25" t="n">
-        <v>0.226136</v>
+        <v>0.22568</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.232128</v>
+        <v>0.229863</v>
       </c>
       <c r="C26" t="n">
-        <v>0.238528</v>
+        <v>0.235813</v>
       </c>
       <c r="D26" t="n">
-        <v>0.227728</v>
+        <v>0.227476</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.22772</v>
+        <v>0.228019</v>
       </c>
       <c r="C27" t="n">
-        <v>0.231838</v>
+        <v>0.23299</v>
       </c>
       <c r="D27" t="n">
-        <v>0.226212</v>
+        <v>0.226783</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.223491</v>
+        <v>0.224197</v>
       </c>
       <c r="C28" t="n">
-        <v>0.232986</v>
+        <v>0.23364</v>
       </c>
       <c r="D28" t="n">
-        <v>0.222229</v>
+        <v>0.226993</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.218478</v>
+        <v>0.217444</v>
       </c>
       <c r="C29" t="n">
-        <v>0.231314</v>
+        <v>0.230947</v>
       </c>
       <c r="D29" t="n">
-        <v>0.222429</v>
+        <v>0.222927</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.217508</v>
+        <v>0.215907</v>
       </c>
       <c r="C30" t="n">
-        <v>0.23185</v>
+        <v>0.228673</v>
       </c>
       <c r="D30" t="n">
-        <v>0.223505</v>
+        <v>0.22473</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.21389</v>
+        <v>0.212308</v>
       </c>
       <c r="C31" t="n">
-        <v>0.231309</v>
+        <v>0.230649</v>
       </c>
       <c r="D31" t="n">
-        <v>0.220465</v>
+        <v>0.221103</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.209412</v>
+        <v>0.20454</v>
       </c>
       <c r="C32" t="n">
-        <v>0.229982</v>
+        <v>0.229908</v>
       </c>
       <c r="D32" t="n">
-        <v>0.220305</v>
+        <v>0.221251</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.205997</v>
+        <v>0.203728</v>
       </c>
       <c r="C33" t="n">
-        <v>0.230115</v>
+        <v>0.225426</v>
       </c>
       <c r="D33" t="n">
-        <v>0.22441</v>
+        <v>0.224265</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.201557</v>
+        <v>0.200275</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2273</v>
+        <v>0.227875</v>
       </c>
       <c r="D34" t="n">
-        <v>0.222183</v>
+        <v>0.22134</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.197272</v>
+        <v>0.196357</v>
       </c>
       <c r="C35" t="n">
-        <v>0.225385</v>
+        <v>0.22687</v>
       </c>
       <c r="D35" t="n">
-        <v>0.217517</v>
+        <v>0.218815</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.190706</v>
+        <v>0.192003</v>
       </c>
       <c r="C36" t="n">
-        <v>0.228441</v>
+        <v>0.224774</v>
       </c>
       <c r="D36" t="n">
-        <v>0.217644</v>
+        <v>0.220479</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.186285</v>
+        <v>0.186587</v>
       </c>
       <c r="C37" t="n">
-        <v>0.246171</v>
+        <v>0.244933</v>
       </c>
       <c r="D37" t="n">
-        <v>0.247475</v>
+        <v>0.243771</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.246204</v>
+        <v>0.247288</v>
       </c>
       <c r="C38" t="n">
-        <v>0.243754</v>
+        <v>0.242678</v>
       </c>
       <c r="D38" t="n">
-        <v>0.243736</v>
+        <v>0.243778</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.239083</v>
+        <v>0.237026</v>
       </c>
       <c r="C39" t="n">
-        <v>0.242008</v>
+        <v>0.237956</v>
       </c>
       <c r="D39" t="n">
-        <v>0.239997</v>
+        <v>0.240692</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.236685</v>
+        <v>0.236237</v>
       </c>
       <c r="C40" t="n">
-        <v>0.240199</v>
+        <v>0.242181</v>
       </c>
       <c r="D40" t="n">
-        <v>0.238616</v>
+        <v>0.237988</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.232539</v>
+        <v>0.230653</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2372</v>
+        <v>0.239302</v>
       </c>
       <c r="D41" t="n">
-        <v>0.23911</v>
+        <v>0.236792</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.229909</v>
+        <v>0.227105</v>
       </c>
       <c r="C42" t="n">
-        <v>0.236145</v>
+        <v>0.237891</v>
       </c>
       <c r="D42" t="n">
-        <v>0.238097</v>
+        <v>0.23499</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.221007</v>
+        <v>0.220992</v>
       </c>
       <c r="C43" t="n">
-        <v>0.236195</v>
+        <v>0.2375</v>
       </c>
       <c r="D43" t="n">
-        <v>0.234794</v>
+        <v>0.231501</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.220432</v>
+        <v>0.218004</v>
       </c>
       <c r="C44" t="n">
-        <v>0.232809</v>
+        <v>0.232771</v>
       </c>
       <c r="D44" t="n">
-        <v>0.232584</v>
+        <v>0.230848</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.214738</v>
+        <v>0.213424</v>
       </c>
       <c r="C45" t="n">
-        <v>0.233839</v>
+        <v>0.228604</v>
       </c>
       <c r="D45" t="n">
-        <v>0.231307</v>
+        <v>0.228602</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.211192</v>
+        <v>0.208664</v>
       </c>
       <c r="C46" t="n">
-        <v>0.232242</v>
+        <v>0.231255</v>
       </c>
       <c r="D46" t="n">
-        <v>0.229477</v>
+        <v>0.2312</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.207816</v>
+        <v>0.20629</v>
       </c>
       <c r="C47" t="n">
-        <v>0.233048</v>
+        <v>0.234759</v>
       </c>
       <c r="D47" t="n">
-        <v>0.22902</v>
+        <v>0.227694</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.202506</v>
+        <v>0.204316</v>
       </c>
       <c r="C48" t="n">
-        <v>0.228874</v>
+        <v>0.228867</v>
       </c>
       <c r="D48" t="n">
-        <v>0.224228</v>
+        <v>0.227098</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.197809</v>
+        <v>0.198644</v>
       </c>
       <c r="C49" t="n">
-        <v>0.227611</v>
+        <v>0.22991</v>
       </c>
       <c r="D49" t="n">
-        <v>0.229146</v>
+        <v>0.225686</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.194665</v>
+        <v>0.195597</v>
       </c>
       <c r="C50" t="n">
-        <v>0.225867</v>
+        <v>0.229248</v>
       </c>
       <c r="D50" t="n">
-        <v>0.223651</v>
+        <v>0.225358</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.187964</v>
+        <v>0.18749</v>
       </c>
       <c r="C51" t="n">
-        <v>0.249921</v>
+        <v>0.250559</v>
       </c>
       <c r="D51" t="n">
-        <v>0.249458</v>
+        <v>0.248962</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.18196</v>
+        <v>0.179686</v>
       </c>
       <c r="C52" t="n">
-        <v>0.245528</v>
+        <v>0.246093</v>
       </c>
       <c r="D52" t="n">
-        <v>0.24328</v>
+        <v>0.242396</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.244698</v>
+        <v>0.244063</v>
       </c>
       <c r="C53" t="n">
-        <v>0.243348</v>
+        <v>0.245189</v>
       </c>
       <c r="D53" t="n">
-        <v>0.24197</v>
+        <v>0.242176</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.239066</v>
+        <v>0.241158</v>
       </c>
       <c r="C54" t="n">
-        <v>0.245171</v>
+        <v>0.243144</v>
       </c>
       <c r="D54" t="n">
-        <v>0.239513</v>
+        <v>0.239563</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.234692</v>
+        <v>0.236639</v>
       </c>
       <c r="C55" t="n">
-        <v>0.240547</v>
+        <v>0.239981</v>
       </c>
       <c r="D55" t="n">
-        <v>0.236418</v>
+        <v>0.24029</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.232816</v>
+        <v>0.230946</v>
       </c>
       <c r="C56" t="n">
-        <v>0.241012</v>
+        <v>0.240707</v>
       </c>
       <c r="D56" t="n">
-        <v>0.236012</v>
+        <v>0.239751</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.225676</v>
+        <v>0.22739</v>
       </c>
       <c r="C57" t="n">
-        <v>0.239823</v>
+        <v>0.240298</v>
       </c>
       <c r="D57" t="n">
-        <v>0.233646</v>
+        <v>0.234268</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.221961</v>
+        <v>0.221806</v>
       </c>
       <c r="C58" t="n">
-        <v>0.238812</v>
+        <v>0.237481</v>
       </c>
       <c r="D58" t="n">
-        <v>0.236698</v>
+        <v>0.231435</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.219412</v>
+        <v>0.219724</v>
       </c>
       <c r="C59" t="n">
-        <v>0.240018</v>
+        <v>0.235739</v>
       </c>
       <c r="D59" t="n">
-        <v>0.229997</v>
+        <v>0.229311</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.212465</v>
+        <v>0.214805</v>
       </c>
       <c r="C60" t="n">
-        <v>0.235322</v>
+        <v>0.236908</v>
       </c>
       <c r="D60" t="n">
-        <v>0.230596</v>
+        <v>0.229287</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.211348</v>
+        <v>0.210393</v>
       </c>
       <c r="C61" t="n">
-        <v>0.234499</v>
+        <v>0.231601</v>
       </c>
       <c r="D61" t="n">
-        <v>0.227357</v>
+        <v>0.227269</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.204909</v>
+        <v>0.205091</v>
       </c>
       <c r="C62" t="n">
-        <v>0.230683</v>
+        <v>0.232709</v>
       </c>
       <c r="D62" t="n">
-        <v>0.229862</v>
+        <v>0.225587</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.204864</v>
+        <v>0.203394</v>
       </c>
       <c r="C63" t="n">
-        <v>0.23522</v>
+        <v>0.230712</v>
       </c>
       <c r="D63" t="n">
-        <v>0.227164</v>
+        <v>0.224607</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.199141</v>
+        <v>0.201291</v>
       </c>
       <c r="C64" t="n">
-        <v>0.229186</v>
+        <v>0.229682</v>
       </c>
       <c r="D64" t="n">
-        <v>0.225325</v>
+        <v>0.225399</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.192007</v>
+        <v>0.191184</v>
       </c>
       <c r="C65" t="n">
-        <v>0.231163</v>
+        <v>0.228281</v>
       </c>
       <c r="D65" t="n">
-        <v>0.223812</v>
+        <v>0.226068</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.187236</v>
+        <v>0.186015</v>
       </c>
       <c r="C66" t="n">
-        <v>0.256732</v>
+        <v>0.254688</v>
       </c>
       <c r="D66" t="n">
-        <v>0.247466</v>
+        <v>0.247406</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.25206</v>
+        <v>0.256181</v>
       </c>
       <c r="C67" t="n">
-        <v>0.250655</v>
+        <v>0.252582</v>
       </c>
       <c r="D67" t="n">
-        <v>0.246507</v>
+        <v>0.245337</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.248569</v>
+        <v>0.250151</v>
       </c>
       <c r="C68" t="n">
-        <v>0.252704</v>
+        <v>0.248642</v>
       </c>
       <c r="D68" t="n">
-        <v>0.249158</v>
+        <v>0.241133</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.246357</v>
+        <v>0.251375</v>
       </c>
       <c r="C69" t="n">
-        <v>0.247182</v>
+        <v>0.252315</v>
       </c>
       <c r="D69" t="n">
-        <v>0.243046</v>
+        <v>0.24355</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.242904</v>
+        <v>0.243177</v>
       </c>
       <c r="C70" t="n">
-        <v>0.247701</v>
+        <v>0.247002</v>
       </c>
       <c r="D70" t="n">
-        <v>0.239485</v>
+        <v>0.240526</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.234437</v>
+        <v>0.24302</v>
       </c>
       <c r="C71" t="n">
-        <v>0.244462</v>
+        <v>0.246434</v>
       </c>
       <c r="D71" t="n">
-        <v>0.239274</v>
+        <v>0.241027</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.231619</v>
+        <v>0.233576</v>
       </c>
       <c r="C72" t="n">
-        <v>0.242542</v>
+        <v>0.2464</v>
       </c>
       <c r="D72" t="n">
-        <v>0.239935</v>
+        <v>0.236663</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.226259</v>
+        <v>0.227945</v>
       </c>
       <c r="C73" t="n">
-        <v>0.240404</v>
+        <v>0.245345</v>
       </c>
       <c r="D73" t="n">
-        <v>0.234503</v>
+        <v>0.234926</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.223099</v>
+        <v>0.223137</v>
       </c>
       <c r="C74" t="n">
-        <v>0.240161</v>
+        <v>0.237381</v>
       </c>
       <c r="D74" t="n">
-        <v>0.2334</v>
+        <v>0.229264</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.217441</v>
+        <v>0.214165</v>
       </c>
       <c r="C75" t="n">
-        <v>0.241417</v>
+        <v>0.23721</v>
       </c>
       <c r="D75" t="n">
-        <v>0.232548</v>
+        <v>0.228182</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.218465</v>
+        <v>0.208914</v>
       </c>
       <c r="C76" t="n">
-        <v>0.236524</v>
+        <v>0.231164</v>
       </c>
       <c r="D76" t="n">
-        <v>0.234764</v>
+        <v>0.226632</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.21009</v>
+        <v>0.204886</v>
       </c>
       <c r="C77" t="n">
-        <v>0.234991</v>
+        <v>0.231651</v>
       </c>
       <c r="D77" t="n">
-        <v>0.228529</v>
+        <v>0.231324</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.208231</v>
+        <v>0.203824</v>
       </c>
       <c r="C78" t="n">
-        <v>0.234525</v>
+        <v>0.235222</v>
       </c>
       <c r="D78" t="n">
-        <v>0.228267</v>
+        <v>0.230924</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.200706</v>
+        <v>0.2004</v>
       </c>
       <c r="C79" t="n">
-        <v>0.23465</v>
+        <v>0.236821</v>
       </c>
       <c r="D79" t="n">
-        <v>0.22961</v>
+        <v>0.228333</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.192264</v>
+        <v>0.192152</v>
       </c>
       <c r="C80" t="n">
-        <v>0.258377</v>
+        <v>0.262496</v>
       </c>
       <c r="D80" t="n">
-        <v>0.254963</v>
+        <v>0.255036</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.261197</v>
+        <v>0.261051</v>
       </c>
       <c r="C81" t="n">
-        <v>0.262582</v>
+        <v>0.256712</v>
       </c>
       <c r="D81" t="n">
-        <v>0.253914</v>
+        <v>0.253753</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.256988</v>
+        <v>0.257024</v>
       </c>
       <c r="C82" t="n">
-        <v>0.257838</v>
+        <v>0.256615</v>
       </c>
       <c r="D82" t="n">
-        <v>0.247335</v>
+        <v>0.251122</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.248872</v>
+        <v>0.250143</v>
       </c>
       <c r="C83" t="n">
-        <v>0.251499</v>
+        <v>0.254626</v>
       </c>
       <c r="D83" t="n">
-        <v>0.248118</v>
+        <v>0.250905</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.245995</v>
+        <v>0.247504</v>
       </c>
       <c r="C84" t="n">
-        <v>0.251004</v>
+        <v>0.252395</v>
       </c>
       <c r="D84" t="n">
-        <v>0.243763</v>
+        <v>0.248888</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.239229</v>
+        <v>0.240441</v>
       </c>
       <c r="C85" t="n">
-        <v>0.250536</v>
+        <v>0.250486</v>
       </c>
       <c r="D85" t="n">
-        <v>0.243238</v>
+        <v>0.245879</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.234976</v>
+        <v>0.23397</v>
       </c>
       <c r="C86" t="n">
-        <v>0.246802</v>
+        <v>0.25467</v>
       </c>
       <c r="D86" t="n">
-        <v>0.242996</v>
+        <v>0.244434</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.230079</v>
+        <v>0.232574</v>
       </c>
       <c r="C87" t="n">
-        <v>0.244474</v>
+        <v>0.248606</v>
       </c>
       <c r="D87" t="n">
-        <v>0.23948</v>
+        <v>0.241088</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.224591</v>
+        <v>0.224651</v>
       </c>
       <c r="C88" t="n">
-        <v>0.243849</v>
+        <v>0.244122</v>
       </c>
       <c r="D88" t="n">
-        <v>0.239811</v>
+        <v>0.237022</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.21781</v>
+        <v>0.220996</v>
       </c>
       <c r="C89" t="n">
-        <v>0.24334</v>
+        <v>0.243367</v>
       </c>
       <c r="D89" t="n">
-        <v>0.237796</v>
+        <v>0.235054</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.216397</v>
+        <v>0.216158</v>
       </c>
       <c r="C90" t="n">
-        <v>0.242853</v>
+        <v>0.240564</v>
       </c>
       <c r="D90" t="n">
-        <v>0.233566</v>
+        <v>0.235865</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.211134</v>
+        <v>0.214254</v>
       </c>
       <c r="C91" t="n">
-        <v>0.237104</v>
+        <v>0.241099</v>
       </c>
       <c r="D91" t="n">
-        <v>0.236865</v>
+        <v>0.234167</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.206473</v>
+        <v>0.210184</v>
       </c>
       <c r="C92" t="n">
-        <v>0.240319</v>
+        <v>0.238723</v>
       </c>
       <c r="D92" t="n">
-        <v>0.230987</v>
+        <v>0.232943</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.204136</v>
+        <v>0.201912</v>
       </c>
       <c r="C93" t="n">
-        <v>0.235477</v>
+        <v>0.239395</v>
       </c>
       <c r="D93" t="n">
-        <v>0.22951</v>
+        <v>0.231451</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.195907</v>
+        <v>0.196461</v>
       </c>
       <c r="C94" t="n">
-        <v>0.262792</v>
+        <v>0.269434</v>
       </c>
       <c r="D94" t="n">
-        <v>0.258492</v>
+        <v>0.258508</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.260256</v>
+        <v>0.260204</v>
       </c>
       <c r="C95" t="n">
-        <v>0.258901</v>
+        <v>0.260036</v>
       </c>
       <c r="D95" t="n">
-        <v>0.252617</v>
+        <v>0.254774</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.261168</v>
+        <v>0.256034</v>
       </c>
       <c r="C96" t="n">
-        <v>0.257891</v>
+        <v>0.257296</v>
       </c>
       <c r="D96" t="n">
-        <v>0.25122</v>
+        <v>0.253897</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.252216</v>
+        <v>0.254934</v>
       </c>
       <c r="C97" t="n">
-        <v>0.255383</v>
+        <v>0.259324</v>
       </c>
       <c r="D97" t="n">
-        <v>0.250004</v>
+        <v>0.251178</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.245636</v>
+        <v>0.248935</v>
       </c>
       <c r="C98" t="n">
-        <v>0.251767</v>
+        <v>0.256795</v>
       </c>
       <c r="D98" t="n">
-        <v>0.246953</v>
+        <v>0.247608</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.246441</v>
+        <v>0.241656</v>
       </c>
       <c r="C99" t="n">
-        <v>0.255463</v>
+        <v>0.255638</v>
       </c>
       <c r="D99" t="n">
-        <v>0.245439</v>
+        <v>0.243937</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.235336</v>
+        <v>0.235652</v>
       </c>
       <c r="C100" t="n">
-        <v>0.246882</v>
+        <v>0.248866</v>
       </c>
       <c r="D100" t="n">
-        <v>0.245512</v>
+        <v>0.245876</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.23096</v>
+        <v>0.231278</v>
       </c>
       <c r="C101" t="n">
-        <v>0.244902</v>
+        <v>0.252213</v>
       </c>
       <c r="D101" t="n">
-        <v>0.242371</v>
+        <v>0.240932</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.227549</v>
+        <v>0.226941</v>
       </c>
       <c r="C102" t="n">
-        <v>0.246994</v>
+        <v>0.244479</v>
       </c>
       <c r="D102" t="n">
-        <v>0.23943</v>
+        <v>0.236846</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.22238</v>
+        <v>0.223234</v>
       </c>
       <c r="C103" t="n">
-        <v>0.244033</v>
+        <v>0.24388</v>
       </c>
       <c r="D103" t="n">
-        <v>0.236668</v>
+        <v>0.240465</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.219056</v>
+        <v>0.21784</v>
       </c>
       <c r="C104" t="n">
-        <v>0.243224</v>
+        <v>0.241418</v>
       </c>
       <c r="D104" t="n">
-        <v>0.233364</v>
+        <v>0.235835</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.215207</v>
+        <v>0.216309</v>
       </c>
       <c r="C105" t="n">
-        <v>0.239702</v>
+        <v>0.242242</v>
       </c>
       <c r="D105" t="n">
-        <v>0.233003</v>
+        <v>0.234957</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.20902</v>
+        <v>0.209393</v>
       </c>
       <c r="C106" t="n">
-        <v>0.236088</v>
+        <v>0.238236</v>
       </c>
       <c r="D106" t="n">
-        <v>0.233582</v>
+        <v>0.236713</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.204462</v>
+        <v>0.205787</v>
       </c>
       <c r="C107" t="n">
-        <v>0.236125</v>
+        <v>0.238115</v>
       </c>
       <c r="D107" t="n">
-        <v>0.23119</v>
+        <v>0.229707</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.196833</v>
+        <v>0.199179</v>
       </c>
       <c r="C108" t="n">
-        <v>0.261518</v>
+        <v>0.264018</v>
       </c>
       <c r="D108" t="n">
-        <v>0.259261</v>
+        <v>0.259133</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.192324</v>
+        <v>0.189444</v>
       </c>
       <c r="C109" t="n">
-        <v>0.261983</v>
+        <v>0.261219</v>
       </c>
       <c r="D109" t="n">
-        <v>0.255077</v>
+        <v>0.255334</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.260551</v>
+        <v>0.258829</v>
       </c>
       <c r="C110" t="n">
-        <v>0.256794</v>
+        <v>0.256694</v>
       </c>
       <c r="D110" t="n">
-        <v>0.251784</v>
+        <v>0.254706</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.252369</v>
+        <v>0.25785</v>
       </c>
       <c r="C111" t="n">
-        <v>0.261406</v>
+        <v>0.254741</v>
       </c>
       <c r="D111" t="n">
-        <v>0.250026</v>
+        <v>0.252071</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.248333</v>
+        <v>0.247843</v>
       </c>
       <c r="C112" t="n">
-        <v>0.253092</v>
+        <v>0.255988</v>
       </c>
       <c r="D112" t="n">
-        <v>0.246613</v>
+        <v>0.247549</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.241567</v>
+        <v>0.243121</v>
       </c>
       <c r="C113" t="n">
-        <v>0.254128</v>
+        <v>0.252792</v>
       </c>
       <c r="D113" t="n">
-        <v>0.247402</v>
+        <v>0.244422</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.239023</v>
+        <v>0.248283</v>
       </c>
       <c r="C114" t="n">
-        <v>0.248335</v>
+        <v>0.24967</v>
       </c>
       <c r="D114" t="n">
-        <v>0.243812</v>
+        <v>0.244514</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.234319</v>
+        <v>0.235588</v>
       </c>
       <c r="C115" t="n">
-        <v>0.249503</v>
+        <v>0.251339</v>
       </c>
       <c r="D115" t="n">
-        <v>0.243573</v>
+        <v>0.24341</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.230239</v>
+        <v>0.2292</v>
       </c>
       <c r="C116" t="n">
-        <v>0.24594</v>
+        <v>0.245885</v>
       </c>
       <c r="D116" t="n">
-        <v>0.237677</v>
+        <v>0.241597</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.22388</v>
+        <v>0.221442</v>
       </c>
       <c r="C117" t="n">
-        <v>0.247991</v>
+        <v>0.243055</v>
       </c>
       <c r="D117" t="n">
-        <v>0.237234</v>
+        <v>0.244954</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.219922</v>
+        <v>0.218978</v>
       </c>
       <c r="C118" t="n">
-        <v>0.240873</v>
+        <v>0.242487</v>
       </c>
       <c r="D118" t="n">
-        <v>0.237485</v>
+        <v>0.2364</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.211689</v>
+        <v>0.212907</v>
       </c>
       <c r="C119" t="n">
-        <v>0.243212</v>
+        <v>0.241909</v>
       </c>
       <c r="D119" t="n">
-        <v>0.235914</v>
+        <v>0.242531</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.217048</v>
+        <v>0.211747</v>
       </c>
       <c r="C120" t="n">
-        <v>0.240485</v>
+        <v>0.241106</v>
       </c>
       <c r="D120" t="n">
-        <v>0.232313</v>
+        <v>0.234059</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.206924</v>
+        <v>0.206353</v>
       </c>
       <c r="C121" t="n">
-        <v>0.240838</v>
+        <v>0.237015</v>
       </c>
       <c r="D121" t="n">
-        <v>0.230819</v>
+        <v>0.230627</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.200688</v>
+        <v>0.199163</v>
       </c>
       <c r="C122" t="n">
-        <v>0.236753</v>
+        <v>0.2374</v>
       </c>
       <c r="D122" t="n">
-        <v>0.230536</v>
+        <v>0.229637</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.189807</v>
+        <v>0.194778</v>
       </c>
       <c r="C123" t="n">
-        <v>0.259246</v>
+        <v>0.26384</v>
       </c>
       <c r="D123" t="n">
-        <v>0.25637</v>
+        <v>0.253288</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.259897</v>
+        <v>0.267659</v>
       </c>
       <c r="C124" t="n">
-        <v>0.259946</v>
+        <v>0.265745</v>
       </c>
       <c r="D124" t="n">
-        <v>0.25388</v>
+        <v>0.258806</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.253146</v>
+        <v>0.256636</v>
       </c>
       <c r="C125" t="n">
-        <v>0.25677</v>
+        <v>0.260688</v>
       </c>
       <c r="D125" t="n">
-        <v>0.252684</v>
+        <v>0.251557</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.255296</v>
+        <v>0.250538</v>
       </c>
       <c r="C126" t="n">
-        <v>0.255709</v>
+        <v>0.254018</v>
       </c>
       <c r="D126" t="n">
-        <v>0.250639</v>
+        <v>0.251256</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.244582</v>
+        <v>0.248398</v>
       </c>
       <c r="C127" t="n">
-        <v>0.252478</v>
+        <v>0.254984</v>
       </c>
       <c r="D127" t="n">
-        <v>0.250506</v>
+        <v>0.249624</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.244639</v>
+        <v>0.245712</v>
       </c>
       <c r="C128" t="n">
-        <v>0.251618</v>
+        <v>0.24983</v>
       </c>
       <c r="D128" t="n">
-        <v>0.247907</v>
+        <v>0.24806</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.237036</v>
+        <v>0.237568</v>
       </c>
       <c r="C129" t="n">
-        <v>0.252128</v>
+        <v>0.254424</v>
       </c>
       <c r="D129" t="n">
-        <v>0.245997</v>
+        <v>0.244669</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.230471</v>
+        <v>0.233746</v>
       </c>
       <c r="C130" t="n">
-        <v>0.250767</v>
+        <v>0.247761</v>
       </c>
       <c r="D130" t="n">
-        <v>0.243348</v>
+        <v>0.245656</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.232713</v>
+        <v>0.2324</v>
       </c>
       <c r="C131" t="n">
-        <v>0.248512</v>
+        <v>0.247657</v>
       </c>
       <c r="D131" t="n">
-        <v>0.242396</v>
+        <v>0.242211</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.221823</v>
+        <v>0.221424</v>
       </c>
       <c r="C132" t="n">
-        <v>0.245447</v>
+        <v>0.24662</v>
       </c>
       <c r="D132" t="n">
-        <v>0.242522</v>
+        <v>0.238548</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.218123</v>
+        <v>0.221082</v>
       </c>
       <c r="C133" t="n">
-        <v>0.241839</v>
+        <v>0.244261</v>
       </c>
       <c r="D133" t="n">
-        <v>0.237533</v>
+        <v>0.240031</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.213745</v>
+        <v>0.21324</v>
       </c>
       <c r="C134" t="n">
-        <v>0.241755</v>
+        <v>0.24296</v>
       </c>
       <c r="D134" t="n">
-        <v>0.236119</v>
+        <v>0.236524</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.208025</v>
+        <v>0.212626</v>
       </c>
       <c r="C135" t="n">
-        <v>0.242217</v>
+        <v>0.244903</v>
       </c>
       <c r="D135" t="n">
-        <v>0.236825</v>
+        <v>0.235208</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.205639</v>
+        <v>0.207063</v>
       </c>
       <c r="C136" t="n">
-        <v>0.239844</v>
+        <v>0.24134</v>
       </c>
       <c r="D136" t="n">
-        <v>0.23274</v>
+        <v>0.233861</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.197885</v>
+        <v>0.196218</v>
       </c>
       <c r="C137" t="n">
-        <v>0.269329</v>
+        <v>0.26649</v>
       </c>
       <c r="D137" t="n">
-        <v>0.259141</v>
+        <v>0.262236</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.266316</v>
+        <v>0.260404</v>
       </c>
       <c r="C138" t="n">
-        <v>0.263647</v>
+        <v>0.263705</v>
       </c>
       <c r="D138" t="n">
-        <v>0.258746</v>
+        <v>0.257369</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.260702</v>
+        <v>0.260522</v>
       </c>
       <c r="C139" t="n">
-        <v>0.263012</v>
+        <v>0.265567</v>
       </c>
       <c r="D139" t="n">
-        <v>0.25385</v>
+        <v>0.256655</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.253174</v>
+        <v>0.252668</v>
       </c>
       <c r="C140" t="n">
-        <v>0.258918</v>
+        <v>0.259954</v>
       </c>
       <c r="D140" t="n">
-        <v>0.251942</v>
+        <v>0.252957</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.249821</v>
+        <v>0.252604</v>
       </c>
       <c r="C141" t="n">
-        <v>0.256766</v>
+        <v>0.259014</v>
       </c>
       <c r="D141" t="n">
-        <v>0.252004</v>
+        <v>0.252407</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.247446</v>
+        <v>0.246297</v>
       </c>
       <c r="C142" t="n">
-        <v>0.255184</v>
+        <v>0.253985</v>
       </c>
       <c r="D142" t="n">
-        <v>0.248452</v>
+        <v>0.245438</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.238041</v>
+        <v>0.240701</v>
       </c>
       <c r="C143" t="n">
-        <v>0.252186</v>
+        <v>0.253131</v>
       </c>
       <c r="D143" t="n">
-        <v>0.245217</v>
+        <v>0.247663</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.207392</v>
+        <v>0.206694</v>
       </c>
       <c r="C2" t="n">
-        <v>0.231589</v>
+        <v>0.228592</v>
       </c>
       <c r="D2" t="n">
-        <v>0.552169</v>
+        <v>0.52815</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.201413</v>
+        <v>0.194984</v>
       </c>
       <c r="C3" t="n">
-        <v>0.229339</v>
+        <v>0.222947</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5404949999999999</v>
+        <v>0.528546</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.195885</v>
+        <v>0.192843</v>
       </c>
       <c r="C4" t="n">
-        <v>0.223305</v>
+        <v>0.223639</v>
       </c>
       <c r="D4" t="n">
-        <v>0.525655</v>
+        <v>0.523263</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.196281</v>
+        <v>0.194281</v>
       </c>
       <c r="C5" t="n">
-        <v>0.225904</v>
+        <v>0.224719</v>
       </c>
       <c r="D5" t="n">
-        <v>0.53324</v>
+        <v>0.525431</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.188415</v>
+        <v>0.190277</v>
       </c>
       <c r="C6" t="n">
-        <v>0.222423</v>
+        <v>0.224099</v>
       </c>
       <c r="D6" t="n">
-        <v>0.523671</v>
+        <v>0.521871</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.184191</v>
+        <v>0.186554</v>
       </c>
       <c r="C7" t="n">
-        <v>0.223805</v>
+        <v>0.224624</v>
       </c>
       <c r="D7" t="n">
-        <v>0.532047</v>
+        <v>0.525389</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.178131</v>
+        <v>0.180339</v>
       </c>
       <c r="C8" t="n">
-        <v>0.221381</v>
+        <v>0.22434</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5330279999999999</v>
+        <v>0.533656</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.169846</v>
+        <v>0.174063</v>
       </c>
       <c r="C9" t="n">
-        <v>0.229963</v>
+        <v>0.233746</v>
       </c>
       <c r="D9" t="n">
-        <v>0.544094</v>
+        <v>0.525641</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.226357</v>
+        <v>0.225975</v>
       </c>
       <c r="C10" t="n">
-        <v>0.22873</v>
+        <v>0.233984</v>
       </c>
       <c r="D10" t="n">
-        <v>0.536029</v>
+        <v>0.533964</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.221575</v>
+        <v>0.223574</v>
       </c>
       <c r="C11" t="n">
-        <v>0.22926</v>
+        <v>0.233478</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5354409999999999</v>
+        <v>0.5321669999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.224771</v>
+        <v>0.219115</v>
       </c>
       <c r="C12" t="n">
-        <v>0.22881</v>
+        <v>0.229749</v>
       </c>
       <c r="D12" t="n">
-        <v>0.523628</v>
+        <v>0.528949</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.218781</v>
+        <v>0.21757</v>
       </c>
       <c r="C13" t="n">
-        <v>0.229031</v>
+        <v>0.230985</v>
       </c>
       <c r="D13" t="n">
-        <v>0.534053</v>
+        <v>0.521558</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.214991</v>
+        <v>0.215275</v>
       </c>
       <c r="C14" t="n">
-        <v>0.223877</v>
+        <v>0.230277</v>
       </c>
       <c r="D14" t="n">
-        <v>0.534782</v>
+        <v>0.52586</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.210515</v>
+        <v>0.211163</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2274</v>
+        <v>0.23188</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5364989999999999</v>
+        <v>0.526857</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.204601</v>
+        <v>0.207812</v>
       </c>
       <c r="C16" t="n">
-        <v>0.224116</v>
+        <v>0.228194</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5334100000000001</v>
+        <v>0.527462</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.205639</v>
+        <v>0.207255</v>
       </c>
       <c r="C17" t="n">
-        <v>0.229513</v>
+        <v>0.230701</v>
       </c>
       <c r="D17" t="n">
-        <v>0.526253</v>
+        <v>0.527399</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.205256</v>
+        <v>0.204615</v>
       </c>
       <c r="C18" t="n">
-        <v>0.226855</v>
+        <v>0.228798</v>
       </c>
       <c r="D18" t="n">
-        <v>0.526029</v>
+        <v>0.518576</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.19792</v>
+        <v>0.201325</v>
       </c>
       <c r="C19" t="n">
-        <v>0.226461</v>
+        <v>0.227396</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5287190000000001</v>
+        <v>0.528352</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.197095</v>
+        <v>0.198615</v>
       </c>
       <c r="C20" t="n">
-        <v>0.227906</v>
+        <v>0.227859</v>
       </c>
       <c r="D20" t="n">
-        <v>0.534402</v>
+        <v>0.525011</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.193997</v>
+        <v>0.191458</v>
       </c>
       <c r="C21" t="n">
-        <v>0.226364</v>
+        <v>0.226901</v>
       </c>
       <c r="D21" t="n">
-        <v>0.541621</v>
+        <v>0.542957</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.187298</v>
+        <v>0.189535</v>
       </c>
       <c r="C22" t="n">
-        <v>0.22266</v>
+        <v>0.223686</v>
       </c>
       <c r="D22" t="n">
-        <v>0.545462</v>
+        <v>0.539423</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.175722</v>
+        <v>0.178204</v>
       </c>
       <c r="C23" t="n">
-        <v>0.238255</v>
+        <v>0.242348</v>
       </c>
       <c r="D23" t="n">
-        <v>0.543177</v>
+        <v>0.538765</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.240478</v>
+        <v>0.239253</v>
       </c>
       <c r="C24" t="n">
-        <v>0.240845</v>
+        <v>0.240967</v>
       </c>
       <c r="D24" t="n">
-        <v>0.552708</v>
+        <v>0.548325</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.235406</v>
+        <v>0.234472</v>
       </c>
       <c r="C25" t="n">
-        <v>0.236967</v>
+        <v>0.238995</v>
       </c>
       <c r="D25" t="n">
-        <v>0.553534</v>
+        <v>0.542563</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.231491</v>
+        <v>0.228388</v>
       </c>
       <c r="C26" t="n">
-        <v>0.233422</v>
+        <v>0.238539</v>
       </c>
       <c r="D26" t="n">
-        <v>0.549894</v>
+        <v>0.5459889999999999</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.228812</v>
+        <v>0.225275</v>
       </c>
       <c r="C27" t="n">
-        <v>0.234717</v>
+        <v>0.23576</v>
       </c>
       <c r="D27" t="n">
-        <v>0.557215</v>
+        <v>0.53315</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.220997</v>
+        <v>0.224571</v>
       </c>
       <c r="C28" t="n">
-        <v>0.233748</v>
+        <v>0.233669</v>
       </c>
       <c r="D28" t="n">
-        <v>0.545718</v>
+        <v>0.530182</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.222007</v>
+        <v>0.219966</v>
       </c>
       <c r="C29" t="n">
-        <v>0.235781</v>
+        <v>0.233681</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5503479999999999</v>
+        <v>0.532887</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.215798</v>
+        <v>0.217251</v>
       </c>
       <c r="C30" t="n">
-        <v>0.233019</v>
+        <v>0.235431</v>
       </c>
       <c r="D30" t="n">
-        <v>0.551875</v>
+        <v>0.537567</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.210377</v>
+        <v>0.210851</v>
       </c>
       <c r="C31" t="n">
-        <v>0.232116</v>
+        <v>0.232879</v>
       </c>
       <c r="D31" t="n">
-        <v>0.539851</v>
+        <v>0.527143</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.211911</v>
+        <v>0.208938</v>
       </c>
       <c r="C32" t="n">
-        <v>0.230366</v>
+        <v>0.231038</v>
       </c>
       <c r="D32" t="n">
-        <v>0.541428</v>
+        <v>0.535311</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.205638</v>
+        <v>0.204385</v>
       </c>
       <c r="C33" t="n">
-        <v>0.229278</v>
+        <v>0.228383</v>
       </c>
       <c r="D33" t="n">
-        <v>0.535189</v>
+        <v>0.5277579999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.200963</v>
+        <v>0.199223</v>
       </c>
       <c r="C34" t="n">
-        <v>0.22858</v>
+        <v>0.229144</v>
       </c>
       <c r="D34" t="n">
-        <v>0.532743</v>
+        <v>0.548115</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.197187</v>
+        <v>0.195706</v>
       </c>
       <c r="C35" t="n">
-        <v>0.225883</v>
+        <v>0.231147</v>
       </c>
       <c r="D35" t="n">
-        <v>0.584537</v>
+        <v>0.570913</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.191449</v>
+        <v>0.190562</v>
       </c>
       <c r="C36" t="n">
-        <v>0.222501</v>
+        <v>0.22614</v>
       </c>
       <c r="D36" t="n">
-        <v>0.566048</v>
+        <v>0.56934</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.185197</v>
+        <v>0.183716</v>
       </c>
       <c r="C37" t="n">
-        <v>0.245139</v>
+        <v>0.246475</v>
       </c>
       <c r="D37" t="n">
-        <v>0.572276</v>
+        <v>0.579508</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247201</v>
+        <v>0.239556</v>
       </c>
       <c r="C38" t="n">
-        <v>0.242974</v>
+        <v>0.245719</v>
       </c>
       <c r="D38" t="n">
-        <v>0.568908</v>
+        <v>0.553158</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.238751</v>
+        <v>0.23348</v>
       </c>
       <c r="C39" t="n">
-        <v>0.243985</v>
+        <v>0.243237</v>
       </c>
       <c r="D39" t="n">
-        <v>0.578716</v>
+        <v>0.576016</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.239322</v>
+        <v>0.235514</v>
       </c>
       <c r="C40" t="n">
-        <v>0.240321</v>
+        <v>0.242867</v>
       </c>
       <c r="D40" t="n">
-        <v>0.56707</v>
+        <v>0.5538110000000001</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.231889</v>
+        <v>0.229992</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2367</v>
+        <v>0.242148</v>
       </c>
       <c r="D41" t="n">
-        <v>0.588731</v>
+        <v>0.559044</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.22694</v>
+        <v>0.225513</v>
       </c>
       <c r="C42" t="n">
-        <v>0.237447</v>
+        <v>0.241356</v>
       </c>
       <c r="D42" t="n">
-        <v>0.607636</v>
+        <v>0.558669</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.221554</v>
+        <v>0.222068</v>
       </c>
       <c r="C43" t="n">
-        <v>0.23695</v>
+        <v>0.235525</v>
       </c>
       <c r="D43" t="n">
-        <v>0.598478</v>
+        <v>0.550824</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.221939</v>
+        <v>0.214905</v>
       </c>
       <c r="C44" t="n">
-        <v>0.233565</v>
+        <v>0.237723</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5951419999999999</v>
+        <v>0.5558149999999999</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.215019</v>
+        <v>0.213291</v>
       </c>
       <c r="C45" t="n">
-        <v>0.235026</v>
+        <v>0.234723</v>
       </c>
       <c r="D45" t="n">
-        <v>0.597212</v>
+        <v>0.560516</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.210641</v>
+        <v>0.208235</v>
       </c>
       <c r="C46" t="n">
-        <v>0.230735</v>
+        <v>0.232701</v>
       </c>
       <c r="D46" t="n">
-        <v>0.605855</v>
+        <v>0.581776</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.207856</v>
+        <v>0.205355</v>
       </c>
       <c r="C47" t="n">
-        <v>0.232109</v>
+        <v>0.230459</v>
       </c>
       <c r="D47" t="n">
-        <v>0.606488</v>
+        <v>0.591327</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.206024</v>
+        <v>0.202588</v>
       </c>
       <c r="C48" t="n">
-        <v>0.231899</v>
+        <v>0.2323</v>
       </c>
       <c r="D48" t="n">
-        <v>0.579941</v>
+        <v>0.580883</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.20194</v>
+        <v>0.198085</v>
       </c>
       <c r="C49" t="n">
-        <v>0.230772</v>
+        <v>0.228197</v>
       </c>
       <c r="D49" t="n">
-        <v>0.57382</v>
+        <v>0.588838</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.196092</v>
+        <v>0.191882</v>
       </c>
       <c r="C50" t="n">
-        <v>0.228888</v>
+        <v>0.227514</v>
       </c>
       <c r="D50" t="n">
-        <v>0.712995</v>
+        <v>0.673387</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.190314</v>
+        <v>0.186361</v>
       </c>
       <c r="C51" t="n">
-        <v>0.254348</v>
+        <v>0.251909</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7004280000000001</v>
+        <v>0.676213</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.181428</v>
+        <v>0.177381</v>
       </c>
       <c r="C52" t="n">
-        <v>0.248984</v>
+        <v>0.245814</v>
       </c>
       <c r="D52" t="n">
-        <v>0.685253</v>
+        <v>0.666362</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.2496</v>
+        <v>0.240525</v>
       </c>
       <c r="C53" t="n">
-        <v>0.246686</v>
+        <v>0.248504</v>
       </c>
       <c r="D53" t="n">
-        <v>0.688594</v>
+        <v>0.674812</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.241329</v>
+        <v>0.242339</v>
       </c>
       <c r="C54" t="n">
-        <v>0.244388</v>
+        <v>0.244652</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6886640000000001</v>
+        <v>0.665364</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.239268</v>
+        <v>0.232849</v>
       </c>
       <c r="C55" t="n">
-        <v>0.245079</v>
+        <v>0.242343</v>
       </c>
       <c r="D55" t="n">
-        <v>0.70327</v>
+        <v>0.669798</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.23406</v>
+        <v>0.232988</v>
       </c>
       <c r="C56" t="n">
-        <v>0.240772</v>
+        <v>0.244563</v>
       </c>
       <c r="D56" t="n">
-        <v>0.682219</v>
+        <v>0.669973</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228598</v>
+        <v>0.224279</v>
       </c>
       <c r="C57" t="n">
-        <v>0.237639</v>
+        <v>0.240311</v>
       </c>
       <c r="D57" t="n">
-        <v>0.679994</v>
+        <v>0.6620200000000001</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.226693</v>
+        <v>0.227477</v>
       </c>
       <c r="C58" t="n">
-        <v>0.23681</v>
+        <v>0.240021</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6829</v>
+        <v>0.649632</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.219518</v>
+        <v>0.220462</v>
       </c>
       <c r="C59" t="n">
-        <v>0.237564</v>
+        <v>0.23953</v>
       </c>
       <c r="D59" t="n">
-        <v>0.689269</v>
+        <v>0.661452</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.21965</v>
+        <v>0.214066</v>
       </c>
       <c r="C60" t="n">
-        <v>0.23492</v>
+        <v>0.234331</v>
       </c>
       <c r="D60" t="n">
-        <v>0.672951</v>
+        <v>0.667795</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.215266</v>
+        <v>0.208473</v>
       </c>
       <c r="C61" t="n">
-        <v>0.233028</v>
+        <v>0.237899</v>
       </c>
       <c r="D61" t="n">
-        <v>0.679211</v>
+        <v>0.656521</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.205989</v>
+        <v>0.209583</v>
       </c>
       <c r="C62" t="n">
-        <v>0.23197</v>
+        <v>0.232934</v>
       </c>
       <c r="D62" t="n">
-        <v>0.676469</v>
+        <v>0.6571129999999999</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.205417</v>
+        <v>0.206009</v>
       </c>
       <c r="C63" t="n">
-        <v>0.231371</v>
+        <v>0.235077</v>
       </c>
       <c r="D63" t="n">
-        <v>0.666099</v>
+        <v>0.671612</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.199883</v>
+        <v>0.199274</v>
       </c>
       <c r="C64" t="n">
-        <v>0.228816</v>
+        <v>0.231599</v>
       </c>
       <c r="D64" t="n">
-        <v>0.762781</v>
+        <v>0.7588549999999999</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.196524</v>
+        <v>0.192871</v>
       </c>
       <c r="C65" t="n">
-        <v>0.227665</v>
+        <v>0.231132</v>
       </c>
       <c r="D65" t="n">
-        <v>0.764964</v>
+        <v>0.7533530000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.18486</v>
+        <v>0.183591</v>
       </c>
       <c r="C66" t="n">
-        <v>0.255521</v>
+        <v>0.258409</v>
       </c>
       <c r="D66" t="n">
-        <v>0.747516</v>
+        <v>0.745797</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.248739</v>
+        <v>0.256388</v>
       </c>
       <c r="C67" t="n">
-        <v>0.253118</v>
+        <v>0.259765</v>
       </c>
       <c r="D67" t="n">
-        <v>0.73872</v>
+        <v>0.748583</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.246636</v>
+        <v>0.253366</v>
       </c>
       <c r="C68" t="n">
-        <v>0.251091</v>
+        <v>0.255924</v>
       </c>
       <c r="D68" t="n">
-        <v>0.731012</v>
+        <v>0.73599</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.244057</v>
+        <v>0.245664</v>
       </c>
       <c r="C69" t="n">
-        <v>0.247142</v>
+        <v>0.254933</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7266089999999999</v>
+        <v>0.731525</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.236759</v>
+        <v>0.245428</v>
       </c>
       <c r="C70" t="n">
-        <v>0.250554</v>
+        <v>0.250363</v>
       </c>
       <c r="D70" t="n">
-        <v>0.732331</v>
+        <v>0.725264</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.235777</v>
+        <v>0.240342</v>
       </c>
       <c r="C71" t="n">
-        <v>0.245754</v>
+        <v>0.246894</v>
       </c>
       <c r="D71" t="n">
-        <v>0.717316</v>
+        <v>0.727887</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.229475</v>
+        <v>0.231826</v>
       </c>
       <c r="C72" t="n">
-        <v>0.241626</v>
+        <v>0.247414</v>
       </c>
       <c r="D72" t="n">
-        <v>0.715426</v>
+        <v>0.726274</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.223261</v>
+        <v>0.229184</v>
       </c>
       <c r="C73" t="n">
-        <v>0.245042</v>
+        <v>0.241679</v>
       </c>
       <c r="D73" t="n">
-        <v>0.705464</v>
+        <v>0.714746</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.22096</v>
+        <v>0.224824</v>
       </c>
       <c r="C74" t="n">
-        <v>0.239684</v>
+        <v>0.244645</v>
       </c>
       <c r="D74" t="n">
-        <v>0.71965</v>
+        <v>0.7069260000000001</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.216972</v>
+        <v>0.219821</v>
       </c>
       <c r="C75" t="n">
-        <v>0.243974</v>
+        <v>0.241291</v>
       </c>
       <c r="D75" t="n">
-        <v>0.701041</v>
+        <v>0.712555</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.211598</v>
+        <v>0.214533</v>
       </c>
       <c r="C76" t="n">
-        <v>0.236618</v>
+        <v>0.242228</v>
       </c>
       <c r="D76" t="n">
-        <v>0.696697</v>
+        <v>0.718096</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.20967</v>
+        <v>0.213548</v>
       </c>
       <c r="C77" t="n">
-        <v>0.235614</v>
+        <v>0.243379</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6970150000000001</v>
+        <v>0.707191</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.208311</v>
+        <v>0.205121</v>
       </c>
       <c r="C78" t="n">
-        <v>0.235065</v>
+        <v>0.241433</v>
       </c>
       <c r="D78" t="n">
-        <v>0.791098</v>
+        <v>0.800857</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.197231</v>
+        <v>0.200216</v>
       </c>
       <c r="C79" t="n">
-        <v>0.232524</v>
+        <v>0.2385</v>
       </c>
       <c r="D79" t="n">
-        <v>0.782968</v>
+        <v>0.794839</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.18983</v>
+        <v>0.193053</v>
       </c>
       <c r="C80" t="n">
-        <v>0.26051</v>
+        <v>0.267381</v>
       </c>
       <c r="D80" t="n">
-        <v>0.778189</v>
+        <v>0.791178</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.258463</v>
+        <v>0.259047</v>
       </c>
       <c r="C81" t="n">
-        <v>0.255741</v>
+        <v>0.260319</v>
       </c>
       <c r="D81" t="n">
-        <v>0.769659</v>
+        <v>0.764414</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.251626</v>
+        <v>0.254993</v>
       </c>
       <c r="C82" t="n">
-        <v>0.253468</v>
+        <v>0.259011</v>
       </c>
       <c r="D82" t="n">
-        <v>0.757431</v>
+        <v>0.77616</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.247376</v>
+        <v>0.250728</v>
       </c>
       <c r="C83" t="n">
-        <v>0.254187</v>
+        <v>0.256814</v>
       </c>
       <c r="D83" t="n">
-        <v>0.761416</v>
+        <v>0.760433</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.24173</v>
+        <v>0.245503</v>
       </c>
       <c r="C84" t="n">
-        <v>0.251367</v>
+        <v>0.253963</v>
       </c>
       <c r="D84" t="n">
-        <v>0.780419</v>
+        <v>0.77438</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.24227</v>
+        <v>0.240849</v>
       </c>
       <c r="C85" t="n">
-        <v>0.246646</v>
+        <v>0.25251</v>
       </c>
       <c r="D85" t="n">
-        <v>0.787672</v>
+        <v>0.772034</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.236248</v>
+        <v>0.236467</v>
       </c>
       <c r="C86" t="n">
-        <v>0.246432</v>
+        <v>0.253309</v>
       </c>
       <c r="D86" t="n">
-        <v>0.778535</v>
+        <v>0.790007</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.227929</v>
+        <v>0.23096</v>
       </c>
       <c r="C87" t="n">
-        <v>0.244769</v>
+        <v>0.249522</v>
       </c>
       <c r="D87" t="n">
-        <v>0.77153</v>
+        <v>0.7526080000000001</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.227832</v>
+        <v>0.225545</v>
       </c>
       <c r="C88" t="n">
-        <v>0.243668</v>
+        <v>0.247271</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7615730000000001</v>
+        <v>0.757595</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.221349</v>
+        <v>0.220734</v>
       </c>
       <c r="C89" t="n">
-        <v>0.241873</v>
+        <v>0.24768</v>
       </c>
       <c r="D89" t="n">
-        <v>0.757419</v>
+        <v>0.761063</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.215549</v>
+        <v>0.21564</v>
       </c>
       <c r="C90" t="n">
-        <v>0.238191</v>
+        <v>0.242949</v>
       </c>
       <c r="D90" t="n">
-        <v>0.752479</v>
+        <v>0.764528</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.213591</v>
+        <v>0.212893</v>
       </c>
       <c r="C91" t="n">
-        <v>0.240509</v>
+        <v>0.241982</v>
       </c>
       <c r="D91" t="n">
-        <v>0.753277</v>
+        <v>0.747456</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.208275</v>
+        <v>0.208268</v>
       </c>
       <c r="C92" t="n">
-        <v>0.235002</v>
+        <v>0.242242</v>
       </c>
       <c r="D92" t="n">
-        <v>0.69237</v>
+        <v>0.707041</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.203436</v>
+        <v>0.202867</v>
       </c>
       <c r="C93" t="n">
-        <v>0.235511</v>
+        <v>0.238145</v>
       </c>
       <c r="D93" t="n">
-        <v>0.701538</v>
+        <v>0.693734</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.194177</v>
+        <v>0.194674</v>
       </c>
       <c r="C94" t="n">
-        <v>0.262416</v>
+        <v>0.265045</v>
       </c>
       <c r="D94" t="n">
-        <v>0.696352</v>
+        <v>0.685543</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.261838</v>
+        <v>0.260549</v>
       </c>
       <c r="C95" t="n">
-        <v>0.257021</v>
+        <v>0.263498</v>
       </c>
       <c r="D95" t="n">
-        <v>0.689785</v>
+        <v>0.699765</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.255273</v>
+        <v>0.257408</v>
       </c>
       <c r="C96" t="n">
-        <v>0.258941</v>
+        <v>0.258795</v>
       </c>
       <c r="D96" t="n">
-        <v>0.693958</v>
+        <v>0.682354</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.251939</v>
+        <v>0.25245</v>
       </c>
       <c r="C97" t="n">
-        <v>0.253398</v>
+        <v>0.260257</v>
       </c>
       <c r="D97" t="n">
-        <v>0.683905</v>
+        <v>0.679453</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.246305</v>
+        <v>0.242846</v>
       </c>
       <c r="C98" t="n">
-        <v>0.251187</v>
+        <v>0.254803</v>
       </c>
       <c r="D98" t="n">
-        <v>0.683423</v>
+        <v>0.692943</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.239463</v>
+        <v>0.242061</v>
       </c>
       <c r="C99" t="n">
-        <v>0.254771</v>
+        <v>0.253132</v>
       </c>
       <c r="D99" t="n">
-        <v>0.695201</v>
+        <v>0.689283</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.237135</v>
+        <v>0.238182</v>
       </c>
       <c r="C100" t="n">
-        <v>0.248284</v>
+        <v>0.2532</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6905829999999999</v>
+        <v>0.68808</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.23268</v>
+        <v>0.231194</v>
       </c>
       <c r="C101" t="n">
-        <v>0.248346</v>
+        <v>0.25163</v>
       </c>
       <c r="D101" t="n">
-        <v>0.682915</v>
+        <v>0.686704</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.228612</v>
+        <v>0.229869</v>
       </c>
       <c r="C102" t="n">
-        <v>0.246013</v>
+        <v>0.24851</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6838</v>
+        <v>0.678797</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.224684</v>
+        <v>0.22114</v>
       </c>
       <c r="C103" t="n">
-        <v>0.245093</v>
+        <v>0.248017</v>
       </c>
       <c r="D103" t="n">
-        <v>0.677817</v>
+        <v>0.691041</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.216479</v>
+        <v>0.218439</v>
       </c>
       <c r="C104" t="n">
-        <v>0.242588</v>
+        <v>0.243586</v>
       </c>
       <c r="D104" t="n">
-        <v>0.68562</v>
+        <v>0.672053</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.21468</v>
+        <v>0.212043</v>
       </c>
       <c r="C105" t="n">
-        <v>0.238709</v>
+        <v>0.246293</v>
       </c>
       <c r="D105" t="n">
-        <v>0.694061</v>
+        <v>0.688168</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.208597</v>
+        <v>0.21266</v>
       </c>
       <c r="C106" t="n">
-        <v>0.237336</v>
+        <v>0.245145</v>
       </c>
       <c r="D106" t="n">
-        <v>0.685234</v>
+        <v>0.677476</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.207226</v>
+        <v>0.206049</v>
       </c>
       <c r="C107" t="n">
-        <v>0.238089</v>
+        <v>0.23669</v>
       </c>
       <c r="D107" t="n">
-        <v>0.687649</v>
+        <v>0.685669</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.195984</v>
+        <v>0.196824</v>
       </c>
       <c r="C108" t="n">
-        <v>0.266574</v>
+        <v>0.265436</v>
       </c>
       <c r="D108" t="n">
-        <v>0.697035</v>
+        <v>0.683848</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.188979</v>
+        <v>0.187528</v>
       </c>
       <c r="C109" t="n">
-        <v>0.262657</v>
+        <v>0.266296</v>
       </c>
       <c r="D109" t="n">
-        <v>0.678639</v>
+        <v>0.689416</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.258973</v>
+        <v>0.256776</v>
       </c>
       <c r="C110" t="n">
-        <v>0.257758</v>
+        <v>0.262521</v>
       </c>
       <c r="D110" t="n">
-        <v>0.689551</v>
+        <v>0.686683</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.253515</v>
+        <v>0.256829</v>
       </c>
       <c r="C111" t="n">
-        <v>0.254073</v>
+        <v>0.261362</v>
       </c>
       <c r="D111" t="n">
-        <v>0.697796</v>
+        <v>0.685906</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.246796</v>
+        <v>0.244742</v>
       </c>
       <c r="C112" t="n">
-        <v>0.254007</v>
+        <v>0.254295</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6863629999999999</v>
+        <v>0.678762</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.247553</v>
+        <v>0.2453</v>
       </c>
       <c r="C113" t="n">
-        <v>0.254905</v>
+        <v>0.257239</v>
       </c>
       <c r="D113" t="n">
-        <v>0.684719</v>
+        <v>0.686479</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.240687</v>
+        <v>0.239003</v>
       </c>
       <c r="C114" t="n">
-        <v>0.250078</v>
+        <v>0.251663</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6839190000000001</v>
+        <v>0.69295</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.236865</v>
+        <v>0.231945</v>
       </c>
       <c r="C115" t="n">
-        <v>0.2538</v>
+        <v>0.247553</v>
       </c>
       <c r="D115" t="n">
-        <v>0.688611</v>
+        <v>0.682357</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.22912</v>
+        <v>0.229029</v>
       </c>
       <c r="C116" t="n">
-        <v>0.248099</v>
+        <v>0.249457</v>
       </c>
       <c r="D116" t="n">
-        <v>0.677339</v>
+        <v>0.678684</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.224911</v>
+        <v>0.224662</v>
       </c>
       <c r="C117" t="n">
-        <v>0.24777</v>
+        <v>0.245056</v>
       </c>
       <c r="D117" t="n">
-        <v>0.678193</v>
+        <v>0.6625799999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.2171</v>
+        <v>0.223565</v>
       </c>
       <c r="C118" t="n">
-        <v>0.240747</v>
+        <v>0.243755</v>
       </c>
       <c r="D118" t="n">
-        <v>0.688114</v>
+        <v>0.687622</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.215154</v>
+        <v>0.214977</v>
       </c>
       <c r="C119" t="n">
-        <v>0.239185</v>
+        <v>0.246635</v>
       </c>
       <c r="D119" t="n">
-        <v>0.676299</v>
+        <v>0.680594</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.211593</v>
+        <v>0.20942</v>
       </c>
       <c r="C120" t="n">
-        <v>0.237425</v>
+        <v>0.240317</v>
       </c>
       <c r="D120" t="n">
-        <v>0.689325</v>
+        <v>0.679803</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.206772</v>
+        <v>0.207108</v>
       </c>
       <c r="C121" t="n">
-        <v>0.236178</v>
+        <v>0.244594</v>
       </c>
       <c r="D121" t="n">
-        <v>0.687383</v>
+        <v>0.726206</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.197472</v>
+        <v>0.202521</v>
       </c>
       <c r="C122" t="n">
-        <v>0.236616</v>
+        <v>0.238652</v>
       </c>
       <c r="D122" t="n">
-        <v>0.689044</v>
+        <v>0.687523</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.188432</v>
+        <v>0.190891</v>
       </c>
       <c r="C123" t="n">
-        <v>0.268502</v>
+        <v>0.265833</v>
       </c>
       <c r="D123" t="n">
-        <v>0.701985</v>
+        <v>0.698982</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.261032</v>
+        <v>0.260607</v>
       </c>
       <c r="C124" t="n">
-        <v>0.260867</v>
+        <v>0.260746</v>
       </c>
       <c r="D124" t="n">
-        <v>0.689975</v>
+        <v>0.691268</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.257084</v>
+        <v>0.256864</v>
       </c>
       <c r="C125" t="n">
-        <v>0.264312</v>
+        <v>0.262208</v>
       </c>
       <c r="D125" t="n">
-        <v>0.693343</v>
+        <v>0.687481</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.24776</v>
+        <v>0.250923</v>
       </c>
       <c r="C126" t="n">
-        <v>0.253892</v>
+        <v>0.255363</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6886679999999999</v>
+        <v>0.684604</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.239386</v>
+        <v>0.246596</v>
       </c>
       <c r="C127" t="n">
-        <v>0.255015</v>
+        <v>0.254409</v>
       </c>
       <c r="D127" t="n">
-        <v>0.699003</v>
+        <v>0.703653</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.243193</v>
+        <v>0.239482</v>
       </c>
       <c r="C128" t="n">
-        <v>0.251975</v>
+        <v>0.251986</v>
       </c>
       <c r="D128" t="n">
-        <v>0.694645</v>
+        <v>0.687324</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.239226</v>
+        <v>0.233996</v>
       </c>
       <c r="C129" t="n">
-        <v>0.245679</v>
+        <v>0.248999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.696566</v>
+        <v>0.689491</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.229539</v>
+        <v>0.227676</v>
       </c>
       <c r="C130" t="n">
-        <v>0.243427</v>
+        <v>0.250116</v>
       </c>
       <c r="D130" t="n">
-        <v>0.686631</v>
+        <v>0.694282</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.222407</v>
+        <v>0.224452</v>
       </c>
       <c r="C131" t="n">
-        <v>0.252879</v>
+        <v>0.247271</v>
       </c>
       <c r="D131" t="n">
-        <v>0.686175</v>
+        <v>0.69652</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.220852</v>
+        <v>0.219019</v>
       </c>
       <c r="C132" t="n">
-        <v>0.243021</v>
+        <v>0.240914</v>
       </c>
       <c r="D132" t="n">
-        <v>0.686844</v>
+        <v>0.685507</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.220858</v>
+        <v>0.213489</v>
       </c>
       <c r="C133" t="n">
-        <v>0.240835</v>
+        <v>0.246921</v>
       </c>
       <c r="D133" t="n">
-        <v>0.705574</v>
+        <v>0.69132</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.212886</v>
+        <v>0.214524</v>
       </c>
       <c r="C134" t="n">
-        <v>0.24192</v>
+        <v>0.243428</v>
       </c>
       <c r="D134" t="n">
-        <v>0.695389</v>
+        <v>0.681863</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.214628</v>
+        <v>0.206735</v>
       </c>
       <c r="C135" t="n">
-        <v>0.239912</v>
+        <v>0.245188</v>
       </c>
       <c r="D135" t="n">
-        <v>0.733457</v>
+        <v>0.690793</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.20351</v>
+        <v>0.201082</v>
       </c>
       <c r="C136" t="n">
-        <v>0.243835</v>
+        <v>0.24038</v>
       </c>
       <c r="D136" t="n">
-        <v>0.72266</v>
+        <v>0.701358</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.196005</v>
+        <v>0.198058</v>
       </c>
       <c r="C137" t="n">
-        <v>0.266691</v>
+        <v>0.271817</v>
       </c>
       <c r="D137" t="n">
-        <v>0.744416</v>
+        <v>0.689038</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.26325</v>
+        <v>0.274494</v>
       </c>
       <c r="C138" t="n">
-        <v>0.264169</v>
+        <v>0.259887</v>
       </c>
       <c r="D138" t="n">
-        <v>0.706736</v>
+        <v>0.693626</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.257809</v>
+        <v>0.258328</v>
       </c>
       <c r="C139" t="n">
-        <v>0.264638</v>
+        <v>0.258805</v>
       </c>
       <c r="D139" t="n">
-        <v>0.698394</v>
+        <v>0.700187</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.254382</v>
+        <v>0.249316</v>
       </c>
       <c r="C140" t="n">
-        <v>0.260494</v>
+        <v>0.253668</v>
       </c>
       <c r="D140" t="n">
-        <v>0.711235</v>
+        <v>0.703424</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.251355</v>
+        <v>0.243637</v>
       </c>
       <c r="C141" t="n">
-        <v>0.256231</v>
+        <v>0.252439</v>
       </c>
       <c r="D141" t="n">
-        <v>0.727451</v>
+        <v>0.691094</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.246511</v>
+        <v>0.244206</v>
       </c>
       <c r="C142" t="n">
-        <v>0.253185</v>
+        <v>0.253505</v>
       </c>
       <c r="D142" t="n">
-        <v>0.71067</v>
+        <v>0.683263</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.238089</v>
+        <v>0.235571</v>
       </c>
       <c r="C143" t="n">
-        <v>0.252554</v>
+        <v>0.248323</v>
       </c>
       <c r="D143" t="n">
-        <v>0.704306</v>
+        <v>0.683964</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.207392</v>
+        <v>0.1973</v>
       </c>
       <c r="C2" t="n">
-        <v>0.231589</v>
+        <v>0.226662</v>
       </c>
       <c r="D2" t="n">
-        <v>0.552169</v>
+        <v>0.527258</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.201413</v>
+        <v>0.196831</v>
       </c>
       <c r="C3" t="n">
-        <v>0.229339</v>
+        <v>0.227315</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5404949999999999</v>
+        <v>0.524061</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.195885</v>
+        <v>0.193334</v>
       </c>
       <c r="C4" t="n">
-        <v>0.223305</v>
+        <v>0.22716</v>
       </c>
       <c r="D4" t="n">
-        <v>0.525655</v>
+        <v>0.52469</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.196281</v>
+        <v>0.190317</v>
       </c>
       <c r="C5" t="n">
-        <v>0.225904</v>
+        <v>0.230797</v>
       </c>
       <c r="D5" t="n">
-        <v>0.53324</v>
+        <v>0.526822</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.188415</v>
+        <v>0.187135</v>
       </c>
       <c r="C6" t="n">
-        <v>0.222423</v>
+        <v>0.229335</v>
       </c>
       <c r="D6" t="n">
-        <v>0.523671</v>
+        <v>0.524655</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.184191</v>
+        <v>0.186495</v>
       </c>
       <c r="C7" t="n">
-        <v>0.223805</v>
+        <v>0.227023</v>
       </c>
       <c r="D7" t="n">
-        <v>0.532047</v>
+        <v>0.523824</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.178131</v>
+        <v>0.178803</v>
       </c>
       <c r="C8" t="n">
-        <v>0.221381</v>
+        <v>0.224001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5330279999999999</v>
+        <v>0.525726</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.169846</v>
+        <v>0.177434</v>
       </c>
       <c r="C9" t="n">
-        <v>0.229963</v>
+        <v>0.239724</v>
       </c>
       <c r="D9" t="n">
-        <v>0.544094</v>
+        <v>0.529328</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.226357</v>
+        <v>0.229604</v>
       </c>
       <c r="C10" t="n">
-        <v>0.22873</v>
+        <v>0.235644</v>
       </c>
       <c r="D10" t="n">
-        <v>0.536029</v>
+        <v>0.5298620000000001</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.221575</v>
+        <v>0.224341</v>
       </c>
       <c r="C11" t="n">
-        <v>0.22926</v>
+        <v>0.234954</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5354409999999999</v>
+        <v>0.5277230000000001</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.224771</v>
+        <v>0.221085</v>
       </c>
       <c r="C12" t="n">
-        <v>0.22881</v>
+        <v>0.233249</v>
       </c>
       <c r="D12" t="n">
-        <v>0.523628</v>
+        <v>0.52349</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.218781</v>
+        <v>0.219315</v>
       </c>
       <c r="C13" t="n">
-        <v>0.229031</v>
+        <v>0.234982</v>
       </c>
       <c r="D13" t="n">
-        <v>0.534053</v>
+        <v>0.530641</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.214991</v>
+        <v>0.214268</v>
       </c>
       <c r="C14" t="n">
-        <v>0.223877</v>
+        <v>0.230253</v>
       </c>
       <c r="D14" t="n">
-        <v>0.534782</v>
+        <v>0.526591</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.210515</v>
+        <v>0.209209</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2274</v>
+        <v>0.237449</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5364989999999999</v>
+        <v>0.526904</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.204601</v>
+        <v>0.208331</v>
       </c>
       <c r="C16" t="n">
-        <v>0.224116</v>
+        <v>0.237006</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5334100000000001</v>
+        <v>0.524403</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.205639</v>
+        <v>0.208019</v>
       </c>
       <c r="C17" t="n">
-        <v>0.229513</v>
+        <v>0.229746</v>
       </c>
       <c r="D17" t="n">
-        <v>0.526253</v>
+        <v>0.520378</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.205256</v>
+        <v>0.199223</v>
       </c>
       <c r="C18" t="n">
-        <v>0.226855</v>
+        <v>0.230327</v>
       </c>
       <c r="D18" t="n">
-        <v>0.526029</v>
+        <v>0.51978</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.19792</v>
+        <v>0.197703</v>
       </c>
       <c r="C19" t="n">
-        <v>0.226461</v>
+        <v>0.229142</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5287190000000001</v>
+        <v>0.519046</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.197095</v>
+        <v>0.201642</v>
       </c>
       <c r="C20" t="n">
-        <v>0.227906</v>
+        <v>0.236462</v>
       </c>
       <c r="D20" t="n">
-        <v>0.534402</v>
+        <v>0.525018</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.193997</v>
+        <v>0.193826</v>
       </c>
       <c r="C21" t="n">
-        <v>0.226364</v>
+        <v>0.234418</v>
       </c>
       <c r="D21" t="n">
-        <v>0.541621</v>
+        <v>0.540739</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.187298</v>
+        <v>0.18621</v>
       </c>
       <c r="C22" t="n">
-        <v>0.22266</v>
+        <v>0.227928</v>
       </c>
       <c r="D22" t="n">
-        <v>0.545462</v>
+        <v>0.538845</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.175722</v>
+        <v>0.178687</v>
       </c>
       <c r="C23" t="n">
-        <v>0.238255</v>
+        <v>0.241972</v>
       </c>
       <c r="D23" t="n">
-        <v>0.543177</v>
+        <v>0.535884</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.240478</v>
+        <v>0.232628</v>
       </c>
       <c r="C24" t="n">
-        <v>0.240845</v>
+        <v>0.23778</v>
       </c>
       <c r="D24" t="n">
-        <v>0.552708</v>
+        <v>0.532034</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.235406</v>
+        <v>0.231024</v>
       </c>
       <c r="C25" t="n">
-        <v>0.236967</v>
+        <v>0.238482</v>
       </c>
       <c r="D25" t="n">
-        <v>0.553534</v>
+        <v>0.533704</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.231491</v>
+        <v>0.228548</v>
       </c>
       <c r="C26" t="n">
-        <v>0.233422</v>
+        <v>0.2427</v>
       </c>
       <c r="D26" t="n">
-        <v>0.549894</v>
+        <v>0.5293870000000001</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.228812</v>
+        <v>0.224453</v>
       </c>
       <c r="C27" t="n">
-        <v>0.234717</v>
+        <v>0.238019</v>
       </c>
       <c r="D27" t="n">
-        <v>0.557215</v>
+        <v>0.529251</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.220997</v>
+        <v>0.221385</v>
       </c>
       <c r="C28" t="n">
-        <v>0.233748</v>
+        <v>0.236087</v>
       </c>
       <c r="D28" t="n">
-        <v>0.545718</v>
+        <v>0.549992</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.222007</v>
+        <v>0.215892</v>
       </c>
       <c r="C29" t="n">
-        <v>0.235781</v>
+        <v>0.234917</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5503479999999999</v>
+        <v>0.534142</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.215798</v>
+        <v>0.215885</v>
       </c>
       <c r="C30" t="n">
-        <v>0.233019</v>
+        <v>0.23451</v>
       </c>
       <c r="D30" t="n">
-        <v>0.551875</v>
+        <v>0.52601</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.210377</v>
+        <v>0.20975</v>
       </c>
       <c r="C31" t="n">
-        <v>0.232116</v>
+        <v>0.235446</v>
       </c>
       <c r="D31" t="n">
-        <v>0.539851</v>
+        <v>0.525531</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.211911</v>
+        <v>0.208127</v>
       </c>
       <c r="C32" t="n">
-        <v>0.230366</v>
+        <v>0.234868</v>
       </c>
       <c r="D32" t="n">
-        <v>0.541428</v>
+        <v>0.531044</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.205638</v>
+        <v>0.203655</v>
       </c>
       <c r="C33" t="n">
-        <v>0.229278</v>
+        <v>0.231272</v>
       </c>
       <c r="D33" t="n">
-        <v>0.535189</v>
+        <v>0.5316959999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.200963</v>
+        <v>0.199769</v>
       </c>
       <c r="C34" t="n">
-        <v>0.22858</v>
+        <v>0.228952</v>
       </c>
       <c r="D34" t="n">
-        <v>0.532743</v>
+        <v>0.529311</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.197187</v>
+        <v>0.191998</v>
       </c>
       <c r="C35" t="n">
-        <v>0.225883</v>
+        <v>0.228601</v>
       </c>
       <c r="D35" t="n">
-        <v>0.584537</v>
+        <v>0.547558</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.191449</v>
+        <v>0.191276</v>
       </c>
       <c r="C36" t="n">
-        <v>0.222501</v>
+        <v>0.22765</v>
       </c>
       <c r="D36" t="n">
-        <v>0.566048</v>
+        <v>0.552682</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.185197</v>
+        <v>0.182661</v>
       </c>
       <c r="C37" t="n">
-        <v>0.245139</v>
+        <v>0.248339</v>
       </c>
       <c r="D37" t="n">
-        <v>0.572276</v>
+        <v>0.565491</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247201</v>
+        <v>0.242615</v>
       </c>
       <c r="C38" t="n">
-        <v>0.242974</v>
+        <v>0.248964</v>
       </c>
       <c r="D38" t="n">
-        <v>0.568908</v>
+        <v>0.545002</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.238751</v>
+        <v>0.235396</v>
       </c>
       <c r="C39" t="n">
-        <v>0.243985</v>
+        <v>0.244128</v>
       </c>
       <c r="D39" t="n">
-        <v>0.578716</v>
+        <v>0.55621</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.239322</v>
+        <v>0.22942</v>
       </c>
       <c r="C40" t="n">
-        <v>0.240321</v>
+        <v>0.242928</v>
       </c>
       <c r="D40" t="n">
-        <v>0.56707</v>
+        <v>0.561463</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.231889</v>
+        <v>0.22924</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2367</v>
+        <v>0.240572</v>
       </c>
       <c r="D41" t="n">
-        <v>0.588731</v>
+        <v>0.553945</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.22694</v>
+        <v>0.224345</v>
       </c>
       <c r="C42" t="n">
-        <v>0.237447</v>
+        <v>0.239625</v>
       </c>
       <c r="D42" t="n">
-        <v>0.607636</v>
+        <v>0.5529539999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.221554</v>
+        <v>0.219114</v>
       </c>
       <c r="C43" t="n">
-        <v>0.23695</v>
+        <v>0.237631</v>
       </c>
       <c r="D43" t="n">
-        <v>0.598478</v>
+        <v>0.565788</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.221939</v>
+        <v>0.21914</v>
       </c>
       <c r="C44" t="n">
-        <v>0.233565</v>
+        <v>0.235843</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5951419999999999</v>
+        <v>0.542593</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.215019</v>
+        <v>0.211785</v>
       </c>
       <c r="C45" t="n">
-        <v>0.235026</v>
+        <v>0.236178</v>
       </c>
       <c r="D45" t="n">
-        <v>0.597212</v>
+        <v>0.565943</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.210641</v>
+        <v>0.209478</v>
       </c>
       <c r="C46" t="n">
-        <v>0.230735</v>
+        <v>0.233573</v>
       </c>
       <c r="D46" t="n">
-        <v>0.605855</v>
+        <v>0.570815</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.207856</v>
+        <v>0.203527</v>
       </c>
       <c r="C47" t="n">
-        <v>0.232109</v>
+        <v>0.232885</v>
       </c>
       <c r="D47" t="n">
-        <v>0.606488</v>
+        <v>0.563631</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.206024</v>
+        <v>0.205367</v>
       </c>
       <c r="C48" t="n">
-        <v>0.231899</v>
+        <v>0.232959</v>
       </c>
       <c r="D48" t="n">
-        <v>0.579941</v>
+        <v>0.561875</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.20194</v>
+        <v>0.200153</v>
       </c>
       <c r="C49" t="n">
-        <v>0.230772</v>
+        <v>0.232196</v>
       </c>
       <c r="D49" t="n">
-        <v>0.57382</v>
+        <v>0.562499</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.196092</v>
+        <v>0.190833</v>
       </c>
       <c r="C50" t="n">
-        <v>0.228888</v>
+        <v>0.232497</v>
       </c>
       <c r="D50" t="n">
-        <v>0.712995</v>
+        <v>0.667775</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.190314</v>
+        <v>0.187289</v>
       </c>
       <c r="C51" t="n">
-        <v>0.254348</v>
+        <v>0.251495</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7004280000000001</v>
+        <v>0.655069</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.181428</v>
+        <v>0.180104</v>
       </c>
       <c r="C52" t="n">
-        <v>0.248984</v>
+        <v>0.250952</v>
       </c>
       <c r="D52" t="n">
-        <v>0.685253</v>
+        <v>0.669726</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.2496</v>
+        <v>0.244126</v>
       </c>
       <c r="C53" t="n">
-        <v>0.246686</v>
+        <v>0.249476</v>
       </c>
       <c r="D53" t="n">
-        <v>0.688594</v>
+        <v>0.655704</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.241329</v>
+        <v>0.239302</v>
       </c>
       <c r="C54" t="n">
-        <v>0.244388</v>
+        <v>0.247602</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6886640000000001</v>
+        <v>0.659164</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.239268</v>
+        <v>0.237368</v>
       </c>
       <c r="C55" t="n">
-        <v>0.245079</v>
+        <v>0.245566</v>
       </c>
       <c r="D55" t="n">
-        <v>0.70327</v>
+        <v>0.650054</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.23406</v>
+        <v>0.230889</v>
       </c>
       <c r="C56" t="n">
-        <v>0.240772</v>
+        <v>0.241757</v>
       </c>
       <c r="D56" t="n">
-        <v>0.682219</v>
+        <v>0.657393</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228598</v>
+        <v>0.227403</v>
       </c>
       <c r="C57" t="n">
-        <v>0.237639</v>
+        <v>0.243536</v>
       </c>
       <c r="D57" t="n">
-        <v>0.679994</v>
+        <v>0.662509</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.226693</v>
+        <v>0.22268</v>
       </c>
       <c r="C58" t="n">
-        <v>0.23681</v>
+        <v>0.24254</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6829</v>
+        <v>0.663409</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.219518</v>
+        <v>0.219729</v>
       </c>
       <c r="C59" t="n">
-        <v>0.237564</v>
+        <v>0.242161</v>
       </c>
       <c r="D59" t="n">
-        <v>0.689269</v>
+        <v>0.64523</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.21965</v>
+        <v>0.214159</v>
       </c>
       <c r="C60" t="n">
-        <v>0.23492</v>
+        <v>0.241042</v>
       </c>
       <c r="D60" t="n">
-        <v>0.672951</v>
+        <v>0.654609</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.215266</v>
+        <v>0.212277</v>
       </c>
       <c r="C61" t="n">
-        <v>0.233028</v>
+        <v>0.239246</v>
       </c>
       <c r="D61" t="n">
-        <v>0.679211</v>
+        <v>0.6449589999999999</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.205989</v>
+        <v>0.206995</v>
       </c>
       <c r="C62" t="n">
-        <v>0.23197</v>
+        <v>0.235415</v>
       </c>
       <c r="D62" t="n">
-        <v>0.676469</v>
+        <v>0.643308</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.205417</v>
+        <v>0.203778</v>
       </c>
       <c r="C63" t="n">
-        <v>0.231371</v>
+        <v>0.234431</v>
       </c>
       <c r="D63" t="n">
-        <v>0.666099</v>
+        <v>0.639662</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.199883</v>
+        <v>0.199356</v>
       </c>
       <c r="C64" t="n">
-        <v>0.228816</v>
+        <v>0.233791</v>
       </c>
       <c r="D64" t="n">
-        <v>0.762781</v>
+        <v>0.743783</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.196524</v>
+        <v>0.194291</v>
       </c>
       <c r="C65" t="n">
-        <v>0.227665</v>
+        <v>0.233686</v>
       </c>
       <c r="D65" t="n">
-        <v>0.764964</v>
+        <v>0.741055</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.18486</v>
+        <v>0.184147</v>
       </c>
       <c r="C66" t="n">
-        <v>0.255521</v>
+        <v>0.262138</v>
       </c>
       <c r="D66" t="n">
-        <v>0.747516</v>
+        <v>0.73047</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.248739</v>
+        <v>0.257408</v>
       </c>
       <c r="C67" t="n">
-        <v>0.253118</v>
+        <v>0.258698</v>
       </c>
       <c r="D67" t="n">
-        <v>0.73872</v>
+        <v>0.73087</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.246636</v>
+        <v>0.249096</v>
       </c>
       <c r="C68" t="n">
-        <v>0.251091</v>
+        <v>0.25537</v>
       </c>
       <c r="D68" t="n">
-        <v>0.731012</v>
+        <v>0.719766</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.244057</v>
+        <v>0.250574</v>
       </c>
       <c r="C69" t="n">
-        <v>0.247142</v>
+        <v>0.254948</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7266089999999999</v>
+        <v>0.721695</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.236759</v>
+        <v>0.243574</v>
       </c>
       <c r="C70" t="n">
-        <v>0.250554</v>
+        <v>0.251551</v>
       </c>
       <c r="D70" t="n">
-        <v>0.732331</v>
+        <v>0.715021</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.235777</v>
+        <v>0.236525</v>
       </c>
       <c r="C71" t="n">
-        <v>0.245754</v>
+        <v>0.248241</v>
       </c>
       <c r="D71" t="n">
-        <v>0.717316</v>
+        <v>0.7074279999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.229475</v>
+        <v>0.229744</v>
       </c>
       <c r="C72" t="n">
-        <v>0.241626</v>
+        <v>0.250019</v>
       </c>
       <c r="D72" t="n">
-        <v>0.715426</v>
+        <v>0.715135</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.223261</v>
+        <v>0.228944</v>
       </c>
       <c r="C73" t="n">
-        <v>0.245042</v>
+        <v>0.249151</v>
       </c>
       <c r="D73" t="n">
-        <v>0.705464</v>
+        <v>0.699413</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.22096</v>
+        <v>0.222021</v>
       </c>
       <c r="C74" t="n">
-        <v>0.239684</v>
+        <v>0.246224</v>
       </c>
       <c r="D74" t="n">
-        <v>0.71965</v>
+        <v>0.706934</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.216972</v>
+        <v>0.219684</v>
       </c>
       <c r="C75" t="n">
-        <v>0.243974</v>
+        <v>0.242531</v>
       </c>
       <c r="D75" t="n">
-        <v>0.701041</v>
+        <v>0.705968</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.211598</v>
+        <v>0.213319</v>
       </c>
       <c r="C76" t="n">
-        <v>0.236618</v>
+        <v>0.243764</v>
       </c>
       <c r="D76" t="n">
-        <v>0.696697</v>
+        <v>0.710808</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.20967</v>
+        <v>0.211952</v>
       </c>
       <c r="C77" t="n">
-        <v>0.235614</v>
+        <v>0.24071</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6970150000000001</v>
+        <v>0.696583</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.208311</v>
+        <v>0.205914</v>
       </c>
       <c r="C78" t="n">
-        <v>0.235065</v>
+        <v>0.240367</v>
       </c>
       <c r="D78" t="n">
-        <v>0.791098</v>
+        <v>0.776823</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.197231</v>
+        <v>0.200192</v>
       </c>
       <c r="C79" t="n">
-        <v>0.232524</v>
+        <v>0.238393</v>
       </c>
       <c r="D79" t="n">
-        <v>0.782968</v>
+        <v>0.77327</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.18983</v>
+        <v>0.193863</v>
       </c>
       <c r="C80" t="n">
-        <v>0.26051</v>
+        <v>0.268255</v>
       </c>
       <c r="D80" t="n">
-        <v>0.778189</v>
+        <v>0.770108</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.258463</v>
+        <v>0.257086</v>
       </c>
       <c r="C81" t="n">
-        <v>0.255741</v>
+        <v>0.261895</v>
       </c>
       <c r="D81" t="n">
-        <v>0.769659</v>
+        <v>0.782701</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.251626</v>
+        <v>0.254173</v>
       </c>
       <c r="C82" t="n">
-        <v>0.253468</v>
+        <v>0.262957</v>
       </c>
       <c r="D82" t="n">
-        <v>0.757431</v>
+        <v>0.761336</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.247376</v>
+        <v>0.249093</v>
       </c>
       <c r="C83" t="n">
-        <v>0.254187</v>
+        <v>0.25865</v>
       </c>
       <c r="D83" t="n">
-        <v>0.761416</v>
+        <v>0.735564</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.24173</v>
+        <v>0.245408</v>
       </c>
       <c r="C84" t="n">
-        <v>0.251367</v>
+        <v>0.257738</v>
       </c>
       <c r="D84" t="n">
-        <v>0.780419</v>
+        <v>0.788371</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.24227</v>
+        <v>0.240842</v>
       </c>
       <c r="C85" t="n">
-        <v>0.246646</v>
+        <v>0.253869</v>
       </c>
       <c r="D85" t="n">
-        <v>0.787672</v>
+        <v>0.767501</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.236248</v>
+        <v>0.234079</v>
       </c>
       <c r="C86" t="n">
-        <v>0.246432</v>
+        <v>0.252349</v>
       </c>
       <c r="D86" t="n">
-        <v>0.778535</v>
+        <v>0.755068</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.227929</v>
+        <v>0.230668</v>
       </c>
       <c r="C87" t="n">
-        <v>0.244769</v>
+        <v>0.253644</v>
       </c>
       <c r="D87" t="n">
-        <v>0.77153</v>
+        <v>0.765223</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.227832</v>
+        <v>0.228075</v>
       </c>
       <c r="C88" t="n">
-        <v>0.243668</v>
+        <v>0.246121</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7615730000000001</v>
+        <v>0.746925</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.221349</v>
+        <v>0.222418</v>
       </c>
       <c r="C89" t="n">
-        <v>0.241873</v>
+        <v>0.250302</v>
       </c>
       <c r="D89" t="n">
-        <v>0.757419</v>
+        <v>0.741747</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.215549</v>
+        <v>0.219305</v>
       </c>
       <c r="C90" t="n">
-        <v>0.238191</v>
+        <v>0.245379</v>
       </c>
       <c r="D90" t="n">
-        <v>0.752479</v>
+        <v>0.7335390000000001</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.213591</v>
+        <v>0.212807</v>
       </c>
       <c r="C91" t="n">
-        <v>0.240509</v>
+        <v>0.247422</v>
       </c>
       <c r="D91" t="n">
-        <v>0.753277</v>
+        <v>0.741498</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.208275</v>
+        <v>0.210857</v>
       </c>
       <c r="C92" t="n">
-        <v>0.235002</v>
+        <v>0.242681</v>
       </c>
       <c r="D92" t="n">
-        <v>0.69237</v>
+        <v>0.687416</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.203436</v>
+        <v>0.200785</v>
       </c>
       <c r="C93" t="n">
-        <v>0.235511</v>
+        <v>0.243225</v>
       </c>
       <c r="D93" t="n">
-        <v>0.701538</v>
+        <v>0.702739</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.194177</v>
+        <v>0.194175</v>
       </c>
       <c r="C94" t="n">
-        <v>0.262416</v>
+        <v>0.266674</v>
       </c>
       <c r="D94" t="n">
-        <v>0.696352</v>
+        <v>0.693013</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.261838</v>
+        <v>0.264814</v>
       </c>
       <c r="C95" t="n">
-        <v>0.257021</v>
+        <v>0.270003</v>
       </c>
       <c r="D95" t="n">
-        <v>0.689785</v>
+        <v>0.6941619999999999</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.255273</v>
+        <v>0.259244</v>
       </c>
       <c r="C96" t="n">
-        <v>0.258941</v>
+        <v>0.263584</v>
       </c>
       <c r="D96" t="n">
-        <v>0.693958</v>
+        <v>0.706616</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.251939</v>
+        <v>0.251119</v>
       </c>
       <c r="C97" t="n">
-        <v>0.253398</v>
+        <v>0.260523</v>
       </c>
       <c r="D97" t="n">
-        <v>0.683905</v>
+        <v>0.704267</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.246305</v>
+        <v>0.252072</v>
       </c>
       <c r="C98" t="n">
-        <v>0.251187</v>
+        <v>0.256398</v>
       </c>
       <c r="D98" t="n">
-        <v>0.683423</v>
+        <v>0.700805</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.239463</v>
+        <v>0.242839</v>
       </c>
       <c r="C99" t="n">
-        <v>0.254771</v>
+        <v>0.253821</v>
       </c>
       <c r="D99" t="n">
-        <v>0.695201</v>
+        <v>0.683464</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.237135</v>
+        <v>0.241184</v>
       </c>
       <c r="C100" t="n">
-        <v>0.248284</v>
+        <v>0.252375</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6905829999999999</v>
+        <v>0.682562</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.23268</v>
+        <v>0.231766</v>
       </c>
       <c r="C101" t="n">
-        <v>0.248346</v>
+        <v>0.254489</v>
       </c>
       <c r="D101" t="n">
-        <v>0.682915</v>
+        <v>0.680535</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.228612</v>
+        <v>0.229596</v>
       </c>
       <c r="C102" t="n">
-        <v>0.246013</v>
+        <v>0.24812</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6838</v>
+        <v>0.6768999999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.224684</v>
+        <v>0.22373</v>
       </c>
       <c r="C103" t="n">
-        <v>0.245093</v>
+        <v>0.246856</v>
       </c>
       <c r="D103" t="n">
-        <v>0.677817</v>
+        <v>0.685114</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.216479</v>
+        <v>0.21854</v>
       </c>
       <c r="C104" t="n">
-        <v>0.242588</v>
+        <v>0.245193</v>
       </c>
       <c r="D104" t="n">
-        <v>0.68562</v>
+        <v>0.680532</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.21468</v>
+        <v>0.216204</v>
       </c>
       <c r="C105" t="n">
-        <v>0.238709</v>
+        <v>0.244492</v>
       </c>
       <c r="D105" t="n">
-        <v>0.694061</v>
+        <v>0.677384</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.208597</v>
+        <v>0.207837</v>
       </c>
       <c r="C106" t="n">
-        <v>0.237336</v>
+        <v>0.244848</v>
       </c>
       <c r="D106" t="n">
-        <v>0.685234</v>
+        <v>0.673534</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.207226</v>
+        <v>0.20452</v>
       </c>
       <c r="C107" t="n">
-        <v>0.238089</v>
+        <v>0.242517</v>
       </c>
       <c r="D107" t="n">
-        <v>0.687649</v>
+        <v>0.691241</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.195984</v>
+        <v>0.197219</v>
       </c>
       <c r="C108" t="n">
-        <v>0.266574</v>
+        <v>0.271464</v>
       </c>
       <c r="D108" t="n">
-        <v>0.697035</v>
+        <v>0.6874</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.188979</v>
+        <v>0.190208</v>
       </c>
       <c r="C109" t="n">
-        <v>0.262657</v>
+        <v>0.267974</v>
       </c>
       <c r="D109" t="n">
-        <v>0.678639</v>
+        <v>0.680114</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.258973</v>
+        <v>0.256294</v>
       </c>
       <c r="C110" t="n">
-        <v>0.257758</v>
+        <v>0.26653</v>
       </c>
       <c r="D110" t="n">
-        <v>0.689551</v>
+        <v>0.688787</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.253515</v>
+        <v>0.252006</v>
       </c>
       <c r="C111" t="n">
-        <v>0.254073</v>
+        <v>0.260556</v>
       </c>
       <c r="D111" t="n">
-        <v>0.697796</v>
+        <v>0.686156</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.246796</v>
+        <v>0.246619</v>
       </c>
       <c r="C112" t="n">
-        <v>0.254007</v>
+        <v>0.259806</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6863629999999999</v>
+        <v>0.6737109999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.247553</v>
+        <v>0.244553</v>
       </c>
       <c r="C113" t="n">
-        <v>0.254905</v>
+        <v>0.256429</v>
       </c>
       <c r="D113" t="n">
-        <v>0.684719</v>
+        <v>0.696679</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.240687</v>
+        <v>0.241756</v>
       </c>
       <c r="C114" t="n">
-        <v>0.250078</v>
+        <v>0.256878</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6839190000000001</v>
+        <v>0.679383</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.236865</v>
+        <v>0.241452</v>
       </c>
       <c r="C115" t="n">
-        <v>0.2538</v>
+        <v>0.25823</v>
       </c>
       <c r="D115" t="n">
-        <v>0.688611</v>
+        <v>0.676229</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.22912</v>
+        <v>0.226666</v>
       </c>
       <c r="C116" t="n">
-        <v>0.248099</v>
+        <v>0.249865</v>
       </c>
       <c r="D116" t="n">
-        <v>0.677339</v>
+        <v>0.689575</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.224911</v>
+        <v>0.223639</v>
       </c>
       <c r="C117" t="n">
-        <v>0.24777</v>
+        <v>0.253713</v>
       </c>
       <c r="D117" t="n">
-        <v>0.678193</v>
+        <v>0.691075</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.2171</v>
+        <v>0.224417</v>
       </c>
       <c r="C118" t="n">
-        <v>0.240747</v>
+        <v>0.250255</v>
       </c>
       <c r="D118" t="n">
-        <v>0.688114</v>
+        <v>0.679249</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.215154</v>
+        <v>0.219383</v>
       </c>
       <c r="C119" t="n">
-        <v>0.239185</v>
+        <v>0.248095</v>
       </c>
       <c r="D119" t="n">
-        <v>0.676299</v>
+        <v>0.674361</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.211593</v>
+        <v>0.214477</v>
       </c>
       <c r="C120" t="n">
-        <v>0.237425</v>
+        <v>0.244084</v>
       </c>
       <c r="D120" t="n">
-        <v>0.689325</v>
+        <v>0.666919</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.206772</v>
+        <v>0.205897</v>
       </c>
       <c r="C121" t="n">
-        <v>0.236178</v>
+        <v>0.246558</v>
       </c>
       <c r="D121" t="n">
-        <v>0.687383</v>
+        <v>0.701518</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.197472</v>
+        <v>0.200266</v>
       </c>
       <c r="C122" t="n">
-        <v>0.236616</v>
+        <v>0.245647</v>
       </c>
       <c r="D122" t="n">
-        <v>0.689044</v>
+        <v>0.705488</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.188432</v>
+        <v>0.191564</v>
       </c>
       <c r="C123" t="n">
-        <v>0.268502</v>
+        <v>0.266041</v>
       </c>
       <c r="D123" t="n">
-        <v>0.701985</v>
+        <v>0.701669</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.261032</v>
+        <v>0.26401</v>
       </c>
       <c r="C124" t="n">
-        <v>0.260867</v>
+        <v>0.267616</v>
       </c>
       <c r="D124" t="n">
-        <v>0.689975</v>
+        <v>0.692103</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.257084</v>
+        <v>0.25474</v>
       </c>
       <c r="C125" t="n">
-        <v>0.264312</v>
+        <v>0.260106</v>
       </c>
       <c r="D125" t="n">
-        <v>0.693343</v>
+        <v>0.686281</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.24776</v>
+        <v>0.247428</v>
       </c>
       <c r="C126" t="n">
-        <v>0.253892</v>
+        <v>0.267444</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6886679999999999</v>
+        <v>0.681239</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.239386</v>
+        <v>0.242492</v>
       </c>
       <c r="C127" t="n">
-        <v>0.255015</v>
+        <v>0.262403</v>
       </c>
       <c r="D127" t="n">
-        <v>0.699003</v>
+        <v>0.691257</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.243193</v>
+        <v>0.242941</v>
       </c>
       <c r="C128" t="n">
-        <v>0.251975</v>
+        <v>0.254979</v>
       </c>
       <c r="D128" t="n">
-        <v>0.694645</v>
+        <v>0.682053</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.239226</v>
+        <v>0.234314</v>
       </c>
       <c r="C129" t="n">
-        <v>0.245679</v>
+        <v>0.259034</v>
       </c>
       <c r="D129" t="n">
-        <v>0.696566</v>
+        <v>0.691825</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.229539</v>
+        <v>0.228281</v>
       </c>
       <c r="C130" t="n">
-        <v>0.243427</v>
+        <v>0.250363</v>
       </c>
       <c r="D130" t="n">
-        <v>0.686631</v>
+        <v>0.676082</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.222407</v>
+        <v>0.22539</v>
       </c>
       <c r="C131" t="n">
-        <v>0.252879</v>
+        <v>0.249133</v>
       </c>
       <c r="D131" t="n">
-        <v>0.686175</v>
+        <v>0.687256</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.220852</v>
+        <v>0.219911</v>
       </c>
       <c r="C132" t="n">
-        <v>0.243021</v>
+        <v>0.248723</v>
       </c>
       <c r="D132" t="n">
-        <v>0.686844</v>
+        <v>0.693592</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.220858</v>
+        <v>0.217454</v>
       </c>
       <c r="C133" t="n">
-        <v>0.240835</v>
+        <v>0.241809</v>
       </c>
       <c r="D133" t="n">
-        <v>0.705574</v>
+        <v>0.69446</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.212886</v>
+        <v>0.212875</v>
       </c>
       <c r="C134" t="n">
-        <v>0.24192</v>
+        <v>0.243946</v>
       </c>
       <c r="D134" t="n">
-        <v>0.695389</v>
+        <v>0.666822</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.214628</v>
+        <v>0.204012</v>
       </c>
       <c r="C135" t="n">
-        <v>0.239912</v>
+        <v>0.244267</v>
       </c>
       <c r="D135" t="n">
-        <v>0.733457</v>
+        <v>0.703782</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.20351</v>
+        <v>0.20105</v>
       </c>
       <c r="C136" t="n">
-        <v>0.243835</v>
+        <v>0.239279</v>
       </c>
       <c r="D136" t="n">
-        <v>0.72266</v>
+        <v>0.698476</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.196005</v>
+        <v>0.191656</v>
       </c>
       <c r="C137" t="n">
-        <v>0.266691</v>
+        <v>0.266846</v>
       </c>
       <c r="D137" t="n">
-        <v>0.744416</v>
+        <v>0.699751</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.26325</v>
+        <v>0.259033</v>
       </c>
       <c r="C138" t="n">
-        <v>0.264169</v>
+        <v>0.271262</v>
       </c>
       <c r="D138" t="n">
-        <v>0.706736</v>
+        <v>0.709376</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.257809</v>
+        <v>0.25452</v>
       </c>
       <c r="C139" t="n">
-        <v>0.264638</v>
+        <v>0.259796</v>
       </c>
       <c r="D139" t="n">
-        <v>0.698394</v>
+        <v>0.691979</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.254382</v>
+        <v>0.249245</v>
       </c>
       <c r="C140" t="n">
-        <v>0.260494</v>
+        <v>0.255961</v>
       </c>
       <c r="D140" t="n">
-        <v>0.711235</v>
+        <v>0.688142</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.251355</v>
+        <v>0.243582</v>
       </c>
       <c r="C141" t="n">
-        <v>0.256231</v>
+        <v>0.257864</v>
       </c>
       <c r="D141" t="n">
-        <v>0.727451</v>
+        <v>0.6861080000000001</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.246511</v>
+        <v>0.242121</v>
       </c>
       <c r="C142" t="n">
-        <v>0.253185</v>
+        <v>0.255939</v>
       </c>
       <c r="D142" t="n">
-        <v>0.71067</v>
+        <v>0.690768</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.238089</v>
+        <v>0.232491</v>
       </c>
       <c r="C143" t="n">
-        <v>0.252554</v>
+        <v>0.258849</v>
       </c>
       <c r="D143" t="n">
-        <v>0.704306</v>
+        <v>0.682879</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.207392</v>
+        <v>0.200561</v>
       </c>
       <c r="C2" t="n">
-        <v>0.231589</v>
+        <v>0.221888</v>
       </c>
       <c r="D2" t="n">
-        <v>0.552169</v>
+        <v>0.521579</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.201413</v>
+        <v>0.199862</v>
       </c>
       <c r="C3" t="n">
-        <v>0.229339</v>
+        <v>0.220672</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5404949999999999</v>
+        <v>0.5226150000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.195885</v>
+        <v>0.191878</v>
       </c>
       <c r="C4" t="n">
-        <v>0.223305</v>
+        <v>0.22162</v>
       </c>
       <c r="D4" t="n">
-        <v>0.525655</v>
+        <v>0.5261710000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.196281</v>
+        <v>0.192908</v>
       </c>
       <c r="C5" t="n">
-        <v>0.225904</v>
+        <v>0.220545</v>
       </c>
       <c r="D5" t="n">
-        <v>0.53324</v>
+        <v>0.518983</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.188415</v>
+        <v>0.1929</v>
       </c>
       <c r="C6" t="n">
-        <v>0.222423</v>
+        <v>0.228104</v>
       </c>
       <c r="D6" t="n">
-        <v>0.523671</v>
+        <v>0.517047</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.184191</v>
+        <v>0.187341</v>
       </c>
       <c r="C7" t="n">
-        <v>0.223805</v>
+        <v>0.225165</v>
       </c>
       <c r="D7" t="n">
-        <v>0.532047</v>
+        <v>0.540397</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.178131</v>
+        <v>0.179895</v>
       </c>
       <c r="C8" t="n">
-        <v>0.221381</v>
+        <v>0.223088</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5330279999999999</v>
+        <v>0.525289</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.169846</v>
+        <v>0.175165</v>
       </c>
       <c r="C9" t="n">
-        <v>0.229963</v>
+        <v>0.229094</v>
       </c>
       <c r="D9" t="n">
-        <v>0.544094</v>
+        <v>0.527019</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.226357</v>
+        <v>0.230377</v>
       </c>
       <c r="C10" t="n">
-        <v>0.22873</v>
+        <v>0.227601</v>
       </c>
       <c r="D10" t="n">
-        <v>0.536029</v>
+        <v>0.530204</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.221575</v>
+        <v>0.225653</v>
       </c>
       <c r="C11" t="n">
-        <v>0.22926</v>
+        <v>0.228711</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5354409999999999</v>
+        <v>0.516518</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.224771</v>
+        <v>0.218977</v>
       </c>
       <c r="C12" t="n">
-        <v>0.22881</v>
+        <v>0.233215</v>
       </c>
       <c r="D12" t="n">
-        <v>0.523628</v>
+        <v>0.524892</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.218781</v>
+        <v>0.218978</v>
       </c>
       <c r="C13" t="n">
-        <v>0.229031</v>
+        <v>0.228966</v>
       </c>
       <c r="D13" t="n">
-        <v>0.534053</v>
+        <v>0.526995</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.214991</v>
+        <v>0.213716</v>
       </c>
       <c r="C14" t="n">
-        <v>0.223877</v>
+        <v>0.229998</v>
       </c>
       <c r="D14" t="n">
-        <v>0.534782</v>
+        <v>0.522434</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.210515</v>
+        <v>0.211579</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2274</v>
+        <v>0.227905</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5364989999999999</v>
+        <v>0.522274</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.204601</v>
+        <v>0.20878</v>
       </c>
       <c r="C16" t="n">
-        <v>0.224116</v>
+        <v>0.224608</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5334100000000001</v>
+        <v>0.5263099999999999</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.205639</v>
+        <v>0.20585</v>
       </c>
       <c r="C17" t="n">
-        <v>0.229513</v>
+        <v>0.231258</v>
       </c>
       <c r="D17" t="n">
-        <v>0.526253</v>
+        <v>0.52557</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.205256</v>
+        <v>0.199857</v>
       </c>
       <c r="C18" t="n">
-        <v>0.226855</v>
+        <v>0.22341</v>
       </c>
       <c r="D18" t="n">
-        <v>0.526029</v>
+        <v>0.531455</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.19792</v>
+        <v>0.207559</v>
       </c>
       <c r="C19" t="n">
-        <v>0.226461</v>
+        <v>0.225969</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5287190000000001</v>
+        <v>0.529516</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.197095</v>
+        <v>0.199669</v>
       </c>
       <c r="C20" t="n">
-        <v>0.227906</v>
+        <v>0.222039</v>
       </c>
       <c r="D20" t="n">
-        <v>0.534402</v>
+        <v>0.518838</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.193997</v>
+        <v>0.193885</v>
       </c>
       <c r="C21" t="n">
-        <v>0.226364</v>
+        <v>0.225445</v>
       </c>
       <c r="D21" t="n">
-        <v>0.541621</v>
+        <v>0.537929</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.187298</v>
+        <v>0.194377</v>
       </c>
       <c r="C22" t="n">
-        <v>0.22266</v>
+        <v>0.22399</v>
       </c>
       <c r="D22" t="n">
-        <v>0.545462</v>
+        <v>0.535419</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.175722</v>
+        <v>0.183604</v>
       </c>
       <c r="C23" t="n">
-        <v>0.238255</v>
+        <v>0.234392</v>
       </c>
       <c r="D23" t="n">
-        <v>0.543177</v>
+        <v>0.537601</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.240478</v>
+        <v>0.238821</v>
       </c>
       <c r="C24" t="n">
-        <v>0.240845</v>
+        <v>0.235951</v>
       </c>
       <c r="D24" t="n">
-        <v>0.552708</v>
+        <v>0.538206</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.235406</v>
+        <v>0.23339</v>
       </c>
       <c r="C25" t="n">
-        <v>0.236967</v>
+        <v>0.23207</v>
       </c>
       <c r="D25" t="n">
-        <v>0.553534</v>
+        <v>0.530569</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.231491</v>
+        <v>0.228043</v>
       </c>
       <c r="C26" t="n">
-        <v>0.233422</v>
+        <v>0.232603</v>
       </c>
       <c r="D26" t="n">
-        <v>0.549894</v>
+        <v>0.547055</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.228812</v>
+        <v>0.226086</v>
       </c>
       <c r="C27" t="n">
-        <v>0.234717</v>
+        <v>0.233672</v>
       </c>
       <c r="D27" t="n">
-        <v>0.557215</v>
+        <v>0.5416609999999999</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.220997</v>
+        <v>0.222773</v>
       </c>
       <c r="C28" t="n">
-        <v>0.233748</v>
+        <v>0.23247</v>
       </c>
       <c r="D28" t="n">
-        <v>0.545718</v>
+        <v>0.53309</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.222007</v>
+        <v>0.218368</v>
       </c>
       <c r="C29" t="n">
-        <v>0.235781</v>
+        <v>0.228592</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5503479999999999</v>
+        <v>0.534726</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.215798</v>
+        <v>0.21515</v>
       </c>
       <c r="C30" t="n">
-        <v>0.233019</v>
+        <v>0.232577</v>
       </c>
       <c r="D30" t="n">
-        <v>0.551875</v>
+        <v>0.533979</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.210377</v>
+        <v>0.211261</v>
       </c>
       <c r="C31" t="n">
-        <v>0.232116</v>
+        <v>0.228229</v>
       </c>
       <c r="D31" t="n">
-        <v>0.539851</v>
+        <v>0.530712</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.211911</v>
+        <v>0.206513</v>
       </c>
       <c r="C32" t="n">
-        <v>0.230366</v>
+        <v>0.224558</v>
       </c>
       <c r="D32" t="n">
-        <v>0.541428</v>
+        <v>0.532213</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.205638</v>
+        <v>0.204212</v>
       </c>
       <c r="C33" t="n">
-        <v>0.229278</v>
+        <v>0.229804</v>
       </c>
       <c r="D33" t="n">
-        <v>0.535189</v>
+        <v>0.533757</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.200963</v>
+        <v>0.200616</v>
       </c>
       <c r="C34" t="n">
-        <v>0.22858</v>
+        <v>0.223434</v>
       </c>
       <c r="D34" t="n">
-        <v>0.532743</v>
+        <v>0.526269</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.197187</v>
+        <v>0.196564</v>
       </c>
       <c r="C35" t="n">
-        <v>0.225883</v>
+        <v>0.221401</v>
       </c>
       <c r="D35" t="n">
-        <v>0.584537</v>
+        <v>0.554459</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.191449</v>
+        <v>0.193218</v>
       </c>
       <c r="C36" t="n">
-        <v>0.222501</v>
+        <v>0.223992</v>
       </c>
       <c r="D36" t="n">
-        <v>0.566048</v>
+        <v>0.556084</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.185197</v>
+        <v>0.186705</v>
       </c>
       <c r="C37" t="n">
-        <v>0.245139</v>
+        <v>0.249524</v>
       </c>
       <c r="D37" t="n">
-        <v>0.572276</v>
+        <v>0.538596</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247201</v>
+        <v>0.243319</v>
       </c>
       <c r="C38" t="n">
-        <v>0.242974</v>
+        <v>0.248141</v>
       </c>
       <c r="D38" t="n">
-        <v>0.568908</v>
+        <v>0.545095</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.238751</v>
+        <v>0.238289</v>
       </c>
       <c r="C39" t="n">
-        <v>0.243985</v>
+        <v>0.247369</v>
       </c>
       <c r="D39" t="n">
-        <v>0.578716</v>
+        <v>0.549928</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.239322</v>
+        <v>0.231968</v>
       </c>
       <c r="C40" t="n">
-        <v>0.240321</v>
+        <v>0.240693</v>
       </c>
       <c r="D40" t="n">
-        <v>0.56707</v>
+        <v>0.557986</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.231889</v>
+        <v>0.230312</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2367</v>
+        <v>0.23922</v>
       </c>
       <c r="D41" t="n">
-        <v>0.588731</v>
+        <v>0.554473</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.22694</v>
+        <v>0.226586</v>
       </c>
       <c r="C42" t="n">
-        <v>0.237447</v>
+        <v>0.241619</v>
       </c>
       <c r="D42" t="n">
-        <v>0.607636</v>
+        <v>0.548369</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.221554</v>
+        <v>0.220246</v>
       </c>
       <c r="C43" t="n">
-        <v>0.23695</v>
+        <v>0.238048</v>
       </c>
       <c r="D43" t="n">
-        <v>0.598478</v>
+        <v>0.545374</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.221939</v>
+        <v>0.215305</v>
       </c>
       <c r="C44" t="n">
-        <v>0.233565</v>
+        <v>0.236215</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5951419999999999</v>
+        <v>0.5481819999999999</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.215019</v>
+        <v>0.214497</v>
       </c>
       <c r="C45" t="n">
-        <v>0.235026</v>
+        <v>0.235036</v>
       </c>
       <c r="D45" t="n">
-        <v>0.597212</v>
+        <v>0.5585290000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.210641</v>
+        <v>0.208518</v>
       </c>
       <c r="C46" t="n">
-        <v>0.230735</v>
+        <v>0.232545</v>
       </c>
       <c r="D46" t="n">
-        <v>0.605855</v>
+        <v>0.552098</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.207856</v>
+        <v>0.20664</v>
       </c>
       <c r="C47" t="n">
-        <v>0.232109</v>
+        <v>0.23105</v>
       </c>
       <c r="D47" t="n">
-        <v>0.606488</v>
+        <v>0.561731</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.206024</v>
+        <v>0.203841</v>
       </c>
       <c r="C48" t="n">
-        <v>0.231899</v>
+        <v>0.232784</v>
       </c>
       <c r="D48" t="n">
-        <v>0.579941</v>
+        <v>0.551181</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.20194</v>
+        <v>0.199628</v>
       </c>
       <c r="C49" t="n">
-        <v>0.230772</v>
+        <v>0.232635</v>
       </c>
       <c r="D49" t="n">
-        <v>0.57382</v>
+        <v>0.564555</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.196092</v>
+        <v>0.194752</v>
       </c>
       <c r="C50" t="n">
-        <v>0.228888</v>
+        <v>0.229223</v>
       </c>
       <c r="D50" t="n">
-        <v>0.712995</v>
+        <v>0.660602</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.190314</v>
+        <v>0.18922</v>
       </c>
       <c r="C51" t="n">
-        <v>0.254348</v>
+        <v>0.248741</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7004280000000001</v>
+        <v>0.662605</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.181428</v>
+        <v>0.181293</v>
       </c>
       <c r="C52" t="n">
-        <v>0.248984</v>
+        <v>0.246994</v>
       </c>
       <c r="D52" t="n">
-        <v>0.685253</v>
+        <v>0.652554</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.2496</v>
+        <v>0.24375</v>
       </c>
       <c r="C53" t="n">
-        <v>0.246686</v>
+        <v>0.2473</v>
       </c>
       <c r="D53" t="n">
-        <v>0.688594</v>
+        <v>0.6614139999999999</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.241329</v>
+        <v>0.242844</v>
       </c>
       <c r="C54" t="n">
-        <v>0.244388</v>
+        <v>0.244469</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6886640000000001</v>
+        <v>0.665929</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.239268</v>
+        <v>0.238449</v>
       </c>
       <c r="C55" t="n">
-        <v>0.245079</v>
+        <v>0.240622</v>
       </c>
       <c r="D55" t="n">
-        <v>0.70327</v>
+        <v>0.6587190000000001</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.23406</v>
+        <v>0.231189</v>
       </c>
       <c r="C56" t="n">
-        <v>0.240772</v>
+        <v>0.240948</v>
       </c>
       <c r="D56" t="n">
-        <v>0.682219</v>
+        <v>0.669986</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228598</v>
+        <v>0.225884</v>
       </c>
       <c r="C57" t="n">
-        <v>0.237639</v>
+        <v>0.238369</v>
       </c>
       <c r="D57" t="n">
-        <v>0.679994</v>
+        <v>0.654372</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.226693</v>
+        <v>0.222452</v>
       </c>
       <c r="C58" t="n">
-        <v>0.23681</v>
+        <v>0.238894</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6829</v>
+        <v>0.666611</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.219518</v>
+        <v>0.217168</v>
       </c>
       <c r="C59" t="n">
-        <v>0.237564</v>
+        <v>0.238062</v>
       </c>
       <c r="D59" t="n">
-        <v>0.689269</v>
+        <v>0.660347</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.21965</v>
+        <v>0.213813</v>
       </c>
       <c r="C60" t="n">
-        <v>0.23492</v>
+        <v>0.236372</v>
       </c>
       <c r="D60" t="n">
-        <v>0.672951</v>
+        <v>0.663537</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.215266</v>
+        <v>0.208734</v>
       </c>
       <c r="C61" t="n">
-        <v>0.233028</v>
+        <v>0.23588</v>
       </c>
       <c r="D61" t="n">
-        <v>0.679211</v>
+        <v>0.654318</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.205989</v>
+        <v>0.207747</v>
       </c>
       <c r="C62" t="n">
-        <v>0.23197</v>
+        <v>0.23503</v>
       </c>
       <c r="D62" t="n">
-        <v>0.676469</v>
+        <v>0.668876</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.205417</v>
+        <v>0.20277</v>
       </c>
       <c r="C63" t="n">
-        <v>0.231371</v>
+        <v>0.230515</v>
       </c>
       <c r="D63" t="n">
-        <v>0.666099</v>
+        <v>0.663668</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.199883</v>
+        <v>0.201647</v>
       </c>
       <c r="C64" t="n">
-        <v>0.228816</v>
+        <v>0.228981</v>
       </c>
       <c r="D64" t="n">
-        <v>0.762781</v>
+        <v>0.75191</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.196524</v>
+        <v>0.19612</v>
       </c>
       <c r="C65" t="n">
-        <v>0.227665</v>
+        <v>0.230819</v>
       </c>
       <c r="D65" t="n">
-        <v>0.764964</v>
+        <v>0.746124</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.18486</v>
+        <v>0.189229</v>
       </c>
       <c r="C66" t="n">
-        <v>0.255521</v>
+        <v>0.255478</v>
       </c>
       <c r="D66" t="n">
-        <v>0.747516</v>
+        <v>0.74286</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.248739</v>
+        <v>0.256053</v>
       </c>
       <c r="C67" t="n">
-        <v>0.253118</v>
+        <v>0.252872</v>
       </c>
       <c r="D67" t="n">
-        <v>0.73872</v>
+        <v>0.744676</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.246636</v>
+        <v>0.251052</v>
       </c>
       <c r="C68" t="n">
-        <v>0.251091</v>
+        <v>0.249181</v>
       </c>
       <c r="D68" t="n">
-        <v>0.731012</v>
+        <v>0.735447</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.244057</v>
+        <v>0.251233</v>
       </c>
       <c r="C69" t="n">
-        <v>0.247142</v>
+        <v>0.244515</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7266089999999999</v>
+        <v>0.7199410000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.236759</v>
+        <v>0.242122</v>
       </c>
       <c r="C70" t="n">
-        <v>0.250554</v>
+        <v>0.243128</v>
       </c>
       <c r="D70" t="n">
-        <v>0.732331</v>
+        <v>0.724403</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.235777</v>
+        <v>0.233717</v>
       </c>
       <c r="C71" t="n">
-        <v>0.245754</v>
+        <v>0.24211</v>
       </c>
       <c r="D71" t="n">
-        <v>0.717316</v>
+        <v>0.721614</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.229475</v>
+        <v>0.236913</v>
       </c>
       <c r="C72" t="n">
-        <v>0.241626</v>
+        <v>0.242901</v>
       </c>
       <c r="D72" t="n">
-        <v>0.715426</v>
+        <v>0.717109</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.223261</v>
+        <v>0.227795</v>
       </c>
       <c r="C73" t="n">
-        <v>0.245042</v>
+        <v>0.240938</v>
       </c>
       <c r="D73" t="n">
-        <v>0.705464</v>
+        <v>0.705132</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.22096</v>
+        <v>0.223806</v>
       </c>
       <c r="C74" t="n">
-        <v>0.239684</v>
+        <v>0.238658</v>
       </c>
       <c r="D74" t="n">
-        <v>0.71965</v>
+        <v>0.714381</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.216972</v>
+        <v>0.218997</v>
       </c>
       <c r="C75" t="n">
-        <v>0.243974</v>
+        <v>0.238721</v>
       </c>
       <c r="D75" t="n">
-        <v>0.701041</v>
+        <v>0.70214</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.211598</v>
+        <v>0.214253</v>
       </c>
       <c r="C76" t="n">
-        <v>0.236618</v>
+        <v>0.234687</v>
       </c>
       <c r="D76" t="n">
-        <v>0.696697</v>
+        <v>0.710748</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.20967</v>
+        <v>0.21253</v>
       </c>
       <c r="C77" t="n">
-        <v>0.235614</v>
+        <v>0.23423</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6970150000000001</v>
+        <v>0.7151999999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.208311</v>
+        <v>0.210413</v>
       </c>
       <c r="C78" t="n">
-        <v>0.235065</v>
+        <v>0.238922</v>
       </c>
       <c r="D78" t="n">
-        <v>0.791098</v>
+        <v>0.7776999999999999</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.197231</v>
+        <v>0.202843</v>
       </c>
       <c r="C79" t="n">
-        <v>0.232524</v>
+        <v>0.234054</v>
       </c>
       <c r="D79" t="n">
-        <v>0.782968</v>
+        <v>0.778484</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.18983</v>
+        <v>0.196434</v>
       </c>
       <c r="C80" t="n">
-        <v>0.26051</v>
+        <v>0.259569</v>
       </c>
       <c r="D80" t="n">
-        <v>0.778189</v>
+        <v>0.7688120000000001</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.258463</v>
+        <v>0.260136</v>
       </c>
       <c r="C81" t="n">
-        <v>0.255741</v>
+        <v>0.255919</v>
       </c>
       <c r="D81" t="n">
-        <v>0.769659</v>
+        <v>0.759444</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.251626</v>
+        <v>0.252331</v>
       </c>
       <c r="C82" t="n">
-        <v>0.253468</v>
+        <v>0.255817</v>
       </c>
       <c r="D82" t="n">
-        <v>0.757431</v>
+        <v>0.7623760000000001</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.247376</v>
+        <v>0.248973</v>
       </c>
       <c r="C83" t="n">
-        <v>0.254187</v>
+        <v>0.256685</v>
       </c>
       <c r="D83" t="n">
-        <v>0.761416</v>
+        <v>0.75768</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.24173</v>
+        <v>0.247284</v>
       </c>
       <c r="C84" t="n">
-        <v>0.251367</v>
+        <v>0.248855</v>
       </c>
       <c r="D84" t="n">
-        <v>0.780419</v>
+        <v>0.780761</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.24227</v>
+        <v>0.241141</v>
       </c>
       <c r="C85" t="n">
-        <v>0.246646</v>
+        <v>0.252763</v>
       </c>
       <c r="D85" t="n">
-        <v>0.787672</v>
+        <v>0.7730629999999999</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.236248</v>
+        <v>0.234537</v>
       </c>
       <c r="C86" t="n">
-        <v>0.246432</v>
+        <v>0.246546</v>
       </c>
       <c r="D86" t="n">
-        <v>0.778535</v>
+        <v>0.778802</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.227929</v>
+        <v>0.23082</v>
       </c>
       <c r="C87" t="n">
-        <v>0.244769</v>
+        <v>0.245762</v>
       </c>
       <c r="D87" t="n">
-        <v>0.77153</v>
+        <v>0.770693</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.227832</v>
+        <v>0.228163</v>
       </c>
       <c r="C88" t="n">
-        <v>0.243668</v>
+        <v>0.243181</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7615730000000001</v>
+        <v>0.762455</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.221349</v>
+        <v>0.223361</v>
       </c>
       <c r="C89" t="n">
-        <v>0.241873</v>
+        <v>0.24325</v>
       </c>
       <c r="D89" t="n">
-        <v>0.757419</v>
+        <v>0.758244</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.215549</v>
+        <v>0.220072</v>
       </c>
       <c r="C90" t="n">
-        <v>0.238191</v>
+        <v>0.241089</v>
       </c>
       <c r="D90" t="n">
-        <v>0.752479</v>
+        <v>0.7437510000000001</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.213591</v>
+        <v>0.217894</v>
       </c>
       <c r="C91" t="n">
-        <v>0.240509</v>
+        <v>0.239038</v>
       </c>
       <c r="D91" t="n">
-        <v>0.753277</v>
+        <v>0.754908</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.208275</v>
+        <v>0.209015</v>
       </c>
       <c r="C92" t="n">
-        <v>0.235002</v>
+        <v>0.238207</v>
       </c>
       <c r="D92" t="n">
-        <v>0.69237</v>
+        <v>0.700519</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.203436</v>
+        <v>0.205143</v>
       </c>
       <c r="C93" t="n">
-        <v>0.235511</v>
+        <v>0.236678</v>
       </c>
       <c r="D93" t="n">
-        <v>0.701538</v>
+        <v>0.702612</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.194177</v>
+        <v>0.197974</v>
       </c>
       <c r="C94" t="n">
-        <v>0.262416</v>
+        <v>0.261792</v>
       </c>
       <c r="D94" t="n">
-        <v>0.696352</v>
+        <v>0.702596</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.261838</v>
+        <v>0.260344</v>
       </c>
       <c r="C95" t="n">
-        <v>0.257021</v>
+        <v>0.260828</v>
       </c>
       <c r="D95" t="n">
-        <v>0.689785</v>
+        <v>0.688667</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.255273</v>
+        <v>0.253943</v>
       </c>
       <c r="C96" t="n">
-        <v>0.258941</v>
+        <v>0.259134</v>
       </c>
       <c r="D96" t="n">
-        <v>0.693958</v>
+        <v>0.699315</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.251939</v>
+        <v>0.251007</v>
       </c>
       <c r="C97" t="n">
-        <v>0.253398</v>
+        <v>0.251965</v>
       </c>
       <c r="D97" t="n">
-        <v>0.683905</v>
+        <v>0.6949109999999999</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.246305</v>
+        <v>0.247315</v>
       </c>
       <c r="C98" t="n">
-        <v>0.251187</v>
+        <v>0.251275</v>
       </c>
       <c r="D98" t="n">
-        <v>0.683423</v>
+        <v>0.692329</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.239463</v>
+        <v>0.24587</v>
       </c>
       <c r="C99" t="n">
-        <v>0.254771</v>
+        <v>0.252806</v>
       </c>
       <c r="D99" t="n">
-        <v>0.695201</v>
+        <v>0.68396</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.237135</v>
+        <v>0.237967</v>
       </c>
       <c r="C100" t="n">
-        <v>0.248284</v>
+        <v>0.246525</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6905829999999999</v>
+        <v>0.691968</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.23268</v>
+        <v>0.235124</v>
       </c>
       <c r="C101" t="n">
-        <v>0.248346</v>
+        <v>0.246497</v>
       </c>
       <c r="D101" t="n">
-        <v>0.682915</v>
+        <v>0.685789</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.228612</v>
+        <v>0.227994</v>
       </c>
       <c r="C102" t="n">
-        <v>0.246013</v>
+        <v>0.244074</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6838</v>
+        <v>0.674277</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.224684</v>
+        <v>0.224246</v>
       </c>
       <c r="C103" t="n">
-        <v>0.245093</v>
+        <v>0.242745</v>
       </c>
       <c r="D103" t="n">
-        <v>0.677817</v>
+        <v>0.682741</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.216479</v>
+        <v>0.217551</v>
       </c>
       <c r="C104" t="n">
-        <v>0.242588</v>
+        <v>0.241201</v>
       </c>
       <c r="D104" t="n">
-        <v>0.68562</v>
+        <v>0.687633</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.21468</v>
+        <v>0.215603</v>
       </c>
       <c r="C105" t="n">
-        <v>0.238709</v>
+        <v>0.239123</v>
       </c>
       <c r="D105" t="n">
-        <v>0.694061</v>
+        <v>0.679932</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.208597</v>
+        <v>0.21591</v>
       </c>
       <c r="C106" t="n">
-        <v>0.237336</v>
+        <v>0.237662</v>
       </c>
       <c r="D106" t="n">
-        <v>0.685234</v>
+        <v>0.686925</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.207226</v>
+        <v>0.204358</v>
       </c>
       <c r="C107" t="n">
-        <v>0.238089</v>
+        <v>0.236764</v>
       </c>
       <c r="D107" t="n">
-        <v>0.687649</v>
+        <v>0.692679</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.195984</v>
+        <v>0.197742</v>
       </c>
       <c r="C108" t="n">
-        <v>0.266574</v>
+        <v>0.262608</v>
       </c>
       <c r="D108" t="n">
-        <v>0.697035</v>
+        <v>0.6993470000000001</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.188979</v>
+        <v>0.194267</v>
       </c>
       <c r="C109" t="n">
-        <v>0.262657</v>
+        <v>0.264073</v>
       </c>
       <c r="D109" t="n">
-        <v>0.678639</v>
+        <v>0.692105</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.258973</v>
+        <v>0.257391</v>
       </c>
       <c r="C110" t="n">
-        <v>0.257758</v>
+        <v>0.256005</v>
       </c>
       <c r="D110" t="n">
-        <v>0.689551</v>
+        <v>0.70238</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.253515</v>
+        <v>0.253462</v>
       </c>
       <c r="C111" t="n">
-        <v>0.254073</v>
+        <v>0.254255</v>
       </c>
       <c r="D111" t="n">
-        <v>0.697796</v>
+        <v>0.683044</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.246796</v>
+        <v>0.248781</v>
       </c>
       <c r="C112" t="n">
-        <v>0.254007</v>
+        <v>0.254194</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6863629999999999</v>
+        <v>0.688514</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.247553</v>
+        <v>0.24689</v>
       </c>
       <c r="C113" t="n">
-        <v>0.254905</v>
+        <v>0.249244</v>
       </c>
       <c r="D113" t="n">
-        <v>0.684719</v>
+        <v>0.673289</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.240687</v>
+        <v>0.237786</v>
       </c>
       <c r="C114" t="n">
-        <v>0.250078</v>
+        <v>0.249253</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6839190000000001</v>
+        <v>0.6922509999999999</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.236865</v>
+        <v>0.233633</v>
       </c>
       <c r="C115" t="n">
-        <v>0.2538</v>
+        <v>0.246328</v>
       </c>
       <c r="D115" t="n">
-        <v>0.688611</v>
+        <v>0.672304</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.22912</v>
+        <v>0.226828</v>
       </c>
       <c r="C116" t="n">
-        <v>0.248099</v>
+        <v>0.241257</v>
       </c>
       <c r="D116" t="n">
-        <v>0.677339</v>
+        <v>0.688199</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.224911</v>
+        <v>0.22396</v>
       </c>
       <c r="C117" t="n">
-        <v>0.24777</v>
+        <v>0.243793</v>
       </c>
       <c r="D117" t="n">
-        <v>0.678193</v>
+        <v>0.679957</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.2171</v>
+        <v>0.223181</v>
       </c>
       <c r="C118" t="n">
-        <v>0.240747</v>
+        <v>0.240736</v>
       </c>
       <c r="D118" t="n">
-        <v>0.688114</v>
+        <v>0.673882</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.215154</v>
+        <v>0.216668</v>
       </c>
       <c r="C119" t="n">
-        <v>0.239185</v>
+        <v>0.2409</v>
       </c>
       <c r="D119" t="n">
-        <v>0.676299</v>
+        <v>0.683707</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.211593</v>
+        <v>0.212069</v>
       </c>
       <c r="C120" t="n">
-        <v>0.237425</v>
+        <v>0.239049</v>
       </c>
       <c r="D120" t="n">
-        <v>0.689325</v>
+        <v>0.678627</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.206772</v>
+        <v>0.205583</v>
       </c>
       <c r="C121" t="n">
-        <v>0.236178</v>
+        <v>0.23827</v>
       </c>
       <c r="D121" t="n">
-        <v>0.687383</v>
+        <v>0.69856</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.197472</v>
+        <v>0.201072</v>
       </c>
       <c r="C122" t="n">
-        <v>0.236616</v>
+        <v>0.238555</v>
       </c>
       <c r="D122" t="n">
-        <v>0.689044</v>
+        <v>0.691462</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.188432</v>
+        <v>0.194127</v>
       </c>
       <c r="C123" t="n">
-        <v>0.268502</v>
+        <v>0.261495</v>
       </c>
       <c r="D123" t="n">
-        <v>0.701985</v>
+        <v>0.695022</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.261032</v>
+        <v>0.259131</v>
       </c>
       <c r="C124" t="n">
-        <v>0.260867</v>
+        <v>0.257056</v>
       </c>
       <c r="D124" t="n">
-        <v>0.689975</v>
+        <v>0.698407</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.257084</v>
+        <v>0.254785</v>
       </c>
       <c r="C125" t="n">
-        <v>0.264312</v>
+        <v>0.257397</v>
       </c>
       <c r="D125" t="n">
-        <v>0.693343</v>
+        <v>0.688804</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.24776</v>
+        <v>0.248722</v>
       </c>
       <c r="C126" t="n">
-        <v>0.253892</v>
+        <v>0.257153</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6886679999999999</v>
+        <v>0.699914</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.239386</v>
+        <v>0.243997</v>
       </c>
       <c r="C127" t="n">
-        <v>0.255015</v>
+        <v>0.252571</v>
       </c>
       <c r="D127" t="n">
-        <v>0.699003</v>
+        <v>0.692605</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.243193</v>
+        <v>0.236886</v>
       </c>
       <c r="C128" t="n">
-        <v>0.251975</v>
+        <v>0.248799</v>
       </c>
       <c r="D128" t="n">
-        <v>0.694645</v>
+        <v>0.690449</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.239226</v>
+        <v>0.238224</v>
       </c>
       <c r="C129" t="n">
-        <v>0.245679</v>
+        <v>0.247015</v>
       </c>
       <c r="D129" t="n">
-        <v>0.696566</v>
+        <v>0.6990420000000001</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.229539</v>
+        <v>0.230152</v>
       </c>
       <c r="C130" t="n">
-        <v>0.243427</v>
+        <v>0.247497</v>
       </c>
       <c r="D130" t="n">
-        <v>0.686631</v>
+        <v>0.697391</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.222407</v>
+        <v>0.229791</v>
       </c>
       <c r="C131" t="n">
-        <v>0.252879</v>
+        <v>0.241237</v>
       </c>
       <c r="D131" t="n">
-        <v>0.686175</v>
+        <v>0.682891</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.220852</v>
+        <v>0.219133</v>
       </c>
       <c r="C132" t="n">
-        <v>0.243021</v>
+        <v>0.243087</v>
       </c>
       <c r="D132" t="n">
-        <v>0.686844</v>
+        <v>0.704976</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.220858</v>
+        <v>0.214807</v>
       </c>
       <c r="C133" t="n">
-        <v>0.240835</v>
+        <v>0.236582</v>
       </c>
       <c r="D133" t="n">
-        <v>0.705574</v>
+        <v>0.696811</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.212886</v>
+        <v>0.226037</v>
       </c>
       <c r="C134" t="n">
-        <v>0.24192</v>
+        <v>0.238117</v>
       </c>
       <c r="D134" t="n">
-        <v>0.695389</v>
+        <v>0.6794480000000001</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.214628</v>
+        <v>0.218168</v>
       </c>
       <c r="C135" t="n">
-        <v>0.239912</v>
+        <v>0.235349</v>
       </c>
       <c r="D135" t="n">
-        <v>0.733457</v>
+        <v>0.69417</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.20351</v>
+        <v>0.201199</v>
       </c>
       <c r="C136" t="n">
-        <v>0.243835</v>
+        <v>0.237951</v>
       </c>
       <c r="D136" t="n">
-        <v>0.72266</v>
+        <v>0.703184</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.196005</v>
+        <v>0.196543</v>
       </c>
       <c r="C137" t="n">
-        <v>0.266691</v>
+        <v>0.259938</v>
       </c>
       <c r="D137" t="n">
-        <v>0.744416</v>
+        <v>0.692091</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.26325</v>
+        <v>0.259242</v>
       </c>
       <c r="C138" t="n">
-        <v>0.264169</v>
+        <v>0.259648</v>
       </c>
       <c r="D138" t="n">
-        <v>0.706736</v>
+        <v>0.6978799999999999</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.257809</v>
+        <v>0.255976</v>
       </c>
       <c r="C139" t="n">
-        <v>0.264638</v>
+        <v>0.256641</v>
       </c>
       <c r="D139" t="n">
-        <v>0.698394</v>
+        <v>0.7009339999999999</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.254382</v>
+        <v>0.249648</v>
       </c>
       <c r="C140" t="n">
-        <v>0.260494</v>
+        <v>0.255223</v>
       </c>
       <c r="D140" t="n">
-        <v>0.711235</v>
+        <v>0.689604</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.251355</v>
+        <v>0.243561</v>
       </c>
       <c r="C141" t="n">
-        <v>0.256231</v>
+        <v>0.259164</v>
       </c>
       <c r="D141" t="n">
-        <v>0.727451</v>
+        <v>0.709487</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.246511</v>
+        <v>0.24274</v>
       </c>
       <c r="C142" t="n">
-        <v>0.253185</v>
+        <v>0.25061</v>
       </c>
       <c r="D142" t="n">
-        <v>0.71067</v>
+        <v>0.710347</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.238089</v>
+        <v>0.235086</v>
       </c>
       <c r="C143" t="n">
-        <v>0.252554</v>
+        <v>0.246244</v>
       </c>
       <c r="D143" t="n">
-        <v>0.704306</v>
+        <v>0.703532</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.200561</v>
+        <v>0.197554</v>
       </c>
       <c r="C2" t="n">
-        <v>0.221888</v>
+        <v>0.216172</v>
       </c>
       <c r="D2" t="n">
-        <v>0.521579</v>
+        <v>0.517801</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.199862</v>
+        <v>0.197061</v>
       </c>
       <c r="C3" t="n">
-        <v>0.220672</v>
+        <v>0.219086</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5226150000000001</v>
+        <v>0.524384</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.191878</v>
+        <v>0.200968</v>
       </c>
       <c r="C4" t="n">
-        <v>0.22162</v>
+        <v>0.219874</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5261710000000001</v>
+        <v>0.524847</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.192908</v>
+        <v>0.19367</v>
       </c>
       <c r="C5" t="n">
-        <v>0.220545</v>
+        <v>0.221545</v>
       </c>
       <c r="D5" t="n">
-        <v>0.518983</v>
+        <v>0.526767</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1929</v>
+        <v>0.189922</v>
       </c>
       <c r="C6" t="n">
-        <v>0.228104</v>
+        <v>0.220198</v>
       </c>
       <c r="D6" t="n">
-        <v>0.517047</v>
+        <v>0.52025</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.187341</v>
+        <v>0.188199</v>
       </c>
       <c r="C7" t="n">
-        <v>0.225165</v>
+        <v>0.220421</v>
       </c>
       <c r="D7" t="n">
-        <v>0.540397</v>
+        <v>0.5326959999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.179895</v>
+        <v>0.18464</v>
       </c>
       <c r="C8" t="n">
-        <v>0.223088</v>
+        <v>0.219873</v>
       </c>
       <c r="D8" t="n">
-        <v>0.525289</v>
+        <v>0.528035</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.175165</v>
+        <v>0.175689</v>
       </c>
       <c r="C9" t="n">
-        <v>0.229094</v>
+        <v>0.232832</v>
       </c>
       <c r="D9" t="n">
-        <v>0.527019</v>
+        <v>0.530354</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.230377</v>
+        <v>0.22996</v>
       </c>
       <c r="C10" t="n">
-        <v>0.227601</v>
+        <v>0.240216</v>
       </c>
       <c r="D10" t="n">
-        <v>0.530204</v>
+        <v>0.528272</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.225653</v>
+        <v>0.229017</v>
       </c>
       <c r="C11" t="n">
-        <v>0.228711</v>
+        <v>0.228013</v>
       </c>
       <c r="D11" t="n">
-        <v>0.516518</v>
+        <v>0.522927</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.218977</v>
+        <v>0.222852</v>
       </c>
       <c r="C12" t="n">
-        <v>0.233215</v>
+        <v>0.230154</v>
       </c>
       <c r="D12" t="n">
-        <v>0.524892</v>
+        <v>0.532183</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.218978</v>
+        <v>0.217211</v>
       </c>
       <c r="C13" t="n">
-        <v>0.228966</v>
+        <v>0.230789</v>
       </c>
       <c r="D13" t="n">
-        <v>0.526995</v>
+        <v>0.530765</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.213716</v>
+        <v>0.216815</v>
       </c>
       <c r="C14" t="n">
-        <v>0.229998</v>
+        <v>0.230008</v>
       </c>
       <c r="D14" t="n">
-        <v>0.522434</v>
+        <v>0.518616</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.211579</v>
+        <v>0.208337</v>
       </c>
       <c r="C15" t="n">
-        <v>0.227905</v>
+        <v>0.227118</v>
       </c>
       <c r="D15" t="n">
-        <v>0.522274</v>
+        <v>0.531678</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.20878</v>
+        <v>0.20904</v>
       </c>
       <c r="C16" t="n">
-        <v>0.224608</v>
+        <v>0.223509</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5263099999999999</v>
+        <v>0.531629</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.20585</v>
+        <v>0.200763</v>
       </c>
       <c r="C17" t="n">
-        <v>0.231258</v>
+        <v>0.224662</v>
       </c>
       <c r="D17" t="n">
-        <v>0.52557</v>
+        <v>0.512303</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199857</v>
+        <v>0.205156</v>
       </c>
       <c r="C18" t="n">
-        <v>0.22341</v>
+        <v>0.228392</v>
       </c>
       <c r="D18" t="n">
-        <v>0.531455</v>
+        <v>0.526743</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.207559</v>
+        <v>0.2005</v>
       </c>
       <c r="C19" t="n">
-        <v>0.225969</v>
+        <v>0.221187</v>
       </c>
       <c r="D19" t="n">
-        <v>0.529516</v>
+        <v>0.517827</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.199669</v>
+        <v>0.201818</v>
       </c>
       <c r="C20" t="n">
-        <v>0.222039</v>
+        <v>0.223586</v>
       </c>
       <c r="D20" t="n">
-        <v>0.518838</v>
+        <v>0.52632</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.193885</v>
+        <v>0.195776</v>
       </c>
       <c r="C21" t="n">
-        <v>0.225445</v>
+        <v>0.226155</v>
       </c>
       <c r="D21" t="n">
-        <v>0.537929</v>
+        <v>0.539813</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.194377</v>
+        <v>0.18628</v>
       </c>
       <c r="C22" t="n">
-        <v>0.22399</v>
+        <v>0.222334</v>
       </c>
       <c r="D22" t="n">
-        <v>0.535419</v>
+        <v>0.541652</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.183604</v>
+        <v>0.182376</v>
       </c>
       <c r="C23" t="n">
-        <v>0.234392</v>
+        <v>0.236762</v>
       </c>
       <c r="D23" t="n">
-        <v>0.537601</v>
+        <v>0.534284</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.238821</v>
+        <v>0.234928</v>
       </c>
       <c r="C24" t="n">
-        <v>0.235951</v>
+        <v>0.235693</v>
       </c>
       <c r="D24" t="n">
-        <v>0.538206</v>
+        <v>0.535165</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.23339</v>
+        <v>0.230894</v>
       </c>
       <c r="C25" t="n">
-        <v>0.23207</v>
+        <v>0.229367</v>
       </c>
       <c r="D25" t="n">
-        <v>0.530569</v>
+        <v>0.531026</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.228043</v>
+        <v>0.22612</v>
       </c>
       <c r="C26" t="n">
-        <v>0.232603</v>
+        <v>0.231656</v>
       </c>
       <c r="D26" t="n">
-        <v>0.547055</v>
+        <v>0.5282210000000001</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.226086</v>
+        <v>0.226996</v>
       </c>
       <c r="C27" t="n">
-        <v>0.233672</v>
+        <v>0.231984</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5416609999999999</v>
+        <v>0.523498</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.222773</v>
+        <v>0.220891</v>
       </c>
       <c r="C28" t="n">
-        <v>0.23247</v>
+        <v>0.233772</v>
       </c>
       <c r="D28" t="n">
-        <v>0.53309</v>
+        <v>0.529634</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.218368</v>
+        <v>0.217392</v>
       </c>
       <c r="C29" t="n">
-        <v>0.228592</v>
+        <v>0.231998</v>
       </c>
       <c r="D29" t="n">
-        <v>0.534726</v>
+        <v>0.5332249999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.21515</v>
+        <v>0.213619</v>
       </c>
       <c r="C30" t="n">
-        <v>0.232577</v>
+        <v>0.232324</v>
       </c>
       <c r="D30" t="n">
-        <v>0.533979</v>
+        <v>0.529052</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.211261</v>
+        <v>0.210228</v>
       </c>
       <c r="C31" t="n">
-        <v>0.228229</v>
+        <v>0.230185</v>
       </c>
       <c r="D31" t="n">
-        <v>0.530712</v>
+        <v>0.527107</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.206513</v>
+        <v>0.206832</v>
       </c>
       <c r="C32" t="n">
-        <v>0.224558</v>
+        <v>0.22805</v>
       </c>
       <c r="D32" t="n">
-        <v>0.532213</v>
+        <v>0.52855</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.204212</v>
+        <v>0.204839</v>
       </c>
       <c r="C33" t="n">
-        <v>0.229804</v>
+        <v>0.229976</v>
       </c>
       <c r="D33" t="n">
-        <v>0.533757</v>
+        <v>0.534747</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.200616</v>
+        <v>0.200551</v>
       </c>
       <c r="C34" t="n">
-        <v>0.223434</v>
+        <v>0.22752</v>
       </c>
       <c r="D34" t="n">
-        <v>0.526269</v>
+        <v>0.525821</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.196564</v>
+        <v>0.196713</v>
       </c>
       <c r="C35" t="n">
-        <v>0.221401</v>
+        <v>0.222807</v>
       </c>
       <c r="D35" t="n">
-        <v>0.554459</v>
+        <v>0.551088</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.193218</v>
+        <v>0.192761</v>
       </c>
       <c r="C36" t="n">
-        <v>0.223992</v>
+        <v>0.223823</v>
       </c>
       <c r="D36" t="n">
-        <v>0.556084</v>
+        <v>0.548187</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.186705</v>
+        <v>0.186777</v>
       </c>
       <c r="C37" t="n">
-        <v>0.249524</v>
+        <v>0.251327</v>
       </c>
       <c r="D37" t="n">
-        <v>0.538596</v>
+        <v>0.5421</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.243319</v>
+        <v>0.23892</v>
       </c>
       <c r="C38" t="n">
-        <v>0.248141</v>
+        <v>0.252756</v>
       </c>
       <c r="D38" t="n">
-        <v>0.545095</v>
+        <v>0.555473</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.238289</v>
+        <v>0.237335</v>
       </c>
       <c r="C39" t="n">
-        <v>0.247369</v>
+        <v>0.248687</v>
       </c>
       <c r="D39" t="n">
-        <v>0.549928</v>
+        <v>0.551282</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.231968</v>
+        <v>0.232512</v>
       </c>
       <c r="C40" t="n">
-        <v>0.240693</v>
+        <v>0.244574</v>
       </c>
       <c r="D40" t="n">
-        <v>0.557986</v>
+        <v>0.5545600000000001</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.230312</v>
+        <v>0.228345</v>
       </c>
       <c r="C41" t="n">
-        <v>0.23922</v>
+        <v>0.243517</v>
       </c>
       <c r="D41" t="n">
-        <v>0.554473</v>
+        <v>0.561711</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.226586</v>
+        <v>0.226148</v>
       </c>
       <c r="C42" t="n">
-        <v>0.241619</v>
+        <v>0.241947</v>
       </c>
       <c r="D42" t="n">
-        <v>0.548369</v>
+        <v>0.564507</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.220246</v>
+        <v>0.220111</v>
       </c>
       <c r="C43" t="n">
-        <v>0.238048</v>
+        <v>0.238124</v>
       </c>
       <c r="D43" t="n">
-        <v>0.545374</v>
+        <v>0.539195</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.215305</v>
+        <v>0.217902</v>
       </c>
       <c r="C44" t="n">
-        <v>0.236215</v>
+        <v>0.237917</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5481819999999999</v>
+        <v>0.549307</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.214497</v>
+        <v>0.212981</v>
       </c>
       <c r="C45" t="n">
-        <v>0.235036</v>
+        <v>0.236442</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5585290000000001</v>
+        <v>0.56187</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.208518</v>
+        <v>0.20775</v>
       </c>
       <c r="C46" t="n">
-        <v>0.232545</v>
+        <v>0.234113</v>
       </c>
       <c r="D46" t="n">
-        <v>0.552098</v>
+        <v>0.551804</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.20664</v>
+        <v>0.205575</v>
       </c>
       <c r="C47" t="n">
-        <v>0.23105</v>
+        <v>0.232459</v>
       </c>
       <c r="D47" t="n">
-        <v>0.561731</v>
+        <v>0.559598</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.203841</v>
+        <v>0.201925</v>
       </c>
       <c r="C48" t="n">
-        <v>0.232784</v>
+        <v>0.231816</v>
       </c>
       <c r="D48" t="n">
-        <v>0.551181</v>
+        <v>0.553877</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.199628</v>
+        <v>0.200173</v>
       </c>
       <c r="C49" t="n">
-        <v>0.232635</v>
+        <v>0.23139</v>
       </c>
       <c r="D49" t="n">
-        <v>0.564555</v>
+        <v>0.560301</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.194752</v>
+        <v>0.196135</v>
       </c>
       <c r="C50" t="n">
-        <v>0.229223</v>
+        <v>0.230851</v>
       </c>
       <c r="D50" t="n">
-        <v>0.660602</v>
+        <v>0.663614</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.18922</v>
+        <v>0.189992</v>
       </c>
       <c r="C51" t="n">
-        <v>0.248741</v>
+        <v>0.251813</v>
       </c>
       <c r="D51" t="n">
-        <v>0.662605</v>
+        <v>0.66056</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.181293</v>
+        <v>0.184441</v>
       </c>
       <c r="C52" t="n">
-        <v>0.246994</v>
+        <v>0.249656</v>
       </c>
       <c r="D52" t="n">
-        <v>0.652554</v>
+        <v>0.659234</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.24375</v>
+        <v>0.245814</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2473</v>
+        <v>0.24668</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6614139999999999</v>
+        <v>0.6552519999999999</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242844</v>
+        <v>0.241843</v>
       </c>
       <c r="C54" t="n">
-        <v>0.244469</v>
+        <v>0.242415</v>
       </c>
       <c r="D54" t="n">
-        <v>0.665929</v>
+        <v>0.665367</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.238449</v>
+        <v>0.238386</v>
       </c>
       <c r="C55" t="n">
-        <v>0.240622</v>
+        <v>0.241528</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6587190000000001</v>
+        <v>0.6620509999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.231189</v>
+        <v>0.231956</v>
       </c>
       <c r="C56" t="n">
-        <v>0.240948</v>
+        <v>0.237707</v>
       </c>
       <c r="D56" t="n">
-        <v>0.669986</v>
+        <v>0.661693</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.225884</v>
+        <v>0.227037</v>
       </c>
       <c r="C57" t="n">
-        <v>0.238369</v>
+        <v>0.242958</v>
       </c>
       <c r="D57" t="n">
-        <v>0.654372</v>
+        <v>0.661371</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.222452</v>
+        <v>0.22562</v>
       </c>
       <c r="C58" t="n">
-        <v>0.238894</v>
+        <v>0.238509</v>
       </c>
       <c r="D58" t="n">
-        <v>0.666611</v>
+        <v>0.656663</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217168</v>
+        <v>0.218488</v>
       </c>
       <c r="C59" t="n">
-        <v>0.238062</v>
+        <v>0.236749</v>
       </c>
       <c r="D59" t="n">
-        <v>0.660347</v>
+        <v>0.649631</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.213813</v>
+        <v>0.216064</v>
       </c>
       <c r="C60" t="n">
-        <v>0.236372</v>
+        <v>0.239145</v>
       </c>
       <c r="D60" t="n">
-        <v>0.663537</v>
+        <v>0.661071</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.208734</v>
+        <v>0.211966</v>
       </c>
       <c r="C61" t="n">
-        <v>0.23588</v>
+        <v>0.231764</v>
       </c>
       <c r="D61" t="n">
-        <v>0.654318</v>
+        <v>0.66823</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.207747</v>
+        <v>0.210377</v>
       </c>
       <c r="C62" t="n">
-        <v>0.23503</v>
+        <v>0.233512</v>
       </c>
       <c r="D62" t="n">
-        <v>0.668876</v>
+        <v>0.642653</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.20277</v>
+        <v>0.205281</v>
       </c>
       <c r="C63" t="n">
-        <v>0.230515</v>
+        <v>0.234194</v>
       </c>
       <c r="D63" t="n">
-        <v>0.663668</v>
+        <v>0.652671</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.201647</v>
+        <v>0.199961</v>
       </c>
       <c r="C64" t="n">
-        <v>0.228981</v>
+        <v>0.231104</v>
       </c>
       <c r="D64" t="n">
-        <v>0.75191</v>
+        <v>0.756528</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.19612</v>
+        <v>0.197266</v>
       </c>
       <c r="C65" t="n">
-        <v>0.230819</v>
+        <v>0.228129</v>
       </c>
       <c r="D65" t="n">
-        <v>0.746124</v>
+        <v>0.75261</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.189229</v>
+        <v>0.187267</v>
       </c>
       <c r="C66" t="n">
-        <v>0.255478</v>
+        <v>0.255234</v>
       </c>
       <c r="D66" t="n">
-        <v>0.74286</v>
+        <v>0.741851</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.256053</v>
+        <v>0.253391</v>
       </c>
       <c r="C67" t="n">
-        <v>0.252872</v>
+        <v>0.247924</v>
       </c>
       <c r="D67" t="n">
-        <v>0.744676</v>
+        <v>0.73999</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.251052</v>
+        <v>0.247207</v>
       </c>
       <c r="C68" t="n">
-        <v>0.249181</v>
+        <v>0.246341</v>
       </c>
       <c r="D68" t="n">
-        <v>0.735447</v>
+        <v>0.733344</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.251233</v>
+        <v>0.248405</v>
       </c>
       <c r="C69" t="n">
-        <v>0.244515</v>
+        <v>0.250432</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7199410000000001</v>
+        <v>0.724992</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.242122</v>
+        <v>0.237824</v>
       </c>
       <c r="C70" t="n">
-        <v>0.243128</v>
+        <v>0.246126</v>
       </c>
       <c r="D70" t="n">
-        <v>0.724403</v>
+        <v>0.723316</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.233717</v>
+        <v>0.234201</v>
       </c>
       <c r="C71" t="n">
-        <v>0.24211</v>
+        <v>0.244492</v>
       </c>
       <c r="D71" t="n">
-        <v>0.721614</v>
+        <v>0.723608</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.236913</v>
+        <v>0.235668</v>
       </c>
       <c r="C72" t="n">
-        <v>0.242901</v>
+        <v>0.244758</v>
       </c>
       <c r="D72" t="n">
-        <v>0.717109</v>
+        <v>0.72201</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.227795</v>
+        <v>0.229215</v>
       </c>
       <c r="C73" t="n">
-        <v>0.240938</v>
+        <v>0.240357</v>
       </c>
       <c r="D73" t="n">
-        <v>0.705132</v>
+        <v>0.711131</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.223806</v>
+        <v>0.22382</v>
       </c>
       <c r="C74" t="n">
-        <v>0.238658</v>
+        <v>0.23876</v>
       </c>
       <c r="D74" t="n">
-        <v>0.714381</v>
+        <v>0.70978</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.218997</v>
+        <v>0.221883</v>
       </c>
       <c r="C75" t="n">
-        <v>0.238721</v>
+        <v>0.23874</v>
       </c>
       <c r="D75" t="n">
-        <v>0.70214</v>
+        <v>0.7020650000000001</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.214253</v>
+        <v>0.215423</v>
       </c>
       <c r="C76" t="n">
-        <v>0.234687</v>
+        <v>0.236954</v>
       </c>
       <c r="D76" t="n">
-        <v>0.710748</v>
+        <v>0.694048</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.21253</v>
+        <v>0.213862</v>
       </c>
       <c r="C77" t="n">
-        <v>0.23423</v>
+        <v>0.235768</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7151999999999999</v>
+        <v>0.697803</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.210413</v>
+        <v>0.210054</v>
       </c>
       <c r="C78" t="n">
-        <v>0.238922</v>
+        <v>0.233619</v>
       </c>
       <c r="D78" t="n">
-        <v>0.7776999999999999</v>
+        <v>0.798451</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.202843</v>
+        <v>0.203377</v>
       </c>
       <c r="C79" t="n">
-        <v>0.234054</v>
+        <v>0.232467</v>
       </c>
       <c r="D79" t="n">
-        <v>0.778484</v>
+        <v>0.801636</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.196434</v>
+        <v>0.193205</v>
       </c>
       <c r="C80" t="n">
-        <v>0.259569</v>
+        <v>0.257345</v>
       </c>
       <c r="D80" t="n">
-        <v>0.7688120000000001</v>
+        <v>0.783133</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.260136</v>
+        <v>0.259168</v>
       </c>
       <c r="C81" t="n">
-        <v>0.255919</v>
+        <v>0.25496</v>
       </c>
       <c r="D81" t="n">
-        <v>0.759444</v>
+        <v>0.774366</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.252331</v>
+        <v>0.255201</v>
       </c>
       <c r="C82" t="n">
-        <v>0.255817</v>
+        <v>0.251525</v>
       </c>
       <c r="D82" t="n">
-        <v>0.7623760000000001</v>
+        <v>0.77128</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.248973</v>
+        <v>0.249211</v>
       </c>
       <c r="C83" t="n">
-        <v>0.256685</v>
+        <v>0.250313</v>
       </c>
       <c r="D83" t="n">
-        <v>0.75768</v>
+        <v>0.762926</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.247284</v>
+        <v>0.247163</v>
       </c>
       <c r="C84" t="n">
-        <v>0.248855</v>
+        <v>0.251598</v>
       </c>
       <c r="D84" t="n">
-        <v>0.780761</v>
+        <v>0.78242</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.241141</v>
+        <v>0.239841</v>
       </c>
       <c r="C85" t="n">
-        <v>0.252763</v>
+        <v>0.248145</v>
       </c>
       <c r="D85" t="n">
-        <v>0.7730629999999999</v>
+        <v>0.785953</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.234537</v>
+        <v>0.234475</v>
       </c>
       <c r="C86" t="n">
-        <v>0.246546</v>
+        <v>0.246925</v>
       </c>
       <c r="D86" t="n">
-        <v>0.778802</v>
+        <v>0.7882209999999999</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.23082</v>
+        <v>0.228864</v>
       </c>
       <c r="C87" t="n">
-        <v>0.245762</v>
+        <v>0.243587</v>
       </c>
       <c r="D87" t="n">
-        <v>0.770693</v>
+        <v>0.776022</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.228163</v>
+        <v>0.222719</v>
       </c>
       <c r="C88" t="n">
-        <v>0.243181</v>
+        <v>0.241102</v>
       </c>
       <c r="D88" t="n">
-        <v>0.762455</v>
+        <v>0.762845</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.223361</v>
+        <v>0.220596</v>
       </c>
       <c r="C89" t="n">
-        <v>0.24325</v>
+        <v>0.239308</v>
       </c>
       <c r="D89" t="n">
-        <v>0.758244</v>
+        <v>0.762893</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.220072</v>
+        <v>0.21603</v>
       </c>
       <c r="C90" t="n">
-        <v>0.241089</v>
+        <v>0.238803</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7437510000000001</v>
+        <v>0.7505309999999999</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.217894</v>
+        <v>0.215515</v>
       </c>
       <c r="C91" t="n">
-        <v>0.239038</v>
+        <v>0.243433</v>
       </c>
       <c r="D91" t="n">
-        <v>0.754908</v>
+        <v>0.756757</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.209015</v>
+        <v>0.207353</v>
       </c>
       <c r="C92" t="n">
-        <v>0.238207</v>
+        <v>0.235733</v>
       </c>
       <c r="D92" t="n">
-        <v>0.700519</v>
+        <v>0.696295</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.205143</v>
+        <v>0.205164</v>
       </c>
       <c r="C93" t="n">
-        <v>0.236678</v>
+        <v>0.236005</v>
       </c>
       <c r="D93" t="n">
-        <v>0.702612</v>
+        <v>0.69762</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.197974</v>
+        <v>0.1961</v>
       </c>
       <c r="C94" t="n">
-        <v>0.261792</v>
+        <v>0.263238</v>
       </c>
       <c r="D94" t="n">
-        <v>0.702596</v>
+        <v>0.700657</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.260344</v>
+        <v>0.262338</v>
       </c>
       <c r="C95" t="n">
-        <v>0.260828</v>
+        <v>0.259934</v>
       </c>
       <c r="D95" t="n">
-        <v>0.688667</v>
+        <v>0.696067</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.253943</v>
+        <v>0.258352</v>
       </c>
       <c r="C96" t="n">
-        <v>0.259134</v>
+        <v>0.256473</v>
       </c>
       <c r="D96" t="n">
-        <v>0.699315</v>
+        <v>0.699282</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.251007</v>
+        <v>0.252697</v>
       </c>
       <c r="C97" t="n">
-        <v>0.251965</v>
+        <v>0.25619</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6949109999999999</v>
+        <v>0.70367</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.247315</v>
+        <v>0.246322</v>
       </c>
       <c r="C98" t="n">
-        <v>0.251275</v>
+        <v>0.252326</v>
       </c>
       <c r="D98" t="n">
-        <v>0.692329</v>
+        <v>0.686424</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.24587</v>
+        <v>0.244649</v>
       </c>
       <c r="C99" t="n">
-        <v>0.252806</v>
+        <v>0.251956</v>
       </c>
       <c r="D99" t="n">
-        <v>0.68396</v>
+        <v>0.684258</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.237967</v>
+        <v>0.239508</v>
       </c>
       <c r="C100" t="n">
-        <v>0.246525</v>
+        <v>0.248128</v>
       </c>
       <c r="D100" t="n">
-        <v>0.691968</v>
+        <v>0.690113</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.235124</v>
+        <v>0.232811</v>
       </c>
       <c r="C101" t="n">
-        <v>0.246497</v>
+        <v>0.243417</v>
       </c>
       <c r="D101" t="n">
-        <v>0.685789</v>
+        <v>0.689652</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.227994</v>
+        <v>0.226427</v>
       </c>
       <c r="C102" t="n">
-        <v>0.244074</v>
+        <v>0.244714</v>
       </c>
       <c r="D102" t="n">
-        <v>0.674277</v>
+        <v>0.700635</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.224246</v>
+        <v>0.223052</v>
       </c>
       <c r="C103" t="n">
-        <v>0.242745</v>
+        <v>0.243527</v>
       </c>
       <c r="D103" t="n">
-        <v>0.682741</v>
+        <v>0.68749</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.217551</v>
+        <v>0.220009</v>
       </c>
       <c r="C104" t="n">
-        <v>0.241201</v>
+        <v>0.241819</v>
       </c>
       <c r="D104" t="n">
-        <v>0.687633</v>
+        <v>0.67913</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.215603</v>
+        <v>0.217306</v>
       </c>
       <c r="C105" t="n">
-        <v>0.239123</v>
+        <v>0.238483</v>
       </c>
       <c r="D105" t="n">
-        <v>0.679932</v>
+        <v>0.682135</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.21591</v>
+        <v>0.215584</v>
       </c>
       <c r="C106" t="n">
-        <v>0.237662</v>
+        <v>0.23793</v>
       </c>
       <c r="D106" t="n">
-        <v>0.686925</v>
+        <v>0.688544</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.204358</v>
+        <v>0.205753</v>
       </c>
       <c r="C107" t="n">
-        <v>0.236764</v>
+        <v>0.235287</v>
       </c>
       <c r="D107" t="n">
-        <v>0.692679</v>
+        <v>0.69854</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.197742</v>
+        <v>0.203233</v>
       </c>
       <c r="C108" t="n">
-        <v>0.262608</v>
+        <v>0.26629</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6993470000000001</v>
+        <v>0.686943</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.194267</v>
+        <v>0.190421</v>
       </c>
       <c r="C109" t="n">
-        <v>0.264073</v>
+        <v>0.260727</v>
       </c>
       <c r="D109" t="n">
-        <v>0.692105</v>
+        <v>0.680072</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.257391</v>
+        <v>0.258242</v>
       </c>
       <c r="C110" t="n">
-        <v>0.256005</v>
+        <v>0.257902</v>
       </c>
       <c r="D110" t="n">
-        <v>0.70238</v>
+        <v>0.700186</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.253462</v>
+        <v>0.252548</v>
       </c>
       <c r="C111" t="n">
-        <v>0.254255</v>
+        <v>0.255276</v>
       </c>
       <c r="D111" t="n">
-        <v>0.683044</v>
+        <v>0.711411</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.248781</v>
+        <v>0.248422</v>
       </c>
       <c r="C112" t="n">
-        <v>0.254194</v>
+        <v>0.254518</v>
       </c>
       <c r="D112" t="n">
-        <v>0.688514</v>
+        <v>0.684099</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.24689</v>
+        <v>0.244242</v>
       </c>
       <c r="C113" t="n">
-        <v>0.249244</v>
+        <v>0.251233</v>
       </c>
       <c r="D113" t="n">
-        <v>0.673289</v>
+        <v>0.685523</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.237786</v>
+        <v>0.240042</v>
       </c>
       <c r="C114" t="n">
-        <v>0.249253</v>
+        <v>0.251313</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6922509999999999</v>
+        <v>0.683662</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.233633</v>
+        <v>0.231601</v>
       </c>
       <c r="C115" t="n">
-        <v>0.246328</v>
+        <v>0.248877</v>
       </c>
       <c r="D115" t="n">
-        <v>0.672304</v>
+        <v>0.698702</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.226828</v>
+        <v>0.228935</v>
       </c>
       <c r="C116" t="n">
-        <v>0.241257</v>
+        <v>0.249227</v>
       </c>
       <c r="D116" t="n">
-        <v>0.688199</v>
+        <v>0.692925</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.22396</v>
+        <v>0.224151</v>
       </c>
       <c r="C117" t="n">
-        <v>0.243793</v>
+        <v>0.245745</v>
       </c>
       <c r="D117" t="n">
-        <v>0.679957</v>
+        <v>0.6815600000000001</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.223181</v>
+        <v>0.219908</v>
       </c>
       <c r="C118" t="n">
-        <v>0.240736</v>
+        <v>0.239507</v>
       </c>
       <c r="D118" t="n">
-        <v>0.673882</v>
+        <v>0.682543</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.216668</v>
+        <v>0.216466</v>
       </c>
       <c r="C119" t="n">
-        <v>0.2409</v>
+        <v>0.238629</v>
       </c>
       <c r="D119" t="n">
-        <v>0.683707</v>
+        <v>0.684356</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.212069</v>
+        <v>0.212147</v>
       </c>
       <c r="C120" t="n">
-        <v>0.239049</v>
+        <v>0.238378</v>
       </c>
       <c r="D120" t="n">
-        <v>0.678627</v>
+        <v>0.691692</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.205583</v>
+        <v>0.209836</v>
       </c>
       <c r="C121" t="n">
-        <v>0.23827</v>
+        <v>0.232585</v>
       </c>
       <c r="D121" t="n">
-        <v>0.69856</v>
+        <v>0.695615</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.201072</v>
+        <v>0.204067</v>
       </c>
       <c r="C122" t="n">
-        <v>0.238555</v>
+        <v>0.233905</v>
       </c>
       <c r="D122" t="n">
-        <v>0.691462</v>
+        <v>0.707225</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.194127</v>
+        <v>0.198306</v>
       </c>
       <c r="C123" t="n">
-        <v>0.261495</v>
+        <v>0.26396</v>
       </c>
       <c r="D123" t="n">
-        <v>0.695022</v>
+        <v>0.713955</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.259131</v>
+        <v>0.261564</v>
       </c>
       <c r="C124" t="n">
-        <v>0.257056</v>
+        <v>0.258961</v>
       </c>
       <c r="D124" t="n">
-        <v>0.698407</v>
+        <v>0.705646</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.254785</v>
+        <v>0.252947</v>
       </c>
       <c r="C125" t="n">
-        <v>0.257397</v>
+        <v>0.252185</v>
       </c>
       <c r="D125" t="n">
-        <v>0.688804</v>
+        <v>0.707607</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.248722</v>
+        <v>0.248372</v>
       </c>
       <c r="C126" t="n">
-        <v>0.257153</v>
+        <v>0.252871</v>
       </c>
       <c r="D126" t="n">
-        <v>0.699914</v>
+        <v>0.697442</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.243997</v>
+        <v>0.246144</v>
       </c>
       <c r="C127" t="n">
-        <v>0.252571</v>
+        <v>0.248098</v>
       </c>
       <c r="D127" t="n">
-        <v>0.692605</v>
+        <v>0.705569</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.236886</v>
+        <v>0.238133</v>
       </c>
       <c r="C128" t="n">
-        <v>0.248799</v>
+        <v>0.250439</v>
       </c>
       <c r="D128" t="n">
-        <v>0.690449</v>
+        <v>0.683104</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.238224</v>
+        <v>0.235956</v>
       </c>
       <c r="C129" t="n">
-        <v>0.247015</v>
+        <v>0.251007</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6990420000000001</v>
+        <v>0.679284</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.230152</v>
+        <v>0.232521</v>
       </c>
       <c r="C130" t="n">
-        <v>0.247497</v>
+        <v>0.245724</v>
       </c>
       <c r="D130" t="n">
-        <v>0.697391</v>
+        <v>0.677049</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.229791</v>
+        <v>0.226433</v>
       </c>
       <c r="C131" t="n">
-        <v>0.241237</v>
+        <v>0.245128</v>
       </c>
       <c r="D131" t="n">
-        <v>0.682891</v>
+        <v>0.688992</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.219133</v>
+        <v>0.22276</v>
       </c>
       <c r="C132" t="n">
-        <v>0.243087</v>
+        <v>0.245478</v>
       </c>
       <c r="D132" t="n">
-        <v>0.704976</v>
+        <v>0.681592</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.214807</v>
+        <v>0.21549</v>
       </c>
       <c r="C133" t="n">
-        <v>0.236582</v>
+        <v>0.239021</v>
       </c>
       <c r="D133" t="n">
-        <v>0.696811</v>
+        <v>0.68276</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.226037</v>
+        <v>0.214431</v>
       </c>
       <c r="C134" t="n">
-        <v>0.238117</v>
+        <v>0.23951</v>
       </c>
       <c r="D134" t="n">
-        <v>0.6794480000000001</v>
+        <v>0.676727</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.218168</v>
+        <v>0.212474</v>
       </c>
       <c r="C135" t="n">
-        <v>0.235349</v>
+        <v>0.236633</v>
       </c>
       <c r="D135" t="n">
-        <v>0.69417</v>
+        <v>0.700429</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.201199</v>
+        <v>0.208277</v>
       </c>
       <c r="C136" t="n">
-        <v>0.237951</v>
+        <v>0.233881</v>
       </c>
       <c r="D136" t="n">
-        <v>0.703184</v>
+        <v>0.702251</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.196543</v>
+        <v>0.193218</v>
       </c>
       <c r="C137" t="n">
-        <v>0.259938</v>
+        <v>0.263157</v>
       </c>
       <c r="D137" t="n">
-        <v>0.692091</v>
+        <v>0.691867</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.259242</v>
+        <v>0.262854</v>
       </c>
       <c r="C138" t="n">
-        <v>0.259648</v>
+        <v>0.26558</v>
       </c>
       <c r="D138" t="n">
-        <v>0.6978799999999999</v>
+        <v>0.712122</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.255976</v>
+        <v>0.264599</v>
       </c>
       <c r="C139" t="n">
-        <v>0.256641</v>
+        <v>0.259192</v>
       </c>
       <c r="D139" t="n">
-        <v>0.7009339999999999</v>
+        <v>0.686736</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.249648</v>
+        <v>0.255317</v>
       </c>
       <c r="C140" t="n">
-        <v>0.255223</v>
+        <v>0.255219</v>
       </c>
       <c r="D140" t="n">
-        <v>0.689604</v>
+        <v>0.703842</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.243561</v>
+        <v>0.246417</v>
       </c>
       <c r="C141" t="n">
-        <v>0.259164</v>
+        <v>0.250767</v>
       </c>
       <c r="D141" t="n">
-        <v>0.709487</v>
+        <v>0.696596</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.24274</v>
+        <v>0.240795</v>
       </c>
       <c r="C142" t="n">
-        <v>0.25061</v>
+        <v>0.245828</v>
       </c>
       <c r="D142" t="n">
-        <v>0.710347</v>
+        <v>0.700394</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.235086</v>
+        <v>0.23707</v>
       </c>
       <c r="C143" t="n">
-        <v>0.246244</v>
+        <v>0.243864</v>
       </c>
       <c r="D143" t="n">
-        <v>0.703532</v>
+        <v>0.686377</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -3214,7 +3214,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G23" sqref="G23"/>
@@ -3247,13 +3247,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.197554</v>
+        <v>0.190628</v>
       </c>
       <c r="C2" t="n">
-        <v>0.216172</v>
+        <v>0.502107</v>
       </c>
       <c r="D2" t="n">
-        <v>0.517801</v>
+        <v>0.211685</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.447046</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3264,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.197061</v>
+        <v>0.188518</v>
       </c>
       <c r="C3" t="n">
-        <v>0.219086</v>
+        <v>0.5006119999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.524384</v>
+        <v>0.21338</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.448022</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3281,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.200968</v>
+        <v>0.186773</v>
       </c>
       <c r="C4" t="n">
-        <v>0.219874</v>
+        <v>0.498962</v>
       </c>
       <c r="D4" t="n">
-        <v>0.524847</v>
+        <v>0.211705</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.44485</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3298,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.19367</v>
+        <v>0.182039</v>
       </c>
       <c r="C5" t="n">
-        <v>0.221545</v>
+        <v>0.496633</v>
       </c>
       <c r="D5" t="n">
-        <v>0.526767</v>
+        <v>0.210909</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.443978</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3315,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.189922</v>
+        <v>0.183626</v>
       </c>
       <c r="C6" t="n">
-        <v>0.220198</v>
+        <v>0.494718</v>
       </c>
       <c r="D6" t="n">
-        <v>0.52025</v>
+        <v>0.210917</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.442298</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3332,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.188199</v>
+        <v>0.176503</v>
       </c>
       <c r="C7" t="n">
-        <v>0.220421</v>
+        <v>0.506548</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5326959999999999</v>
+        <v>0.21271</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.442224</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3349,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.18464</v>
+        <v>0.172059</v>
       </c>
       <c r="C8" t="n">
-        <v>0.219873</v>
+        <v>0.5049360000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.528035</v>
+        <v>0.210738</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.444396</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3366,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.175689</v>
+        <v>0.164938</v>
       </c>
       <c r="C9" t="n">
-        <v>0.232832</v>
+        <v>0.504868</v>
       </c>
       <c r="D9" t="n">
-        <v>0.530354</v>
+        <v>0.218052</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.45662</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3383,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.22996</v>
+        <v>0.218873</v>
       </c>
       <c r="C10" t="n">
-        <v>0.240216</v>
+        <v>0.50332</v>
       </c>
       <c r="D10" t="n">
-        <v>0.528272</v>
+        <v>0.217523</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.454741</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3400,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.229017</v>
+        <v>0.216471</v>
       </c>
       <c r="C11" t="n">
-        <v>0.228013</v>
+        <v>0.507477</v>
       </c>
       <c r="D11" t="n">
-        <v>0.522927</v>
+        <v>0.222579</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.455023</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3417,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.222852</v>
+        <v>0.212026</v>
       </c>
       <c r="C12" t="n">
-        <v>0.230154</v>
+        <v>0.5041330000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.532183</v>
+        <v>0.217903</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.450144</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3434,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.217211</v>
+        <v>0.20696</v>
       </c>
       <c r="C13" t="n">
-        <v>0.230789</v>
+        <v>0.497195</v>
       </c>
       <c r="D13" t="n">
-        <v>0.530765</v>
+        <v>0.216469</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.449127</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3451,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.216815</v>
+        <v>0.204219</v>
       </c>
       <c r="C14" t="n">
-        <v>0.230008</v>
+        <v>0.499919</v>
       </c>
       <c r="D14" t="n">
-        <v>0.518616</v>
+        <v>0.216838</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.448572</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3468,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.208337</v>
+        <v>0.202</v>
       </c>
       <c r="C15" t="n">
-        <v>0.227118</v>
+        <v>0.497429</v>
       </c>
       <c r="D15" t="n">
-        <v>0.531678</v>
+        <v>0.215689</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.447288</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3485,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.20904</v>
+        <v>0.204971</v>
       </c>
       <c r="C16" t="n">
-        <v>0.223509</v>
+        <v>0.496782</v>
       </c>
       <c r="D16" t="n">
-        <v>0.531629</v>
+        <v>0.218217</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.448887</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3502,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.200763</v>
+        <v>0.198398</v>
       </c>
       <c r="C17" t="n">
-        <v>0.224662</v>
+        <v>0.500474</v>
       </c>
       <c r="D17" t="n">
-        <v>0.512303</v>
+        <v>0.21697</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.455729</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3519,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.205156</v>
+        <v>0.192802</v>
       </c>
       <c r="C18" t="n">
-        <v>0.228392</v>
+        <v>0.500424</v>
       </c>
       <c r="D18" t="n">
-        <v>0.526743</v>
+        <v>0.217303</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.450055</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3536,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2005</v>
+        <v>0.190745</v>
       </c>
       <c r="C19" t="n">
-        <v>0.221187</v>
+        <v>0.498476</v>
       </c>
       <c r="D19" t="n">
-        <v>0.517827</v>
+        <v>0.216231</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.451889</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3553,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.201818</v>
+        <v>0.187708</v>
       </c>
       <c r="C20" t="n">
-        <v>0.223586</v>
+        <v>0.5018010000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.52632</v>
+        <v>0.21641</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.449429</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3570,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.195776</v>
+        <v>0.182909</v>
       </c>
       <c r="C21" t="n">
-        <v>0.226155</v>
+        <v>0.515447</v>
       </c>
       <c r="D21" t="n">
-        <v>0.539813</v>
+        <v>0.216712</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.451599</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3587,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.18628</v>
+        <v>0.179208</v>
       </c>
       <c r="C22" t="n">
-        <v>0.222334</v>
+        <v>0.5139359999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.541652</v>
+        <v>0.218684</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.454918</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3604,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.182376</v>
+        <v>0.173543</v>
       </c>
       <c r="C23" t="n">
-        <v>0.236762</v>
+        <v>0.513336</v>
       </c>
       <c r="D23" t="n">
-        <v>0.534284</v>
+        <v>0.229255</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.462804</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3621,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.234928</v>
+        <v>0.228685</v>
       </c>
       <c r="C24" t="n">
-        <v>0.235693</v>
+        <v>0.512742</v>
       </c>
       <c r="D24" t="n">
-        <v>0.535165</v>
+        <v>0.227574</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.462649</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3638,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.230894</v>
+        <v>0.224992</v>
       </c>
       <c r="C25" t="n">
-        <v>0.229367</v>
+        <v>0.510589</v>
       </c>
       <c r="D25" t="n">
-        <v>0.531026</v>
+        <v>0.226654</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.461395</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3655,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.22612</v>
+        <v>0.222422</v>
       </c>
       <c r="C26" t="n">
-        <v>0.231656</v>
+        <v>0.51302</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5282210000000001</v>
+        <v>0.22759</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.463634</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3672,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.226996</v>
+        <v>0.218078</v>
       </c>
       <c r="C27" t="n">
-        <v>0.231984</v>
+        <v>0.504677</v>
       </c>
       <c r="D27" t="n">
-        <v>0.523498</v>
+        <v>0.223094</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.456213</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3689,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.220891</v>
+        <v>0.212713</v>
       </c>
       <c r="C28" t="n">
-        <v>0.233772</v>
+        <v>0.502735</v>
       </c>
       <c r="D28" t="n">
-        <v>0.529634</v>
+        <v>0.222763</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.455083</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3706,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.217392</v>
+        <v>0.211378</v>
       </c>
       <c r="C29" t="n">
-        <v>0.231998</v>
+        <v>0.512801</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5332249999999999</v>
+        <v>0.223316</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.455077</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3723,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.213619</v>
+        <v>0.204794</v>
       </c>
       <c r="C30" t="n">
-        <v>0.232324</v>
+        <v>0.501335</v>
       </c>
       <c r="D30" t="n">
-        <v>0.529052</v>
+        <v>0.221333</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.45343</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3740,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.210228</v>
+        <v>0.201609</v>
       </c>
       <c r="C31" t="n">
-        <v>0.230185</v>
+        <v>0.501688</v>
       </c>
       <c r="D31" t="n">
-        <v>0.527107</v>
+        <v>0.22077</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.451459</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3757,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.206832</v>
+        <v>0.197571</v>
       </c>
       <c r="C32" t="n">
-        <v>0.22805</v>
+        <v>0.502178</v>
       </c>
       <c r="D32" t="n">
-        <v>0.52855</v>
+        <v>0.220312</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.453885</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3774,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.204839</v>
+        <v>0.193944</v>
       </c>
       <c r="C33" t="n">
-        <v>0.229976</v>
+        <v>0.501458</v>
       </c>
       <c r="D33" t="n">
-        <v>0.534747</v>
+        <v>0.219665</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.453137</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3791,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.200551</v>
+        <v>0.191341</v>
       </c>
       <c r="C34" t="n">
-        <v>0.22752</v>
+        <v>0.499184</v>
       </c>
       <c r="D34" t="n">
-        <v>0.525821</v>
+        <v>0.218659</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.449694</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3808,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.196713</v>
+        <v>0.187471</v>
       </c>
       <c r="C35" t="n">
-        <v>0.222807</v>
+        <v>0.518954</v>
       </c>
       <c r="D35" t="n">
-        <v>0.551088</v>
+        <v>0.218096</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.449408</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3825,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.192761</v>
+        <v>0.183237</v>
       </c>
       <c r="C36" t="n">
-        <v>0.223823</v>
+        <v>0.521942</v>
       </c>
       <c r="D36" t="n">
-        <v>0.548187</v>
+        <v>0.217438</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.447036</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3842,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.186777</v>
+        <v>0.17677</v>
       </c>
       <c r="C37" t="n">
-        <v>0.251327</v>
+        <v>0.525392</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5421</v>
+        <v>0.242857</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.467752</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3859,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.23892</v>
+        <v>0.23165</v>
       </c>
       <c r="C38" t="n">
-        <v>0.252756</v>
+        <v>0.526033</v>
       </c>
       <c r="D38" t="n">
-        <v>0.555473</v>
+        <v>0.240724</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.474837</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3876,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.237335</v>
+        <v>0.228229</v>
       </c>
       <c r="C39" t="n">
-        <v>0.248687</v>
+        <v>0.52864</v>
       </c>
       <c r="D39" t="n">
-        <v>0.551282</v>
+        <v>0.23863</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.465686</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3893,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232512</v>
+        <v>0.226851</v>
       </c>
       <c r="C40" t="n">
-        <v>0.244574</v>
+        <v>0.525361</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5545600000000001</v>
+        <v>0.237971</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.46467</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3910,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.228345</v>
+        <v>0.22217</v>
       </c>
       <c r="C41" t="n">
-        <v>0.243517</v>
+        <v>0.517136</v>
       </c>
       <c r="D41" t="n">
-        <v>0.561711</v>
+        <v>0.234741</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.463206</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3927,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.226148</v>
+        <v>0.221027</v>
       </c>
       <c r="C42" t="n">
-        <v>0.241947</v>
+        <v>0.5243679999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.564507</v>
+        <v>0.236405</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.461956</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3944,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.220111</v>
+        <v>0.214636</v>
       </c>
       <c r="C43" t="n">
-        <v>0.238124</v>
+        <v>0.517375</v>
       </c>
       <c r="D43" t="n">
-        <v>0.539195</v>
+        <v>0.23213</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.46101</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3961,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.217902</v>
+        <v>0.210584</v>
       </c>
       <c r="C44" t="n">
-        <v>0.237917</v>
+        <v>0.528998</v>
       </c>
       <c r="D44" t="n">
-        <v>0.549307</v>
+        <v>0.230999</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.460922</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3978,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.212981</v>
+        <v>0.206545</v>
       </c>
       <c r="C45" t="n">
-        <v>0.236442</v>
+        <v>0.526396</v>
       </c>
       <c r="D45" t="n">
-        <v>0.56187</v>
+        <v>0.230195</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.46512</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3995,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.20775</v>
+        <v>0.20362</v>
       </c>
       <c r="C46" t="n">
-        <v>0.234113</v>
+        <v>0.528927</v>
       </c>
       <c r="D46" t="n">
-        <v>0.551804</v>
+        <v>0.228633</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.476689</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +4012,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.205575</v>
+        <v>0.197916</v>
       </c>
       <c r="C47" t="n">
-        <v>0.232459</v>
+        <v>0.547241</v>
       </c>
       <c r="D47" t="n">
-        <v>0.559598</v>
+        <v>0.227258</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.461442</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +4029,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.201925</v>
+        <v>0.196005</v>
       </c>
       <c r="C48" t="n">
-        <v>0.231816</v>
+        <v>0.527679</v>
       </c>
       <c r="D48" t="n">
-        <v>0.553877</v>
+        <v>0.225419</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.465427</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +4046,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.200173</v>
+        <v>0.190289</v>
       </c>
       <c r="C49" t="n">
-        <v>0.23139</v>
+        <v>0.532845</v>
       </c>
       <c r="D49" t="n">
-        <v>0.560301</v>
+        <v>0.225537</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.467718</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +4063,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.196135</v>
+        <v>0.187971</v>
       </c>
       <c r="C50" t="n">
-        <v>0.230851</v>
+        <v>0.628789</v>
       </c>
       <c r="D50" t="n">
-        <v>0.663614</v>
+        <v>0.223568</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.462058</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +4080,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.189992</v>
+        <v>0.181762</v>
       </c>
       <c r="C51" t="n">
-        <v>0.251813</v>
+        <v>0.622676</v>
       </c>
       <c r="D51" t="n">
-        <v>0.66056</v>
+        <v>0.245189</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.483985</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +4097,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.184441</v>
+        <v>0.173895</v>
       </c>
       <c r="C52" t="n">
-        <v>0.249656</v>
+        <v>0.615465</v>
       </c>
       <c r="D52" t="n">
-        <v>0.659234</v>
+        <v>0.242338</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.485229</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +4114,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.245814</v>
+        <v>0.237481</v>
       </c>
       <c r="C53" t="n">
-        <v>0.24668</v>
+        <v>0.624749</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6552519999999999</v>
+        <v>0.239859</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.491584</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +4131,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.241843</v>
+        <v>0.233498</v>
       </c>
       <c r="C54" t="n">
-        <v>0.242415</v>
+        <v>0.616876</v>
       </c>
       <c r="D54" t="n">
-        <v>0.665367</v>
+        <v>0.238965</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.488093</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +4148,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.238386</v>
+        <v>0.229025</v>
       </c>
       <c r="C55" t="n">
-        <v>0.241528</v>
+        <v>0.623501</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6620509999999999</v>
+        <v>0.235987</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.503013</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4165,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.231956</v>
+        <v>0.222852</v>
       </c>
       <c r="C56" t="n">
-        <v>0.237707</v>
+        <v>0.614283</v>
       </c>
       <c r="D56" t="n">
-        <v>0.661693</v>
+        <v>0.234899</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.495892</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4182,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.227037</v>
+        <v>0.222411</v>
       </c>
       <c r="C57" t="n">
-        <v>0.242958</v>
+        <v>0.61565</v>
       </c>
       <c r="D57" t="n">
-        <v>0.661371</v>
+        <v>0.232628</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.498388</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4199,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.22562</v>
+        <v>0.216231</v>
       </c>
       <c r="C58" t="n">
-        <v>0.238509</v>
+        <v>0.618913</v>
       </c>
       <c r="D58" t="n">
-        <v>0.656663</v>
+        <v>0.232045</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.5033879999999999</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4216,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.218488</v>
+        <v>0.210891</v>
       </c>
       <c r="C59" t="n">
-        <v>0.236749</v>
+        <v>0.628996</v>
       </c>
       <c r="D59" t="n">
-        <v>0.649631</v>
+        <v>0.230919</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.5050480000000001</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4233,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.216064</v>
+        <v>0.207615</v>
       </c>
       <c r="C60" t="n">
-        <v>0.239145</v>
+        <v>0.606253</v>
       </c>
       <c r="D60" t="n">
-        <v>0.661071</v>
+        <v>0.228296</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.505205</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4250,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.211966</v>
+        <v>0.204689</v>
       </c>
       <c r="C61" t="n">
-        <v>0.231764</v>
+        <v>0.612415</v>
       </c>
       <c r="D61" t="n">
-        <v>0.66823</v>
+        <v>0.228165</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.510821</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4267,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.210377</v>
+        <v>0.199776</v>
       </c>
       <c r="C62" t="n">
-        <v>0.233512</v>
+        <v>0.610761</v>
       </c>
       <c r="D62" t="n">
-        <v>0.642653</v>
+        <v>0.226627</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.512585</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4284,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.205281</v>
+        <v>0.196464</v>
       </c>
       <c r="C63" t="n">
-        <v>0.234194</v>
+        <v>0.609867</v>
       </c>
       <c r="D63" t="n">
-        <v>0.652671</v>
+        <v>0.225185</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.514104</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4301,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.199961</v>
+        <v>0.191614</v>
       </c>
       <c r="C64" t="n">
-        <v>0.231104</v>
+        <v>0.721021</v>
       </c>
       <c r="D64" t="n">
-        <v>0.756528</v>
+        <v>0.224525</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.521716</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4318,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.197266</v>
+        <v>0.186577</v>
       </c>
       <c r="C65" t="n">
-        <v>0.228129</v>
+        <v>0.714454</v>
       </c>
       <c r="D65" t="n">
-        <v>0.75261</v>
+        <v>0.223204</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.538193</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4335,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.187267</v>
+        <v>0.182006</v>
       </c>
       <c r="C66" t="n">
-        <v>0.255234</v>
+        <v>0.7118409999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.741851</v>
+        <v>0.24952</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.555603</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4352,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.253391</v>
+        <v>0.242626</v>
       </c>
       <c r="C67" t="n">
-        <v>0.247924</v>
+        <v>0.70016</v>
       </c>
       <c r="D67" t="n">
-        <v>0.73999</v>
+        <v>0.244016</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.554598</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4369,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.247207</v>
+        <v>0.239273</v>
       </c>
       <c r="C68" t="n">
-        <v>0.246341</v>
+        <v>0.702107</v>
       </c>
       <c r="D68" t="n">
-        <v>0.733344</v>
+        <v>0.242677</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.560214</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4386,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.248405</v>
+        <v>0.235969</v>
       </c>
       <c r="C69" t="n">
-        <v>0.250432</v>
+        <v>0.69113</v>
       </c>
       <c r="D69" t="n">
-        <v>0.724992</v>
+        <v>0.241007</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.562288</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4403,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.237824</v>
+        <v>0.23065</v>
       </c>
       <c r="C70" t="n">
-        <v>0.246126</v>
+        <v>0.691197</v>
       </c>
       <c r="D70" t="n">
-        <v>0.723316</v>
+        <v>0.239826</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.558151</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4420,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.234201</v>
+        <v>0.229695</v>
       </c>
       <c r="C71" t="n">
-        <v>0.244492</v>
+        <v>0.681631</v>
       </c>
       <c r="D71" t="n">
-        <v>0.723608</v>
+        <v>0.23689</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.556016</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4437,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.235668</v>
+        <v>0.225523</v>
       </c>
       <c r="C72" t="n">
-        <v>0.244758</v>
+        <v>0.689028</v>
       </c>
       <c r="D72" t="n">
-        <v>0.72201</v>
+        <v>0.236107</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.562788</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4454,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.229215</v>
+        <v>0.220183</v>
       </c>
       <c r="C73" t="n">
-        <v>0.240357</v>
+        <v>0.681468</v>
       </c>
       <c r="D73" t="n">
-        <v>0.711131</v>
+        <v>0.233791</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.565177</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4471,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.22382</v>
+        <v>0.214482</v>
       </c>
       <c r="C74" t="n">
-        <v>0.23876</v>
+        <v>0.67794</v>
       </c>
       <c r="D74" t="n">
-        <v>0.70978</v>
+        <v>0.232233</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.554074</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4488,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.221883</v>
+        <v>0.213197</v>
       </c>
       <c r="C75" t="n">
-        <v>0.23874</v>
+        <v>0.68302</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7020650000000001</v>
+        <v>0.233734</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.552999</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4505,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.215423</v>
+        <v>0.20784</v>
       </c>
       <c r="C76" t="n">
-        <v>0.236954</v>
+        <v>0.669911</v>
       </c>
       <c r="D76" t="n">
-        <v>0.694048</v>
+        <v>0.230734</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.553767</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4522,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.213862</v>
+        <v>0.20605</v>
       </c>
       <c r="C77" t="n">
-        <v>0.235768</v>
+        <v>0.6695950000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.697803</v>
+        <v>0.22813</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.55174</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4539,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.210054</v>
+        <v>0.196259</v>
       </c>
       <c r="C78" t="n">
-        <v>0.233619</v>
+        <v>0.760023</v>
       </c>
       <c r="D78" t="n">
-        <v>0.798451</v>
+        <v>0.226031</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.551433</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4556,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.203377</v>
+        <v>0.192642</v>
       </c>
       <c r="C79" t="n">
-        <v>0.232467</v>
+        <v>0.748567</v>
       </c>
       <c r="D79" t="n">
-        <v>0.801636</v>
+        <v>0.226802</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.550138</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4573,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.193205</v>
+        <v>0.184251</v>
       </c>
       <c r="C80" t="n">
-        <v>0.257345</v>
+        <v>0.75375</v>
       </c>
       <c r="D80" t="n">
-        <v>0.783133</v>
+        <v>0.252608</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.569308</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4590,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.259168</v>
+        <v>0.250986</v>
       </c>
       <c r="C81" t="n">
-        <v>0.25496</v>
+        <v>0.740901</v>
       </c>
       <c r="D81" t="n">
-        <v>0.774366</v>
+        <v>0.250245</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.5714939999999999</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4607,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.255201</v>
+        <v>0.245772</v>
       </c>
       <c r="C82" t="n">
-        <v>0.251525</v>
+        <v>0.7415</v>
       </c>
       <c r="D82" t="n">
-        <v>0.77128</v>
+        <v>0.246785</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.566766</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4624,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.249211</v>
+        <v>0.241987</v>
       </c>
       <c r="C83" t="n">
-        <v>0.250313</v>
+        <v>0.730185</v>
       </c>
       <c r="D83" t="n">
-        <v>0.762926</v>
+        <v>0.245051</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.564601</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4641,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.247163</v>
+        <v>0.236316</v>
       </c>
       <c r="C84" t="n">
-        <v>0.251598</v>
+        <v>0.747326</v>
       </c>
       <c r="D84" t="n">
-        <v>0.78242</v>
+        <v>0.243501</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.589464</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4658,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.239841</v>
+        <v>0.231826</v>
       </c>
       <c r="C85" t="n">
-        <v>0.248145</v>
+        <v>0.744178</v>
       </c>
       <c r="D85" t="n">
-        <v>0.785953</v>
+        <v>0.240617</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.585103</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4675,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.234475</v>
+        <v>0.227194</v>
       </c>
       <c r="C86" t="n">
-        <v>0.246925</v>
+        <v>0.7378400000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.7882209999999999</v>
+        <v>0.240141</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.585552</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4692,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.228864</v>
+        <v>0.222458</v>
       </c>
       <c r="C87" t="n">
-        <v>0.243587</v>
+        <v>0.735252</v>
       </c>
       <c r="D87" t="n">
-        <v>0.776022</v>
+        <v>0.240396</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.586755</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4709,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.222719</v>
+        <v>0.217457</v>
       </c>
       <c r="C88" t="n">
-        <v>0.241102</v>
+        <v>0.7238599999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.762845</v>
+        <v>0.235727</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.582778</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4726,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.220596</v>
+        <v>0.214372</v>
       </c>
       <c r="C89" t="n">
-        <v>0.239308</v>
+        <v>0.7204120000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>0.762893</v>
+        <v>0.235214</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.581628</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4743,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.21603</v>
+        <v>0.210274</v>
       </c>
       <c r="C90" t="n">
-        <v>0.238803</v>
+        <v>0.72617</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7505309999999999</v>
+        <v>0.233402</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.581693</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4760,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.215515</v>
+        <v>0.20627</v>
       </c>
       <c r="C91" t="n">
-        <v>0.243433</v>
+        <v>0.7198059999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.756757</v>
+        <v>0.231976</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.580348</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4777,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.207353</v>
+        <v>0.200192</v>
       </c>
       <c r="C92" t="n">
-        <v>0.235733</v>
+        <v>0.673771</v>
       </c>
       <c r="D92" t="n">
-        <v>0.696295</v>
+        <v>0.231693</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.577103</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4794,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.205164</v>
+        <v>0.194745</v>
       </c>
       <c r="C93" t="n">
-        <v>0.236005</v>
+        <v>0.670077</v>
       </c>
       <c r="D93" t="n">
-        <v>0.69762</v>
+        <v>0.23065</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.580203</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4811,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1961</v>
+        <v>0.18837</v>
       </c>
       <c r="C94" t="n">
-        <v>0.263238</v>
+        <v>0.661382</v>
       </c>
       <c r="D94" t="n">
-        <v>0.700657</v>
+        <v>0.255331</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.5930029999999999</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4828,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.262338</v>
+        <v>0.254624</v>
       </c>
       <c r="C95" t="n">
-        <v>0.259934</v>
+        <v>0.66004</v>
       </c>
       <c r="D95" t="n">
-        <v>0.696067</v>
+        <v>0.25208</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.597736</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4845,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.258352</v>
+        <v>0.248775</v>
       </c>
       <c r="C96" t="n">
-        <v>0.256473</v>
+        <v>0.659047</v>
       </c>
       <c r="D96" t="n">
-        <v>0.699282</v>
+        <v>0.25062</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.600268</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4862,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.252697</v>
+        <v>0.243717</v>
       </c>
       <c r="C97" t="n">
-        <v>0.25619</v>
+        <v>0.657829</v>
       </c>
       <c r="D97" t="n">
-        <v>0.70367</v>
+        <v>0.247666</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.590539</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4879,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.246322</v>
+        <v>0.240383</v>
       </c>
       <c r="C98" t="n">
-        <v>0.252326</v>
+        <v>0.655892</v>
       </c>
       <c r="D98" t="n">
-        <v>0.686424</v>
+        <v>0.244811</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.5852810000000001</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4896,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.244649</v>
+        <v>0.234556</v>
       </c>
       <c r="C99" t="n">
-        <v>0.251956</v>
+        <v>0.661209</v>
       </c>
       <c r="D99" t="n">
-        <v>0.684258</v>
+        <v>0.242904</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.585129</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4913,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.239508</v>
+        <v>0.230145</v>
       </c>
       <c r="C100" t="n">
-        <v>0.248128</v>
+        <v>0.665944</v>
       </c>
       <c r="D100" t="n">
-        <v>0.690113</v>
+        <v>0.24251</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.5878</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4930,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.232811</v>
+        <v>0.225235</v>
       </c>
       <c r="C101" t="n">
-        <v>0.243417</v>
+        <v>0.6570009999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.689652</v>
+        <v>0.239091</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.5842810000000001</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4947,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.226427</v>
+        <v>0.219808</v>
       </c>
       <c r="C102" t="n">
-        <v>0.244714</v>
+        <v>0.655048</v>
       </c>
       <c r="D102" t="n">
-        <v>0.700635</v>
+        <v>0.237944</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.582747</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4964,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.223052</v>
+        <v>0.215297</v>
       </c>
       <c r="C103" t="n">
-        <v>0.243527</v>
+        <v>0.654564</v>
       </c>
       <c r="D103" t="n">
-        <v>0.68749</v>
+        <v>0.236001</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.581835</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4981,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.220009</v>
+        <v>0.211256</v>
       </c>
       <c r="C104" t="n">
-        <v>0.241819</v>
+        <v>0.653873</v>
       </c>
       <c r="D104" t="n">
-        <v>0.67913</v>
+        <v>0.234847</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.5787330000000001</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4998,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.217306</v>
+        <v>0.20625</v>
       </c>
       <c r="C105" t="n">
-        <v>0.238483</v>
+        <v>0.65147</v>
       </c>
       <c r="D105" t="n">
-        <v>0.682135</v>
+        <v>0.23227</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.578022</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +5015,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.215584</v>
+        <v>0.202095</v>
       </c>
       <c r="C106" t="n">
-        <v>0.23793</v>
+        <v>0.651181</v>
       </c>
       <c r="D106" t="n">
-        <v>0.688544</v>
+        <v>0.230759</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.576474</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +5032,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.205753</v>
+        <v>0.19716</v>
       </c>
       <c r="C107" t="n">
-        <v>0.235287</v>
+        <v>0.660647</v>
       </c>
       <c r="D107" t="n">
-        <v>0.69854</v>
+        <v>0.230468</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.58036</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +5049,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.203233</v>
+        <v>0.190723</v>
       </c>
       <c r="C108" t="n">
-        <v>0.26629</v>
+        <v>0.659659</v>
       </c>
       <c r="D108" t="n">
-        <v>0.686943</v>
+        <v>0.258495</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.594217</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +5066,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.190421</v>
+        <v>0.182813</v>
       </c>
       <c r="C109" t="n">
-        <v>0.260727</v>
+        <v>0.656309</v>
       </c>
       <c r="D109" t="n">
-        <v>0.680072</v>
+        <v>0.252589</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.596143</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +5083,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.258242</v>
+        <v>0.250289</v>
       </c>
       <c r="C110" t="n">
-        <v>0.257902</v>
+        <v>0.6560319999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.700186</v>
+        <v>0.24968</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.5938369999999999</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +5100,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.252548</v>
+        <v>0.245462</v>
       </c>
       <c r="C111" t="n">
-        <v>0.255276</v>
+        <v>0.656046</v>
       </c>
       <c r="D111" t="n">
-        <v>0.711411</v>
+        <v>0.247883</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.591947</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +5117,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.248422</v>
+        <v>0.244162</v>
       </c>
       <c r="C112" t="n">
-        <v>0.254518</v>
+        <v>0.65887</v>
       </c>
       <c r="D112" t="n">
-        <v>0.684099</v>
+        <v>0.24556</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.591439</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +5134,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.244242</v>
+        <v>0.235686</v>
       </c>
       <c r="C113" t="n">
-        <v>0.251233</v>
+        <v>0.657583</v>
       </c>
       <c r="D113" t="n">
-        <v>0.685523</v>
+        <v>0.243771</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.5920530000000001</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +5151,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.240042</v>
+        <v>0.230489</v>
       </c>
       <c r="C114" t="n">
-        <v>0.251313</v>
+        <v>0.659708</v>
       </c>
       <c r="D114" t="n">
-        <v>0.683662</v>
+        <v>0.243049</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.5887289999999999</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +5168,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.231601</v>
+        <v>0.22464</v>
       </c>
       <c r="C115" t="n">
-        <v>0.248877</v>
+        <v>0.654518</v>
       </c>
       <c r="D115" t="n">
-        <v>0.698702</v>
+        <v>0.241613</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.586234</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +5185,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.228935</v>
+        <v>0.221092</v>
       </c>
       <c r="C116" t="n">
-        <v>0.249227</v>
+        <v>0.651833</v>
       </c>
       <c r="D116" t="n">
-        <v>0.692925</v>
+        <v>0.238263</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.586338</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +5202,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.224151</v>
+        <v>0.216187</v>
       </c>
       <c r="C117" t="n">
-        <v>0.245745</v>
+        <v>0.653213</v>
       </c>
       <c r="D117" t="n">
-        <v>0.6815600000000001</v>
+        <v>0.235715</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.582596</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +5219,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.219908</v>
+        <v>0.214206</v>
       </c>
       <c r="C118" t="n">
-        <v>0.239507</v>
+        <v>0.651711</v>
       </c>
       <c r="D118" t="n">
-        <v>0.682543</v>
+        <v>0.234431</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.581292</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +5236,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.216466</v>
+        <v>0.20834</v>
       </c>
       <c r="C119" t="n">
-        <v>0.238629</v>
+        <v>0.657219</v>
       </c>
       <c r="D119" t="n">
-        <v>0.684356</v>
+        <v>0.233007</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.579718</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +5253,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.212147</v>
+        <v>0.202784</v>
       </c>
       <c r="C120" t="n">
-        <v>0.238378</v>
+        <v>0.654101</v>
       </c>
       <c r="D120" t="n">
-        <v>0.691692</v>
+        <v>0.232091</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.582766</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +5270,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.209836</v>
+        <v>0.197945</v>
       </c>
       <c r="C121" t="n">
-        <v>0.232585</v>
+        <v>0.671771</v>
       </c>
       <c r="D121" t="n">
-        <v>0.695615</v>
+        <v>0.229971</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.579866</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +5287,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.204067</v>
+        <v>0.193113</v>
       </c>
       <c r="C122" t="n">
-        <v>0.233905</v>
+        <v>0.671071</v>
       </c>
       <c r="D122" t="n">
-        <v>0.707225</v>
+        <v>0.231498</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.581983</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +5304,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.198306</v>
+        <v>0.183377</v>
       </c>
       <c r="C123" t="n">
-        <v>0.26396</v>
+        <v>0.669064</v>
       </c>
       <c r="D123" t="n">
-        <v>0.713955</v>
+        <v>0.25356</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.599707</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +5321,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.261564</v>
+        <v>0.251444</v>
       </c>
       <c r="C124" t="n">
-        <v>0.258961</v>
+        <v>0.669485</v>
       </c>
       <c r="D124" t="n">
-        <v>0.705646</v>
+        <v>0.25119</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.593815</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +5338,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.252947</v>
+        <v>0.246144</v>
       </c>
       <c r="C125" t="n">
-        <v>0.252185</v>
+        <v>0.67267</v>
       </c>
       <c r="D125" t="n">
-        <v>0.707607</v>
+        <v>0.251269</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.5938020000000001</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +5355,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.248372</v>
+        <v>0.241434</v>
       </c>
       <c r="C126" t="n">
-        <v>0.252871</v>
+        <v>0.6676530000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.697442</v>
+        <v>0.246836</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.590955</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +5372,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.246144</v>
+        <v>0.236014</v>
       </c>
       <c r="C127" t="n">
-        <v>0.248098</v>
+        <v>0.665565</v>
       </c>
       <c r="D127" t="n">
-        <v>0.705569</v>
+        <v>0.24473</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.5884779999999999</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5389,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.238133</v>
+        <v>0.231517</v>
       </c>
       <c r="C128" t="n">
-        <v>0.250439</v>
+        <v>0.671078</v>
       </c>
       <c r="D128" t="n">
-        <v>0.683104</v>
+        <v>0.241776</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.5889</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5406,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.235956</v>
+        <v>0.226745</v>
       </c>
       <c r="C129" t="n">
-        <v>0.251007</v>
+        <v>0.671783</v>
       </c>
       <c r="D129" t="n">
-        <v>0.679284</v>
+        <v>0.241284</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.587322</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5423,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.232521</v>
+        <v>0.224993</v>
       </c>
       <c r="C130" t="n">
-        <v>0.245724</v>
+        <v>0.662035</v>
       </c>
       <c r="D130" t="n">
-        <v>0.677049</v>
+        <v>0.239052</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.588266</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5440,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.226433</v>
+        <v>0.216773</v>
       </c>
       <c r="C131" t="n">
-        <v>0.245128</v>
+        <v>0.660537</v>
       </c>
       <c r="D131" t="n">
-        <v>0.688992</v>
+        <v>0.236531</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.587197</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5457,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.22276</v>
+        <v>0.212638</v>
       </c>
       <c r="C132" t="n">
-        <v>0.245478</v>
+        <v>0.659156</v>
       </c>
       <c r="D132" t="n">
-        <v>0.681592</v>
+        <v>0.234705</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.583209</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5474,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.21549</v>
+        <v>0.207966</v>
       </c>
       <c r="C133" t="n">
-        <v>0.239021</v>
+        <v>0.660763</v>
       </c>
       <c r="D133" t="n">
-        <v>0.68276</v>
+        <v>0.236851</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.584075</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5491,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.214431</v>
+        <v>0.204295</v>
       </c>
       <c r="C134" t="n">
-        <v>0.23951</v>
+        <v>0.656436</v>
       </c>
       <c r="D134" t="n">
-        <v>0.676727</v>
+        <v>0.232522</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.5801190000000001</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5508,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.212474</v>
+        <v>0.206435</v>
       </c>
       <c r="C135" t="n">
-        <v>0.236633</v>
+        <v>0.674702</v>
       </c>
       <c r="D135" t="n">
-        <v>0.700429</v>
+        <v>0.23328</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.579417</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5525,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.208277</v>
+        <v>0.193464</v>
       </c>
       <c r="C136" t="n">
-        <v>0.233881</v>
+        <v>0.676627</v>
       </c>
       <c r="D136" t="n">
-        <v>0.702251</v>
+        <v>0.229237</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.57859</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5542,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.193218</v>
+        <v>0.187095</v>
       </c>
       <c r="C137" t="n">
-        <v>0.263157</v>
+        <v>0.669192</v>
       </c>
       <c r="D137" t="n">
-        <v>0.691867</v>
+        <v>0.254018</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.596047</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5559,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.262854</v>
+        <v>0.253377</v>
       </c>
       <c r="C138" t="n">
-        <v>0.26558</v>
+        <v>0.668655</v>
       </c>
       <c r="D138" t="n">
-        <v>0.712122</v>
+        <v>0.251198</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.5979409999999999</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5576,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.264599</v>
+        <v>0.247335</v>
       </c>
       <c r="C139" t="n">
-        <v>0.259192</v>
+        <v>0.671811</v>
       </c>
       <c r="D139" t="n">
-        <v>0.686736</v>
+        <v>0.252099</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.593145</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5593,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.255317</v>
+        <v>0.243032</v>
       </c>
       <c r="C140" t="n">
-        <v>0.255219</v>
+        <v>0.670511</v>
       </c>
       <c r="D140" t="n">
-        <v>0.703842</v>
+        <v>0.246524</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.590884</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5610,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.246417</v>
+        <v>0.238186</v>
       </c>
       <c r="C141" t="n">
-        <v>0.250767</v>
+        <v>0.665723</v>
       </c>
       <c r="D141" t="n">
-        <v>0.696596</v>
+        <v>0.24488</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.589798</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5627,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.240795</v>
+        <v>0.233121</v>
       </c>
       <c r="C142" t="n">
-        <v>0.245828</v>
+        <v>0.667334</v>
       </c>
       <c r="D142" t="n">
-        <v>0.700394</v>
+        <v>0.242526</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.589324</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5644,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.23707</v>
+        <v>0.228541</v>
       </c>
       <c r="C143" t="n">
-        <v>0.243864</v>
+        <v>0.664041</v>
       </c>
       <c r="D143" t="n">
-        <v>0.686377</v>
+        <v>0.240582</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.587085</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -4140,7 +4140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I27" sqref="I27"/>
@@ -4178,16 +4178,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.202607</v>
+        <v>0.204954</v>
       </c>
       <c r="C2" t="n">
-        <v>0.522452</v>
+        <v>0.460777</v>
       </c>
       <c r="D2" t="n">
-        <v>0.219239</v>
+        <v>0.529659</v>
       </c>
       <c r="E2" t="n">
-        <v>0.467397</v>
+        <v>0.22254</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.460608</v>
       </c>
     </row>
     <row r="3">
@@ -4195,16 +4198,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.19483</v>
+        <v>0.193623</v>
       </c>
       <c r="C3" t="n">
-        <v>0.538601</v>
+        <v>0.445997</v>
       </c>
       <c r="D3" t="n">
-        <v>0.217836</v>
+        <v>0.528183</v>
       </c>
       <c r="E3" t="n">
-        <v>0.46761</v>
+        <v>0.22449</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.476499</v>
       </c>
     </row>
     <row r="4">
@@ -4212,16 +4218,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.189685</v>
+        <v>0.194788</v>
       </c>
       <c r="C4" t="n">
-        <v>0.522267</v>
+        <v>0.459206</v>
       </c>
       <c r="D4" t="n">
-        <v>0.216495</v>
+        <v>0.523292</v>
       </c>
       <c r="E4" t="n">
-        <v>0.460085</v>
+        <v>0.224964</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.471196</v>
       </c>
     </row>
     <row r="5">
@@ -4229,16 +4238,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.19559</v>
+        <v>0.193196</v>
       </c>
       <c r="C5" t="n">
-        <v>0.511354</v>
+        <v>0.458185</v>
       </c>
       <c r="D5" t="n">
-        <v>0.217587</v>
+        <v>0.5187079999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.444977</v>
+        <v>0.220878</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.464229</v>
       </c>
     </row>
     <row r="6">
@@ -4246,16 +4258,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.185325</v>
+        <v>0.188169</v>
       </c>
       <c r="C6" t="n">
-        <v>0.52765</v>
+        <v>0.438424</v>
       </c>
       <c r="D6" t="n">
-        <v>0.223419</v>
+        <v>0.5100710000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.465003</v>
+        <v>0.216866</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.456572</v>
       </c>
     </row>
     <row r="7">
@@ -4263,16 +4278,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.183294</v>
+        <v>0.183744</v>
       </c>
       <c r="C7" t="n">
-        <v>0.523628</v>
+        <v>0.430058</v>
       </c>
       <c r="D7" t="n">
-        <v>0.211312</v>
+        <v>0.515281</v>
       </c>
       <c r="E7" t="n">
-        <v>0.451017</v>
+        <v>0.225415</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.463271</v>
       </c>
     </row>
     <row r="8">
@@ -4280,16 +4298,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.173088</v>
+        <v>0.17757</v>
       </c>
       <c r="C8" t="n">
-        <v>0.531729</v>
+        <v>0.426458</v>
       </c>
       <c r="D8" t="n">
-        <v>0.215419</v>
+        <v>0.51807</v>
       </c>
       <c r="E8" t="n">
-        <v>0.448491</v>
+        <v>0.216445</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.455533</v>
       </c>
     </row>
     <row r="9">
@@ -4297,16 +4318,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.165608</v>
+        <v>0.172558</v>
       </c>
       <c r="C9" t="n">
-        <v>0.519355</v>
+        <v>0.424885</v>
       </c>
       <c r="D9" t="n">
-        <v>0.219179</v>
+        <v>0.510848</v>
       </c>
       <c r="E9" t="n">
-        <v>0.466291</v>
+        <v>0.219201</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.471108</v>
       </c>
     </row>
     <row r="10">
@@ -4314,16 +4338,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.218331</v>
+        <v>0.218571</v>
       </c>
       <c r="C10" t="n">
-        <v>0.509144</v>
+        <v>0.473598</v>
       </c>
       <c r="D10" t="n">
-        <v>0.21829</v>
+        <v>0.507852</v>
       </c>
       <c r="E10" t="n">
-        <v>0.465789</v>
+        <v>0.230168</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.466855</v>
       </c>
     </row>
     <row r="11">
@@ -4331,16 +4358,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.212001</v>
+        <v>0.216965</v>
       </c>
       <c r="C11" t="n">
-        <v>0.508626</v>
+        <v>0.477705</v>
       </c>
       <c r="D11" t="n">
-        <v>0.218763</v>
+        <v>0.512474</v>
       </c>
       <c r="E11" t="n">
-        <v>0.458125</v>
+        <v>0.21732</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.467192</v>
       </c>
     </row>
     <row r="12">
@@ -4348,16 +4378,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.21363</v>
+        <v>0.210671</v>
       </c>
       <c r="C12" t="n">
-        <v>0.505495</v>
+        <v>0.464449</v>
       </c>
       <c r="D12" t="n">
-        <v>0.220947</v>
+        <v>0.518516</v>
       </c>
       <c r="E12" t="n">
-        <v>0.456797</v>
+        <v>0.217564</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.456688</v>
       </c>
     </row>
     <row r="13">
@@ -4365,16 +4398,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.21024</v>
+        <v>0.210533</v>
       </c>
       <c r="C13" t="n">
-        <v>0.505755</v>
+        <v>0.462943</v>
       </c>
       <c r="D13" t="n">
-        <v>0.216569</v>
+        <v>0.507116</v>
       </c>
       <c r="E13" t="n">
-        <v>0.466328</v>
+        <v>0.217842</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.458925</v>
       </c>
     </row>
     <row r="14">
@@ -4382,16 +4418,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.203968</v>
+        <v>0.210384</v>
       </c>
       <c r="C14" t="n">
-        <v>0.501715</v>
+        <v>0.461569</v>
       </c>
       <c r="D14" t="n">
-        <v>0.216349</v>
+        <v>0.5159049999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.453003</v>
+        <v>0.220959</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.468311</v>
       </c>
     </row>
     <row r="15">
@@ -4399,16 +4438,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.201304</v>
+        <v>0.203988</v>
       </c>
       <c r="C15" t="n">
-        <v>0.510408</v>
+        <v>0.457299</v>
       </c>
       <c r="D15" t="n">
-        <v>0.215979</v>
+        <v>0.5066349999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.459065</v>
+        <v>0.220894</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.460655</v>
       </c>
     </row>
     <row r="16">
@@ -4416,16 +4458,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.199219</v>
+        <v>0.199247</v>
       </c>
       <c r="C16" t="n">
-        <v>0.526922</v>
+        <v>0.446361</v>
       </c>
       <c r="D16" t="n">
-        <v>0.219462</v>
+        <v>0.503621</v>
       </c>
       <c r="E16" t="n">
-        <v>0.463913</v>
+        <v>0.216871</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.457332</v>
       </c>
     </row>
     <row r="17">
@@ -4433,16 +4478,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.197577</v>
+        <v>0.203409</v>
       </c>
       <c r="C17" t="n">
-        <v>0.507223</v>
+        <v>0.446429</v>
       </c>
       <c r="D17" t="n">
-        <v>0.214782</v>
+        <v>0.512709</v>
       </c>
       <c r="E17" t="n">
-        <v>0.460421</v>
+        <v>0.217042</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.465785</v>
       </c>
     </row>
     <row r="18">
@@ -4450,16 +4498,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.194187</v>
+        <v>0.197708</v>
       </c>
       <c r="C18" t="n">
-        <v>0.521602</v>
+        <v>0.449207</v>
       </c>
       <c r="D18" t="n">
-        <v>0.217926</v>
+        <v>0.504918</v>
       </c>
       <c r="E18" t="n">
-        <v>0.458308</v>
+        <v>0.216437</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.449484</v>
       </c>
     </row>
     <row r="19">
@@ -4467,16 +4518,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.188853</v>
+        <v>0.190929</v>
       </c>
       <c r="C19" t="n">
-        <v>0.503993</v>
+        <v>0.440107</v>
       </c>
       <c r="D19" t="n">
-        <v>0.217679</v>
+        <v>0.507262</v>
       </c>
       <c r="E19" t="n">
-        <v>0.458294</v>
+        <v>0.21871</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.457404</v>
       </c>
     </row>
     <row r="20">
@@ -4484,16 +4538,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.187177</v>
+        <v>0.190203</v>
       </c>
       <c r="C20" t="n">
-        <v>0.498966</v>
+        <v>0.440129</v>
       </c>
       <c r="D20" t="n">
-        <v>0.215316</v>
+        <v>0.511356</v>
       </c>
       <c r="E20" t="n">
-        <v>0.456541</v>
+        <v>0.220297</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.452987</v>
       </c>
     </row>
     <row r="21">
@@ -4501,16 +4558,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.184754</v>
+        <v>0.184835</v>
       </c>
       <c r="C21" t="n">
-        <v>0.511137</v>
+        <v>0.434266</v>
       </c>
       <c r="D21" t="n">
-        <v>0.215245</v>
+        <v>0.513802</v>
       </c>
       <c r="E21" t="n">
-        <v>0.450725</v>
+        <v>0.216261</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.452678</v>
       </c>
     </row>
     <row r="22">
@@ -4518,16 +4578,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.179389</v>
+        <v>0.179595</v>
       </c>
       <c r="C22" t="n">
-        <v>0.513902</v>
+        <v>0.432953</v>
       </c>
       <c r="D22" t="n">
-        <v>0.214131</v>
+        <v>0.517657</v>
       </c>
       <c r="E22" t="n">
-        <v>0.449496</v>
+        <v>0.216123</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.463388</v>
       </c>
     </row>
     <row r="23">
@@ -4535,16 +4598,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.172685</v>
+        <v>0.176156</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5325</v>
+        <v>0.421787</v>
       </c>
       <c r="D23" t="n">
-        <v>0.231894</v>
+        <v>0.516114</v>
       </c>
       <c r="E23" t="n">
-        <v>0.462482</v>
+        <v>0.23135</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.469927</v>
       </c>
     </row>
     <row r="24">
@@ -4552,16 +4618,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.226795</v>
+        <v>0.229177</v>
       </c>
       <c r="C24" t="n">
-        <v>0.519631</v>
+        <v>0.47189</v>
       </c>
       <c r="D24" t="n">
-        <v>0.226937</v>
+        <v>0.515602</v>
       </c>
       <c r="E24" t="n">
-        <v>0.459732</v>
+        <v>0.229692</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.479196</v>
       </c>
     </row>
     <row r="25">
@@ -4569,16 +4638,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.225057</v>
+        <v>0.226245</v>
       </c>
       <c r="C25" t="n">
-        <v>0.513032</v>
+        <v>0.468059</v>
       </c>
       <c r="D25" t="n">
-        <v>0.228329</v>
+        <v>0.515752</v>
       </c>
       <c r="E25" t="n">
-        <v>0.459658</v>
+        <v>0.225913</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.46983</v>
       </c>
     </row>
     <row r="26">
@@ -4586,16 +4658,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.220713</v>
+        <v>0.220925</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5130400000000001</v>
+        <v>0.46853</v>
       </c>
       <c r="D26" t="n">
-        <v>0.224403</v>
+        <v>0.5178700000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>0.456218</v>
+        <v>0.225827</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.461524</v>
       </c>
     </row>
     <row r="27">
@@ -4603,16 +4678,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.216127</v>
+        <v>0.220292</v>
       </c>
       <c r="C27" t="n">
-        <v>0.516058</v>
+        <v>0.469884</v>
       </c>
       <c r="D27" t="n">
-        <v>0.226295</v>
+        <v>0.512458</v>
       </c>
       <c r="E27" t="n">
-        <v>0.468626</v>
+        <v>0.226064</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.464874</v>
       </c>
     </row>
     <row r="28">
@@ -4620,16 +4698,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.220452</v>
+        <v>0.216597</v>
       </c>
       <c r="C28" t="n">
-        <v>0.526458</v>
+        <v>0.458697</v>
       </c>
       <c r="D28" t="n">
-        <v>0.22907</v>
+        <v>0.5150169999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>0.45799</v>
+        <v>0.225785</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.463344</v>
       </c>
     </row>
     <row r="29">
@@ -4637,16 +4718,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.211175</v>
+        <v>0.21304</v>
       </c>
       <c r="C29" t="n">
-        <v>0.528268</v>
+        <v>0.451148</v>
       </c>
       <c r="D29" t="n">
+        <v>0.514635</v>
+      </c>
+      <c r="E29" t="n">
         <v>0.22403</v>
       </c>
-      <c r="E29" t="n">
-        <v>0.459898</v>
+      <c r="F29" t="n">
+        <v>0.464224</v>
       </c>
     </row>
     <row r="30">
@@ -4654,16 +4738,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.21085</v>
+        <v>0.209562</v>
       </c>
       <c r="C30" t="n">
-        <v>0.523875</v>
+        <v>0.453568</v>
       </c>
       <c r="D30" t="n">
-        <v>0.22641</v>
+        <v>0.516902</v>
       </c>
       <c r="E30" t="n">
-        <v>0.462808</v>
+        <v>0.234477</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.456133</v>
       </c>
     </row>
     <row r="31">
@@ -4671,16 +4758,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.20206</v>
+        <v>0.206447</v>
       </c>
       <c r="C31" t="n">
-        <v>0.51013</v>
+        <v>0.445685</v>
       </c>
       <c r="D31" t="n">
-        <v>0.22103</v>
+        <v>0.513245</v>
       </c>
       <c r="E31" t="n">
-        <v>0.454579</v>
+        <v>0.221238</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.460267</v>
       </c>
     </row>
     <row r="32">
@@ -4688,16 +4778,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.200077</v>
+        <v>0.201624</v>
       </c>
       <c r="C32" t="n">
-        <v>0.505815</v>
+        <v>0.446643</v>
       </c>
       <c r="D32" t="n">
-        <v>0.221546</v>
+        <v>0.521406</v>
       </c>
       <c r="E32" t="n">
-        <v>0.459835</v>
+        <v>0.2216</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.456874</v>
       </c>
     </row>
     <row r="33">
@@ -4705,16 +4798,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.19908</v>
+        <v>0.199848</v>
       </c>
       <c r="C33" t="n">
-        <v>0.50725</v>
+        <v>0.442199</v>
       </c>
       <c r="D33" t="n">
-        <v>0.219817</v>
+        <v>0.522787</v>
       </c>
       <c r="E33" t="n">
-        <v>0.462242</v>
+        <v>0.222189</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.463122</v>
       </c>
     </row>
     <row r="34">
@@ -4722,16 +4818,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192277</v>
+        <v>0.194939</v>
       </c>
       <c r="C34" t="n">
-        <v>0.517257</v>
+        <v>0.447772</v>
       </c>
       <c r="D34" t="n">
-        <v>0.219289</v>
+        <v>0.514409</v>
       </c>
       <c r="E34" t="n">
-        <v>0.450195</v>
+        <v>0.222545</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.459611</v>
       </c>
     </row>
     <row r="35">
@@ -4739,16 +4838,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.18763</v>
+        <v>0.192823</v>
       </c>
       <c r="C35" t="n">
-        <v>0.53305</v>
+        <v>0.441487</v>
       </c>
       <c r="D35" t="n">
-        <v>0.218771</v>
+        <v>0.524143</v>
       </c>
       <c r="E35" t="n">
-        <v>0.450181</v>
+        <v>0.223404</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.454439</v>
       </c>
     </row>
     <row r="36">
@@ -4756,16 +4858,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.186248</v>
+        <v>0.186161</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5264219999999999</v>
+        <v>0.437037</v>
       </c>
       <c r="D36" t="n">
-        <v>0.218645</v>
+        <v>0.534629</v>
       </c>
       <c r="E36" t="n">
-        <v>0.454286</v>
+        <v>0.218245</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.463719</v>
       </c>
     </row>
     <row r="37">
@@ -4773,16 +4878,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.178151</v>
+        <v>0.180526</v>
       </c>
       <c r="C37" t="n">
-        <v>0.530218</v>
+        <v>0.427689</v>
       </c>
       <c r="D37" t="n">
-        <v>0.242787</v>
+        <v>0.532654</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4774</v>
+        <v>0.24712</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.489346</v>
       </c>
     </row>
     <row r="38">
@@ -4790,16 +4898,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.231782</v>
+        <v>0.237237</v>
       </c>
       <c r="C38" t="n">
-        <v>0.53094</v>
+        <v>0.484769</v>
       </c>
       <c r="D38" t="n">
-        <v>0.241248</v>
+        <v>0.536113</v>
       </c>
       <c r="E38" t="n">
-        <v>0.473617</v>
+        <v>0.243272</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.476687</v>
       </c>
     </row>
     <row r="39">
@@ -4807,16 +4918,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2331</v>
+        <v>0.231298</v>
       </c>
       <c r="C39" t="n">
-        <v>0.530319</v>
+        <v>0.501544</v>
       </c>
       <c r="D39" t="n">
-        <v>0.23894</v>
+        <v>0.544169</v>
       </c>
       <c r="E39" t="n">
-        <v>0.466466</v>
+        <v>0.243515</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.489871</v>
       </c>
     </row>
     <row r="40">
@@ -4824,16 +4938,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.225495</v>
+        <v>0.228359</v>
       </c>
       <c r="C40" t="n">
-        <v>0.533491</v>
+        <v>0.494155</v>
       </c>
       <c r="D40" t="n">
-        <v>0.238286</v>
+        <v>0.536572</v>
       </c>
       <c r="E40" t="n">
-        <v>0.482505</v>
+        <v>0.241188</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.481604</v>
       </c>
     </row>
     <row r="41">
@@ -4841,16 +4958,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.225586</v>
+        <v>0.233949</v>
       </c>
       <c r="C41" t="n">
-        <v>0.540872</v>
+        <v>0.479296</v>
       </c>
       <c r="D41" t="n">
-        <v>0.235023</v>
+        <v>0.545306</v>
       </c>
       <c r="E41" t="n">
-        <v>0.477965</v>
+        <v>0.238198</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.479992</v>
       </c>
     </row>
     <row r="42">
@@ -4858,16 +4978,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.220774</v>
+        <v>0.222079</v>
       </c>
       <c r="C42" t="n">
-        <v>0.531931</v>
+        <v>0.475423</v>
       </c>
       <c r="D42" t="n">
-        <v>0.238019</v>
+        <v>0.533289</v>
       </c>
       <c r="E42" t="n">
-        <v>0.467004</v>
+        <v>0.244213</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.476449</v>
       </c>
     </row>
     <row r="43">
@@ -4875,16 +4998,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.21419</v>
+        <v>0.214965</v>
       </c>
       <c r="C43" t="n">
-        <v>0.528025</v>
+        <v>0.469303</v>
       </c>
       <c r="D43" t="n">
-        <v>0.232557</v>
+        <v>0.526741</v>
       </c>
       <c r="E43" t="n">
-        <v>0.487621</v>
+        <v>0.237665</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.472404</v>
       </c>
     </row>
     <row r="44">
@@ -4892,16 +5018,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.211547</v>
+        <v>0.214876</v>
       </c>
       <c r="C44" t="n">
-        <v>0.527241</v>
+        <v>0.463935</v>
       </c>
       <c r="D44" t="n">
-        <v>0.233684</v>
+        <v>0.562689</v>
       </c>
       <c r="E44" t="n">
-        <v>0.466354</v>
+        <v>0.236348</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.502456</v>
       </c>
     </row>
     <row r="45">
@@ -4909,16 +5038,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.208984</v>
+        <v>0.210383</v>
       </c>
       <c r="C45" t="n">
-        <v>0.53857</v>
+        <v>0.489146</v>
       </c>
       <c r="D45" t="n">
-        <v>0.234574</v>
+        <v>0.553223</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4664</v>
+        <v>0.234979</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.502152</v>
       </c>
     </row>
     <row r="46">
@@ -4926,16 +5058,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.203472</v>
+        <v>0.204553</v>
       </c>
       <c r="C46" t="n">
-        <v>0.547648</v>
+        <v>0.48762</v>
       </c>
       <c r="D46" t="n">
-        <v>0.229112</v>
+        <v>0.556258</v>
       </c>
       <c r="E46" t="n">
-        <v>0.469799</v>
+        <v>0.232761</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.478079</v>
       </c>
     </row>
     <row r="47">
@@ -4943,16 +5078,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.198621</v>
+        <v>0.203265</v>
       </c>
       <c r="C47" t="n">
-        <v>0.55871</v>
+        <v>0.464018</v>
       </c>
       <c r="D47" t="n">
-        <v>0.227334</v>
+        <v>0.544477</v>
       </c>
       <c r="E47" t="n">
-        <v>0.466837</v>
+        <v>0.230459</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.474188</v>
       </c>
     </row>
     <row r="48">
@@ -4960,16 +5098,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.195534</v>
+        <v>0.199025</v>
       </c>
       <c r="C48" t="n">
-        <v>0.563445</v>
+        <v>0.459648</v>
       </c>
       <c r="D48" t="n">
-        <v>0.229148</v>
+        <v>0.539367</v>
       </c>
       <c r="E48" t="n">
-        <v>0.462964</v>
+        <v>0.232913</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.477557</v>
       </c>
     </row>
     <row r="49">
@@ -4977,16 +5118,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191547</v>
+        <v>0.198178</v>
       </c>
       <c r="C49" t="n">
-        <v>0.560244</v>
+        <v>0.459348</v>
       </c>
       <c r="D49" t="n">
-        <v>0.226427</v>
+        <v>0.54183</v>
       </c>
       <c r="E49" t="n">
-        <v>0.463127</v>
+        <v>0.230479</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.481958</v>
       </c>
     </row>
     <row r="50">
@@ -4994,16 +5138,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.188664</v>
+        <v>0.19566</v>
       </c>
       <c r="C50" t="n">
-        <v>0.638413</v>
+        <v>0.45467</v>
       </c>
       <c r="D50" t="n">
-        <v>0.225073</v>
+        <v>0.632134</v>
       </c>
       <c r="E50" t="n">
-        <v>0.470282</v>
+        <v>0.229352</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.479923</v>
       </c>
     </row>
     <row r="51">
@@ -5011,16 +5158,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.181956</v>
+        <v>0.186061</v>
       </c>
       <c r="C51" t="n">
-        <v>0.630264</v>
+        <v>0.45674</v>
       </c>
       <c r="D51" t="n">
-        <v>0.245328</v>
+        <v>0.638538</v>
       </c>
       <c r="E51" t="n">
-        <v>0.494385</v>
+        <v>0.248724</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.504129</v>
       </c>
     </row>
     <row r="52">
@@ -5028,16 +5178,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175213</v>
+        <v>0.175435</v>
       </c>
       <c r="C52" t="n">
-        <v>0.633578</v>
+        <v>0.450492</v>
       </c>
       <c r="D52" t="n">
-        <v>0.247138</v>
+        <v>0.621947</v>
       </c>
       <c r="E52" t="n">
-        <v>0.501323</v>
+        <v>0.245003</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.497338</v>
       </c>
     </row>
     <row r="53">
@@ -5045,16 +5198,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240064</v>
+        <v>0.241201</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6315190000000001</v>
+        <v>0.522523</v>
       </c>
       <c r="D53" t="n">
-        <v>0.240144</v>
+        <v>0.625476</v>
       </c>
       <c r="E53" t="n">
-        <v>0.502484</v>
+        <v>0.24334</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.514593</v>
       </c>
     </row>
     <row r="54">
@@ -5062,16 +5218,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.235407</v>
+        <v>0.234764</v>
       </c>
       <c r="C54" t="n">
-        <v>0.640616</v>
+        <v>0.520531</v>
       </c>
       <c r="D54" t="n">
-        <v>0.240091</v>
+        <v>0.626588</v>
       </c>
       <c r="E54" t="n">
-        <v>0.495008</v>
+        <v>0.239979</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.51208</v>
       </c>
     </row>
     <row r="55">
@@ -5079,16 +5238,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.230719</v>
+        <v>0.233314</v>
       </c>
       <c r="C55" t="n">
-        <v>0.632286</v>
+        <v>0.520712</v>
       </c>
       <c r="D55" t="n">
-        <v>0.239808</v>
+        <v>0.636024</v>
       </c>
       <c r="E55" t="n">
-        <v>0.507514</v>
+        <v>0.239148</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.510845</v>
       </c>
     </row>
     <row r="56">
@@ -5096,16 +5258,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.226241</v>
+        <v>0.224948</v>
       </c>
       <c r="C56" t="n">
-        <v>0.637223</v>
+        <v>0.523354</v>
       </c>
       <c r="D56" t="n">
-        <v>0.235509</v>
+        <v>0.628965</v>
       </c>
       <c r="E56" t="n">
-        <v>0.511583</v>
+        <v>0.238854</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.517741</v>
       </c>
     </row>
     <row r="57">
@@ -5113,16 +5278,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221745</v>
+        <v>0.226157</v>
       </c>
       <c r="C57" t="n">
-        <v>0.631031</v>
+        <v>0.518311</v>
       </c>
       <c r="D57" t="n">
-        <v>0.235751</v>
+        <v>0.623116</v>
       </c>
       <c r="E57" t="n">
-        <v>0.512751</v>
+        <v>0.233682</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.51639</v>
       </c>
     </row>
     <row r="58">
@@ -5130,16 +5298,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.218269</v>
+        <v>0.219253</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6298319999999999</v>
+        <v>0.516761</v>
       </c>
       <c r="D58" t="n">
-        <v>0.232692</v>
+        <v>0.633575</v>
       </c>
       <c r="E58" t="n">
-        <v>0.560379</v>
+        <v>0.235629</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.517743</v>
       </c>
     </row>
     <row r="59">
@@ -5147,16 +5318,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.212695</v>
+        <v>0.214811</v>
       </c>
       <c r="C59" t="n">
-        <v>0.651884</v>
+        <v>0.524002</v>
       </c>
       <c r="D59" t="n">
-        <v>0.230693</v>
+        <v>0.639767</v>
       </c>
       <c r="E59" t="n">
-        <v>0.522933</v>
+        <v>0.23118</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.511359</v>
       </c>
     </row>
     <row r="60">
@@ -5164,16 +5338,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.209987</v>
+        <v>0.210114</v>
       </c>
       <c r="C60" t="n">
-        <v>0.650034</v>
+        <v>0.51767</v>
       </c>
       <c r="D60" t="n">
-        <v>0.231486</v>
+        <v>0.613869</v>
       </c>
       <c r="E60" t="n">
-        <v>0.523836</v>
+        <v>0.232759</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.535203</v>
       </c>
     </row>
     <row r="61">
@@ -5181,16 +5358,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.207632</v>
+        <v>0.205597</v>
       </c>
       <c r="C61" t="n">
-        <v>0.626255</v>
+        <v>0.518825</v>
       </c>
       <c r="D61" t="n">
-        <v>0.230208</v>
+        <v>0.642355</v>
       </c>
       <c r="E61" t="n">
-        <v>0.522791</v>
+        <v>0.232005</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.528896</v>
       </c>
     </row>
     <row r="62">
@@ -5198,16 +5378,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.20475</v>
+        <v>0.203914</v>
       </c>
       <c r="C62" t="n">
-        <v>0.646</v>
+        <v>0.51688</v>
       </c>
       <c r="D62" t="n">
-        <v>0.230415</v>
+        <v>0.632529</v>
       </c>
       <c r="E62" t="n">
-        <v>0.519113</v>
+        <v>0.227571</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.531515</v>
       </c>
     </row>
     <row r="63">
@@ -5215,16 +5398,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.196616</v>
+        <v>0.199747</v>
       </c>
       <c r="C63" t="n">
-        <v>0.641668</v>
+        <v>0.517658</v>
       </c>
       <c r="D63" t="n">
-        <v>0.226898</v>
+        <v>0.617757</v>
       </c>
       <c r="E63" t="n">
-        <v>0.528786</v>
+        <v>0.227124</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.527274</v>
       </c>
     </row>
     <row r="64">
@@ -5232,16 +5418,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.194213</v>
+        <v>0.195521</v>
       </c>
       <c r="C64" t="n">
-        <v>0.736513</v>
+        <v>0.525851</v>
       </c>
       <c r="D64" t="n">
-        <v>0.224899</v>
+        <v>0.722415</v>
       </c>
       <c r="E64" t="n">
-        <v>0.528695</v>
+        <v>0.225107</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.532742</v>
       </c>
     </row>
     <row r="65">
@@ -5249,16 +5438,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.190981</v>
+        <v>0.188935</v>
       </c>
       <c r="C65" t="n">
-        <v>0.728254</v>
+        <v>0.521079</v>
       </c>
       <c r="D65" t="n">
-        <v>0.223651</v>
+        <v>0.730135</v>
       </c>
       <c r="E65" t="n">
-        <v>0.53753</v>
+        <v>0.224922</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.540591</v>
       </c>
     </row>
     <row r="66">
@@ -5266,16 +5458,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.182274</v>
+        <v>0.180356</v>
       </c>
       <c r="C66" t="n">
-        <v>0.732885</v>
+        <v>0.528442</v>
       </c>
       <c r="D66" t="n">
-        <v>0.246272</v>
+        <v>0.720926</v>
       </c>
       <c r="E66" t="n">
-        <v>0.566635</v>
+        <v>0.247994</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.57694</v>
       </c>
     </row>
     <row r="67">
@@ -5283,16 +5478,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.250731</v>
+        <v>0.247221</v>
       </c>
       <c r="C67" t="n">
-        <v>0.723591</v>
+        <v>0.609992</v>
       </c>
       <c r="D67" t="n">
-        <v>0.248944</v>
+        <v>0.7114470000000001</v>
       </c>
       <c r="E67" t="n">
-        <v>0.568018</v>
+        <v>0.24681</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.574135</v>
       </c>
     </row>
     <row r="68">
@@ -5300,16 +5498,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.247196</v>
+        <v>0.244843</v>
       </c>
       <c r="C68" t="n">
-        <v>0.719029</v>
+        <v>0.59068</v>
       </c>
       <c r="D68" t="n">
-        <v>0.244197</v>
+        <v>0.71497</v>
       </c>
       <c r="E68" t="n">
-        <v>0.574143</v>
+        <v>0.243575</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.577468</v>
       </c>
     </row>
     <row r="69">
@@ -5317,16 +5518,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.240225</v>
+        <v>0.240227</v>
       </c>
       <c r="C69" t="n">
-        <v>0.712663</v>
+        <v>0.593595</v>
       </c>
       <c r="D69" t="n">
-        <v>0.240917</v>
+        <v>0.710315</v>
       </c>
       <c r="E69" t="n">
-        <v>0.579386</v>
+        <v>0.246253</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.578466</v>
       </c>
     </row>
     <row r="70">
@@ -5334,16 +5538,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.238209</v>
+        <v>0.239058</v>
       </c>
       <c r="C70" t="n">
-        <v>0.711759</v>
+        <v>0.583496</v>
       </c>
       <c r="D70" t="n">
-        <v>0.248159</v>
+        <v>0.693693</v>
       </c>
       <c r="E70" t="n">
-        <v>0.56746</v>
+        <v>0.242914</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.56914</v>
       </c>
     </row>
     <row r="71">
@@ -5351,16 +5558,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.231345</v>
+        <v>0.23267</v>
       </c>
       <c r="C71" t="n">
-        <v>0.706105</v>
+        <v>0.583687</v>
       </c>
       <c r="D71" t="n">
-        <v>0.238528</v>
+        <v>0.689993</v>
       </c>
       <c r="E71" t="n">
-        <v>0.579559</v>
+        <v>0.237264</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.565971</v>
       </c>
     </row>
     <row r="72">
@@ -5368,16 +5578,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.22352</v>
+        <v>0.228838</v>
       </c>
       <c r="C72" t="n">
-        <v>0.687874</v>
+        <v>0.577461</v>
       </c>
       <c r="D72" t="n">
-        <v>0.236228</v>
+        <v>0.68194</v>
       </c>
       <c r="E72" t="n">
-        <v>0.560183</v>
+        <v>0.23728</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.5772890000000001</v>
       </c>
     </row>
     <row r="73">
@@ -5385,16 +5598,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219351</v>
+        <v>0.226109</v>
       </c>
       <c r="C73" t="n">
-        <v>0.699606</v>
+        <v>0.571252</v>
       </c>
       <c r="D73" t="n">
-        <v>0.234675</v>
+        <v>0.68606</v>
       </c>
       <c r="E73" t="n">
-        <v>0.566044</v>
+        <v>0.237375</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.566839</v>
       </c>
     </row>
     <row r="74">
@@ -5402,16 +5618,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.21914</v>
+        <v>0.217271</v>
       </c>
       <c r="C74" t="n">
-        <v>0.686053</v>
+        <v>0.570712</v>
       </c>
       <c r="D74" t="n">
-        <v>0.233127</v>
+        <v>0.679911</v>
       </c>
       <c r="E74" t="n">
-        <v>0.563038</v>
+        <v>0.232874</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.568087</v>
       </c>
     </row>
     <row r="75">
@@ -5419,16 +5638,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.213907</v>
+        <v>0.214287</v>
       </c>
       <c r="C75" t="n">
-        <v>0.689483</v>
+        <v>0.571105</v>
       </c>
       <c r="D75" t="n">
-        <v>0.232663</v>
+        <v>0.683285</v>
       </c>
       <c r="E75" t="n">
-        <v>0.561709</v>
+        <v>0.235647</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.568845</v>
       </c>
     </row>
     <row r="76">
@@ -5436,16 +5658,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.208569</v>
+        <v>0.210084</v>
       </c>
       <c r="C76" t="n">
-        <v>0.686713</v>
+        <v>0.567917</v>
       </c>
       <c r="D76" t="n">
-        <v>0.230815</v>
+        <v>0.679884</v>
       </c>
       <c r="E76" t="n">
-        <v>0.562732</v>
+        <v>0.231129</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.575115</v>
       </c>
     </row>
     <row r="77">
@@ -5453,16 +5678,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.205485</v>
+        <v>0.205872</v>
       </c>
       <c r="C77" t="n">
-        <v>0.685682</v>
+        <v>0.560519</v>
       </c>
       <c r="D77" t="n">
-        <v>0.227741</v>
+        <v>0.671055</v>
       </c>
       <c r="E77" t="n">
-        <v>0.559048</v>
+        <v>0.229585</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.567126</v>
       </c>
     </row>
     <row r="78">
@@ -5470,16 +5698,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.197561</v>
+        <v>0.204331</v>
       </c>
       <c r="C78" t="n">
-        <v>0.775667</v>
+        <v>0.563883</v>
       </c>
       <c r="D78" t="n">
-        <v>0.227755</v>
+        <v>0.762989</v>
       </c>
       <c r="E78" t="n">
-        <v>0.561407</v>
+        <v>0.230845</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.564313</v>
       </c>
     </row>
     <row r="79">
@@ -5487,16 +5718,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.193111</v>
+        <v>0.196306</v>
       </c>
       <c r="C79" t="n">
-        <v>0.768589</v>
+        <v>0.552416</v>
       </c>
       <c r="D79" t="n">
-        <v>0.226881</v>
+        <v>0.7527430000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>0.558171</v>
+        <v>0.233656</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.561268</v>
       </c>
     </row>
     <row r="80">
@@ -5504,16 +5738,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.189179</v>
+        <v>0.190208</v>
       </c>
       <c r="C80" t="n">
-        <v>0.759382</v>
+        <v>0.548032</v>
       </c>
       <c r="D80" t="n">
-        <v>0.259603</v>
+        <v>0.758639</v>
       </c>
       <c r="E80" t="n">
-        <v>0.572724</v>
+        <v>0.256029</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.592975</v>
       </c>
     </row>
     <row r="81">
@@ -5521,16 +5758,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.251863</v>
+        <v>0.252654</v>
       </c>
       <c r="C81" t="n">
-        <v>0.734878</v>
+        <v>0.61199</v>
       </c>
       <c r="D81" t="n">
-        <v>0.251388</v>
+        <v>0.74999</v>
       </c>
       <c r="E81" t="n">
-        <v>0.569439</v>
+        <v>0.255946</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.589645</v>
       </c>
     </row>
     <row r="82">
@@ -5538,16 +5778,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.247662</v>
+        <v>0.249049</v>
       </c>
       <c r="C82" t="n">
-        <v>0.743822</v>
+        <v>0.6120989999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>0.249512</v>
+        <v>0.727529</v>
       </c>
       <c r="E82" t="n">
-        <v>0.577248</v>
+        <v>0.251501</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.583723</v>
       </c>
     </row>
     <row r="83">
@@ -5555,16 +5798,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.246711</v>
+        <v>0.244827</v>
       </c>
       <c r="C83" t="n">
-        <v>0.730127</v>
+        <v>0.604765</v>
       </c>
       <c r="D83" t="n">
-        <v>0.246426</v>
+        <v>0.715794</v>
       </c>
       <c r="E83" t="n">
-        <v>0.572345</v>
+        <v>0.249398</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.574477</v>
       </c>
     </row>
     <row r="84">
@@ -5572,16 +5818,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.24001</v>
+        <v>0.238337</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7525269999999999</v>
+        <v>0.630054</v>
       </c>
       <c r="D84" t="n">
-        <v>0.244836</v>
+        <v>0.760704</v>
       </c>
       <c r="E84" t="n">
-        <v>0.587636</v>
+        <v>0.245769</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.602877</v>
       </c>
     </row>
     <row r="85">
@@ -5589,16 +5838,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.236164</v>
+        <v>0.238515</v>
       </c>
       <c r="C85" t="n">
-        <v>0.76109</v>
+        <v>0.630482</v>
       </c>
       <c r="D85" t="n">
-        <v>0.245522</v>
+        <v>0.746084</v>
       </c>
       <c r="E85" t="n">
-        <v>0.592818</v>
+        <v>0.243387</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.595396</v>
       </c>
     </row>
     <row r="86">
@@ -5606,16 +5858,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.230395</v>
+        <v>0.232862</v>
       </c>
       <c r="C86" t="n">
-        <v>0.741413</v>
+        <v>0.617367</v>
       </c>
       <c r="D86" t="n">
-        <v>0.242853</v>
+        <v>0.739976</v>
       </c>
       <c r="E86" t="n">
-        <v>0.586877</v>
+        <v>0.242935</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.60451</v>
       </c>
     </row>
     <row r="87">
@@ -5623,16 +5878,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.228544</v>
+        <v>0.227047</v>
       </c>
       <c r="C87" t="n">
-        <v>0.742681</v>
+        <v>0.612532</v>
       </c>
       <c r="D87" t="n">
-        <v>0.242437</v>
+        <v>0.741818</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5871769999999999</v>
+        <v>0.240714</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.610128</v>
       </c>
     </row>
     <row r="88">
@@ -5640,16 +5898,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.220117</v>
+        <v>0.222339</v>
       </c>
       <c r="C88" t="n">
-        <v>0.742189</v>
+        <v>0.605805</v>
       </c>
       <c r="D88" t="n">
-        <v>0.241585</v>
+        <v>0.7391259999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>0.595569</v>
+        <v>0.241079</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.595933</v>
       </c>
     </row>
     <row r="89">
@@ -5657,16 +5918,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.214982</v>
+        <v>0.21957</v>
       </c>
       <c r="C89" t="n">
-        <v>0.734033</v>
+        <v>0.5973579999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>0.24004</v>
+        <v>0.725073</v>
       </c>
       <c r="E89" t="n">
-        <v>0.588046</v>
+        <v>0.238897</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.596235</v>
       </c>
     </row>
     <row r="90">
@@ -5674,16 +5938,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.211853</v>
+        <v>0.213402</v>
       </c>
       <c r="C90" t="n">
-        <v>0.729873</v>
+        <v>0.598724</v>
       </c>
       <c r="D90" t="n">
-        <v>0.233871</v>
+        <v>0.736564</v>
       </c>
       <c r="E90" t="n">
-        <v>0.584028</v>
+        <v>0.237593</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.591819</v>
       </c>
     </row>
     <row r="91">
@@ -5691,16 +5958,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.207829</v>
+        <v>0.20858</v>
       </c>
       <c r="C91" t="n">
-        <v>0.73125</v>
+        <v>0.5939449999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.23683</v>
+        <v>0.7288210000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>0.588917</v>
+        <v>0.234348</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.58485</v>
       </c>
     </row>
     <row r="92">
@@ -5708,16 +5978,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.205345</v>
+        <v>0.204488</v>
       </c>
       <c r="C92" t="n">
-        <v>0.691631</v>
+        <v>0.583547</v>
       </c>
       <c r="D92" t="n">
-        <v>0.232791</v>
+        <v>0.683154</v>
       </c>
       <c r="E92" t="n">
-        <v>0.5944390000000001</v>
+        <v>0.2312</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.592475</v>
       </c>
     </row>
     <row r="93">
@@ -5725,16 +5998,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.20046</v>
+        <v>0.19854</v>
       </c>
       <c r="C93" t="n">
-        <v>0.676073</v>
+        <v>0.5868409999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>0.229353</v>
+        <v>0.678422</v>
       </c>
       <c r="E93" t="n">
-        <v>0.587809</v>
+        <v>0.230225</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.584232</v>
       </c>
     </row>
     <row r="94">
@@ -5742,16 +6018,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.189015</v>
+        <v>0.192177</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6775</v>
+        <v>0.577525</v>
       </c>
       <c r="D94" t="n">
-        <v>0.256513</v>
+        <v>0.681076</v>
       </c>
       <c r="E94" t="n">
-        <v>0.603197</v>
+        <v>0.256276</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.6045469999999999</v>
       </c>
     </row>
     <row r="95">
@@ -5759,16 +6038,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.25414</v>
+        <v>0.256775</v>
       </c>
       <c r="C95" t="n">
-        <v>0.668943</v>
+        <v>0.648076</v>
       </c>
       <c r="D95" t="n">
-        <v>0.252416</v>
+        <v>0.6746529999999999</v>
       </c>
       <c r="E95" t="n">
-        <v>0.60285</v>
+        <v>0.255987</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.604385</v>
       </c>
     </row>
     <row r="96">
@@ -5776,16 +6058,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.249809</v>
+        <v>0.251364</v>
       </c>
       <c r="C96" t="n">
-        <v>0.666709</v>
+        <v>0.635704</v>
       </c>
       <c r="D96" t="n">
-        <v>0.250446</v>
+        <v>0.683308</v>
       </c>
       <c r="E96" t="n">
-        <v>0.5953889999999999</v>
+        <v>0.250748</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.60312</v>
       </c>
     </row>
     <row r="97">
@@ -5793,16 +6078,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.247413</v>
+        <v>0.246784</v>
       </c>
       <c r="C97" t="n">
-        <v>0.674837</v>
+        <v>0.644799</v>
       </c>
       <c r="D97" t="n">
-        <v>0.248104</v>
+        <v>0.6893820000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>0.600124</v>
+        <v>0.249501</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.608035</v>
       </c>
     </row>
     <row r="98">
@@ -5810,16 +6098,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.241591</v>
+        <v>0.246178</v>
       </c>
       <c r="C98" t="n">
-        <v>0.666499</v>
+        <v>0.631866</v>
       </c>
       <c r="D98" t="n">
-        <v>0.247034</v>
+        <v>0.670978</v>
       </c>
       <c r="E98" t="n">
-        <v>0.596228</v>
+        <v>0.250954</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.603641</v>
       </c>
     </row>
     <row r="99">
@@ -5827,16 +6118,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.23564</v>
+        <v>0.237072</v>
       </c>
       <c r="C99" t="n">
-        <v>0.666848</v>
+        <v>0.62068</v>
       </c>
       <c r="D99" t="n">
-        <v>0.246445</v>
+        <v>0.677763</v>
       </c>
       <c r="E99" t="n">
-        <v>0.610006</v>
+        <v>0.245328</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.6065469999999999</v>
       </c>
     </row>
     <row r="100">
@@ -5844,16 +6138,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.237188</v>
+        <v>0.23329</v>
       </c>
       <c r="C100" t="n">
-        <v>0.663749</v>
+        <v>0.61158</v>
       </c>
       <c r="D100" t="n">
-        <v>0.247428</v>
+        <v>0.677025</v>
       </c>
       <c r="E100" t="n">
-        <v>0.592354</v>
+        <v>0.242676</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.612038</v>
       </c>
     </row>
     <row r="101">
@@ -5861,16 +6158,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.22618</v>
+        <v>0.233417</v>
       </c>
       <c r="C101" t="n">
-        <v>0.673315</v>
+        <v>0.61773</v>
       </c>
       <c r="D101" t="n">
-        <v>0.244318</v>
+        <v>0.666146</v>
       </c>
       <c r="E101" t="n">
-        <v>0.593333</v>
+        <v>0.242038</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.596415</v>
       </c>
     </row>
     <row r="102">
@@ -5878,16 +6178,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.221667</v>
+        <v>0.225758</v>
       </c>
       <c r="C102" t="n">
-        <v>0.66561</v>
+        <v>0.612162</v>
       </c>
       <c r="D102" t="n">
-        <v>0.242453</v>
+        <v>0.668512</v>
       </c>
       <c r="E102" t="n">
-        <v>0.596864</v>
+        <v>0.241046</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.601567</v>
       </c>
     </row>
     <row r="103">
@@ -5895,16 +6198,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.217399</v>
+        <v>0.219856</v>
       </c>
       <c r="C103" t="n">
-        <v>0.669005</v>
+        <v>0.601687</v>
       </c>
       <c r="D103" t="n">
-        <v>0.236615</v>
+        <v>0.675636</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5994429999999999</v>
+        <v>0.239837</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.600422</v>
       </c>
     </row>
     <row r="104">
@@ -5912,16 +6218,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.216597</v>
+        <v>0.217922</v>
       </c>
       <c r="C104" t="n">
-        <v>0.662635</v>
+        <v>0.61113</v>
       </c>
       <c r="D104" t="n">
-        <v>0.240455</v>
+        <v>0.665151</v>
       </c>
       <c r="E104" t="n">
-        <v>0.588511</v>
+        <v>0.23712</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.595719</v>
       </c>
     </row>
     <row r="105">
@@ -5929,16 +6238,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.2079</v>
+        <v>0.210696</v>
       </c>
       <c r="C105" t="n">
-        <v>0.689171</v>
+        <v>0.596843</v>
       </c>
       <c r="D105" t="n">
-        <v>0.233637</v>
+        <v>0.670367</v>
       </c>
       <c r="E105" t="n">
-        <v>0.598124</v>
+        <v>0.233958</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.592011</v>
       </c>
     </row>
     <row r="106">
@@ -5946,16 +6258,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.202912</v>
+        <v>0.210967</v>
       </c>
       <c r="C106" t="n">
-        <v>0.663324</v>
+        <v>0.591896</v>
       </c>
       <c r="D106" t="n">
-        <v>0.233557</v>
+        <v>0.668446</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5857599999999999</v>
+        <v>0.23317</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.59037</v>
       </c>
     </row>
     <row r="107">
@@ -5963,16 +6278,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.198917</v>
+        <v>0.205232</v>
       </c>
       <c r="C107" t="n">
-        <v>0.678778</v>
+        <v>0.6037</v>
       </c>
       <c r="D107" t="n">
-        <v>0.23084</v>
+        <v>0.669261</v>
       </c>
       <c r="E107" t="n">
-        <v>0.580951</v>
+        <v>0.236798</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.591507</v>
       </c>
     </row>
     <row r="108">
@@ -5980,16 +6298,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.19434</v>
+        <v>0.193988</v>
       </c>
       <c r="C108" t="n">
-        <v>0.675953</v>
+        <v>0.581077</v>
       </c>
       <c r="D108" t="n">
-        <v>0.256526</v>
+        <v>0.668834</v>
       </c>
       <c r="E108" t="n">
-        <v>0.604887</v>
+        <v>0.258153</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.614821</v>
       </c>
     </row>
     <row r="109">
@@ -5997,16 +6318,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.18517</v>
+        <v>0.188329</v>
       </c>
       <c r="C109" t="n">
-        <v>0.676334</v>
+        <v>0.572963</v>
       </c>
       <c r="D109" t="n">
-        <v>0.256681</v>
+        <v>0.682582</v>
       </c>
       <c r="E109" t="n">
-        <v>0.617514</v>
+        <v>0.257726</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.625186</v>
       </c>
     </row>
     <row r="110">
@@ -6014,16 +6338,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.250981</v>
+        <v>0.258109</v>
       </c>
       <c r="C110" t="n">
-        <v>0.666612</v>
+        <v>0.631381</v>
       </c>
       <c r="D110" t="n">
-        <v>0.255536</v>
+        <v>0.6839769999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>0.59633</v>
+        <v>0.254448</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.6069099999999999</v>
       </c>
     </row>
     <row r="111">
@@ -6031,16 +6358,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.248343</v>
+        <v>0.24934</v>
       </c>
       <c r="C111" t="n">
-        <v>0.671397</v>
+        <v>0.635464</v>
       </c>
       <c r="D111" t="n">
-        <v>0.251249</v>
+        <v>0.665629</v>
       </c>
       <c r="E111" t="n">
-        <v>0.603641</v>
+        <v>0.253297</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.6005779999999999</v>
       </c>
     </row>
     <row r="112">
@@ -6048,16 +6378,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.242306</v>
+        <v>0.247222</v>
       </c>
       <c r="C112" t="n">
-        <v>0.665844</v>
+        <v>0.621274</v>
       </c>
       <c r="D112" t="n">
-        <v>0.245714</v>
+        <v>0.6710159999999999</v>
       </c>
       <c r="E112" t="n">
-        <v>0.603851</v>
+        <v>0.250989</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.602324</v>
       </c>
     </row>
     <row r="113">
@@ -6065,16 +6398,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.240698</v>
+        <v>0.241568</v>
       </c>
       <c r="C113" t="n">
-        <v>0.67056</v>
+        <v>0.612325</v>
       </c>
       <c r="D113" t="n">
-        <v>0.245965</v>
+        <v>0.683964</v>
       </c>
       <c r="E113" t="n">
-        <v>0.60653</v>
+        <v>0.249004</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.602253</v>
       </c>
     </row>
     <row r="114">
@@ -6082,16 +6418,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.231309</v>
+        <v>0.23843</v>
       </c>
       <c r="C114" t="n">
-        <v>0.659887</v>
+        <v>0.62878</v>
       </c>
       <c r="D114" t="n">
-        <v>0.246911</v>
+        <v>0.678538</v>
       </c>
       <c r="E114" t="n">
-        <v>0.605195</v>
+        <v>0.249375</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.602957</v>
       </c>
     </row>
     <row r="115">
@@ -6099,16 +6438,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.229444</v>
+        <v>0.229314</v>
       </c>
       <c r="C115" t="n">
-        <v>0.67731</v>
+        <v>0.622763</v>
       </c>
       <c r="D115" t="n">
-        <v>0.243476</v>
+        <v>0.666569</v>
       </c>
       <c r="E115" t="n">
-        <v>0.5905049999999999</v>
+        <v>0.245966</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.602471</v>
       </c>
     </row>
     <row r="116">
@@ -6116,16 +6458,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.222289</v>
+        <v>0.225429</v>
       </c>
       <c r="C116" t="n">
-        <v>0.662762</v>
+        <v>0.60645</v>
       </c>
       <c r="D116" t="n">
-        <v>0.239396</v>
+        <v>0.686298</v>
       </c>
       <c r="E116" t="n">
-        <v>0.60039</v>
+        <v>0.247182</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.603587</v>
       </c>
     </row>
     <row r="117">
@@ -6133,16 +6478,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.217869</v>
+        <v>0.222181</v>
       </c>
       <c r="C117" t="n">
-        <v>0.6625450000000001</v>
+        <v>0.627032</v>
       </c>
       <c r="D117" t="n">
-        <v>0.237704</v>
+        <v>0.675744</v>
       </c>
       <c r="E117" t="n">
-        <v>0.586958</v>
+        <v>0.239572</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.596623</v>
       </c>
     </row>
     <row r="118">
@@ -6150,16 +6498,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.213047</v>
+        <v>0.21614</v>
       </c>
       <c r="C118" t="n">
-        <v>0.662554</v>
+        <v>0.608809</v>
       </c>
       <c r="D118" t="n">
-        <v>0.236353</v>
+        <v>0.667975</v>
       </c>
       <c r="E118" t="n">
-        <v>0.589805</v>
+        <v>0.237612</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.615918</v>
       </c>
     </row>
     <row r="119">
@@ -6167,16 +6518,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.208794</v>
+        <v>0.212415</v>
       </c>
       <c r="C119" t="n">
-        <v>0.673724</v>
+        <v>0.622106</v>
       </c>
       <c r="D119" t="n">
-        <v>0.232816</v>
+        <v>0.666685</v>
       </c>
       <c r="E119" t="n">
-        <v>0.601204</v>
+        <v>0.240024</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.604459</v>
       </c>
     </row>
     <row r="120">
@@ -6184,16 +6538,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.204034</v>
+        <v>0.213257</v>
       </c>
       <c r="C120" t="n">
-        <v>0.6564</v>
+        <v>0.590728</v>
       </c>
       <c r="D120" t="n">
-        <v>0.232503</v>
+        <v>0.670737</v>
       </c>
       <c r="E120" t="n">
-        <v>0.5915820000000001</v>
+        <v>0.237866</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.591317</v>
       </c>
     </row>
     <row r="121">
@@ -6201,16 +6558,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.199901</v>
+        <v>0.202861</v>
       </c>
       <c r="C121" t="n">
-        <v>0.683582</v>
+        <v>0.599851</v>
       </c>
       <c r="D121" t="n">
-        <v>0.230718</v>
+        <v>0.684326</v>
       </c>
       <c r="E121" t="n">
-        <v>0.59175</v>
+        <v>0.241872</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.595767</v>
       </c>
     </row>
     <row r="122">
@@ -6218,16 +6578,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.19426</v>
+        <v>0.196589</v>
       </c>
       <c r="C122" t="n">
-        <v>0.683322</v>
+        <v>0.584502</v>
       </c>
       <c r="D122" t="n">
-        <v>0.229577</v>
+        <v>0.682739</v>
       </c>
       <c r="E122" t="n">
-        <v>0.59338</v>
+        <v>0.237485</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.5839259999999999</v>
       </c>
     </row>
     <row r="123">
@@ -6235,16 +6598,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.186096</v>
+        <v>0.185599</v>
       </c>
       <c r="C123" t="n">
-        <v>0.68816</v>
+        <v>0.5653319999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>0.255023</v>
+        <v>0.690528</v>
       </c>
       <c r="E123" t="n">
-        <v>0.596826</v>
+        <v>0.255626</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.617027</v>
       </c>
     </row>
     <row r="124">
@@ -6252,16 +6618,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.251529</v>
+        <v>0.255036</v>
       </c>
       <c r="C124" t="n">
-        <v>0.673283</v>
+        <v>0.622167</v>
       </c>
       <c r="D124" t="n">
-        <v>0.253673</v>
+        <v>0.677462</v>
       </c>
       <c r="E124" t="n">
-        <v>0.595764</v>
+        <v>0.254268</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.605172</v>
       </c>
     </row>
     <row r="125">
@@ -6269,16 +6638,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.256381</v>
+        <v>0.247607</v>
       </c>
       <c r="C125" t="n">
-        <v>0.679094</v>
+        <v>0.621993</v>
       </c>
       <c r="D125" t="n">
-        <v>0.248227</v>
+        <v>0.68531</v>
       </c>
       <c r="E125" t="n">
-        <v>0.5933890000000001</v>
+        <v>0.253091</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.604303</v>
       </c>
     </row>
     <row r="126">
@@ -6286,16 +6658,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.241986</v>
+        <v>0.24613</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6707880000000001</v>
+        <v>0.613517</v>
       </c>
       <c r="D126" t="n">
-        <v>0.249219</v>
+        <v>0.678496</v>
       </c>
       <c r="E126" t="n">
-        <v>0.59329</v>
+        <v>0.249264</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.606806</v>
       </c>
     </row>
     <row r="127">
@@ -6303,16 +6678,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.240476</v>
+        <v>0.240592</v>
       </c>
       <c r="C127" t="n">
-        <v>0.668455</v>
+        <v>0.624713</v>
       </c>
       <c r="D127" t="n">
-        <v>0.247359</v>
+        <v>0.6882239999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>0.597732</v>
+        <v>0.250767</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.5984969999999999</v>
       </c>
     </row>
     <row r="128">
@@ -6320,16 +6698,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.233207</v>
+        <v>0.238926</v>
       </c>
       <c r="C128" t="n">
-        <v>0.667737</v>
+        <v>0.606313</v>
       </c>
       <c r="D128" t="n">
-        <v>0.246316</v>
+        <v>0.671073</v>
       </c>
       <c r="E128" t="n">
-        <v>0.5953619999999999</v>
+        <v>0.24914</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.602642</v>
       </c>
     </row>
     <row r="129">
@@ -6337,16 +6718,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.227132</v>
+        <v>0.229595</v>
       </c>
       <c r="C129" t="n">
-        <v>0.666282</v>
+        <v>0.6119329999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.241938</v>
+        <v>0.674596</v>
       </c>
       <c r="E129" t="n">
-        <v>0.589829</v>
+        <v>0.245908</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.612227</v>
       </c>
     </row>
     <row r="130">
@@ -6354,16 +6738,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.22175</v>
+        <v>0.224673</v>
       </c>
       <c r="C130" t="n">
-        <v>0.665114</v>
+        <v>0.605293</v>
       </c>
       <c r="D130" t="n">
-        <v>0.239346</v>
+        <v>0.676527</v>
       </c>
       <c r="E130" t="n">
-        <v>0.591681</v>
+        <v>0.240544</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.596413</v>
       </c>
     </row>
     <row r="131">
@@ -6371,16 +6758,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.216737</v>
+        <v>0.223044</v>
       </c>
       <c r="C131" t="n">
-        <v>0.670903</v>
+        <v>0.592381</v>
       </c>
       <c r="D131" t="n">
-        <v>0.237935</v>
+        <v>0.683496</v>
       </c>
       <c r="E131" t="n">
-        <v>0.592657</v>
+        <v>0.238247</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.59737</v>
       </c>
     </row>
     <row r="132">
@@ -6388,16 +6778,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.214394</v>
+        <v>0.217529</v>
       </c>
       <c r="C132" t="n">
-        <v>0.669897</v>
+        <v>0.5954930000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.235289</v>
+        <v>0.685407</v>
       </c>
       <c r="E132" t="n">
-        <v>0.586901</v>
+        <v>0.242374</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.607421</v>
       </c>
     </row>
     <row r="133">
@@ -6405,16 +6798,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.21007</v>
+        <v>0.21252</v>
       </c>
       <c r="C133" t="n">
-        <v>0.666566</v>
+        <v>0.58095</v>
       </c>
       <c r="D133" t="n">
-        <v>0.240153</v>
+        <v>0.675469</v>
       </c>
       <c r="E133" t="n">
-        <v>0.585579</v>
+        <v>0.237454</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.594732</v>
       </c>
     </row>
     <row r="134">
@@ -6422,16 +6818,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.207292</v>
+        <v>0.206817</v>
       </c>
       <c r="C134" t="n">
-        <v>0.663516</v>
+        <v>0.613604</v>
       </c>
       <c r="D134" t="n">
-        <v>0.233535</v>
+        <v>0.6646919999999999</v>
       </c>
       <c r="E134" t="n">
-        <v>0.592462</v>
+        <v>0.237666</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.598515</v>
       </c>
     </row>
     <row r="135">
@@ -6439,16 +6838,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.19939</v>
+        <v>0.205896</v>
       </c>
       <c r="C135" t="n">
-        <v>0.679032</v>
+        <v>0.57912</v>
       </c>
       <c r="D135" t="n">
-        <v>0.231028</v>
+        <v>0.679014</v>
       </c>
       <c r="E135" t="n">
-        <v>0.582547</v>
+        <v>0.233657</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.585888</v>
       </c>
     </row>
     <row r="136">
@@ -6456,16 +6858,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.196136</v>
+        <v>0.201806</v>
       </c>
       <c r="C136" t="n">
-        <v>0.692205</v>
+        <v>0.579759</v>
       </c>
       <c r="D136" t="n">
-        <v>0.229977</v>
+        <v>0.686209</v>
       </c>
       <c r="E136" t="n">
-        <v>0.586363</v>
+        <v>0.232439</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.622773</v>
       </c>
     </row>
     <row r="137">
@@ -6473,16 +6878,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.187187</v>
+        <v>0.189582</v>
       </c>
       <c r="C137" t="n">
-        <v>0.681291</v>
+        <v>0.5950530000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>0.255241</v>
+        <v>0.684006</v>
       </c>
       <c r="E137" t="n">
-        <v>0.597155</v>
+        <v>0.256535</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.619228</v>
       </c>
     </row>
     <row r="138">
@@ -6490,16 +6898,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.257967</v>
+        <v>0.255017</v>
       </c>
       <c r="C138" t="n">
-        <v>0.686735</v>
+        <v>0.636405</v>
       </c>
       <c r="D138" t="n">
-        <v>0.252376</v>
+        <v>0.681562</v>
       </c>
       <c r="E138" t="n">
-        <v>0.620471</v>
+        <v>0.255961</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.605853</v>
       </c>
     </row>
     <row r="139">
@@ -6507,16 +6918,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.249635</v>
+        <v>0.25378</v>
       </c>
       <c r="C139" t="n">
-        <v>0.688221</v>
+        <v>0.617932</v>
       </c>
       <c r="D139" t="n">
-        <v>0.250654</v>
+        <v>0.682601</v>
       </c>
       <c r="E139" t="n">
-        <v>0.596464</v>
+        <v>0.258928</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.603729</v>
       </c>
     </row>
     <row r="140">
@@ -6524,16 +6938,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.243266</v>
+        <v>0.247895</v>
       </c>
       <c r="C140" t="n">
-        <v>0.673625</v>
+        <v>0.619274</v>
       </c>
       <c r="D140" t="n">
-        <v>0.247003</v>
+        <v>0.675934</v>
       </c>
       <c r="E140" t="n">
-        <v>0.594215</v>
+        <v>0.251788</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.606841</v>
       </c>
     </row>
     <row r="141">
@@ -6541,16 +6958,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.239069</v>
+        <v>0.241515</v>
       </c>
       <c r="C141" t="n">
-        <v>0.671751</v>
+        <v>0.616381</v>
       </c>
       <c r="D141" t="n">
-        <v>0.24705</v>
+        <v>0.676675</v>
       </c>
       <c r="E141" t="n">
-        <v>0.594236</v>
+        <v>0.247447</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.600959</v>
       </c>
     </row>
     <row r="142">
@@ -6558,16 +6978,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.233462</v>
+        <v>0.23719</v>
       </c>
       <c r="C142" t="n">
-        <v>0.672079</v>
+        <v>0.612434</v>
       </c>
       <c r="D142" t="n">
-        <v>0.244526</v>
+        <v>0.675979</v>
       </c>
       <c r="E142" t="n">
-        <v>0.5939990000000001</v>
+        <v>0.245232</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.6147820000000001</v>
       </c>
     </row>
     <row r="143">
@@ -6575,16 +6998,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.227805</v>
+        <v>0.232048</v>
       </c>
       <c r="C143" t="n">
-        <v>0.6675450000000001</v>
+        <v>0.598869</v>
       </c>
       <c r="D143" t="n">
-        <v>0.245238</v>
+        <v>0.671298</v>
       </c>
       <c r="E143" t="n">
-        <v>0.602434</v>
+        <v>0.243354</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.6082959999999999</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -560,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.190628</v>
+                  <v>0.204954</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.188518</v>
+                  <v>0.193623</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.186773</v>
+                  <v>0.194788</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.182039</v>
+                  <v>0.193196</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.183626</v>
+                  <v>0.188169</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.176503</v>
+                  <v>0.183744</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.172059</v>
+                  <v>0.17757</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.164938</v>
+                  <v>0.172558</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.218873</v>
+                  <v>0.218571</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216471</v>
+                  <v>0.216965</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.212026</v>
+                  <v>0.210671</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.20696</v>
+                  <v>0.210533</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.204219</v>
+                  <v>0.210384</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.202</v>
+                  <v>0.203988</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.204971</v>
+                  <v>0.199247</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.198398</v>
+                  <v>0.203409</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.192802</v>
+                  <v>0.197708</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.190745</v>
+                  <v>0.190929</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.187708</v>
+                  <v>0.190203</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.182909</v>
+                  <v>0.184835</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.179208</v>
+                  <v>0.179595</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.173543</v>
+                  <v>0.176156</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.228685</v>
+                  <v>0.229177</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.224992</v>
+                  <v>0.226245</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.222422</v>
+                  <v>0.220925</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.218078</v>
+                  <v>0.220292</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.212713</v>
+                  <v>0.216597</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.211378</v>
+                  <v>0.21304</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.204794</v>
+                  <v>0.209562</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.201609</v>
+                  <v>0.206447</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.197571</v>
+                  <v>0.201624</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.193944</v>
+                  <v>0.199848</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.191341</v>
+                  <v>0.194939</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.187471</v>
+                  <v>0.192823</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.183237</v>
+                  <v>0.186161</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.17677</v>
+                  <v>0.180526</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.23165</v>
+                  <v>0.237237</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.228229</v>
+                  <v>0.231298</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.226851</v>
+                  <v>0.228359</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.22217</v>
+                  <v>0.233949</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.221027</v>
+                  <v>0.222079</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.214636</v>
+                  <v>0.214965</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.210584</v>
+                  <v>0.214876</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.206545</v>
+                  <v>0.210383</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.20362</v>
+                  <v>0.204553</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.197916</v>
+                  <v>0.203265</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.196005</v>
+                  <v>0.199025</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.190289</v>
+                  <v>0.198178</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.187971</v>
+                  <v>0.19566</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.181762</v>
+                  <v>0.186061</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.173895</v>
+                  <v>0.175435</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.237481</v>
+                  <v>0.241201</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.233498</v>
+                  <v>0.234764</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.229025</v>
+                  <v>0.233314</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.222852</v>
+                  <v>0.224948</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.222411</v>
+                  <v>0.226157</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.216231</v>
+                  <v>0.219253</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.210891</v>
+                  <v>0.214811</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.207615</v>
+                  <v>0.210114</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.204689</v>
+                  <v>0.205597</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.199776</v>
+                  <v>0.203914</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.196464</v>
+                  <v>0.199747</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.191614</v>
+                  <v>0.195521</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.186577</v>
+                  <v>0.188935</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.182006</v>
+                  <v>0.180356</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.242626</v>
+                  <v>0.247221</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.239273</v>
+                  <v>0.244843</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.235969</v>
+                  <v>0.240227</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.23065</v>
+                  <v>0.239058</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.229695</v>
+                  <v>0.23267</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.225523</v>
+                  <v>0.228838</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.220183</v>
+                  <v>0.226109</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.214482</v>
+                  <v>0.217271</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.213197</v>
+                  <v>0.214287</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.20784</v>
+                  <v>0.210084</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.20605</v>
+                  <v>0.205872</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.196259</v>
+                  <v>0.204331</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.192642</v>
+                  <v>0.196306</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.184251</v>
+                  <v>0.190208</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.250986</v>
+                  <v>0.252654</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.245772</v>
+                  <v>0.249049</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.241987</v>
+                  <v>0.244827</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.236316</v>
+                  <v>0.238337</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.231826</v>
+                  <v>0.238515</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.227194</v>
+                  <v>0.232862</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.222458</v>
+                  <v>0.227047</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.217457</v>
+                  <v>0.222339</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.214372</v>
+                  <v>0.21957</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.210274</v>
+                  <v>0.213402</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.20627</v>
+                  <v>0.20858</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.200192</v>
+                  <v>0.204488</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.194745</v>
+                  <v>0.19854</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.18837</v>
+                  <v>0.192177</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.254624</v>
+                  <v>0.256775</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.248775</v>
+                  <v>0.251364</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.243717</v>
+                  <v>0.246784</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.240383</v>
+                  <v>0.246178</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.234556</v>
+                  <v>0.237072</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.230145</v>
+                  <v>0.23329</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.225235</v>
+                  <v>0.233417</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.219808</v>
+                  <v>0.225758</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.215297</v>
+                  <v>0.219856</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.211256</v>
+                  <v>0.217922</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.20625</v>
+                  <v>0.210696</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.202095</v>
+                  <v>0.210967</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.19716</v>
+                  <v>0.205232</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.190723</v>
+                  <v>0.193988</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.182813</v>
+                  <v>0.188329</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.250289</v>
+                  <v>0.258109</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.245462</v>
+                  <v>0.24934</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.244162</v>
+                  <v>0.247222</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.235686</v>
+                  <v>0.241568</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.230489</v>
+                  <v>0.23843</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.22464</v>
+                  <v>0.229314</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.221092</v>
+                  <v>0.225429</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.216187</v>
+                  <v>0.222181</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.214206</v>
+                  <v>0.21614</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.20834</v>
+                  <v>0.212415</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.202784</v>
+                  <v>0.213257</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.197945</v>
+                  <v>0.202861</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.193113</v>
+                  <v>0.196589</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.183377</v>
+                  <v>0.185599</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.251444</v>
+                  <v>0.255036</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.246144</v>
+                  <v>0.247607</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.241434</v>
+                  <v>0.24613</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.236014</v>
+                  <v>0.240592</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.231517</v>
+                  <v>0.238926</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.226745</v>
+                  <v>0.229595</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.224993</v>
+                  <v>0.224673</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.216773</v>
+                  <v>0.223044</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.212638</v>
+                  <v>0.217529</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.207966</v>
+                  <v>0.21252</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.204295</v>
+                  <v>0.206817</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.206435</v>
+                  <v>0.205896</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.193464</v>
+                  <v>0.201806</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.187095</v>
+                  <v>0.189582</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.253377</v>
+                  <v>0.255017</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.247335</v>
+                  <v>0.25378</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.243032</v>
+                  <v>0.247895</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.238186</v>
+                  <v>0.241515</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.233121</v>
+                  <v>0.23719</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.228541</v>
+                  <v>0.232048</v>
                 </pt>
               </numCache>
             </numRef>
@@ -999,7 +999,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_map</v>
+                  <v>absl::node_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1462,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.502107</v>
+                  <v>0.460777</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.5006119999999999</v>
+                  <v>0.445997</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.498962</v>
+                  <v>0.459206</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.496633</v>
+                  <v>0.458185</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.494718</v>
+                  <v>0.438424</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.506548</v>
+                  <v>0.430058</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.5049360000000001</v>
+                  <v>0.426458</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.504868</v>
+                  <v>0.424885</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.50332</v>
+                  <v>0.473598</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.507477</v>
+                  <v>0.477705</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.5041330000000001</v>
+                  <v>0.464449</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.497195</v>
+                  <v>0.462943</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.499919</v>
+                  <v>0.461569</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.497429</v>
+                  <v>0.457299</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.496782</v>
+                  <v>0.446361</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.500474</v>
+                  <v>0.446429</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.500424</v>
+                  <v>0.449207</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.498476</v>
+                  <v>0.440107</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.5018010000000001</v>
+                  <v>0.440129</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.515447</v>
+                  <v>0.434266</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.5139359999999999</v>
+                  <v>0.432953</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.513336</v>
+                  <v>0.421787</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.512742</v>
+                  <v>0.47189</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.510589</v>
+                  <v>0.468059</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.51302</v>
+                  <v>0.46853</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.504677</v>
+                  <v>0.469884</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.502735</v>
+                  <v>0.458697</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.512801</v>
+                  <v>0.451148</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.501335</v>
+                  <v>0.453568</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.501688</v>
+                  <v>0.445685</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.502178</v>
+                  <v>0.446643</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.501458</v>
+                  <v>0.442199</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.499184</v>
+                  <v>0.447772</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.518954</v>
+                  <v>0.441487</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.521942</v>
+                  <v>0.437037</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.525392</v>
+                  <v>0.427689</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.526033</v>
+                  <v>0.484769</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.52864</v>
+                  <v>0.501544</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.525361</v>
+                  <v>0.494155</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.517136</v>
+                  <v>0.479296</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.5243679999999999</v>
+                  <v>0.475423</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.517375</v>
+                  <v>0.469303</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.528998</v>
+                  <v>0.463935</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.526396</v>
+                  <v>0.489146</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.528927</v>
+                  <v>0.48762</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.547241</v>
+                  <v>0.464018</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.527679</v>
+                  <v>0.459648</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.532845</v>
+                  <v>0.459348</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.628789</v>
+                  <v>0.45467</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.622676</v>
+                  <v>0.45674</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.615465</v>
+                  <v>0.450492</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.624749</v>
+                  <v>0.522523</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.616876</v>
+                  <v>0.520531</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.623501</v>
+                  <v>0.520712</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.614283</v>
+                  <v>0.523354</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.61565</v>
+                  <v>0.518311</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.618913</v>
+                  <v>0.516761</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.628996</v>
+                  <v>0.524002</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.606253</v>
+                  <v>0.51767</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.612415</v>
+                  <v>0.518825</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.610761</v>
+                  <v>0.51688</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.609867</v>
+                  <v>0.517658</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.721021</v>
+                  <v>0.525851</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.714454</v>
+                  <v>0.521079</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.7118409999999999</v>
+                  <v>0.528442</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.70016</v>
+                  <v>0.609992</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.702107</v>
+                  <v>0.59068</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.69113</v>
+                  <v>0.593595</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.691197</v>
+                  <v>0.583496</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.681631</v>
+                  <v>0.583687</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.689028</v>
+                  <v>0.577461</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.681468</v>
+                  <v>0.571252</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.67794</v>
+                  <v>0.570712</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.68302</v>
+                  <v>0.571105</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.669911</v>
+                  <v>0.567917</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.6695950000000001</v>
+                  <v>0.560519</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.760023</v>
+                  <v>0.563883</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.748567</v>
+                  <v>0.552416</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.75375</v>
+                  <v>0.548032</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.740901</v>
+                  <v>0.61199</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.7415</v>
+                  <v>0.6120989999999999</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.730185</v>
+                  <v>0.604765</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.747326</v>
+                  <v>0.630054</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.744178</v>
+                  <v>0.630482</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.7378400000000001</v>
+                  <v>0.617367</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.735252</v>
+                  <v>0.612532</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.7238599999999999</v>
+                  <v>0.605805</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.7204120000000001</v>
+                  <v>0.5973579999999999</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.72617</v>
+                  <v>0.598724</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.7198059999999999</v>
+                  <v>0.5939449999999999</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.673771</v>
+                  <v>0.583547</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.670077</v>
+                  <v>0.5868409999999999</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.661382</v>
+                  <v>0.577525</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.66004</v>
+                  <v>0.648076</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.659047</v>
+                  <v>0.635704</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.657829</v>
+                  <v>0.644799</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.655892</v>
+                  <v>0.631866</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.661209</v>
+                  <v>0.62068</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.665944</v>
+                  <v>0.61158</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.6570009999999999</v>
+                  <v>0.61773</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.655048</v>
+                  <v>0.612162</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.654564</v>
+                  <v>0.601687</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.653873</v>
+                  <v>0.61113</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.65147</v>
+                  <v>0.596843</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.651181</v>
+                  <v>0.591896</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.660647</v>
+                  <v>0.6037</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.659659</v>
+                  <v>0.581077</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.656309</v>
+                  <v>0.572963</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.6560319999999999</v>
+                  <v>0.631381</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.656046</v>
+                  <v>0.635464</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.65887</v>
+                  <v>0.621274</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.657583</v>
+                  <v>0.612325</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.659708</v>
+                  <v>0.62878</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.654518</v>
+                  <v>0.622763</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.651833</v>
+                  <v>0.60645</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.653213</v>
+                  <v>0.627032</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.651711</v>
+                  <v>0.608809</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.657219</v>
+                  <v>0.622106</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.654101</v>
+                  <v>0.590728</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.671771</v>
+                  <v>0.599851</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.671071</v>
+                  <v>0.584502</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.669064</v>
+                  <v>0.5653319999999999</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.669485</v>
+                  <v>0.622167</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.67267</v>
+                  <v>0.621993</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.6676530000000001</v>
+                  <v>0.613517</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.665565</v>
+                  <v>0.624713</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.671078</v>
+                  <v>0.606313</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.671783</v>
+                  <v>0.6119329999999999</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.662035</v>
+                  <v>0.605293</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.660537</v>
+                  <v>0.592381</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.659156</v>
+                  <v>0.5954930000000001</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.660763</v>
+                  <v>0.58095</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.656436</v>
+                  <v>0.613604</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.674702</v>
+                  <v>0.57912</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.676627</v>
+                  <v>0.579759</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.669192</v>
+                  <v>0.5950530000000001</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.668655</v>
+                  <v>0.636405</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.671811</v>
+                  <v>0.617932</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.670511</v>
+                  <v>0.619274</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.665723</v>
+                  <v>0.616381</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.667334</v>
+                  <v>0.612434</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.664041</v>
+                  <v>0.598869</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1901,7 +1901,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_flat_map</v>
+                  <v>boost::unordered_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2364,430 +2364,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.211685</v>
+                  <v>0.529659</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.21338</v>
+                  <v>0.528183</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.211705</v>
+                  <v>0.523292</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.210909</v>
+                  <v>0.5187079999999999</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.210917</v>
+                  <v>0.5100710000000001</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.21271</v>
+                  <v>0.515281</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.210738</v>
+                  <v>0.51807</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.218052</v>
+                  <v>0.510848</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.217523</v>
+                  <v>0.507852</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.222579</v>
+                  <v>0.512474</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217903</v>
+                  <v>0.518516</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.216469</v>
+                  <v>0.507116</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.216838</v>
+                  <v>0.5159049999999999</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.215689</v>
+                  <v>0.5066349999999999</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.218217</v>
+                  <v>0.503621</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.21697</v>
+                  <v>0.512709</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.217303</v>
+                  <v>0.504918</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.216231</v>
+                  <v>0.507262</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.21641</v>
+                  <v>0.511356</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.216712</v>
+                  <v>0.513802</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.218684</v>
+                  <v>0.517657</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.229255</v>
+                  <v>0.516114</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.227574</v>
+                  <v>0.515602</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.226654</v>
+                  <v>0.515752</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.22759</v>
+                  <v>0.5178700000000001</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.223094</v>
+                  <v>0.512458</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.222763</v>
+                  <v>0.5150169999999999</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.223316</v>
+                  <v>0.514635</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.221333</v>
+                  <v>0.516902</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.22077</v>
+                  <v>0.513245</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.220312</v>
+                  <v>0.521406</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.219665</v>
+                  <v>0.522787</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.218659</v>
+                  <v>0.514409</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.218096</v>
+                  <v>0.524143</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.217438</v>
+                  <v>0.534629</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.242857</v>
+                  <v>0.532654</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.240724</v>
+                  <v>0.536113</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.23863</v>
+                  <v>0.544169</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.237971</v>
+                  <v>0.536572</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.234741</v>
+                  <v>0.545306</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.236405</v>
+                  <v>0.533289</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.23213</v>
+                  <v>0.526741</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.230999</v>
+                  <v>0.562689</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.230195</v>
+                  <v>0.553223</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.228633</v>
+                  <v>0.556258</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.227258</v>
+                  <v>0.544477</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.225419</v>
+                  <v>0.539367</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.225537</v>
+                  <v>0.54183</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.223568</v>
+                  <v>0.632134</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.245189</v>
+                  <v>0.638538</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.242338</v>
+                  <v>0.621947</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239859</v>
+                  <v>0.625476</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.238965</v>
+                  <v>0.626588</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.235987</v>
+                  <v>0.636024</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.234899</v>
+                  <v>0.628965</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.232628</v>
+                  <v>0.623116</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.232045</v>
+                  <v>0.633575</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.230919</v>
+                  <v>0.639767</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.228296</v>
+                  <v>0.613869</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.228165</v>
+                  <v>0.642355</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.226627</v>
+                  <v>0.632529</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.225185</v>
+                  <v>0.617757</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.224525</v>
+                  <v>0.722415</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.223204</v>
+                  <v>0.730135</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.24952</v>
+                  <v>0.720926</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.244016</v>
+                  <v>0.7114470000000001</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.242677</v>
+                  <v>0.71497</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.241007</v>
+                  <v>0.710315</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.239826</v>
+                  <v>0.693693</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.23689</v>
+                  <v>0.689993</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.236107</v>
+                  <v>0.68194</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.233791</v>
+                  <v>0.68606</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.232233</v>
+                  <v>0.679911</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.233734</v>
+                  <v>0.683285</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.230734</v>
+                  <v>0.679884</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.22813</v>
+                  <v>0.671055</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.226031</v>
+                  <v>0.762989</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.226802</v>
+                  <v>0.7527430000000001</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.252608</v>
+                  <v>0.758639</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.250245</v>
+                  <v>0.74999</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.246785</v>
+                  <v>0.727529</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.245051</v>
+                  <v>0.715794</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.243501</v>
+                  <v>0.760704</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.240617</v>
+                  <v>0.746084</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.240141</v>
+                  <v>0.739976</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.240396</v>
+                  <v>0.741818</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.235727</v>
+                  <v>0.7391259999999999</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.235214</v>
+                  <v>0.725073</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.233402</v>
+                  <v>0.736564</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.231976</v>
+                  <v>0.7288210000000001</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.231693</v>
+                  <v>0.683154</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.23065</v>
+                  <v>0.678422</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.255331</v>
+                  <v>0.681076</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.25208</v>
+                  <v>0.6746529999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.25062</v>
+                  <v>0.683308</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.247666</v>
+                  <v>0.6893820000000001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.244811</v>
+                  <v>0.670978</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.242904</v>
+                  <v>0.677763</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.24251</v>
+                  <v>0.677025</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.239091</v>
+                  <v>0.666146</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.237944</v>
+                  <v>0.668512</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.236001</v>
+                  <v>0.675636</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.234847</v>
+                  <v>0.665151</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.23227</v>
+                  <v>0.670367</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.230759</v>
+                  <v>0.668446</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.230468</v>
+                  <v>0.669261</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.258495</v>
+                  <v>0.668834</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.252589</v>
+                  <v>0.682582</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.24968</v>
+                  <v>0.6839769999999999</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.247883</v>
+                  <v>0.665629</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.24556</v>
+                  <v>0.6710159999999999</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.243771</v>
+                  <v>0.683964</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.243049</v>
+                  <v>0.678538</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.241613</v>
+                  <v>0.666569</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.238263</v>
+                  <v>0.686298</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.235715</v>
+                  <v>0.675744</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.234431</v>
+                  <v>0.667975</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.233007</v>
+                  <v>0.666685</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.232091</v>
+                  <v>0.670737</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.229971</v>
+                  <v>0.684326</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.231498</v>
+                  <v>0.682739</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.25356</v>
+                  <v>0.690528</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.25119</v>
+                  <v>0.677462</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.251269</v>
+                  <v>0.68531</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.246836</v>
+                  <v>0.678496</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.24473</v>
+                  <v>0.6882239999999999</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.241776</v>
+                  <v>0.671073</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.241284</v>
+                  <v>0.674596</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.239052</v>
+                  <v>0.676527</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.236531</v>
+                  <v>0.683496</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.234705</v>
+                  <v>0.685407</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.236851</v>
+                  <v>0.675469</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.232522</v>
+                  <v>0.6646919999999999</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.23328</v>
+                  <v>0.679014</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.229237</v>
+                  <v>0.686209</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.254018</v>
+                  <v>0.684006</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.251198</v>
+                  <v>0.681562</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.252099</v>
+                  <v>0.682601</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.246524</v>
+                  <v>0.675934</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.24488</v>
+                  <v>0.676675</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.242526</v>
+                  <v>0.675979</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.240582</v>
+                  <v>0.671298</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2803,7 +2803,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_node_map</v>
+                  <v>boost::unordered_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3266,430 +3266,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.447046</v>
+                  <v>0.22254</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.448022</v>
+                  <v>0.22449</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.44485</v>
+                  <v>0.224964</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.443978</v>
+                  <v>0.220878</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.442298</v>
+                  <v>0.216866</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.442224</v>
+                  <v>0.225415</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.444396</v>
+                  <v>0.216445</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.45662</v>
+                  <v>0.219201</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.454741</v>
+                  <v>0.230168</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.455023</v>
+                  <v>0.21732</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.450144</v>
+                  <v>0.217564</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.449127</v>
+                  <v>0.217842</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.448572</v>
+                  <v>0.220959</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.447288</v>
+                  <v>0.220894</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.448887</v>
+                  <v>0.216871</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.455729</v>
+                  <v>0.217042</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.450055</v>
+                  <v>0.216437</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.451889</v>
+                  <v>0.21871</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.449429</v>
+                  <v>0.220297</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.451599</v>
+                  <v>0.216261</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.454918</v>
+                  <v>0.216123</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.462804</v>
+                  <v>0.23135</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.462649</v>
+                  <v>0.229692</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.461395</v>
+                  <v>0.225913</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.463634</v>
+                  <v>0.225827</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.456213</v>
+                  <v>0.226064</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.455083</v>
+                  <v>0.225785</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.455077</v>
+                  <v>0.22403</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.45343</v>
+                  <v>0.234477</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.451459</v>
+                  <v>0.221238</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.453885</v>
+                  <v>0.2216</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.453137</v>
+                  <v>0.222189</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.449694</v>
+                  <v>0.222545</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.449408</v>
+                  <v>0.223404</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.447036</v>
+                  <v>0.218245</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.467752</v>
+                  <v>0.24712</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.474837</v>
+                  <v>0.243272</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.465686</v>
+                  <v>0.243515</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.46467</v>
+                  <v>0.241188</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.463206</v>
+                  <v>0.238198</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.461956</v>
+                  <v>0.244213</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.46101</v>
+                  <v>0.237665</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.460922</v>
+                  <v>0.236348</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.46512</v>
+                  <v>0.234979</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.476689</v>
+                  <v>0.232761</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.461442</v>
+                  <v>0.230459</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.465427</v>
+                  <v>0.232913</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.467718</v>
+                  <v>0.230479</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.462058</v>
+                  <v>0.229352</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.483985</v>
+                  <v>0.248724</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.485229</v>
+                  <v>0.245003</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.491584</v>
+                  <v>0.24334</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.488093</v>
+                  <v>0.239979</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.503013</v>
+                  <v>0.239148</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.495892</v>
+                  <v>0.238854</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.498388</v>
+                  <v>0.233682</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.5033879999999999</v>
+                  <v>0.235629</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.5050480000000001</v>
+                  <v>0.23118</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.505205</v>
+                  <v>0.232759</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.510821</v>
+                  <v>0.232005</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.512585</v>
+                  <v>0.227571</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.514104</v>
+                  <v>0.227124</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.521716</v>
+                  <v>0.225107</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.538193</v>
+                  <v>0.224922</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.555603</v>
+                  <v>0.247994</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.554598</v>
+                  <v>0.24681</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.560214</v>
+                  <v>0.243575</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.562288</v>
+                  <v>0.246253</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.558151</v>
+                  <v>0.242914</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.556016</v>
+                  <v>0.237264</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.562788</v>
+                  <v>0.23728</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.565177</v>
+                  <v>0.237375</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.554074</v>
+                  <v>0.232874</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.552999</v>
+                  <v>0.235647</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.553767</v>
+                  <v>0.231129</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.55174</v>
+                  <v>0.229585</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.551433</v>
+                  <v>0.230845</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.550138</v>
+                  <v>0.233656</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.569308</v>
+                  <v>0.256029</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.5714939999999999</v>
+                  <v>0.255946</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.566766</v>
+                  <v>0.251501</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.564601</v>
+                  <v>0.249398</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.589464</v>
+                  <v>0.245769</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.585103</v>
+                  <v>0.243387</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.585552</v>
+                  <v>0.242935</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.586755</v>
+                  <v>0.240714</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.582778</v>
+                  <v>0.241079</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.581628</v>
+                  <v>0.238897</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.581693</v>
+                  <v>0.237593</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.580348</v>
+                  <v>0.234348</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.577103</v>
+                  <v>0.2312</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.580203</v>
+                  <v>0.230225</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.5930029999999999</v>
+                  <v>0.256276</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.597736</v>
+                  <v>0.255987</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.600268</v>
+                  <v>0.250748</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.590539</v>
+                  <v>0.249501</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.5852810000000001</v>
+                  <v>0.250954</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.585129</v>
+                  <v>0.245328</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.5878</v>
+                  <v>0.242676</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.5842810000000001</v>
+                  <v>0.242038</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.582747</v>
+                  <v>0.241046</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.581835</v>
+                  <v>0.239837</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.5787330000000001</v>
+                  <v>0.23712</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.578022</v>
+                  <v>0.233958</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.576474</v>
+                  <v>0.23317</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.58036</v>
+                  <v>0.236798</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.594217</v>
+                  <v>0.258153</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.596143</v>
+                  <v>0.257726</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.5938369999999999</v>
+                  <v>0.254448</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.591947</v>
+                  <v>0.253297</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.591439</v>
+                  <v>0.250989</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.5920530000000001</v>
+                  <v>0.249004</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.5887289999999999</v>
+                  <v>0.249375</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.586234</v>
+                  <v>0.245966</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.586338</v>
+                  <v>0.247182</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.582596</v>
+                  <v>0.239572</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.581292</v>
+                  <v>0.237612</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.579718</v>
+                  <v>0.240024</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.582766</v>
+                  <v>0.237866</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.579866</v>
+                  <v>0.241872</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.581983</v>
+                  <v>0.237485</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.599707</v>
+                  <v>0.255626</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.593815</v>
+                  <v>0.254268</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.5938020000000001</v>
+                  <v>0.253091</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.590955</v>
+                  <v>0.249264</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.5884779999999999</v>
+                  <v>0.250767</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.5889</v>
+                  <v>0.24914</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.587322</v>
+                  <v>0.245908</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.588266</v>
+                  <v>0.240544</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.587197</v>
+                  <v>0.238247</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.583209</v>
+                  <v>0.242374</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.584075</v>
+                  <v>0.237454</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.5801190000000001</v>
+                  <v>0.237666</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.579417</v>
+                  <v>0.233657</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.57859</v>
+                  <v>0.232439</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.596047</v>
+                  <v>0.256535</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.5979409999999999</v>
+                  <v>0.255961</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.593145</v>
+                  <v>0.258928</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.590884</v>
+                  <v>0.251788</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.589798</v>
+                  <v>0.247447</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.589324</v>
+                  <v>0.245232</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.587085</v>
+                  <v>0.243354</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>plot!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$F$2:$F$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.460608</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.476499</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.471196</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.464229</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.456572</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.463271</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.455533</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.471108</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.466855</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.467192</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.456688</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.458925</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.468311</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.460655</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.457332</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.465785</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.449484</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.457404</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.452987</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.452678</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.463388</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.469927</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.479196</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.46983</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.461524</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.464874</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.463344</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.464224</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.456133</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.460267</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.456874</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.463122</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.459611</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.454439</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.463719</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.489346</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.476687</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.489871</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.481604</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.479992</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.476449</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.472404</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.502456</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.502152</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.478079</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.474188</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.477557</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.481958</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.479923</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.504129</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.497338</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.514593</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.51208</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.510845</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.517741</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.51639</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.517743</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.511359</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.535203</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.528896</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.531515</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.527274</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.532742</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.540591</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.57694</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.574135</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.577468</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.578466</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.56914</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.565971</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.5772890000000001</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.566839</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.568087</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.568845</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.575115</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.567126</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.564313</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.561268</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.592975</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.589645</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.583723</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.574477</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.602877</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.595396</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.60451</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.610128</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.595933</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.596235</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.591819</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.58485</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.592475</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.584232</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.6045469999999999</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.604385</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.60312</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.608035</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.603641</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.6065469999999999</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.612038</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.596415</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.601567</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.600422</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.595719</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.592011</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.59037</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.591507</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.614821</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.625186</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.6069099999999999</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.6005779999999999</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.602324</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.602253</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.602957</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.602471</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.603587</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.596623</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.615918</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.604459</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.591317</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.595767</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.5839259999999999</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.617027</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.605172</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.604303</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.606806</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.5984969999999999</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.602642</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.612227</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.596413</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.59737</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.607421</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.594732</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.598515</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.585888</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.622773</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.619228</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.605853</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.603729</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.606841</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.600959</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.6147820000000001</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.6082959999999999</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3793,7 +4695,7 @@
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
           <w val="0.3308817338426756"/>
-          <h val="0.2472877044215627"/>
+          <h val="0.3091096305269533"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -4143,7 +5045,7 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4159,15 +5061,20 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>absl::node_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::unordered_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::unordered_flat_map</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>boost::unordered_node_map</t>
         </is>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.204954</v>
+        <v>0.193303</v>
       </c>
       <c r="C2" t="n">
-        <v>0.460777</v>
+        <v>0.445885</v>
       </c>
       <c r="D2" t="n">
-        <v>0.529659</v>
+        <v>0.502088</v>
       </c>
       <c r="E2" t="n">
-        <v>0.22254</v>
+        <v>0.213075</v>
       </c>
       <c r="F2" t="n">
-        <v>0.460608</v>
+        <v>0.453865</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.193623</v>
+        <v>0.187929</v>
       </c>
       <c r="C3" t="n">
-        <v>0.445997</v>
+        <v>0.445058</v>
       </c>
       <c r="D3" t="n">
-        <v>0.528183</v>
+        <v>0.520174</v>
       </c>
       <c r="E3" t="n">
-        <v>0.22449</v>
+        <v>0.213183</v>
       </c>
       <c r="F3" t="n">
-        <v>0.476499</v>
+        <v>0.455454</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.194788</v>
+        <v>0.18804</v>
       </c>
       <c r="C4" t="n">
-        <v>0.459206</v>
+        <v>0.438938</v>
       </c>
       <c r="D4" t="n">
-        <v>0.523292</v>
+        <v>0.51102</v>
       </c>
       <c r="E4" t="n">
-        <v>0.224964</v>
+        <v>0.212791</v>
       </c>
       <c r="F4" t="n">
-        <v>0.471196</v>
+        <v>0.45355</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.193196</v>
+        <v>0.186032</v>
       </c>
       <c r="C5" t="n">
-        <v>0.458185</v>
+        <v>0.440772</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5187079999999999</v>
+        <v>0.503462</v>
       </c>
       <c r="E5" t="n">
-        <v>0.220878</v>
+        <v>0.212464</v>
       </c>
       <c r="F5" t="n">
-        <v>0.464229</v>
+        <v>0.460437</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.188169</v>
+        <v>0.184536</v>
       </c>
       <c r="C6" t="n">
-        <v>0.438424</v>
+        <v>0.43578</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5100710000000001</v>
+        <v>0.503461</v>
       </c>
       <c r="E6" t="n">
-        <v>0.216866</v>
+        <v>0.213503</v>
       </c>
       <c r="F6" t="n">
-        <v>0.456572</v>
+        <v>0.451325</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.183744</v>
+        <v>0.181316</v>
       </c>
       <c r="C7" t="n">
-        <v>0.430058</v>
+        <v>0.430461</v>
       </c>
       <c r="D7" t="n">
-        <v>0.515281</v>
+        <v>0.528396</v>
       </c>
       <c r="E7" t="n">
-        <v>0.225415</v>
+        <v>0.211767</v>
       </c>
       <c r="F7" t="n">
-        <v>0.463271</v>
+        <v>0.450304</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.17757</v>
+        <v>0.177817</v>
       </c>
       <c r="C8" t="n">
-        <v>0.426458</v>
+        <v>0.424545</v>
       </c>
       <c r="D8" t="n">
-        <v>0.51807</v>
+        <v>0.5345220000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.216445</v>
+        <v>0.217107</v>
       </c>
       <c r="F8" t="n">
-        <v>0.455533</v>
+        <v>0.447175</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.172558</v>
+        <v>0.165777</v>
       </c>
       <c r="C9" t="n">
-        <v>0.424885</v>
+        <v>0.41604</v>
       </c>
       <c r="D9" t="n">
-        <v>0.510848</v>
+        <v>0.527308</v>
       </c>
       <c r="E9" t="n">
-        <v>0.219201</v>
+        <v>0.225396</v>
       </c>
       <c r="F9" t="n">
-        <v>0.471108</v>
+        <v>0.464692</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.218571</v>
+        <v>0.218667</v>
       </c>
       <c r="C10" t="n">
-        <v>0.473598</v>
+        <v>0.468425</v>
       </c>
       <c r="D10" t="n">
-        <v>0.507852</v>
+        <v>0.510342</v>
       </c>
       <c r="E10" t="n">
-        <v>0.230168</v>
+        <v>0.219877</v>
       </c>
       <c r="F10" t="n">
-        <v>0.466855</v>
+        <v>0.467203</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.216965</v>
+        <v>0.213842</v>
       </c>
       <c r="C11" t="n">
-        <v>0.477705</v>
+        <v>0.465418</v>
       </c>
       <c r="D11" t="n">
-        <v>0.512474</v>
+        <v>0.515406</v>
       </c>
       <c r="E11" t="n">
-        <v>0.21732</v>
+        <v>0.219925</v>
       </c>
       <c r="F11" t="n">
-        <v>0.467192</v>
+        <v>0.462703</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.210671</v>
+        <v>0.212804</v>
       </c>
       <c r="C12" t="n">
-        <v>0.464449</v>
+        <v>0.461039</v>
       </c>
       <c r="D12" t="n">
-        <v>0.518516</v>
+        <v>0.507154</v>
       </c>
       <c r="E12" t="n">
-        <v>0.217564</v>
+        <v>0.218886</v>
       </c>
       <c r="F12" t="n">
-        <v>0.456688</v>
+        <v>0.464132</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.210533</v>
+        <v>0.206851</v>
       </c>
       <c r="C13" t="n">
-        <v>0.462943</v>
+        <v>0.454522</v>
       </c>
       <c r="D13" t="n">
-        <v>0.507116</v>
+        <v>0.510278</v>
       </c>
       <c r="E13" t="n">
-        <v>0.217842</v>
+        <v>0.218692</v>
       </c>
       <c r="F13" t="n">
-        <v>0.458925</v>
+        <v>0.460611</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.210384</v>
+        <v>0.208024</v>
       </c>
       <c r="C14" t="n">
-        <v>0.461569</v>
+        <v>0.459953</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5159049999999999</v>
+        <v>0.507615</v>
       </c>
       <c r="E14" t="n">
-        <v>0.220959</v>
+        <v>0.219144</v>
       </c>
       <c r="F14" t="n">
-        <v>0.468311</v>
+        <v>0.45743</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.203988</v>
+        <v>0.202129</v>
       </c>
       <c r="C15" t="n">
-        <v>0.457299</v>
+        <v>0.450737</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5066349999999999</v>
+        <v>0.514038</v>
       </c>
       <c r="E15" t="n">
-        <v>0.220894</v>
+        <v>0.22171</v>
       </c>
       <c r="F15" t="n">
-        <v>0.460655</v>
+        <v>0.457918</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.199247</v>
+        <v>0.203048</v>
       </c>
       <c r="C16" t="n">
-        <v>0.446361</v>
+        <v>0.448145</v>
       </c>
       <c r="D16" t="n">
-        <v>0.503621</v>
+        <v>0.504516</v>
       </c>
       <c r="E16" t="n">
-        <v>0.216871</v>
+        <v>0.218901</v>
       </c>
       <c r="F16" t="n">
-        <v>0.457332</v>
+        <v>0.459509</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.203409</v>
+        <v>0.197951</v>
       </c>
       <c r="C17" t="n">
-        <v>0.446429</v>
+        <v>0.44882</v>
       </c>
       <c r="D17" t="n">
-        <v>0.512709</v>
+        <v>0.502185</v>
       </c>
       <c r="E17" t="n">
-        <v>0.217042</v>
+        <v>0.217354</v>
       </c>
       <c r="F17" t="n">
-        <v>0.465785</v>
+        <v>0.468204</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.197708</v>
+        <v>0.192303</v>
       </c>
       <c r="C18" t="n">
-        <v>0.449207</v>
+        <v>0.437952</v>
       </c>
       <c r="D18" t="n">
-        <v>0.504918</v>
+        <v>0.500797</v>
       </c>
       <c r="E18" t="n">
-        <v>0.216437</v>
+        <v>0.217688</v>
       </c>
       <c r="F18" t="n">
-        <v>0.449484</v>
+        <v>0.455244</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.190929</v>
+        <v>0.190017</v>
       </c>
       <c r="C19" t="n">
-        <v>0.440107</v>
+        <v>0.434114</v>
       </c>
       <c r="D19" t="n">
-        <v>0.507262</v>
+        <v>0.51256</v>
       </c>
       <c r="E19" t="n">
-        <v>0.21871</v>
+        <v>0.216535</v>
       </c>
       <c r="F19" t="n">
-        <v>0.457404</v>
+        <v>0.456402</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.190203</v>
+        <v>0.188808</v>
       </c>
       <c r="C20" t="n">
-        <v>0.440129</v>
+        <v>0.437229</v>
       </c>
       <c r="D20" t="n">
-        <v>0.511356</v>
+        <v>0.511621</v>
       </c>
       <c r="E20" t="n">
-        <v>0.220297</v>
+        <v>0.220187</v>
       </c>
       <c r="F20" t="n">
-        <v>0.452987</v>
+        <v>0.459839</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.184835</v>
+        <v>0.184575</v>
       </c>
       <c r="C21" t="n">
-        <v>0.434266</v>
+        <v>0.428483</v>
       </c>
       <c r="D21" t="n">
-        <v>0.513802</v>
+        <v>0.514157</v>
       </c>
       <c r="E21" t="n">
-        <v>0.216261</v>
+        <v>0.215192</v>
       </c>
       <c r="F21" t="n">
-        <v>0.452678</v>
+        <v>0.45528</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.179595</v>
+        <v>0.179181</v>
       </c>
       <c r="C22" t="n">
-        <v>0.432953</v>
+        <v>0.42938</v>
       </c>
       <c r="D22" t="n">
-        <v>0.517657</v>
+        <v>0.514899</v>
       </c>
       <c r="E22" t="n">
-        <v>0.216123</v>
+        <v>0.218037</v>
       </c>
       <c r="F22" t="n">
-        <v>0.463388</v>
+        <v>0.450551</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.176156</v>
+        <v>0.171888</v>
       </c>
       <c r="C23" t="n">
-        <v>0.421787</v>
+        <v>0.418017</v>
       </c>
       <c r="D23" t="n">
-        <v>0.516114</v>
+        <v>0.5139359999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.23135</v>
+        <v>0.230022</v>
       </c>
       <c r="F23" t="n">
-        <v>0.469927</v>
+        <v>0.479144</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.229177</v>
+        <v>0.228966</v>
       </c>
       <c r="C24" t="n">
-        <v>0.47189</v>
+        <v>0.473149</v>
       </c>
       <c r="D24" t="n">
-        <v>0.515602</v>
+        <v>0.515633</v>
       </c>
       <c r="E24" t="n">
-        <v>0.229692</v>
+        <v>0.227731</v>
       </c>
       <c r="F24" t="n">
-        <v>0.479196</v>
+        <v>0.467815</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.226245</v>
+        <v>0.225897</v>
       </c>
       <c r="C25" t="n">
-        <v>0.468059</v>
+        <v>0.466378</v>
       </c>
       <c r="D25" t="n">
-        <v>0.515752</v>
+        <v>0.52122</v>
       </c>
       <c r="E25" t="n">
-        <v>0.225913</v>
+        <v>0.228203</v>
       </c>
       <c r="F25" t="n">
-        <v>0.46983</v>
+        <v>0.466111</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.220925</v>
+        <v>0.224562</v>
       </c>
       <c r="C26" t="n">
-        <v>0.46853</v>
+        <v>0.471661</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5178700000000001</v>
+        <v>0.51088</v>
       </c>
       <c r="E26" t="n">
-        <v>0.225827</v>
+        <v>0.227295</v>
       </c>
       <c r="F26" t="n">
-        <v>0.461524</v>
+        <v>0.461572</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.220292</v>
+        <v>0.219212</v>
       </c>
       <c r="C27" t="n">
-        <v>0.469884</v>
+        <v>0.467317</v>
       </c>
       <c r="D27" t="n">
-        <v>0.512458</v>
+        <v>0.516492</v>
       </c>
       <c r="E27" t="n">
-        <v>0.226064</v>
+        <v>0.225448</v>
       </c>
       <c r="F27" t="n">
-        <v>0.464874</v>
+        <v>0.46447</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.216597</v>
+        <v>0.214738</v>
       </c>
       <c r="C28" t="n">
-        <v>0.458697</v>
+        <v>0.459463</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5150169999999999</v>
+        <v>0.505603</v>
       </c>
       <c r="E28" t="n">
-        <v>0.225785</v>
+        <v>0.229479</v>
       </c>
       <c r="F28" t="n">
-        <v>0.463344</v>
+        <v>0.467568</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.21304</v>
+        <v>0.211227</v>
       </c>
       <c r="C29" t="n">
-        <v>0.451148</v>
+        <v>0.45454</v>
       </c>
       <c r="D29" t="n">
-        <v>0.514635</v>
+        <v>0.509274</v>
       </c>
       <c r="E29" t="n">
-        <v>0.22403</v>
+        <v>0.224383</v>
       </c>
       <c r="F29" t="n">
-        <v>0.464224</v>
+        <v>0.462145</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.209562</v>
+        <v>0.20763</v>
       </c>
       <c r="C30" t="n">
-        <v>0.453568</v>
+        <v>0.454171</v>
       </c>
       <c r="D30" t="n">
-        <v>0.516902</v>
+        <v>0.5072140000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>0.234477</v>
+        <v>0.224737</v>
       </c>
       <c r="F30" t="n">
-        <v>0.456133</v>
+        <v>0.459536</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.206447</v>
+        <v>0.203659</v>
       </c>
       <c r="C31" t="n">
-        <v>0.445685</v>
+        <v>0.44876</v>
       </c>
       <c r="D31" t="n">
-        <v>0.513245</v>
+        <v>0.505928</v>
       </c>
       <c r="E31" t="n">
-        <v>0.221238</v>
+        <v>0.222249</v>
       </c>
       <c r="F31" t="n">
-        <v>0.460267</v>
+        <v>0.462509</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.201624</v>
+        <v>0.201426</v>
       </c>
       <c r="C32" t="n">
-        <v>0.446643</v>
+        <v>0.446812</v>
       </c>
       <c r="D32" t="n">
-        <v>0.521406</v>
+        <v>0.518796</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2216</v>
+        <v>0.222413</v>
       </c>
       <c r="F32" t="n">
-        <v>0.456874</v>
+        <v>0.462307</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.199848</v>
+        <v>0.198127</v>
       </c>
       <c r="C33" t="n">
-        <v>0.442199</v>
+        <v>0.442137</v>
       </c>
       <c r="D33" t="n">
-        <v>0.522787</v>
+        <v>0.504114</v>
       </c>
       <c r="E33" t="n">
-        <v>0.222189</v>
+        <v>0.220517</v>
       </c>
       <c r="F33" t="n">
-        <v>0.463122</v>
+        <v>0.459658</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.194939</v>
+        <v>0.193882</v>
       </c>
       <c r="C34" t="n">
-        <v>0.447772</v>
+        <v>0.438256</v>
       </c>
       <c r="D34" t="n">
-        <v>0.514409</v>
+        <v>0.508948</v>
       </c>
       <c r="E34" t="n">
-        <v>0.222545</v>
+        <v>0.222681</v>
       </c>
       <c r="F34" t="n">
-        <v>0.459611</v>
+        <v>0.462506</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.192823</v>
+        <v>0.191174</v>
       </c>
       <c r="C35" t="n">
-        <v>0.441487</v>
+        <v>0.443907</v>
       </c>
       <c r="D35" t="n">
-        <v>0.524143</v>
+        <v>0.5264450000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>0.223404</v>
+        <v>0.21939</v>
       </c>
       <c r="F35" t="n">
-        <v>0.454439</v>
+        <v>0.459153</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.186161</v>
+        <v>0.190043</v>
       </c>
       <c r="C36" t="n">
-        <v>0.437037</v>
+        <v>0.43195</v>
       </c>
       <c r="D36" t="n">
-        <v>0.534629</v>
+        <v>0.536184</v>
       </c>
       <c r="E36" t="n">
-        <v>0.218245</v>
+        <v>0.219222</v>
       </c>
       <c r="F36" t="n">
-        <v>0.463719</v>
+        <v>0.456652</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.180526</v>
+        <v>0.178253</v>
       </c>
       <c r="C37" t="n">
-        <v>0.427689</v>
+        <v>0.426147</v>
       </c>
       <c r="D37" t="n">
-        <v>0.532654</v>
+        <v>0.5303369999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>0.24712</v>
+        <v>0.245325</v>
       </c>
       <c r="F37" t="n">
-        <v>0.489346</v>
+        <v>0.475562</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.237237</v>
+        <v>0.2313</v>
       </c>
       <c r="C38" t="n">
-        <v>0.484769</v>
+        <v>0.491762</v>
       </c>
       <c r="D38" t="n">
-        <v>0.536113</v>
+        <v>0.5252289999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>0.243272</v>
+        <v>0.243298</v>
       </c>
       <c r="F38" t="n">
-        <v>0.476687</v>
+        <v>0.479484</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.231298</v>
+        <v>0.232037</v>
       </c>
       <c r="C39" t="n">
-        <v>0.501544</v>
+        <v>0.483431</v>
       </c>
       <c r="D39" t="n">
-        <v>0.544169</v>
+        <v>0.524735</v>
       </c>
       <c r="E39" t="n">
-        <v>0.243515</v>
+        <v>0.240199</v>
       </c>
       <c r="F39" t="n">
-        <v>0.489871</v>
+        <v>0.47691</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.228359</v>
+        <v>0.2281</v>
       </c>
       <c r="C40" t="n">
-        <v>0.494155</v>
+        <v>0.47562</v>
       </c>
       <c r="D40" t="n">
-        <v>0.536572</v>
+        <v>0.533738</v>
       </c>
       <c r="E40" t="n">
-        <v>0.241188</v>
+        <v>0.237676</v>
       </c>
       <c r="F40" t="n">
-        <v>0.481604</v>
+        <v>0.479051</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.233949</v>
+        <v>0.223237</v>
       </c>
       <c r="C41" t="n">
-        <v>0.479296</v>
+        <v>0.490912</v>
       </c>
       <c r="D41" t="n">
-        <v>0.545306</v>
+        <v>0.533641</v>
       </c>
       <c r="E41" t="n">
-        <v>0.238198</v>
+        <v>0.238535</v>
       </c>
       <c r="F41" t="n">
-        <v>0.479992</v>
+        <v>0.48006</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.222079</v>
+        <v>0.217086</v>
       </c>
       <c r="C42" t="n">
-        <v>0.475423</v>
+        <v>0.487205</v>
       </c>
       <c r="D42" t="n">
-        <v>0.533289</v>
+        <v>0.531945</v>
       </c>
       <c r="E42" t="n">
-        <v>0.244213</v>
+        <v>0.237954</v>
       </c>
       <c r="F42" t="n">
-        <v>0.476449</v>
+        <v>0.486848</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.214965</v>
+        <v>0.217403</v>
       </c>
       <c r="C43" t="n">
-        <v>0.469303</v>
+        <v>0.486205</v>
       </c>
       <c r="D43" t="n">
-        <v>0.526741</v>
+        <v>0.531617</v>
       </c>
       <c r="E43" t="n">
-        <v>0.237665</v>
+        <v>0.233007</v>
       </c>
       <c r="F43" t="n">
-        <v>0.472404</v>
+        <v>0.486256</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.214876</v>
+        <v>0.211039</v>
       </c>
       <c r="C44" t="n">
-        <v>0.463935</v>
+        <v>0.490175</v>
       </c>
       <c r="D44" t="n">
-        <v>0.562689</v>
+        <v>0.541611</v>
       </c>
       <c r="E44" t="n">
-        <v>0.236348</v>
+        <v>0.231851</v>
       </c>
       <c r="F44" t="n">
-        <v>0.502456</v>
+        <v>0.471556</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.210383</v>
+        <v>0.208637</v>
       </c>
       <c r="C45" t="n">
-        <v>0.489146</v>
+        <v>0.45786</v>
       </c>
       <c r="D45" t="n">
-        <v>0.553223</v>
+        <v>0.524585</v>
       </c>
       <c r="E45" t="n">
-        <v>0.234979</v>
+        <v>0.232173</v>
       </c>
       <c r="F45" t="n">
-        <v>0.502152</v>
+        <v>0.477299</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.204553</v>
+        <v>0.204804</v>
       </c>
       <c r="C46" t="n">
-        <v>0.48762</v>
+        <v>0.489485</v>
       </c>
       <c r="D46" t="n">
-        <v>0.556258</v>
+        <v>0.545539</v>
       </c>
       <c r="E46" t="n">
-        <v>0.232761</v>
+        <v>0.228991</v>
       </c>
       <c r="F46" t="n">
-        <v>0.478079</v>
+        <v>0.493181</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.203265</v>
+        <v>0.202397</v>
       </c>
       <c r="C47" t="n">
-        <v>0.464018</v>
+        <v>0.495517</v>
       </c>
       <c r="D47" t="n">
-        <v>0.544477</v>
+        <v>0.5509039999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>0.230459</v>
+        <v>0.227468</v>
       </c>
       <c r="F47" t="n">
-        <v>0.474188</v>
+        <v>0.492018</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.199025</v>
+        <v>0.199111</v>
       </c>
       <c r="C48" t="n">
-        <v>0.459648</v>
+        <v>0.492032</v>
       </c>
       <c r="D48" t="n">
-        <v>0.539367</v>
+        <v>0.53176</v>
       </c>
       <c r="E48" t="n">
-        <v>0.232913</v>
+        <v>0.229064</v>
       </c>
       <c r="F48" t="n">
-        <v>0.477557</v>
+        <v>0.476889</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.198178</v>
+        <v>0.195274</v>
       </c>
       <c r="C49" t="n">
-        <v>0.459348</v>
+        <v>0.450862</v>
       </c>
       <c r="D49" t="n">
-        <v>0.54183</v>
+        <v>0.528308</v>
       </c>
       <c r="E49" t="n">
-        <v>0.230479</v>
+        <v>0.226997</v>
       </c>
       <c r="F49" t="n">
-        <v>0.481958</v>
+        <v>0.477905</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.19566</v>
+        <v>0.190205</v>
       </c>
       <c r="C50" t="n">
-        <v>0.45467</v>
+        <v>0.451824</v>
       </c>
       <c r="D50" t="n">
-        <v>0.632134</v>
+        <v>0.629838</v>
       </c>
       <c r="E50" t="n">
-        <v>0.229352</v>
+        <v>0.226054</v>
       </c>
       <c r="F50" t="n">
-        <v>0.479923</v>
+        <v>0.473542</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.186061</v>
+        <v>0.184926</v>
       </c>
       <c r="C51" t="n">
-        <v>0.45674</v>
+        <v>0.451025</v>
       </c>
       <c r="D51" t="n">
-        <v>0.638538</v>
+        <v>0.63486</v>
       </c>
       <c r="E51" t="n">
-        <v>0.248724</v>
+        <v>0.248308</v>
       </c>
       <c r="F51" t="n">
-        <v>0.504129</v>
+        <v>0.497258</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175435</v>
+        <v>0.176301</v>
       </c>
       <c r="C52" t="n">
-        <v>0.450492</v>
+        <v>0.447357</v>
       </c>
       <c r="D52" t="n">
-        <v>0.621947</v>
+        <v>0.612456</v>
       </c>
       <c r="E52" t="n">
-        <v>0.245003</v>
+        <v>0.242786</v>
       </c>
       <c r="F52" t="n">
-        <v>0.497338</v>
+        <v>0.503227</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.241201</v>
+        <v>0.236178</v>
       </c>
       <c r="C53" t="n">
-        <v>0.522523</v>
+        <v>0.505607</v>
       </c>
       <c r="D53" t="n">
-        <v>0.625476</v>
+        <v>0.615619</v>
       </c>
       <c r="E53" t="n">
-        <v>0.24334</v>
+        <v>0.241363</v>
       </c>
       <c r="F53" t="n">
-        <v>0.514593</v>
+        <v>0.498774</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.234764</v>
+        <v>0.232917</v>
       </c>
       <c r="C54" t="n">
-        <v>0.520531</v>
+        <v>0.510305</v>
       </c>
       <c r="D54" t="n">
-        <v>0.626588</v>
+        <v>0.614368</v>
       </c>
       <c r="E54" t="n">
-        <v>0.239979</v>
+        <v>0.24048</v>
       </c>
       <c r="F54" t="n">
-        <v>0.51208</v>
+        <v>0.500407</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.233314</v>
+        <v>0.230253</v>
       </c>
       <c r="C55" t="n">
-        <v>0.520712</v>
+        <v>0.509364</v>
       </c>
       <c r="D55" t="n">
-        <v>0.636024</v>
+        <v>0.610923</v>
       </c>
       <c r="E55" t="n">
-        <v>0.239148</v>
+        <v>0.242031</v>
       </c>
       <c r="F55" t="n">
-        <v>0.510845</v>
+        <v>0.501968</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.224948</v>
+        <v>0.226455</v>
       </c>
       <c r="C56" t="n">
-        <v>0.523354</v>
+        <v>0.51114</v>
       </c>
       <c r="D56" t="n">
-        <v>0.628965</v>
+        <v>0.625769</v>
       </c>
       <c r="E56" t="n">
-        <v>0.238854</v>
+        <v>0.236699</v>
       </c>
       <c r="F56" t="n">
-        <v>0.517741</v>
+        <v>0.502417</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.226157</v>
+        <v>0.220763</v>
       </c>
       <c r="C57" t="n">
-        <v>0.518311</v>
+        <v>0.508063</v>
       </c>
       <c r="D57" t="n">
-        <v>0.623116</v>
+        <v>0.616893</v>
       </c>
       <c r="E57" t="n">
-        <v>0.233682</v>
+        <v>0.234679</v>
       </c>
       <c r="F57" t="n">
-        <v>0.51639</v>
+        <v>0.505284</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.219253</v>
+        <v>0.219688</v>
       </c>
       <c r="C58" t="n">
-        <v>0.516761</v>
+        <v>0.511683</v>
       </c>
       <c r="D58" t="n">
-        <v>0.633575</v>
+        <v>0.615662</v>
       </c>
       <c r="E58" t="n">
-        <v>0.235629</v>
+        <v>0.23229</v>
       </c>
       <c r="F58" t="n">
-        <v>0.517743</v>
+        <v>0.515467</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.214811</v>
+        <v>0.212186</v>
       </c>
       <c r="C59" t="n">
-        <v>0.524002</v>
+        <v>0.519802</v>
       </c>
       <c r="D59" t="n">
-        <v>0.639767</v>
+        <v>0.615344</v>
       </c>
       <c r="E59" t="n">
-        <v>0.23118</v>
+        <v>0.230728</v>
       </c>
       <c r="F59" t="n">
-        <v>0.511359</v>
+        <v>0.518903</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.210114</v>
+        <v>0.208527</v>
       </c>
       <c r="C60" t="n">
-        <v>0.51767</v>
+        <v>0.561097</v>
       </c>
       <c r="D60" t="n">
-        <v>0.613869</v>
+        <v>0.634233</v>
       </c>
       <c r="E60" t="n">
-        <v>0.232759</v>
+        <v>0.232625</v>
       </c>
       <c r="F60" t="n">
-        <v>0.535203</v>
+        <v>0.515711</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.205597</v>
+        <v>0.206192</v>
       </c>
       <c r="C61" t="n">
-        <v>0.518825</v>
+        <v>0.5184299999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.642355</v>
+        <v>0.611652</v>
       </c>
       <c r="E61" t="n">
-        <v>0.232005</v>
+        <v>0.22905</v>
       </c>
       <c r="F61" t="n">
-        <v>0.528896</v>
+        <v>0.519302</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.203914</v>
+        <v>0.20281</v>
       </c>
       <c r="C62" t="n">
-        <v>0.51688</v>
+        <v>0.519795</v>
       </c>
       <c r="D62" t="n">
-        <v>0.632529</v>
+        <v>0.636753</v>
       </c>
       <c r="E62" t="n">
-        <v>0.227571</v>
+        <v>0.230063</v>
       </c>
       <c r="F62" t="n">
-        <v>0.531515</v>
+        <v>0.541574</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.199747</v>
+        <v>0.197891</v>
       </c>
       <c r="C63" t="n">
-        <v>0.517658</v>
+        <v>0.550307</v>
       </c>
       <c r="D63" t="n">
-        <v>0.617757</v>
+        <v>0.6226</v>
       </c>
       <c r="E63" t="n">
-        <v>0.227124</v>
+        <v>0.226304</v>
       </c>
       <c r="F63" t="n">
-        <v>0.527274</v>
+        <v>0.565802</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.195521</v>
+        <v>0.194223</v>
       </c>
       <c r="C64" t="n">
-        <v>0.525851</v>
+        <v>0.552767</v>
       </c>
       <c r="D64" t="n">
-        <v>0.722415</v>
+        <v>0.7098680000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>0.225107</v>
+        <v>0.225114</v>
       </c>
       <c r="F64" t="n">
-        <v>0.532742</v>
+        <v>0.540831</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.188935</v>
+        <v>0.19021</v>
       </c>
       <c r="C65" t="n">
-        <v>0.521079</v>
+        <v>0.516854</v>
       </c>
       <c r="D65" t="n">
-        <v>0.730135</v>
+        <v>0.706962</v>
       </c>
       <c r="E65" t="n">
-        <v>0.224922</v>
+        <v>0.224861</v>
       </c>
       <c r="F65" t="n">
-        <v>0.540591</v>
+        <v>0.533084</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.180356</v>
+        <v>0.180424</v>
       </c>
       <c r="C66" t="n">
-        <v>0.528442</v>
+        <v>0.5149629999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.720926</v>
+        <v>0.705221</v>
       </c>
       <c r="E66" t="n">
-        <v>0.247994</v>
+        <v>0.249499</v>
       </c>
       <c r="F66" t="n">
-        <v>0.57694</v>
+        <v>0.567754</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.247221</v>
+        <v>0.243929</v>
       </c>
       <c r="C67" t="n">
-        <v>0.609992</v>
+        <v>0.60668</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7114470000000001</v>
+        <v>0.736026</v>
       </c>
       <c r="E67" t="n">
-        <v>0.24681</v>
+        <v>0.25952</v>
       </c>
       <c r="F67" t="n">
-        <v>0.574135</v>
+        <v>0.5845900000000001</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.244843</v>
+        <v>0.247202</v>
       </c>
       <c r="C68" t="n">
-        <v>0.59068</v>
+        <v>0.593688</v>
       </c>
       <c r="D68" t="n">
-        <v>0.71497</v>
+        <v>0.697196</v>
       </c>
       <c r="E68" t="n">
-        <v>0.243575</v>
+        <v>0.244992</v>
       </c>
       <c r="F68" t="n">
-        <v>0.577468</v>
+        <v>0.5760110000000001</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.240227</v>
+        <v>0.237221</v>
       </c>
       <c r="C69" t="n">
-        <v>0.593595</v>
+        <v>0.5988</v>
       </c>
       <c r="D69" t="n">
-        <v>0.710315</v>
+        <v>0.697295</v>
       </c>
       <c r="E69" t="n">
-        <v>0.246253</v>
+        <v>0.241647</v>
       </c>
       <c r="F69" t="n">
-        <v>0.578466</v>
+        <v>0.5796829999999999</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.239058</v>
+        <v>0.237206</v>
       </c>
       <c r="C70" t="n">
-        <v>0.583496</v>
+        <v>0.596579</v>
       </c>
       <c r="D70" t="n">
-        <v>0.693693</v>
+        <v>0.688254</v>
       </c>
       <c r="E70" t="n">
-        <v>0.242914</v>
+        <v>0.242283</v>
       </c>
       <c r="F70" t="n">
-        <v>0.56914</v>
+        <v>0.575886</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.23267</v>
+        <v>0.229881</v>
       </c>
       <c r="C71" t="n">
-        <v>0.583687</v>
+        <v>0.582307</v>
       </c>
       <c r="D71" t="n">
-        <v>0.689993</v>
+        <v>0.681801</v>
       </c>
       <c r="E71" t="n">
-        <v>0.237264</v>
+        <v>0.237585</v>
       </c>
       <c r="F71" t="n">
-        <v>0.565971</v>
+        <v>0.5654169999999999</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.228838</v>
+        <v>0.22657</v>
       </c>
       <c r="C72" t="n">
-        <v>0.577461</v>
+        <v>0.586223</v>
       </c>
       <c r="D72" t="n">
-        <v>0.68194</v>
+        <v>0.676746</v>
       </c>
       <c r="E72" t="n">
-        <v>0.23728</v>
+        <v>0.237348</v>
       </c>
       <c r="F72" t="n">
-        <v>0.5772890000000001</v>
+        <v>0.571043</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.226109</v>
+        <v>0.219034</v>
       </c>
       <c r="C73" t="n">
-        <v>0.571252</v>
+        <v>0.585172</v>
       </c>
       <c r="D73" t="n">
-        <v>0.68606</v>
+        <v>0.685338</v>
       </c>
       <c r="E73" t="n">
-        <v>0.237375</v>
+        <v>0.235605</v>
       </c>
       <c r="F73" t="n">
-        <v>0.566839</v>
+        <v>0.5651929999999999</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.217271</v>
+        <v>0.218463</v>
       </c>
       <c r="C74" t="n">
-        <v>0.570712</v>
+        <v>0.573187</v>
       </c>
       <c r="D74" t="n">
-        <v>0.679911</v>
+        <v>0.671752</v>
       </c>
       <c r="E74" t="n">
-        <v>0.232874</v>
+        <v>0.235379</v>
       </c>
       <c r="F74" t="n">
-        <v>0.568087</v>
+        <v>0.565111</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.214287</v>
+        <v>0.215246</v>
       </c>
       <c r="C75" t="n">
-        <v>0.571105</v>
+        <v>0.567797</v>
       </c>
       <c r="D75" t="n">
-        <v>0.683285</v>
+        <v>0.67988</v>
       </c>
       <c r="E75" t="n">
-        <v>0.235647</v>
+        <v>0.232484</v>
       </c>
       <c r="F75" t="n">
-        <v>0.568845</v>
+        <v>0.569844</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.210084</v>
+        <v>0.209634</v>
       </c>
       <c r="C76" t="n">
-        <v>0.567917</v>
+        <v>0.566651</v>
       </c>
       <c r="D76" t="n">
-        <v>0.679884</v>
+        <v>0.668633</v>
       </c>
       <c r="E76" t="n">
-        <v>0.231129</v>
+        <v>0.231027</v>
       </c>
       <c r="F76" t="n">
-        <v>0.575115</v>
+        <v>0.565844</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.205872</v>
+        <v>0.203043</v>
       </c>
       <c r="C77" t="n">
-        <v>0.560519</v>
+        <v>0.564113</v>
       </c>
       <c r="D77" t="n">
-        <v>0.671055</v>
+        <v>0.665477</v>
       </c>
       <c r="E77" t="n">
-        <v>0.229585</v>
+        <v>0.228757</v>
       </c>
       <c r="F77" t="n">
-        <v>0.567126</v>
+        <v>0.569343</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.204331</v>
+        <v>0.200932</v>
       </c>
       <c r="C78" t="n">
-        <v>0.563883</v>
+        <v>0.5596139999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.762989</v>
+        <v>0.750302</v>
       </c>
       <c r="E78" t="n">
-        <v>0.230845</v>
+        <v>0.229899</v>
       </c>
       <c r="F78" t="n">
-        <v>0.564313</v>
+        <v>0.558918</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.196306</v>
+        <v>0.192811</v>
       </c>
       <c r="C79" t="n">
-        <v>0.552416</v>
+        <v>0.556984</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7527430000000001</v>
+        <v>0.755697</v>
       </c>
       <c r="E79" t="n">
-        <v>0.233656</v>
+        <v>0.226477</v>
       </c>
       <c r="F79" t="n">
-        <v>0.561268</v>
+        <v>0.559045</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.190208</v>
+        <v>0.186965</v>
       </c>
       <c r="C80" t="n">
-        <v>0.548032</v>
+        <v>0.541069</v>
       </c>
       <c r="D80" t="n">
-        <v>0.758639</v>
+        <v>0.748468</v>
       </c>
       <c r="E80" t="n">
-        <v>0.256029</v>
+        <v>0.253173</v>
       </c>
       <c r="F80" t="n">
-        <v>0.592975</v>
+        <v>0.581425</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.252654</v>
+        <v>0.253198</v>
       </c>
       <c r="C81" t="n">
-        <v>0.61199</v>
+        <v>0.605168</v>
       </c>
       <c r="D81" t="n">
-        <v>0.74999</v>
+        <v>0.739505</v>
       </c>
       <c r="E81" t="n">
-        <v>0.255946</v>
+        <v>0.251068</v>
       </c>
       <c r="F81" t="n">
-        <v>0.589645</v>
+        <v>0.5796750000000001</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.249049</v>
+        <v>0.251356</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6120989999999999</v>
+        <v>0.610282</v>
       </c>
       <c r="D82" t="n">
-        <v>0.727529</v>
+        <v>0.732973</v>
       </c>
       <c r="E82" t="n">
-        <v>0.251501</v>
+        <v>0.250497</v>
       </c>
       <c r="F82" t="n">
-        <v>0.583723</v>
+        <v>0.579296</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.244827</v>
+        <v>0.243681</v>
       </c>
       <c r="C83" t="n">
-        <v>0.604765</v>
+        <v>0.60031</v>
       </c>
       <c r="D83" t="n">
-        <v>0.715794</v>
+        <v>0.730416</v>
       </c>
       <c r="E83" t="n">
-        <v>0.249398</v>
+        <v>0.247501</v>
       </c>
       <c r="F83" t="n">
-        <v>0.574477</v>
+        <v>0.580867</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.238337</v>
+        <v>0.237739</v>
       </c>
       <c r="C84" t="n">
-        <v>0.630054</v>
+        <v>0.623648</v>
       </c>
       <c r="D84" t="n">
-        <v>0.760704</v>
+        <v>0.755423</v>
       </c>
       <c r="E84" t="n">
-        <v>0.245769</v>
+        <v>0.245733</v>
       </c>
       <c r="F84" t="n">
-        <v>0.602877</v>
+        <v>0.6050450000000001</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.238515</v>
+        <v>0.235623</v>
       </c>
       <c r="C85" t="n">
-        <v>0.630482</v>
+        <v>0.626004</v>
       </c>
       <c r="D85" t="n">
-        <v>0.746084</v>
+        <v>0.753649</v>
       </c>
       <c r="E85" t="n">
-        <v>0.243387</v>
+        <v>0.244769</v>
       </c>
       <c r="F85" t="n">
-        <v>0.595396</v>
+        <v>0.599638</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.232862</v>
+        <v>0.229193</v>
       </c>
       <c r="C86" t="n">
-        <v>0.617367</v>
+        <v>0.616887</v>
       </c>
       <c r="D86" t="n">
-        <v>0.739976</v>
+        <v>0.747676</v>
       </c>
       <c r="E86" t="n">
-        <v>0.242935</v>
+        <v>0.241041</v>
       </c>
       <c r="F86" t="n">
-        <v>0.60451</v>
+        <v>0.595853</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.227047</v>
+        <v>0.225504</v>
       </c>
       <c r="C87" t="n">
-        <v>0.612532</v>
+        <v>0.618201</v>
       </c>
       <c r="D87" t="n">
-        <v>0.741818</v>
+        <v>0.7346819999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>0.240714</v>
+        <v>0.239051</v>
       </c>
       <c r="F87" t="n">
-        <v>0.610128</v>
+        <v>0.597356</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.222339</v>
+        <v>0.220624</v>
       </c>
       <c r="C88" t="n">
-        <v>0.605805</v>
+        <v>0.611054</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7391259999999999</v>
+        <v>0.726339</v>
       </c>
       <c r="E88" t="n">
-        <v>0.241079</v>
+        <v>0.237441</v>
       </c>
       <c r="F88" t="n">
-        <v>0.595933</v>
+        <v>0.590076</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.21957</v>
+        <v>0.216257</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5973579999999999</v>
+        <v>0.606171</v>
       </c>
       <c r="D89" t="n">
-        <v>0.725073</v>
+        <v>0.726371</v>
       </c>
       <c r="E89" t="n">
-        <v>0.238897</v>
+        <v>0.236502</v>
       </c>
       <c r="F89" t="n">
-        <v>0.596235</v>
+        <v>0.58931</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.213402</v>
+        <v>0.213278</v>
       </c>
       <c r="C90" t="n">
-        <v>0.598724</v>
+        <v>0.60401</v>
       </c>
       <c r="D90" t="n">
-        <v>0.736564</v>
+        <v>0.725015</v>
       </c>
       <c r="E90" t="n">
-        <v>0.237593</v>
+        <v>0.235357</v>
       </c>
       <c r="F90" t="n">
-        <v>0.591819</v>
+        <v>0.587148</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.20858</v>
+        <v>0.207722</v>
       </c>
       <c r="C91" t="n">
-        <v>0.5939449999999999</v>
+        <v>0.60133</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7288210000000001</v>
+        <v>0.716772</v>
       </c>
       <c r="E91" t="n">
-        <v>0.234348</v>
+        <v>0.237898</v>
       </c>
       <c r="F91" t="n">
-        <v>0.58485</v>
+        <v>0.586246</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.204488</v>
+        <v>0.203195</v>
       </c>
       <c r="C92" t="n">
-        <v>0.583547</v>
+        <v>0.602743</v>
       </c>
       <c r="D92" t="n">
-        <v>0.683154</v>
+        <v>0.679016</v>
       </c>
       <c r="E92" t="n">
-        <v>0.2312</v>
+        <v>0.235376</v>
       </c>
       <c r="F92" t="n">
-        <v>0.592475</v>
+        <v>0.586198</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.19854</v>
+        <v>0.197942</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5868409999999999</v>
+        <v>0.5948329999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>0.678422</v>
+        <v>0.673122</v>
       </c>
       <c r="E93" t="n">
-        <v>0.230225</v>
+        <v>0.229654</v>
       </c>
       <c r="F93" t="n">
-        <v>0.584232</v>
+        <v>0.595157</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.192177</v>
+        <v>0.189972</v>
       </c>
       <c r="C94" t="n">
-        <v>0.577525</v>
+        <v>0.5904740000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>0.681076</v>
+        <v>0.67264</v>
       </c>
       <c r="E94" t="n">
-        <v>0.256276</v>
+        <v>0.256097</v>
       </c>
       <c r="F94" t="n">
-        <v>0.6045469999999999</v>
+        <v>0.608402</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.256775</v>
+        <v>0.255116</v>
       </c>
       <c r="C95" t="n">
-        <v>0.648076</v>
+        <v>0.635875</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6746529999999999</v>
+        <v>0.665049</v>
       </c>
       <c r="E95" t="n">
-        <v>0.255987</v>
+        <v>0.253137</v>
       </c>
       <c r="F95" t="n">
-        <v>0.604385</v>
+        <v>0.602836</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.251364</v>
+        <v>0.251195</v>
       </c>
       <c r="C96" t="n">
-        <v>0.635704</v>
+        <v>0.635278</v>
       </c>
       <c r="D96" t="n">
-        <v>0.683308</v>
+        <v>0.676522</v>
       </c>
       <c r="E96" t="n">
-        <v>0.250748</v>
+        <v>0.251124</v>
       </c>
       <c r="F96" t="n">
-        <v>0.60312</v>
+        <v>0.601179</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.246784</v>
+        <v>0.246008</v>
       </c>
       <c r="C97" t="n">
-        <v>0.644799</v>
+        <v>0.627453</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6893820000000001</v>
+        <v>0.671372</v>
       </c>
       <c r="E97" t="n">
-        <v>0.249501</v>
+        <v>0.248426</v>
       </c>
       <c r="F97" t="n">
-        <v>0.608035</v>
+        <v>0.599329</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.246178</v>
+        <v>0.240471</v>
       </c>
       <c r="C98" t="n">
-        <v>0.631866</v>
+        <v>0.622116</v>
       </c>
       <c r="D98" t="n">
-        <v>0.670978</v>
+        <v>0.666358</v>
       </c>
       <c r="E98" t="n">
-        <v>0.250954</v>
+        <v>0.248065</v>
       </c>
       <c r="F98" t="n">
-        <v>0.603641</v>
+        <v>0.5980259999999999</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.237072</v>
+        <v>0.237652</v>
       </c>
       <c r="C99" t="n">
-        <v>0.62068</v>
+        <v>0.61842</v>
       </c>
       <c r="D99" t="n">
-        <v>0.677763</v>
+        <v>0.665608</v>
       </c>
       <c r="E99" t="n">
-        <v>0.245328</v>
+        <v>0.24528</v>
       </c>
       <c r="F99" t="n">
-        <v>0.6065469999999999</v>
+        <v>0.597796</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.23329</v>
+        <v>0.23059</v>
       </c>
       <c r="C100" t="n">
-        <v>0.61158</v>
+        <v>0.615676</v>
       </c>
       <c r="D100" t="n">
-        <v>0.677025</v>
+        <v>0.670731</v>
       </c>
       <c r="E100" t="n">
-        <v>0.242676</v>
+        <v>0.24604</v>
       </c>
       <c r="F100" t="n">
-        <v>0.612038</v>
+        <v>0.59191</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.233417</v>
+        <v>0.226234</v>
       </c>
       <c r="C101" t="n">
-        <v>0.61773</v>
+        <v>0.612492</v>
       </c>
       <c r="D101" t="n">
-        <v>0.666146</v>
+        <v>0.664169</v>
       </c>
       <c r="E101" t="n">
-        <v>0.242038</v>
+        <v>0.24458</v>
       </c>
       <c r="F101" t="n">
-        <v>0.596415</v>
+        <v>0.59327</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.225758</v>
+        <v>0.223193</v>
       </c>
       <c r="C102" t="n">
-        <v>0.612162</v>
+        <v>0.609789</v>
       </c>
       <c r="D102" t="n">
-        <v>0.668512</v>
+        <v>0.6624139999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>0.241046</v>
+        <v>0.240249</v>
       </c>
       <c r="F102" t="n">
-        <v>0.601567</v>
+        <v>0.591063</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.219856</v>
+        <v>0.219358</v>
       </c>
       <c r="C103" t="n">
-        <v>0.601687</v>
+        <v>0.5948639999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.675636</v>
+        <v>0.666404</v>
       </c>
       <c r="E103" t="n">
-        <v>0.239837</v>
+        <v>0.236795</v>
       </c>
       <c r="F103" t="n">
-        <v>0.600422</v>
+        <v>0.5923119999999999</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.217922</v>
+        <v>0.216081</v>
       </c>
       <c r="C104" t="n">
-        <v>0.61113</v>
+        <v>0.593811</v>
       </c>
       <c r="D104" t="n">
-        <v>0.665151</v>
+        <v>0.6586689999999999</v>
       </c>
       <c r="E104" t="n">
-        <v>0.23712</v>
+        <v>0.235219</v>
       </c>
       <c r="F104" t="n">
-        <v>0.595719</v>
+        <v>0.592689</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.210696</v>
+        <v>0.209794</v>
       </c>
       <c r="C105" t="n">
-        <v>0.596843</v>
+        <v>0.592858</v>
       </c>
       <c r="D105" t="n">
-        <v>0.670367</v>
+        <v>0.662234</v>
       </c>
       <c r="E105" t="n">
-        <v>0.233958</v>
+        <v>0.233333</v>
       </c>
       <c r="F105" t="n">
-        <v>0.592011</v>
+        <v>0.588006</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.210967</v>
+        <v>0.204541</v>
       </c>
       <c r="C106" t="n">
-        <v>0.591896</v>
+        <v>0.589836</v>
       </c>
       <c r="D106" t="n">
-        <v>0.668446</v>
+        <v>0.65883</v>
       </c>
       <c r="E106" t="n">
-        <v>0.23317</v>
+        <v>0.233378</v>
       </c>
       <c r="F106" t="n">
-        <v>0.59037</v>
+        <v>0.589249</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.205232</v>
+        <v>0.200958</v>
       </c>
       <c r="C107" t="n">
-        <v>0.6037</v>
+        <v>0.583777</v>
       </c>
       <c r="D107" t="n">
-        <v>0.669261</v>
+        <v>0.6702</v>
       </c>
       <c r="E107" t="n">
-        <v>0.236798</v>
+        <v>0.230259</v>
       </c>
       <c r="F107" t="n">
-        <v>0.591507</v>
+        <v>0.592038</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.193988</v>
+        <v>0.193834</v>
       </c>
       <c r="C108" t="n">
-        <v>0.581077</v>
+        <v>0.585853</v>
       </c>
       <c r="D108" t="n">
-        <v>0.668834</v>
+        <v>0.666612</v>
       </c>
       <c r="E108" t="n">
-        <v>0.258153</v>
+        <v>0.2629</v>
       </c>
       <c r="F108" t="n">
-        <v>0.614821</v>
+        <v>0.607625</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.188329</v>
+        <v>0.183578</v>
       </c>
       <c r="C109" t="n">
-        <v>0.572963</v>
+        <v>0.5891459999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>0.682582</v>
+        <v>0.67025</v>
       </c>
       <c r="E109" t="n">
-        <v>0.257726</v>
+        <v>0.259681</v>
       </c>
       <c r="F109" t="n">
-        <v>0.625186</v>
+        <v>0.610575</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.258109</v>
+        <v>0.250913</v>
       </c>
       <c r="C110" t="n">
-        <v>0.631381</v>
+        <v>0.635006</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6839769999999999</v>
+        <v>0.663803</v>
       </c>
       <c r="E110" t="n">
-        <v>0.254448</v>
+        <v>0.258765</v>
       </c>
       <c r="F110" t="n">
-        <v>0.6069099999999999</v>
+        <v>0.608468</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.24934</v>
+        <v>0.251469</v>
       </c>
       <c r="C111" t="n">
-        <v>0.635464</v>
+        <v>0.646246</v>
       </c>
       <c r="D111" t="n">
-        <v>0.665629</v>
+        <v>0.681006</v>
       </c>
       <c r="E111" t="n">
-        <v>0.253297</v>
+        <v>0.253087</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6005779999999999</v>
+        <v>0.617774</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.247222</v>
+        <v>0.245208</v>
       </c>
       <c r="C112" t="n">
-        <v>0.621274</v>
+        <v>0.631621</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6710159999999999</v>
+        <v>0.665663</v>
       </c>
       <c r="E112" t="n">
-        <v>0.250989</v>
+        <v>0.247131</v>
       </c>
       <c r="F112" t="n">
-        <v>0.602324</v>
+        <v>0.613076</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.241568</v>
+        <v>0.239354</v>
       </c>
       <c r="C113" t="n">
-        <v>0.612325</v>
+        <v>0.614893</v>
       </c>
       <c r="D113" t="n">
-        <v>0.683964</v>
+        <v>0.676643</v>
       </c>
       <c r="E113" t="n">
-        <v>0.249004</v>
+        <v>0.246517</v>
       </c>
       <c r="F113" t="n">
-        <v>0.602253</v>
+        <v>0.609606</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.23843</v>
+        <v>0.234243</v>
       </c>
       <c r="C114" t="n">
-        <v>0.62878</v>
+        <v>0.623648</v>
       </c>
       <c r="D114" t="n">
-        <v>0.678538</v>
+        <v>0.671471</v>
       </c>
       <c r="E114" t="n">
-        <v>0.249375</v>
+        <v>0.244732</v>
       </c>
       <c r="F114" t="n">
-        <v>0.602957</v>
+        <v>0.598397</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.229314</v>
+        <v>0.229543</v>
       </c>
       <c r="C115" t="n">
-        <v>0.622763</v>
+        <v>0.6231</v>
       </c>
       <c r="D115" t="n">
-        <v>0.666569</v>
+        <v>0.662405</v>
       </c>
       <c r="E115" t="n">
-        <v>0.245966</v>
+        <v>0.247949</v>
       </c>
       <c r="F115" t="n">
-        <v>0.602471</v>
+        <v>0.600041</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.225429</v>
+        <v>0.226759</v>
       </c>
       <c r="C116" t="n">
-        <v>0.60645</v>
+        <v>0.614625</v>
       </c>
       <c r="D116" t="n">
-        <v>0.686298</v>
+        <v>0.672484</v>
       </c>
       <c r="E116" t="n">
-        <v>0.247182</v>
+        <v>0.242961</v>
       </c>
       <c r="F116" t="n">
-        <v>0.603587</v>
+        <v>0.596979</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.222181</v>
+        <v>0.219837</v>
       </c>
       <c r="C117" t="n">
-        <v>0.627032</v>
+        <v>0.62323</v>
       </c>
       <c r="D117" t="n">
-        <v>0.675744</v>
+        <v>0.661431</v>
       </c>
       <c r="E117" t="n">
-        <v>0.239572</v>
+        <v>0.237469</v>
       </c>
       <c r="F117" t="n">
-        <v>0.596623</v>
+        <v>0.606253</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.21614</v>
+        <v>0.216349</v>
       </c>
       <c r="C118" t="n">
-        <v>0.608809</v>
+        <v>0.60816</v>
       </c>
       <c r="D118" t="n">
-        <v>0.667975</v>
+        <v>0.670975</v>
       </c>
       <c r="E118" t="n">
-        <v>0.237612</v>
+        <v>0.237947</v>
       </c>
       <c r="F118" t="n">
-        <v>0.615918</v>
+        <v>0.607585</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.212415</v>
+        <v>0.21118</v>
       </c>
       <c r="C119" t="n">
-        <v>0.622106</v>
+        <v>0.594425</v>
       </c>
       <c r="D119" t="n">
-        <v>0.666685</v>
+        <v>0.671166</v>
       </c>
       <c r="E119" t="n">
-        <v>0.240024</v>
+        <v>0.234146</v>
       </c>
       <c r="F119" t="n">
-        <v>0.604459</v>
+        <v>0.603982</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.213257</v>
+        <v>0.211561</v>
       </c>
       <c r="C120" t="n">
-        <v>0.590728</v>
+        <v>0.593414</v>
       </c>
       <c r="D120" t="n">
-        <v>0.670737</v>
+        <v>0.665621</v>
       </c>
       <c r="E120" t="n">
-        <v>0.237866</v>
+        <v>0.23822</v>
       </c>
       <c r="F120" t="n">
-        <v>0.591317</v>
+        <v>0.598141</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.202861</v>
+        <v>0.201878</v>
       </c>
       <c r="C121" t="n">
-        <v>0.599851</v>
+        <v>0.604974</v>
       </c>
       <c r="D121" t="n">
-        <v>0.684326</v>
+        <v>0.679755</v>
       </c>
       <c r="E121" t="n">
-        <v>0.241872</v>
+        <v>0.233401</v>
       </c>
       <c r="F121" t="n">
-        <v>0.595767</v>
+        <v>0.598146</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.196589</v>
+        <v>0.194578</v>
       </c>
       <c r="C122" t="n">
-        <v>0.584502</v>
+        <v>0.598169</v>
       </c>
       <c r="D122" t="n">
-        <v>0.682739</v>
+        <v>0.68448</v>
       </c>
       <c r="E122" t="n">
-        <v>0.237485</v>
+        <v>0.233492</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5839259999999999</v>
+        <v>0.5886400000000001</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.185599</v>
+        <v>0.185528</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5653319999999999</v>
+        <v>0.570898</v>
       </c>
       <c r="D123" t="n">
-        <v>0.690528</v>
+        <v>0.6949340000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>0.255626</v>
+        <v>0.259362</v>
       </c>
       <c r="F123" t="n">
-        <v>0.617027</v>
+        <v>0.61337</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.255036</v>
+        <v>0.254648</v>
       </c>
       <c r="C124" t="n">
-        <v>0.622167</v>
+        <v>0.636141</v>
       </c>
       <c r="D124" t="n">
-        <v>0.677462</v>
+        <v>0.680358</v>
       </c>
       <c r="E124" t="n">
-        <v>0.254268</v>
+        <v>0.258882</v>
       </c>
       <c r="F124" t="n">
-        <v>0.605172</v>
+        <v>0.610684</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.247607</v>
+        <v>0.251839</v>
       </c>
       <c r="C125" t="n">
-        <v>0.621993</v>
+        <v>0.6226660000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.68531</v>
+        <v>0.680704</v>
       </c>
       <c r="E125" t="n">
-        <v>0.253091</v>
+        <v>0.255546</v>
       </c>
       <c r="F125" t="n">
-        <v>0.604303</v>
+        <v>0.605113</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.24613</v>
+        <v>0.242387</v>
       </c>
       <c r="C126" t="n">
-        <v>0.613517</v>
+        <v>0.634567</v>
       </c>
       <c r="D126" t="n">
-        <v>0.678496</v>
+        <v>0.680735</v>
       </c>
       <c r="E126" t="n">
-        <v>0.249264</v>
+        <v>0.251577</v>
       </c>
       <c r="F126" t="n">
-        <v>0.606806</v>
+        <v>0.600765</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.240592</v>
+        <v>0.242849</v>
       </c>
       <c r="C127" t="n">
-        <v>0.624713</v>
+        <v>0.618081</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6882239999999999</v>
+        <v>0.691886</v>
       </c>
       <c r="E127" t="n">
-        <v>0.250767</v>
+        <v>0.246577</v>
       </c>
       <c r="F127" t="n">
-        <v>0.5984969999999999</v>
+        <v>0.622382</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.238926</v>
+        <v>0.233936</v>
       </c>
       <c r="C128" t="n">
-        <v>0.606313</v>
+        <v>0.614682</v>
       </c>
       <c r="D128" t="n">
-        <v>0.671073</v>
+        <v>0.670955</v>
       </c>
       <c r="E128" t="n">
-        <v>0.24914</v>
+        <v>0.24417</v>
       </c>
       <c r="F128" t="n">
-        <v>0.602642</v>
+        <v>0.6135699999999999</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.229595</v>
+        <v>0.229353</v>
       </c>
       <c r="C129" t="n">
-        <v>0.6119329999999999</v>
+        <v>0.606521</v>
       </c>
       <c r="D129" t="n">
-        <v>0.674596</v>
+        <v>0.69126</v>
       </c>
       <c r="E129" t="n">
-        <v>0.245908</v>
+        <v>0.243368</v>
       </c>
       <c r="F129" t="n">
-        <v>0.612227</v>
+        <v>0.598317</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.224673</v>
+        <v>0.22889</v>
       </c>
       <c r="C130" t="n">
-        <v>0.605293</v>
+        <v>0.600898</v>
       </c>
       <c r="D130" t="n">
-        <v>0.676527</v>
+        <v>0.676358</v>
       </c>
       <c r="E130" t="n">
-        <v>0.240544</v>
+        <v>0.240256</v>
       </c>
       <c r="F130" t="n">
-        <v>0.596413</v>
+        <v>0.615058</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.223044</v>
+        <v>0.222344</v>
       </c>
       <c r="C131" t="n">
-        <v>0.592381</v>
+        <v>0.599149</v>
       </c>
       <c r="D131" t="n">
-        <v>0.683496</v>
+        <v>0.673817</v>
       </c>
       <c r="E131" t="n">
-        <v>0.238247</v>
+        <v>0.239699</v>
       </c>
       <c r="F131" t="n">
-        <v>0.59737</v>
+        <v>0.604209</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.217529</v>
+        <v>0.216092</v>
       </c>
       <c r="C132" t="n">
-        <v>0.5954930000000001</v>
+        <v>0.608037</v>
       </c>
       <c r="D132" t="n">
-        <v>0.685407</v>
+        <v>0.674291</v>
       </c>
       <c r="E132" t="n">
-        <v>0.242374</v>
+        <v>0.240083</v>
       </c>
       <c r="F132" t="n">
-        <v>0.607421</v>
+        <v>0.620332</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.21252</v>
+        <v>0.211815</v>
       </c>
       <c r="C133" t="n">
-        <v>0.58095</v>
+        <v>0.602393</v>
       </c>
       <c r="D133" t="n">
-        <v>0.675469</v>
+        <v>0.676982</v>
       </c>
       <c r="E133" t="n">
-        <v>0.237454</v>
+        <v>0.23656</v>
       </c>
       <c r="F133" t="n">
-        <v>0.594732</v>
+        <v>0.59063</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.206817</v>
+        <v>0.208618</v>
       </c>
       <c r="C134" t="n">
-        <v>0.613604</v>
+        <v>0.595857</v>
       </c>
       <c r="D134" t="n">
-        <v>0.6646919999999999</v>
+        <v>0.670806</v>
       </c>
       <c r="E134" t="n">
-        <v>0.237666</v>
+        <v>0.23341</v>
       </c>
       <c r="F134" t="n">
-        <v>0.598515</v>
+        <v>0.600784</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.205896</v>
+        <v>0.203184</v>
       </c>
       <c r="C135" t="n">
-        <v>0.57912</v>
+        <v>0.594724</v>
       </c>
       <c r="D135" t="n">
-        <v>0.679014</v>
+        <v>0.692034</v>
       </c>
       <c r="E135" t="n">
-        <v>0.233657</v>
+        <v>0.235273</v>
       </c>
       <c r="F135" t="n">
-        <v>0.585888</v>
+        <v>0.598038</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.201806</v>
+        <v>0.197081</v>
       </c>
       <c r="C136" t="n">
-        <v>0.579759</v>
+        <v>0.5939410000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>0.686209</v>
+        <v>0.678355</v>
       </c>
       <c r="E136" t="n">
-        <v>0.232439</v>
+        <v>0.230172</v>
       </c>
       <c r="F136" t="n">
-        <v>0.622773</v>
+        <v>0.592202</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.189582</v>
+        <v>0.189143</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5950530000000001</v>
+        <v>0.5879259999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>0.684006</v>
+        <v>0.675551</v>
       </c>
       <c r="E137" t="n">
-        <v>0.256535</v>
+        <v>0.256278</v>
       </c>
       <c r="F137" t="n">
-        <v>0.619228</v>
+        <v>0.609789</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.255017</v>
+        <v>0.254161</v>
       </c>
       <c r="C138" t="n">
-        <v>0.636405</v>
+        <v>0.6491479999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>0.681562</v>
+        <v>0.684105</v>
       </c>
       <c r="E138" t="n">
-        <v>0.255961</v>
+        <v>0.257477</v>
       </c>
       <c r="F138" t="n">
-        <v>0.605853</v>
+        <v>0.6062689999999999</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.25378</v>
+        <v>0.249572</v>
       </c>
       <c r="C139" t="n">
-        <v>0.617932</v>
+        <v>0.631453</v>
       </c>
       <c r="D139" t="n">
-        <v>0.682601</v>
+        <v>0.682023</v>
       </c>
       <c r="E139" t="n">
-        <v>0.258928</v>
+        <v>0.257066</v>
       </c>
       <c r="F139" t="n">
-        <v>0.603729</v>
+        <v>0.6126239999999999</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.247895</v>
+        <v>0.248399</v>
       </c>
       <c r="C140" t="n">
-        <v>0.619274</v>
+        <v>0.628578</v>
       </c>
       <c r="D140" t="n">
-        <v>0.675934</v>
+        <v>0.677464</v>
       </c>
       <c r="E140" t="n">
-        <v>0.251788</v>
+        <v>0.251196</v>
       </c>
       <c r="F140" t="n">
-        <v>0.606841</v>
+        <v>0.605647</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.241515</v>
+        <v>0.241361</v>
       </c>
       <c r="C141" t="n">
-        <v>0.616381</v>
+        <v>0.623031</v>
       </c>
       <c r="D141" t="n">
-        <v>0.676675</v>
+        <v>0.677887</v>
       </c>
       <c r="E141" t="n">
-        <v>0.247447</v>
+        <v>0.247795</v>
       </c>
       <c r="F141" t="n">
-        <v>0.600959</v>
+        <v>0.6047</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.23719</v>
+        <v>0.233741</v>
       </c>
       <c r="C142" t="n">
-        <v>0.612434</v>
+        <v>0.608831</v>
       </c>
       <c r="D142" t="n">
-        <v>0.675979</v>
+        <v>0.679017</v>
       </c>
       <c r="E142" t="n">
-        <v>0.245232</v>
+        <v>0.245374</v>
       </c>
       <c r="F142" t="n">
-        <v>0.6147820000000001</v>
+        <v>0.597706</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.232048</v>
+        <v>0.232486</v>
       </c>
       <c r="C143" t="n">
-        <v>0.598869</v>
+        <v>0.605788</v>
       </c>
       <c r="D143" t="n">
-        <v>0.671298</v>
+        <v>0.671859</v>
       </c>
       <c r="E143" t="n">
-        <v>0.243354</v>
+        <v>0.242714</v>
       </c>
       <c r="F143" t="n">
-        <v>0.6082959999999999</v>
+        <v>0.605311</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.193303</v>
+        <v>0.197188</v>
       </c>
       <c r="C2" t="n">
-        <v>0.445885</v>
+        <v>0.463455</v>
       </c>
       <c r="D2" t="n">
-        <v>0.502088</v>
+        <v>0.517081</v>
       </c>
       <c r="E2" t="n">
-        <v>0.213075</v>
+        <v>0.215267</v>
       </c>
       <c r="F2" t="n">
-        <v>0.453865</v>
+        <v>0.467697</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.187929</v>
+        <v>0.189124</v>
       </c>
       <c r="C3" t="n">
-        <v>0.445058</v>
+        <v>0.439841</v>
       </c>
       <c r="D3" t="n">
-        <v>0.520174</v>
+        <v>0.52098</v>
       </c>
       <c r="E3" t="n">
-        <v>0.213183</v>
+        <v>0.221303</v>
       </c>
       <c r="F3" t="n">
-        <v>0.455454</v>
+        <v>0.469886</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.18804</v>
+        <v>0.192497</v>
       </c>
       <c r="C4" t="n">
-        <v>0.438938</v>
+        <v>0.443582</v>
       </c>
       <c r="D4" t="n">
-        <v>0.51102</v>
+        <v>0.511496</v>
       </c>
       <c r="E4" t="n">
-        <v>0.212791</v>
+        <v>0.217149</v>
       </c>
       <c r="F4" t="n">
-        <v>0.45355</v>
+        <v>0.460545</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.186032</v>
+        <v>0.195703</v>
       </c>
       <c r="C5" t="n">
-        <v>0.440772</v>
+        <v>0.448684</v>
       </c>
       <c r="D5" t="n">
-        <v>0.503462</v>
+        <v>0.5072950000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.212464</v>
+        <v>0.216704</v>
       </c>
       <c r="F5" t="n">
-        <v>0.460437</v>
+        <v>0.454457</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.184536</v>
+        <v>0.182117</v>
       </c>
       <c r="C6" t="n">
-        <v>0.43578</v>
+        <v>0.428304</v>
       </c>
       <c r="D6" t="n">
-        <v>0.503461</v>
+        <v>0.500583</v>
       </c>
       <c r="E6" t="n">
-        <v>0.213503</v>
+        <v>0.210959</v>
       </c>
       <c r="F6" t="n">
-        <v>0.451325</v>
+        <v>0.44347</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.181316</v>
+        <v>0.180146</v>
       </c>
       <c r="C7" t="n">
-        <v>0.430461</v>
+        <v>0.423722</v>
       </c>
       <c r="D7" t="n">
-        <v>0.528396</v>
+        <v>0.502682</v>
       </c>
       <c r="E7" t="n">
-        <v>0.211767</v>
+        <v>0.212074</v>
       </c>
       <c r="F7" t="n">
-        <v>0.450304</v>
+        <v>0.448262</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.177817</v>
+        <v>0.173294</v>
       </c>
       <c r="C8" t="n">
-        <v>0.424545</v>
+        <v>0.417226</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5345220000000001</v>
+        <v>0.503626</v>
       </c>
       <c r="E8" t="n">
-        <v>0.217107</v>
+        <v>0.211911</v>
       </c>
       <c r="F8" t="n">
-        <v>0.447175</v>
+        <v>0.447225</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.165777</v>
+        <v>0.167305</v>
       </c>
       <c r="C9" t="n">
-        <v>0.41604</v>
+        <v>0.414647</v>
       </c>
       <c r="D9" t="n">
-        <v>0.527308</v>
+        <v>0.50364</v>
       </c>
       <c r="E9" t="n">
-        <v>0.225396</v>
+        <v>0.217915</v>
       </c>
       <c r="F9" t="n">
-        <v>0.464692</v>
+        <v>0.463034</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.218667</v>
+        <v>0.21785</v>
       </c>
       <c r="C10" t="n">
-        <v>0.468425</v>
+        <v>0.46451</v>
       </c>
       <c r="D10" t="n">
-        <v>0.510342</v>
+        <v>0.504178</v>
       </c>
       <c r="E10" t="n">
-        <v>0.219877</v>
+        <v>0.217699</v>
       </c>
       <c r="F10" t="n">
-        <v>0.467203</v>
+        <v>0.455097</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.213842</v>
+        <v>0.214128</v>
       </c>
       <c r="C11" t="n">
-        <v>0.465418</v>
+        <v>0.460872</v>
       </c>
       <c r="D11" t="n">
-        <v>0.515406</v>
+        <v>0.501628</v>
       </c>
       <c r="E11" t="n">
-        <v>0.219925</v>
+        <v>0.218096</v>
       </c>
       <c r="F11" t="n">
-        <v>0.462703</v>
+        <v>0.454553</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.212804</v>
+        <v>0.212307</v>
       </c>
       <c r="C12" t="n">
-        <v>0.461039</v>
+        <v>0.45504</v>
       </c>
       <c r="D12" t="n">
-        <v>0.507154</v>
+        <v>0.503433</v>
       </c>
       <c r="E12" t="n">
-        <v>0.218886</v>
+        <v>0.217081</v>
       </c>
       <c r="F12" t="n">
-        <v>0.464132</v>
+        <v>0.452619</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.206851</v>
+        <v>0.207867</v>
       </c>
       <c r="C13" t="n">
-        <v>0.454522</v>
+        <v>0.45715</v>
       </c>
       <c r="D13" t="n">
-        <v>0.510278</v>
+        <v>0.50463</v>
       </c>
       <c r="E13" t="n">
-        <v>0.218692</v>
+        <v>0.224304</v>
       </c>
       <c r="F13" t="n">
-        <v>0.460611</v>
+        <v>0.45297</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.208024</v>
+        <v>0.203069</v>
       </c>
       <c r="C14" t="n">
-        <v>0.459953</v>
+        <v>0.448792</v>
       </c>
       <c r="D14" t="n">
-        <v>0.507615</v>
+        <v>0.499921</v>
       </c>
       <c r="E14" t="n">
-        <v>0.219144</v>
+        <v>0.217222</v>
       </c>
       <c r="F14" t="n">
-        <v>0.45743</v>
+        <v>0.453316</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.202129</v>
+        <v>0.200688</v>
       </c>
       <c r="C15" t="n">
-        <v>0.450737</v>
+        <v>0.452134</v>
       </c>
       <c r="D15" t="n">
-        <v>0.514038</v>
+        <v>0.5088819999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.22171</v>
+        <v>0.217165</v>
       </c>
       <c r="F15" t="n">
-        <v>0.457918</v>
+        <v>0.451768</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.203048</v>
+        <v>0.198197</v>
       </c>
       <c r="C16" t="n">
-        <v>0.448145</v>
+        <v>0.445737</v>
       </c>
       <c r="D16" t="n">
-        <v>0.504516</v>
+        <v>0.497947</v>
       </c>
       <c r="E16" t="n">
-        <v>0.218901</v>
+        <v>0.216271</v>
       </c>
       <c r="F16" t="n">
-        <v>0.459509</v>
+        <v>0.449626</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.197951</v>
+        <v>0.196314</v>
       </c>
       <c r="C17" t="n">
-        <v>0.44882</v>
+        <v>0.439663</v>
       </c>
       <c r="D17" t="n">
-        <v>0.502185</v>
+        <v>0.497478</v>
       </c>
       <c r="E17" t="n">
-        <v>0.217354</v>
+        <v>0.217053</v>
       </c>
       <c r="F17" t="n">
-        <v>0.468204</v>
+        <v>0.448484</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.192303</v>
+        <v>0.193955</v>
       </c>
       <c r="C18" t="n">
-        <v>0.437952</v>
+        <v>0.434535</v>
       </c>
       <c r="D18" t="n">
-        <v>0.500797</v>
+        <v>0.497724</v>
       </c>
       <c r="E18" t="n">
-        <v>0.217688</v>
+        <v>0.216211</v>
       </c>
       <c r="F18" t="n">
-        <v>0.455244</v>
+        <v>0.451454</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.190017</v>
+        <v>0.191741</v>
       </c>
       <c r="C19" t="n">
-        <v>0.434114</v>
+        <v>0.434374</v>
       </c>
       <c r="D19" t="n">
-        <v>0.51256</v>
+        <v>0.497938</v>
       </c>
       <c r="E19" t="n">
-        <v>0.216535</v>
+        <v>0.215899</v>
       </c>
       <c r="F19" t="n">
-        <v>0.456402</v>
+        <v>0.449502</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188808</v>
+        <v>0.187833</v>
       </c>
       <c r="C20" t="n">
-        <v>0.437229</v>
+        <v>0.429952</v>
       </c>
       <c r="D20" t="n">
-        <v>0.511621</v>
+        <v>0.49698</v>
       </c>
       <c r="E20" t="n">
-        <v>0.220187</v>
+        <v>0.215544</v>
       </c>
       <c r="F20" t="n">
-        <v>0.459839</v>
+        <v>0.448783</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.184575</v>
+        <v>0.186342</v>
       </c>
       <c r="C21" t="n">
-        <v>0.428483</v>
+        <v>0.431984</v>
       </c>
       <c r="D21" t="n">
-        <v>0.514157</v>
+        <v>0.514375</v>
       </c>
       <c r="E21" t="n">
-        <v>0.215192</v>
+        <v>0.215057</v>
       </c>
       <c r="F21" t="n">
-        <v>0.45528</v>
+        <v>0.449893</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.179181</v>
+        <v>0.180214</v>
       </c>
       <c r="C22" t="n">
-        <v>0.42938</v>
+        <v>0.419952</v>
       </c>
       <c r="D22" t="n">
-        <v>0.514899</v>
+        <v>0.508306</v>
       </c>
       <c r="E22" t="n">
-        <v>0.218037</v>
+        <v>0.214633</v>
       </c>
       <c r="F22" t="n">
-        <v>0.450551</v>
+        <v>0.446735</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.171888</v>
+        <v>0.173999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.418017</v>
+        <v>0.419598</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5139359999999999</v>
+        <v>0.508986</v>
       </c>
       <c r="E23" t="n">
-        <v>0.230022</v>
+        <v>0.228967</v>
       </c>
       <c r="F23" t="n">
-        <v>0.479144</v>
+        <v>0.464242</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.228966</v>
+        <v>0.226628</v>
       </c>
       <c r="C24" t="n">
-        <v>0.473149</v>
+        <v>0.467361</v>
       </c>
       <c r="D24" t="n">
-        <v>0.515633</v>
+        <v>0.510212</v>
       </c>
       <c r="E24" t="n">
-        <v>0.227731</v>
+        <v>0.227802</v>
       </c>
       <c r="F24" t="n">
-        <v>0.467815</v>
+        <v>0.464664</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.225897</v>
+        <v>0.224907</v>
       </c>
       <c r="C25" t="n">
-        <v>0.466378</v>
+        <v>0.464807</v>
       </c>
       <c r="D25" t="n">
-        <v>0.52122</v>
+        <v>0.50773</v>
       </c>
       <c r="E25" t="n">
-        <v>0.228203</v>
+        <v>0.226021</v>
       </c>
       <c r="F25" t="n">
-        <v>0.466111</v>
+        <v>0.463695</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.224562</v>
+        <v>0.224739</v>
       </c>
       <c r="C26" t="n">
-        <v>0.471661</v>
+        <v>0.464043</v>
       </c>
       <c r="D26" t="n">
-        <v>0.51088</v>
+        <v>0.509085</v>
       </c>
       <c r="E26" t="n">
-        <v>0.227295</v>
+        <v>0.225628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.461572</v>
+        <v>0.461098</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.219212</v>
+        <v>0.216989</v>
       </c>
       <c r="C27" t="n">
-        <v>0.467317</v>
+        <v>0.462508</v>
       </c>
       <c r="D27" t="n">
-        <v>0.516492</v>
+        <v>0.505664</v>
       </c>
       <c r="E27" t="n">
-        <v>0.225448</v>
+        <v>0.225224</v>
       </c>
       <c r="F27" t="n">
-        <v>0.46447</v>
+        <v>0.459872</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.214738</v>
+        <v>0.214256</v>
       </c>
       <c r="C28" t="n">
-        <v>0.459463</v>
+        <v>0.455305</v>
       </c>
       <c r="D28" t="n">
-        <v>0.505603</v>
+        <v>0.51253</v>
       </c>
       <c r="E28" t="n">
-        <v>0.229479</v>
+        <v>0.223531</v>
       </c>
       <c r="F28" t="n">
-        <v>0.467568</v>
+        <v>0.45959</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.211227</v>
+        <v>0.209586</v>
       </c>
       <c r="C29" t="n">
-        <v>0.45454</v>
+        <v>0.45054</v>
       </c>
       <c r="D29" t="n">
-        <v>0.509274</v>
+        <v>0.507376</v>
       </c>
       <c r="E29" t="n">
-        <v>0.224383</v>
+        <v>0.22329</v>
       </c>
       <c r="F29" t="n">
-        <v>0.462145</v>
+        <v>0.45589</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.20763</v>
+        <v>0.206599</v>
       </c>
       <c r="C30" t="n">
-        <v>0.454171</v>
+        <v>0.45333</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5072140000000001</v>
+        <v>0.505257</v>
       </c>
       <c r="E30" t="n">
-        <v>0.224737</v>
+        <v>0.223468</v>
       </c>
       <c r="F30" t="n">
-        <v>0.459536</v>
+        <v>0.454575</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.203659</v>
+        <v>0.203713</v>
       </c>
       <c r="C31" t="n">
-        <v>0.44876</v>
+        <v>0.444539</v>
       </c>
       <c r="D31" t="n">
-        <v>0.505928</v>
+        <v>0.504057</v>
       </c>
       <c r="E31" t="n">
-        <v>0.222249</v>
+        <v>0.221718</v>
       </c>
       <c r="F31" t="n">
-        <v>0.462509</v>
+        <v>0.456038</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.201426</v>
+        <v>0.199254</v>
       </c>
       <c r="C32" t="n">
-        <v>0.446812</v>
+        <v>0.439256</v>
       </c>
       <c r="D32" t="n">
-        <v>0.518796</v>
+        <v>0.5041949999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>0.222413</v>
+        <v>0.221356</v>
       </c>
       <c r="F32" t="n">
-        <v>0.462307</v>
+        <v>0.456121</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.198127</v>
+        <v>0.196813</v>
       </c>
       <c r="C33" t="n">
-        <v>0.442137</v>
+        <v>0.436025</v>
       </c>
       <c r="D33" t="n">
-        <v>0.504114</v>
+        <v>0.507841</v>
       </c>
       <c r="E33" t="n">
-        <v>0.220517</v>
+        <v>0.219848</v>
       </c>
       <c r="F33" t="n">
-        <v>0.459658</v>
+        <v>0.454515</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.193882</v>
+        <v>0.196109</v>
       </c>
       <c r="C34" t="n">
-        <v>0.438256</v>
+        <v>0.434252</v>
       </c>
       <c r="D34" t="n">
-        <v>0.508948</v>
+        <v>0.504478</v>
       </c>
       <c r="E34" t="n">
-        <v>0.222681</v>
+        <v>0.220473</v>
       </c>
       <c r="F34" t="n">
-        <v>0.462506</v>
+        <v>0.45378</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.191174</v>
+        <v>0.189282</v>
       </c>
       <c r="C35" t="n">
-        <v>0.443907</v>
+        <v>0.431225</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5264450000000001</v>
+        <v>0.526112</v>
       </c>
       <c r="E35" t="n">
-        <v>0.21939</v>
+        <v>0.21897</v>
       </c>
       <c r="F35" t="n">
-        <v>0.459153</v>
+        <v>0.452761</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.190043</v>
+        <v>0.184357</v>
       </c>
       <c r="C36" t="n">
-        <v>0.43195</v>
+        <v>0.432505</v>
       </c>
       <c r="D36" t="n">
-        <v>0.536184</v>
+        <v>0.529466</v>
       </c>
       <c r="E36" t="n">
-        <v>0.219222</v>
+        <v>0.218543</v>
       </c>
       <c r="F36" t="n">
-        <v>0.456652</v>
+        <v>0.451846</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.178253</v>
+        <v>0.179163</v>
       </c>
       <c r="C37" t="n">
-        <v>0.426147</v>
+        <v>0.421928</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5303369999999999</v>
+        <v>0.5177929999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>0.245325</v>
+        <v>0.245067</v>
       </c>
       <c r="F37" t="n">
-        <v>0.475562</v>
+        <v>0.474174</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2313</v>
+        <v>0.235041</v>
       </c>
       <c r="C38" t="n">
-        <v>0.491762</v>
+        <v>0.475431</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5252289999999999</v>
+        <v>0.523123</v>
       </c>
       <c r="E38" t="n">
-        <v>0.243298</v>
+        <v>0.241692</v>
       </c>
       <c r="F38" t="n">
-        <v>0.479484</v>
+        <v>0.469936</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.232037</v>
+        <v>0.2314</v>
       </c>
       <c r="C39" t="n">
-        <v>0.483431</v>
+        <v>0.476485</v>
       </c>
       <c r="D39" t="n">
-        <v>0.524735</v>
+        <v>0.524798</v>
       </c>
       <c r="E39" t="n">
-        <v>0.240199</v>
+        <v>0.240291</v>
       </c>
       <c r="F39" t="n">
-        <v>0.47691</v>
+        <v>0.471841</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.2281</v>
+        <v>0.227463</v>
       </c>
       <c r="C40" t="n">
-        <v>0.47562</v>
+        <v>0.470241</v>
       </c>
       <c r="D40" t="n">
-        <v>0.533738</v>
+        <v>0.522428</v>
       </c>
       <c r="E40" t="n">
-        <v>0.237676</v>
+        <v>0.238656</v>
       </c>
       <c r="F40" t="n">
-        <v>0.479051</v>
+        <v>0.471857</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.223237</v>
+        <v>0.222932</v>
       </c>
       <c r="C41" t="n">
-        <v>0.490912</v>
+        <v>0.469021</v>
       </c>
       <c r="D41" t="n">
-        <v>0.533641</v>
+        <v>0.514804</v>
       </c>
       <c r="E41" t="n">
-        <v>0.238535</v>
+        <v>0.235366</v>
       </c>
       <c r="F41" t="n">
-        <v>0.48006</v>
+        <v>0.465816</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.217086</v>
+        <v>0.220791</v>
       </c>
       <c r="C42" t="n">
-        <v>0.487205</v>
+        <v>0.463961</v>
       </c>
       <c r="D42" t="n">
-        <v>0.531945</v>
+        <v>0.51839</v>
       </c>
       <c r="E42" t="n">
-        <v>0.237954</v>
+        <v>0.235513</v>
       </c>
       <c r="F42" t="n">
-        <v>0.486848</v>
+        <v>0.471404</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.217403</v>
+        <v>0.217975</v>
       </c>
       <c r="C43" t="n">
-        <v>0.486205</v>
+        <v>0.459504</v>
       </c>
       <c r="D43" t="n">
-        <v>0.531617</v>
+        <v>0.518032</v>
       </c>
       <c r="E43" t="n">
-        <v>0.233007</v>
+        <v>0.235161</v>
       </c>
       <c r="F43" t="n">
-        <v>0.486256</v>
+        <v>0.468596</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.211039</v>
+        <v>0.214386</v>
       </c>
       <c r="C44" t="n">
-        <v>0.490175</v>
+        <v>0.459045</v>
       </c>
       <c r="D44" t="n">
-        <v>0.541611</v>
+        <v>0.528903</v>
       </c>
       <c r="E44" t="n">
-        <v>0.231851</v>
+        <v>0.23404</v>
       </c>
       <c r="F44" t="n">
-        <v>0.471556</v>
+        <v>0.468509</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.208637</v>
+        <v>0.211687</v>
       </c>
       <c r="C45" t="n">
-        <v>0.45786</v>
+        <v>0.456551</v>
       </c>
       <c r="D45" t="n">
-        <v>0.524585</v>
+        <v>0.531543</v>
       </c>
       <c r="E45" t="n">
-        <v>0.232173</v>
+        <v>0.23067</v>
       </c>
       <c r="F45" t="n">
-        <v>0.477299</v>
+        <v>0.466653</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.204804</v>
+        <v>0.204291</v>
       </c>
       <c r="C46" t="n">
-        <v>0.489485</v>
+        <v>0.45647</v>
       </c>
       <c r="D46" t="n">
-        <v>0.545539</v>
+        <v>0.5335760000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>0.228991</v>
+        <v>0.230473</v>
       </c>
       <c r="F46" t="n">
-        <v>0.493181</v>
+        <v>0.464315</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.202397</v>
+        <v>0.200093</v>
       </c>
       <c r="C47" t="n">
-        <v>0.495517</v>
+        <v>0.451</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5509039999999999</v>
+        <v>0.533687</v>
       </c>
       <c r="E47" t="n">
-        <v>0.227468</v>
+        <v>0.228833</v>
       </c>
       <c r="F47" t="n">
-        <v>0.492018</v>
+        <v>0.463666</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.199111</v>
+        <v>0.198189</v>
       </c>
       <c r="C48" t="n">
-        <v>0.492032</v>
+        <v>0.451444</v>
       </c>
       <c r="D48" t="n">
-        <v>0.53176</v>
+        <v>0.545897</v>
       </c>
       <c r="E48" t="n">
-        <v>0.229064</v>
+        <v>0.226076</v>
       </c>
       <c r="F48" t="n">
-        <v>0.476889</v>
+        <v>0.465703</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.195274</v>
+        <v>0.19505</v>
       </c>
       <c r="C49" t="n">
-        <v>0.450862</v>
+        <v>0.446802</v>
       </c>
       <c r="D49" t="n">
-        <v>0.528308</v>
+        <v>0.532359</v>
       </c>
       <c r="E49" t="n">
-        <v>0.226997</v>
+        <v>0.224989</v>
       </c>
       <c r="F49" t="n">
-        <v>0.477905</v>
+        <v>0.472878</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.190205</v>
+        <v>0.189648</v>
       </c>
       <c r="C50" t="n">
-        <v>0.451824</v>
+        <v>0.446609</v>
       </c>
       <c r="D50" t="n">
-        <v>0.629838</v>
+        <v>0.615323</v>
       </c>
       <c r="E50" t="n">
-        <v>0.226054</v>
+        <v>0.224978</v>
       </c>
       <c r="F50" t="n">
-        <v>0.473542</v>
+        <v>0.468113</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.184926</v>
+        <v>0.182214</v>
       </c>
       <c r="C51" t="n">
-        <v>0.451025</v>
+        <v>0.437537</v>
       </c>
       <c r="D51" t="n">
-        <v>0.63486</v>
+        <v>0.616582</v>
       </c>
       <c r="E51" t="n">
-        <v>0.248308</v>
+        <v>0.248037</v>
       </c>
       <c r="F51" t="n">
-        <v>0.497258</v>
+        <v>0.48769</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176301</v>
+        <v>0.173673</v>
       </c>
       <c r="C52" t="n">
-        <v>0.447357</v>
+        <v>0.43621</v>
       </c>
       <c r="D52" t="n">
-        <v>0.612456</v>
+        <v>0.608989</v>
       </c>
       <c r="E52" t="n">
-        <v>0.242786</v>
+        <v>0.243543</v>
       </c>
       <c r="F52" t="n">
-        <v>0.503227</v>
+        <v>0.523452</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.236178</v>
+        <v>0.2364</v>
       </c>
       <c r="C53" t="n">
-        <v>0.505607</v>
+        <v>0.49937</v>
       </c>
       <c r="D53" t="n">
-        <v>0.615619</v>
+        <v>0.630446</v>
       </c>
       <c r="E53" t="n">
-        <v>0.241363</v>
+        <v>0.251838</v>
       </c>
       <c r="F53" t="n">
-        <v>0.498774</v>
+        <v>0.492682</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.232917</v>
+        <v>0.236041</v>
       </c>
       <c r="C54" t="n">
-        <v>0.510305</v>
+        <v>0.504065</v>
       </c>
       <c r="D54" t="n">
-        <v>0.614368</v>
+        <v>0.609221</v>
       </c>
       <c r="E54" t="n">
-        <v>0.24048</v>
+        <v>0.238689</v>
       </c>
       <c r="F54" t="n">
-        <v>0.500407</v>
+        <v>0.497615</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.230253</v>
+        <v>0.232151</v>
       </c>
       <c r="C55" t="n">
-        <v>0.509364</v>
+        <v>0.500995</v>
       </c>
       <c r="D55" t="n">
-        <v>0.610923</v>
+        <v>0.62574</v>
       </c>
       <c r="E55" t="n">
-        <v>0.242031</v>
+        <v>0.237552</v>
       </c>
       <c r="F55" t="n">
-        <v>0.501968</v>
+        <v>0.530433</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.226455</v>
+        <v>0.225202</v>
       </c>
       <c r="C56" t="n">
-        <v>0.51114</v>
+        <v>0.506277</v>
       </c>
       <c r="D56" t="n">
-        <v>0.625769</v>
+        <v>0.615222</v>
       </c>
       <c r="E56" t="n">
-        <v>0.236699</v>
+        <v>0.235616</v>
       </c>
       <c r="F56" t="n">
-        <v>0.502417</v>
+        <v>0.5012450000000001</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.220763</v>
+        <v>0.220427</v>
       </c>
       <c r="C57" t="n">
-        <v>0.508063</v>
+        <v>0.510553</v>
       </c>
       <c r="D57" t="n">
-        <v>0.616893</v>
+        <v>0.617283</v>
       </c>
       <c r="E57" t="n">
-        <v>0.234679</v>
+        <v>0.234501</v>
       </c>
       <c r="F57" t="n">
-        <v>0.505284</v>
+        <v>0.502216</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.219688</v>
+        <v>0.217163</v>
       </c>
       <c r="C58" t="n">
-        <v>0.511683</v>
+        <v>0.504485</v>
       </c>
       <c r="D58" t="n">
-        <v>0.615662</v>
+        <v>0.6088750000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>0.23229</v>
+        <v>0.234472</v>
       </c>
       <c r="F58" t="n">
-        <v>0.515467</v>
+        <v>0.506942</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.212186</v>
+        <v>0.215784</v>
       </c>
       <c r="C59" t="n">
-        <v>0.519802</v>
+        <v>0.505714</v>
       </c>
       <c r="D59" t="n">
-        <v>0.615344</v>
+        <v>0.623282</v>
       </c>
       <c r="E59" t="n">
-        <v>0.230728</v>
+        <v>0.231621</v>
       </c>
       <c r="F59" t="n">
-        <v>0.518903</v>
+        <v>0.545473</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.208527</v>
+        <v>0.209904</v>
       </c>
       <c r="C60" t="n">
-        <v>0.561097</v>
+        <v>0.5298119999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.634233</v>
+        <v>0.626274</v>
       </c>
       <c r="E60" t="n">
-        <v>0.232625</v>
+        <v>0.229668</v>
       </c>
       <c r="F60" t="n">
-        <v>0.515711</v>
+        <v>0.510919</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.206192</v>
+        <v>0.207901</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5184299999999999</v>
+        <v>0.504785</v>
       </c>
       <c r="D61" t="n">
-        <v>0.611652</v>
+        <v>0.604165</v>
       </c>
       <c r="E61" t="n">
-        <v>0.22905</v>
+        <v>0.230169</v>
       </c>
       <c r="F61" t="n">
-        <v>0.519302</v>
+        <v>0.532403</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.20281</v>
+        <v>0.203825</v>
       </c>
       <c r="C62" t="n">
-        <v>0.519795</v>
+        <v>0.5373289999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.636753</v>
+        <v>0.628663</v>
       </c>
       <c r="E62" t="n">
-        <v>0.230063</v>
+        <v>0.227613</v>
       </c>
       <c r="F62" t="n">
-        <v>0.541574</v>
+        <v>0.542382</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.197891</v>
+        <v>0.197923</v>
       </c>
       <c r="C63" t="n">
-        <v>0.550307</v>
+        <v>0.541588</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6226</v>
+        <v>0.609283</v>
       </c>
       <c r="E63" t="n">
-        <v>0.226304</v>
+        <v>0.227375</v>
       </c>
       <c r="F63" t="n">
-        <v>0.565802</v>
+        <v>0.527448</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.194223</v>
+        <v>0.193604</v>
       </c>
       <c r="C64" t="n">
-        <v>0.552767</v>
+        <v>0.514336</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7098680000000001</v>
+        <v>0.716604</v>
       </c>
       <c r="E64" t="n">
-        <v>0.225114</v>
+        <v>0.226704</v>
       </c>
       <c r="F64" t="n">
-        <v>0.540831</v>
+        <v>0.5227619999999999</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.19021</v>
+        <v>0.187917</v>
       </c>
       <c r="C65" t="n">
-        <v>0.516854</v>
+        <v>0.516802</v>
       </c>
       <c r="D65" t="n">
-        <v>0.706962</v>
+        <v>0.70932</v>
       </c>
       <c r="E65" t="n">
-        <v>0.224861</v>
+        <v>0.22494</v>
       </c>
       <c r="F65" t="n">
-        <v>0.533084</v>
+        <v>0.530495</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.180424</v>
+        <v>0.181029</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5149629999999999</v>
+        <v>0.507841</v>
       </c>
       <c r="D66" t="n">
-        <v>0.705221</v>
+        <v>0.70111</v>
       </c>
       <c r="E66" t="n">
-        <v>0.249499</v>
+        <v>0.246383</v>
       </c>
       <c r="F66" t="n">
-        <v>0.567754</v>
+        <v>0.561872</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.243929</v>
+        <v>0.243481</v>
       </c>
       <c r="C67" t="n">
-        <v>0.60668</v>
+        <v>0.590021</v>
       </c>
       <c r="D67" t="n">
-        <v>0.736026</v>
+        <v>0.699634</v>
       </c>
       <c r="E67" t="n">
-        <v>0.25952</v>
+        <v>0.244747</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5845900000000001</v>
+        <v>0.559636</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.247202</v>
+        <v>0.239458</v>
       </c>
       <c r="C68" t="n">
-        <v>0.593688</v>
+        <v>0.5827290000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.697196</v>
+        <v>0.68798</v>
       </c>
       <c r="E68" t="n">
-        <v>0.244992</v>
+        <v>0.242723</v>
       </c>
       <c r="F68" t="n">
-        <v>0.5760110000000001</v>
+        <v>0.558439</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.237221</v>
+        <v>0.23531</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5988</v>
+        <v>0.580547</v>
       </c>
       <c r="D69" t="n">
-        <v>0.697295</v>
+        <v>0.682277</v>
       </c>
       <c r="E69" t="n">
-        <v>0.241647</v>
+        <v>0.240268</v>
       </c>
       <c r="F69" t="n">
-        <v>0.5796829999999999</v>
+        <v>0.560349</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.237206</v>
+        <v>0.231534</v>
       </c>
       <c r="C70" t="n">
-        <v>0.596579</v>
+        <v>0.580548</v>
       </c>
       <c r="D70" t="n">
-        <v>0.688254</v>
+        <v>0.681016</v>
       </c>
       <c r="E70" t="n">
-        <v>0.242283</v>
+        <v>0.238004</v>
       </c>
       <c r="F70" t="n">
-        <v>0.575886</v>
+        <v>0.557766</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.229881</v>
+        <v>0.227275</v>
       </c>
       <c r="C71" t="n">
-        <v>0.582307</v>
+        <v>0.572171</v>
       </c>
       <c r="D71" t="n">
-        <v>0.681801</v>
+        <v>0.674917</v>
       </c>
       <c r="E71" t="n">
-        <v>0.237585</v>
+        <v>0.236818</v>
       </c>
       <c r="F71" t="n">
-        <v>0.5654169999999999</v>
+        <v>0.557263</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.22657</v>
+        <v>0.223281</v>
       </c>
       <c r="C72" t="n">
-        <v>0.586223</v>
+        <v>0.5741000000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.676746</v>
+        <v>0.669006</v>
       </c>
       <c r="E72" t="n">
-        <v>0.237348</v>
+        <v>0.234995</v>
       </c>
       <c r="F72" t="n">
-        <v>0.571043</v>
+        <v>0.558384</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219034</v>
+        <v>0.218091</v>
       </c>
       <c r="C73" t="n">
-        <v>0.585172</v>
+        <v>0.572048</v>
       </c>
       <c r="D73" t="n">
-        <v>0.685338</v>
+        <v>0.6667419999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>0.235605</v>
+        <v>0.233752</v>
       </c>
       <c r="F73" t="n">
-        <v>0.5651929999999999</v>
+        <v>0.55703</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.218463</v>
+        <v>0.218845</v>
       </c>
       <c r="C74" t="n">
-        <v>0.573187</v>
+        <v>0.56276</v>
       </c>
       <c r="D74" t="n">
-        <v>0.671752</v>
+        <v>0.669525</v>
       </c>
       <c r="E74" t="n">
-        <v>0.235379</v>
+        <v>0.232412</v>
       </c>
       <c r="F74" t="n">
-        <v>0.565111</v>
+        <v>0.558537</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.215246</v>
+        <v>0.210636</v>
       </c>
       <c r="C75" t="n">
-        <v>0.567797</v>
+        <v>0.564113</v>
       </c>
       <c r="D75" t="n">
-        <v>0.67988</v>
+        <v>0.665045</v>
       </c>
       <c r="E75" t="n">
-        <v>0.232484</v>
+        <v>0.230654</v>
       </c>
       <c r="F75" t="n">
-        <v>0.569844</v>
+        <v>0.557731</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.209634</v>
+        <v>0.207559</v>
       </c>
       <c r="C76" t="n">
-        <v>0.566651</v>
+        <v>0.557319</v>
       </c>
       <c r="D76" t="n">
-        <v>0.668633</v>
+        <v>0.678015</v>
       </c>
       <c r="E76" t="n">
-        <v>0.231027</v>
+        <v>0.230739</v>
       </c>
       <c r="F76" t="n">
-        <v>0.565844</v>
+        <v>0.556792</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.203043</v>
+        <v>0.202507</v>
       </c>
       <c r="C77" t="n">
-        <v>0.564113</v>
+        <v>0.551019</v>
       </c>
       <c r="D77" t="n">
-        <v>0.665477</v>
+        <v>0.662238</v>
       </c>
       <c r="E77" t="n">
-        <v>0.228757</v>
+        <v>0.231375</v>
       </c>
       <c r="F77" t="n">
-        <v>0.569343</v>
+        <v>0.555028</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.200932</v>
+        <v>0.201358</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5596139999999999</v>
+        <v>0.549224</v>
       </c>
       <c r="D78" t="n">
-        <v>0.750302</v>
+        <v>0.7454460000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>0.229899</v>
+        <v>0.228933</v>
       </c>
       <c r="F78" t="n">
-        <v>0.558918</v>
+        <v>0.556018</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.192811</v>
+        <v>0.192612</v>
       </c>
       <c r="C79" t="n">
-        <v>0.556984</v>
+        <v>0.543596</v>
       </c>
       <c r="D79" t="n">
-        <v>0.755697</v>
+        <v>0.753039</v>
       </c>
       <c r="E79" t="n">
-        <v>0.226477</v>
+        <v>0.226814</v>
       </c>
       <c r="F79" t="n">
-        <v>0.559045</v>
+        <v>0.5550349999999999</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.186965</v>
+        <v>0.185233</v>
       </c>
       <c r="C80" t="n">
-        <v>0.541069</v>
+        <v>0.537696</v>
       </c>
       <c r="D80" t="n">
-        <v>0.748468</v>
+        <v>0.738147</v>
       </c>
       <c r="E80" t="n">
-        <v>0.253173</v>
+        <v>0.253061</v>
       </c>
       <c r="F80" t="n">
-        <v>0.581425</v>
+        <v>0.576879</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.253198</v>
+        <v>0.251597</v>
       </c>
       <c r="C81" t="n">
-        <v>0.605168</v>
+        <v>0.60203</v>
       </c>
       <c r="D81" t="n">
-        <v>0.739505</v>
+        <v>0.730463</v>
       </c>
       <c r="E81" t="n">
-        <v>0.251068</v>
+        <v>0.250426</v>
       </c>
       <c r="F81" t="n">
-        <v>0.5796750000000001</v>
+        <v>0.577797</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.251356</v>
+        <v>0.248063</v>
       </c>
       <c r="C82" t="n">
-        <v>0.610282</v>
+        <v>0.598264</v>
       </c>
       <c r="D82" t="n">
-        <v>0.732973</v>
+        <v>0.725844</v>
       </c>
       <c r="E82" t="n">
-        <v>0.250497</v>
+        <v>0.247914</v>
       </c>
       <c r="F82" t="n">
-        <v>0.579296</v>
+        <v>0.571913</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.243681</v>
+        <v>0.242941</v>
       </c>
       <c r="C83" t="n">
-        <v>0.60031</v>
+        <v>0.601562</v>
       </c>
       <c r="D83" t="n">
-        <v>0.730416</v>
+        <v>0.72018</v>
       </c>
       <c r="E83" t="n">
-        <v>0.247501</v>
+        <v>0.247487</v>
       </c>
       <c r="F83" t="n">
-        <v>0.580867</v>
+        <v>0.5694630000000001</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.237739</v>
+        <v>0.238864</v>
       </c>
       <c r="C84" t="n">
-        <v>0.623648</v>
+        <v>0.624332</v>
       </c>
       <c r="D84" t="n">
-        <v>0.755423</v>
+        <v>0.753889</v>
       </c>
       <c r="E84" t="n">
-        <v>0.245733</v>
+        <v>0.243907</v>
       </c>
       <c r="F84" t="n">
-        <v>0.6050450000000001</v>
+        <v>0.592493</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.235623</v>
+        <v>0.235706</v>
       </c>
       <c r="C85" t="n">
-        <v>0.626004</v>
+        <v>0.616354</v>
       </c>
       <c r="D85" t="n">
-        <v>0.753649</v>
+        <v>0.737206</v>
       </c>
       <c r="E85" t="n">
-        <v>0.244769</v>
+        <v>0.241917</v>
       </c>
       <c r="F85" t="n">
-        <v>0.599638</v>
+        <v>0.5905319999999999</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.229193</v>
+        <v>0.229917</v>
       </c>
       <c r="C86" t="n">
-        <v>0.616887</v>
+        <v>0.621519</v>
       </c>
       <c r="D86" t="n">
-        <v>0.747676</v>
+        <v>0.731472</v>
       </c>
       <c r="E86" t="n">
-        <v>0.241041</v>
+        <v>0.240269</v>
       </c>
       <c r="F86" t="n">
-        <v>0.595853</v>
+        <v>0.588824</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.225504</v>
+        <v>0.224814</v>
       </c>
       <c r="C87" t="n">
-        <v>0.618201</v>
+        <v>0.615708</v>
       </c>
       <c r="D87" t="n">
-        <v>0.7346819999999999</v>
+        <v>0.734434</v>
       </c>
       <c r="E87" t="n">
-        <v>0.239051</v>
+        <v>0.238555</v>
       </c>
       <c r="F87" t="n">
-        <v>0.597356</v>
+        <v>0.586719</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.220624</v>
+        <v>0.219685</v>
       </c>
       <c r="C88" t="n">
-        <v>0.611054</v>
+        <v>0.601691</v>
       </c>
       <c r="D88" t="n">
-        <v>0.726339</v>
+        <v>0.7246089999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>0.237441</v>
+        <v>0.238254</v>
       </c>
       <c r="F88" t="n">
-        <v>0.590076</v>
+        <v>0.586446</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.216257</v>
+        <v>0.215216</v>
       </c>
       <c r="C89" t="n">
-        <v>0.606171</v>
+        <v>0.604039</v>
       </c>
       <c r="D89" t="n">
-        <v>0.726371</v>
+        <v>0.7204390000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>0.236502</v>
+        <v>0.235708</v>
       </c>
       <c r="F89" t="n">
-        <v>0.58931</v>
+        <v>0.586986</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.213278</v>
+        <v>0.212661</v>
       </c>
       <c r="C90" t="n">
-        <v>0.60401</v>
+        <v>0.597538</v>
       </c>
       <c r="D90" t="n">
-        <v>0.725015</v>
+        <v>0.7242150000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>0.235357</v>
+        <v>0.234457</v>
       </c>
       <c r="F90" t="n">
-        <v>0.587148</v>
+        <v>0.583151</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.207722</v>
+        <v>0.207178</v>
       </c>
       <c r="C91" t="n">
-        <v>0.60133</v>
+        <v>0.591731</v>
       </c>
       <c r="D91" t="n">
-        <v>0.716772</v>
+        <v>0.71654</v>
       </c>
       <c r="E91" t="n">
-        <v>0.237898</v>
+        <v>0.23268</v>
       </c>
       <c r="F91" t="n">
-        <v>0.586246</v>
+        <v>0.587203</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.203195</v>
+        <v>0.203877</v>
       </c>
       <c r="C92" t="n">
-        <v>0.602743</v>
+        <v>0.585788</v>
       </c>
       <c r="D92" t="n">
-        <v>0.679016</v>
+        <v>0.667922</v>
       </c>
       <c r="E92" t="n">
-        <v>0.235376</v>
+        <v>0.2313</v>
       </c>
       <c r="F92" t="n">
-        <v>0.586198</v>
+        <v>0.579398</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.197942</v>
+        <v>0.197413</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5948329999999999</v>
+        <v>0.57598</v>
       </c>
       <c r="D93" t="n">
-        <v>0.673122</v>
+        <v>0.667544</v>
       </c>
       <c r="E93" t="n">
-        <v>0.229654</v>
+        <v>0.230862</v>
       </c>
       <c r="F93" t="n">
-        <v>0.595157</v>
+        <v>0.579257</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.189972</v>
+        <v>0.190576</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5904740000000001</v>
+        <v>0.571124</v>
       </c>
       <c r="D94" t="n">
-        <v>0.67264</v>
+        <v>0.666059</v>
       </c>
       <c r="E94" t="n">
-        <v>0.256097</v>
+        <v>0.256322</v>
       </c>
       <c r="F94" t="n">
-        <v>0.608402</v>
+        <v>0.606866</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.255116</v>
+        <v>0.254489</v>
       </c>
       <c r="C95" t="n">
-        <v>0.635875</v>
+        <v>0.647817</v>
       </c>
       <c r="D95" t="n">
-        <v>0.665049</v>
+        <v>0.661708</v>
       </c>
       <c r="E95" t="n">
-        <v>0.253137</v>
+        <v>0.253777</v>
       </c>
       <c r="F95" t="n">
-        <v>0.602836</v>
+        <v>0.599302</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.251195</v>
+        <v>0.249885</v>
       </c>
       <c r="C96" t="n">
-        <v>0.635278</v>
+        <v>0.638852</v>
       </c>
       <c r="D96" t="n">
-        <v>0.676522</v>
+        <v>0.662865</v>
       </c>
       <c r="E96" t="n">
-        <v>0.251124</v>
+        <v>0.252544</v>
       </c>
       <c r="F96" t="n">
-        <v>0.601179</v>
+        <v>0.5972</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.246008</v>
+        <v>0.244444</v>
       </c>
       <c r="C97" t="n">
-        <v>0.627453</v>
+        <v>0.6342140000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.671372</v>
+        <v>0.6740620000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>0.248426</v>
+        <v>0.248812</v>
       </c>
       <c r="F97" t="n">
-        <v>0.599329</v>
+        <v>0.599081</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.240471</v>
+        <v>0.24024</v>
       </c>
       <c r="C98" t="n">
-        <v>0.622116</v>
+        <v>0.634253</v>
       </c>
       <c r="D98" t="n">
-        <v>0.666358</v>
+        <v>0.670982</v>
       </c>
       <c r="E98" t="n">
-        <v>0.248065</v>
+        <v>0.24659</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5980259999999999</v>
+        <v>0.593602</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.237652</v>
+        <v>0.236293</v>
       </c>
       <c r="C99" t="n">
-        <v>0.61842</v>
+        <v>0.622887</v>
       </c>
       <c r="D99" t="n">
-        <v>0.665608</v>
+        <v>0.662049</v>
       </c>
       <c r="E99" t="n">
-        <v>0.24528</v>
+        <v>0.244592</v>
       </c>
       <c r="F99" t="n">
-        <v>0.597796</v>
+        <v>0.592066</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.23059</v>
+        <v>0.230175</v>
       </c>
       <c r="C100" t="n">
-        <v>0.615676</v>
+        <v>0.6173149999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.670731</v>
+        <v>0.6590549999999999</v>
       </c>
       <c r="E100" t="n">
-        <v>0.24604</v>
+        <v>0.242433</v>
       </c>
       <c r="F100" t="n">
-        <v>0.59191</v>
+        <v>0.589835</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.226234</v>
+        <v>0.226651</v>
       </c>
       <c r="C101" t="n">
-        <v>0.612492</v>
+        <v>0.619536</v>
       </c>
       <c r="D101" t="n">
-        <v>0.664169</v>
+        <v>0.661609</v>
       </c>
       <c r="E101" t="n">
-        <v>0.24458</v>
+        <v>0.240411</v>
       </c>
       <c r="F101" t="n">
-        <v>0.59327</v>
+        <v>0.590907</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.223193</v>
+        <v>0.222122</v>
       </c>
       <c r="C102" t="n">
-        <v>0.609789</v>
+        <v>0.610522</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6624139999999999</v>
+        <v>0.660161</v>
       </c>
       <c r="E102" t="n">
-        <v>0.240249</v>
+        <v>0.238063</v>
       </c>
       <c r="F102" t="n">
-        <v>0.591063</v>
+        <v>0.586688</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.219358</v>
+        <v>0.217731</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5948639999999999</v>
+        <v>0.614435</v>
       </c>
       <c r="D103" t="n">
-        <v>0.666404</v>
+        <v>0.656969</v>
       </c>
       <c r="E103" t="n">
-        <v>0.236795</v>
+        <v>0.236722</v>
       </c>
       <c r="F103" t="n">
-        <v>0.5923119999999999</v>
+        <v>0.595822</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.216081</v>
+        <v>0.215646</v>
       </c>
       <c r="C104" t="n">
-        <v>0.593811</v>
+        <v>0.607495</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6586689999999999</v>
+        <v>0.683469</v>
       </c>
       <c r="E104" t="n">
-        <v>0.235219</v>
+        <v>0.238198</v>
       </c>
       <c r="F104" t="n">
-        <v>0.592689</v>
+        <v>0.606609</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.209794</v>
+        <v>0.213415</v>
       </c>
       <c r="C105" t="n">
-        <v>0.592858</v>
+        <v>0.603281</v>
       </c>
       <c r="D105" t="n">
-        <v>0.662234</v>
+        <v>0.666573</v>
       </c>
       <c r="E105" t="n">
-        <v>0.233333</v>
+        <v>0.236684</v>
       </c>
       <c r="F105" t="n">
-        <v>0.588006</v>
+        <v>0.584556</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.204541</v>
+        <v>0.203972</v>
       </c>
       <c r="C106" t="n">
-        <v>0.589836</v>
+        <v>0.5919410000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.65883</v>
+        <v>0.654196</v>
       </c>
       <c r="E106" t="n">
-        <v>0.233378</v>
+        <v>0.231843</v>
       </c>
       <c r="F106" t="n">
-        <v>0.589249</v>
+        <v>0.580156</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.200958</v>
+        <v>0.202889</v>
       </c>
       <c r="C107" t="n">
-        <v>0.583777</v>
+        <v>0.586827</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6702</v>
+        <v>0.6628810000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>0.230259</v>
+        <v>0.230464</v>
       </c>
       <c r="F107" t="n">
-        <v>0.592038</v>
+        <v>0.579619</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.193834</v>
+        <v>0.193935</v>
       </c>
       <c r="C108" t="n">
-        <v>0.585853</v>
+        <v>0.581999</v>
       </c>
       <c r="D108" t="n">
-        <v>0.666612</v>
+        <v>0.664043</v>
       </c>
       <c r="E108" t="n">
-        <v>0.2629</v>
+        <v>0.256469</v>
       </c>
       <c r="F108" t="n">
-        <v>0.607625</v>
+        <v>0.602324</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.183578</v>
+        <v>0.183781</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5891459999999999</v>
+        <v>0.584659</v>
       </c>
       <c r="D109" t="n">
-        <v>0.67025</v>
+        <v>0.660273</v>
       </c>
       <c r="E109" t="n">
-        <v>0.259681</v>
+        <v>0.253882</v>
       </c>
       <c r="F109" t="n">
-        <v>0.610575</v>
+        <v>0.60523</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.250913</v>
+        <v>0.24995</v>
       </c>
       <c r="C110" t="n">
-        <v>0.635006</v>
+        <v>0.627843</v>
       </c>
       <c r="D110" t="n">
-        <v>0.663803</v>
+        <v>0.664314</v>
       </c>
       <c r="E110" t="n">
-        <v>0.258765</v>
+        <v>0.252758</v>
       </c>
       <c r="F110" t="n">
-        <v>0.608468</v>
+        <v>0.595657</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.251469</v>
+        <v>0.245754</v>
       </c>
       <c r="C111" t="n">
-        <v>0.646246</v>
+        <v>0.611765</v>
       </c>
       <c r="D111" t="n">
-        <v>0.681006</v>
+        <v>0.660907</v>
       </c>
       <c r="E111" t="n">
-        <v>0.253087</v>
+        <v>0.249346</v>
       </c>
       <c r="F111" t="n">
-        <v>0.617774</v>
+        <v>0.597074</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.245208</v>
+        <v>0.241923</v>
       </c>
       <c r="C112" t="n">
-        <v>0.631621</v>
+        <v>0.610365</v>
       </c>
       <c r="D112" t="n">
-        <v>0.665663</v>
+        <v>0.660581</v>
       </c>
       <c r="E112" t="n">
-        <v>0.247131</v>
+        <v>0.251043</v>
       </c>
       <c r="F112" t="n">
-        <v>0.613076</v>
+        <v>0.599724</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.239354</v>
+        <v>0.241765</v>
       </c>
       <c r="C113" t="n">
-        <v>0.614893</v>
+        <v>0.622052</v>
       </c>
       <c r="D113" t="n">
-        <v>0.676643</v>
+        <v>0.65989</v>
       </c>
       <c r="E113" t="n">
-        <v>0.246517</v>
+        <v>0.244934</v>
       </c>
       <c r="F113" t="n">
-        <v>0.609606</v>
+        <v>0.592029</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.234243</v>
+        <v>0.232115</v>
       </c>
       <c r="C114" t="n">
-        <v>0.623648</v>
+        <v>0.603047</v>
       </c>
       <c r="D114" t="n">
-        <v>0.671471</v>
+        <v>0.657546</v>
       </c>
       <c r="E114" t="n">
-        <v>0.244732</v>
+        <v>0.243047</v>
       </c>
       <c r="F114" t="n">
-        <v>0.598397</v>
+        <v>0.594869</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.229543</v>
+        <v>0.227734</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6231</v>
+        <v>0.597603</v>
       </c>
       <c r="D115" t="n">
-        <v>0.662405</v>
+        <v>0.656289</v>
       </c>
       <c r="E115" t="n">
-        <v>0.247949</v>
+        <v>0.240893</v>
       </c>
       <c r="F115" t="n">
-        <v>0.600041</v>
+        <v>0.5908600000000001</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.226759</v>
+        <v>0.222378</v>
       </c>
       <c r="C116" t="n">
-        <v>0.614625</v>
+        <v>0.599017</v>
       </c>
       <c r="D116" t="n">
-        <v>0.672484</v>
+        <v>0.663985</v>
       </c>
       <c r="E116" t="n">
-        <v>0.242961</v>
+        <v>0.239544</v>
       </c>
       <c r="F116" t="n">
-        <v>0.596979</v>
+        <v>0.589594</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.219837</v>
+        <v>0.220967</v>
       </c>
       <c r="C117" t="n">
-        <v>0.62323</v>
+        <v>0.591476</v>
       </c>
       <c r="D117" t="n">
-        <v>0.661431</v>
+        <v>0.660114</v>
       </c>
       <c r="E117" t="n">
-        <v>0.237469</v>
+        <v>0.23782</v>
       </c>
       <c r="F117" t="n">
-        <v>0.606253</v>
+        <v>0.588185</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.216349</v>
+        <v>0.213927</v>
       </c>
       <c r="C118" t="n">
-        <v>0.60816</v>
+        <v>0.584407</v>
       </c>
       <c r="D118" t="n">
-        <v>0.670975</v>
+        <v>0.657934</v>
       </c>
       <c r="E118" t="n">
-        <v>0.237947</v>
+        <v>0.236477</v>
       </c>
       <c r="F118" t="n">
-        <v>0.607585</v>
+        <v>0.589519</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.21118</v>
+        <v>0.210068</v>
       </c>
       <c r="C119" t="n">
-        <v>0.594425</v>
+        <v>0.58432</v>
       </c>
       <c r="D119" t="n">
-        <v>0.671166</v>
+        <v>0.662168</v>
       </c>
       <c r="E119" t="n">
-        <v>0.234146</v>
+        <v>0.234759</v>
       </c>
       <c r="F119" t="n">
-        <v>0.603982</v>
+        <v>0.586043</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.211561</v>
+        <v>0.206596</v>
       </c>
       <c r="C120" t="n">
-        <v>0.593414</v>
+        <v>0.577395</v>
       </c>
       <c r="D120" t="n">
-        <v>0.665621</v>
+        <v>0.6571050000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>0.23822</v>
+        <v>0.232829</v>
       </c>
       <c r="F120" t="n">
-        <v>0.598141</v>
+        <v>0.582569</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.201878</v>
+        <v>0.200068</v>
       </c>
       <c r="C121" t="n">
-        <v>0.604974</v>
+        <v>0.5771810000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>0.679755</v>
+        <v>0.680193</v>
       </c>
       <c r="E121" t="n">
-        <v>0.233401</v>
+        <v>0.231328</v>
       </c>
       <c r="F121" t="n">
-        <v>0.598146</v>
+        <v>0.580375</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.194578</v>
+        <v>0.194593</v>
       </c>
       <c r="C122" t="n">
-        <v>0.598169</v>
+        <v>0.581993</v>
       </c>
       <c r="D122" t="n">
-        <v>0.68448</v>
+        <v>0.672257</v>
       </c>
       <c r="E122" t="n">
-        <v>0.233492</v>
+        <v>0.230316</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5886400000000001</v>
+        <v>0.581624</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.185528</v>
+        <v>0.186023</v>
       </c>
       <c r="C123" t="n">
-        <v>0.570898</v>
+        <v>0.575885</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6949340000000001</v>
+        <v>0.671733</v>
       </c>
       <c r="E123" t="n">
-        <v>0.259362</v>
+        <v>0.25408</v>
       </c>
       <c r="F123" t="n">
-        <v>0.61337</v>
+        <v>0.600061</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.254648</v>
+        <v>0.251373</v>
       </c>
       <c r="C124" t="n">
-        <v>0.636141</v>
+        <v>0.622791</v>
       </c>
       <c r="D124" t="n">
-        <v>0.680358</v>
+        <v>0.67091</v>
       </c>
       <c r="E124" t="n">
-        <v>0.258882</v>
+        <v>0.252149</v>
       </c>
       <c r="F124" t="n">
-        <v>0.610684</v>
+        <v>0.6022459999999999</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.251839</v>
+        <v>0.247035</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6226660000000001</v>
+        <v>0.613916</v>
       </c>
       <c r="D125" t="n">
-        <v>0.680704</v>
+        <v>0.67254</v>
       </c>
       <c r="E125" t="n">
-        <v>0.255546</v>
+        <v>0.250739</v>
       </c>
       <c r="F125" t="n">
-        <v>0.605113</v>
+        <v>0.598098</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.242387</v>
+        <v>0.241781</v>
       </c>
       <c r="C126" t="n">
-        <v>0.634567</v>
+        <v>0.622178</v>
       </c>
       <c r="D126" t="n">
-        <v>0.680735</v>
+        <v>0.668492</v>
       </c>
       <c r="E126" t="n">
-        <v>0.251577</v>
+        <v>0.247912</v>
       </c>
       <c r="F126" t="n">
-        <v>0.600765</v>
+        <v>0.599019</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.242849</v>
+        <v>0.238734</v>
       </c>
       <c r="C127" t="n">
-        <v>0.618081</v>
+        <v>0.606561</v>
       </c>
       <c r="D127" t="n">
-        <v>0.691886</v>
+        <v>0.667293</v>
       </c>
       <c r="E127" t="n">
-        <v>0.246577</v>
+        <v>0.245998</v>
       </c>
       <c r="F127" t="n">
-        <v>0.622382</v>
+        <v>0.594773</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.233936</v>
+        <v>0.232501</v>
       </c>
       <c r="C128" t="n">
-        <v>0.614682</v>
+        <v>0.599164</v>
       </c>
       <c r="D128" t="n">
-        <v>0.670955</v>
+        <v>0.667146</v>
       </c>
       <c r="E128" t="n">
-        <v>0.24417</v>
+        <v>0.243487</v>
       </c>
       <c r="F128" t="n">
-        <v>0.6135699999999999</v>
+        <v>0.599033</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.229353</v>
+        <v>0.229372</v>
       </c>
       <c r="C129" t="n">
-        <v>0.606521</v>
+        <v>0.610118</v>
       </c>
       <c r="D129" t="n">
-        <v>0.69126</v>
+        <v>0.666647</v>
       </c>
       <c r="E129" t="n">
-        <v>0.243368</v>
+        <v>0.241204</v>
       </c>
       <c r="F129" t="n">
-        <v>0.598317</v>
+        <v>0.591175</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.22889</v>
+        <v>0.225784</v>
       </c>
       <c r="C130" t="n">
-        <v>0.600898</v>
+        <v>0.62127</v>
       </c>
       <c r="D130" t="n">
-        <v>0.676358</v>
+        <v>0.664792</v>
       </c>
       <c r="E130" t="n">
-        <v>0.240256</v>
+        <v>0.239584</v>
       </c>
       <c r="F130" t="n">
-        <v>0.615058</v>
+        <v>0.589272</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.222344</v>
+        <v>0.219339</v>
       </c>
       <c r="C131" t="n">
-        <v>0.599149</v>
+        <v>0.615937</v>
       </c>
       <c r="D131" t="n">
-        <v>0.673817</v>
+        <v>0.6645990000000001</v>
       </c>
       <c r="E131" t="n">
-        <v>0.239699</v>
+        <v>0.237526</v>
       </c>
       <c r="F131" t="n">
-        <v>0.604209</v>
+        <v>0.587291</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.216092</v>
+        <v>0.215731</v>
       </c>
       <c r="C132" t="n">
-        <v>0.608037</v>
+        <v>0.587847</v>
       </c>
       <c r="D132" t="n">
-        <v>0.674291</v>
+        <v>0.667027</v>
       </c>
       <c r="E132" t="n">
-        <v>0.240083</v>
+        <v>0.23565</v>
       </c>
       <c r="F132" t="n">
-        <v>0.620332</v>
+        <v>0.588374</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.211815</v>
+        <v>0.210619</v>
       </c>
       <c r="C133" t="n">
-        <v>0.602393</v>
+        <v>0.595588</v>
       </c>
       <c r="D133" t="n">
-        <v>0.676982</v>
+        <v>0.663257</v>
       </c>
       <c r="E133" t="n">
-        <v>0.23656</v>
+        <v>0.234281</v>
       </c>
       <c r="F133" t="n">
-        <v>0.59063</v>
+        <v>0.584592</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.208618</v>
+        <v>0.206942</v>
       </c>
       <c r="C134" t="n">
-        <v>0.595857</v>
+        <v>0.5833120000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>0.670806</v>
+        <v>0.6608309999999999</v>
       </c>
       <c r="E134" t="n">
-        <v>0.23341</v>
+        <v>0.233074</v>
       </c>
       <c r="F134" t="n">
-        <v>0.600784</v>
+        <v>0.584296</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.203184</v>
+        <v>0.201396</v>
       </c>
       <c r="C135" t="n">
-        <v>0.594724</v>
+        <v>0.577242</v>
       </c>
       <c r="D135" t="n">
-        <v>0.692034</v>
+        <v>0.676937</v>
       </c>
       <c r="E135" t="n">
-        <v>0.235273</v>
+        <v>0.231666</v>
       </c>
       <c r="F135" t="n">
-        <v>0.598038</v>
+        <v>0.582695</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.197081</v>
+        <v>0.198823</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5939410000000001</v>
+        <v>0.569946</v>
       </c>
       <c r="D136" t="n">
-        <v>0.678355</v>
+        <v>0.67641</v>
       </c>
       <c r="E136" t="n">
-        <v>0.230172</v>
+        <v>0.230238</v>
       </c>
       <c r="F136" t="n">
-        <v>0.592202</v>
+        <v>0.581354</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.189143</v>
+        <v>0.187113</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5879259999999999</v>
+        <v>0.562581</v>
       </c>
       <c r="D137" t="n">
-        <v>0.675551</v>
+        <v>0.673045</v>
       </c>
       <c r="E137" t="n">
-        <v>0.256278</v>
+        <v>0.254985</v>
       </c>
       <c r="F137" t="n">
-        <v>0.609789</v>
+        <v>0.603638</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.254161</v>
+        <v>0.253001</v>
       </c>
       <c r="C138" t="n">
-        <v>0.6491479999999999</v>
+        <v>0.641343</v>
       </c>
       <c r="D138" t="n">
-        <v>0.684105</v>
+        <v>0.67256</v>
       </c>
       <c r="E138" t="n">
-        <v>0.257477</v>
+        <v>0.25356</v>
       </c>
       <c r="F138" t="n">
-        <v>0.6062689999999999</v>
+        <v>0.598688</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.249572</v>
+        <v>0.247219</v>
       </c>
       <c r="C139" t="n">
-        <v>0.631453</v>
+        <v>0.615634</v>
       </c>
       <c r="D139" t="n">
-        <v>0.682023</v>
+        <v>0.672679</v>
       </c>
       <c r="E139" t="n">
-        <v>0.257066</v>
+        <v>0.250817</v>
       </c>
       <c r="F139" t="n">
-        <v>0.6126239999999999</v>
+        <v>0.599159</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.248399</v>
+        <v>0.245767</v>
       </c>
       <c r="C140" t="n">
-        <v>0.628578</v>
+        <v>0.630226</v>
       </c>
       <c r="D140" t="n">
-        <v>0.677464</v>
+        <v>0.672168</v>
       </c>
       <c r="E140" t="n">
-        <v>0.251196</v>
+        <v>0.247412</v>
       </c>
       <c r="F140" t="n">
-        <v>0.605647</v>
+        <v>0.597508</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.241361</v>
+        <v>0.238403</v>
       </c>
       <c r="C141" t="n">
-        <v>0.623031</v>
+        <v>0.606389</v>
       </c>
       <c r="D141" t="n">
-        <v>0.677887</v>
+        <v>0.669387</v>
       </c>
       <c r="E141" t="n">
-        <v>0.247795</v>
+        <v>0.24562</v>
       </c>
       <c r="F141" t="n">
-        <v>0.6047</v>
+        <v>0.594042</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.233741</v>
+        <v>0.233688</v>
       </c>
       <c r="C142" t="n">
-        <v>0.608831</v>
+        <v>0.610666</v>
       </c>
       <c r="D142" t="n">
-        <v>0.679017</v>
+        <v>0.675724</v>
       </c>
       <c r="E142" t="n">
-        <v>0.245374</v>
+        <v>0.243155</v>
       </c>
       <c r="F142" t="n">
-        <v>0.597706</v>
+        <v>0.591554</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.232486</v>
+        <v>0.22858</v>
       </c>
       <c r="C143" t="n">
-        <v>0.605788</v>
+        <v>0.59715</v>
       </c>
       <c r="D143" t="n">
-        <v>0.671859</v>
+        <v>0.667242</v>
       </c>
       <c r="E143" t="n">
-        <v>0.242714</v>
+        <v>0.242038</v>
       </c>
       <c r="F143" t="n">
-        <v>0.605311</v>
+        <v>0.590941</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.197188</v>
+        <v>0.192229</v>
       </c>
       <c r="C2" t="n">
-        <v>0.463455</v>
+        <v>0.448122</v>
       </c>
       <c r="D2" t="n">
-        <v>0.517081</v>
+        <v>0.523115</v>
       </c>
       <c r="E2" t="n">
-        <v>0.215267</v>
+        <v>0.220916</v>
       </c>
       <c r="F2" t="n">
-        <v>0.467697</v>
+        <v>0.458877</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.189124</v>
+        <v>0.195458</v>
       </c>
       <c r="C3" t="n">
-        <v>0.439841</v>
+        <v>0.451024</v>
       </c>
       <c r="D3" t="n">
-        <v>0.52098</v>
+        <v>0.519945</v>
       </c>
       <c r="E3" t="n">
-        <v>0.221303</v>
+        <v>0.220005</v>
       </c>
       <c r="F3" t="n">
-        <v>0.469886</v>
+        <v>0.463101</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.192497</v>
+        <v>0.196135</v>
       </c>
       <c r="C4" t="n">
-        <v>0.443582</v>
+        <v>0.459439</v>
       </c>
       <c r="D4" t="n">
-        <v>0.511496</v>
+        <v>0.526606</v>
       </c>
       <c r="E4" t="n">
-        <v>0.217149</v>
+        <v>0.222499</v>
       </c>
       <c r="F4" t="n">
-        <v>0.460545</v>
+        <v>0.466903</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.195703</v>
+        <v>0.18931</v>
       </c>
       <c r="C5" t="n">
-        <v>0.448684</v>
+        <v>0.44626</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5072950000000001</v>
+        <v>0.514414</v>
       </c>
       <c r="E5" t="n">
-        <v>0.216704</v>
+        <v>0.22081</v>
       </c>
       <c r="F5" t="n">
-        <v>0.454457</v>
+        <v>0.456489</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.182117</v>
+        <v>0.19294</v>
       </c>
       <c r="C6" t="n">
-        <v>0.428304</v>
+        <v>0.433571</v>
       </c>
       <c r="D6" t="n">
-        <v>0.500583</v>
+        <v>0.501078</v>
       </c>
       <c r="E6" t="n">
-        <v>0.210959</v>
+        <v>0.219478</v>
       </c>
       <c r="F6" t="n">
-        <v>0.44347</v>
+        <v>0.446134</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.180146</v>
+        <v>0.179308</v>
       </c>
       <c r="C7" t="n">
-        <v>0.423722</v>
+        <v>0.43326</v>
       </c>
       <c r="D7" t="n">
-        <v>0.502682</v>
+        <v>0.515391</v>
       </c>
       <c r="E7" t="n">
-        <v>0.212074</v>
+        <v>0.212668</v>
       </c>
       <c r="F7" t="n">
-        <v>0.448262</v>
+        <v>0.455847</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.173294</v>
+        <v>0.171074</v>
       </c>
       <c r="C8" t="n">
-        <v>0.417226</v>
+        <v>0.41601</v>
       </c>
       <c r="D8" t="n">
-        <v>0.503626</v>
+        <v>0.504812</v>
       </c>
       <c r="E8" t="n">
-        <v>0.211911</v>
+        <v>0.212406</v>
       </c>
       <c r="F8" t="n">
-        <v>0.447225</v>
+        <v>0.449319</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.167305</v>
+        <v>0.166814</v>
       </c>
       <c r="C9" t="n">
-        <v>0.414647</v>
+        <v>0.410195</v>
       </c>
       <c r="D9" t="n">
-        <v>0.50364</v>
+        <v>0.520558</v>
       </c>
       <c r="E9" t="n">
-        <v>0.217915</v>
+        <v>0.217342</v>
       </c>
       <c r="F9" t="n">
-        <v>0.463034</v>
+        <v>0.462809</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.21785</v>
+        <v>0.215846</v>
       </c>
       <c r="C10" t="n">
-        <v>0.46451</v>
+        <v>0.46065</v>
       </c>
       <c r="D10" t="n">
-        <v>0.504178</v>
+        <v>0.504858</v>
       </c>
       <c r="E10" t="n">
-        <v>0.217699</v>
+        <v>0.217436</v>
       </c>
       <c r="F10" t="n">
-        <v>0.455097</v>
+        <v>0.457152</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.214128</v>
+        <v>0.211991</v>
       </c>
       <c r="C11" t="n">
-        <v>0.460872</v>
+        <v>0.457358</v>
       </c>
       <c r="D11" t="n">
-        <v>0.501628</v>
+        <v>0.508419</v>
       </c>
       <c r="E11" t="n">
-        <v>0.218096</v>
+        <v>0.217019</v>
       </c>
       <c r="F11" t="n">
-        <v>0.454553</v>
+        <v>0.457178</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.212307</v>
+        <v>0.209536</v>
       </c>
       <c r="C12" t="n">
-        <v>0.45504</v>
+        <v>0.456523</v>
       </c>
       <c r="D12" t="n">
-        <v>0.503433</v>
+        <v>0.501923</v>
       </c>
       <c r="E12" t="n">
-        <v>0.217081</v>
+        <v>0.217788</v>
       </c>
       <c r="F12" t="n">
-        <v>0.452619</v>
+        <v>0.455487</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.207867</v>
+        <v>0.206908</v>
       </c>
       <c r="C13" t="n">
-        <v>0.45715</v>
+        <v>0.458796</v>
       </c>
       <c r="D13" t="n">
-        <v>0.50463</v>
+        <v>0.515139</v>
       </c>
       <c r="E13" t="n">
-        <v>0.224304</v>
+        <v>0.21894</v>
       </c>
       <c r="F13" t="n">
-        <v>0.45297</v>
+        <v>0.468111</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.203069</v>
+        <v>0.210504</v>
       </c>
       <c r="C14" t="n">
-        <v>0.448792</v>
+        <v>0.456922</v>
       </c>
       <c r="D14" t="n">
-        <v>0.499921</v>
+        <v>0.51369</v>
       </c>
       <c r="E14" t="n">
-        <v>0.217222</v>
+        <v>0.217929</v>
       </c>
       <c r="F14" t="n">
-        <v>0.453316</v>
+        <v>0.452818</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.200688</v>
+        <v>0.211646</v>
       </c>
       <c r="C15" t="n">
-        <v>0.452134</v>
+        <v>0.459977</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5088819999999999</v>
+        <v>0.509837</v>
       </c>
       <c r="E15" t="n">
-        <v>0.217165</v>
+        <v>0.216468</v>
       </c>
       <c r="F15" t="n">
-        <v>0.451768</v>
+        <v>0.460081</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.198197</v>
+        <v>0.200558</v>
       </c>
       <c r="C16" t="n">
-        <v>0.445737</v>
+        <v>0.444811</v>
       </c>
       <c r="D16" t="n">
-        <v>0.497947</v>
+        <v>0.508055</v>
       </c>
       <c r="E16" t="n">
-        <v>0.216271</v>
+        <v>0.217399</v>
       </c>
       <c r="F16" t="n">
-        <v>0.449626</v>
+        <v>0.455945</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.196314</v>
+        <v>0.196261</v>
       </c>
       <c r="C17" t="n">
-        <v>0.439663</v>
+        <v>0.449593</v>
       </c>
       <c r="D17" t="n">
-        <v>0.497478</v>
+        <v>0.512784</v>
       </c>
       <c r="E17" t="n">
-        <v>0.217053</v>
+        <v>0.216468</v>
       </c>
       <c r="F17" t="n">
-        <v>0.448484</v>
+        <v>0.455783</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.193955</v>
+        <v>0.195627</v>
       </c>
       <c r="C18" t="n">
-        <v>0.434535</v>
+        <v>0.434971</v>
       </c>
       <c r="D18" t="n">
-        <v>0.497724</v>
+        <v>0.501035</v>
       </c>
       <c r="E18" t="n">
-        <v>0.216211</v>
+        <v>0.216646</v>
       </c>
       <c r="F18" t="n">
-        <v>0.451454</v>
+        <v>0.453319</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.191741</v>
+        <v>0.192531</v>
       </c>
       <c r="C19" t="n">
-        <v>0.434374</v>
+        <v>0.438596</v>
       </c>
       <c r="D19" t="n">
-        <v>0.497938</v>
+        <v>0.51292</v>
       </c>
       <c r="E19" t="n">
-        <v>0.215899</v>
+        <v>0.215916</v>
       </c>
       <c r="F19" t="n">
-        <v>0.449502</v>
+        <v>0.453184</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.187833</v>
+        <v>0.193054</v>
       </c>
       <c r="C20" t="n">
-        <v>0.429952</v>
+        <v>0.431474</v>
       </c>
       <c r="D20" t="n">
-        <v>0.49698</v>
+        <v>0.515864</v>
       </c>
       <c r="E20" t="n">
-        <v>0.215544</v>
+        <v>0.220777</v>
       </c>
       <c r="F20" t="n">
-        <v>0.448783</v>
+        <v>0.450734</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.186342</v>
+        <v>0.18643</v>
       </c>
       <c r="C21" t="n">
-        <v>0.431984</v>
+        <v>0.429681</v>
       </c>
       <c r="D21" t="n">
-        <v>0.514375</v>
+        <v>0.516073</v>
       </c>
       <c r="E21" t="n">
-        <v>0.215057</v>
+        <v>0.214793</v>
       </c>
       <c r="F21" t="n">
-        <v>0.449893</v>
+        <v>0.454621</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.180214</v>
+        <v>0.184747</v>
       </c>
       <c r="C22" t="n">
-        <v>0.419952</v>
+        <v>0.424706</v>
       </c>
       <c r="D22" t="n">
-        <v>0.508306</v>
+        <v>0.513589</v>
       </c>
       <c r="E22" t="n">
-        <v>0.214633</v>
+        <v>0.221688</v>
       </c>
       <c r="F22" t="n">
-        <v>0.446735</v>
+        <v>0.450327</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.173999</v>
+        <v>0.171125</v>
       </c>
       <c r="C23" t="n">
-        <v>0.419598</v>
+        <v>0.41937</v>
       </c>
       <c r="D23" t="n">
-        <v>0.508986</v>
+        <v>0.512838</v>
       </c>
       <c r="E23" t="n">
-        <v>0.228967</v>
+        <v>0.229128</v>
       </c>
       <c r="F23" t="n">
-        <v>0.464242</v>
+        <v>0.463539</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.226628</v>
+        <v>0.232115</v>
       </c>
       <c r="C24" t="n">
-        <v>0.467361</v>
+        <v>0.472461</v>
       </c>
       <c r="D24" t="n">
-        <v>0.510212</v>
+        <v>0.512754</v>
       </c>
       <c r="E24" t="n">
-        <v>0.227802</v>
+        <v>0.233497</v>
       </c>
       <c r="F24" t="n">
-        <v>0.464664</v>
+        <v>0.464883</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.224907</v>
+        <v>0.224487</v>
       </c>
       <c r="C25" t="n">
-        <v>0.464807</v>
+        <v>0.46669</v>
       </c>
       <c r="D25" t="n">
-        <v>0.50773</v>
+        <v>0.517831</v>
       </c>
       <c r="E25" t="n">
-        <v>0.226021</v>
+        <v>0.226245</v>
       </c>
       <c r="F25" t="n">
-        <v>0.463695</v>
+        <v>0.469798</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.224739</v>
+        <v>0.221474</v>
       </c>
       <c r="C26" t="n">
-        <v>0.464043</v>
+        <v>0.464686</v>
       </c>
       <c r="D26" t="n">
-        <v>0.509085</v>
+        <v>0.52127</v>
       </c>
       <c r="E26" t="n">
-        <v>0.225628</v>
+        <v>0.226839</v>
       </c>
       <c r="F26" t="n">
-        <v>0.461098</v>
+        <v>0.464192</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.216989</v>
+        <v>0.218964</v>
       </c>
       <c r="C27" t="n">
-        <v>0.462508</v>
+        <v>0.458443</v>
       </c>
       <c r="D27" t="n">
-        <v>0.505664</v>
+        <v>0.519437</v>
       </c>
       <c r="E27" t="n">
-        <v>0.225224</v>
+        <v>0.225194</v>
       </c>
       <c r="F27" t="n">
-        <v>0.459872</v>
+        <v>0.469409</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.214256</v>
+        <v>0.215691</v>
       </c>
       <c r="C28" t="n">
-        <v>0.455305</v>
+        <v>0.462922</v>
       </c>
       <c r="D28" t="n">
-        <v>0.51253</v>
+        <v>0.5119590000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>0.223531</v>
+        <v>0.227106</v>
       </c>
       <c r="F28" t="n">
-        <v>0.45959</v>
+        <v>0.472151</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.209586</v>
+        <v>0.21229</v>
       </c>
       <c r="C29" t="n">
-        <v>0.45054</v>
+        <v>0.456132</v>
       </c>
       <c r="D29" t="n">
-        <v>0.507376</v>
+        <v>0.516411</v>
       </c>
       <c r="E29" t="n">
-        <v>0.22329</v>
+        <v>0.225593</v>
       </c>
       <c r="F29" t="n">
-        <v>0.45589</v>
+        <v>0.456052</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.206599</v>
+        <v>0.207616</v>
       </c>
       <c r="C30" t="n">
-        <v>0.45333</v>
+        <v>0.457223</v>
       </c>
       <c r="D30" t="n">
-        <v>0.505257</v>
+        <v>0.515522</v>
       </c>
       <c r="E30" t="n">
-        <v>0.223468</v>
+        <v>0.222181</v>
       </c>
       <c r="F30" t="n">
-        <v>0.454575</v>
+        <v>0.469368</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.203713</v>
+        <v>0.205077</v>
       </c>
       <c r="C31" t="n">
-        <v>0.444539</v>
+        <v>0.444922</v>
       </c>
       <c r="D31" t="n">
-        <v>0.504057</v>
+        <v>0.513114</v>
       </c>
       <c r="E31" t="n">
-        <v>0.221718</v>
+        <v>0.221542</v>
       </c>
       <c r="F31" t="n">
-        <v>0.456038</v>
+        <v>0.464316</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.199254</v>
+        <v>0.200601</v>
       </c>
       <c r="C32" t="n">
-        <v>0.439256</v>
+        <v>0.44377</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5041949999999999</v>
+        <v>0.509839</v>
       </c>
       <c r="E32" t="n">
-        <v>0.221356</v>
+        <v>0.221409</v>
       </c>
       <c r="F32" t="n">
-        <v>0.456121</v>
+        <v>0.465226</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.196813</v>
+        <v>0.199186</v>
       </c>
       <c r="C33" t="n">
-        <v>0.436025</v>
+        <v>0.449136</v>
       </c>
       <c r="D33" t="n">
-        <v>0.507841</v>
+        <v>0.515898</v>
       </c>
       <c r="E33" t="n">
-        <v>0.219848</v>
+        <v>0.222185</v>
       </c>
       <c r="F33" t="n">
-        <v>0.454515</v>
+        <v>0.457808</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.196109</v>
+        <v>0.196044</v>
       </c>
       <c r="C34" t="n">
-        <v>0.434252</v>
+        <v>0.44582</v>
       </c>
       <c r="D34" t="n">
-        <v>0.504478</v>
+        <v>0.511014</v>
       </c>
       <c r="E34" t="n">
-        <v>0.220473</v>
+        <v>0.220961</v>
       </c>
       <c r="F34" t="n">
-        <v>0.45378</v>
+        <v>0.462674</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.189282</v>
+        <v>0.190143</v>
       </c>
       <c r="C35" t="n">
-        <v>0.431225</v>
+        <v>0.443533</v>
       </c>
       <c r="D35" t="n">
-        <v>0.526112</v>
+        <v>0.534202</v>
       </c>
       <c r="E35" t="n">
-        <v>0.21897</v>
+        <v>0.219007</v>
       </c>
       <c r="F35" t="n">
-        <v>0.452761</v>
+        <v>0.455171</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.184357</v>
+        <v>0.186214</v>
       </c>
       <c r="C36" t="n">
-        <v>0.432505</v>
+        <v>0.431181</v>
       </c>
       <c r="D36" t="n">
-        <v>0.529466</v>
+        <v>0.536235</v>
       </c>
       <c r="E36" t="n">
-        <v>0.218543</v>
+        <v>0.218223</v>
       </c>
       <c r="F36" t="n">
-        <v>0.451846</v>
+        <v>0.458188</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.179163</v>
+        <v>0.178992</v>
       </c>
       <c r="C37" t="n">
-        <v>0.421928</v>
+        <v>0.431849</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5177929999999999</v>
+        <v>0.5348540000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>0.245067</v>
+        <v>0.245353</v>
       </c>
       <c r="F37" t="n">
-        <v>0.474174</v>
+        <v>0.476438</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.235041</v>
+        <v>0.236539</v>
       </c>
       <c r="C38" t="n">
-        <v>0.475431</v>
+        <v>0.479899</v>
       </c>
       <c r="D38" t="n">
-        <v>0.523123</v>
+        <v>0.527664</v>
       </c>
       <c r="E38" t="n">
-        <v>0.241692</v>
+        <v>0.243412</v>
       </c>
       <c r="F38" t="n">
-        <v>0.469936</v>
+        <v>0.474182</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2314</v>
+        <v>0.232084</v>
       </c>
       <c r="C39" t="n">
-        <v>0.476485</v>
+        <v>0.476351</v>
       </c>
       <c r="D39" t="n">
-        <v>0.524798</v>
+        <v>0.53144</v>
       </c>
       <c r="E39" t="n">
-        <v>0.240291</v>
+        <v>0.244512</v>
       </c>
       <c r="F39" t="n">
-        <v>0.471841</v>
+        <v>0.483643</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.227463</v>
+        <v>0.226706</v>
       </c>
       <c r="C40" t="n">
-        <v>0.470241</v>
+        <v>0.493355</v>
       </c>
       <c r="D40" t="n">
-        <v>0.522428</v>
+        <v>0.534769</v>
       </c>
       <c r="E40" t="n">
-        <v>0.238656</v>
+        <v>0.237738</v>
       </c>
       <c r="F40" t="n">
-        <v>0.471857</v>
+        <v>0.471688</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.222932</v>
+        <v>0.223809</v>
       </c>
       <c r="C41" t="n">
-        <v>0.469021</v>
+        <v>0.489403</v>
       </c>
       <c r="D41" t="n">
-        <v>0.514804</v>
+        <v>0.5358849999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>0.235366</v>
+        <v>0.238157</v>
       </c>
       <c r="F41" t="n">
-        <v>0.465816</v>
+        <v>0.480524</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.220791</v>
+        <v>0.219059</v>
       </c>
       <c r="C42" t="n">
-        <v>0.463961</v>
+        <v>0.474709</v>
       </c>
       <c r="D42" t="n">
-        <v>0.51839</v>
+        <v>0.54051</v>
       </c>
       <c r="E42" t="n">
-        <v>0.235513</v>
+        <v>0.238352</v>
       </c>
       <c r="F42" t="n">
-        <v>0.471404</v>
+        <v>0.482513</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.217975</v>
+        <v>0.215617</v>
       </c>
       <c r="C43" t="n">
-        <v>0.459504</v>
+        <v>0.477704</v>
       </c>
       <c r="D43" t="n">
-        <v>0.518032</v>
+        <v>0.533081</v>
       </c>
       <c r="E43" t="n">
-        <v>0.235161</v>
+        <v>0.235869</v>
       </c>
       <c r="F43" t="n">
-        <v>0.468596</v>
+        <v>0.464334</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.214386</v>
+        <v>0.21293</v>
       </c>
       <c r="C44" t="n">
-        <v>0.459045</v>
+        <v>0.46736</v>
       </c>
       <c r="D44" t="n">
-        <v>0.528903</v>
+        <v>0.536745</v>
       </c>
       <c r="E44" t="n">
-        <v>0.23404</v>
+        <v>0.234437</v>
       </c>
       <c r="F44" t="n">
-        <v>0.468509</v>
+        <v>0.495017</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.211687</v>
+        <v>0.207902</v>
       </c>
       <c r="C45" t="n">
-        <v>0.456551</v>
+        <v>0.48262</v>
       </c>
       <c r="D45" t="n">
-        <v>0.531543</v>
+        <v>0.524892</v>
       </c>
       <c r="E45" t="n">
-        <v>0.23067</v>
+        <v>0.233428</v>
       </c>
       <c r="F45" t="n">
-        <v>0.466653</v>
+        <v>0.466997</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.204291</v>
+        <v>0.204571</v>
       </c>
       <c r="C46" t="n">
-        <v>0.45647</v>
+        <v>0.482661</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5335760000000001</v>
+        <v>0.5430120000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>0.230473</v>
+        <v>0.22979</v>
       </c>
       <c r="F46" t="n">
-        <v>0.464315</v>
+        <v>0.47056</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.200093</v>
+        <v>0.204908</v>
       </c>
       <c r="C47" t="n">
-        <v>0.451</v>
+        <v>0.450067</v>
       </c>
       <c r="D47" t="n">
-        <v>0.533687</v>
+        <v>0.538781</v>
       </c>
       <c r="E47" t="n">
-        <v>0.228833</v>
+        <v>0.227884</v>
       </c>
       <c r="F47" t="n">
-        <v>0.463666</v>
+        <v>0.464406</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198189</v>
+        <v>0.19857</v>
       </c>
       <c r="C48" t="n">
-        <v>0.451444</v>
+        <v>0.471928</v>
       </c>
       <c r="D48" t="n">
-        <v>0.545897</v>
+        <v>0.537658</v>
       </c>
       <c r="E48" t="n">
-        <v>0.226076</v>
+        <v>0.226947</v>
       </c>
       <c r="F48" t="n">
-        <v>0.465703</v>
+        <v>0.482189</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.19505</v>
+        <v>0.192529</v>
       </c>
       <c r="C49" t="n">
-        <v>0.446802</v>
+        <v>0.451945</v>
       </c>
       <c r="D49" t="n">
-        <v>0.532359</v>
+        <v>0.565632</v>
       </c>
       <c r="E49" t="n">
-        <v>0.224989</v>
+        <v>0.226679</v>
       </c>
       <c r="F49" t="n">
-        <v>0.472878</v>
+        <v>0.507181</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.189648</v>
+        <v>0.189536</v>
       </c>
       <c r="C50" t="n">
-        <v>0.446609</v>
+        <v>0.458839</v>
       </c>
       <c r="D50" t="n">
-        <v>0.615323</v>
+        <v>0.634015</v>
       </c>
       <c r="E50" t="n">
-        <v>0.224978</v>
+        <v>0.228596</v>
       </c>
       <c r="F50" t="n">
-        <v>0.468113</v>
+        <v>0.473628</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.182214</v>
+        <v>0.18854</v>
       </c>
       <c r="C51" t="n">
-        <v>0.437537</v>
+        <v>0.444346</v>
       </c>
       <c r="D51" t="n">
-        <v>0.616582</v>
+        <v>0.633975</v>
       </c>
       <c r="E51" t="n">
-        <v>0.248037</v>
+        <v>0.24624</v>
       </c>
       <c r="F51" t="n">
-        <v>0.48769</v>
+        <v>0.497652</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.173673</v>
+        <v>0.176655</v>
       </c>
       <c r="C52" t="n">
-        <v>0.43621</v>
+        <v>0.450822</v>
       </c>
       <c r="D52" t="n">
-        <v>0.608989</v>
+        <v>0.631437</v>
       </c>
       <c r="E52" t="n">
-        <v>0.243543</v>
+        <v>0.246791</v>
       </c>
       <c r="F52" t="n">
-        <v>0.523452</v>
+        <v>0.55318</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.2364</v>
+        <v>0.239739</v>
       </c>
       <c r="C53" t="n">
-        <v>0.49937</v>
+        <v>0.566203</v>
       </c>
       <c r="D53" t="n">
-        <v>0.630446</v>
+        <v>0.643662</v>
       </c>
       <c r="E53" t="n">
-        <v>0.251838</v>
+        <v>0.241099</v>
       </c>
       <c r="F53" t="n">
-        <v>0.492682</v>
+        <v>0.49689</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.236041</v>
+        <v>0.236613</v>
       </c>
       <c r="C54" t="n">
-        <v>0.504065</v>
+        <v>0.526568</v>
       </c>
       <c r="D54" t="n">
-        <v>0.609221</v>
+        <v>0.620745</v>
       </c>
       <c r="E54" t="n">
-        <v>0.238689</v>
+        <v>0.240935</v>
       </c>
       <c r="F54" t="n">
-        <v>0.497615</v>
+        <v>0.500503</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.232151</v>
+        <v>0.229544</v>
       </c>
       <c r="C55" t="n">
-        <v>0.500995</v>
+        <v>0.520917</v>
       </c>
       <c r="D55" t="n">
-        <v>0.62574</v>
+        <v>0.642481</v>
       </c>
       <c r="E55" t="n">
-        <v>0.237552</v>
+        <v>0.241976</v>
       </c>
       <c r="F55" t="n">
-        <v>0.530433</v>
+        <v>0.544558</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.225202</v>
+        <v>0.229939</v>
       </c>
       <c r="C56" t="n">
-        <v>0.506277</v>
+        <v>0.521526</v>
       </c>
       <c r="D56" t="n">
-        <v>0.615222</v>
+        <v>0.643265</v>
       </c>
       <c r="E56" t="n">
-        <v>0.235616</v>
+        <v>0.239272</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5012450000000001</v>
+        <v>0.562169</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.220427</v>
+        <v>0.222677</v>
       </c>
       <c r="C57" t="n">
-        <v>0.510553</v>
+        <v>0.533145</v>
       </c>
       <c r="D57" t="n">
-        <v>0.617283</v>
+        <v>0.643479</v>
       </c>
       <c r="E57" t="n">
-        <v>0.234501</v>
+        <v>0.236794</v>
       </c>
       <c r="F57" t="n">
-        <v>0.502216</v>
+        <v>0.543851</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.217163</v>
+        <v>0.219494</v>
       </c>
       <c r="C58" t="n">
-        <v>0.504485</v>
+        <v>0.563091</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6088750000000001</v>
+        <v>0.642539</v>
       </c>
       <c r="E58" t="n">
-        <v>0.234472</v>
+        <v>0.234865</v>
       </c>
       <c r="F58" t="n">
-        <v>0.506942</v>
+        <v>0.562126</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.215784</v>
+        <v>0.216106</v>
       </c>
       <c r="C59" t="n">
-        <v>0.505714</v>
+        <v>0.562121</v>
       </c>
       <c r="D59" t="n">
-        <v>0.623282</v>
+        <v>0.628039</v>
       </c>
       <c r="E59" t="n">
-        <v>0.231621</v>
+        <v>0.232007</v>
       </c>
       <c r="F59" t="n">
-        <v>0.545473</v>
+        <v>0.526254</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.209904</v>
+        <v>0.212464</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5298119999999999</v>
+        <v>0.522312</v>
       </c>
       <c r="D60" t="n">
-        <v>0.626274</v>
+        <v>0.636092</v>
       </c>
       <c r="E60" t="n">
-        <v>0.229668</v>
+        <v>0.238261</v>
       </c>
       <c r="F60" t="n">
-        <v>0.510919</v>
+        <v>0.552525</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.207901</v>
+        <v>0.209394</v>
       </c>
       <c r="C61" t="n">
-        <v>0.504785</v>
+        <v>0.555677</v>
       </c>
       <c r="D61" t="n">
-        <v>0.604165</v>
+        <v>0.645598</v>
       </c>
       <c r="E61" t="n">
-        <v>0.230169</v>
+        <v>0.232568</v>
       </c>
       <c r="F61" t="n">
-        <v>0.532403</v>
+        <v>0.561539</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.203825</v>
+        <v>0.205336</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5373289999999999</v>
+        <v>0.561323</v>
       </c>
       <c r="D62" t="n">
-        <v>0.628663</v>
+        <v>0.631659</v>
       </c>
       <c r="E62" t="n">
-        <v>0.227613</v>
+        <v>0.232054</v>
       </c>
       <c r="F62" t="n">
-        <v>0.542382</v>
+        <v>0.545383</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.197923</v>
+        <v>0.199763</v>
       </c>
       <c r="C63" t="n">
-        <v>0.541588</v>
+        <v>0.545431</v>
       </c>
       <c r="D63" t="n">
-        <v>0.609283</v>
+        <v>0.640216</v>
       </c>
       <c r="E63" t="n">
-        <v>0.227375</v>
+        <v>0.227666</v>
       </c>
       <c r="F63" t="n">
-        <v>0.527448</v>
+        <v>0.550465</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.193604</v>
+        <v>0.194695</v>
       </c>
       <c r="C64" t="n">
-        <v>0.514336</v>
+        <v>0.54077</v>
       </c>
       <c r="D64" t="n">
-        <v>0.716604</v>
+        <v>0.710993</v>
       </c>
       <c r="E64" t="n">
-        <v>0.226704</v>
+        <v>0.225639</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5227619999999999</v>
+        <v>0.531471</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.187917</v>
+        <v>0.191805</v>
       </c>
       <c r="C65" t="n">
-        <v>0.516802</v>
+        <v>0.520257</v>
       </c>
       <c r="D65" t="n">
-        <v>0.70932</v>
+        <v>0.714279</v>
       </c>
       <c r="E65" t="n">
-        <v>0.22494</v>
+        <v>0.224454</v>
       </c>
       <c r="F65" t="n">
-        <v>0.530495</v>
+        <v>0.548173</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.181029</v>
+        <v>0.179612</v>
       </c>
       <c r="C66" t="n">
-        <v>0.507841</v>
+        <v>0.512877</v>
       </c>
       <c r="D66" t="n">
-        <v>0.70111</v>
+        <v>0.708785</v>
       </c>
       <c r="E66" t="n">
-        <v>0.246383</v>
+        <v>0.249462</v>
       </c>
       <c r="F66" t="n">
-        <v>0.561872</v>
+        <v>0.561414</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.243481</v>
+        <v>0.243157</v>
       </c>
       <c r="C67" t="n">
-        <v>0.590021</v>
+        <v>0.6015160000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.699634</v>
+        <v>0.700115</v>
       </c>
       <c r="E67" t="n">
-        <v>0.244747</v>
+        <v>0.244892</v>
       </c>
       <c r="F67" t="n">
-        <v>0.559636</v>
+        <v>0.559634</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.239458</v>
+        <v>0.244876</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5827290000000001</v>
+        <v>0.581443</v>
       </c>
       <c r="D68" t="n">
-        <v>0.68798</v>
+        <v>0.691975</v>
       </c>
       <c r="E68" t="n">
-        <v>0.242723</v>
+        <v>0.243614</v>
       </c>
       <c r="F68" t="n">
-        <v>0.558439</v>
+        <v>0.559894</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.23531</v>
+        <v>0.240941</v>
       </c>
       <c r="C69" t="n">
-        <v>0.580547</v>
+        <v>0.5831</v>
       </c>
       <c r="D69" t="n">
-        <v>0.682277</v>
+        <v>0.686945</v>
       </c>
       <c r="E69" t="n">
-        <v>0.240268</v>
+        <v>0.24061</v>
       </c>
       <c r="F69" t="n">
-        <v>0.560349</v>
+        <v>0.563757</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.231534</v>
+        <v>0.235757</v>
       </c>
       <c r="C70" t="n">
-        <v>0.580548</v>
+        <v>0.582199</v>
       </c>
       <c r="D70" t="n">
-        <v>0.681016</v>
+        <v>0.6887529999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>0.238004</v>
+        <v>0.243927</v>
       </c>
       <c r="F70" t="n">
-        <v>0.557766</v>
+        <v>0.563046</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.227275</v>
+        <v>0.227416</v>
       </c>
       <c r="C71" t="n">
-        <v>0.572171</v>
+        <v>0.582647</v>
       </c>
       <c r="D71" t="n">
-        <v>0.674917</v>
+        <v>0.681647</v>
       </c>
       <c r="E71" t="n">
-        <v>0.236818</v>
+        <v>0.238676</v>
       </c>
       <c r="F71" t="n">
-        <v>0.557263</v>
+        <v>0.565111</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.223281</v>
+        <v>0.223096</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5741000000000001</v>
+        <v>0.574288</v>
       </c>
       <c r="D72" t="n">
-        <v>0.669006</v>
+        <v>0.67608</v>
       </c>
       <c r="E72" t="n">
-        <v>0.234995</v>
+        <v>0.235143</v>
       </c>
       <c r="F72" t="n">
-        <v>0.558384</v>
+        <v>0.566235</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.218091</v>
+        <v>0.219497</v>
       </c>
       <c r="C73" t="n">
-        <v>0.572048</v>
+        <v>0.570465</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6667419999999999</v>
+        <v>0.671689</v>
       </c>
       <c r="E73" t="n">
-        <v>0.233752</v>
+        <v>0.234307</v>
       </c>
       <c r="F73" t="n">
-        <v>0.55703</v>
+        <v>0.5593590000000001</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.218845</v>
+        <v>0.21509</v>
       </c>
       <c r="C74" t="n">
-        <v>0.56276</v>
+        <v>0.568903</v>
       </c>
       <c r="D74" t="n">
-        <v>0.669525</v>
+        <v>0.672358</v>
       </c>
       <c r="E74" t="n">
-        <v>0.232412</v>
+        <v>0.233111</v>
       </c>
       <c r="F74" t="n">
-        <v>0.558537</v>
+        <v>0.562385</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.210636</v>
+        <v>0.212352</v>
       </c>
       <c r="C75" t="n">
-        <v>0.564113</v>
+        <v>0.5624</v>
       </c>
       <c r="D75" t="n">
-        <v>0.665045</v>
+        <v>0.668974</v>
       </c>
       <c r="E75" t="n">
-        <v>0.230654</v>
+        <v>0.231681</v>
       </c>
       <c r="F75" t="n">
-        <v>0.557731</v>
+        <v>0.556192</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.207559</v>
+        <v>0.210139</v>
       </c>
       <c r="C76" t="n">
-        <v>0.557319</v>
+        <v>0.557324</v>
       </c>
       <c r="D76" t="n">
-        <v>0.678015</v>
+        <v>0.666429</v>
       </c>
       <c r="E76" t="n">
-        <v>0.230739</v>
+        <v>0.230151</v>
       </c>
       <c r="F76" t="n">
-        <v>0.556792</v>
+        <v>0.565245</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.202507</v>
+        <v>0.20393</v>
       </c>
       <c r="C77" t="n">
-        <v>0.551019</v>
+        <v>0.556759</v>
       </c>
       <c r="D77" t="n">
-        <v>0.662238</v>
+        <v>0.667061</v>
       </c>
       <c r="E77" t="n">
-        <v>0.231375</v>
+        <v>0.228199</v>
       </c>
       <c r="F77" t="n">
-        <v>0.555028</v>
+        <v>0.56408</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.201358</v>
+        <v>0.201105</v>
       </c>
       <c r="C78" t="n">
-        <v>0.549224</v>
+        <v>0.553484</v>
       </c>
       <c r="D78" t="n">
-        <v>0.7454460000000001</v>
+        <v>0.76354</v>
       </c>
       <c r="E78" t="n">
-        <v>0.228933</v>
+        <v>0.228941</v>
       </c>
       <c r="F78" t="n">
-        <v>0.556018</v>
+        <v>0.56277</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.192612</v>
+        <v>0.193772</v>
       </c>
       <c r="C79" t="n">
-        <v>0.543596</v>
+        <v>0.550143</v>
       </c>
       <c r="D79" t="n">
-        <v>0.753039</v>
+        <v>0.74891</v>
       </c>
       <c r="E79" t="n">
-        <v>0.226814</v>
+        <v>0.228021</v>
       </c>
       <c r="F79" t="n">
-        <v>0.5550349999999999</v>
+        <v>0.559575</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.185233</v>
+        <v>0.186081</v>
       </c>
       <c r="C80" t="n">
-        <v>0.537696</v>
+        <v>0.547027</v>
       </c>
       <c r="D80" t="n">
-        <v>0.738147</v>
+        <v>0.750475</v>
       </c>
       <c r="E80" t="n">
-        <v>0.253061</v>
+        <v>0.25543</v>
       </c>
       <c r="F80" t="n">
-        <v>0.576879</v>
+        <v>0.578539</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.251597</v>
+        <v>0.252255</v>
       </c>
       <c r="C81" t="n">
-        <v>0.60203</v>
+        <v>0.595932</v>
       </c>
       <c r="D81" t="n">
-        <v>0.730463</v>
+        <v>0.735993</v>
       </c>
       <c r="E81" t="n">
-        <v>0.250426</v>
+        <v>0.255998</v>
       </c>
       <c r="F81" t="n">
-        <v>0.577797</v>
+        <v>0.585233</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.248063</v>
+        <v>0.248652</v>
       </c>
       <c r="C82" t="n">
-        <v>0.598264</v>
+        <v>0.586798</v>
       </c>
       <c r="D82" t="n">
-        <v>0.725844</v>
+        <v>0.724214</v>
       </c>
       <c r="E82" t="n">
-        <v>0.247914</v>
+        <v>0.250659</v>
       </c>
       <c r="F82" t="n">
-        <v>0.571913</v>
+        <v>0.572673</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.242941</v>
+        <v>0.243589</v>
       </c>
       <c r="C83" t="n">
-        <v>0.601562</v>
+        <v>0.586015</v>
       </c>
       <c r="D83" t="n">
-        <v>0.72018</v>
+        <v>0.713656</v>
       </c>
       <c r="E83" t="n">
-        <v>0.247487</v>
+        <v>0.249687</v>
       </c>
       <c r="F83" t="n">
-        <v>0.5694630000000001</v>
+        <v>0.577434</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.238864</v>
+        <v>0.240002</v>
       </c>
       <c r="C84" t="n">
-        <v>0.624332</v>
+        <v>0.6187049999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.753889</v>
+        <v>0.757083</v>
       </c>
       <c r="E84" t="n">
-        <v>0.243907</v>
+        <v>0.246249</v>
       </c>
       <c r="F84" t="n">
-        <v>0.592493</v>
+        <v>0.606908</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.235706</v>
+        <v>0.234724</v>
       </c>
       <c r="C85" t="n">
-        <v>0.616354</v>
+        <v>0.6092610000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.737206</v>
+        <v>0.751871</v>
       </c>
       <c r="E85" t="n">
-        <v>0.241917</v>
+        <v>0.244357</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5905319999999999</v>
+        <v>0.601911</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.229917</v>
+        <v>0.231368</v>
       </c>
       <c r="C86" t="n">
-        <v>0.621519</v>
+        <v>0.6069</v>
       </c>
       <c r="D86" t="n">
-        <v>0.731472</v>
+        <v>0.739448</v>
       </c>
       <c r="E86" t="n">
-        <v>0.240269</v>
+        <v>0.242397</v>
       </c>
       <c r="F86" t="n">
-        <v>0.588824</v>
+        <v>0.593579</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.224814</v>
+        <v>0.225504</v>
       </c>
       <c r="C87" t="n">
-        <v>0.615708</v>
+        <v>0.599992</v>
       </c>
       <c r="D87" t="n">
-        <v>0.734434</v>
+        <v>0.7281300000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>0.238555</v>
+        <v>0.238158</v>
       </c>
       <c r="F87" t="n">
-        <v>0.586719</v>
+        <v>0.587661</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.219685</v>
+        <v>0.228468</v>
       </c>
       <c r="C88" t="n">
-        <v>0.601691</v>
+        <v>0.6055970000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7246089999999999</v>
+        <v>0.7326589999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>0.238254</v>
+        <v>0.238569</v>
       </c>
       <c r="F88" t="n">
-        <v>0.586446</v>
+        <v>0.585129</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.215216</v>
+        <v>0.221267</v>
       </c>
       <c r="C89" t="n">
-        <v>0.604039</v>
+        <v>0.601473</v>
       </c>
       <c r="D89" t="n">
-        <v>0.7204390000000001</v>
+        <v>0.727859</v>
       </c>
       <c r="E89" t="n">
-        <v>0.235708</v>
+        <v>0.235962</v>
       </c>
       <c r="F89" t="n">
-        <v>0.586986</v>
+        <v>0.583154</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.212661</v>
+        <v>0.212029</v>
       </c>
       <c r="C90" t="n">
-        <v>0.597538</v>
+        <v>0.6025700000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7242150000000001</v>
+        <v>0.718437</v>
       </c>
       <c r="E90" t="n">
-        <v>0.234457</v>
+        <v>0.234449</v>
       </c>
       <c r="F90" t="n">
-        <v>0.583151</v>
+        <v>0.583322</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.207178</v>
+        <v>0.207788</v>
       </c>
       <c r="C91" t="n">
-        <v>0.591731</v>
+        <v>0.598305</v>
       </c>
       <c r="D91" t="n">
-        <v>0.71654</v>
+        <v>0.717511</v>
       </c>
       <c r="E91" t="n">
-        <v>0.23268</v>
+        <v>0.237415</v>
       </c>
       <c r="F91" t="n">
-        <v>0.587203</v>
+        <v>0.580707</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.203877</v>
+        <v>0.203639</v>
       </c>
       <c r="C92" t="n">
-        <v>0.585788</v>
+        <v>0.590877</v>
       </c>
       <c r="D92" t="n">
-        <v>0.667922</v>
+        <v>0.673963</v>
       </c>
       <c r="E92" t="n">
-        <v>0.2313</v>
+        <v>0.232539</v>
       </c>
       <c r="F92" t="n">
-        <v>0.579398</v>
+        <v>0.579644</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.197413</v>
+        <v>0.198672</v>
       </c>
       <c r="C93" t="n">
-        <v>0.57598</v>
+        <v>0.585636</v>
       </c>
       <c r="D93" t="n">
-        <v>0.667544</v>
+        <v>0.666777</v>
       </c>
       <c r="E93" t="n">
-        <v>0.230862</v>
+        <v>0.230789</v>
       </c>
       <c r="F93" t="n">
-        <v>0.579257</v>
+        <v>0.581376</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.190576</v>
+        <v>0.190106</v>
       </c>
       <c r="C94" t="n">
-        <v>0.571124</v>
+        <v>0.584484</v>
       </c>
       <c r="D94" t="n">
-        <v>0.666059</v>
+        <v>0.66687</v>
       </c>
       <c r="E94" t="n">
-        <v>0.256322</v>
+        <v>0.256266</v>
       </c>
       <c r="F94" t="n">
-        <v>0.606866</v>
+        <v>0.59946</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.254489</v>
+        <v>0.256557</v>
       </c>
       <c r="C95" t="n">
-        <v>0.647817</v>
+        <v>0.627427</v>
       </c>
       <c r="D95" t="n">
-        <v>0.661708</v>
+        <v>0.669942</v>
       </c>
       <c r="E95" t="n">
-        <v>0.253777</v>
+        <v>0.254304</v>
       </c>
       <c r="F95" t="n">
-        <v>0.599302</v>
+        <v>0.59815</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.249885</v>
+        <v>0.252301</v>
       </c>
       <c r="C96" t="n">
-        <v>0.638852</v>
+        <v>0.6213109999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.662865</v>
+        <v>0.678544</v>
       </c>
       <c r="E96" t="n">
-        <v>0.252544</v>
+        <v>0.252736</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5972</v>
+        <v>0.599249</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.244444</v>
+        <v>0.246585</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6342140000000001</v>
+        <v>0.618914</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6740620000000001</v>
+        <v>0.674804</v>
       </c>
       <c r="E97" t="n">
-        <v>0.248812</v>
+        <v>0.249668</v>
       </c>
       <c r="F97" t="n">
-        <v>0.599081</v>
+        <v>0.603961</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.24024</v>
+        <v>0.240668</v>
       </c>
       <c r="C98" t="n">
-        <v>0.634253</v>
+        <v>0.634406</v>
       </c>
       <c r="D98" t="n">
-        <v>0.670982</v>
+        <v>0.665707</v>
       </c>
       <c r="E98" t="n">
-        <v>0.24659</v>
+        <v>0.246119</v>
       </c>
       <c r="F98" t="n">
-        <v>0.593602</v>
+        <v>0.595773</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.236293</v>
+        <v>0.235986</v>
       </c>
       <c r="C99" t="n">
-        <v>0.622887</v>
+        <v>0.628758</v>
       </c>
       <c r="D99" t="n">
-        <v>0.662049</v>
+        <v>0.677063</v>
       </c>
       <c r="E99" t="n">
-        <v>0.244592</v>
+        <v>0.244216</v>
       </c>
       <c r="F99" t="n">
-        <v>0.592066</v>
+        <v>0.5936979999999999</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.230175</v>
+        <v>0.235464</v>
       </c>
       <c r="C100" t="n">
-        <v>0.6173149999999999</v>
+        <v>0.623013</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6590549999999999</v>
+        <v>0.665079</v>
       </c>
       <c r="E100" t="n">
-        <v>0.242433</v>
+        <v>0.242984</v>
       </c>
       <c r="F100" t="n">
-        <v>0.589835</v>
+        <v>0.592363</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.226651</v>
+        <v>0.226169</v>
       </c>
       <c r="C101" t="n">
-        <v>0.619536</v>
+        <v>0.62636</v>
       </c>
       <c r="D101" t="n">
-        <v>0.661609</v>
+        <v>0.665703</v>
       </c>
       <c r="E101" t="n">
-        <v>0.240411</v>
+        <v>0.240745</v>
       </c>
       <c r="F101" t="n">
-        <v>0.590907</v>
+        <v>0.590503</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.222122</v>
+        <v>0.222057</v>
       </c>
       <c r="C102" t="n">
-        <v>0.610522</v>
+        <v>0.611996</v>
       </c>
       <c r="D102" t="n">
-        <v>0.660161</v>
+        <v>0.66639</v>
       </c>
       <c r="E102" t="n">
-        <v>0.238063</v>
+        <v>0.243817</v>
       </c>
       <c r="F102" t="n">
-        <v>0.586688</v>
+        <v>0.591005</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.217731</v>
+        <v>0.220018</v>
       </c>
       <c r="C103" t="n">
-        <v>0.614435</v>
+        <v>0.60337</v>
       </c>
       <c r="D103" t="n">
-        <v>0.656969</v>
+        <v>0.666866</v>
       </c>
       <c r="E103" t="n">
-        <v>0.236722</v>
+        <v>0.236928</v>
       </c>
       <c r="F103" t="n">
-        <v>0.595822</v>
+        <v>0.588079</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.215646</v>
+        <v>0.213499</v>
       </c>
       <c r="C104" t="n">
-        <v>0.607495</v>
+        <v>0.603484</v>
       </c>
       <c r="D104" t="n">
-        <v>0.683469</v>
+        <v>0.657139</v>
       </c>
       <c r="E104" t="n">
-        <v>0.238198</v>
+        <v>0.234551</v>
       </c>
       <c r="F104" t="n">
-        <v>0.606609</v>
+        <v>0.581777</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.213415</v>
+        <v>0.211215</v>
       </c>
       <c r="C105" t="n">
-        <v>0.603281</v>
+        <v>0.597108</v>
       </c>
       <c r="D105" t="n">
-        <v>0.666573</v>
+        <v>0.6624989999999999</v>
       </c>
       <c r="E105" t="n">
-        <v>0.236684</v>
+        <v>0.233426</v>
       </c>
       <c r="F105" t="n">
-        <v>0.584556</v>
+        <v>0.5896749999999999</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.203972</v>
+        <v>0.205259</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5919410000000001</v>
+        <v>0.5930569999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.654196</v>
+        <v>0.661233</v>
       </c>
       <c r="E106" t="n">
-        <v>0.231843</v>
+        <v>0.232154</v>
       </c>
       <c r="F106" t="n">
-        <v>0.580156</v>
+        <v>0.593797</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.202889</v>
+        <v>0.201877</v>
       </c>
       <c r="C107" t="n">
-        <v>0.586827</v>
+        <v>0.596417</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6628810000000001</v>
+        <v>0.6643520000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>0.230464</v>
+        <v>0.230947</v>
       </c>
       <c r="F107" t="n">
-        <v>0.579619</v>
+        <v>0.588405</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.193935</v>
+        <v>0.194746</v>
       </c>
       <c r="C108" t="n">
-        <v>0.581999</v>
+        <v>0.589166</v>
       </c>
       <c r="D108" t="n">
-        <v>0.664043</v>
+        <v>0.661756</v>
       </c>
       <c r="E108" t="n">
-        <v>0.256469</v>
+        <v>0.255863</v>
       </c>
       <c r="F108" t="n">
-        <v>0.602324</v>
+        <v>0.603441</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.183781</v>
+        <v>0.186869</v>
       </c>
       <c r="C109" t="n">
-        <v>0.584659</v>
+        <v>0.576113</v>
       </c>
       <c r="D109" t="n">
-        <v>0.660273</v>
+        <v>0.665969</v>
       </c>
       <c r="E109" t="n">
-        <v>0.253882</v>
+        <v>0.254194</v>
       </c>
       <c r="F109" t="n">
-        <v>0.60523</v>
+        <v>0.6011069999999999</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.24995</v>
+        <v>0.251152</v>
       </c>
       <c r="C110" t="n">
-        <v>0.627843</v>
+        <v>0.629297</v>
       </c>
       <c r="D110" t="n">
-        <v>0.664314</v>
+        <v>0.667318</v>
       </c>
       <c r="E110" t="n">
-        <v>0.252758</v>
+        <v>0.25117</v>
       </c>
       <c r="F110" t="n">
-        <v>0.595657</v>
+        <v>0.598473</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.245754</v>
+        <v>0.251432</v>
       </c>
       <c r="C111" t="n">
-        <v>0.611765</v>
+        <v>0.6264380000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.660907</v>
+        <v>0.6626300000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>0.249346</v>
+        <v>0.248531</v>
       </c>
       <c r="F111" t="n">
-        <v>0.597074</v>
+        <v>0.599114</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.241923</v>
+        <v>0.241346</v>
       </c>
       <c r="C112" t="n">
-        <v>0.610365</v>
+        <v>0.6296079999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.660581</v>
+        <v>0.662382</v>
       </c>
       <c r="E112" t="n">
-        <v>0.251043</v>
+        <v>0.248081</v>
       </c>
       <c r="F112" t="n">
-        <v>0.599724</v>
+        <v>0.6095970000000001</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.241765</v>
+        <v>0.239172</v>
       </c>
       <c r="C113" t="n">
-        <v>0.622052</v>
+        <v>0.617003</v>
       </c>
       <c r="D113" t="n">
-        <v>0.65989</v>
+        <v>0.6592170000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>0.244934</v>
+        <v>0.24433</v>
       </c>
       <c r="F113" t="n">
-        <v>0.592029</v>
+        <v>0.597097</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.232115</v>
+        <v>0.231878</v>
       </c>
       <c r="C114" t="n">
-        <v>0.603047</v>
+        <v>0.622659</v>
       </c>
       <c r="D114" t="n">
-        <v>0.657546</v>
+        <v>0.659491</v>
       </c>
       <c r="E114" t="n">
-        <v>0.243047</v>
+        <v>0.24592</v>
       </c>
       <c r="F114" t="n">
-        <v>0.594869</v>
+        <v>0.594372</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.227734</v>
+        <v>0.229857</v>
       </c>
       <c r="C115" t="n">
-        <v>0.597603</v>
+        <v>0.604863</v>
       </c>
       <c r="D115" t="n">
-        <v>0.656289</v>
+        <v>0.658708</v>
       </c>
       <c r="E115" t="n">
-        <v>0.240893</v>
+        <v>0.241329</v>
       </c>
       <c r="F115" t="n">
-        <v>0.5908600000000001</v>
+        <v>0.589428</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.222378</v>
+        <v>0.223608</v>
       </c>
       <c r="C116" t="n">
-        <v>0.599017</v>
+        <v>0.604365</v>
       </c>
       <c r="D116" t="n">
-        <v>0.663985</v>
+        <v>0.6619390000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>0.239544</v>
+        <v>0.242503</v>
       </c>
       <c r="F116" t="n">
-        <v>0.589594</v>
+        <v>0.586749</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.220967</v>
+        <v>0.21912</v>
       </c>
       <c r="C117" t="n">
-        <v>0.591476</v>
+        <v>0.599662</v>
       </c>
       <c r="D117" t="n">
-        <v>0.660114</v>
+        <v>0.656336</v>
       </c>
       <c r="E117" t="n">
-        <v>0.23782</v>
+        <v>0.236808</v>
       </c>
       <c r="F117" t="n">
-        <v>0.588185</v>
+        <v>0.582955</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.213927</v>
+        <v>0.213126</v>
       </c>
       <c r="C118" t="n">
-        <v>0.584407</v>
+        <v>0.597213</v>
       </c>
       <c r="D118" t="n">
-        <v>0.657934</v>
+        <v>0.657621</v>
       </c>
       <c r="E118" t="n">
-        <v>0.236477</v>
+        <v>0.235308</v>
       </c>
       <c r="F118" t="n">
-        <v>0.589519</v>
+        <v>0.585359</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.210068</v>
+        <v>0.209546</v>
       </c>
       <c r="C119" t="n">
-        <v>0.58432</v>
+        <v>0.594341</v>
       </c>
       <c r="D119" t="n">
-        <v>0.662168</v>
+        <v>0.662598</v>
       </c>
       <c r="E119" t="n">
-        <v>0.234759</v>
+        <v>0.234424</v>
       </c>
       <c r="F119" t="n">
-        <v>0.586043</v>
+        <v>0.583355</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.206596</v>
+        <v>0.205181</v>
       </c>
       <c r="C120" t="n">
-        <v>0.577395</v>
+        <v>0.595845</v>
       </c>
       <c r="D120" t="n">
-        <v>0.6571050000000001</v>
+        <v>0.659102</v>
       </c>
       <c r="E120" t="n">
-        <v>0.232829</v>
+        <v>0.232921</v>
       </c>
       <c r="F120" t="n">
-        <v>0.582569</v>
+        <v>0.5819879999999999</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.200068</v>
+        <v>0.200052</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5771810000000001</v>
+        <v>0.592962</v>
       </c>
       <c r="D121" t="n">
-        <v>0.680193</v>
+        <v>0.674262</v>
       </c>
       <c r="E121" t="n">
-        <v>0.231328</v>
+        <v>0.231317</v>
       </c>
       <c r="F121" t="n">
-        <v>0.580375</v>
+        <v>0.581318</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.194593</v>
+        <v>0.194088</v>
       </c>
       <c r="C122" t="n">
-        <v>0.581993</v>
+        <v>0.587047</v>
       </c>
       <c r="D122" t="n">
-        <v>0.672257</v>
+        <v>0.671053</v>
       </c>
       <c r="E122" t="n">
-        <v>0.230316</v>
+        <v>0.230398</v>
       </c>
       <c r="F122" t="n">
-        <v>0.581624</v>
+        <v>0.582433</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.186023</v>
+        <v>0.186116</v>
       </c>
       <c r="C123" t="n">
-        <v>0.575885</v>
+        <v>0.578195</v>
       </c>
       <c r="D123" t="n">
-        <v>0.671733</v>
+        <v>0.671965</v>
       </c>
       <c r="E123" t="n">
-        <v>0.25408</v>
+        <v>0.258198</v>
       </c>
       <c r="F123" t="n">
-        <v>0.600061</v>
+        <v>0.60143</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.251373</v>
+        <v>0.250808</v>
       </c>
       <c r="C124" t="n">
-        <v>0.622791</v>
+        <v>0.621638</v>
       </c>
       <c r="D124" t="n">
-        <v>0.67091</v>
+        <v>0.666014</v>
       </c>
       <c r="E124" t="n">
-        <v>0.252149</v>
+        <v>0.251305</v>
       </c>
       <c r="F124" t="n">
-        <v>0.6022459999999999</v>
+        <v>0.601257</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.247035</v>
+        <v>0.24904</v>
       </c>
       <c r="C125" t="n">
-        <v>0.613916</v>
+        <v>0.6143150000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.67254</v>
+        <v>0.671377</v>
       </c>
       <c r="E125" t="n">
-        <v>0.250739</v>
+        <v>0.252437</v>
       </c>
       <c r="F125" t="n">
-        <v>0.598098</v>
+        <v>0.593983</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.241781</v>
+        <v>0.242039</v>
       </c>
       <c r="C126" t="n">
-        <v>0.622178</v>
+        <v>0.63427</v>
       </c>
       <c r="D126" t="n">
-        <v>0.668492</v>
+        <v>0.66969</v>
       </c>
       <c r="E126" t="n">
-        <v>0.247912</v>
+        <v>0.2476</v>
       </c>
       <c r="F126" t="n">
-        <v>0.599019</v>
+        <v>0.591506</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.238734</v>
+        <v>0.241538</v>
       </c>
       <c r="C127" t="n">
-        <v>0.606561</v>
+        <v>0.6234690000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>0.667293</v>
+        <v>0.662953</v>
       </c>
       <c r="E127" t="n">
-        <v>0.245998</v>
+        <v>0.247099</v>
       </c>
       <c r="F127" t="n">
-        <v>0.594773</v>
+        <v>0.592302</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.232501</v>
+        <v>0.234109</v>
       </c>
       <c r="C128" t="n">
-        <v>0.599164</v>
+        <v>0.6015200000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>0.667146</v>
+        <v>0.664578</v>
       </c>
       <c r="E128" t="n">
-        <v>0.243487</v>
+        <v>0.242735</v>
       </c>
       <c r="F128" t="n">
-        <v>0.599033</v>
+        <v>0.592181</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.229372</v>
+        <v>0.228269</v>
       </c>
       <c r="C129" t="n">
-        <v>0.610118</v>
+        <v>0.611549</v>
       </c>
       <c r="D129" t="n">
-        <v>0.666647</v>
+        <v>0.672105</v>
       </c>
       <c r="E129" t="n">
-        <v>0.241204</v>
+        <v>0.24077</v>
       </c>
       <c r="F129" t="n">
-        <v>0.591175</v>
+        <v>0.590982</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.225784</v>
+        <v>0.223914</v>
       </c>
       <c r="C130" t="n">
-        <v>0.62127</v>
+        <v>0.597604</v>
       </c>
       <c r="D130" t="n">
-        <v>0.664792</v>
+        <v>0.667261</v>
       </c>
       <c r="E130" t="n">
-        <v>0.239584</v>
+        <v>0.242956</v>
       </c>
       <c r="F130" t="n">
-        <v>0.589272</v>
+        <v>0.5958290000000001</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.219339</v>
+        <v>0.220652</v>
       </c>
       <c r="C131" t="n">
-        <v>0.615937</v>
+        <v>0.62405</v>
       </c>
       <c r="D131" t="n">
-        <v>0.6645990000000001</v>
+        <v>0.673257</v>
       </c>
       <c r="E131" t="n">
-        <v>0.237526</v>
+        <v>0.241478</v>
       </c>
       <c r="F131" t="n">
-        <v>0.587291</v>
+        <v>0.598129</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.215731</v>
+        <v>0.217774</v>
       </c>
       <c r="C132" t="n">
-        <v>0.587847</v>
+        <v>0.589455</v>
       </c>
       <c r="D132" t="n">
-        <v>0.667027</v>
+        <v>0.673747</v>
       </c>
       <c r="E132" t="n">
-        <v>0.23565</v>
+        <v>0.238367</v>
       </c>
       <c r="F132" t="n">
-        <v>0.588374</v>
+        <v>0.590245</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.210619</v>
+        <v>0.213213</v>
       </c>
       <c r="C133" t="n">
-        <v>0.595588</v>
+        <v>0.58745</v>
       </c>
       <c r="D133" t="n">
-        <v>0.663257</v>
+        <v>0.675226</v>
       </c>
       <c r="E133" t="n">
-        <v>0.234281</v>
+        <v>0.235283</v>
       </c>
       <c r="F133" t="n">
-        <v>0.584592</v>
+        <v>0.58675</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.206942</v>
+        <v>0.207941</v>
       </c>
       <c r="C134" t="n">
-        <v>0.5833120000000001</v>
+        <v>0.595392</v>
       </c>
       <c r="D134" t="n">
-        <v>0.6608309999999999</v>
+        <v>0.665473</v>
       </c>
       <c r="E134" t="n">
-        <v>0.233074</v>
+        <v>0.233832</v>
       </c>
       <c r="F134" t="n">
-        <v>0.584296</v>
+        <v>0.584004</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.201396</v>
+        <v>0.204668</v>
       </c>
       <c r="C135" t="n">
-        <v>0.577242</v>
+        <v>0.582149</v>
       </c>
       <c r="D135" t="n">
-        <v>0.676937</v>
+        <v>0.693103</v>
       </c>
       <c r="E135" t="n">
-        <v>0.231666</v>
+        <v>0.232144</v>
       </c>
       <c r="F135" t="n">
-        <v>0.582695</v>
+        <v>0.5863080000000001</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.198823</v>
+        <v>0.198134</v>
       </c>
       <c r="C136" t="n">
-        <v>0.569946</v>
+        <v>0.572839</v>
       </c>
       <c r="D136" t="n">
-        <v>0.67641</v>
+        <v>0.679851</v>
       </c>
       <c r="E136" t="n">
-        <v>0.230238</v>
+        <v>0.232511</v>
       </c>
       <c r="F136" t="n">
-        <v>0.581354</v>
+        <v>0.597975</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.187113</v>
+        <v>0.189595</v>
       </c>
       <c r="C137" t="n">
-        <v>0.562581</v>
+        <v>0.593877</v>
       </c>
       <c r="D137" t="n">
-        <v>0.673045</v>
+        <v>0.6764019999999999</v>
       </c>
       <c r="E137" t="n">
-        <v>0.254985</v>
+        <v>0.260215</v>
       </c>
       <c r="F137" t="n">
-        <v>0.603638</v>
+        <v>0.608551</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.253001</v>
+        <v>0.259822</v>
       </c>
       <c r="C138" t="n">
-        <v>0.641343</v>
+        <v>0.635409</v>
       </c>
       <c r="D138" t="n">
-        <v>0.67256</v>
+        <v>0.67808</v>
       </c>
       <c r="E138" t="n">
-        <v>0.25356</v>
+        <v>0.253872</v>
       </c>
       <c r="F138" t="n">
-        <v>0.598688</v>
+        <v>0.599768</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.247219</v>
+        <v>0.257729</v>
       </c>
       <c r="C139" t="n">
-        <v>0.615634</v>
+        <v>0.6496189999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>0.672679</v>
+        <v>0.697815</v>
       </c>
       <c r="E139" t="n">
-        <v>0.250817</v>
+        <v>0.256126</v>
       </c>
       <c r="F139" t="n">
-        <v>0.599159</v>
+        <v>0.606304</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.245767</v>
+        <v>0.246327</v>
       </c>
       <c r="C140" t="n">
-        <v>0.630226</v>
+        <v>0.611349</v>
       </c>
       <c r="D140" t="n">
-        <v>0.672168</v>
+        <v>0.6687</v>
       </c>
       <c r="E140" t="n">
-        <v>0.247412</v>
+        <v>0.248522</v>
       </c>
       <c r="F140" t="n">
-        <v>0.597508</v>
+        <v>0.5928909999999999</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.238403</v>
+        <v>0.239999</v>
       </c>
       <c r="C141" t="n">
-        <v>0.606389</v>
+        <v>0.614653</v>
       </c>
       <c r="D141" t="n">
-        <v>0.669387</v>
+        <v>0.670976</v>
       </c>
       <c r="E141" t="n">
-        <v>0.24562</v>
+        <v>0.245656</v>
       </c>
       <c r="F141" t="n">
-        <v>0.594042</v>
+        <v>0.590158</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.233688</v>
+        <v>0.235398</v>
       </c>
       <c r="C142" t="n">
-        <v>0.610666</v>
+        <v>0.603455</v>
       </c>
       <c r="D142" t="n">
-        <v>0.675724</v>
+        <v>0.6642980000000001</v>
       </c>
       <c r="E142" t="n">
-        <v>0.243155</v>
+        <v>0.248662</v>
       </c>
       <c r="F142" t="n">
-        <v>0.591554</v>
+        <v>0.588477</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.22858</v>
+        <v>0.230745</v>
       </c>
       <c r="C143" t="n">
-        <v>0.59715</v>
+        <v>0.615337</v>
       </c>
       <c r="D143" t="n">
-        <v>0.667242</v>
+        <v>0.66928</v>
       </c>
       <c r="E143" t="n">
-        <v>0.242038</v>
+        <v>0.242566</v>
       </c>
       <c r="F143" t="n">
-        <v>0.590941</v>
+        <v>0.5880339999999999</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.193303</v>
+        <v>0.192822</v>
       </c>
       <c r="C2" t="n">
-        <v>0.445885</v>
+        <v>0.446532</v>
       </c>
       <c r="D2" t="n">
-        <v>0.502088</v>
+        <v>0.505694</v>
       </c>
       <c r="E2" t="n">
-        <v>0.213075</v>
+        <v>0.185227</v>
       </c>
       <c r="F2" t="n">
-        <v>0.453865</v>
+        <v>0.450969</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.187929</v>
+        <v>0.194474</v>
       </c>
       <c r="C3" t="n">
-        <v>0.445058</v>
+        <v>0.451437</v>
       </c>
       <c r="D3" t="n">
-        <v>0.520174</v>
+        <v>0.51214</v>
       </c>
       <c r="E3" t="n">
-        <v>0.213183</v>
+        <v>0.177072</v>
       </c>
       <c r="F3" t="n">
-        <v>0.455454</v>
+        <v>0.449078</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.18804</v>
+        <v>0.193087</v>
       </c>
       <c r="C4" t="n">
-        <v>0.438938</v>
+        <v>0.450856</v>
       </c>
       <c r="D4" t="n">
-        <v>0.51102</v>
+        <v>0.506367</v>
       </c>
       <c r="E4" t="n">
-        <v>0.212791</v>
+        <v>0.173927</v>
       </c>
       <c r="F4" t="n">
-        <v>0.45355</v>
+        <v>0.44418</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.186032</v>
+        <v>0.190943</v>
       </c>
       <c r="C5" t="n">
-        <v>0.440772</v>
+        <v>0.443597</v>
       </c>
       <c r="D5" t="n">
-        <v>0.503462</v>
+        <v>0.5172949999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.212464</v>
+        <v>0.169392</v>
       </c>
       <c r="F5" t="n">
-        <v>0.460437</v>
+        <v>0.460797</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.184536</v>
+        <v>0.183007</v>
       </c>
       <c r="C6" t="n">
-        <v>0.43578</v>
+        <v>0.430578</v>
       </c>
       <c r="D6" t="n">
-        <v>0.503461</v>
+        <v>0.496013</v>
       </c>
       <c r="E6" t="n">
-        <v>0.213503</v>
+        <v>0.1633</v>
       </c>
       <c r="F6" t="n">
-        <v>0.451325</v>
+        <v>0.422436</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.181316</v>
+        <v>0.178427</v>
       </c>
       <c r="C7" t="n">
-        <v>0.430461</v>
+        <v>0.427337</v>
       </c>
       <c r="D7" t="n">
-        <v>0.528396</v>
+        <v>0.501217</v>
       </c>
       <c r="E7" t="n">
-        <v>0.211767</v>
+        <v>0.162426</v>
       </c>
       <c r="F7" t="n">
-        <v>0.450304</v>
+        <v>0.422445</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.177817</v>
+        <v>0.17345</v>
       </c>
       <c r="C8" t="n">
-        <v>0.424545</v>
+        <v>0.419784</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5345220000000001</v>
+        <v>0.504444</v>
       </c>
       <c r="E8" t="n">
-        <v>0.217107</v>
+        <v>0.158892</v>
       </c>
       <c r="F8" t="n">
-        <v>0.447175</v>
+        <v>0.4185</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.165777</v>
+        <v>0.168422</v>
       </c>
       <c r="C9" t="n">
-        <v>0.41604</v>
+        <v>0.411238</v>
       </c>
       <c r="D9" t="n">
-        <v>0.527308</v>
+        <v>0.5011139999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.225396</v>
+        <v>0.207886</v>
       </c>
       <c r="F9" t="n">
-        <v>0.464692</v>
+        <v>0.463069</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.218667</v>
+        <v>0.215702</v>
       </c>
       <c r="C10" t="n">
-        <v>0.468425</v>
+        <v>0.46207</v>
       </c>
       <c r="D10" t="n">
-        <v>0.510342</v>
+        <v>0.512304</v>
       </c>
       <c r="E10" t="n">
-        <v>0.219877</v>
+        <v>0.202857</v>
       </c>
       <c r="F10" t="n">
-        <v>0.467203</v>
+        <v>0.455415</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.213842</v>
+        <v>0.213006</v>
       </c>
       <c r="C11" t="n">
-        <v>0.465418</v>
+        <v>0.461</v>
       </c>
       <c r="D11" t="n">
-        <v>0.515406</v>
+        <v>0.499462</v>
       </c>
       <c r="E11" t="n">
-        <v>0.219925</v>
+        <v>0.199967</v>
       </c>
       <c r="F11" t="n">
-        <v>0.462703</v>
+        <v>0.452188</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.212804</v>
+        <v>0.209885</v>
       </c>
       <c r="C12" t="n">
-        <v>0.461039</v>
+        <v>0.453691</v>
       </c>
       <c r="D12" t="n">
-        <v>0.507154</v>
+        <v>0.49841</v>
       </c>
       <c r="E12" t="n">
-        <v>0.218886</v>
+        <v>0.194341</v>
       </c>
       <c r="F12" t="n">
-        <v>0.464132</v>
+        <v>0.446111</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.206851</v>
+        <v>0.207557</v>
       </c>
       <c r="C13" t="n">
-        <v>0.454522</v>
+        <v>0.45284</v>
       </c>
       <c r="D13" t="n">
-        <v>0.510278</v>
+        <v>0.503209</v>
       </c>
       <c r="E13" t="n">
-        <v>0.218692</v>
+        <v>0.194273</v>
       </c>
       <c r="F13" t="n">
-        <v>0.460611</v>
+        <v>0.451118</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.208024</v>
+        <v>0.206238</v>
       </c>
       <c r="C14" t="n">
-        <v>0.459953</v>
+        <v>0.451652</v>
       </c>
       <c r="D14" t="n">
-        <v>0.507615</v>
+        <v>0.498884</v>
       </c>
       <c r="E14" t="n">
-        <v>0.219144</v>
+        <v>0.18735</v>
       </c>
       <c r="F14" t="n">
-        <v>0.45743</v>
+        <v>0.442884</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.202129</v>
+        <v>0.200242</v>
       </c>
       <c r="C15" t="n">
-        <v>0.450737</v>
+        <v>0.445993</v>
       </c>
       <c r="D15" t="n">
-        <v>0.514038</v>
+        <v>0.496088</v>
       </c>
       <c r="E15" t="n">
-        <v>0.22171</v>
+        <v>0.185044</v>
       </c>
       <c r="F15" t="n">
-        <v>0.457918</v>
+        <v>0.439665</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.203048</v>
+        <v>0.200965</v>
       </c>
       <c r="C16" t="n">
-        <v>0.448145</v>
+        <v>0.442078</v>
       </c>
       <c r="D16" t="n">
-        <v>0.504516</v>
+        <v>0.494245</v>
       </c>
       <c r="E16" t="n">
-        <v>0.218901</v>
+        <v>0.180448</v>
       </c>
       <c r="F16" t="n">
-        <v>0.459509</v>
+        <v>0.437588</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.197951</v>
+        <v>0.196078</v>
       </c>
       <c r="C17" t="n">
-        <v>0.44882</v>
+        <v>0.441851</v>
       </c>
       <c r="D17" t="n">
-        <v>0.502185</v>
+        <v>0.496818</v>
       </c>
       <c r="E17" t="n">
-        <v>0.217354</v>
+        <v>0.178153</v>
       </c>
       <c r="F17" t="n">
-        <v>0.468204</v>
+        <v>0.433927</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.192303</v>
+        <v>0.193374</v>
       </c>
       <c r="C18" t="n">
-        <v>0.437952</v>
+        <v>0.43988</v>
       </c>
       <c r="D18" t="n">
-        <v>0.500797</v>
+        <v>0.494331</v>
       </c>
       <c r="E18" t="n">
-        <v>0.217688</v>
+        <v>0.175413</v>
       </c>
       <c r="F18" t="n">
-        <v>0.455244</v>
+        <v>0.431558</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.190017</v>
+        <v>0.191174</v>
       </c>
       <c r="C19" t="n">
-        <v>0.434114</v>
+        <v>0.440552</v>
       </c>
       <c r="D19" t="n">
-        <v>0.51256</v>
+        <v>0.496077</v>
       </c>
       <c r="E19" t="n">
-        <v>0.216535</v>
+        <v>0.172664</v>
       </c>
       <c r="F19" t="n">
-        <v>0.456402</v>
+        <v>0.430529</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188808</v>
+        <v>0.187906</v>
       </c>
       <c r="C20" t="n">
-        <v>0.437229</v>
+        <v>0.429366</v>
       </c>
       <c r="D20" t="n">
-        <v>0.511621</v>
+        <v>0.494359</v>
       </c>
       <c r="E20" t="n">
-        <v>0.220187</v>
+        <v>0.169593</v>
       </c>
       <c r="F20" t="n">
-        <v>0.459839</v>
+        <v>0.426305</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.184575</v>
+        <v>0.184147</v>
       </c>
       <c r="C21" t="n">
-        <v>0.428483</v>
+        <v>0.426988</v>
       </c>
       <c r="D21" t="n">
-        <v>0.514157</v>
+        <v>0.513213</v>
       </c>
       <c r="E21" t="n">
-        <v>0.215192</v>
+        <v>0.167951</v>
       </c>
       <c r="F21" t="n">
-        <v>0.45528</v>
+        <v>0.428985</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.179181</v>
+        <v>0.179157</v>
       </c>
       <c r="C22" t="n">
-        <v>0.42938</v>
+        <v>0.422806</v>
       </c>
       <c r="D22" t="n">
-        <v>0.514899</v>
+        <v>0.509325</v>
       </c>
       <c r="E22" t="n">
-        <v>0.218037</v>
+        <v>0.164203</v>
       </c>
       <c r="F22" t="n">
-        <v>0.450551</v>
+        <v>0.420847</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.171888</v>
+        <v>0.17305</v>
       </c>
       <c r="C23" t="n">
-        <v>0.418017</v>
+        <v>0.4221</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5139359999999999</v>
+        <v>0.519127</v>
       </c>
       <c r="E23" t="n">
-        <v>0.230022</v>
+        <v>0.215258</v>
       </c>
       <c r="F23" t="n">
-        <v>0.479144</v>
+        <v>0.464886</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.228966</v>
+        <v>0.227684</v>
       </c>
       <c r="C24" t="n">
-        <v>0.473149</v>
+        <v>0.467913</v>
       </c>
       <c r="D24" t="n">
-        <v>0.515633</v>
+        <v>0.507959</v>
       </c>
       <c r="E24" t="n">
-        <v>0.227731</v>
+        <v>0.211082</v>
       </c>
       <c r="F24" t="n">
-        <v>0.467815</v>
+        <v>0.461486</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.225897</v>
+        <v>0.225406</v>
       </c>
       <c r="C25" t="n">
-        <v>0.466378</v>
+        <v>0.466112</v>
       </c>
       <c r="D25" t="n">
-        <v>0.52122</v>
+        <v>0.505785</v>
       </c>
       <c r="E25" t="n">
-        <v>0.228203</v>
+        <v>0.206613</v>
       </c>
       <c r="F25" t="n">
-        <v>0.466111</v>
+        <v>0.456191</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.224562</v>
+        <v>0.223725</v>
       </c>
       <c r="C26" t="n">
-        <v>0.471661</v>
+        <v>0.465692</v>
       </c>
       <c r="D26" t="n">
-        <v>0.51088</v>
+        <v>0.503921</v>
       </c>
       <c r="E26" t="n">
-        <v>0.227295</v>
+        <v>0.205549</v>
       </c>
       <c r="F26" t="n">
-        <v>0.461572</v>
+        <v>0.459408</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.219212</v>
+        <v>0.217368</v>
       </c>
       <c r="C27" t="n">
-        <v>0.467317</v>
+        <v>0.457577</v>
       </c>
       <c r="D27" t="n">
-        <v>0.516492</v>
+        <v>0.507012</v>
       </c>
       <c r="E27" t="n">
-        <v>0.225448</v>
+        <v>0.199551</v>
       </c>
       <c r="F27" t="n">
-        <v>0.46447</v>
+        <v>0.452107</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.214738</v>
+        <v>0.213442</v>
       </c>
       <c r="C28" t="n">
-        <v>0.459463</v>
+        <v>0.46296</v>
       </c>
       <c r="D28" t="n">
-        <v>0.505603</v>
+        <v>0.508754</v>
       </c>
       <c r="E28" t="n">
-        <v>0.229479</v>
+        <v>0.194981</v>
       </c>
       <c r="F28" t="n">
-        <v>0.467568</v>
+        <v>0.447037</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.211227</v>
+        <v>0.21003</v>
       </c>
       <c r="C29" t="n">
-        <v>0.45454</v>
+        <v>0.450484</v>
       </c>
       <c r="D29" t="n">
-        <v>0.509274</v>
+        <v>0.5029709999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>0.224383</v>
+        <v>0.192316</v>
       </c>
       <c r="F29" t="n">
-        <v>0.462145</v>
+        <v>0.454023</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.20763</v>
+        <v>0.206687</v>
       </c>
       <c r="C30" t="n">
-        <v>0.454171</v>
+        <v>0.448206</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5072140000000001</v>
+        <v>0.501802</v>
       </c>
       <c r="E30" t="n">
-        <v>0.224737</v>
+        <v>0.188921</v>
       </c>
       <c r="F30" t="n">
-        <v>0.459536</v>
+        <v>0.441481</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.203659</v>
+        <v>0.202942</v>
       </c>
       <c r="C31" t="n">
-        <v>0.44876</v>
+        <v>0.44403</v>
       </c>
       <c r="D31" t="n">
-        <v>0.505928</v>
+        <v>0.501187</v>
       </c>
       <c r="E31" t="n">
-        <v>0.222249</v>
+        <v>0.185918</v>
       </c>
       <c r="F31" t="n">
-        <v>0.462509</v>
+        <v>0.44292</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.201426</v>
+        <v>0.202035</v>
       </c>
       <c r="C32" t="n">
-        <v>0.446812</v>
+        <v>0.44174</v>
       </c>
       <c r="D32" t="n">
-        <v>0.518796</v>
+        <v>0.502664</v>
       </c>
       <c r="E32" t="n">
-        <v>0.222413</v>
+        <v>0.182347</v>
       </c>
       <c r="F32" t="n">
-        <v>0.462307</v>
+        <v>0.439127</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.198127</v>
+        <v>0.19762</v>
       </c>
       <c r="C33" t="n">
-        <v>0.442137</v>
+        <v>0.440042</v>
       </c>
       <c r="D33" t="n">
-        <v>0.504114</v>
+        <v>0.503484</v>
       </c>
       <c r="E33" t="n">
-        <v>0.220517</v>
+        <v>0.179405</v>
       </c>
       <c r="F33" t="n">
-        <v>0.459658</v>
+        <v>0.432541</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.193882</v>
+        <v>0.193437</v>
       </c>
       <c r="C34" t="n">
-        <v>0.438256</v>
+        <v>0.432417</v>
       </c>
       <c r="D34" t="n">
-        <v>0.508948</v>
+        <v>0.504293</v>
       </c>
       <c r="E34" t="n">
-        <v>0.222681</v>
+        <v>0.175587</v>
       </c>
       <c r="F34" t="n">
-        <v>0.462506</v>
+        <v>0.430599</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.191174</v>
+        <v>0.190239</v>
       </c>
       <c r="C35" t="n">
-        <v>0.443907</v>
+        <v>0.434282</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5264450000000001</v>
+        <v>0.516227</v>
       </c>
       <c r="E35" t="n">
-        <v>0.21939</v>
+        <v>0.172686</v>
       </c>
       <c r="F35" t="n">
-        <v>0.459153</v>
+        <v>0.429259</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.190043</v>
+        <v>0.18464</v>
       </c>
       <c r="C36" t="n">
-        <v>0.43195</v>
+        <v>0.427262</v>
       </c>
       <c r="D36" t="n">
-        <v>0.536184</v>
+        <v>0.528388</v>
       </c>
       <c r="E36" t="n">
-        <v>0.219222</v>
+        <v>0.173117</v>
       </c>
       <c r="F36" t="n">
-        <v>0.456652</v>
+        <v>0.428698</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.178253</v>
+        <v>0.179031</v>
       </c>
       <c r="C37" t="n">
-        <v>0.426147</v>
+        <v>0.419196</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5303369999999999</v>
+        <v>0.52971</v>
       </c>
       <c r="E37" t="n">
-        <v>0.245325</v>
+        <v>0.230349</v>
       </c>
       <c r="F37" t="n">
-        <v>0.475562</v>
+        <v>0.471347</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2313</v>
+        <v>0.23398</v>
       </c>
       <c r="C38" t="n">
-        <v>0.491762</v>
+        <v>0.492163</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5252289999999999</v>
+        <v>0.528704</v>
       </c>
       <c r="E38" t="n">
-        <v>0.243298</v>
+        <v>0.225988</v>
       </c>
       <c r="F38" t="n">
-        <v>0.479484</v>
+        <v>0.469203</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.232037</v>
+        <v>0.232393</v>
       </c>
       <c r="C39" t="n">
-        <v>0.483431</v>
+        <v>0.48479</v>
       </c>
       <c r="D39" t="n">
-        <v>0.524735</v>
+        <v>0.5184530000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>0.240199</v>
+        <v>0.220641</v>
       </c>
       <c r="F39" t="n">
-        <v>0.47691</v>
+        <v>0.464903</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.2281</v>
+        <v>0.22601</v>
       </c>
       <c r="C40" t="n">
-        <v>0.47562</v>
+        <v>0.471207</v>
       </c>
       <c r="D40" t="n">
-        <v>0.533738</v>
+        <v>0.521559</v>
       </c>
       <c r="E40" t="n">
-        <v>0.237676</v>
+        <v>0.215442</v>
       </c>
       <c r="F40" t="n">
-        <v>0.479051</v>
+        <v>0.462348</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.223237</v>
+        <v>0.22234</v>
       </c>
       <c r="C41" t="n">
-        <v>0.490912</v>
+        <v>0.488105</v>
       </c>
       <c r="D41" t="n">
-        <v>0.533641</v>
+        <v>0.531568</v>
       </c>
       <c r="E41" t="n">
-        <v>0.238535</v>
+        <v>0.212233</v>
       </c>
       <c r="F41" t="n">
-        <v>0.48006</v>
+        <v>0.469593</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.217086</v>
+        <v>0.218177</v>
       </c>
       <c r="C42" t="n">
-        <v>0.487205</v>
+        <v>0.481404</v>
       </c>
       <c r="D42" t="n">
-        <v>0.531945</v>
+        <v>0.533755</v>
       </c>
       <c r="E42" t="n">
-        <v>0.237954</v>
+        <v>0.207678</v>
       </c>
       <c r="F42" t="n">
-        <v>0.486848</v>
+        <v>0.474411</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.217403</v>
+        <v>0.216237</v>
       </c>
       <c r="C43" t="n">
-        <v>0.486205</v>
+        <v>0.491262</v>
       </c>
       <c r="D43" t="n">
-        <v>0.531617</v>
+        <v>0.540177</v>
       </c>
       <c r="E43" t="n">
-        <v>0.233007</v>
+        <v>0.202726</v>
       </c>
       <c r="F43" t="n">
-        <v>0.486256</v>
+        <v>0.474639</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.211039</v>
+        <v>0.211106</v>
       </c>
       <c r="C44" t="n">
-        <v>0.490175</v>
+        <v>0.472846</v>
       </c>
       <c r="D44" t="n">
-        <v>0.541611</v>
+        <v>0.533826</v>
       </c>
       <c r="E44" t="n">
-        <v>0.231851</v>
+        <v>0.199775</v>
       </c>
       <c r="F44" t="n">
-        <v>0.471556</v>
+        <v>0.474128</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.208637</v>
+        <v>0.207105</v>
       </c>
       <c r="C45" t="n">
-        <v>0.45786</v>
+        <v>0.497774</v>
       </c>
       <c r="D45" t="n">
-        <v>0.524585</v>
+        <v>0.538546</v>
       </c>
       <c r="E45" t="n">
-        <v>0.232173</v>
+        <v>0.194968</v>
       </c>
       <c r="F45" t="n">
-        <v>0.477299</v>
+        <v>0.474901</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.204804</v>
+        <v>0.203338</v>
       </c>
       <c r="C46" t="n">
-        <v>0.489485</v>
+        <v>0.490995</v>
       </c>
       <c r="D46" t="n">
-        <v>0.545539</v>
+        <v>0.518355</v>
       </c>
       <c r="E46" t="n">
-        <v>0.228991</v>
+        <v>0.191912</v>
       </c>
       <c r="F46" t="n">
-        <v>0.493181</v>
+        <v>0.457539</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.202397</v>
+        <v>0.201267</v>
       </c>
       <c r="C47" t="n">
-        <v>0.495517</v>
+        <v>0.451409</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5509039999999999</v>
+        <v>0.528555</v>
       </c>
       <c r="E47" t="n">
-        <v>0.227468</v>
+        <v>0.187081</v>
       </c>
       <c r="F47" t="n">
-        <v>0.492018</v>
+        <v>0.445154</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.199111</v>
+        <v>0.198277</v>
       </c>
       <c r="C48" t="n">
-        <v>0.492032</v>
+        <v>0.448423</v>
       </c>
       <c r="D48" t="n">
-        <v>0.53176</v>
+        <v>0.524475</v>
       </c>
       <c r="E48" t="n">
-        <v>0.229064</v>
+        <v>0.18427</v>
       </c>
       <c r="F48" t="n">
-        <v>0.476889</v>
+        <v>0.442579</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.195274</v>
+        <v>0.193338</v>
       </c>
       <c r="C49" t="n">
-        <v>0.450862</v>
+        <v>0.49365</v>
       </c>
       <c r="D49" t="n">
-        <v>0.528308</v>
+        <v>0.556262</v>
       </c>
       <c r="E49" t="n">
-        <v>0.226997</v>
+        <v>0.181462</v>
       </c>
       <c r="F49" t="n">
-        <v>0.477905</v>
+        <v>0.481011</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.190205</v>
+        <v>0.188588</v>
       </c>
       <c r="C50" t="n">
-        <v>0.451824</v>
+        <v>0.487615</v>
       </c>
       <c r="D50" t="n">
-        <v>0.629838</v>
+        <v>0.632504</v>
       </c>
       <c r="E50" t="n">
-        <v>0.226054</v>
+        <v>0.179958</v>
       </c>
       <c r="F50" t="n">
-        <v>0.473542</v>
+        <v>0.448678</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.184926</v>
+        <v>0.182995</v>
       </c>
       <c r="C51" t="n">
-        <v>0.451025</v>
+        <v>0.442247</v>
       </c>
       <c r="D51" t="n">
-        <v>0.63486</v>
+        <v>0.624154</v>
       </c>
       <c r="E51" t="n">
-        <v>0.248308</v>
+        <v>0.235517</v>
       </c>
       <c r="F51" t="n">
-        <v>0.497258</v>
+        <v>0.490825</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176301</v>
+        <v>0.175337</v>
       </c>
       <c r="C52" t="n">
-        <v>0.447357</v>
+        <v>0.434181</v>
       </c>
       <c r="D52" t="n">
-        <v>0.612456</v>
+        <v>0.62603</v>
       </c>
       <c r="E52" t="n">
-        <v>0.242786</v>
+        <v>0.226938</v>
       </c>
       <c r="F52" t="n">
-        <v>0.503227</v>
+        <v>0.541812</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.236178</v>
+        <v>0.237356</v>
       </c>
       <c r="C53" t="n">
-        <v>0.505607</v>
+        <v>0.570709</v>
       </c>
       <c r="D53" t="n">
-        <v>0.615619</v>
+        <v>0.63413</v>
       </c>
       <c r="E53" t="n">
-        <v>0.241363</v>
+        <v>0.222968</v>
       </c>
       <c r="F53" t="n">
-        <v>0.498774</v>
+        <v>0.52174</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.232917</v>
+        <v>0.233565</v>
       </c>
       <c r="C54" t="n">
-        <v>0.510305</v>
+        <v>0.514917</v>
       </c>
       <c r="D54" t="n">
-        <v>0.614368</v>
+        <v>0.6125699999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>0.24048</v>
+        <v>0.21871</v>
       </c>
       <c r="F54" t="n">
-        <v>0.500407</v>
+        <v>0.489262</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.230253</v>
+        <v>0.229218</v>
       </c>
       <c r="C55" t="n">
-        <v>0.509364</v>
+        <v>0.51327</v>
       </c>
       <c r="D55" t="n">
-        <v>0.610923</v>
+        <v>0.624332</v>
       </c>
       <c r="E55" t="n">
-        <v>0.242031</v>
+        <v>0.21635</v>
       </c>
       <c r="F55" t="n">
-        <v>0.501968</v>
+        <v>0.48806</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.226455</v>
+        <v>0.225821</v>
       </c>
       <c r="C56" t="n">
-        <v>0.51114</v>
+        <v>0.505286</v>
       </c>
       <c r="D56" t="n">
-        <v>0.625769</v>
+        <v>0.61486</v>
       </c>
       <c r="E56" t="n">
-        <v>0.236699</v>
+        <v>0.210426</v>
       </c>
       <c r="F56" t="n">
-        <v>0.502417</v>
+        <v>0.489802</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.220763</v>
+        <v>0.221403</v>
       </c>
       <c r="C57" t="n">
-        <v>0.508063</v>
+        <v>0.515749</v>
       </c>
       <c r="D57" t="n">
-        <v>0.616893</v>
+        <v>0.614532</v>
       </c>
       <c r="E57" t="n">
-        <v>0.234679</v>
+        <v>0.206576</v>
       </c>
       <c r="F57" t="n">
-        <v>0.505284</v>
+        <v>0.487288</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.219688</v>
+        <v>0.219166</v>
       </c>
       <c r="C58" t="n">
-        <v>0.511683</v>
+        <v>0.50273</v>
       </c>
       <c r="D58" t="n">
-        <v>0.615662</v>
+        <v>0.608398</v>
       </c>
       <c r="E58" t="n">
-        <v>0.23229</v>
+        <v>0.200113</v>
       </c>
       <c r="F58" t="n">
-        <v>0.515467</v>
+        <v>0.496745</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.212186</v>
+        <v>0.213025</v>
       </c>
       <c r="C59" t="n">
-        <v>0.519802</v>
+        <v>0.508444</v>
       </c>
       <c r="D59" t="n">
-        <v>0.615344</v>
+        <v>0.613609</v>
       </c>
       <c r="E59" t="n">
-        <v>0.230728</v>
+        <v>0.197174</v>
       </c>
       <c r="F59" t="n">
-        <v>0.518903</v>
+        <v>0.496177</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.208527</v>
+        <v>0.214106</v>
       </c>
       <c r="C60" t="n">
-        <v>0.561097</v>
+        <v>0.509263</v>
       </c>
       <c r="D60" t="n">
-        <v>0.634233</v>
+        <v>0.610969</v>
       </c>
       <c r="E60" t="n">
-        <v>0.232625</v>
+        <v>0.192564</v>
       </c>
       <c r="F60" t="n">
-        <v>0.515711</v>
+        <v>0.491133</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.206192</v>
+        <v>0.207136</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5184299999999999</v>
+        <v>0.507237</v>
       </c>
       <c r="D61" t="n">
-        <v>0.611652</v>
+        <v>0.605331</v>
       </c>
       <c r="E61" t="n">
-        <v>0.22905</v>
+        <v>0.191411</v>
       </c>
       <c r="F61" t="n">
-        <v>0.519302</v>
+        <v>0.492812</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.20281</v>
+        <v>0.202461</v>
       </c>
       <c r="C62" t="n">
-        <v>0.519795</v>
+        <v>0.51349</v>
       </c>
       <c r="D62" t="n">
-        <v>0.636753</v>
+        <v>0.611523</v>
       </c>
       <c r="E62" t="n">
-        <v>0.230063</v>
+        <v>0.185625</v>
       </c>
       <c r="F62" t="n">
-        <v>0.541574</v>
+        <v>0.509921</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.197891</v>
+        <v>0.197662</v>
       </c>
       <c r="C63" t="n">
-        <v>0.550307</v>
+        <v>0.5387690000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6226</v>
+        <v>0.608598</v>
       </c>
       <c r="E63" t="n">
-        <v>0.226304</v>
+        <v>0.182421</v>
       </c>
       <c r="F63" t="n">
-        <v>0.565802</v>
+        <v>0.491566</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.194223</v>
+        <v>0.193536</v>
       </c>
       <c r="C64" t="n">
-        <v>0.552767</v>
+        <v>0.509126</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7098680000000001</v>
+        <v>0.716162</v>
       </c>
       <c r="E64" t="n">
-        <v>0.225114</v>
+        <v>0.179568</v>
       </c>
       <c r="F64" t="n">
-        <v>0.540831</v>
+        <v>0.499528</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.19021</v>
+        <v>0.188007</v>
       </c>
       <c r="C65" t="n">
-        <v>0.516854</v>
+        <v>0.52582</v>
       </c>
       <c r="D65" t="n">
-        <v>0.706962</v>
+        <v>0.706537</v>
       </c>
       <c r="E65" t="n">
-        <v>0.224861</v>
+        <v>0.175409</v>
       </c>
       <c r="F65" t="n">
-        <v>0.533084</v>
+        <v>0.499435</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.180424</v>
+        <v>0.181686</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5149629999999999</v>
+        <v>0.509974</v>
       </c>
       <c r="D66" t="n">
-        <v>0.705221</v>
+        <v>0.698857</v>
       </c>
       <c r="E66" t="n">
-        <v>0.249499</v>
+        <v>0.231681</v>
       </c>
       <c r="F66" t="n">
-        <v>0.567754</v>
+        <v>0.5615289999999999</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.243929</v>
+        <v>0.243771</v>
       </c>
       <c r="C67" t="n">
-        <v>0.60668</v>
+        <v>0.584589</v>
       </c>
       <c r="D67" t="n">
-        <v>0.736026</v>
+        <v>0.698369</v>
       </c>
       <c r="E67" t="n">
-        <v>0.25952</v>
+        <v>0.22899</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5845900000000001</v>
+        <v>0.565966</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.247202</v>
+        <v>0.240521</v>
       </c>
       <c r="C68" t="n">
-        <v>0.593688</v>
+        <v>0.5865629999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.697196</v>
+        <v>0.697145</v>
       </c>
       <c r="E68" t="n">
-        <v>0.244992</v>
+        <v>0.223547</v>
       </c>
       <c r="F68" t="n">
-        <v>0.5760110000000001</v>
+        <v>0.55159</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.237221</v>
+        <v>0.236701</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5988</v>
+        <v>0.582828</v>
       </c>
       <c r="D69" t="n">
-        <v>0.697295</v>
+        <v>0.685514</v>
       </c>
       <c r="E69" t="n">
-        <v>0.241647</v>
+        <v>0.21663</v>
       </c>
       <c r="F69" t="n">
-        <v>0.5796829999999999</v>
+        <v>0.553714</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.237206</v>
+        <v>0.235938</v>
       </c>
       <c r="C70" t="n">
-        <v>0.596579</v>
+        <v>0.586522</v>
       </c>
       <c r="D70" t="n">
-        <v>0.688254</v>
+        <v>0.688964</v>
       </c>
       <c r="E70" t="n">
-        <v>0.242283</v>
+        <v>0.21321</v>
       </c>
       <c r="F70" t="n">
-        <v>0.575886</v>
+        <v>0.547932</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.229881</v>
+        <v>0.233364</v>
       </c>
       <c r="C71" t="n">
-        <v>0.582307</v>
+        <v>0.592143</v>
       </c>
       <c r="D71" t="n">
-        <v>0.681801</v>
+        <v>0.686196</v>
       </c>
       <c r="E71" t="n">
-        <v>0.237585</v>
+        <v>0.207484</v>
       </c>
       <c r="F71" t="n">
-        <v>0.5654169999999999</v>
+        <v>0.544428</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.22657</v>
+        <v>0.226409</v>
       </c>
       <c r="C72" t="n">
-        <v>0.586223</v>
+        <v>0.571047</v>
       </c>
       <c r="D72" t="n">
-        <v>0.676746</v>
+        <v>0.673667</v>
       </c>
       <c r="E72" t="n">
-        <v>0.237348</v>
+        <v>0.203742</v>
       </c>
       <c r="F72" t="n">
-        <v>0.571043</v>
+        <v>0.543447</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219034</v>
+        <v>0.220853</v>
       </c>
       <c r="C73" t="n">
-        <v>0.585172</v>
+        <v>0.576098</v>
       </c>
       <c r="D73" t="n">
-        <v>0.685338</v>
+        <v>0.672382</v>
       </c>
       <c r="E73" t="n">
-        <v>0.235605</v>
+        <v>0.199478</v>
       </c>
       <c r="F73" t="n">
-        <v>0.5651929999999999</v>
+        <v>0.539601</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.218463</v>
+        <v>0.214396</v>
       </c>
       <c r="C74" t="n">
-        <v>0.573187</v>
+        <v>0.563205</v>
       </c>
       <c r="D74" t="n">
-        <v>0.671752</v>
+        <v>0.6723710000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>0.235379</v>
+        <v>0.19742</v>
       </c>
       <c r="F74" t="n">
-        <v>0.565111</v>
+        <v>0.540953</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.215246</v>
+        <v>0.210939</v>
       </c>
       <c r="C75" t="n">
-        <v>0.567797</v>
+        <v>0.561075</v>
       </c>
       <c r="D75" t="n">
-        <v>0.67988</v>
+        <v>0.672959</v>
       </c>
       <c r="E75" t="n">
-        <v>0.232484</v>
+        <v>0.193254</v>
       </c>
       <c r="F75" t="n">
-        <v>0.569844</v>
+        <v>0.536042</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.209634</v>
+        <v>0.207125</v>
       </c>
       <c r="C76" t="n">
-        <v>0.566651</v>
+        <v>0.559063</v>
       </c>
       <c r="D76" t="n">
-        <v>0.668633</v>
+        <v>0.667178</v>
       </c>
       <c r="E76" t="n">
-        <v>0.231027</v>
+        <v>0.190819</v>
       </c>
       <c r="F76" t="n">
-        <v>0.565844</v>
+        <v>0.5342440000000001</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.203043</v>
+        <v>0.207636</v>
       </c>
       <c r="C77" t="n">
-        <v>0.564113</v>
+        <v>0.555199</v>
       </c>
       <c r="D77" t="n">
-        <v>0.665477</v>
+        <v>0.660702</v>
       </c>
       <c r="E77" t="n">
-        <v>0.228757</v>
+        <v>0.186391</v>
       </c>
       <c r="F77" t="n">
-        <v>0.569343</v>
+        <v>0.534098</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.200932</v>
+        <v>0.204254</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5596139999999999</v>
+        <v>0.547643</v>
       </c>
       <c r="D78" t="n">
-        <v>0.750302</v>
+        <v>0.747676</v>
       </c>
       <c r="E78" t="n">
-        <v>0.229899</v>
+        <v>0.182471</v>
       </c>
       <c r="F78" t="n">
-        <v>0.558918</v>
+        <v>0.529289</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.192811</v>
+        <v>0.19523</v>
       </c>
       <c r="C79" t="n">
-        <v>0.556984</v>
+        <v>0.546565</v>
       </c>
       <c r="D79" t="n">
-        <v>0.755697</v>
+        <v>0.747777</v>
       </c>
       <c r="E79" t="n">
-        <v>0.226477</v>
+        <v>0.177952</v>
       </c>
       <c r="F79" t="n">
-        <v>0.559045</v>
+        <v>0.523937</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.186965</v>
+        <v>0.189666</v>
       </c>
       <c r="C80" t="n">
-        <v>0.541069</v>
+        <v>0.543699</v>
       </c>
       <c r="D80" t="n">
-        <v>0.748468</v>
+        <v>0.74374</v>
       </c>
       <c r="E80" t="n">
-        <v>0.253173</v>
+        <v>0.242272</v>
       </c>
       <c r="F80" t="n">
-        <v>0.581425</v>
+        <v>0.5786289999999999</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.253198</v>
+        <v>0.252086</v>
       </c>
       <c r="C81" t="n">
-        <v>0.605168</v>
+        <v>0.60663</v>
       </c>
       <c r="D81" t="n">
-        <v>0.739505</v>
+        <v>0.727203</v>
       </c>
       <c r="E81" t="n">
-        <v>0.251068</v>
+        <v>0.233367</v>
       </c>
       <c r="F81" t="n">
-        <v>0.5796750000000001</v>
+        <v>0.570427</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.251356</v>
+        <v>0.248579</v>
       </c>
       <c r="C82" t="n">
-        <v>0.610282</v>
+        <v>0.6066510000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.732973</v>
+        <v>0.727507</v>
       </c>
       <c r="E82" t="n">
-        <v>0.250497</v>
+        <v>0.229809</v>
       </c>
       <c r="F82" t="n">
-        <v>0.579296</v>
+        <v>0.569211</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.243681</v>
+        <v>0.244397</v>
       </c>
       <c r="C83" t="n">
-        <v>0.60031</v>
+        <v>0.603441</v>
       </c>
       <c r="D83" t="n">
-        <v>0.730416</v>
+        <v>0.723307</v>
       </c>
       <c r="E83" t="n">
-        <v>0.247501</v>
+        <v>0.223275</v>
       </c>
       <c r="F83" t="n">
-        <v>0.580867</v>
+        <v>0.561205</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.237739</v>
+        <v>0.237706</v>
       </c>
       <c r="C84" t="n">
-        <v>0.623648</v>
+        <v>0.638896</v>
       </c>
       <c r="D84" t="n">
-        <v>0.755423</v>
+        <v>0.749845</v>
       </c>
       <c r="E84" t="n">
-        <v>0.245733</v>
+        <v>0.219002</v>
       </c>
       <c r="F84" t="n">
-        <v>0.6050450000000001</v>
+        <v>0.594373</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.235623</v>
+        <v>0.233773</v>
       </c>
       <c r="C85" t="n">
-        <v>0.626004</v>
+        <v>0.632476</v>
       </c>
       <c r="D85" t="n">
-        <v>0.753649</v>
+        <v>0.747974</v>
       </c>
       <c r="E85" t="n">
-        <v>0.244769</v>
+        <v>0.215945</v>
       </c>
       <c r="F85" t="n">
-        <v>0.599638</v>
+        <v>0.601529</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.229193</v>
+        <v>0.233392</v>
       </c>
       <c r="C86" t="n">
-        <v>0.616887</v>
+        <v>0.621343</v>
       </c>
       <c r="D86" t="n">
-        <v>0.747676</v>
+        <v>0.739645</v>
       </c>
       <c r="E86" t="n">
-        <v>0.241041</v>
+        <v>0.213442</v>
       </c>
       <c r="F86" t="n">
-        <v>0.595853</v>
+        <v>0.5925589999999999</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.225504</v>
+        <v>0.226107</v>
       </c>
       <c r="C87" t="n">
-        <v>0.618201</v>
+        <v>0.62279</v>
       </c>
       <c r="D87" t="n">
-        <v>0.7346819999999999</v>
+        <v>0.740255</v>
       </c>
       <c r="E87" t="n">
-        <v>0.239051</v>
+        <v>0.207799</v>
       </c>
       <c r="F87" t="n">
-        <v>0.597356</v>
+        <v>0.588106</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.220624</v>
+        <v>0.221695</v>
       </c>
       <c r="C88" t="n">
-        <v>0.611054</v>
+        <v>0.605019</v>
       </c>
       <c r="D88" t="n">
-        <v>0.726339</v>
+        <v>0.732707</v>
       </c>
       <c r="E88" t="n">
-        <v>0.237441</v>
+        <v>0.201797</v>
       </c>
       <c r="F88" t="n">
-        <v>0.590076</v>
+        <v>0.578196</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.216257</v>
+        <v>0.215644</v>
       </c>
       <c r="C89" t="n">
-        <v>0.606171</v>
+        <v>0.587526</v>
       </c>
       <c r="D89" t="n">
-        <v>0.726371</v>
+        <v>0.729917</v>
       </c>
       <c r="E89" t="n">
-        <v>0.236502</v>
+        <v>0.197962</v>
       </c>
       <c r="F89" t="n">
-        <v>0.58931</v>
+        <v>0.576945</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.213278</v>
+        <v>0.211989</v>
       </c>
       <c r="C90" t="n">
-        <v>0.60401</v>
+        <v>0.579837</v>
       </c>
       <c r="D90" t="n">
-        <v>0.725015</v>
+        <v>0.718179</v>
       </c>
       <c r="E90" t="n">
-        <v>0.235357</v>
+        <v>0.196846</v>
       </c>
       <c r="F90" t="n">
-        <v>0.587148</v>
+        <v>0.585293</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.207722</v>
+        <v>0.207237</v>
       </c>
       <c r="C91" t="n">
-        <v>0.60133</v>
+        <v>0.576106</v>
       </c>
       <c r="D91" t="n">
-        <v>0.716772</v>
+        <v>0.714697</v>
       </c>
       <c r="E91" t="n">
-        <v>0.237898</v>
+        <v>0.192549</v>
       </c>
       <c r="F91" t="n">
-        <v>0.586246</v>
+        <v>0.568447</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.203195</v>
+        <v>0.203454</v>
       </c>
       <c r="C92" t="n">
-        <v>0.602743</v>
+        <v>0.576648</v>
       </c>
       <c r="D92" t="n">
-        <v>0.679016</v>
+        <v>0.664882</v>
       </c>
       <c r="E92" t="n">
-        <v>0.235376</v>
+        <v>0.189313</v>
       </c>
       <c r="F92" t="n">
-        <v>0.586198</v>
+        <v>0.567724</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.197942</v>
+        <v>0.198509</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5948329999999999</v>
+        <v>0.569491</v>
       </c>
       <c r="D93" t="n">
-        <v>0.673122</v>
+        <v>0.6722359999999999</v>
       </c>
       <c r="E93" t="n">
-        <v>0.229654</v>
+        <v>0.184084</v>
       </c>
       <c r="F93" t="n">
-        <v>0.595157</v>
+        <v>0.577339</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.189972</v>
+        <v>0.191713</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5904740000000001</v>
+        <v>0.560649</v>
       </c>
       <c r="D94" t="n">
-        <v>0.67264</v>
+        <v>0.667415</v>
       </c>
       <c r="E94" t="n">
-        <v>0.256097</v>
+        <v>0.242784</v>
       </c>
       <c r="F94" t="n">
-        <v>0.608402</v>
+        <v>0.6174500000000001</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.255116</v>
+        <v>0.255843</v>
       </c>
       <c r="C95" t="n">
-        <v>0.635875</v>
+        <v>0.628636</v>
       </c>
       <c r="D95" t="n">
-        <v>0.665049</v>
+        <v>0.660173</v>
       </c>
       <c r="E95" t="n">
-        <v>0.253137</v>
+        <v>0.239748</v>
       </c>
       <c r="F95" t="n">
-        <v>0.602836</v>
+        <v>0.614367</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.251195</v>
+        <v>0.251126</v>
       </c>
       <c r="C96" t="n">
-        <v>0.635278</v>
+        <v>0.624185</v>
       </c>
       <c r="D96" t="n">
-        <v>0.676522</v>
+        <v>0.668521</v>
       </c>
       <c r="E96" t="n">
-        <v>0.251124</v>
+        <v>0.232041</v>
       </c>
       <c r="F96" t="n">
-        <v>0.601179</v>
+        <v>0.60393</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.246008</v>
+        <v>0.249386</v>
       </c>
       <c r="C97" t="n">
-        <v>0.627453</v>
+        <v>0.6232799999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.671372</v>
+        <v>0.662385</v>
       </c>
       <c r="E97" t="n">
-        <v>0.248426</v>
+        <v>0.227472</v>
       </c>
       <c r="F97" t="n">
-        <v>0.599329</v>
+        <v>0.605365</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.240471</v>
+        <v>0.24114</v>
       </c>
       <c r="C98" t="n">
-        <v>0.622116</v>
+        <v>0.6134579999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>0.666358</v>
+        <v>0.659606</v>
       </c>
       <c r="E98" t="n">
-        <v>0.248065</v>
+        <v>0.222111</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5980259999999999</v>
+        <v>0.604874</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.237652</v>
+        <v>0.235437</v>
       </c>
       <c r="C99" t="n">
-        <v>0.61842</v>
+        <v>0.610726</v>
       </c>
       <c r="D99" t="n">
-        <v>0.665608</v>
+        <v>0.665407</v>
       </c>
       <c r="E99" t="n">
-        <v>0.24528</v>
+        <v>0.217223</v>
       </c>
       <c r="F99" t="n">
-        <v>0.597796</v>
+        <v>0.591616</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.23059</v>
+        <v>0.230928</v>
       </c>
       <c r="C100" t="n">
-        <v>0.615676</v>
+        <v>0.6100179999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.670731</v>
+        <v>0.658011</v>
       </c>
       <c r="E100" t="n">
-        <v>0.24604</v>
+        <v>0.212803</v>
       </c>
       <c r="F100" t="n">
-        <v>0.59191</v>
+        <v>0.593058</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.226234</v>
+        <v>0.228593</v>
       </c>
       <c r="C101" t="n">
-        <v>0.612492</v>
+        <v>0.600402</v>
       </c>
       <c r="D101" t="n">
-        <v>0.664169</v>
+        <v>0.666973</v>
       </c>
       <c r="E101" t="n">
-        <v>0.24458</v>
+        <v>0.208295</v>
       </c>
       <c r="F101" t="n">
-        <v>0.59327</v>
+        <v>0.585438</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.223193</v>
+        <v>0.222121</v>
       </c>
       <c r="C102" t="n">
-        <v>0.609789</v>
+        <v>0.5935009999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6624139999999999</v>
+        <v>0.6596070000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>0.240249</v>
+        <v>0.203594</v>
       </c>
       <c r="F102" t="n">
-        <v>0.591063</v>
+        <v>0.580606</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.219358</v>
+        <v>0.217596</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5948639999999999</v>
+        <v>0.594007</v>
       </c>
       <c r="D103" t="n">
-        <v>0.666404</v>
+        <v>0.662401</v>
       </c>
       <c r="E103" t="n">
-        <v>0.236795</v>
+        <v>0.199776</v>
       </c>
       <c r="F103" t="n">
-        <v>0.5923119999999999</v>
+        <v>0.57639</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.216081</v>
+        <v>0.216055</v>
       </c>
       <c r="C104" t="n">
-        <v>0.593811</v>
+        <v>0.585636</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6586689999999999</v>
+        <v>0.657593</v>
       </c>
       <c r="E104" t="n">
-        <v>0.235219</v>
+        <v>0.196485</v>
       </c>
       <c r="F104" t="n">
-        <v>0.592689</v>
+        <v>0.573592</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.209794</v>
+        <v>0.214677</v>
       </c>
       <c r="C105" t="n">
-        <v>0.592858</v>
+        <v>0.583444</v>
       </c>
       <c r="D105" t="n">
-        <v>0.662234</v>
+        <v>0.657817</v>
       </c>
       <c r="E105" t="n">
-        <v>0.233333</v>
+        <v>0.192407</v>
       </c>
       <c r="F105" t="n">
-        <v>0.588006</v>
+        <v>0.574569</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.204541</v>
+        <v>0.208302</v>
       </c>
       <c r="C106" t="n">
-        <v>0.589836</v>
+        <v>0.589118</v>
       </c>
       <c r="D106" t="n">
-        <v>0.65883</v>
+        <v>0.661973</v>
       </c>
       <c r="E106" t="n">
-        <v>0.233378</v>
+        <v>0.187454</v>
       </c>
       <c r="F106" t="n">
-        <v>0.589249</v>
+        <v>0.576647</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.200958</v>
+        <v>0.199813</v>
       </c>
       <c r="C107" t="n">
-        <v>0.583777</v>
+        <v>0.589825</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6702</v>
+        <v>0.661523</v>
       </c>
       <c r="E107" t="n">
-        <v>0.230259</v>
+        <v>0.18406</v>
       </c>
       <c r="F107" t="n">
-        <v>0.592038</v>
+        <v>0.568148</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.193834</v>
+        <v>0.192423</v>
       </c>
       <c r="C108" t="n">
-        <v>0.585853</v>
+        <v>0.592647</v>
       </c>
       <c r="D108" t="n">
-        <v>0.666612</v>
+        <v>0.660538</v>
       </c>
       <c r="E108" t="n">
-        <v>0.2629</v>
+        <v>0.244395</v>
       </c>
       <c r="F108" t="n">
-        <v>0.607625</v>
+        <v>0.616496</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.183578</v>
+        <v>0.188419</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5891459999999999</v>
+        <v>0.580395</v>
       </c>
       <c r="D109" t="n">
-        <v>0.67025</v>
+        <v>0.660901</v>
       </c>
       <c r="E109" t="n">
-        <v>0.259681</v>
+        <v>0.238616</v>
       </c>
       <c r="F109" t="n">
-        <v>0.610575</v>
+        <v>0.613286</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.250913</v>
+        <v>0.252634</v>
       </c>
       <c r="C110" t="n">
-        <v>0.635006</v>
+        <v>0.629116</v>
       </c>
       <c r="D110" t="n">
-        <v>0.663803</v>
+        <v>0.66738</v>
       </c>
       <c r="E110" t="n">
-        <v>0.258765</v>
+        <v>0.239752</v>
       </c>
       <c r="F110" t="n">
-        <v>0.608468</v>
+        <v>0.608419</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.251469</v>
+        <v>0.246518</v>
       </c>
       <c r="C111" t="n">
-        <v>0.646246</v>
+        <v>0.621763</v>
       </c>
       <c r="D111" t="n">
-        <v>0.681006</v>
+        <v>0.663188</v>
       </c>
       <c r="E111" t="n">
-        <v>0.253087</v>
+        <v>0.230039</v>
       </c>
       <c r="F111" t="n">
-        <v>0.617774</v>
+        <v>0.606182</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.245208</v>
+        <v>0.241823</v>
       </c>
       <c r="C112" t="n">
-        <v>0.631621</v>
+        <v>0.612721</v>
       </c>
       <c r="D112" t="n">
-        <v>0.665663</v>
+        <v>0.663972</v>
       </c>
       <c r="E112" t="n">
-        <v>0.247131</v>
+        <v>0.223281</v>
       </c>
       <c r="F112" t="n">
-        <v>0.613076</v>
+        <v>0.607583</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.239354</v>
+        <v>0.241426</v>
       </c>
       <c r="C113" t="n">
-        <v>0.614893</v>
+        <v>0.618886</v>
       </c>
       <c r="D113" t="n">
-        <v>0.676643</v>
+        <v>0.676493</v>
       </c>
       <c r="E113" t="n">
-        <v>0.246517</v>
+        <v>0.223974</v>
       </c>
       <c r="F113" t="n">
-        <v>0.609606</v>
+        <v>0.605426</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.234243</v>
+        <v>0.233779</v>
       </c>
       <c r="C114" t="n">
-        <v>0.623648</v>
+        <v>0.603646</v>
       </c>
       <c r="D114" t="n">
-        <v>0.671471</v>
+        <v>0.6627960000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>0.244732</v>
+        <v>0.213868</v>
       </c>
       <c r="F114" t="n">
-        <v>0.598397</v>
+        <v>0.588095</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.229543</v>
+        <v>0.22752</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6231</v>
+        <v>0.609472</v>
       </c>
       <c r="D115" t="n">
-        <v>0.662405</v>
+        <v>0.65502</v>
       </c>
       <c r="E115" t="n">
-        <v>0.247949</v>
+        <v>0.209354</v>
       </c>
       <c r="F115" t="n">
-        <v>0.600041</v>
+        <v>0.585156</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.226759</v>
+        <v>0.223021</v>
       </c>
       <c r="C116" t="n">
-        <v>0.614625</v>
+        <v>0.608636</v>
       </c>
       <c r="D116" t="n">
-        <v>0.672484</v>
+        <v>0.655698</v>
       </c>
       <c r="E116" t="n">
-        <v>0.242961</v>
+        <v>0.203989</v>
       </c>
       <c r="F116" t="n">
-        <v>0.596979</v>
+        <v>0.587414</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.219837</v>
+        <v>0.218751</v>
       </c>
       <c r="C117" t="n">
-        <v>0.62323</v>
+        <v>0.596247</v>
       </c>
       <c r="D117" t="n">
-        <v>0.661431</v>
+        <v>0.652709</v>
       </c>
       <c r="E117" t="n">
-        <v>0.237469</v>
+        <v>0.201425</v>
       </c>
       <c r="F117" t="n">
-        <v>0.606253</v>
+        <v>0.5818</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.216349</v>
+        <v>0.21375</v>
       </c>
       <c r="C118" t="n">
-        <v>0.60816</v>
+        <v>0.586469</v>
       </c>
       <c r="D118" t="n">
-        <v>0.670975</v>
+        <v>0.660556</v>
       </c>
       <c r="E118" t="n">
-        <v>0.237947</v>
+        <v>0.197339</v>
       </c>
       <c r="F118" t="n">
-        <v>0.607585</v>
+        <v>0.582406</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.21118</v>
+        <v>0.210936</v>
       </c>
       <c r="C119" t="n">
-        <v>0.594425</v>
+        <v>0.588816</v>
       </c>
       <c r="D119" t="n">
-        <v>0.671166</v>
+        <v>0.663988</v>
       </c>
       <c r="E119" t="n">
-        <v>0.234146</v>
+        <v>0.192768</v>
       </c>
       <c r="F119" t="n">
-        <v>0.603982</v>
+        <v>0.571203</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.211561</v>
+        <v>0.20592</v>
       </c>
       <c r="C120" t="n">
-        <v>0.593414</v>
+        <v>0.579905</v>
       </c>
       <c r="D120" t="n">
-        <v>0.665621</v>
+        <v>0.653825</v>
       </c>
       <c r="E120" t="n">
-        <v>0.23822</v>
+        <v>0.189081</v>
       </c>
       <c r="F120" t="n">
-        <v>0.598141</v>
+        <v>0.572152</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.201878</v>
+        <v>0.20446</v>
       </c>
       <c r="C121" t="n">
-        <v>0.604974</v>
+        <v>0.592101</v>
       </c>
       <c r="D121" t="n">
-        <v>0.679755</v>
+        <v>0.676433</v>
       </c>
       <c r="E121" t="n">
-        <v>0.233401</v>
+        <v>0.185259</v>
       </c>
       <c r="F121" t="n">
-        <v>0.598146</v>
+        <v>0.565347</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.194578</v>
+        <v>0.193844</v>
       </c>
       <c r="C122" t="n">
-        <v>0.598169</v>
+        <v>0.570248</v>
       </c>
       <c r="D122" t="n">
-        <v>0.68448</v>
+        <v>0.6780310000000001</v>
       </c>
       <c r="E122" t="n">
-        <v>0.233492</v>
+        <v>0.181158</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5886400000000001</v>
+        <v>0.564922</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.185528</v>
+        <v>0.188212</v>
       </c>
       <c r="C123" t="n">
-        <v>0.570898</v>
+        <v>0.5669</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6949340000000001</v>
+        <v>0.681809</v>
       </c>
       <c r="E123" t="n">
-        <v>0.259362</v>
+        <v>0.240333</v>
       </c>
       <c r="F123" t="n">
-        <v>0.61337</v>
+        <v>0.618409</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.254648</v>
+        <v>0.25316</v>
       </c>
       <c r="C124" t="n">
-        <v>0.636141</v>
+        <v>0.636585</v>
       </c>
       <c r="D124" t="n">
-        <v>0.680358</v>
+        <v>0.669413</v>
       </c>
       <c r="E124" t="n">
-        <v>0.258882</v>
+        <v>0.234973</v>
       </c>
       <c r="F124" t="n">
-        <v>0.610684</v>
+        <v>0.610498</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.251839</v>
+        <v>0.247882</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6226660000000001</v>
+        <v>0.637738</v>
       </c>
       <c r="D125" t="n">
-        <v>0.680704</v>
+        <v>0.665968</v>
       </c>
       <c r="E125" t="n">
-        <v>0.255546</v>
+        <v>0.231052</v>
       </c>
       <c r="F125" t="n">
-        <v>0.605113</v>
+        <v>0.61396</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.242387</v>
+        <v>0.243137</v>
       </c>
       <c r="C126" t="n">
-        <v>0.634567</v>
+        <v>0.610012</v>
       </c>
       <c r="D126" t="n">
-        <v>0.680735</v>
+        <v>0.668647</v>
       </c>
       <c r="E126" t="n">
-        <v>0.251577</v>
+        <v>0.227577</v>
       </c>
       <c r="F126" t="n">
-        <v>0.600765</v>
+        <v>0.599874</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.242849</v>
+        <v>0.238293</v>
       </c>
       <c r="C127" t="n">
-        <v>0.618081</v>
+        <v>0.611669</v>
       </c>
       <c r="D127" t="n">
-        <v>0.691886</v>
+        <v>0.670393</v>
       </c>
       <c r="E127" t="n">
-        <v>0.246577</v>
+        <v>0.219847</v>
       </c>
       <c r="F127" t="n">
-        <v>0.622382</v>
+        <v>0.601081</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.233936</v>
+        <v>0.232688</v>
       </c>
       <c r="C128" t="n">
-        <v>0.614682</v>
+        <v>0.605876</v>
       </c>
       <c r="D128" t="n">
-        <v>0.670955</v>
+        <v>0.668569</v>
       </c>
       <c r="E128" t="n">
-        <v>0.24417</v>
+        <v>0.214175</v>
       </c>
       <c r="F128" t="n">
-        <v>0.6135699999999999</v>
+        <v>0.593701</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.229353</v>
+        <v>0.229665</v>
       </c>
       <c r="C129" t="n">
-        <v>0.606521</v>
+        <v>0.603162</v>
       </c>
       <c r="D129" t="n">
-        <v>0.69126</v>
+        <v>0.661062</v>
       </c>
       <c r="E129" t="n">
-        <v>0.243368</v>
+        <v>0.211364</v>
       </c>
       <c r="F129" t="n">
-        <v>0.598317</v>
+        <v>0.585762</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.22889</v>
+        <v>0.222866</v>
       </c>
       <c r="C130" t="n">
-        <v>0.600898</v>
+        <v>0.593209</v>
       </c>
       <c r="D130" t="n">
-        <v>0.676358</v>
+        <v>0.65967</v>
       </c>
       <c r="E130" t="n">
-        <v>0.240256</v>
+        <v>0.206623</v>
       </c>
       <c r="F130" t="n">
-        <v>0.615058</v>
+        <v>0.587076</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.222344</v>
+        <v>0.219193</v>
       </c>
       <c r="C131" t="n">
-        <v>0.599149</v>
+        <v>0.589014</v>
       </c>
       <c r="D131" t="n">
-        <v>0.673817</v>
+        <v>0.661057</v>
       </c>
       <c r="E131" t="n">
-        <v>0.239699</v>
+        <v>0.203354</v>
       </c>
       <c r="F131" t="n">
-        <v>0.604209</v>
+        <v>0.580716</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.216092</v>
+        <v>0.21535</v>
       </c>
       <c r="C132" t="n">
-        <v>0.608037</v>
+        <v>0.596388</v>
       </c>
       <c r="D132" t="n">
-        <v>0.674291</v>
+        <v>0.664204</v>
       </c>
       <c r="E132" t="n">
-        <v>0.240083</v>
+        <v>0.197648</v>
       </c>
       <c r="F132" t="n">
-        <v>0.620332</v>
+        <v>0.575612</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.211815</v>
+        <v>0.21123</v>
       </c>
       <c r="C133" t="n">
-        <v>0.602393</v>
+        <v>0.605164</v>
       </c>
       <c r="D133" t="n">
-        <v>0.676982</v>
+        <v>0.660431</v>
       </c>
       <c r="E133" t="n">
-        <v>0.23656</v>
+        <v>0.193292</v>
       </c>
       <c r="F133" t="n">
-        <v>0.59063</v>
+        <v>0.572966</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.208618</v>
+        <v>0.208606</v>
       </c>
       <c r="C134" t="n">
-        <v>0.595857</v>
+        <v>0.580193</v>
       </c>
       <c r="D134" t="n">
-        <v>0.670806</v>
+        <v>0.659682</v>
       </c>
       <c r="E134" t="n">
-        <v>0.23341</v>
+        <v>0.189835</v>
       </c>
       <c r="F134" t="n">
-        <v>0.600784</v>
+        <v>0.569958</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.203184</v>
+        <v>0.202873</v>
       </c>
       <c r="C135" t="n">
-        <v>0.594724</v>
+        <v>0.574734</v>
       </c>
       <c r="D135" t="n">
-        <v>0.692034</v>
+        <v>0.67356</v>
       </c>
       <c r="E135" t="n">
-        <v>0.235273</v>
+        <v>0.188449</v>
       </c>
       <c r="F135" t="n">
-        <v>0.598038</v>
+        <v>0.5703279999999999</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.197081</v>
+        <v>0.195277</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5939410000000001</v>
+        <v>0.569002</v>
       </c>
       <c r="D136" t="n">
-        <v>0.678355</v>
+        <v>0.672355</v>
       </c>
       <c r="E136" t="n">
-        <v>0.230172</v>
+        <v>0.183122</v>
       </c>
       <c r="F136" t="n">
-        <v>0.592202</v>
+        <v>0.565508</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.189143</v>
+        <v>0.188764</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5879259999999999</v>
+        <v>0.5664130000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>0.675551</v>
+        <v>0.670363</v>
       </c>
       <c r="E137" t="n">
-        <v>0.256278</v>
+        <v>0.242976</v>
       </c>
       <c r="F137" t="n">
-        <v>0.609789</v>
+        <v>0.614609</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.254161</v>
+        <v>0.251539</v>
       </c>
       <c r="C138" t="n">
-        <v>0.6491479999999999</v>
+        <v>0.631621</v>
       </c>
       <c r="D138" t="n">
-        <v>0.684105</v>
+        <v>0.671612</v>
       </c>
       <c r="E138" t="n">
-        <v>0.257477</v>
+        <v>0.235682</v>
       </c>
       <c r="F138" t="n">
-        <v>0.6062689999999999</v>
+        <v>0.609993</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.249572</v>
+        <v>0.249647</v>
       </c>
       <c r="C139" t="n">
-        <v>0.631453</v>
+        <v>0.617105</v>
       </c>
       <c r="D139" t="n">
-        <v>0.682023</v>
+        <v>0.67125</v>
       </c>
       <c r="E139" t="n">
-        <v>0.257066</v>
+        <v>0.229975</v>
       </c>
       <c r="F139" t="n">
-        <v>0.6126239999999999</v>
+        <v>0.6049600000000001</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.248399</v>
+        <v>0.243207</v>
       </c>
       <c r="C140" t="n">
-        <v>0.628578</v>
+        <v>0.606993</v>
       </c>
       <c r="D140" t="n">
-        <v>0.677464</v>
+        <v>0.666923</v>
       </c>
       <c r="E140" t="n">
-        <v>0.251196</v>
+        <v>0.227173</v>
       </c>
       <c r="F140" t="n">
-        <v>0.605647</v>
+        <v>0.6020450000000001</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.241361</v>
+        <v>0.239533</v>
       </c>
       <c r="C141" t="n">
-        <v>0.623031</v>
+        <v>0.609936</v>
       </c>
       <c r="D141" t="n">
-        <v>0.677887</v>
+        <v>0.669842</v>
       </c>
       <c r="E141" t="n">
-        <v>0.247795</v>
+        <v>0.219839</v>
       </c>
       <c r="F141" t="n">
-        <v>0.6047</v>
+        <v>0.595711</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.233741</v>
+        <v>0.233597</v>
       </c>
       <c r="C142" t="n">
-        <v>0.608831</v>
+        <v>0.604139</v>
       </c>
       <c r="D142" t="n">
-        <v>0.679017</v>
+        <v>0.665106</v>
       </c>
       <c r="E142" t="n">
-        <v>0.245374</v>
+        <v>0.216008</v>
       </c>
       <c r="F142" t="n">
-        <v>0.597706</v>
+        <v>0.597723</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.232486</v>
+        <v>0.229193</v>
       </c>
       <c r="C143" t="n">
-        <v>0.605788</v>
+        <v>0.600695</v>
       </c>
       <c r="D143" t="n">
-        <v>0.671859</v>
+        <v>0.667069</v>
       </c>
       <c r="E143" t="n">
-        <v>0.242714</v>
+        <v>0.209973</v>
       </c>
       <c r="F143" t="n">
-        <v>0.605311</v>
+        <v>0.590248</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.192822</v>
+        <v>0.192756</v>
       </c>
       <c r="C2" t="n">
-        <v>0.446532</v>
+        <v>0.442052</v>
       </c>
       <c r="D2" t="n">
-        <v>0.505694</v>
+        <v>0.507935</v>
       </c>
       <c r="E2" t="n">
-        <v>0.185227</v>
+        <v>0.18122</v>
       </c>
       <c r="F2" t="n">
-        <v>0.450969</v>
+        <v>0.439729</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.194474</v>
+        <v>0.191408</v>
       </c>
       <c r="C3" t="n">
-        <v>0.451437</v>
+        <v>0.43759</v>
       </c>
       <c r="D3" t="n">
-        <v>0.51214</v>
+        <v>0.5003880000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.177072</v>
+        <v>0.17189</v>
       </c>
       <c r="F3" t="n">
-        <v>0.449078</v>
+        <v>0.435953</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.193087</v>
+        <v>0.187427</v>
       </c>
       <c r="C4" t="n">
-        <v>0.450856</v>
+        <v>0.440938</v>
       </c>
       <c r="D4" t="n">
-        <v>0.506367</v>
+        <v>0.509999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.173927</v>
+        <v>0.169596</v>
       </c>
       <c r="F4" t="n">
-        <v>0.44418</v>
+        <v>0.434465</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.190943</v>
+        <v>0.18537</v>
       </c>
       <c r="C5" t="n">
-        <v>0.443597</v>
+        <v>0.436821</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5172949999999999</v>
+        <v>0.500676</v>
       </c>
       <c r="E5" t="n">
-        <v>0.169392</v>
+        <v>0.166155</v>
       </c>
       <c r="F5" t="n">
-        <v>0.460797</v>
+        <v>0.434977</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.183007</v>
+        <v>0.183549</v>
       </c>
       <c r="C6" t="n">
-        <v>0.430578</v>
+        <v>0.435068</v>
       </c>
       <c r="D6" t="n">
-        <v>0.496013</v>
+        <v>0.501012</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1633</v>
+        <v>0.166041</v>
       </c>
       <c r="F6" t="n">
-        <v>0.422436</v>
+        <v>0.429834</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.178427</v>
+        <v>0.18026</v>
       </c>
       <c r="C7" t="n">
-        <v>0.427337</v>
+        <v>0.424761</v>
       </c>
       <c r="D7" t="n">
-        <v>0.501217</v>
+        <v>0.505416</v>
       </c>
       <c r="E7" t="n">
-        <v>0.162426</v>
+        <v>0.161262</v>
       </c>
       <c r="F7" t="n">
-        <v>0.422445</v>
+        <v>0.421421</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.17345</v>
+        <v>0.175101</v>
       </c>
       <c r="C8" t="n">
-        <v>0.419784</v>
+        <v>0.425385</v>
       </c>
       <c r="D8" t="n">
-        <v>0.504444</v>
+        <v>0.517926</v>
       </c>
       <c r="E8" t="n">
-        <v>0.158892</v>
+        <v>0.169322</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4185</v>
+        <v>0.42069</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.168422</v>
+        <v>0.169724</v>
       </c>
       <c r="C9" t="n">
-        <v>0.411238</v>
+        <v>0.416622</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5011139999999999</v>
+        <v>0.514619</v>
       </c>
       <c r="E9" t="n">
-        <v>0.207886</v>
+        <v>0.208785</v>
       </c>
       <c r="F9" t="n">
-        <v>0.463069</v>
+        <v>0.461397</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.215702</v>
+        <v>0.217102</v>
       </c>
       <c r="C10" t="n">
-        <v>0.46207</v>
+        <v>0.466454</v>
       </c>
       <c r="D10" t="n">
-        <v>0.512304</v>
+        <v>0.515604</v>
       </c>
       <c r="E10" t="n">
-        <v>0.202857</v>
+        <v>0.203367</v>
       </c>
       <c r="F10" t="n">
-        <v>0.455415</v>
+        <v>0.456069</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.213006</v>
+        <v>0.214435</v>
       </c>
       <c r="C11" t="n">
-        <v>0.461</v>
+        <v>0.46485</v>
       </c>
       <c r="D11" t="n">
-        <v>0.499462</v>
+        <v>0.507551</v>
       </c>
       <c r="E11" t="n">
-        <v>0.199967</v>
+        <v>0.200929</v>
       </c>
       <c r="F11" t="n">
-        <v>0.452188</v>
+        <v>0.453945</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.209885</v>
+        <v>0.210799</v>
       </c>
       <c r="C12" t="n">
-        <v>0.453691</v>
+        <v>0.455286</v>
       </c>
       <c r="D12" t="n">
-        <v>0.49841</v>
+        <v>0.511399</v>
       </c>
       <c r="E12" t="n">
-        <v>0.194341</v>
+        <v>0.195881</v>
       </c>
       <c r="F12" t="n">
-        <v>0.446111</v>
+        <v>0.450496</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.207557</v>
+        <v>0.208707</v>
       </c>
       <c r="C13" t="n">
-        <v>0.45284</v>
+        <v>0.456084</v>
       </c>
       <c r="D13" t="n">
-        <v>0.503209</v>
+        <v>0.506592</v>
       </c>
       <c r="E13" t="n">
-        <v>0.194273</v>
+        <v>0.192795</v>
       </c>
       <c r="F13" t="n">
-        <v>0.451118</v>
+        <v>0.447332</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.206238</v>
+        <v>0.205</v>
       </c>
       <c r="C14" t="n">
-        <v>0.451652</v>
+        <v>0.462189</v>
       </c>
       <c r="D14" t="n">
-        <v>0.498884</v>
+        <v>0.511929</v>
       </c>
       <c r="E14" t="n">
-        <v>0.18735</v>
+        <v>0.1887</v>
       </c>
       <c r="F14" t="n">
-        <v>0.442884</v>
+        <v>0.444539</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.200242</v>
+        <v>0.202546</v>
       </c>
       <c r="C15" t="n">
-        <v>0.445993</v>
+        <v>0.446834</v>
       </c>
       <c r="D15" t="n">
-        <v>0.496088</v>
+        <v>0.503207</v>
       </c>
       <c r="E15" t="n">
-        <v>0.185044</v>
+        <v>0.184835</v>
       </c>
       <c r="F15" t="n">
-        <v>0.439665</v>
+        <v>0.441973</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.200965</v>
+        <v>0.198176</v>
       </c>
       <c r="C16" t="n">
-        <v>0.442078</v>
+        <v>0.443934</v>
       </c>
       <c r="D16" t="n">
-        <v>0.494245</v>
+        <v>0.501812</v>
       </c>
       <c r="E16" t="n">
-        <v>0.180448</v>
+        <v>0.181013</v>
       </c>
       <c r="F16" t="n">
-        <v>0.437588</v>
+        <v>0.438128</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.196078</v>
+        <v>0.197166</v>
       </c>
       <c r="C17" t="n">
-        <v>0.441851</v>
+        <v>0.440511</v>
       </c>
       <c r="D17" t="n">
-        <v>0.496818</v>
+        <v>0.500945</v>
       </c>
       <c r="E17" t="n">
-        <v>0.178153</v>
+        <v>0.177641</v>
       </c>
       <c r="F17" t="n">
-        <v>0.433927</v>
+        <v>0.434618</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.193374</v>
+        <v>0.193456</v>
       </c>
       <c r="C18" t="n">
-        <v>0.43988</v>
+        <v>0.438642</v>
       </c>
       <c r="D18" t="n">
-        <v>0.494331</v>
+        <v>0.509717</v>
       </c>
       <c r="E18" t="n">
-        <v>0.175413</v>
+        <v>0.1772</v>
       </c>
       <c r="F18" t="n">
-        <v>0.431558</v>
+        <v>0.436967</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.191174</v>
+        <v>0.192557</v>
       </c>
       <c r="C19" t="n">
-        <v>0.440552</v>
+        <v>0.438651</v>
       </c>
       <c r="D19" t="n">
-        <v>0.496077</v>
+        <v>0.504653</v>
       </c>
       <c r="E19" t="n">
-        <v>0.172664</v>
+        <v>0.173926</v>
       </c>
       <c r="F19" t="n">
-        <v>0.430529</v>
+        <v>0.432642</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.187906</v>
+        <v>0.18793</v>
       </c>
       <c r="C20" t="n">
-        <v>0.429366</v>
+        <v>0.432133</v>
       </c>
       <c r="D20" t="n">
-        <v>0.494359</v>
+        <v>0.505441</v>
       </c>
       <c r="E20" t="n">
-        <v>0.169593</v>
+        <v>0.170542</v>
       </c>
       <c r="F20" t="n">
-        <v>0.426305</v>
+        <v>0.429451</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.184147</v>
+        <v>0.185284</v>
       </c>
       <c r="C21" t="n">
-        <v>0.426988</v>
+        <v>0.428736</v>
       </c>
       <c r="D21" t="n">
-        <v>0.513213</v>
+        <v>0.511777</v>
       </c>
       <c r="E21" t="n">
-        <v>0.167951</v>
+        <v>0.166547</v>
       </c>
       <c r="F21" t="n">
-        <v>0.428985</v>
+        <v>0.424272</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.179157</v>
+        <v>0.178895</v>
       </c>
       <c r="C22" t="n">
-        <v>0.422806</v>
+        <v>0.422677</v>
       </c>
       <c r="D22" t="n">
-        <v>0.509325</v>
+        <v>0.5124919999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.164203</v>
+        <v>0.16451</v>
       </c>
       <c r="F22" t="n">
-        <v>0.420847</v>
+        <v>0.422032</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.17305</v>
+        <v>0.173062</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4221</v>
+        <v>0.415513</v>
       </c>
       <c r="D23" t="n">
-        <v>0.519127</v>
+        <v>0.509931</v>
       </c>
       <c r="E23" t="n">
-        <v>0.215258</v>
+        <v>0.214199</v>
       </c>
       <c r="F23" t="n">
-        <v>0.464886</v>
+        <v>0.467265</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.227684</v>
+        <v>0.228157</v>
       </c>
       <c r="C24" t="n">
-        <v>0.467913</v>
+        <v>0.469132</v>
       </c>
       <c r="D24" t="n">
-        <v>0.507959</v>
+        <v>0.513861</v>
       </c>
       <c r="E24" t="n">
-        <v>0.211082</v>
+        <v>0.210323</v>
       </c>
       <c r="F24" t="n">
-        <v>0.461486</v>
+        <v>0.461619</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.225406</v>
+        <v>0.224434</v>
       </c>
       <c r="C25" t="n">
-        <v>0.466112</v>
+        <v>0.465311</v>
       </c>
       <c r="D25" t="n">
-        <v>0.505785</v>
+        <v>0.513832</v>
       </c>
       <c r="E25" t="n">
-        <v>0.206613</v>
+        <v>0.206083</v>
       </c>
       <c r="F25" t="n">
-        <v>0.456191</v>
+        <v>0.45904</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.223725</v>
+        <v>0.221078</v>
       </c>
       <c r="C26" t="n">
-        <v>0.465692</v>
+        <v>0.463724</v>
       </c>
       <c r="D26" t="n">
-        <v>0.503921</v>
+        <v>0.512883</v>
       </c>
       <c r="E26" t="n">
-        <v>0.205549</v>
+        <v>0.202367</v>
       </c>
       <c r="F26" t="n">
-        <v>0.459408</v>
+        <v>0.457095</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.217368</v>
+        <v>0.217661</v>
       </c>
       <c r="C27" t="n">
-        <v>0.457577</v>
+        <v>0.464697</v>
       </c>
       <c r="D27" t="n">
-        <v>0.507012</v>
+        <v>0.511595</v>
       </c>
       <c r="E27" t="n">
-        <v>0.199551</v>
+        <v>0.199734</v>
       </c>
       <c r="F27" t="n">
-        <v>0.452107</v>
+        <v>0.450897</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.213442</v>
+        <v>0.213822</v>
       </c>
       <c r="C28" t="n">
-        <v>0.46296</v>
+        <v>0.455139</v>
       </c>
       <c r="D28" t="n">
-        <v>0.508754</v>
+        <v>0.516041</v>
       </c>
       <c r="E28" t="n">
-        <v>0.194981</v>
+        <v>0.196097</v>
       </c>
       <c r="F28" t="n">
-        <v>0.447037</v>
+        <v>0.449545</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.21003</v>
+        <v>0.211358</v>
       </c>
       <c r="C29" t="n">
-        <v>0.450484</v>
+        <v>0.452779</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5029709999999999</v>
+        <v>0.509305</v>
       </c>
       <c r="E29" t="n">
-        <v>0.192316</v>
+        <v>0.191439</v>
       </c>
       <c r="F29" t="n">
-        <v>0.454023</v>
+        <v>0.446109</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.206687</v>
+        <v>0.205797</v>
       </c>
       <c r="C30" t="n">
-        <v>0.448206</v>
+        <v>0.448059</v>
       </c>
       <c r="D30" t="n">
-        <v>0.501802</v>
+        <v>0.510563</v>
       </c>
       <c r="E30" t="n">
-        <v>0.188921</v>
+        <v>0.189618</v>
       </c>
       <c r="F30" t="n">
-        <v>0.441481</v>
+        <v>0.44435</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.202942</v>
+        <v>0.203686</v>
       </c>
       <c r="C31" t="n">
-        <v>0.44403</v>
+        <v>0.446209</v>
       </c>
       <c r="D31" t="n">
-        <v>0.501187</v>
+        <v>0.509623</v>
       </c>
       <c r="E31" t="n">
-        <v>0.185918</v>
+        <v>0.184484</v>
       </c>
       <c r="F31" t="n">
-        <v>0.44292</v>
+        <v>0.441289</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.202035</v>
+        <v>0.199419</v>
       </c>
       <c r="C32" t="n">
-        <v>0.44174</v>
+        <v>0.443025</v>
       </c>
       <c r="D32" t="n">
-        <v>0.502664</v>
+        <v>0.509644</v>
       </c>
       <c r="E32" t="n">
-        <v>0.182347</v>
+        <v>0.181371</v>
       </c>
       <c r="F32" t="n">
-        <v>0.439127</v>
+        <v>0.437399</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.19762</v>
+        <v>0.196856</v>
       </c>
       <c r="C33" t="n">
-        <v>0.440042</v>
+        <v>0.436376</v>
       </c>
       <c r="D33" t="n">
-        <v>0.503484</v>
+        <v>0.504958</v>
       </c>
       <c r="E33" t="n">
-        <v>0.179405</v>
+        <v>0.18053</v>
       </c>
       <c r="F33" t="n">
-        <v>0.432541</v>
+        <v>0.435668</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.193437</v>
+        <v>0.193597</v>
       </c>
       <c r="C34" t="n">
-        <v>0.432417</v>
+        <v>0.436901</v>
       </c>
       <c r="D34" t="n">
-        <v>0.504293</v>
+        <v>0.507865</v>
       </c>
       <c r="E34" t="n">
-        <v>0.175587</v>
+        <v>0.175512</v>
       </c>
       <c r="F34" t="n">
-        <v>0.430599</v>
+        <v>0.434106</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.190239</v>
+        <v>0.189496</v>
       </c>
       <c r="C35" t="n">
-        <v>0.434282</v>
+        <v>0.435687</v>
       </c>
       <c r="D35" t="n">
-        <v>0.516227</v>
+        <v>0.543615</v>
       </c>
       <c r="E35" t="n">
-        <v>0.172686</v>
+        <v>0.173181</v>
       </c>
       <c r="F35" t="n">
-        <v>0.429259</v>
+        <v>0.432902</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.18464</v>
+        <v>0.18447</v>
       </c>
       <c r="C36" t="n">
-        <v>0.427262</v>
+        <v>0.431572</v>
       </c>
       <c r="D36" t="n">
-        <v>0.528388</v>
+        <v>0.529008</v>
       </c>
       <c r="E36" t="n">
-        <v>0.173117</v>
+        <v>0.168817</v>
       </c>
       <c r="F36" t="n">
-        <v>0.428698</v>
+        <v>0.431607</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.179031</v>
+        <v>0.178438</v>
       </c>
       <c r="C37" t="n">
-        <v>0.419196</v>
+        <v>0.429157</v>
       </c>
       <c r="D37" t="n">
-        <v>0.52971</v>
+        <v>0.5290589999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>0.230349</v>
+        <v>0.231504</v>
       </c>
       <c r="F37" t="n">
-        <v>0.471347</v>
+        <v>0.472494</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.23398</v>
+        <v>0.234121</v>
       </c>
       <c r="C38" t="n">
-        <v>0.492163</v>
+        <v>0.474729</v>
       </c>
       <c r="D38" t="n">
-        <v>0.528704</v>
+        <v>0.528168</v>
       </c>
       <c r="E38" t="n">
-        <v>0.225988</v>
+        <v>0.227147</v>
       </c>
       <c r="F38" t="n">
-        <v>0.469203</v>
+        <v>0.467759</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.232393</v>
+        <v>0.232209</v>
       </c>
       <c r="C39" t="n">
-        <v>0.48479</v>
+        <v>0.47391</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5184530000000001</v>
+        <v>0.526207</v>
       </c>
       <c r="E39" t="n">
-        <v>0.220641</v>
+        <v>0.221816</v>
       </c>
       <c r="F39" t="n">
-        <v>0.464903</v>
+        <v>0.469478</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.22601</v>
+        <v>0.233675</v>
       </c>
       <c r="C40" t="n">
-        <v>0.471207</v>
+        <v>0.471915</v>
       </c>
       <c r="D40" t="n">
-        <v>0.521559</v>
+        <v>0.526852</v>
       </c>
       <c r="E40" t="n">
-        <v>0.215442</v>
+        <v>0.215646</v>
       </c>
       <c r="F40" t="n">
-        <v>0.462348</v>
+        <v>0.470253</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.22234</v>
+        <v>0.222327</v>
       </c>
       <c r="C41" t="n">
-        <v>0.488105</v>
+        <v>0.480495</v>
       </c>
       <c r="D41" t="n">
-        <v>0.531568</v>
+        <v>0.530758</v>
       </c>
       <c r="E41" t="n">
-        <v>0.212233</v>
+        <v>0.21111</v>
       </c>
       <c r="F41" t="n">
-        <v>0.469593</v>
+        <v>0.471929</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.218177</v>
+        <v>0.219533</v>
       </c>
       <c r="C42" t="n">
-        <v>0.481404</v>
+        <v>0.466484</v>
       </c>
       <c r="D42" t="n">
-        <v>0.533755</v>
+        <v>0.537482</v>
       </c>
       <c r="E42" t="n">
-        <v>0.207678</v>
+        <v>0.206728</v>
       </c>
       <c r="F42" t="n">
-        <v>0.474411</v>
+        <v>0.461284</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.216237</v>
+        <v>0.214749</v>
       </c>
       <c r="C43" t="n">
-        <v>0.491262</v>
+        <v>0.461925</v>
       </c>
       <c r="D43" t="n">
-        <v>0.540177</v>
+        <v>0.536535</v>
       </c>
       <c r="E43" t="n">
-        <v>0.202726</v>
+        <v>0.203055</v>
       </c>
       <c r="F43" t="n">
-        <v>0.474639</v>
+        <v>0.464991</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.211106</v>
+        <v>0.212686</v>
       </c>
       <c r="C44" t="n">
-        <v>0.472846</v>
+        <v>0.460282</v>
       </c>
       <c r="D44" t="n">
-        <v>0.533826</v>
+        <v>0.533496</v>
       </c>
       <c r="E44" t="n">
-        <v>0.199775</v>
+        <v>0.19793</v>
       </c>
       <c r="F44" t="n">
-        <v>0.474128</v>
+        <v>0.461802</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.207105</v>
+        <v>0.206974</v>
       </c>
       <c r="C45" t="n">
-        <v>0.497774</v>
+        <v>0.456459</v>
       </c>
       <c r="D45" t="n">
-        <v>0.538546</v>
+        <v>0.53927</v>
       </c>
       <c r="E45" t="n">
-        <v>0.194968</v>
+        <v>0.199123</v>
       </c>
       <c r="F45" t="n">
-        <v>0.474901</v>
+        <v>0.484255</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.203338</v>
+        <v>0.206128</v>
       </c>
       <c r="C46" t="n">
-        <v>0.490995</v>
+        <v>0.461102</v>
       </c>
       <c r="D46" t="n">
-        <v>0.518355</v>
+        <v>0.535479</v>
       </c>
       <c r="E46" t="n">
-        <v>0.191912</v>
+        <v>0.191497</v>
       </c>
       <c r="F46" t="n">
-        <v>0.457539</v>
+        <v>0.45089</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.201267</v>
+        <v>0.202038</v>
       </c>
       <c r="C47" t="n">
-        <v>0.451409</v>
+        <v>0.459282</v>
       </c>
       <c r="D47" t="n">
-        <v>0.528555</v>
+        <v>0.539131</v>
       </c>
       <c r="E47" t="n">
-        <v>0.187081</v>
+        <v>0.187375</v>
       </c>
       <c r="F47" t="n">
-        <v>0.445154</v>
+        <v>0.446781</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198277</v>
+        <v>0.198432</v>
       </c>
       <c r="C48" t="n">
-        <v>0.448423</v>
+        <v>0.453551</v>
       </c>
       <c r="D48" t="n">
-        <v>0.524475</v>
+        <v>0.530479</v>
       </c>
       <c r="E48" t="n">
-        <v>0.18427</v>
+        <v>0.183972</v>
       </c>
       <c r="F48" t="n">
-        <v>0.442579</v>
+        <v>0.441645</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.193338</v>
+        <v>0.19377</v>
       </c>
       <c r="C49" t="n">
-        <v>0.49365</v>
+        <v>0.45511</v>
       </c>
       <c r="D49" t="n">
-        <v>0.556262</v>
+        <v>0.541411</v>
       </c>
       <c r="E49" t="n">
-        <v>0.181462</v>
+        <v>0.181694</v>
       </c>
       <c r="F49" t="n">
-        <v>0.481011</v>
+        <v>0.443853</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.188588</v>
+        <v>0.188561</v>
       </c>
       <c r="C50" t="n">
-        <v>0.487615</v>
+        <v>0.445356</v>
       </c>
       <c r="D50" t="n">
-        <v>0.632504</v>
+        <v>0.624651</v>
       </c>
       <c r="E50" t="n">
-        <v>0.179958</v>
+        <v>0.177074</v>
       </c>
       <c r="F50" t="n">
-        <v>0.448678</v>
+        <v>0.439646</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.182995</v>
+        <v>0.184047</v>
       </c>
       <c r="C51" t="n">
-        <v>0.442247</v>
+        <v>0.448913</v>
       </c>
       <c r="D51" t="n">
-        <v>0.624154</v>
+        <v>0.6205580000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>0.235517</v>
+        <v>0.233855</v>
       </c>
       <c r="F51" t="n">
-        <v>0.490825</v>
+        <v>0.490595</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175337</v>
+        <v>0.174361</v>
       </c>
       <c r="C52" t="n">
-        <v>0.434181</v>
+        <v>0.440949</v>
       </c>
       <c r="D52" t="n">
-        <v>0.62603</v>
+        <v>0.627992</v>
       </c>
       <c r="E52" t="n">
-        <v>0.226938</v>
+        <v>0.228172</v>
       </c>
       <c r="F52" t="n">
-        <v>0.541812</v>
+        <v>0.491248</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.237356</v>
+        <v>0.237835</v>
       </c>
       <c r="C53" t="n">
-        <v>0.570709</v>
+        <v>0.5030250000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.63413</v>
+        <v>0.622953</v>
       </c>
       <c r="E53" t="n">
-        <v>0.222968</v>
+        <v>0.223563</v>
       </c>
       <c r="F53" t="n">
-        <v>0.52174</v>
+        <v>0.498829</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.233565</v>
+        <v>0.234994</v>
       </c>
       <c r="C54" t="n">
-        <v>0.514917</v>
+        <v>0.505784</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6125699999999999</v>
+        <v>0.621262</v>
       </c>
       <c r="E54" t="n">
-        <v>0.21871</v>
+        <v>0.2203</v>
       </c>
       <c r="F54" t="n">
-        <v>0.489262</v>
+        <v>0.491051</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.229218</v>
+        <v>0.232747</v>
       </c>
       <c r="C55" t="n">
-        <v>0.51327</v>
+        <v>0.507653</v>
       </c>
       <c r="D55" t="n">
-        <v>0.624332</v>
+        <v>0.617153</v>
       </c>
       <c r="E55" t="n">
-        <v>0.21635</v>
+        <v>0.213116</v>
       </c>
       <c r="F55" t="n">
-        <v>0.48806</v>
+        <v>0.497678</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.225821</v>
+        <v>0.226654</v>
       </c>
       <c r="C56" t="n">
-        <v>0.505286</v>
+        <v>0.505228</v>
       </c>
       <c r="D56" t="n">
-        <v>0.61486</v>
+        <v>0.619115</v>
       </c>
       <c r="E56" t="n">
-        <v>0.210426</v>
+        <v>0.210186</v>
       </c>
       <c r="F56" t="n">
-        <v>0.489802</v>
+        <v>0.546971</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221403</v>
+        <v>0.223697</v>
       </c>
       <c r="C57" t="n">
-        <v>0.515749</v>
+        <v>0.5100789999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.614532</v>
+        <v>0.615397</v>
       </c>
       <c r="E57" t="n">
-        <v>0.206576</v>
+        <v>0.204535</v>
       </c>
       <c r="F57" t="n">
-        <v>0.487288</v>
+        <v>0.497266</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.219166</v>
+        <v>0.219893</v>
       </c>
       <c r="C58" t="n">
-        <v>0.50273</v>
+        <v>0.508536</v>
       </c>
       <c r="D58" t="n">
-        <v>0.608398</v>
+        <v>0.610129</v>
       </c>
       <c r="E58" t="n">
-        <v>0.200113</v>
+        <v>0.200627</v>
       </c>
       <c r="F58" t="n">
-        <v>0.496745</v>
+        <v>0.493282</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.213025</v>
+        <v>0.214701</v>
       </c>
       <c r="C59" t="n">
-        <v>0.508444</v>
+        <v>0.514289</v>
       </c>
       <c r="D59" t="n">
-        <v>0.613609</v>
+        <v>0.610758</v>
       </c>
       <c r="E59" t="n">
-        <v>0.197174</v>
+        <v>0.196489</v>
       </c>
       <c r="F59" t="n">
-        <v>0.496177</v>
+        <v>0.497041</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.214106</v>
+        <v>0.210738</v>
       </c>
       <c r="C60" t="n">
-        <v>0.509263</v>
+        <v>0.508511</v>
       </c>
       <c r="D60" t="n">
-        <v>0.610969</v>
+        <v>0.608572</v>
       </c>
       <c r="E60" t="n">
-        <v>0.192564</v>
+        <v>0.192907</v>
       </c>
       <c r="F60" t="n">
-        <v>0.491133</v>
+        <v>0.495844</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.207136</v>
+        <v>0.206715</v>
       </c>
       <c r="C61" t="n">
-        <v>0.507237</v>
+        <v>0.508809</v>
       </c>
       <c r="D61" t="n">
-        <v>0.605331</v>
+        <v>0.6253570000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>0.191411</v>
+        <v>0.189906</v>
       </c>
       <c r="F61" t="n">
-        <v>0.492812</v>
+        <v>0.491326</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.202461</v>
+        <v>0.202295</v>
       </c>
       <c r="C62" t="n">
-        <v>0.51349</v>
+        <v>0.507182</v>
       </c>
       <c r="D62" t="n">
-        <v>0.611523</v>
+        <v>0.611228</v>
       </c>
       <c r="E62" t="n">
-        <v>0.185625</v>
+        <v>0.186434</v>
       </c>
       <c r="F62" t="n">
-        <v>0.509921</v>
+        <v>0.498119</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.197662</v>
+        <v>0.199045</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5387690000000001</v>
+        <v>0.510536</v>
       </c>
       <c r="D63" t="n">
-        <v>0.608598</v>
+        <v>0.61245</v>
       </c>
       <c r="E63" t="n">
-        <v>0.182421</v>
+        <v>0.183338</v>
       </c>
       <c r="F63" t="n">
-        <v>0.491566</v>
+        <v>0.49485</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.193536</v>
+        <v>0.194433</v>
       </c>
       <c r="C64" t="n">
-        <v>0.509126</v>
+        <v>0.511062</v>
       </c>
       <c r="D64" t="n">
-        <v>0.716162</v>
+        <v>0.720307</v>
       </c>
       <c r="E64" t="n">
-        <v>0.179568</v>
+        <v>0.179247</v>
       </c>
       <c r="F64" t="n">
-        <v>0.499528</v>
+        <v>0.506829</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.188007</v>
+        <v>0.188845</v>
       </c>
       <c r="C65" t="n">
-        <v>0.52582</v>
+        <v>0.509845</v>
       </c>
       <c r="D65" t="n">
-        <v>0.706537</v>
+        <v>0.7146749999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>0.175409</v>
+        <v>0.176122</v>
       </c>
       <c r="F65" t="n">
-        <v>0.499435</v>
+        <v>0.5001640000000001</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.181686</v>
+        <v>0.181897</v>
       </c>
       <c r="C66" t="n">
-        <v>0.509974</v>
+        <v>0.508385</v>
       </c>
       <c r="D66" t="n">
-        <v>0.698857</v>
+        <v>0.707456</v>
       </c>
       <c r="E66" t="n">
-        <v>0.231681</v>
+        <v>0.230361</v>
       </c>
       <c r="F66" t="n">
-        <v>0.5615289999999999</v>
+        <v>0.555284</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.243771</v>
+        <v>0.245066</v>
       </c>
       <c r="C67" t="n">
-        <v>0.584589</v>
+        <v>0.583009</v>
       </c>
       <c r="D67" t="n">
-        <v>0.698369</v>
+        <v>0.697634</v>
       </c>
       <c r="E67" t="n">
-        <v>0.22899</v>
+        <v>0.226111</v>
       </c>
       <c r="F67" t="n">
-        <v>0.565966</v>
+        <v>0.554972</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.240521</v>
+        <v>0.241001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5865629999999999</v>
+        <v>0.583083</v>
       </c>
       <c r="D68" t="n">
-        <v>0.697145</v>
+        <v>0.693005</v>
       </c>
       <c r="E68" t="n">
-        <v>0.223547</v>
+        <v>0.221222</v>
       </c>
       <c r="F68" t="n">
-        <v>0.55159</v>
+        <v>0.55287</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.236701</v>
+        <v>0.237241</v>
       </c>
       <c r="C69" t="n">
-        <v>0.582828</v>
+        <v>0.588668</v>
       </c>
       <c r="D69" t="n">
-        <v>0.685514</v>
+        <v>0.691035</v>
       </c>
       <c r="E69" t="n">
-        <v>0.21663</v>
+        <v>0.218226</v>
       </c>
       <c r="F69" t="n">
-        <v>0.553714</v>
+        <v>0.553879</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235938</v>
+        <v>0.23304</v>
       </c>
       <c r="C70" t="n">
-        <v>0.586522</v>
+        <v>0.5835669999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.688964</v>
+        <v>0.688733</v>
       </c>
       <c r="E70" t="n">
-        <v>0.21321</v>
+        <v>0.21286</v>
       </c>
       <c r="F70" t="n">
-        <v>0.547932</v>
+        <v>0.554225</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.233364</v>
+        <v>0.230239</v>
       </c>
       <c r="C71" t="n">
-        <v>0.592143</v>
+        <v>0.57889</v>
       </c>
       <c r="D71" t="n">
-        <v>0.686196</v>
+        <v>0.6850309999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>0.207484</v>
+        <v>0.209732</v>
       </c>
       <c r="F71" t="n">
-        <v>0.544428</v>
+        <v>0.555056</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.226409</v>
+        <v>0.227307</v>
       </c>
       <c r="C72" t="n">
-        <v>0.571047</v>
+        <v>0.572304</v>
       </c>
       <c r="D72" t="n">
-        <v>0.673667</v>
+        <v>0.677601</v>
       </c>
       <c r="E72" t="n">
-        <v>0.203742</v>
+        <v>0.203633</v>
       </c>
       <c r="F72" t="n">
-        <v>0.543447</v>
+        <v>0.545313</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.220853</v>
+        <v>0.221365</v>
       </c>
       <c r="C73" t="n">
-        <v>0.576098</v>
+        <v>0.575534</v>
       </c>
       <c r="D73" t="n">
-        <v>0.672382</v>
+        <v>0.674976</v>
       </c>
       <c r="E73" t="n">
-        <v>0.199478</v>
+        <v>0.200501</v>
       </c>
       <c r="F73" t="n">
-        <v>0.539601</v>
+        <v>0.545949</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.214396</v>
+        <v>0.216116</v>
       </c>
       <c r="C74" t="n">
-        <v>0.563205</v>
+        <v>0.569712</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6723710000000001</v>
+        <v>0.673346</v>
       </c>
       <c r="E74" t="n">
-        <v>0.19742</v>
+        <v>0.196507</v>
       </c>
       <c r="F74" t="n">
-        <v>0.540953</v>
+        <v>0.544346</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.210939</v>
+        <v>0.21535</v>
       </c>
       <c r="C75" t="n">
-        <v>0.561075</v>
+        <v>0.5631660000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.672959</v>
+        <v>0.67469</v>
       </c>
       <c r="E75" t="n">
-        <v>0.193254</v>
+        <v>0.192721</v>
       </c>
       <c r="F75" t="n">
-        <v>0.536042</v>
+        <v>0.539543</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.207125</v>
+        <v>0.210502</v>
       </c>
       <c r="C76" t="n">
-        <v>0.559063</v>
+        <v>0.559759</v>
       </c>
       <c r="D76" t="n">
-        <v>0.667178</v>
+        <v>0.666938</v>
       </c>
       <c r="E76" t="n">
-        <v>0.190819</v>
+        <v>0.189991</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5342440000000001</v>
+        <v>0.53421</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.207636</v>
+        <v>0.206674</v>
       </c>
       <c r="C77" t="n">
-        <v>0.555199</v>
+        <v>0.558687</v>
       </c>
       <c r="D77" t="n">
-        <v>0.660702</v>
+        <v>0.671246</v>
       </c>
       <c r="E77" t="n">
-        <v>0.186391</v>
+        <v>0.185437</v>
       </c>
       <c r="F77" t="n">
-        <v>0.534098</v>
+        <v>0.533139</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.204254</v>
+        <v>0.201762</v>
       </c>
       <c r="C78" t="n">
-        <v>0.547643</v>
+        <v>0.555827</v>
       </c>
       <c r="D78" t="n">
-        <v>0.747676</v>
+        <v>0.762466</v>
       </c>
       <c r="E78" t="n">
-        <v>0.182471</v>
+        <v>0.181911</v>
       </c>
       <c r="F78" t="n">
-        <v>0.529289</v>
+        <v>0.529307</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.19523</v>
+        <v>0.194411</v>
       </c>
       <c r="C79" t="n">
-        <v>0.546565</v>
+        <v>0.5512629999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.747777</v>
+        <v>0.756943</v>
       </c>
       <c r="E79" t="n">
-        <v>0.177952</v>
+        <v>0.177898</v>
       </c>
       <c r="F79" t="n">
-        <v>0.523937</v>
+        <v>0.5244220000000001</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.189666</v>
+        <v>0.186754</v>
       </c>
       <c r="C80" t="n">
-        <v>0.543699</v>
+        <v>0.54581</v>
       </c>
       <c r="D80" t="n">
-        <v>0.74374</v>
+        <v>0.745855</v>
       </c>
       <c r="E80" t="n">
-        <v>0.242272</v>
+        <v>0.239041</v>
       </c>
       <c r="F80" t="n">
-        <v>0.5786289999999999</v>
+        <v>0.57902</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.252086</v>
+        <v>0.253182</v>
       </c>
       <c r="C81" t="n">
-        <v>0.60663</v>
+        <v>0.609405</v>
       </c>
       <c r="D81" t="n">
-        <v>0.727203</v>
+        <v>0.738377</v>
       </c>
       <c r="E81" t="n">
-        <v>0.233367</v>
+        <v>0.233633</v>
       </c>
       <c r="F81" t="n">
-        <v>0.570427</v>
+        <v>0.57047</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.248579</v>
+        <v>0.24846</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6066510000000001</v>
+        <v>0.601283</v>
       </c>
       <c r="D82" t="n">
-        <v>0.727507</v>
+        <v>0.731899</v>
       </c>
       <c r="E82" t="n">
-        <v>0.229809</v>
+        <v>0.228138</v>
       </c>
       <c r="F82" t="n">
-        <v>0.569211</v>
+        <v>0.567258</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.244397</v>
+        <v>0.246489</v>
       </c>
       <c r="C83" t="n">
-        <v>0.603441</v>
+        <v>0.596268</v>
       </c>
       <c r="D83" t="n">
-        <v>0.723307</v>
+        <v>0.726077</v>
       </c>
       <c r="E83" t="n">
-        <v>0.223275</v>
+        <v>0.226701</v>
       </c>
       <c r="F83" t="n">
-        <v>0.561205</v>
+        <v>0.569122</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.237706</v>
+        <v>0.238445</v>
       </c>
       <c r="C84" t="n">
-        <v>0.638896</v>
+        <v>0.622408</v>
       </c>
       <c r="D84" t="n">
-        <v>0.749845</v>
+        <v>0.756864</v>
       </c>
       <c r="E84" t="n">
-        <v>0.219002</v>
+        <v>0.21824</v>
       </c>
       <c r="F84" t="n">
-        <v>0.594373</v>
+        <v>0.597274</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.233773</v>
+        <v>0.23549</v>
       </c>
       <c r="C85" t="n">
-        <v>0.632476</v>
+        <v>0.618791</v>
       </c>
       <c r="D85" t="n">
-        <v>0.747974</v>
+        <v>0.746733</v>
       </c>
       <c r="E85" t="n">
-        <v>0.215945</v>
+        <v>0.213904</v>
       </c>
       <c r="F85" t="n">
-        <v>0.601529</v>
+        <v>0.5933310000000001</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.233392</v>
+        <v>0.229194</v>
       </c>
       <c r="C86" t="n">
-        <v>0.621343</v>
+        <v>0.613825</v>
       </c>
       <c r="D86" t="n">
-        <v>0.739645</v>
+        <v>0.7381720000000001</v>
       </c>
       <c r="E86" t="n">
-        <v>0.213442</v>
+        <v>0.209557</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5925589999999999</v>
+        <v>0.587642</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.226107</v>
+        <v>0.22479</v>
       </c>
       <c r="C87" t="n">
-        <v>0.62279</v>
+        <v>0.615361</v>
       </c>
       <c r="D87" t="n">
-        <v>0.740255</v>
+        <v>0.741516</v>
       </c>
       <c r="E87" t="n">
-        <v>0.207799</v>
+        <v>0.206855</v>
       </c>
       <c r="F87" t="n">
-        <v>0.588106</v>
+        <v>0.596006</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.221695</v>
+        <v>0.221933</v>
       </c>
       <c r="C88" t="n">
-        <v>0.605019</v>
+        <v>0.614305</v>
       </c>
       <c r="D88" t="n">
-        <v>0.732707</v>
+        <v>0.7428090000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>0.201797</v>
+        <v>0.204237</v>
       </c>
       <c r="F88" t="n">
-        <v>0.578196</v>
+        <v>0.590773</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.215644</v>
+        <v>0.215693</v>
       </c>
       <c r="C89" t="n">
-        <v>0.587526</v>
+        <v>0.5965549999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>0.729917</v>
+        <v>0.723675</v>
       </c>
       <c r="E89" t="n">
-        <v>0.197962</v>
+        <v>0.198424</v>
       </c>
       <c r="F89" t="n">
-        <v>0.576945</v>
+        <v>0.580315</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.211989</v>
+        <v>0.214001</v>
       </c>
       <c r="C90" t="n">
-        <v>0.579837</v>
+        <v>0.600373</v>
       </c>
       <c r="D90" t="n">
-        <v>0.718179</v>
+        <v>0.722768</v>
       </c>
       <c r="E90" t="n">
-        <v>0.196846</v>
+        <v>0.193669</v>
       </c>
       <c r="F90" t="n">
-        <v>0.585293</v>
+        <v>0.581178</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.207237</v>
+        <v>0.207819</v>
       </c>
       <c r="C91" t="n">
-        <v>0.576106</v>
+        <v>0.592954</v>
       </c>
       <c r="D91" t="n">
-        <v>0.714697</v>
+        <v>0.718676</v>
       </c>
       <c r="E91" t="n">
-        <v>0.192549</v>
+        <v>0.190639</v>
       </c>
       <c r="F91" t="n">
-        <v>0.568447</v>
+        <v>0.571259</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.203454</v>
+        <v>0.203216</v>
       </c>
       <c r="C92" t="n">
-        <v>0.576648</v>
+        <v>0.596417</v>
       </c>
       <c r="D92" t="n">
-        <v>0.664882</v>
+        <v>0.669308</v>
       </c>
       <c r="E92" t="n">
-        <v>0.189313</v>
+        <v>0.185939</v>
       </c>
       <c r="F92" t="n">
-        <v>0.567724</v>
+        <v>0.569238</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.198509</v>
+        <v>0.197193</v>
       </c>
       <c r="C93" t="n">
-        <v>0.569491</v>
+        <v>0.588834</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6722359999999999</v>
+        <v>0.662757</v>
       </c>
       <c r="E93" t="n">
-        <v>0.184084</v>
+        <v>0.182234</v>
       </c>
       <c r="F93" t="n">
-        <v>0.577339</v>
+        <v>0.571653</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.191713</v>
+        <v>0.193919</v>
       </c>
       <c r="C94" t="n">
-        <v>0.560649</v>
+        <v>0.579975</v>
       </c>
       <c r="D94" t="n">
-        <v>0.667415</v>
+        <v>0.664941</v>
       </c>
       <c r="E94" t="n">
-        <v>0.242784</v>
+        <v>0.243549</v>
       </c>
       <c r="F94" t="n">
-        <v>0.6174500000000001</v>
+        <v>0.615359</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.255843</v>
+        <v>0.257499</v>
       </c>
       <c r="C95" t="n">
-        <v>0.628636</v>
+        <v>0.617513</v>
       </c>
       <c r="D95" t="n">
-        <v>0.660173</v>
+        <v>0.664418</v>
       </c>
       <c r="E95" t="n">
-        <v>0.239748</v>
+        <v>0.236785</v>
       </c>
       <c r="F95" t="n">
-        <v>0.614367</v>
+        <v>0.6128400000000001</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.251126</v>
+        <v>0.249474</v>
       </c>
       <c r="C96" t="n">
-        <v>0.624185</v>
+        <v>0.6134579999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.668521</v>
+        <v>0.6622670000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>0.232041</v>
+        <v>0.231485</v>
       </c>
       <c r="F96" t="n">
-        <v>0.60393</v>
+        <v>0.607602</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.249386</v>
+        <v>0.247018</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6232799999999999</v>
+        <v>0.6094270000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.662385</v>
+        <v>0.667933</v>
       </c>
       <c r="E97" t="n">
-        <v>0.227472</v>
+        <v>0.227071</v>
       </c>
       <c r="F97" t="n">
-        <v>0.605365</v>
+        <v>0.60707</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.24114</v>
+        <v>0.240998</v>
       </c>
       <c r="C98" t="n">
-        <v>0.6134579999999999</v>
+        <v>0.611052</v>
       </c>
       <c r="D98" t="n">
-        <v>0.659606</v>
+        <v>0.661562</v>
       </c>
       <c r="E98" t="n">
-        <v>0.222111</v>
+        <v>0.221652</v>
       </c>
       <c r="F98" t="n">
-        <v>0.604874</v>
+        <v>0.602657</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.235437</v>
+        <v>0.237379</v>
       </c>
       <c r="C99" t="n">
-        <v>0.610726</v>
+        <v>0.602591</v>
       </c>
       <c r="D99" t="n">
-        <v>0.665407</v>
+        <v>0.660153</v>
       </c>
       <c r="E99" t="n">
-        <v>0.217223</v>
+        <v>0.217365</v>
       </c>
       <c r="F99" t="n">
-        <v>0.591616</v>
+        <v>0.600478</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.230928</v>
+        <v>0.231911</v>
       </c>
       <c r="C100" t="n">
-        <v>0.6100179999999999</v>
+        <v>0.594216</v>
       </c>
       <c r="D100" t="n">
-        <v>0.658011</v>
+        <v>0.657961</v>
       </c>
       <c r="E100" t="n">
-        <v>0.212803</v>
+        <v>0.211715</v>
       </c>
       <c r="F100" t="n">
-        <v>0.593058</v>
+        <v>0.589525</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.228593</v>
+        <v>0.226461</v>
       </c>
       <c r="C101" t="n">
-        <v>0.600402</v>
+        <v>0.591646</v>
       </c>
       <c r="D101" t="n">
-        <v>0.666973</v>
+        <v>0.658706</v>
       </c>
       <c r="E101" t="n">
-        <v>0.208295</v>
+        <v>0.207291</v>
       </c>
       <c r="F101" t="n">
-        <v>0.585438</v>
+        <v>0.584934</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.222121</v>
+        <v>0.223634</v>
       </c>
       <c r="C102" t="n">
-        <v>0.5935009999999999</v>
+        <v>0.586944</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6596070000000001</v>
+        <v>0.658884</v>
       </c>
       <c r="E102" t="n">
-        <v>0.203594</v>
+        <v>0.203209</v>
       </c>
       <c r="F102" t="n">
-        <v>0.580606</v>
+        <v>0.583798</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.217596</v>
+        <v>0.21856</v>
       </c>
       <c r="C103" t="n">
-        <v>0.594007</v>
+        <v>0.5855399999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.662401</v>
+        <v>0.665039</v>
       </c>
       <c r="E103" t="n">
-        <v>0.199776</v>
+        <v>0.199432</v>
       </c>
       <c r="F103" t="n">
-        <v>0.57639</v>
+        <v>0.576467</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.216055</v>
+        <v>0.213118</v>
       </c>
       <c r="C104" t="n">
-        <v>0.585636</v>
+        <v>0.580506</v>
       </c>
       <c r="D104" t="n">
-        <v>0.657593</v>
+        <v>0.659009</v>
       </c>
       <c r="E104" t="n">
-        <v>0.196485</v>
+        <v>0.19794</v>
       </c>
       <c r="F104" t="n">
-        <v>0.573592</v>
+        <v>0.577896</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214677</v>
+        <v>0.210847</v>
       </c>
       <c r="C105" t="n">
-        <v>0.583444</v>
+        <v>0.5758720000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.657817</v>
+        <v>0.66003</v>
       </c>
       <c r="E105" t="n">
-        <v>0.192407</v>
+        <v>0.192184</v>
       </c>
       <c r="F105" t="n">
-        <v>0.574569</v>
+        <v>0.570924</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.208302</v>
+        <v>0.205466</v>
       </c>
       <c r="C106" t="n">
-        <v>0.589118</v>
+        <v>0.576528</v>
       </c>
       <c r="D106" t="n">
-        <v>0.661973</v>
+        <v>0.657578</v>
       </c>
       <c r="E106" t="n">
-        <v>0.187454</v>
+        <v>0.187989</v>
       </c>
       <c r="F106" t="n">
-        <v>0.576647</v>
+        <v>0.56925</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.199813</v>
+        <v>0.198697</v>
       </c>
       <c r="C107" t="n">
-        <v>0.589825</v>
+        <v>0.570438</v>
       </c>
       <c r="D107" t="n">
-        <v>0.661523</v>
+        <v>0.663016</v>
       </c>
       <c r="E107" t="n">
-        <v>0.18406</v>
+        <v>0.183919</v>
       </c>
       <c r="F107" t="n">
-        <v>0.568148</v>
+        <v>0.564315</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.192423</v>
+        <v>0.191625</v>
       </c>
       <c r="C108" t="n">
-        <v>0.592647</v>
+        <v>0.5649380000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>0.660538</v>
+        <v>0.666801</v>
       </c>
       <c r="E108" t="n">
-        <v>0.244395</v>
+        <v>0.245387</v>
       </c>
       <c r="F108" t="n">
-        <v>0.616496</v>
+        <v>0.616389</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.188419</v>
+        <v>0.182776</v>
       </c>
       <c r="C109" t="n">
-        <v>0.580395</v>
+        <v>0.566038</v>
       </c>
       <c r="D109" t="n">
-        <v>0.660901</v>
+        <v>0.661509</v>
       </c>
       <c r="E109" t="n">
-        <v>0.238616</v>
+        <v>0.238297</v>
       </c>
       <c r="F109" t="n">
-        <v>0.613286</v>
+        <v>0.61124</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.252634</v>
+        <v>0.250745</v>
       </c>
       <c r="C110" t="n">
-        <v>0.629116</v>
+        <v>0.636261</v>
       </c>
       <c r="D110" t="n">
-        <v>0.66738</v>
+        <v>0.660701</v>
       </c>
       <c r="E110" t="n">
-        <v>0.239752</v>
+        <v>0.232944</v>
       </c>
       <c r="F110" t="n">
-        <v>0.608419</v>
+        <v>0.605989</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.246518</v>
+        <v>0.249112</v>
       </c>
       <c r="C111" t="n">
-        <v>0.621763</v>
+        <v>0.63386</v>
       </c>
       <c r="D111" t="n">
-        <v>0.663188</v>
+        <v>0.657613</v>
       </c>
       <c r="E111" t="n">
-        <v>0.230039</v>
+        <v>0.227353</v>
       </c>
       <c r="F111" t="n">
-        <v>0.606182</v>
+        <v>0.601594</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.241823</v>
+        <v>0.240778</v>
       </c>
       <c r="C112" t="n">
-        <v>0.612721</v>
+        <v>0.624972</v>
       </c>
       <c r="D112" t="n">
-        <v>0.663972</v>
+        <v>0.658598</v>
       </c>
       <c r="E112" t="n">
-        <v>0.223281</v>
+        <v>0.223395</v>
       </c>
       <c r="F112" t="n">
-        <v>0.607583</v>
+        <v>0.596703</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.241426</v>
+        <v>0.239231</v>
       </c>
       <c r="C113" t="n">
-        <v>0.618886</v>
+        <v>0.624112</v>
       </c>
       <c r="D113" t="n">
-        <v>0.676493</v>
+        <v>0.661025</v>
       </c>
       <c r="E113" t="n">
-        <v>0.223974</v>
+        <v>0.218527</v>
       </c>
       <c r="F113" t="n">
-        <v>0.605426</v>
+        <v>0.594004</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.233779</v>
+        <v>0.231171</v>
       </c>
       <c r="C114" t="n">
-        <v>0.603646</v>
+        <v>0.619167</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6627960000000001</v>
+        <v>0.663527</v>
       </c>
       <c r="E114" t="n">
-        <v>0.213868</v>
+        <v>0.218464</v>
       </c>
       <c r="F114" t="n">
-        <v>0.588095</v>
+        <v>0.588516</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.22752</v>
+        <v>0.228002</v>
       </c>
       <c r="C115" t="n">
-        <v>0.609472</v>
+        <v>0.5963270000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.65502</v>
+        <v>0.657531</v>
       </c>
       <c r="E115" t="n">
-        <v>0.209354</v>
+        <v>0.208626</v>
       </c>
       <c r="F115" t="n">
-        <v>0.585156</v>
+        <v>0.586842</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.223021</v>
+        <v>0.222954</v>
       </c>
       <c r="C116" t="n">
-        <v>0.608636</v>
+        <v>0.596337</v>
       </c>
       <c r="D116" t="n">
-        <v>0.655698</v>
+        <v>0.654064</v>
       </c>
       <c r="E116" t="n">
-        <v>0.203989</v>
+        <v>0.205666</v>
       </c>
       <c r="F116" t="n">
-        <v>0.587414</v>
+        <v>0.585466</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.218751</v>
+        <v>0.220226</v>
       </c>
       <c r="C117" t="n">
-        <v>0.596247</v>
+        <v>0.592372</v>
       </c>
       <c r="D117" t="n">
-        <v>0.652709</v>
+        <v>0.654683</v>
       </c>
       <c r="E117" t="n">
-        <v>0.201425</v>
+        <v>0.200856</v>
       </c>
       <c r="F117" t="n">
-        <v>0.5818</v>
+        <v>0.580939</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.21375</v>
+        <v>0.214685</v>
       </c>
       <c r="C118" t="n">
-        <v>0.586469</v>
+        <v>0.5836</v>
       </c>
       <c r="D118" t="n">
-        <v>0.660556</v>
+        <v>0.65454</v>
       </c>
       <c r="E118" t="n">
-        <v>0.197339</v>
+        <v>0.196562</v>
       </c>
       <c r="F118" t="n">
-        <v>0.582406</v>
+        <v>0.573837</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.210936</v>
+        <v>0.209256</v>
       </c>
       <c r="C119" t="n">
-        <v>0.588816</v>
+        <v>0.580878</v>
       </c>
       <c r="D119" t="n">
-        <v>0.663988</v>
+        <v>0.655165</v>
       </c>
       <c r="E119" t="n">
-        <v>0.192768</v>
+        <v>0.192221</v>
       </c>
       <c r="F119" t="n">
-        <v>0.571203</v>
+        <v>0.574014</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.20592</v>
+        <v>0.205292</v>
       </c>
       <c r="C120" t="n">
-        <v>0.579905</v>
+        <v>0.599171</v>
       </c>
       <c r="D120" t="n">
-        <v>0.653825</v>
+        <v>0.654598</v>
       </c>
       <c r="E120" t="n">
-        <v>0.189081</v>
+        <v>0.18928</v>
       </c>
       <c r="F120" t="n">
-        <v>0.572152</v>
+        <v>0.575292</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.20446</v>
+        <v>0.199805</v>
       </c>
       <c r="C121" t="n">
-        <v>0.592101</v>
+        <v>0.572336</v>
       </c>
       <c r="D121" t="n">
-        <v>0.676433</v>
+        <v>0.688609</v>
       </c>
       <c r="E121" t="n">
-        <v>0.185259</v>
+        <v>0.184911</v>
       </c>
       <c r="F121" t="n">
-        <v>0.565347</v>
+        <v>0.56869</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.193844</v>
+        <v>0.194139</v>
       </c>
       <c r="C122" t="n">
-        <v>0.570248</v>
+        <v>0.576989</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6780310000000001</v>
+        <v>0.675283</v>
       </c>
       <c r="E122" t="n">
-        <v>0.181158</v>
+        <v>0.181104</v>
       </c>
       <c r="F122" t="n">
-        <v>0.564922</v>
+        <v>0.5677720000000001</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.188212</v>
+        <v>0.185545</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5669</v>
+        <v>0.566812</v>
       </c>
       <c r="D123" t="n">
-        <v>0.681809</v>
+        <v>0.670176</v>
       </c>
       <c r="E123" t="n">
-        <v>0.240333</v>
+        <v>0.240437</v>
       </c>
       <c r="F123" t="n">
-        <v>0.618409</v>
+        <v>0.615157</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.25316</v>
+        <v>0.251483</v>
       </c>
       <c r="C124" t="n">
-        <v>0.636585</v>
+        <v>0.641714</v>
       </c>
       <c r="D124" t="n">
-        <v>0.669413</v>
+        <v>0.670272</v>
       </c>
       <c r="E124" t="n">
-        <v>0.234973</v>
+        <v>0.234947</v>
       </c>
       <c r="F124" t="n">
-        <v>0.610498</v>
+        <v>0.610478</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.247882</v>
+        <v>0.247643</v>
       </c>
       <c r="C125" t="n">
-        <v>0.637738</v>
+        <v>0.615619</v>
       </c>
       <c r="D125" t="n">
-        <v>0.665968</v>
+        <v>0.667743</v>
       </c>
       <c r="E125" t="n">
-        <v>0.231052</v>
+        <v>0.228378</v>
       </c>
       <c r="F125" t="n">
-        <v>0.61396</v>
+        <v>0.606913</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.243137</v>
+        <v>0.244039</v>
       </c>
       <c r="C126" t="n">
-        <v>0.610012</v>
+        <v>0.61121</v>
       </c>
       <c r="D126" t="n">
-        <v>0.668647</v>
+        <v>0.670787</v>
       </c>
       <c r="E126" t="n">
-        <v>0.227577</v>
+        <v>0.223808</v>
       </c>
       <c r="F126" t="n">
-        <v>0.599874</v>
+        <v>0.599355</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.238293</v>
+        <v>0.237277</v>
       </c>
       <c r="C127" t="n">
-        <v>0.611669</v>
+        <v>0.6043770000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>0.670393</v>
+        <v>0.670798</v>
       </c>
       <c r="E127" t="n">
-        <v>0.219847</v>
+        <v>0.218942</v>
       </c>
       <c r="F127" t="n">
-        <v>0.601081</v>
+        <v>0.597054</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.232688</v>
+        <v>0.232394</v>
       </c>
       <c r="C128" t="n">
-        <v>0.605876</v>
+        <v>0.61254</v>
       </c>
       <c r="D128" t="n">
-        <v>0.668569</v>
+        <v>0.667304</v>
       </c>
       <c r="E128" t="n">
-        <v>0.214175</v>
+        <v>0.214096</v>
       </c>
       <c r="F128" t="n">
-        <v>0.593701</v>
+        <v>0.592006</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.229665</v>
+        <v>0.228163</v>
       </c>
       <c r="C129" t="n">
-        <v>0.603162</v>
+        <v>0.599309</v>
       </c>
       <c r="D129" t="n">
-        <v>0.661062</v>
+        <v>0.667006</v>
       </c>
       <c r="E129" t="n">
-        <v>0.211364</v>
+        <v>0.209695</v>
       </c>
       <c r="F129" t="n">
-        <v>0.585762</v>
+        <v>0.588706</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.222866</v>
+        <v>0.224109</v>
       </c>
       <c r="C130" t="n">
-        <v>0.593209</v>
+        <v>0.593005</v>
       </c>
       <c r="D130" t="n">
-        <v>0.65967</v>
+        <v>0.661023</v>
       </c>
       <c r="E130" t="n">
-        <v>0.206623</v>
+        <v>0.205494</v>
       </c>
       <c r="F130" t="n">
-        <v>0.587076</v>
+        <v>0.587489</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.219193</v>
+        <v>0.218779</v>
       </c>
       <c r="C131" t="n">
-        <v>0.589014</v>
+        <v>0.595832</v>
       </c>
       <c r="D131" t="n">
-        <v>0.661057</v>
+        <v>0.666124</v>
       </c>
       <c r="E131" t="n">
-        <v>0.203354</v>
+        <v>0.201148</v>
       </c>
       <c r="F131" t="n">
-        <v>0.580716</v>
+        <v>0.58162</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.21535</v>
+        <v>0.220224</v>
       </c>
       <c r="C132" t="n">
-        <v>0.596388</v>
+        <v>0.581278</v>
       </c>
       <c r="D132" t="n">
-        <v>0.664204</v>
+        <v>0.661888</v>
       </c>
       <c r="E132" t="n">
-        <v>0.197648</v>
+        <v>0.198189</v>
       </c>
       <c r="F132" t="n">
-        <v>0.575612</v>
+        <v>0.578716</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.21123</v>
+        <v>0.211075</v>
       </c>
       <c r="C133" t="n">
-        <v>0.605164</v>
+        <v>0.58536</v>
       </c>
       <c r="D133" t="n">
-        <v>0.660431</v>
+        <v>0.661768</v>
       </c>
       <c r="E133" t="n">
-        <v>0.193292</v>
+        <v>0.193727</v>
       </c>
       <c r="F133" t="n">
-        <v>0.572966</v>
+        <v>0.5732120000000001</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.208606</v>
+        <v>0.206968</v>
       </c>
       <c r="C134" t="n">
-        <v>0.580193</v>
+        <v>0.601038</v>
       </c>
       <c r="D134" t="n">
-        <v>0.659682</v>
+        <v>0.658721</v>
       </c>
       <c r="E134" t="n">
-        <v>0.189835</v>
+        <v>0.189737</v>
       </c>
       <c r="F134" t="n">
-        <v>0.569958</v>
+        <v>0.5702700000000001</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.202873</v>
+        <v>0.201876</v>
       </c>
       <c r="C135" t="n">
-        <v>0.574734</v>
+        <v>0.575103</v>
       </c>
       <c r="D135" t="n">
-        <v>0.67356</v>
+        <v>0.67539</v>
       </c>
       <c r="E135" t="n">
-        <v>0.188449</v>
+        <v>0.186008</v>
       </c>
       <c r="F135" t="n">
-        <v>0.5703279999999999</v>
+        <v>0.5679070000000001</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.195277</v>
+        <v>0.195518</v>
       </c>
       <c r="C136" t="n">
-        <v>0.569002</v>
+        <v>0.587059</v>
       </c>
       <c r="D136" t="n">
-        <v>0.672355</v>
+        <v>0.67645</v>
       </c>
       <c r="E136" t="n">
-        <v>0.183122</v>
+        <v>0.181647</v>
       </c>
       <c r="F136" t="n">
-        <v>0.565508</v>
+        <v>0.56343</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.188764</v>
+        <v>0.188914</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5664130000000001</v>
+        <v>0.57933</v>
       </c>
       <c r="D137" t="n">
-        <v>0.670363</v>
+        <v>0.672814</v>
       </c>
       <c r="E137" t="n">
-        <v>0.242976</v>
+        <v>0.243501</v>
       </c>
       <c r="F137" t="n">
-        <v>0.614609</v>
+        <v>0.613997</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.251539</v>
+        <v>0.254124</v>
       </c>
       <c r="C138" t="n">
-        <v>0.631621</v>
+        <v>0.617028</v>
       </c>
       <c r="D138" t="n">
-        <v>0.671612</v>
+        <v>0.673116</v>
       </c>
       <c r="E138" t="n">
-        <v>0.235682</v>
+        <v>0.237394</v>
       </c>
       <c r="F138" t="n">
-        <v>0.609993</v>
+        <v>0.610468</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.249647</v>
+        <v>0.251765</v>
       </c>
       <c r="C139" t="n">
-        <v>0.617105</v>
+        <v>0.616096</v>
       </c>
       <c r="D139" t="n">
-        <v>0.67125</v>
+        <v>0.67301</v>
       </c>
       <c r="E139" t="n">
-        <v>0.229975</v>
+        <v>0.22982</v>
       </c>
       <c r="F139" t="n">
-        <v>0.6049600000000001</v>
+        <v>0.604406</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.243207</v>
+        <v>0.245086</v>
       </c>
       <c r="C140" t="n">
-        <v>0.606993</v>
+        <v>0.6126</v>
       </c>
       <c r="D140" t="n">
-        <v>0.666923</v>
+        <v>0.674367</v>
       </c>
       <c r="E140" t="n">
-        <v>0.227173</v>
+        <v>0.225016</v>
       </c>
       <c r="F140" t="n">
-        <v>0.6020450000000001</v>
+        <v>0.600127</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.239533</v>
+        <v>0.239061</v>
       </c>
       <c r="C141" t="n">
-        <v>0.609936</v>
+        <v>0.633215</v>
       </c>
       <c r="D141" t="n">
-        <v>0.669842</v>
+        <v>0.670867</v>
       </c>
       <c r="E141" t="n">
-        <v>0.219839</v>
+        <v>0.224622</v>
       </c>
       <c r="F141" t="n">
-        <v>0.595711</v>
+        <v>0.595811</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.233597</v>
+        <v>0.233481</v>
       </c>
       <c r="C142" t="n">
-        <v>0.604139</v>
+        <v>0.6017749999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>0.665106</v>
+        <v>0.669202</v>
       </c>
       <c r="E142" t="n">
-        <v>0.216008</v>
+        <v>0.217524</v>
       </c>
       <c r="F142" t="n">
-        <v>0.597723</v>
+        <v>0.5928870000000001</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.229193</v>
+        <v>0.228916</v>
       </c>
       <c r="C143" t="n">
-        <v>0.600695</v>
+        <v>0.596351</v>
       </c>
       <c r="D143" t="n">
-        <v>0.667069</v>
+        <v>0.665959</v>
       </c>
       <c r="E143" t="n">
-        <v>0.209973</v>
+        <v>0.213791</v>
       </c>
       <c r="F143" t="n">
-        <v>0.590248</v>
+        <v>0.589426</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.193303</v>
+        <v>0.19895</v>
       </c>
       <c r="C2" t="n">
-        <v>0.445885</v>
+        <v>0.45669</v>
       </c>
       <c r="D2" t="n">
-        <v>0.502088</v>
+        <v>0.527421</v>
       </c>
       <c r="E2" t="n">
-        <v>0.213075</v>
+        <v>0.179351</v>
       </c>
       <c r="F2" t="n">
-        <v>0.453865</v>
+        <v>0.450148</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.187929</v>
+        <v>0.193688</v>
       </c>
       <c r="C3" t="n">
-        <v>0.445058</v>
+        <v>0.447553</v>
       </c>
       <c r="D3" t="n">
-        <v>0.520174</v>
+        <v>0.51395</v>
       </c>
       <c r="E3" t="n">
-        <v>0.213183</v>
+        <v>0.175098</v>
       </c>
       <c r="F3" t="n">
-        <v>0.455454</v>
+        <v>0.441209</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.18804</v>
+        <v>0.189915</v>
       </c>
       <c r="C4" t="n">
-        <v>0.438938</v>
+        <v>0.445579</v>
       </c>
       <c r="D4" t="n">
-        <v>0.51102</v>
+        <v>0.505122</v>
       </c>
       <c r="E4" t="n">
-        <v>0.212791</v>
+        <v>0.169538</v>
       </c>
       <c r="F4" t="n">
-        <v>0.45355</v>
+        <v>0.442308</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.186032</v>
+        <v>0.189732</v>
       </c>
       <c r="C5" t="n">
-        <v>0.440772</v>
+        <v>0.443786</v>
       </c>
       <c r="D5" t="n">
-        <v>0.503462</v>
+        <v>0.5122370000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.212464</v>
+        <v>0.164571</v>
       </c>
       <c r="F5" t="n">
-        <v>0.460437</v>
+        <v>0.425899</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.184536</v>
+        <v>0.181692</v>
       </c>
       <c r="C6" t="n">
-        <v>0.43578</v>
+        <v>0.445958</v>
       </c>
       <c r="D6" t="n">
-        <v>0.503461</v>
+        <v>0.509239</v>
       </c>
       <c r="E6" t="n">
-        <v>0.213503</v>
+        <v>0.162993</v>
       </c>
       <c r="F6" t="n">
-        <v>0.451325</v>
+        <v>0.419692</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.181316</v>
+        <v>0.180704</v>
       </c>
       <c r="C7" t="n">
-        <v>0.430461</v>
+        <v>0.423915</v>
       </c>
       <c r="D7" t="n">
-        <v>0.528396</v>
+        <v>0.507167</v>
       </c>
       <c r="E7" t="n">
-        <v>0.211767</v>
+        <v>0.211507</v>
       </c>
       <c r="F7" t="n">
-        <v>0.450304</v>
+        <v>0.462171</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.177817</v>
+        <v>0.175374</v>
       </c>
       <c r="C8" t="n">
-        <v>0.424545</v>
+        <v>0.419288</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5345220000000001</v>
+        <v>0.508011</v>
       </c>
       <c r="E8" t="n">
-        <v>0.217107</v>
+        <v>0.20883</v>
       </c>
       <c r="F8" t="n">
-        <v>0.447175</v>
+        <v>0.464451</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.165777</v>
+        <v>0.167031</v>
       </c>
       <c r="C9" t="n">
-        <v>0.41604</v>
+        <v>0.41602</v>
       </c>
       <c r="D9" t="n">
-        <v>0.527308</v>
+        <v>0.507744</v>
       </c>
       <c r="E9" t="n">
-        <v>0.225396</v>
+        <v>0.203962</v>
       </c>
       <c r="F9" t="n">
-        <v>0.464692</v>
+        <v>0.455642</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.218667</v>
+        <v>0.216747</v>
       </c>
       <c r="C10" t="n">
-        <v>0.468425</v>
+        <v>0.463842</v>
       </c>
       <c r="D10" t="n">
-        <v>0.510342</v>
+        <v>0.508941</v>
       </c>
       <c r="E10" t="n">
-        <v>0.219877</v>
+        <v>0.199118</v>
       </c>
       <c r="F10" t="n">
-        <v>0.467203</v>
+        <v>0.452408</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.213842</v>
+        <v>0.216473</v>
       </c>
       <c r="C11" t="n">
-        <v>0.465418</v>
+        <v>0.459076</v>
       </c>
       <c r="D11" t="n">
-        <v>0.515406</v>
+        <v>0.5034960000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.219925</v>
+        <v>0.195796</v>
       </c>
       <c r="F11" t="n">
-        <v>0.462703</v>
+        <v>0.448205</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.212804</v>
+        <v>0.213448</v>
       </c>
       <c r="C12" t="n">
-        <v>0.461039</v>
+        <v>0.456745</v>
       </c>
       <c r="D12" t="n">
-        <v>0.507154</v>
+        <v>0.503535</v>
       </c>
       <c r="E12" t="n">
-        <v>0.218886</v>
+        <v>0.192627</v>
       </c>
       <c r="F12" t="n">
-        <v>0.464132</v>
+        <v>0.445894</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.206851</v>
+        <v>0.209869</v>
       </c>
       <c r="C13" t="n">
-        <v>0.454522</v>
+        <v>0.452472</v>
       </c>
       <c r="D13" t="n">
-        <v>0.510278</v>
+        <v>0.501225</v>
       </c>
       <c r="E13" t="n">
-        <v>0.218692</v>
+        <v>0.188902</v>
       </c>
       <c r="F13" t="n">
-        <v>0.460611</v>
+        <v>0.441528</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.208024</v>
+        <v>0.209507</v>
       </c>
       <c r="C14" t="n">
-        <v>0.459953</v>
+        <v>0.459062</v>
       </c>
       <c r="D14" t="n">
-        <v>0.507615</v>
+        <v>0.507916</v>
       </c>
       <c r="E14" t="n">
-        <v>0.219144</v>
+        <v>0.185474</v>
       </c>
       <c r="F14" t="n">
-        <v>0.45743</v>
+        <v>0.45006</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.202129</v>
+        <v>0.201755</v>
       </c>
       <c r="C15" t="n">
-        <v>0.450737</v>
+        <v>0.44551</v>
       </c>
       <c r="D15" t="n">
-        <v>0.514038</v>
+        <v>0.499383</v>
       </c>
       <c r="E15" t="n">
-        <v>0.22171</v>
+        <v>0.182878</v>
       </c>
       <c r="F15" t="n">
-        <v>0.457918</v>
+        <v>0.43716</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.203048</v>
+        <v>0.197193</v>
       </c>
       <c r="C16" t="n">
-        <v>0.448145</v>
+        <v>0.444493</v>
       </c>
       <c r="D16" t="n">
-        <v>0.504516</v>
+        <v>0.505277</v>
       </c>
       <c r="E16" t="n">
-        <v>0.218901</v>
+        <v>0.179784</v>
       </c>
       <c r="F16" t="n">
-        <v>0.459509</v>
+        <v>0.43446</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.197951</v>
+        <v>0.195952</v>
       </c>
       <c r="C17" t="n">
-        <v>0.44882</v>
+        <v>0.439144</v>
       </c>
       <c r="D17" t="n">
-        <v>0.502185</v>
+        <v>0.501559</v>
       </c>
       <c r="E17" t="n">
-        <v>0.217354</v>
+        <v>0.177191</v>
       </c>
       <c r="F17" t="n">
-        <v>0.468204</v>
+        <v>0.431211</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.192303</v>
+        <v>0.195472</v>
       </c>
       <c r="C18" t="n">
-        <v>0.437952</v>
+        <v>0.442193</v>
       </c>
       <c r="D18" t="n">
-        <v>0.500797</v>
+        <v>0.504915</v>
       </c>
       <c r="E18" t="n">
-        <v>0.217688</v>
+        <v>0.174724</v>
       </c>
       <c r="F18" t="n">
-        <v>0.455244</v>
+        <v>0.430465</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.190017</v>
+        <v>0.190982</v>
       </c>
       <c r="C19" t="n">
-        <v>0.434114</v>
+        <v>0.435142</v>
       </c>
       <c r="D19" t="n">
-        <v>0.51256</v>
+        <v>0.504354</v>
       </c>
       <c r="E19" t="n">
-        <v>0.216535</v>
+        <v>0.170885</v>
       </c>
       <c r="F19" t="n">
-        <v>0.456402</v>
+        <v>0.431094</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188808</v>
+        <v>0.187142</v>
       </c>
       <c r="C20" t="n">
-        <v>0.437229</v>
+        <v>0.432193</v>
       </c>
       <c r="D20" t="n">
-        <v>0.511621</v>
+        <v>0.505232</v>
       </c>
       <c r="E20" t="n">
-        <v>0.220187</v>
+        <v>0.167763</v>
       </c>
       <c r="F20" t="n">
-        <v>0.459839</v>
+        <v>0.428472</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.184575</v>
+        <v>0.184163</v>
       </c>
       <c r="C21" t="n">
-        <v>0.428483</v>
+        <v>0.424719</v>
       </c>
       <c r="D21" t="n">
-        <v>0.514157</v>
+        <v>0.515127</v>
       </c>
       <c r="E21" t="n">
-        <v>0.215192</v>
+        <v>0.217796</v>
       </c>
       <c r="F21" t="n">
-        <v>0.45528</v>
+        <v>0.466034</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.179181</v>
+        <v>0.177606</v>
       </c>
       <c r="C22" t="n">
-        <v>0.42938</v>
+        <v>0.422997</v>
       </c>
       <c r="D22" t="n">
-        <v>0.514899</v>
+        <v>0.514754</v>
       </c>
       <c r="E22" t="n">
-        <v>0.218037</v>
+        <v>0.213559</v>
       </c>
       <c r="F22" t="n">
-        <v>0.450551</v>
+        <v>0.465439</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.171888</v>
+        <v>0.171221</v>
       </c>
       <c r="C23" t="n">
-        <v>0.418017</v>
+        <v>0.415331</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5139359999999999</v>
+        <v>0.514221</v>
       </c>
       <c r="E23" t="n">
-        <v>0.230022</v>
+        <v>0.209675</v>
       </c>
       <c r="F23" t="n">
-        <v>0.479144</v>
+        <v>0.465681</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.228966</v>
+        <v>0.227686</v>
       </c>
       <c r="C24" t="n">
-        <v>0.473149</v>
+        <v>0.466547</v>
       </c>
       <c r="D24" t="n">
-        <v>0.515633</v>
+        <v>0.514465</v>
       </c>
       <c r="E24" t="n">
-        <v>0.227731</v>
+        <v>0.205165</v>
       </c>
       <c r="F24" t="n">
-        <v>0.467815</v>
+        <v>0.45843</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.225897</v>
+        <v>0.224135</v>
       </c>
       <c r="C25" t="n">
-        <v>0.466378</v>
+        <v>0.462687</v>
       </c>
       <c r="D25" t="n">
-        <v>0.52122</v>
+        <v>0.51181</v>
       </c>
       <c r="E25" t="n">
-        <v>0.228203</v>
+        <v>0.201878</v>
       </c>
       <c r="F25" t="n">
-        <v>0.466111</v>
+        <v>0.455155</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.224562</v>
+        <v>0.221491</v>
       </c>
       <c r="C26" t="n">
-        <v>0.471661</v>
+        <v>0.460944</v>
       </c>
       <c r="D26" t="n">
-        <v>0.51088</v>
+        <v>0.513317</v>
       </c>
       <c r="E26" t="n">
-        <v>0.227295</v>
+        <v>0.19713</v>
       </c>
       <c r="F26" t="n">
-        <v>0.461572</v>
+        <v>0.450694</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.219212</v>
+        <v>0.218883</v>
       </c>
       <c r="C27" t="n">
-        <v>0.467317</v>
+        <v>0.455927</v>
       </c>
       <c r="D27" t="n">
-        <v>0.516492</v>
+        <v>0.509585</v>
       </c>
       <c r="E27" t="n">
-        <v>0.225448</v>
+        <v>0.195166</v>
       </c>
       <c r="F27" t="n">
-        <v>0.46447</v>
+        <v>0.450531</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.214738</v>
+        <v>0.213981</v>
       </c>
       <c r="C28" t="n">
-        <v>0.459463</v>
+        <v>0.453924</v>
       </c>
       <c r="D28" t="n">
-        <v>0.505603</v>
+        <v>0.5087739999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>0.229479</v>
+        <v>0.191071</v>
       </c>
       <c r="F28" t="n">
-        <v>0.467568</v>
+        <v>0.445755</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.211227</v>
+        <v>0.211116</v>
       </c>
       <c r="C29" t="n">
-        <v>0.45454</v>
+        <v>0.461323</v>
       </c>
       <c r="D29" t="n">
-        <v>0.509274</v>
+        <v>0.5142409999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>0.224383</v>
+        <v>0.188663</v>
       </c>
       <c r="F29" t="n">
-        <v>0.462145</v>
+        <v>0.444431</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.20763</v>
+        <v>0.206088</v>
       </c>
       <c r="C30" t="n">
-        <v>0.454171</v>
+        <v>0.448691</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5072140000000001</v>
+        <v>0.515356</v>
       </c>
       <c r="E30" t="n">
-        <v>0.224737</v>
+        <v>0.184749</v>
       </c>
       <c r="F30" t="n">
-        <v>0.459536</v>
+        <v>0.440576</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.203659</v>
+        <v>0.203803</v>
       </c>
       <c r="C31" t="n">
-        <v>0.44876</v>
+        <v>0.452259</v>
       </c>
       <c r="D31" t="n">
-        <v>0.505928</v>
+        <v>0.518787</v>
       </c>
       <c r="E31" t="n">
-        <v>0.222249</v>
+        <v>0.182065</v>
       </c>
       <c r="F31" t="n">
-        <v>0.462509</v>
+        <v>0.43833</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.201426</v>
+        <v>0.202711</v>
       </c>
       <c r="C32" t="n">
-        <v>0.446812</v>
+        <v>0.440564</v>
       </c>
       <c r="D32" t="n">
-        <v>0.518796</v>
+        <v>0.507805</v>
       </c>
       <c r="E32" t="n">
-        <v>0.222413</v>
+        <v>0.178238</v>
       </c>
       <c r="F32" t="n">
-        <v>0.462307</v>
+        <v>0.435823</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.198127</v>
+        <v>0.196949</v>
       </c>
       <c r="C33" t="n">
-        <v>0.442137</v>
+        <v>0.441552</v>
       </c>
       <c r="D33" t="n">
-        <v>0.504114</v>
+        <v>0.511582</v>
       </c>
       <c r="E33" t="n">
-        <v>0.220517</v>
+        <v>0.175963</v>
       </c>
       <c r="F33" t="n">
-        <v>0.459658</v>
+        <v>0.431563</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.193882</v>
+        <v>0.192926</v>
       </c>
       <c r="C34" t="n">
-        <v>0.438256</v>
+        <v>0.440206</v>
       </c>
       <c r="D34" t="n">
-        <v>0.508948</v>
+        <v>0.518344</v>
       </c>
       <c r="E34" t="n">
-        <v>0.222681</v>
+        <v>0.172264</v>
       </c>
       <c r="F34" t="n">
-        <v>0.462506</v>
+        <v>0.430308</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.191174</v>
+        <v>0.19388</v>
       </c>
       <c r="C35" t="n">
-        <v>0.443907</v>
+        <v>0.434557</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5264450000000001</v>
+        <v>0.531715</v>
       </c>
       <c r="E35" t="n">
-        <v>0.21939</v>
+        <v>0.168891</v>
       </c>
       <c r="F35" t="n">
-        <v>0.459153</v>
+        <v>0.424959</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.190043</v>
+        <v>0.183762</v>
       </c>
       <c r="C36" t="n">
-        <v>0.43195</v>
+        <v>0.428598</v>
       </c>
       <c r="D36" t="n">
-        <v>0.536184</v>
+        <v>0.53094</v>
       </c>
       <c r="E36" t="n">
-        <v>0.219222</v>
+        <v>0.231141</v>
       </c>
       <c r="F36" t="n">
-        <v>0.456652</v>
+        <v>0.473488</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.178253</v>
+        <v>0.177967</v>
       </c>
       <c r="C37" t="n">
-        <v>0.426147</v>
+        <v>0.42224</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5303369999999999</v>
+        <v>0.533927</v>
       </c>
       <c r="E37" t="n">
-        <v>0.245325</v>
+        <v>0.229168</v>
       </c>
       <c r="F37" t="n">
-        <v>0.475562</v>
+        <v>0.471378</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2313</v>
+        <v>0.233978</v>
       </c>
       <c r="C38" t="n">
-        <v>0.491762</v>
+        <v>0.481073</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5252289999999999</v>
+        <v>0.534186</v>
       </c>
       <c r="E38" t="n">
-        <v>0.243298</v>
+        <v>0.221647</v>
       </c>
       <c r="F38" t="n">
-        <v>0.479484</v>
+        <v>0.470939</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.232037</v>
+        <v>0.230203</v>
       </c>
       <c r="C39" t="n">
-        <v>0.483431</v>
+        <v>0.484219</v>
       </c>
       <c r="D39" t="n">
-        <v>0.524735</v>
+        <v>0.530962</v>
       </c>
       <c r="E39" t="n">
-        <v>0.240199</v>
+        <v>0.217</v>
       </c>
       <c r="F39" t="n">
-        <v>0.47691</v>
+        <v>0.470695</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.2281</v>
+        <v>0.227767</v>
       </c>
       <c r="C40" t="n">
-        <v>0.47562</v>
+        <v>0.475392</v>
       </c>
       <c r="D40" t="n">
-        <v>0.533738</v>
+        <v>0.521697</v>
       </c>
       <c r="E40" t="n">
-        <v>0.237676</v>
+        <v>0.21222</v>
       </c>
       <c r="F40" t="n">
-        <v>0.479051</v>
+        <v>0.459657</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.223237</v>
+        <v>0.224036</v>
       </c>
       <c r="C41" t="n">
-        <v>0.490912</v>
+        <v>0.468695</v>
       </c>
       <c r="D41" t="n">
-        <v>0.533641</v>
+        <v>0.525729</v>
       </c>
       <c r="E41" t="n">
-        <v>0.238535</v>
+        <v>0.212069</v>
       </c>
       <c r="F41" t="n">
-        <v>0.48006</v>
+        <v>0.459621</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.217086</v>
+        <v>0.217424</v>
       </c>
       <c r="C42" t="n">
-        <v>0.487205</v>
+        <v>0.471333</v>
       </c>
       <c r="D42" t="n">
-        <v>0.531945</v>
+        <v>0.525432</v>
       </c>
       <c r="E42" t="n">
-        <v>0.237954</v>
+        <v>0.204232</v>
       </c>
       <c r="F42" t="n">
-        <v>0.486848</v>
+        <v>0.462244</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.217403</v>
+        <v>0.216271</v>
       </c>
       <c r="C43" t="n">
-        <v>0.486205</v>
+        <v>0.479296</v>
       </c>
       <c r="D43" t="n">
-        <v>0.531617</v>
+        <v>0.5300049999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>0.233007</v>
+        <v>0.199837</v>
       </c>
       <c r="F43" t="n">
-        <v>0.486256</v>
+        <v>0.470795</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.211039</v>
+        <v>0.210006</v>
       </c>
       <c r="C44" t="n">
-        <v>0.490175</v>
+        <v>0.486704</v>
       </c>
       <c r="D44" t="n">
-        <v>0.541611</v>
+        <v>0.522218</v>
       </c>
       <c r="E44" t="n">
-        <v>0.231851</v>
+        <v>0.195844</v>
       </c>
       <c r="F44" t="n">
-        <v>0.471556</v>
+        <v>0.451408</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.208637</v>
+        <v>0.207878</v>
       </c>
       <c r="C45" t="n">
-        <v>0.45786</v>
+        <v>0.457804</v>
       </c>
       <c r="D45" t="n">
-        <v>0.524585</v>
+        <v>0.532556</v>
       </c>
       <c r="E45" t="n">
-        <v>0.232173</v>
+        <v>0.193164</v>
       </c>
       <c r="F45" t="n">
-        <v>0.477299</v>
+        <v>0.443989</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.204804</v>
+        <v>0.203992</v>
       </c>
       <c r="C46" t="n">
-        <v>0.489485</v>
+        <v>0.453876</v>
       </c>
       <c r="D46" t="n">
-        <v>0.545539</v>
+        <v>0.532474</v>
       </c>
       <c r="E46" t="n">
-        <v>0.228991</v>
+        <v>0.189415</v>
       </c>
       <c r="F46" t="n">
-        <v>0.493181</v>
+        <v>0.445164</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.202397</v>
+        <v>0.201154</v>
       </c>
       <c r="C47" t="n">
-        <v>0.495517</v>
+        <v>0.455802</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5509039999999999</v>
+        <v>0.52695</v>
       </c>
       <c r="E47" t="n">
-        <v>0.227468</v>
+        <v>0.184847</v>
       </c>
       <c r="F47" t="n">
-        <v>0.492018</v>
+        <v>0.445517</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.199111</v>
+        <v>0.197137</v>
       </c>
       <c r="C48" t="n">
-        <v>0.492032</v>
+        <v>0.449028</v>
       </c>
       <c r="D48" t="n">
-        <v>0.53176</v>
+        <v>0.529675</v>
       </c>
       <c r="E48" t="n">
-        <v>0.229064</v>
+        <v>0.182039</v>
       </c>
       <c r="F48" t="n">
-        <v>0.476889</v>
+        <v>0.438796</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.195274</v>
+        <v>0.193082</v>
       </c>
       <c r="C49" t="n">
-        <v>0.450862</v>
+        <v>0.444701</v>
       </c>
       <c r="D49" t="n">
-        <v>0.528308</v>
+        <v>0.546513</v>
       </c>
       <c r="E49" t="n">
-        <v>0.226997</v>
+        <v>0.178531</v>
       </c>
       <c r="F49" t="n">
-        <v>0.477905</v>
+        <v>0.438106</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.190205</v>
+        <v>0.18809</v>
       </c>
       <c r="C50" t="n">
-        <v>0.451824</v>
+        <v>0.446088</v>
       </c>
       <c r="D50" t="n">
-        <v>0.629838</v>
+        <v>0.637629</v>
       </c>
       <c r="E50" t="n">
-        <v>0.226054</v>
+        <v>0.239434</v>
       </c>
       <c r="F50" t="n">
-        <v>0.473542</v>
+        <v>0.49188</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.184926</v>
+        <v>0.182094</v>
       </c>
       <c r="C51" t="n">
-        <v>0.451025</v>
+        <v>0.442683</v>
       </c>
       <c r="D51" t="n">
-        <v>0.63486</v>
+        <v>0.629754</v>
       </c>
       <c r="E51" t="n">
-        <v>0.248308</v>
+        <v>0.229033</v>
       </c>
       <c r="F51" t="n">
-        <v>0.497258</v>
+        <v>0.48958</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176301</v>
+        <v>0.174885</v>
       </c>
       <c r="C52" t="n">
-        <v>0.447357</v>
+        <v>0.442473</v>
       </c>
       <c r="D52" t="n">
-        <v>0.612456</v>
+        <v>0.626958</v>
       </c>
       <c r="E52" t="n">
-        <v>0.242786</v>
+        <v>0.224059</v>
       </c>
       <c r="F52" t="n">
-        <v>0.503227</v>
+        <v>0.49213</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.236178</v>
+        <v>0.237936</v>
       </c>
       <c r="C53" t="n">
-        <v>0.505607</v>
+        <v>0.510996</v>
       </c>
       <c r="D53" t="n">
-        <v>0.615619</v>
+        <v>0.641373</v>
       </c>
       <c r="E53" t="n">
-        <v>0.241363</v>
+        <v>0.21919</v>
       </c>
       <c r="F53" t="n">
-        <v>0.498774</v>
+        <v>0.5396</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.232917</v>
+        <v>0.23343</v>
       </c>
       <c r="C54" t="n">
-        <v>0.510305</v>
+        <v>0.577746</v>
       </c>
       <c r="D54" t="n">
-        <v>0.614368</v>
+        <v>0.624696</v>
       </c>
       <c r="E54" t="n">
-        <v>0.24048</v>
+        <v>0.214569</v>
       </c>
       <c r="F54" t="n">
-        <v>0.500407</v>
+        <v>0.493588</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.230253</v>
+        <v>0.229578</v>
       </c>
       <c r="C55" t="n">
-        <v>0.509364</v>
+        <v>0.503087</v>
       </c>
       <c r="D55" t="n">
-        <v>0.610923</v>
+        <v>0.623318</v>
       </c>
       <c r="E55" t="n">
-        <v>0.242031</v>
+        <v>0.213098</v>
       </c>
       <c r="F55" t="n">
-        <v>0.501968</v>
+        <v>0.48395</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.226455</v>
+        <v>0.224668</v>
       </c>
       <c r="C56" t="n">
-        <v>0.51114</v>
+        <v>0.518428</v>
       </c>
       <c r="D56" t="n">
-        <v>0.625769</v>
+        <v>0.621147</v>
       </c>
       <c r="E56" t="n">
-        <v>0.236699</v>
+        <v>0.20643</v>
       </c>
       <c r="F56" t="n">
-        <v>0.502417</v>
+        <v>0.485489</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.220763</v>
+        <v>0.222173</v>
       </c>
       <c r="C57" t="n">
-        <v>0.508063</v>
+        <v>0.5289970000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.616893</v>
+        <v>0.633121</v>
       </c>
       <c r="E57" t="n">
-        <v>0.234679</v>
+        <v>0.203253</v>
       </c>
       <c r="F57" t="n">
-        <v>0.505284</v>
+        <v>0.531496</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.219688</v>
+        <v>0.222</v>
       </c>
       <c r="C58" t="n">
-        <v>0.511683</v>
+        <v>0.558754</v>
       </c>
       <c r="D58" t="n">
-        <v>0.615662</v>
+        <v>0.635345</v>
       </c>
       <c r="E58" t="n">
-        <v>0.23229</v>
+        <v>0.198418</v>
       </c>
       <c r="F58" t="n">
-        <v>0.515467</v>
+        <v>0.495483</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.212186</v>
+        <v>0.213129</v>
       </c>
       <c r="C59" t="n">
-        <v>0.519802</v>
+        <v>0.513679</v>
       </c>
       <c r="D59" t="n">
-        <v>0.615344</v>
+        <v>0.623632</v>
       </c>
       <c r="E59" t="n">
-        <v>0.230728</v>
+        <v>0.196409</v>
       </c>
       <c r="F59" t="n">
-        <v>0.518903</v>
+        <v>0.501818</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.208527</v>
+        <v>0.209626</v>
       </c>
       <c r="C60" t="n">
-        <v>0.561097</v>
+        <v>0.508248</v>
       </c>
       <c r="D60" t="n">
-        <v>0.634233</v>
+        <v>0.639818</v>
       </c>
       <c r="E60" t="n">
-        <v>0.232625</v>
+        <v>0.191866</v>
       </c>
       <c r="F60" t="n">
-        <v>0.515711</v>
+        <v>0.487246</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.206192</v>
+        <v>0.205706</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5184299999999999</v>
+        <v>0.510509</v>
       </c>
       <c r="D61" t="n">
-        <v>0.611652</v>
+        <v>0.631694</v>
       </c>
       <c r="E61" t="n">
-        <v>0.22905</v>
+        <v>0.187413</v>
       </c>
       <c r="F61" t="n">
-        <v>0.519302</v>
+        <v>0.496069</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.20281</v>
+        <v>0.201171</v>
       </c>
       <c r="C62" t="n">
-        <v>0.519795</v>
+        <v>0.537281</v>
       </c>
       <c r="D62" t="n">
-        <v>0.636753</v>
+        <v>0.63297</v>
       </c>
       <c r="E62" t="n">
-        <v>0.230063</v>
+        <v>0.184092</v>
       </c>
       <c r="F62" t="n">
-        <v>0.541574</v>
+        <v>0.491221</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.197891</v>
+        <v>0.199875</v>
       </c>
       <c r="C63" t="n">
-        <v>0.550307</v>
+        <v>0.513226</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6226</v>
+        <v>0.620768</v>
       </c>
       <c r="E63" t="n">
-        <v>0.226304</v>
+        <v>0.179766</v>
       </c>
       <c r="F63" t="n">
-        <v>0.565802</v>
+        <v>0.494276</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.194223</v>
+        <v>0.193891</v>
       </c>
       <c r="C64" t="n">
-        <v>0.552767</v>
+        <v>0.510752</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7098680000000001</v>
+        <v>0.725858</v>
       </c>
       <c r="E64" t="n">
-        <v>0.225114</v>
+        <v>0.237845</v>
       </c>
       <c r="F64" t="n">
-        <v>0.540831</v>
+        <v>0.561684</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.19021</v>
+        <v>0.190141</v>
       </c>
       <c r="C65" t="n">
-        <v>0.516854</v>
+        <v>0.514276</v>
       </c>
       <c r="D65" t="n">
-        <v>0.706962</v>
+        <v>0.712548</v>
       </c>
       <c r="E65" t="n">
-        <v>0.224861</v>
+        <v>0.232374</v>
       </c>
       <c r="F65" t="n">
-        <v>0.533084</v>
+        <v>0.554821</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.180424</v>
+        <v>0.182804</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5149629999999999</v>
+        <v>0.509747</v>
       </c>
       <c r="D66" t="n">
-        <v>0.705221</v>
+        <v>0.711935</v>
       </c>
       <c r="E66" t="n">
-        <v>0.249499</v>
+        <v>0.227269</v>
       </c>
       <c r="F66" t="n">
-        <v>0.567754</v>
+        <v>0.551357</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.243929</v>
+        <v>0.244126</v>
       </c>
       <c r="C67" t="n">
-        <v>0.60668</v>
+        <v>0.58619</v>
       </c>
       <c r="D67" t="n">
-        <v>0.736026</v>
+        <v>0.707628</v>
       </c>
       <c r="E67" t="n">
-        <v>0.25952</v>
+        <v>0.222361</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5845900000000001</v>
+        <v>0.548421</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.247202</v>
+        <v>0.239877</v>
       </c>
       <c r="C68" t="n">
-        <v>0.593688</v>
+        <v>0.586064</v>
       </c>
       <c r="D68" t="n">
-        <v>0.697196</v>
+        <v>0.706431</v>
       </c>
       <c r="E68" t="n">
-        <v>0.244992</v>
+        <v>0.218693</v>
       </c>
       <c r="F68" t="n">
-        <v>0.5760110000000001</v>
+        <v>0.555696</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.237221</v>
+        <v>0.236395</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5988</v>
+        <v>0.582773</v>
       </c>
       <c r="D69" t="n">
-        <v>0.697295</v>
+        <v>0.693299</v>
       </c>
       <c r="E69" t="n">
-        <v>0.241647</v>
+        <v>0.215119</v>
       </c>
       <c r="F69" t="n">
-        <v>0.5796829999999999</v>
+        <v>0.545698</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.237206</v>
+        <v>0.231446</v>
       </c>
       <c r="C70" t="n">
-        <v>0.596579</v>
+        <v>0.577603</v>
       </c>
       <c r="D70" t="n">
-        <v>0.688254</v>
+        <v>0.694867</v>
       </c>
       <c r="E70" t="n">
-        <v>0.242283</v>
+        <v>0.209846</v>
       </c>
       <c r="F70" t="n">
-        <v>0.575886</v>
+        <v>0.545356</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.229881</v>
+        <v>0.227231</v>
       </c>
       <c r="C71" t="n">
-        <v>0.582307</v>
+        <v>0.57279</v>
       </c>
       <c r="D71" t="n">
-        <v>0.681801</v>
+        <v>0.694533</v>
       </c>
       <c r="E71" t="n">
-        <v>0.237585</v>
+        <v>0.207727</v>
       </c>
       <c r="F71" t="n">
-        <v>0.5654169999999999</v>
+        <v>0.546031</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.22657</v>
+        <v>0.225713</v>
       </c>
       <c r="C72" t="n">
-        <v>0.586223</v>
+        <v>0.572439</v>
       </c>
       <c r="D72" t="n">
-        <v>0.676746</v>
+        <v>0.6884749999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>0.237348</v>
+        <v>0.201921</v>
       </c>
       <c r="F72" t="n">
-        <v>0.571043</v>
+        <v>0.542012</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219034</v>
+        <v>0.218854</v>
       </c>
       <c r="C73" t="n">
-        <v>0.585172</v>
+        <v>0.565903</v>
       </c>
       <c r="D73" t="n">
-        <v>0.685338</v>
+        <v>0.681373</v>
       </c>
       <c r="E73" t="n">
-        <v>0.235605</v>
+        <v>0.198052</v>
       </c>
       <c r="F73" t="n">
-        <v>0.5651929999999999</v>
+        <v>0.552839</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.218463</v>
+        <v>0.22008</v>
       </c>
       <c r="C74" t="n">
-        <v>0.573187</v>
+        <v>0.562345</v>
       </c>
       <c r="D74" t="n">
-        <v>0.671752</v>
+        <v>0.677661</v>
       </c>
       <c r="E74" t="n">
-        <v>0.235379</v>
+        <v>0.193743</v>
       </c>
       <c r="F74" t="n">
-        <v>0.565111</v>
+        <v>0.536727</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.215246</v>
+        <v>0.212673</v>
       </c>
       <c r="C75" t="n">
-        <v>0.567797</v>
+        <v>0.560279</v>
       </c>
       <c r="D75" t="n">
-        <v>0.67988</v>
+        <v>0.678612</v>
       </c>
       <c r="E75" t="n">
-        <v>0.232484</v>
+        <v>0.191319</v>
       </c>
       <c r="F75" t="n">
-        <v>0.569844</v>
+        <v>0.535636</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.209634</v>
+        <v>0.207564</v>
       </c>
       <c r="C76" t="n">
-        <v>0.566651</v>
+        <v>0.557805</v>
       </c>
       <c r="D76" t="n">
-        <v>0.668633</v>
+        <v>0.675277</v>
       </c>
       <c r="E76" t="n">
-        <v>0.231027</v>
+        <v>0.186391</v>
       </c>
       <c r="F76" t="n">
-        <v>0.565844</v>
+        <v>0.532941</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.203043</v>
+        <v>0.203789</v>
       </c>
       <c r="C77" t="n">
-        <v>0.564113</v>
+        <v>0.561995</v>
       </c>
       <c r="D77" t="n">
-        <v>0.665477</v>
+        <v>0.671584</v>
       </c>
       <c r="E77" t="n">
-        <v>0.228757</v>
+        <v>0.18251</v>
       </c>
       <c r="F77" t="n">
-        <v>0.569343</v>
+        <v>0.527263</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.200932</v>
+        <v>0.198435</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5596139999999999</v>
+        <v>0.565255</v>
       </c>
       <c r="D78" t="n">
-        <v>0.750302</v>
+        <v>0.781397</v>
       </c>
       <c r="E78" t="n">
-        <v>0.229899</v>
+        <v>0.179436</v>
       </c>
       <c r="F78" t="n">
-        <v>0.558918</v>
+        <v>0.529273</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.192811</v>
+        <v>0.194001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.556984</v>
+        <v>0.543591</v>
       </c>
       <c r="D79" t="n">
-        <v>0.755697</v>
+        <v>0.763713</v>
       </c>
       <c r="E79" t="n">
-        <v>0.226477</v>
+        <v>0.239249</v>
       </c>
       <c r="F79" t="n">
-        <v>0.559045</v>
+        <v>0.5766520000000001</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.186965</v>
+        <v>0.187718</v>
       </c>
       <c r="C80" t="n">
-        <v>0.541069</v>
+        <v>0.545888</v>
       </c>
       <c r="D80" t="n">
-        <v>0.748468</v>
+        <v>0.751345</v>
       </c>
       <c r="E80" t="n">
-        <v>0.253173</v>
+        <v>0.234353</v>
       </c>
       <c r="F80" t="n">
-        <v>0.581425</v>
+        <v>0.570801</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.253198</v>
+        <v>0.253778</v>
       </c>
       <c r="C81" t="n">
-        <v>0.605168</v>
+        <v>0.608109</v>
       </c>
       <c r="D81" t="n">
-        <v>0.739505</v>
+        <v>0.766577</v>
       </c>
       <c r="E81" t="n">
-        <v>0.251068</v>
+        <v>0.232781</v>
       </c>
       <c r="F81" t="n">
-        <v>0.5796750000000001</v>
+        <v>0.56769</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.251356</v>
+        <v>0.25452</v>
       </c>
       <c r="C82" t="n">
-        <v>0.610282</v>
+        <v>0.597567</v>
       </c>
       <c r="D82" t="n">
-        <v>0.732973</v>
+        <v>0.738634</v>
       </c>
       <c r="E82" t="n">
-        <v>0.250497</v>
+        <v>0.224954</v>
       </c>
       <c r="F82" t="n">
-        <v>0.579296</v>
+        <v>0.563051</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.243681</v>
+        <v>0.243295</v>
       </c>
       <c r="C83" t="n">
-        <v>0.60031</v>
+        <v>0.59189</v>
       </c>
       <c r="D83" t="n">
-        <v>0.730416</v>
+        <v>0.740384</v>
       </c>
       <c r="E83" t="n">
-        <v>0.247501</v>
+        <v>0.219232</v>
       </c>
       <c r="F83" t="n">
-        <v>0.580867</v>
+        <v>0.570078</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.237739</v>
+        <v>0.23946</v>
       </c>
       <c r="C84" t="n">
-        <v>0.623648</v>
+        <v>0.63112</v>
       </c>
       <c r="D84" t="n">
-        <v>0.755423</v>
+        <v>0.74929</v>
       </c>
       <c r="E84" t="n">
-        <v>0.245733</v>
+        <v>0.220262</v>
       </c>
       <c r="F84" t="n">
-        <v>0.6050450000000001</v>
+        <v>0.604539</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.235623</v>
+        <v>0.233648</v>
       </c>
       <c r="C85" t="n">
-        <v>0.626004</v>
+        <v>0.617753</v>
       </c>
       <c r="D85" t="n">
-        <v>0.753649</v>
+        <v>0.742831</v>
       </c>
       <c r="E85" t="n">
-        <v>0.244769</v>
+        <v>0.212505</v>
       </c>
       <c r="F85" t="n">
-        <v>0.599638</v>
+        <v>0.602347</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.229193</v>
+        <v>0.229066</v>
       </c>
       <c r="C86" t="n">
-        <v>0.616887</v>
+        <v>0.612131</v>
       </c>
       <c r="D86" t="n">
-        <v>0.747676</v>
+        <v>0.743304</v>
       </c>
       <c r="E86" t="n">
-        <v>0.241041</v>
+        <v>0.207073</v>
       </c>
       <c r="F86" t="n">
-        <v>0.595853</v>
+        <v>0.591379</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.225504</v>
+        <v>0.228128</v>
       </c>
       <c r="C87" t="n">
-        <v>0.618201</v>
+        <v>0.609774</v>
       </c>
       <c r="D87" t="n">
-        <v>0.7346819999999999</v>
+        <v>0.7388209999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>0.239051</v>
+        <v>0.203678</v>
       </c>
       <c r="F87" t="n">
-        <v>0.597356</v>
+        <v>0.602013</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.220624</v>
+        <v>0.224299</v>
       </c>
       <c r="C88" t="n">
-        <v>0.611054</v>
+        <v>0.6212259999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.726339</v>
+        <v>0.753829</v>
       </c>
       <c r="E88" t="n">
-        <v>0.237441</v>
+        <v>0.20181</v>
       </c>
       <c r="F88" t="n">
-        <v>0.590076</v>
+        <v>0.598564</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.216257</v>
+        <v>0.216046</v>
       </c>
       <c r="C89" t="n">
-        <v>0.606171</v>
+        <v>0.607715</v>
       </c>
       <c r="D89" t="n">
-        <v>0.726371</v>
+        <v>0.730627</v>
       </c>
       <c r="E89" t="n">
-        <v>0.236502</v>
+        <v>0.194429</v>
       </c>
       <c r="F89" t="n">
-        <v>0.58931</v>
+        <v>0.578939</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.213278</v>
+        <v>0.211677</v>
       </c>
       <c r="C90" t="n">
-        <v>0.60401</v>
+        <v>0.605379</v>
       </c>
       <c r="D90" t="n">
-        <v>0.725015</v>
+        <v>0.733476</v>
       </c>
       <c r="E90" t="n">
-        <v>0.235357</v>
+        <v>0.191501</v>
       </c>
       <c r="F90" t="n">
-        <v>0.587148</v>
+        <v>0.58526</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.207722</v>
+        <v>0.208234</v>
       </c>
       <c r="C91" t="n">
-        <v>0.60133</v>
+        <v>0.600336</v>
       </c>
       <c r="D91" t="n">
-        <v>0.716772</v>
+        <v>0.722813</v>
       </c>
       <c r="E91" t="n">
-        <v>0.237898</v>
+        <v>0.186793</v>
       </c>
       <c r="F91" t="n">
-        <v>0.586246</v>
+        <v>0.573796</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.203195</v>
+        <v>0.2021</v>
       </c>
       <c r="C92" t="n">
-        <v>0.602743</v>
+        <v>0.589361</v>
       </c>
       <c r="D92" t="n">
-        <v>0.679016</v>
+        <v>0.668735</v>
       </c>
       <c r="E92" t="n">
-        <v>0.235376</v>
+        <v>0.182877</v>
       </c>
       <c r="F92" t="n">
-        <v>0.586198</v>
+        <v>0.574068</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.197942</v>
+        <v>0.196812</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5948329999999999</v>
+        <v>0.587647</v>
       </c>
       <c r="D93" t="n">
-        <v>0.673122</v>
+        <v>0.668305</v>
       </c>
       <c r="E93" t="n">
-        <v>0.229654</v>
+        <v>0.244056</v>
       </c>
       <c r="F93" t="n">
-        <v>0.595157</v>
+        <v>0.620897</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.189972</v>
+        <v>0.189722</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5904740000000001</v>
+        <v>0.584935</v>
       </c>
       <c r="D94" t="n">
-        <v>0.67264</v>
+        <v>0.668255</v>
       </c>
       <c r="E94" t="n">
-        <v>0.256097</v>
+        <v>0.237829</v>
       </c>
       <c r="F94" t="n">
-        <v>0.608402</v>
+        <v>0.616175</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.255116</v>
+        <v>0.253545</v>
       </c>
       <c r="C95" t="n">
-        <v>0.635875</v>
+        <v>0.636383</v>
       </c>
       <c r="D95" t="n">
-        <v>0.665049</v>
+        <v>0.663061</v>
       </c>
       <c r="E95" t="n">
-        <v>0.253137</v>
+        <v>0.232657</v>
       </c>
       <c r="F95" t="n">
-        <v>0.602836</v>
+        <v>0.6151</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.251195</v>
+        <v>0.249227</v>
       </c>
       <c r="C96" t="n">
-        <v>0.635278</v>
+        <v>0.634509</v>
       </c>
       <c r="D96" t="n">
-        <v>0.676522</v>
+        <v>0.6689929999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>0.251124</v>
+        <v>0.227956</v>
       </c>
       <c r="F96" t="n">
-        <v>0.601179</v>
+        <v>0.611243</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.246008</v>
+        <v>0.244932</v>
       </c>
       <c r="C97" t="n">
-        <v>0.627453</v>
+        <v>0.631965</v>
       </c>
       <c r="D97" t="n">
-        <v>0.671372</v>
+        <v>0.66316</v>
       </c>
       <c r="E97" t="n">
-        <v>0.248426</v>
+        <v>0.22321</v>
       </c>
       <c r="F97" t="n">
-        <v>0.599329</v>
+        <v>0.602307</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.240471</v>
+        <v>0.240594</v>
       </c>
       <c r="C98" t="n">
-        <v>0.622116</v>
+        <v>0.620072</v>
       </c>
       <c r="D98" t="n">
-        <v>0.666358</v>
+        <v>0.674304</v>
       </c>
       <c r="E98" t="n">
-        <v>0.248065</v>
+        <v>0.217746</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5980259999999999</v>
+        <v>0.598042</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.237652</v>
+        <v>0.234831</v>
       </c>
       <c r="C99" t="n">
-        <v>0.61842</v>
+        <v>0.62692</v>
       </c>
       <c r="D99" t="n">
-        <v>0.665608</v>
+        <v>0.661914</v>
       </c>
       <c r="E99" t="n">
-        <v>0.24528</v>
+        <v>0.214032</v>
       </c>
       <c r="F99" t="n">
-        <v>0.597796</v>
+        <v>0.596055</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.23059</v>
+        <v>0.232046</v>
       </c>
       <c r="C100" t="n">
-        <v>0.615676</v>
+        <v>0.611419</v>
       </c>
       <c r="D100" t="n">
-        <v>0.670731</v>
+        <v>0.660178</v>
       </c>
       <c r="E100" t="n">
-        <v>0.24604</v>
+        <v>0.208752</v>
       </c>
       <c r="F100" t="n">
-        <v>0.59191</v>
+        <v>0.589836</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.226234</v>
+        <v>0.225101</v>
       </c>
       <c r="C101" t="n">
-        <v>0.612492</v>
+        <v>0.611465</v>
       </c>
       <c r="D101" t="n">
-        <v>0.664169</v>
+        <v>0.661042</v>
       </c>
       <c r="E101" t="n">
-        <v>0.24458</v>
+        <v>0.205591</v>
       </c>
       <c r="F101" t="n">
-        <v>0.59327</v>
+        <v>0.59004</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.223193</v>
+        <v>0.223812</v>
       </c>
       <c r="C102" t="n">
-        <v>0.609789</v>
+        <v>0.610859</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6624139999999999</v>
+        <v>0.658158</v>
       </c>
       <c r="E102" t="n">
-        <v>0.240249</v>
+        <v>0.200362</v>
       </c>
       <c r="F102" t="n">
-        <v>0.591063</v>
+        <v>0.588306</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.219358</v>
+        <v>0.216509</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5948639999999999</v>
+        <v>0.615123</v>
       </c>
       <c r="D103" t="n">
-        <v>0.666404</v>
+        <v>0.657878</v>
       </c>
       <c r="E103" t="n">
-        <v>0.236795</v>
+        <v>0.196458</v>
       </c>
       <c r="F103" t="n">
-        <v>0.5923119999999999</v>
+        <v>0.579281</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.216081</v>
+        <v>0.212277</v>
       </c>
       <c r="C104" t="n">
-        <v>0.593811</v>
+        <v>0.598184</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6586689999999999</v>
+        <v>0.657172</v>
       </c>
       <c r="E104" t="n">
-        <v>0.235219</v>
+        <v>0.192929</v>
       </c>
       <c r="F104" t="n">
-        <v>0.592689</v>
+        <v>0.576678</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.209794</v>
+        <v>0.208349</v>
       </c>
       <c r="C105" t="n">
-        <v>0.592858</v>
+        <v>0.59792</v>
       </c>
       <c r="D105" t="n">
-        <v>0.662234</v>
+        <v>0.658488</v>
       </c>
       <c r="E105" t="n">
-        <v>0.233333</v>
+        <v>0.188707</v>
       </c>
       <c r="F105" t="n">
-        <v>0.588006</v>
+        <v>0.576152</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.204541</v>
+        <v>0.206097</v>
       </c>
       <c r="C106" t="n">
-        <v>0.589836</v>
+        <v>0.592882</v>
       </c>
       <c r="D106" t="n">
-        <v>0.65883</v>
+        <v>0.660147</v>
       </c>
       <c r="E106" t="n">
-        <v>0.233378</v>
+        <v>0.184811</v>
       </c>
       <c r="F106" t="n">
-        <v>0.589249</v>
+        <v>0.569118</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.200958</v>
+        <v>0.199101</v>
       </c>
       <c r="C107" t="n">
-        <v>0.583777</v>
+        <v>0.592293</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6702</v>
+        <v>0.668648</v>
       </c>
       <c r="E107" t="n">
-        <v>0.230259</v>
+        <v>0.246622</v>
       </c>
       <c r="F107" t="n">
-        <v>0.592038</v>
+        <v>0.624772</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.193834</v>
+        <v>0.191657</v>
       </c>
       <c r="C108" t="n">
-        <v>0.585853</v>
+        <v>0.585259</v>
       </c>
       <c r="D108" t="n">
-        <v>0.666612</v>
+        <v>0.663342</v>
       </c>
       <c r="E108" t="n">
-        <v>0.2629</v>
+        <v>0.239518</v>
       </c>
       <c r="F108" t="n">
-        <v>0.607625</v>
+        <v>0.618245</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.183578</v>
+        <v>0.182609</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5891459999999999</v>
+        <v>0.577696</v>
       </c>
       <c r="D109" t="n">
-        <v>0.67025</v>
+        <v>0.662401</v>
       </c>
       <c r="E109" t="n">
-        <v>0.259681</v>
+        <v>0.234449</v>
       </c>
       <c r="F109" t="n">
-        <v>0.610575</v>
+        <v>0.614942</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.250913</v>
+        <v>0.251059</v>
       </c>
       <c r="C110" t="n">
-        <v>0.635006</v>
+        <v>0.626055</v>
       </c>
       <c r="D110" t="n">
-        <v>0.663803</v>
+        <v>0.660826</v>
       </c>
       <c r="E110" t="n">
-        <v>0.258765</v>
+        <v>0.230043</v>
       </c>
       <c r="F110" t="n">
-        <v>0.608468</v>
+        <v>0.609853</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.251469</v>
+        <v>0.246455</v>
       </c>
       <c r="C111" t="n">
-        <v>0.646246</v>
+        <v>0.617708</v>
       </c>
       <c r="D111" t="n">
-        <v>0.681006</v>
+        <v>0.664953</v>
       </c>
       <c r="E111" t="n">
-        <v>0.253087</v>
+        <v>0.224135</v>
       </c>
       <c r="F111" t="n">
-        <v>0.617774</v>
+        <v>0.603945</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.245208</v>
+        <v>0.241232</v>
       </c>
       <c r="C112" t="n">
-        <v>0.631621</v>
+        <v>0.614007</v>
       </c>
       <c r="D112" t="n">
-        <v>0.665663</v>
+        <v>0.661948</v>
       </c>
       <c r="E112" t="n">
-        <v>0.247131</v>
+        <v>0.219597</v>
       </c>
       <c r="F112" t="n">
-        <v>0.613076</v>
+        <v>0.60109</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.239354</v>
+        <v>0.235635</v>
       </c>
       <c r="C113" t="n">
-        <v>0.614893</v>
+        <v>0.610954</v>
       </c>
       <c r="D113" t="n">
-        <v>0.676643</v>
+        <v>0.660627</v>
       </c>
       <c r="E113" t="n">
-        <v>0.246517</v>
+        <v>0.214594</v>
       </c>
       <c r="F113" t="n">
-        <v>0.609606</v>
+        <v>0.596521</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.234243</v>
+        <v>0.231374</v>
       </c>
       <c r="C114" t="n">
-        <v>0.623648</v>
+        <v>0.607511</v>
       </c>
       <c r="D114" t="n">
-        <v>0.671471</v>
+        <v>0.658366</v>
       </c>
       <c r="E114" t="n">
-        <v>0.244732</v>
+        <v>0.211069</v>
       </c>
       <c r="F114" t="n">
-        <v>0.598397</v>
+        <v>0.595674</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.229543</v>
+        <v>0.227549</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6231</v>
+        <v>0.603177</v>
       </c>
       <c r="D115" t="n">
-        <v>0.662405</v>
+        <v>0.6594100000000001</v>
       </c>
       <c r="E115" t="n">
-        <v>0.247949</v>
+        <v>0.207282</v>
       </c>
       <c r="F115" t="n">
-        <v>0.600041</v>
+        <v>0.589993</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.226759</v>
+        <v>0.22378</v>
       </c>
       <c r="C116" t="n">
-        <v>0.614625</v>
+        <v>0.595875</v>
       </c>
       <c r="D116" t="n">
-        <v>0.672484</v>
+        <v>0.659239</v>
       </c>
       <c r="E116" t="n">
-        <v>0.242961</v>
+        <v>0.201555</v>
       </c>
       <c r="F116" t="n">
-        <v>0.596979</v>
+        <v>0.591769</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.219837</v>
+        <v>0.218809</v>
       </c>
       <c r="C117" t="n">
-        <v>0.62323</v>
+        <v>0.591373</v>
       </c>
       <c r="D117" t="n">
-        <v>0.661431</v>
+        <v>0.6571939999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>0.237469</v>
+        <v>0.198076</v>
       </c>
       <c r="F117" t="n">
-        <v>0.606253</v>
+        <v>0.58356</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.216349</v>
+        <v>0.213267</v>
       </c>
       <c r="C118" t="n">
-        <v>0.60816</v>
+        <v>0.589661</v>
       </c>
       <c r="D118" t="n">
-        <v>0.670975</v>
+        <v>0.66001</v>
       </c>
       <c r="E118" t="n">
-        <v>0.237947</v>
+        <v>0.193916</v>
       </c>
       <c r="F118" t="n">
-        <v>0.607585</v>
+        <v>0.5802349999999999</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.21118</v>
+        <v>0.208972</v>
       </c>
       <c r="C119" t="n">
-        <v>0.594425</v>
+        <v>0.586946</v>
       </c>
       <c r="D119" t="n">
-        <v>0.671166</v>
+        <v>0.6580780000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>0.234146</v>
+        <v>0.189617</v>
       </c>
       <c r="F119" t="n">
-        <v>0.603982</v>
+        <v>0.575153</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.211561</v>
+        <v>0.204911</v>
       </c>
       <c r="C120" t="n">
-        <v>0.593414</v>
+        <v>0.584661</v>
       </c>
       <c r="D120" t="n">
-        <v>0.665621</v>
+        <v>0.659457</v>
       </c>
       <c r="E120" t="n">
-        <v>0.23822</v>
+        <v>0.189797</v>
       </c>
       <c r="F120" t="n">
-        <v>0.598141</v>
+        <v>0.57491</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.201878</v>
+        <v>0.199797</v>
       </c>
       <c r="C121" t="n">
-        <v>0.604974</v>
+        <v>0.583463</v>
       </c>
       <c r="D121" t="n">
-        <v>0.679755</v>
+        <v>0.679631</v>
       </c>
       <c r="E121" t="n">
-        <v>0.233401</v>
+        <v>0.247022</v>
       </c>
       <c r="F121" t="n">
-        <v>0.598146</v>
+        <v>0.629588</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.194578</v>
+        <v>0.192785</v>
       </c>
       <c r="C122" t="n">
-        <v>0.598169</v>
+        <v>0.59156</v>
       </c>
       <c r="D122" t="n">
-        <v>0.68448</v>
+        <v>0.6791779999999999</v>
       </c>
       <c r="E122" t="n">
-        <v>0.233492</v>
+        <v>0.241017</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5886400000000001</v>
+        <v>0.618841</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.185528</v>
+        <v>0.184568</v>
       </c>
       <c r="C123" t="n">
-        <v>0.570898</v>
+        <v>0.588641</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6949340000000001</v>
+        <v>0.67265</v>
       </c>
       <c r="E123" t="n">
-        <v>0.259362</v>
+        <v>0.235539</v>
       </c>
       <c r="F123" t="n">
-        <v>0.61337</v>
+        <v>0.615599</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.254648</v>
+        <v>0.254258</v>
       </c>
       <c r="C124" t="n">
-        <v>0.636141</v>
+        <v>0.629295</v>
       </c>
       <c r="D124" t="n">
-        <v>0.680358</v>
+        <v>0.67142</v>
       </c>
       <c r="E124" t="n">
-        <v>0.258882</v>
+        <v>0.230871</v>
       </c>
       <c r="F124" t="n">
-        <v>0.610684</v>
+        <v>0.613946</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.251839</v>
+        <v>0.247776</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6226660000000001</v>
+        <v>0.617245</v>
       </c>
       <c r="D125" t="n">
-        <v>0.680704</v>
+        <v>0.674535</v>
       </c>
       <c r="E125" t="n">
-        <v>0.255546</v>
+        <v>0.226808</v>
       </c>
       <c r="F125" t="n">
-        <v>0.605113</v>
+        <v>0.607842</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.242387</v>
+        <v>0.242806</v>
       </c>
       <c r="C126" t="n">
-        <v>0.634567</v>
+        <v>0.63519</v>
       </c>
       <c r="D126" t="n">
-        <v>0.680735</v>
+        <v>0.6700159999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>0.251577</v>
+        <v>0.220244</v>
       </c>
       <c r="F126" t="n">
-        <v>0.600765</v>
+        <v>0.603842</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.242849</v>
+        <v>0.237291</v>
       </c>
       <c r="C127" t="n">
-        <v>0.618081</v>
+        <v>0.6089059999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>0.691886</v>
+        <v>0.676241</v>
       </c>
       <c r="E127" t="n">
-        <v>0.246577</v>
+        <v>0.215498</v>
       </c>
       <c r="F127" t="n">
-        <v>0.622382</v>
+        <v>0.600592</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.233936</v>
+        <v>0.234214</v>
       </c>
       <c r="C128" t="n">
-        <v>0.614682</v>
+        <v>0.609249</v>
       </c>
       <c r="D128" t="n">
-        <v>0.670955</v>
+        <v>0.671746</v>
       </c>
       <c r="E128" t="n">
-        <v>0.24417</v>
+        <v>0.212903</v>
       </c>
       <c r="F128" t="n">
-        <v>0.6135699999999999</v>
+        <v>0.594764</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.229353</v>
+        <v>0.22906</v>
       </c>
       <c r="C129" t="n">
-        <v>0.606521</v>
+        <v>0.600845</v>
       </c>
       <c r="D129" t="n">
-        <v>0.69126</v>
+        <v>0.672757</v>
       </c>
       <c r="E129" t="n">
-        <v>0.243368</v>
+        <v>0.206533</v>
       </c>
       <c r="F129" t="n">
-        <v>0.598317</v>
+        <v>0.593042</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.22889</v>
+        <v>0.223424</v>
       </c>
       <c r="C130" t="n">
-        <v>0.600898</v>
+        <v>0.608104</v>
       </c>
       <c r="D130" t="n">
-        <v>0.676358</v>
+        <v>0.674507</v>
       </c>
       <c r="E130" t="n">
-        <v>0.240256</v>
+        <v>0.204746</v>
       </c>
       <c r="F130" t="n">
-        <v>0.615058</v>
+        <v>0.586732</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.222344</v>
+        <v>0.219756</v>
       </c>
       <c r="C131" t="n">
-        <v>0.599149</v>
+        <v>0.592767</v>
       </c>
       <c r="D131" t="n">
-        <v>0.673817</v>
+        <v>0.668611</v>
       </c>
       <c r="E131" t="n">
-        <v>0.239699</v>
+        <v>0.199084</v>
       </c>
       <c r="F131" t="n">
-        <v>0.604209</v>
+        <v>0.58633</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.216092</v>
+        <v>0.214535</v>
       </c>
       <c r="C132" t="n">
-        <v>0.608037</v>
+        <v>0.589538</v>
       </c>
       <c r="D132" t="n">
-        <v>0.674291</v>
+        <v>0.670157</v>
       </c>
       <c r="E132" t="n">
-        <v>0.240083</v>
+        <v>0.196495</v>
       </c>
       <c r="F132" t="n">
-        <v>0.620332</v>
+        <v>0.58491</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.211815</v>
+        <v>0.209918</v>
       </c>
       <c r="C133" t="n">
-        <v>0.602393</v>
+        <v>0.583636</v>
       </c>
       <c r="D133" t="n">
-        <v>0.676982</v>
+        <v>0.665368</v>
       </c>
       <c r="E133" t="n">
-        <v>0.23656</v>
+        <v>0.190888</v>
       </c>
       <c r="F133" t="n">
-        <v>0.59063</v>
+        <v>0.580546</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.208618</v>
+        <v>0.206083</v>
       </c>
       <c r="C134" t="n">
-        <v>0.595857</v>
+        <v>0.582163</v>
       </c>
       <c r="D134" t="n">
-        <v>0.670806</v>
+        <v>0.661759</v>
       </c>
       <c r="E134" t="n">
-        <v>0.23341</v>
+        <v>0.18702</v>
       </c>
       <c r="F134" t="n">
-        <v>0.600784</v>
+        <v>0.576112</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.203184</v>
+        <v>0.200791</v>
       </c>
       <c r="C135" t="n">
-        <v>0.594724</v>
+        <v>0.578846</v>
       </c>
       <c r="D135" t="n">
-        <v>0.692034</v>
+        <v>0.681321</v>
       </c>
       <c r="E135" t="n">
-        <v>0.235273</v>
+        <v>0.248928</v>
       </c>
       <c r="F135" t="n">
-        <v>0.598038</v>
+        <v>0.628165</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.197081</v>
+        <v>0.195704</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5939410000000001</v>
+        <v>0.569271</v>
       </c>
       <c r="D136" t="n">
-        <v>0.678355</v>
+        <v>0.695272</v>
       </c>
       <c r="E136" t="n">
-        <v>0.230172</v>
+        <v>0.255638</v>
       </c>
       <c r="F136" t="n">
-        <v>0.592202</v>
+        <v>0.625439</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.189143</v>
+        <v>0.188191</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5879259999999999</v>
+        <v>0.570839</v>
       </c>
       <c r="D137" t="n">
-        <v>0.675551</v>
+        <v>0.679262</v>
       </c>
       <c r="E137" t="n">
-        <v>0.256278</v>
+        <v>0.238016</v>
       </c>
       <c r="F137" t="n">
-        <v>0.609789</v>
+        <v>0.622745</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.254161</v>
+        <v>0.25417</v>
       </c>
       <c r="C138" t="n">
-        <v>0.6491479999999999</v>
+        <v>0.625712</v>
       </c>
       <c r="D138" t="n">
-        <v>0.684105</v>
+        <v>0.678805</v>
       </c>
       <c r="E138" t="n">
-        <v>0.257477</v>
+        <v>0.231761</v>
       </c>
       <c r="F138" t="n">
-        <v>0.6062689999999999</v>
+        <v>0.613712</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.249572</v>
+        <v>0.248955</v>
       </c>
       <c r="C139" t="n">
-        <v>0.631453</v>
+        <v>0.617692</v>
       </c>
       <c r="D139" t="n">
-        <v>0.682023</v>
+        <v>0.674775</v>
       </c>
       <c r="E139" t="n">
-        <v>0.257066</v>
+        <v>0.226281</v>
       </c>
       <c r="F139" t="n">
-        <v>0.6126239999999999</v>
+        <v>0.6105969999999999</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.248399</v>
+        <v>0.244447</v>
       </c>
       <c r="C140" t="n">
-        <v>0.628578</v>
+        <v>0.623445</v>
       </c>
       <c r="D140" t="n">
-        <v>0.677464</v>
+        <v>0.679422</v>
       </c>
       <c r="E140" t="n">
-        <v>0.251196</v>
+        <v>0.223025</v>
       </c>
       <c r="F140" t="n">
-        <v>0.605647</v>
+        <v>0.603764</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.241361</v>
+        <v>0.238342</v>
       </c>
       <c r="C141" t="n">
-        <v>0.623031</v>
+        <v>0.610008</v>
       </c>
       <c r="D141" t="n">
-        <v>0.677887</v>
+        <v>0.674056</v>
       </c>
       <c r="E141" t="n">
-        <v>0.247795</v>
+        <v>0.21705</v>
       </c>
       <c r="F141" t="n">
-        <v>0.6047</v>
+        <v>0.60254</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.233741</v>
+        <v>0.233501</v>
       </c>
       <c r="C142" t="n">
-        <v>0.608831</v>
+        <v>0.6277199999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>0.679017</v>
+        <v>0.670137</v>
       </c>
       <c r="E142" t="n">
-        <v>0.245374</v>
+        <v>0.212276</v>
       </c>
       <c r="F142" t="n">
-        <v>0.597706</v>
+        <v>0.601735</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.232486</v>
+        <v>0.228752</v>
       </c>
       <c r="C143" t="n">
-        <v>0.605788</v>
+        <v>0.600573</v>
       </c>
       <c r="D143" t="n">
-        <v>0.671859</v>
+        <v>0.669019</v>
       </c>
       <c r="E143" t="n">
-        <v>0.242714</v>
+        <v>0.209202</v>
       </c>
       <c r="F143" t="n">
-        <v>0.605311</v>
+        <v>0.592782</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.193303</v>
+        <v>0.196971</v>
       </c>
       <c r="C2" t="n">
-        <v>0.445885</v>
+        <v>0.438073</v>
       </c>
       <c r="D2" t="n">
-        <v>0.502088</v>
+        <v>0.504495</v>
       </c>
       <c r="E2" t="n">
-        <v>0.213075</v>
+        <v>0.176417</v>
       </c>
       <c r="F2" t="n">
-        <v>0.453865</v>
+        <v>0.438508</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.187929</v>
+        <v>0.187177</v>
       </c>
       <c r="C3" t="n">
-        <v>0.445058</v>
+        <v>0.438562</v>
       </c>
       <c r="D3" t="n">
-        <v>0.520174</v>
+        <v>0.49895</v>
       </c>
       <c r="E3" t="n">
-        <v>0.213183</v>
+        <v>0.173596</v>
       </c>
       <c r="F3" t="n">
-        <v>0.455454</v>
+        <v>0.434133</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.18804</v>
+        <v>0.184692</v>
       </c>
       <c r="C4" t="n">
-        <v>0.438938</v>
+        <v>0.441892</v>
       </c>
       <c r="D4" t="n">
-        <v>0.51102</v>
+        <v>0.501887</v>
       </c>
       <c r="E4" t="n">
-        <v>0.212791</v>
+        <v>0.168762</v>
       </c>
       <c r="F4" t="n">
-        <v>0.45355</v>
+        <v>0.441392</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.186032</v>
+        <v>0.185516</v>
       </c>
       <c r="C5" t="n">
-        <v>0.440772</v>
+        <v>0.43084</v>
       </c>
       <c r="D5" t="n">
-        <v>0.503462</v>
+        <v>0.515598</v>
       </c>
       <c r="E5" t="n">
-        <v>0.212464</v>
+        <v>0.165885</v>
       </c>
       <c r="F5" t="n">
-        <v>0.460437</v>
+        <v>0.432901</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.184536</v>
+        <v>0.181654</v>
       </c>
       <c r="C6" t="n">
-        <v>0.43578</v>
+        <v>0.432514</v>
       </c>
       <c r="D6" t="n">
-        <v>0.503461</v>
+        <v>0.5004</v>
       </c>
       <c r="E6" t="n">
-        <v>0.213503</v>
+        <v>0.168868</v>
       </c>
       <c r="F6" t="n">
-        <v>0.451325</v>
+        <v>0.432697</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.181316</v>
+        <v>0.182465</v>
       </c>
       <c r="C7" t="n">
-        <v>0.430461</v>
+        <v>0.431955</v>
       </c>
       <c r="D7" t="n">
-        <v>0.528396</v>
+        <v>0.509284</v>
       </c>
       <c r="E7" t="n">
-        <v>0.211767</v>
+        <v>0.162168</v>
       </c>
       <c r="F7" t="n">
-        <v>0.450304</v>
+        <v>0.423047</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.177817</v>
+        <v>0.179931</v>
       </c>
       <c r="C8" t="n">
-        <v>0.424545</v>
+        <v>0.433541</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5345220000000001</v>
+        <v>0.513648</v>
       </c>
       <c r="E8" t="n">
-        <v>0.217107</v>
+        <v>0.159074</v>
       </c>
       <c r="F8" t="n">
-        <v>0.447175</v>
+        <v>0.42554</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.165777</v>
+        <v>0.172386</v>
       </c>
       <c r="C9" t="n">
-        <v>0.41604</v>
+        <v>0.419944</v>
       </c>
       <c r="D9" t="n">
-        <v>0.527308</v>
+        <v>0.511257</v>
       </c>
       <c r="E9" t="n">
-        <v>0.225396</v>
+        <v>0.211209</v>
       </c>
       <c r="F9" t="n">
-        <v>0.464692</v>
+        <v>0.472126</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.218667</v>
+        <v>0.22616</v>
       </c>
       <c r="C10" t="n">
-        <v>0.468425</v>
+        <v>0.467928</v>
       </c>
       <c r="D10" t="n">
-        <v>0.510342</v>
+        <v>0.5127</v>
       </c>
       <c r="E10" t="n">
-        <v>0.219877</v>
+        <v>0.204351</v>
       </c>
       <c r="F10" t="n">
-        <v>0.467203</v>
+        <v>0.458888</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.213842</v>
+        <v>0.213303</v>
       </c>
       <c r="C11" t="n">
-        <v>0.465418</v>
+        <v>0.463587</v>
       </c>
       <c r="D11" t="n">
-        <v>0.515406</v>
+        <v>0.509022</v>
       </c>
       <c r="E11" t="n">
-        <v>0.219925</v>
+        <v>0.199183</v>
       </c>
       <c r="F11" t="n">
-        <v>0.462703</v>
+        <v>0.45443</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.212804</v>
+        <v>0.217031</v>
       </c>
       <c r="C12" t="n">
-        <v>0.461039</v>
+        <v>0.463657</v>
       </c>
       <c r="D12" t="n">
-        <v>0.507154</v>
+        <v>0.511854</v>
       </c>
       <c r="E12" t="n">
-        <v>0.218886</v>
+        <v>0.19561</v>
       </c>
       <c r="F12" t="n">
-        <v>0.464132</v>
+        <v>0.455339</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.206851</v>
+        <v>0.210299</v>
       </c>
       <c r="C13" t="n">
-        <v>0.454522</v>
+        <v>0.4602</v>
       </c>
       <c r="D13" t="n">
-        <v>0.510278</v>
+        <v>0.50188</v>
       </c>
       <c r="E13" t="n">
-        <v>0.218692</v>
+        <v>0.19136</v>
       </c>
       <c r="F13" t="n">
-        <v>0.460611</v>
+        <v>0.451357</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.208024</v>
+        <v>0.208029</v>
       </c>
       <c r="C14" t="n">
-        <v>0.459953</v>
+        <v>0.445593</v>
       </c>
       <c r="D14" t="n">
-        <v>0.507615</v>
+        <v>0.5102139999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.219144</v>
+        <v>0.187867</v>
       </c>
       <c r="F14" t="n">
-        <v>0.45743</v>
+        <v>0.448601</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.202129</v>
+        <v>0.205651</v>
       </c>
       <c r="C15" t="n">
-        <v>0.450737</v>
+        <v>0.451053</v>
       </c>
       <c r="D15" t="n">
-        <v>0.514038</v>
+        <v>0.501937</v>
       </c>
       <c r="E15" t="n">
-        <v>0.22171</v>
+        <v>0.184353</v>
       </c>
       <c r="F15" t="n">
-        <v>0.457918</v>
+        <v>0.447202</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.203048</v>
+        <v>0.200101</v>
       </c>
       <c r="C16" t="n">
-        <v>0.448145</v>
+        <v>0.446763</v>
       </c>
       <c r="D16" t="n">
-        <v>0.504516</v>
+        <v>0.500165</v>
       </c>
       <c r="E16" t="n">
-        <v>0.218901</v>
+        <v>0.186657</v>
       </c>
       <c r="F16" t="n">
-        <v>0.459509</v>
+        <v>0.438847</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.197951</v>
+        <v>0.198461</v>
       </c>
       <c r="C17" t="n">
-        <v>0.44882</v>
+        <v>0.449994</v>
       </c>
       <c r="D17" t="n">
-        <v>0.502185</v>
+        <v>0.5237579999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.217354</v>
+        <v>0.179524</v>
       </c>
       <c r="F17" t="n">
-        <v>0.468204</v>
+        <v>0.451947</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.192303</v>
+        <v>0.196049</v>
       </c>
       <c r="C18" t="n">
-        <v>0.437952</v>
+        <v>0.451004</v>
       </c>
       <c r="D18" t="n">
-        <v>0.500797</v>
+        <v>0.50652</v>
       </c>
       <c r="E18" t="n">
-        <v>0.217688</v>
+        <v>0.180414</v>
       </c>
       <c r="F18" t="n">
-        <v>0.455244</v>
+        <v>0.443959</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.190017</v>
+        <v>0.198943</v>
       </c>
       <c r="C19" t="n">
-        <v>0.434114</v>
+        <v>0.440069</v>
       </c>
       <c r="D19" t="n">
-        <v>0.51256</v>
+        <v>0.505424</v>
       </c>
       <c r="E19" t="n">
-        <v>0.216535</v>
+        <v>0.173337</v>
       </c>
       <c r="F19" t="n">
-        <v>0.456402</v>
+        <v>0.439022</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188808</v>
+        <v>0.191788</v>
       </c>
       <c r="C20" t="n">
-        <v>0.437229</v>
+        <v>0.438361</v>
       </c>
       <c r="D20" t="n">
-        <v>0.511621</v>
+        <v>0.497549</v>
       </c>
       <c r="E20" t="n">
-        <v>0.220187</v>
+        <v>0.169323</v>
       </c>
       <c r="F20" t="n">
-        <v>0.459839</v>
+        <v>0.427716</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.184575</v>
+        <v>0.186199</v>
       </c>
       <c r="C21" t="n">
-        <v>0.428483</v>
+        <v>0.430596</v>
       </c>
       <c r="D21" t="n">
-        <v>0.514157</v>
+        <v>0.512772</v>
       </c>
       <c r="E21" t="n">
-        <v>0.215192</v>
+        <v>0.165204</v>
       </c>
       <c r="F21" t="n">
-        <v>0.45528</v>
+        <v>0.431611</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.179181</v>
+        <v>0.18405</v>
       </c>
       <c r="C22" t="n">
-        <v>0.42938</v>
+        <v>0.427835</v>
       </c>
       <c r="D22" t="n">
-        <v>0.514899</v>
+        <v>0.523784</v>
       </c>
       <c r="E22" t="n">
-        <v>0.218037</v>
+        <v>0.171421</v>
       </c>
       <c r="F22" t="n">
-        <v>0.450551</v>
+        <v>0.43072</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.171888</v>
+        <v>0.179461</v>
       </c>
       <c r="C23" t="n">
-        <v>0.418017</v>
+        <v>0.433514</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5139359999999999</v>
+        <v>0.520684</v>
       </c>
       <c r="E23" t="n">
-        <v>0.230022</v>
+        <v>0.215988</v>
       </c>
       <c r="F23" t="n">
-        <v>0.479144</v>
+        <v>0.479262</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.228966</v>
+        <v>0.23114</v>
       </c>
       <c r="C24" t="n">
-        <v>0.473149</v>
+        <v>0.465929</v>
       </c>
       <c r="D24" t="n">
-        <v>0.515633</v>
+        <v>0.520351</v>
       </c>
       <c r="E24" t="n">
-        <v>0.227731</v>
+        <v>0.213919</v>
       </c>
       <c r="F24" t="n">
-        <v>0.467815</v>
+        <v>0.464323</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.225897</v>
+        <v>0.224778</v>
       </c>
       <c r="C25" t="n">
-        <v>0.466378</v>
+        <v>0.465614</v>
       </c>
       <c r="D25" t="n">
-        <v>0.52122</v>
+        <v>0.5061099999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.228203</v>
+        <v>0.205183</v>
       </c>
       <c r="F25" t="n">
-        <v>0.466111</v>
+        <v>0.461013</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.224562</v>
+        <v>0.219093</v>
       </c>
       <c r="C26" t="n">
-        <v>0.471661</v>
+        <v>0.456649</v>
       </c>
       <c r="D26" t="n">
-        <v>0.51088</v>
+        <v>0.50701</v>
       </c>
       <c r="E26" t="n">
-        <v>0.227295</v>
+        <v>0.200471</v>
       </c>
       <c r="F26" t="n">
-        <v>0.461572</v>
+        <v>0.453377</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.219212</v>
+        <v>0.215719</v>
       </c>
       <c r="C27" t="n">
-        <v>0.467317</v>
+        <v>0.454957</v>
       </c>
       <c r="D27" t="n">
-        <v>0.516492</v>
+        <v>0.505988</v>
       </c>
       <c r="E27" t="n">
-        <v>0.225448</v>
+        <v>0.197926</v>
       </c>
       <c r="F27" t="n">
-        <v>0.46447</v>
+        <v>0.453638</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.214738</v>
+        <v>0.213953</v>
       </c>
       <c r="C28" t="n">
-        <v>0.459463</v>
+        <v>0.448428</v>
       </c>
       <c r="D28" t="n">
-        <v>0.505603</v>
+        <v>0.504188</v>
       </c>
       <c r="E28" t="n">
-        <v>0.229479</v>
+        <v>0.19377</v>
       </c>
       <c r="F28" t="n">
-        <v>0.467568</v>
+        <v>0.447758</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.211227</v>
+        <v>0.209238</v>
       </c>
       <c r="C29" t="n">
-        <v>0.45454</v>
+        <v>0.445</v>
       </c>
       <c r="D29" t="n">
-        <v>0.509274</v>
+        <v>0.50382</v>
       </c>
       <c r="E29" t="n">
-        <v>0.224383</v>
+        <v>0.190481</v>
       </c>
       <c r="F29" t="n">
-        <v>0.462145</v>
+        <v>0.447591</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.20763</v>
+        <v>0.207049</v>
       </c>
       <c r="C30" t="n">
-        <v>0.454171</v>
+        <v>0.442473</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5072140000000001</v>
+        <v>0.505502</v>
       </c>
       <c r="E30" t="n">
-        <v>0.224737</v>
+        <v>0.187031</v>
       </c>
       <c r="F30" t="n">
-        <v>0.459536</v>
+        <v>0.439698</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.203659</v>
+        <v>0.201552</v>
       </c>
       <c r="C31" t="n">
-        <v>0.44876</v>
+        <v>0.4406</v>
       </c>
       <c r="D31" t="n">
-        <v>0.505928</v>
+        <v>0.504301</v>
       </c>
       <c r="E31" t="n">
-        <v>0.222249</v>
+        <v>0.184041</v>
       </c>
       <c r="F31" t="n">
-        <v>0.462509</v>
+        <v>0.43862</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.201426</v>
+        <v>0.20157</v>
       </c>
       <c r="C32" t="n">
-        <v>0.446812</v>
+        <v>0.442439</v>
       </c>
       <c r="D32" t="n">
-        <v>0.518796</v>
+        <v>0.502916</v>
       </c>
       <c r="E32" t="n">
-        <v>0.222413</v>
+        <v>0.18027</v>
       </c>
       <c r="F32" t="n">
-        <v>0.462307</v>
+        <v>0.43628</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.198127</v>
+        <v>0.196191</v>
       </c>
       <c r="C33" t="n">
-        <v>0.442137</v>
+        <v>0.434557</v>
       </c>
       <c r="D33" t="n">
-        <v>0.504114</v>
+        <v>0.502499</v>
       </c>
       <c r="E33" t="n">
-        <v>0.220517</v>
+        <v>0.177443</v>
       </c>
       <c r="F33" t="n">
-        <v>0.459658</v>
+        <v>0.433314</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.193882</v>
+        <v>0.195572</v>
       </c>
       <c r="C34" t="n">
-        <v>0.438256</v>
+        <v>0.433735</v>
       </c>
       <c r="D34" t="n">
-        <v>0.508948</v>
+        <v>0.501074</v>
       </c>
       <c r="E34" t="n">
-        <v>0.222681</v>
+        <v>0.173422</v>
       </c>
       <c r="F34" t="n">
-        <v>0.462506</v>
+        <v>0.42959</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.191174</v>
+        <v>0.191614</v>
       </c>
       <c r="C35" t="n">
-        <v>0.443907</v>
+        <v>0.433895</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5264450000000001</v>
+        <v>0.530065</v>
       </c>
       <c r="E35" t="n">
-        <v>0.21939</v>
+        <v>0.170293</v>
       </c>
       <c r="F35" t="n">
-        <v>0.459153</v>
+        <v>0.425989</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.190043</v>
+        <v>0.187128</v>
       </c>
       <c r="C36" t="n">
-        <v>0.43195</v>
+        <v>0.429308</v>
       </c>
       <c r="D36" t="n">
-        <v>0.536184</v>
+        <v>0.521998</v>
       </c>
       <c r="E36" t="n">
-        <v>0.219222</v>
+        <v>0.167134</v>
       </c>
       <c r="F36" t="n">
-        <v>0.456652</v>
+        <v>0.426052</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.178253</v>
+        <v>0.181915</v>
       </c>
       <c r="C37" t="n">
-        <v>0.426147</v>
+        <v>0.426771</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5303369999999999</v>
+        <v>0.524421</v>
       </c>
       <c r="E37" t="n">
-        <v>0.245325</v>
+        <v>0.229701</v>
       </c>
       <c r="F37" t="n">
-        <v>0.475562</v>
+        <v>0.472216</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2313</v>
+        <v>0.233202</v>
       </c>
       <c r="C38" t="n">
-        <v>0.491762</v>
+        <v>0.472846</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5252289999999999</v>
+        <v>0.528313</v>
       </c>
       <c r="E38" t="n">
-        <v>0.243298</v>
+        <v>0.224081</v>
       </c>
       <c r="F38" t="n">
-        <v>0.479484</v>
+        <v>0.470644</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.232037</v>
+        <v>0.230029</v>
       </c>
       <c r="C39" t="n">
-        <v>0.483431</v>
+        <v>0.468908</v>
       </c>
       <c r="D39" t="n">
-        <v>0.524735</v>
+        <v>0.523689</v>
       </c>
       <c r="E39" t="n">
-        <v>0.240199</v>
+        <v>0.220602</v>
       </c>
       <c r="F39" t="n">
-        <v>0.47691</v>
+        <v>0.467009</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.2281</v>
+        <v>0.23043</v>
       </c>
       <c r="C40" t="n">
-        <v>0.47562</v>
+        <v>0.463832</v>
       </c>
       <c r="D40" t="n">
-        <v>0.533738</v>
+        <v>0.5179319999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>0.237676</v>
+        <v>0.214013</v>
       </c>
       <c r="F40" t="n">
-        <v>0.479051</v>
+        <v>0.457585</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.223237</v>
+        <v>0.221788</v>
       </c>
       <c r="C41" t="n">
-        <v>0.490912</v>
+        <v>0.468106</v>
       </c>
       <c r="D41" t="n">
-        <v>0.533641</v>
+        <v>0.52094</v>
       </c>
       <c r="E41" t="n">
-        <v>0.238535</v>
+        <v>0.209751</v>
       </c>
       <c r="F41" t="n">
-        <v>0.48006</v>
+        <v>0.475524</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.217086</v>
+        <v>0.217931</v>
       </c>
       <c r="C42" t="n">
-        <v>0.487205</v>
+        <v>0.490906</v>
       </c>
       <c r="D42" t="n">
-        <v>0.531945</v>
+        <v>0.5160090000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>0.237954</v>
+        <v>0.205426</v>
       </c>
       <c r="F42" t="n">
-        <v>0.486848</v>
+        <v>0.47794</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.217403</v>
+        <v>0.214076</v>
       </c>
       <c r="C43" t="n">
-        <v>0.486205</v>
+        <v>0.459922</v>
       </c>
       <c r="D43" t="n">
-        <v>0.531617</v>
+        <v>0.527548</v>
       </c>
       <c r="E43" t="n">
-        <v>0.233007</v>
+        <v>0.201613</v>
       </c>
       <c r="F43" t="n">
-        <v>0.486256</v>
+        <v>0.455866</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.211039</v>
+        <v>0.210753</v>
       </c>
       <c r="C44" t="n">
-        <v>0.490175</v>
+        <v>0.457491</v>
       </c>
       <c r="D44" t="n">
-        <v>0.541611</v>
+        <v>0.520408</v>
       </c>
       <c r="E44" t="n">
-        <v>0.231851</v>
+        <v>0.197226</v>
       </c>
       <c r="F44" t="n">
-        <v>0.471556</v>
+        <v>0.455361</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.208637</v>
+        <v>0.20574</v>
       </c>
       <c r="C45" t="n">
-        <v>0.45786</v>
+        <v>0.450207</v>
       </c>
       <c r="D45" t="n">
-        <v>0.524585</v>
+        <v>0.527881</v>
       </c>
       <c r="E45" t="n">
-        <v>0.232173</v>
+        <v>0.194874</v>
       </c>
       <c r="F45" t="n">
-        <v>0.477299</v>
+        <v>0.446697</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.204804</v>
+        <v>0.202921</v>
       </c>
       <c r="C46" t="n">
-        <v>0.489485</v>
+        <v>0.45135</v>
       </c>
       <c r="D46" t="n">
-        <v>0.545539</v>
+        <v>0.530775</v>
       </c>
       <c r="E46" t="n">
-        <v>0.228991</v>
+        <v>0.188651</v>
       </c>
       <c r="F46" t="n">
-        <v>0.493181</v>
+        <v>0.445706</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.202397</v>
+        <v>0.200017</v>
       </c>
       <c r="C47" t="n">
-        <v>0.495517</v>
+        <v>0.445194</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5509039999999999</v>
+        <v>0.528242</v>
       </c>
       <c r="E47" t="n">
-        <v>0.227468</v>
+        <v>0.186177</v>
       </c>
       <c r="F47" t="n">
-        <v>0.492018</v>
+        <v>0.441695</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.199111</v>
+        <v>0.197312</v>
       </c>
       <c r="C48" t="n">
-        <v>0.492032</v>
+        <v>0.450567</v>
       </c>
       <c r="D48" t="n">
-        <v>0.53176</v>
+        <v>0.529067</v>
       </c>
       <c r="E48" t="n">
-        <v>0.229064</v>
+        <v>0.181895</v>
       </c>
       <c r="F48" t="n">
-        <v>0.476889</v>
+        <v>0.443877</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.195274</v>
+        <v>0.192922</v>
       </c>
       <c r="C49" t="n">
-        <v>0.450862</v>
+        <v>0.442806</v>
       </c>
       <c r="D49" t="n">
-        <v>0.528308</v>
+        <v>0.546752</v>
       </c>
       <c r="E49" t="n">
-        <v>0.226997</v>
+        <v>0.178529</v>
       </c>
       <c r="F49" t="n">
-        <v>0.477905</v>
+        <v>0.443574</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.190205</v>
+        <v>0.18937</v>
       </c>
       <c r="C50" t="n">
-        <v>0.451824</v>
+        <v>0.443341</v>
       </c>
       <c r="D50" t="n">
-        <v>0.629838</v>
+        <v>0.634669</v>
       </c>
       <c r="E50" t="n">
-        <v>0.226054</v>
+        <v>0.175522</v>
       </c>
       <c r="F50" t="n">
-        <v>0.473542</v>
+        <v>0.478302</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.184926</v>
+        <v>0.187602</v>
       </c>
       <c r="C51" t="n">
-        <v>0.451025</v>
+        <v>0.492247</v>
       </c>
       <c r="D51" t="n">
-        <v>0.63486</v>
+        <v>0.633594</v>
       </c>
       <c r="E51" t="n">
-        <v>0.248308</v>
+        <v>0.231274</v>
       </c>
       <c r="F51" t="n">
-        <v>0.497258</v>
+        <v>0.510999</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176301</v>
+        <v>0.178027</v>
       </c>
       <c r="C52" t="n">
-        <v>0.447357</v>
+        <v>0.462553</v>
       </c>
       <c r="D52" t="n">
-        <v>0.612456</v>
+        <v>0.636121</v>
       </c>
       <c r="E52" t="n">
-        <v>0.242786</v>
+        <v>0.226027</v>
       </c>
       <c r="F52" t="n">
-        <v>0.503227</v>
+        <v>0.488365</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.236178</v>
+        <v>0.237977</v>
       </c>
       <c r="C53" t="n">
-        <v>0.505607</v>
+        <v>0.501627</v>
       </c>
       <c r="D53" t="n">
-        <v>0.615619</v>
+        <v>0.624861</v>
       </c>
       <c r="E53" t="n">
-        <v>0.241363</v>
+        <v>0.222128</v>
       </c>
       <c r="F53" t="n">
-        <v>0.498774</v>
+        <v>0.492696</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.232917</v>
+        <v>0.233475</v>
       </c>
       <c r="C54" t="n">
-        <v>0.510305</v>
+        <v>0.498002</v>
       </c>
       <c r="D54" t="n">
-        <v>0.614368</v>
+        <v>0.624302</v>
       </c>
       <c r="E54" t="n">
-        <v>0.24048</v>
+        <v>0.215404</v>
       </c>
       <c r="F54" t="n">
-        <v>0.500407</v>
+        <v>0.483545</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.230253</v>
+        <v>0.228508</v>
       </c>
       <c r="C55" t="n">
-        <v>0.509364</v>
+        <v>0.501362</v>
       </c>
       <c r="D55" t="n">
-        <v>0.610923</v>
+        <v>0.62614</v>
       </c>
       <c r="E55" t="n">
-        <v>0.242031</v>
+        <v>0.211878</v>
       </c>
       <c r="F55" t="n">
-        <v>0.501968</v>
+        <v>0.484431</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.226455</v>
+        <v>0.22678</v>
       </c>
       <c r="C56" t="n">
-        <v>0.51114</v>
+        <v>0.5031639999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.625769</v>
+        <v>0.61977</v>
       </c>
       <c r="E56" t="n">
-        <v>0.236699</v>
+        <v>0.208104</v>
       </c>
       <c r="F56" t="n">
-        <v>0.502417</v>
+        <v>0.48749</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.220763</v>
+        <v>0.220532</v>
       </c>
       <c r="C57" t="n">
-        <v>0.508063</v>
+        <v>0.496046</v>
       </c>
       <c r="D57" t="n">
-        <v>0.616893</v>
+        <v>0.615494</v>
       </c>
       <c r="E57" t="n">
-        <v>0.234679</v>
+        <v>0.20243</v>
       </c>
       <c r="F57" t="n">
-        <v>0.505284</v>
+        <v>0.499281</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.219688</v>
+        <v>0.216358</v>
       </c>
       <c r="C58" t="n">
-        <v>0.511683</v>
+        <v>0.500668</v>
       </c>
       <c r="D58" t="n">
-        <v>0.615662</v>
+        <v>0.615954</v>
       </c>
       <c r="E58" t="n">
-        <v>0.23229</v>
+        <v>0.19858</v>
       </c>
       <c r="F58" t="n">
-        <v>0.515467</v>
+        <v>0.489608</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.212186</v>
+        <v>0.213698</v>
       </c>
       <c r="C59" t="n">
-        <v>0.519802</v>
+        <v>0.497811</v>
       </c>
       <c r="D59" t="n">
-        <v>0.615344</v>
+        <v>0.619444</v>
       </c>
       <c r="E59" t="n">
-        <v>0.230728</v>
+        <v>0.197723</v>
       </c>
       <c r="F59" t="n">
-        <v>0.518903</v>
+        <v>0.484847</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.208527</v>
+        <v>0.208323</v>
       </c>
       <c r="C60" t="n">
-        <v>0.561097</v>
+        <v>0.501198</v>
       </c>
       <c r="D60" t="n">
-        <v>0.634233</v>
+        <v>0.617463</v>
       </c>
       <c r="E60" t="n">
-        <v>0.232625</v>
+        <v>0.19038</v>
       </c>
       <c r="F60" t="n">
-        <v>0.515711</v>
+        <v>0.492581</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.206192</v>
+        <v>0.203932</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5184299999999999</v>
+        <v>0.513803</v>
       </c>
       <c r="D61" t="n">
-        <v>0.611652</v>
+        <v>0.618356</v>
       </c>
       <c r="E61" t="n">
-        <v>0.22905</v>
+        <v>0.187463</v>
       </c>
       <c r="F61" t="n">
-        <v>0.519302</v>
+        <v>0.491954</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.20281</v>
+        <v>0.2014</v>
       </c>
       <c r="C62" t="n">
-        <v>0.519795</v>
+        <v>0.509013</v>
       </c>
       <c r="D62" t="n">
-        <v>0.636753</v>
+        <v>0.614073</v>
       </c>
       <c r="E62" t="n">
-        <v>0.230063</v>
+        <v>0.186181</v>
       </c>
       <c r="F62" t="n">
-        <v>0.541574</v>
+        <v>0.493697</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.197891</v>
+        <v>0.199448</v>
       </c>
       <c r="C63" t="n">
-        <v>0.550307</v>
+        <v>0.511097</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6226</v>
+        <v>0.624717</v>
       </c>
       <c r="E63" t="n">
-        <v>0.226304</v>
+        <v>0.180351</v>
       </c>
       <c r="F63" t="n">
-        <v>0.565802</v>
+        <v>0.490789</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.194223</v>
+        <v>0.194707</v>
       </c>
       <c r="C64" t="n">
-        <v>0.552767</v>
+        <v>0.5126500000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7098680000000001</v>
+        <v>0.7263269999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>0.225114</v>
+        <v>0.177192</v>
       </c>
       <c r="F64" t="n">
-        <v>0.540831</v>
+        <v>0.498038</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.19021</v>
+        <v>0.189935</v>
       </c>
       <c r="C65" t="n">
-        <v>0.516854</v>
+        <v>0.509985</v>
       </c>
       <c r="D65" t="n">
-        <v>0.706962</v>
+        <v>0.723367</v>
       </c>
       <c r="E65" t="n">
-        <v>0.224861</v>
+        <v>0.174276</v>
       </c>
       <c r="F65" t="n">
-        <v>0.533084</v>
+        <v>0.497154</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.180424</v>
+        <v>0.183558</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5149629999999999</v>
+        <v>0.5285879999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.705221</v>
+        <v>0.716333</v>
       </c>
       <c r="E66" t="n">
-        <v>0.249499</v>
+        <v>0.230134</v>
       </c>
       <c r="F66" t="n">
-        <v>0.567754</v>
+        <v>0.55545</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.243929</v>
+        <v>0.24777</v>
       </c>
       <c r="C67" t="n">
-        <v>0.60668</v>
+        <v>0.596793</v>
       </c>
       <c r="D67" t="n">
-        <v>0.736026</v>
+        <v>0.715328</v>
       </c>
       <c r="E67" t="n">
-        <v>0.25952</v>
+        <v>0.225631</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5845900000000001</v>
+        <v>0.561677</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.247202</v>
+        <v>0.246116</v>
       </c>
       <c r="C68" t="n">
-        <v>0.593688</v>
+        <v>0.576947</v>
       </c>
       <c r="D68" t="n">
-        <v>0.697196</v>
+        <v>0.697817</v>
       </c>
       <c r="E68" t="n">
-        <v>0.244992</v>
+        <v>0.219464</v>
       </c>
       <c r="F68" t="n">
-        <v>0.5760110000000001</v>
+        <v>0.564948</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.237221</v>
+        <v>0.235835</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5988</v>
+        <v>0.582658</v>
       </c>
       <c r="D69" t="n">
-        <v>0.697295</v>
+        <v>0.697919</v>
       </c>
       <c r="E69" t="n">
-        <v>0.241647</v>
+        <v>0.217781</v>
       </c>
       <c r="F69" t="n">
-        <v>0.5796829999999999</v>
+        <v>0.567689</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.237206</v>
+        <v>0.230901</v>
       </c>
       <c r="C70" t="n">
-        <v>0.596579</v>
+        <v>0.577009</v>
       </c>
       <c r="D70" t="n">
-        <v>0.688254</v>
+        <v>0.692825</v>
       </c>
       <c r="E70" t="n">
-        <v>0.242283</v>
+        <v>0.213275</v>
       </c>
       <c r="F70" t="n">
-        <v>0.575886</v>
+        <v>0.556898</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.229881</v>
+        <v>0.225503</v>
       </c>
       <c r="C71" t="n">
-        <v>0.582307</v>
+        <v>0.585713</v>
       </c>
       <c r="D71" t="n">
-        <v>0.681801</v>
+        <v>0.689876</v>
       </c>
       <c r="E71" t="n">
-        <v>0.237585</v>
+        <v>0.206384</v>
       </c>
       <c r="F71" t="n">
-        <v>0.5654169999999999</v>
+        <v>0.546776</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.22657</v>
+        <v>0.222008</v>
       </c>
       <c r="C72" t="n">
-        <v>0.586223</v>
+        <v>0.573006</v>
       </c>
       <c r="D72" t="n">
-        <v>0.676746</v>
+        <v>0.690628</v>
       </c>
       <c r="E72" t="n">
-        <v>0.237348</v>
+        <v>0.202021</v>
       </c>
       <c r="F72" t="n">
-        <v>0.571043</v>
+        <v>0.541285</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219034</v>
+        <v>0.221914</v>
       </c>
       <c r="C73" t="n">
-        <v>0.585172</v>
+        <v>0.566906</v>
       </c>
       <c r="D73" t="n">
-        <v>0.685338</v>
+        <v>0.684416</v>
       </c>
       <c r="E73" t="n">
-        <v>0.235605</v>
+        <v>0.19777</v>
       </c>
       <c r="F73" t="n">
-        <v>0.5651929999999999</v>
+        <v>0.539614</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.218463</v>
+        <v>0.216601</v>
       </c>
       <c r="C74" t="n">
-        <v>0.573187</v>
+        <v>0.5621699999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.671752</v>
+        <v>0.682144</v>
       </c>
       <c r="E74" t="n">
-        <v>0.235379</v>
+        <v>0.194524</v>
       </c>
       <c r="F74" t="n">
-        <v>0.565111</v>
+        <v>0.540031</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.215246</v>
+        <v>0.213028</v>
       </c>
       <c r="C75" t="n">
-        <v>0.567797</v>
+        <v>0.562787</v>
       </c>
       <c r="D75" t="n">
-        <v>0.67988</v>
+        <v>0.675972</v>
       </c>
       <c r="E75" t="n">
-        <v>0.232484</v>
+        <v>0.192608</v>
       </c>
       <c r="F75" t="n">
-        <v>0.569844</v>
+        <v>0.542296</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.209634</v>
+        <v>0.207895</v>
       </c>
       <c r="C76" t="n">
-        <v>0.566651</v>
+        <v>0.5678299999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.668633</v>
+        <v>0.682415</v>
       </c>
       <c r="E76" t="n">
-        <v>0.231027</v>
+        <v>0.188309</v>
       </c>
       <c r="F76" t="n">
-        <v>0.565844</v>
+        <v>0.543637</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.203043</v>
+        <v>0.206002</v>
       </c>
       <c r="C77" t="n">
-        <v>0.564113</v>
+        <v>0.555043</v>
       </c>
       <c r="D77" t="n">
-        <v>0.665477</v>
+        <v>0.685191</v>
       </c>
       <c r="E77" t="n">
-        <v>0.228757</v>
+        <v>0.184803</v>
       </c>
       <c r="F77" t="n">
-        <v>0.569343</v>
+        <v>0.541387</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.200932</v>
+        <v>0.206498</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5596139999999999</v>
+        <v>0.560634</v>
       </c>
       <c r="D78" t="n">
-        <v>0.750302</v>
+        <v>0.787343</v>
       </c>
       <c r="E78" t="n">
-        <v>0.229899</v>
+        <v>0.181</v>
       </c>
       <c r="F78" t="n">
-        <v>0.558918</v>
+        <v>0.534045</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.192811</v>
+        <v>0.197068</v>
       </c>
       <c r="C79" t="n">
-        <v>0.556984</v>
+        <v>0.565291</v>
       </c>
       <c r="D79" t="n">
-        <v>0.755697</v>
+        <v>0.766008</v>
       </c>
       <c r="E79" t="n">
-        <v>0.226477</v>
+        <v>0.176229</v>
       </c>
       <c r="F79" t="n">
-        <v>0.559045</v>
+        <v>0.52481</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.186965</v>
+        <v>0.193846</v>
       </c>
       <c r="C80" t="n">
-        <v>0.541069</v>
+        <v>0.5429580000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.748468</v>
+        <v>0.747943</v>
       </c>
       <c r="E80" t="n">
-        <v>0.253173</v>
+        <v>0.236483</v>
       </c>
       <c r="F80" t="n">
-        <v>0.581425</v>
+        <v>0.5723</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.253198</v>
+        <v>0.25151</v>
       </c>
       <c r="C81" t="n">
-        <v>0.605168</v>
+        <v>0.603497</v>
       </c>
       <c r="D81" t="n">
-        <v>0.739505</v>
+        <v>0.748815</v>
       </c>
       <c r="E81" t="n">
-        <v>0.251068</v>
+        <v>0.231648</v>
       </c>
       <c r="F81" t="n">
-        <v>0.5796750000000001</v>
+        <v>0.568623</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.251356</v>
+        <v>0.2483</v>
       </c>
       <c r="C82" t="n">
-        <v>0.610282</v>
+        <v>0.593471</v>
       </c>
       <c r="D82" t="n">
-        <v>0.732973</v>
+        <v>0.735336</v>
       </c>
       <c r="E82" t="n">
-        <v>0.250497</v>
+        <v>0.226854</v>
       </c>
       <c r="F82" t="n">
-        <v>0.579296</v>
+        <v>0.566245</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.243681</v>
+        <v>0.242061</v>
       </c>
       <c r="C83" t="n">
-        <v>0.60031</v>
+        <v>0.600799</v>
       </c>
       <c r="D83" t="n">
-        <v>0.730416</v>
+        <v>0.732158</v>
       </c>
       <c r="E83" t="n">
-        <v>0.247501</v>
+        <v>0.222726</v>
       </c>
       <c r="F83" t="n">
-        <v>0.580867</v>
+        <v>0.558688</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.237739</v>
+        <v>0.23768</v>
       </c>
       <c r="C84" t="n">
-        <v>0.623648</v>
+        <v>0.628538</v>
       </c>
       <c r="D84" t="n">
-        <v>0.755423</v>
+        <v>0.749978</v>
       </c>
       <c r="E84" t="n">
-        <v>0.245733</v>
+        <v>0.219195</v>
       </c>
       <c r="F84" t="n">
-        <v>0.6050450000000001</v>
+        <v>0.59588</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.235623</v>
+        <v>0.232484</v>
       </c>
       <c r="C85" t="n">
-        <v>0.626004</v>
+        <v>0.6155620000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.753649</v>
+        <v>0.748745</v>
       </c>
       <c r="E85" t="n">
-        <v>0.244769</v>
+        <v>0.213883</v>
       </c>
       <c r="F85" t="n">
-        <v>0.599638</v>
+        <v>0.5952190000000001</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.229193</v>
+        <v>0.228785</v>
       </c>
       <c r="C86" t="n">
-        <v>0.616887</v>
+        <v>0.613085</v>
       </c>
       <c r="D86" t="n">
-        <v>0.747676</v>
+        <v>0.738305</v>
       </c>
       <c r="E86" t="n">
-        <v>0.241041</v>
+        <v>0.209646</v>
       </c>
       <c r="F86" t="n">
-        <v>0.595853</v>
+        <v>0.5902809999999999</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.225504</v>
+        <v>0.224105</v>
       </c>
       <c r="C87" t="n">
-        <v>0.618201</v>
+        <v>0.610498</v>
       </c>
       <c r="D87" t="n">
-        <v>0.7346819999999999</v>
+        <v>0.74315</v>
       </c>
       <c r="E87" t="n">
-        <v>0.239051</v>
+        <v>0.207337</v>
       </c>
       <c r="F87" t="n">
-        <v>0.597356</v>
+        <v>0.583592</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.220624</v>
+        <v>0.218602</v>
       </c>
       <c r="C88" t="n">
-        <v>0.611054</v>
+        <v>0.602973</v>
       </c>
       <c r="D88" t="n">
-        <v>0.726339</v>
+        <v>0.732086</v>
       </c>
       <c r="E88" t="n">
-        <v>0.237441</v>
+        <v>0.200242</v>
       </c>
       <c r="F88" t="n">
-        <v>0.590076</v>
+        <v>0.581407</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.216257</v>
+        <v>0.21472</v>
       </c>
       <c r="C89" t="n">
-        <v>0.606171</v>
+        <v>0.600413</v>
       </c>
       <c r="D89" t="n">
-        <v>0.726371</v>
+        <v>0.724531</v>
       </c>
       <c r="E89" t="n">
-        <v>0.236502</v>
+        <v>0.196631</v>
       </c>
       <c r="F89" t="n">
-        <v>0.58931</v>
+        <v>0.577565</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.213278</v>
+        <v>0.212816</v>
       </c>
       <c r="C90" t="n">
-        <v>0.60401</v>
+        <v>0.600844</v>
       </c>
       <c r="D90" t="n">
-        <v>0.725015</v>
+        <v>0.724171</v>
       </c>
       <c r="E90" t="n">
-        <v>0.235357</v>
+        <v>0.192163</v>
       </c>
       <c r="F90" t="n">
-        <v>0.587148</v>
+        <v>0.606134</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.207722</v>
+        <v>0.212032</v>
       </c>
       <c r="C91" t="n">
-        <v>0.60133</v>
+        <v>0.5939950000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>0.716772</v>
+        <v>0.720905</v>
       </c>
       <c r="E91" t="n">
-        <v>0.237898</v>
+        <v>0.188536</v>
       </c>
       <c r="F91" t="n">
-        <v>0.586246</v>
+        <v>0.5754629999999999</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.203195</v>
+        <v>0.204194</v>
       </c>
       <c r="C92" t="n">
-        <v>0.602743</v>
+        <v>0.592788</v>
       </c>
       <c r="D92" t="n">
-        <v>0.679016</v>
+        <v>0.674044</v>
       </c>
       <c r="E92" t="n">
-        <v>0.235376</v>
+        <v>0.187224</v>
       </c>
       <c r="F92" t="n">
-        <v>0.586198</v>
+        <v>0.5718760000000001</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.197942</v>
+        <v>0.200068</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5948329999999999</v>
+        <v>0.592823</v>
       </c>
       <c r="D93" t="n">
-        <v>0.673122</v>
+        <v>0.667941</v>
       </c>
       <c r="E93" t="n">
-        <v>0.229654</v>
+        <v>0.181219</v>
       </c>
       <c r="F93" t="n">
-        <v>0.595157</v>
+        <v>0.56691</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.189972</v>
+        <v>0.193149</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5904740000000001</v>
+        <v>0.589107</v>
       </c>
       <c r="D94" t="n">
-        <v>0.67264</v>
+        <v>0.666222</v>
       </c>
       <c r="E94" t="n">
-        <v>0.256097</v>
+        <v>0.2422</v>
       </c>
       <c r="F94" t="n">
-        <v>0.608402</v>
+        <v>0.617368</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.255116</v>
+        <v>0.253643</v>
       </c>
       <c r="C95" t="n">
-        <v>0.635875</v>
+        <v>0.621928</v>
       </c>
       <c r="D95" t="n">
-        <v>0.665049</v>
+        <v>0.664152</v>
       </c>
       <c r="E95" t="n">
-        <v>0.253137</v>
+        <v>0.235407</v>
       </c>
       <c r="F95" t="n">
-        <v>0.602836</v>
+        <v>0.613185</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.251195</v>
+        <v>0.249579</v>
       </c>
       <c r="C96" t="n">
-        <v>0.635278</v>
+        <v>0.617912</v>
       </c>
       <c r="D96" t="n">
-        <v>0.676522</v>
+        <v>0.663698</v>
       </c>
       <c r="E96" t="n">
-        <v>0.251124</v>
+        <v>0.230228</v>
       </c>
       <c r="F96" t="n">
-        <v>0.601179</v>
+        <v>0.608747</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.246008</v>
+        <v>0.2438</v>
       </c>
       <c r="C97" t="n">
-        <v>0.627453</v>
+        <v>0.618167</v>
       </c>
       <c r="D97" t="n">
-        <v>0.671372</v>
+        <v>0.661799</v>
       </c>
       <c r="E97" t="n">
-        <v>0.248426</v>
+        <v>0.224501</v>
       </c>
       <c r="F97" t="n">
-        <v>0.599329</v>
+        <v>0.604867</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.240471</v>
+        <v>0.241038</v>
       </c>
       <c r="C98" t="n">
-        <v>0.622116</v>
+        <v>0.611502</v>
       </c>
       <c r="D98" t="n">
-        <v>0.666358</v>
+        <v>0.664333</v>
       </c>
       <c r="E98" t="n">
-        <v>0.248065</v>
+        <v>0.221542</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5980259999999999</v>
+        <v>0.602972</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.237652</v>
+        <v>0.23742</v>
       </c>
       <c r="C99" t="n">
-        <v>0.61842</v>
+        <v>0.603673</v>
       </c>
       <c r="D99" t="n">
-        <v>0.665608</v>
+        <v>0.66611</v>
       </c>
       <c r="E99" t="n">
-        <v>0.24528</v>
+        <v>0.220546</v>
       </c>
       <c r="F99" t="n">
-        <v>0.597796</v>
+        <v>0.595321</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.23059</v>
+        <v>0.228554</v>
       </c>
       <c r="C100" t="n">
-        <v>0.615676</v>
+        <v>0.5965200000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.670731</v>
+        <v>0.657355</v>
       </c>
       <c r="E100" t="n">
-        <v>0.24604</v>
+        <v>0.213312</v>
       </c>
       <c r="F100" t="n">
-        <v>0.59191</v>
+        <v>0.590132</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.226234</v>
+        <v>0.224015</v>
       </c>
       <c r="C101" t="n">
-        <v>0.612492</v>
+        <v>0.595206</v>
       </c>
       <c r="D101" t="n">
-        <v>0.664169</v>
+        <v>0.659304</v>
       </c>
       <c r="E101" t="n">
-        <v>0.24458</v>
+        <v>0.209993</v>
       </c>
       <c r="F101" t="n">
-        <v>0.59327</v>
+        <v>0.588364</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.223193</v>
+        <v>0.219679</v>
       </c>
       <c r="C102" t="n">
-        <v>0.609789</v>
+        <v>0.588885</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6624139999999999</v>
+        <v>0.656208</v>
       </c>
       <c r="E102" t="n">
-        <v>0.240249</v>
+        <v>0.204445</v>
       </c>
       <c r="F102" t="n">
-        <v>0.591063</v>
+        <v>0.582109</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.219358</v>
+        <v>0.215556</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5948639999999999</v>
+        <v>0.585884</v>
       </c>
       <c r="D103" t="n">
-        <v>0.666404</v>
+        <v>0.655848</v>
       </c>
       <c r="E103" t="n">
-        <v>0.236795</v>
+        <v>0.197422</v>
       </c>
       <c r="F103" t="n">
-        <v>0.5923119999999999</v>
+        <v>0.579569</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.216081</v>
+        <v>0.212156</v>
       </c>
       <c r="C104" t="n">
-        <v>0.593811</v>
+        <v>0.584777</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6586689999999999</v>
+        <v>0.664544</v>
       </c>
       <c r="E104" t="n">
-        <v>0.235219</v>
+        <v>0.19328</v>
       </c>
       <c r="F104" t="n">
-        <v>0.592689</v>
+        <v>0.574674</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.209794</v>
+        <v>0.208321</v>
       </c>
       <c r="C105" t="n">
-        <v>0.592858</v>
+        <v>0.580002</v>
       </c>
       <c r="D105" t="n">
-        <v>0.662234</v>
+        <v>0.668641</v>
       </c>
       <c r="E105" t="n">
-        <v>0.233333</v>
+        <v>0.19017</v>
       </c>
       <c r="F105" t="n">
-        <v>0.588006</v>
+        <v>0.580232</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.204541</v>
+        <v>0.204795</v>
       </c>
       <c r="C106" t="n">
-        <v>0.589836</v>
+        <v>0.580498</v>
       </c>
       <c r="D106" t="n">
-        <v>0.65883</v>
+        <v>0.659349</v>
       </c>
       <c r="E106" t="n">
-        <v>0.233378</v>
+        <v>0.185607</v>
       </c>
       <c r="F106" t="n">
-        <v>0.589249</v>
+        <v>0.568002</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.200958</v>
+        <v>0.199883</v>
       </c>
       <c r="C107" t="n">
-        <v>0.583777</v>
+        <v>0.574829</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6702</v>
+        <v>0.662187</v>
       </c>
       <c r="E107" t="n">
-        <v>0.230259</v>
+        <v>0.183144</v>
       </c>
       <c r="F107" t="n">
-        <v>0.592038</v>
+        <v>0.565957</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.193834</v>
+        <v>0.194247</v>
       </c>
       <c r="C108" t="n">
-        <v>0.585853</v>
+        <v>0.574157</v>
       </c>
       <c r="D108" t="n">
-        <v>0.666612</v>
+        <v>0.661323</v>
       </c>
       <c r="E108" t="n">
-        <v>0.2629</v>
+        <v>0.242367</v>
       </c>
       <c r="F108" t="n">
-        <v>0.607625</v>
+        <v>0.618063</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.183578</v>
+        <v>0.186217</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5891459999999999</v>
+        <v>0.568655</v>
       </c>
       <c r="D109" t="n">
-        <v>0.67025</v>
+        <v>0.662361</v>
       </c>
       <c r="E109" t="n">
-        <v>0.259681</v>
+        <v>0.236982</v>
       </c>
       <c r="F109" t="n">
-        <v>0.610575</v>
+        <v>0.613256</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.250913</v>
+        <v>0.249547</v>
       </c>
       <c r="C110" t="n">
-        <v>0.635006</v>
+        <v>0.619915</v>
       </c>
       <c r="D110" t="n">
-        <v>0.663803</v>
+        <v>0.665777</v>
       </c>
       <c r="E110" t="n">
-        <v>0.258765</v>
+        <v>0.23118</v>
       </c>
       <c r="F110" t="n">
-        <v>0.608468</v>
+        <v>0.611846</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.251469</v>
+        <v>0.246205</v>
       </c>
       <c r="C111" t="n">
-        <v>0.646246</v>
+        <v>0.61527</v>
       </c>
       <c r="D111" t="n">
-        <v>0.681006</v>
+        <v>0.6606</v>
       </c>
       <c r="E111" t="n">
-        <v>0.253087</v>
+        <v>0.229664</v>
       </c>
       <c r="F111" t="n">
-        <v>0.617774</v>
+        <v>0.605176</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.245208</v>
+        <v>0.23995</v>
       </c>
       <c r="C112" t="n">
-        <v>0.631621</v>
+        <v>0.613392</v>
       </c>
       <c r="D112" t="n">
-        <v>0.665663</v>
+        <v>0.665563</v>
       </c>
       <c r="E112" t="n">
-        <v>0.247131</v>
+        <v>0.223705</v>
       </c>
       <c r="F112" t="n">
-        <v>0.613076</v>
+        <v>0.603233</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.239354</v>
+        <v>0.2388</v>
       </c>
       <c r="C113" t="n">
-        <v>0.614893</v>
+        <v>0.604306</v>
       </c>
       <c r="D113" t="n">
-        <v>0.676643</v>
+        <v>0.657873</v>
       </c>
       <c r="E113" t="n">
-        <v>0.246517</v>
+        <v>0.218097</v>
       </c>
       <c r="F113" t="n">
-        <v>0.609606</v>
+        <v>0.596478</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.234243</v>
+        <v>0.231212</v>
       </c>
       <c r="C114" t="n">
-        <v>0.623648</v>
+        <v>0.603796</v>
       </c>
       <c r="D114" t="n">
-        <v>0.671471</v>
+        <v>0.65687</v>
       </c>
       <c r="E114" t="n">
-        <v>0.244732</v>
+        <v>0.212643</v>
       </c>
       <c r="F114" t="n">
-        <v>0.598397</v>
+        <v>0.592556</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.229543</v>
+        <v>0.225554</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6231</v>
+        <v>0.607657</v>
       </c>
       <c r="D115" t="n">
-        <v>0.662405</v>
+        <v>0.6536729999999999</v>
       </c>
       <c r="E115" t="n">
-        <v>0.247949</v>
+        <v>0.208367</v>
       </c>
       <c r="F115" t="n">
-        <v>0.600041</v>
+        <v>0.593202</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.226759</v>
+        <v>0.220696</v>
       </c>
       <c r="C116" t="n">
-        <v>0.614625</v>
+        <v>0.608993</v>
       </c>
       <c r="D116" t="n">
-        <v>0.672484</v>
+        <v>0.654305</v>
       </c>
       <c r="E116" t="n">
-        <v>0.242961</v>
+        <v>0.202701</v>
       </c>
       <c r="F116" t="n">
-        <v>0.596979</v>
+        <v>0.590083</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.219837</v>
+        <v>0.216486</v>
       </c>
       <c r="C117" t="n">
-        <v>0.62323</v>
+        <v>0.588832</v>
       </c>
       <c r="D117" t="n">
-        <v>0.661431</v>
+        <v>0.653681</v>
       </c>
       <c r="E117" t="n">
-        <v>0.237469</v>
+        <v>0.1986</v>
       </c>
       <c r="F117" t="n">
-        <v>0.606253</v>
+        <v>0.580313</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.216349</v>
+        <v>0.212955</v>
       </c>
       <c r="C118" t="n">
-        <v>0.60816</v>
+        <v>0.592045</v>
       </c>
       <c r="D118" t="n">
-        <v>0.670975</v>
+        <v>0.654431</v>
       </c>
       <c r="E118" t="n">
-        <v>0.237947</v>
+        <v>0.194545</v>
       </c>
       <c r="F118" t="n">
-        <v>0.607585</v>
+        <v>0.57737</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.21118</v>
+        <v>0.212359</v>
       </c>
       <c r="C119" t="n">
-        <v>0.594425</v>
+        <v>0.592043</v>
       </c>
       <c r="D119" t="n">
-        <v>0.671166</v>
+        <v>0.652606</v>
       </c>
       <c r="E119" t="n">
-        <v>0.234146</v>
+        <v>0.191034</v>
       </c>
       <c r="F119" t="n">
-        <v>0.603982</v>
+        <v>0.577453</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.211561</v>
+        <v>0.206132</v>
       </c>
       <c r="C120" t="n">
-        <v>0.593414</v>
+        <v>0.58245</v>
       </c>
       <c r="D120" t="n">
-        <v>0.665621</v>
+        <v>0.656529</v>
       </c>
       <c r="E120" t="n">
-        <v>0.23822</v>
+        <v>0.186973</v>
       </c>
       <c r="F120" t="n">
-        <v>0.598141</v>
+        <v>0.56986</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.201878</v>
+        <v>0.20088</v>
       </c>
       <c r="C121" t="n">
-        <v>0.604974</v>
+        <v>0.576059</v>
       </c>
       <c r="D121" t="n">
-        <v>0.679755</v>
+        <v>0.673362</v>
       </c>
       <c r="E121" t="n">
-        <v>0.233401</v>
+        <v>0.183523</v>
       </c>
       <c r="F121" t="n">
-        <v>0.598146</v>
+        <v>0.570381</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.194578</v>
+        <v>0.195264</v>
       </c>
       <c r="C122" t="n">
-        <v>0.598169</v>
+        <v>0.588471</v>
       </c>
       <c r="D122" t="n">
-        <v>0.68448</v>
+        <v>0.671742</v>
       </c>
       <c r="E122" t="n">
-        <v>0.233492</v>
+        <v>0.179334</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5886400000000001</v>
+        <v>0.568246</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.185528</v>
+        <v>0.191018</v>
       </c>
       <c r="C123" t="n">
-        <v>0.570898</v>
+        <v>0.567394</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6949340000000001</v>
+        <v>0.669014</v>
       </c>
       <c r="E123" t="n">
-        <v>0.259362</v>
+        <v>0.23838</v>
       </c>
       <c r="F123" t="n">
-        <v>0.61337</v>
+        <v>0.616152</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.254648</v>
+        <v>0.249862</v>
       </c>
       <c r="C124" t="n">
-        <v>0.636141</v>
+        <v>0.616827</v>
       </c>
       <c r="D124" t="n">
-        <v>0.680358</v>
+        <v>0.671098</v>
       </c>
       <c r="E124" t="n">
-        <v>0.258882</v>
+        <v>0.232546</v>
       </c>
       <c r="F124" t="n">
-        <v>0.610684</v>
+        <v>0.611417</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.251839</v>
+        <v>0.24661</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6226660000000001</v>
+        <v>0.635155</v>
       </c>
       <c r="D125" t="n">
-        <v>0.680704</v>
+        <v>0.6664099999999999</v>
       </c>
       <c r="E125" t="n">
-        <v>0.255546</v>
+        <v>0.229118</v>
       </c>
       <c r="F125" t="n">
-        <v>0.605113</v>
+        <v>0.620326</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.242387</v>
+        <v>0.244036</v>
       </c>
       <c r="C126" t="n">
-        <v>0.634567</v>
+        <v>0.608614</v>
       </c>
       <c r="D126" t="n">
-        <v>0.680735</v>
+        <v>0.667844</v>
       </c>
       <c r="E126" t="n">
-        <v>0.251577</v>
+        <v>0.221802</v>
       </c>
       <c r="F126" t="n">
-        <v>0.600765</v>
+        <v>0.603541</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.242849</v>
+        <v>0.236425</v>
       </c>
       <c r="C127" t="n">
-        <v>0.618081</v>
+        <v>0.613127</v>
       </c>
       <c r="D127" t="n">
-        <v>0.691886</v>
+        <v>0.663516</v>
       </c>
       <c r="E127" t="n">
-        <v>0.246577</v>
+        <v>0.216786</v>
       </c>
       <c r="F127" t="n">
-        <v>0.622382</v>
+        <v>0.597769</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.233936</v>
+        <v>0.230802</v>
       </c>
       <c r="C128" t="n">
-        <v>0.614682</v>
+        <v>0.597752</v>
       </c>
       <c r="D128" t="n">
-        <v>0.670955</v>
+        <v>0.6676260000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>0.24417</v>
+        <v>0.215537</v>
       </c>
       <c r="F128" t="n">
-        <v>0.6135699999999999</v>
+        <v>0.595892</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.229353</v>
+        <v>0.226548</v>
       </c>
       <c r="C129" t="n">
-        <v>0.606521</v>
+        <v>0.593573</v>
       </c>
       <c r="D129" t="n">
-        <v>0.69126</v>
+        <v>0.66692</v>
       </c>
       <c r="E129" t="n">
-        <v>0.243368</v>
+        <v>0.207825</v>
       </c>
       <c r="F129" t="n">
-        <v>0.598317</v>
+        <v>0.591543</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.22889</v>
+        <v>0.221977</v>
       </c>
       <c r="C130" t="n">
-        <v>0.600898</v>
+        <v>0.589475</v>
       </c>
       <c r="D130" t="n">
-        <v>0.676358</v>
+        <v>0.66105</v>
       </c>
       <c r="E130" t="n">
-        <v>0.240256</v>
+        <v>0.203383</v>
       </c>
       <c r="F130" t="n">
-        <v>0.615058</v>
+        <v>0.5875089999999999</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.222344</v>
+        <v>0.218413</v>
       </c>
       <c r="C131" t="n">
-        <v>0.599149</v>
+        <v>0.593166</v>
       </c>
       <c r="D131" t="n">
-        <v>0.673817</v>
+        <v>0.66428</v>
       </c>
       <c r="E131" t="n">
-        <v>0.239699</v>
+        <v>0.202452</v>
       </c>
       <c r="F131" t="n">
-        <v>0.604209</v>
+        <v>0.586369</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.216092</v>
+        <v>0.215524</v>
       </c>
       <c r="C132" t="n">
-        <v>0.608037</v>
+        <v>0.597328</v>
       </c>
       <c r="D132" t="n">
-        <v>0.674291</v>
+        <v>0.661883</v>
       </c>
       <c r="E132" t="n">
-        <v>0.240083</v>
+        <v>0.195125</v>
       </c>
       <c r="F132" t="n">
-        <v>0.620332</v>
+        <v>0.57846</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.211815</v>
+        <v>0.213822</v>
       </c>
       <c r="C133" t="n">
-        <v>0.602393</v>
+        <v>0.606182</v>
       </c>
       <c r="D133" t="n">
-        <v>0.676982</v>
+        <v>0.665106</v>
       </c>
       <c r="E133" t="n">
-        <v>0.23656</v>
+        <v>0.191107</v>
       </c>
       <c r="F133" t="n">
-        <v>0.59063</v>
+        <v>0.573979</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.208618</v>
+        <v>0.206501</v>
       </c>
       <c r="C134" t="n">
-        <v>0.595857</v>
+        <v>0.581524</v>
       </c>
       <c r="D134" t="n">
-        <v>0.670806</v>
+        <v>0.657443</v>
       </c>
       <c r="E134" t="n">
-        <v>0.23341</v>
+        <v>0.188142</v>
       </c>
       <c r="F134" t="n">
-        <v>0.600784</v>
+        <v>0.572997</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.203184</v>
+        <v>0.203263</v>
       </c>
       <c r="C135" t="n">
-        <v>0.594724</v>
+        <v>0.5757060000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>0.692034</v>
+        <v>0.674692</v>
       </c>
       <c r="E135" t="n">
-        <v>0.235273</v>
+        <v>0.184097</v>
       </c>
       <c r="F135" t="n">
-        <v>0.598038</v>
+        <v>0.5678800000000001</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.197081</v>
+        <v>0.197123</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5939410000000001</v>
+        <v>0.572314</v>
       </c>
       <c r="D136" t="n">
-        <v>0.678355</v>
+        <v>0.682727</v>
       </c>
       <c r="E136" t="n">
-        <v>0.230172</v>
+        <v>0.181323</v>
       </c>
       <c r="F136" t="n">
-        <v>0.592202</v>
+        <v>0.565196</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.189143</v>
+        <v>0.192156</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5879259999999999</v>
+        <v>0.566069</v>
       </c>
       <c r="D137" t="n">
-        <v>0.675551</v>
+        <v>0.672152</v>
       </c>
       <c r="E137" t="n">
-        <v>0.256278</v>
+        <v>0.238964</v>
       </c>
       <c r="F137" t="n">
-        <v>0.609789</v>
+        <v>0.615812</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.254161</v>
+        <v>0.25051</v>
       </c>
       <c r="C138" t="n">
-        <v>0.6491479999999999</v>
+        <v>0.612825</v>
       </c>
       <c r="D138" t="n">
-        <v>0.684105</v>
+        <v>0.6748769999999999</v>
       </c>
       <c r="E138" t="n">
-        <v>0.257477</v>
+        <v>0.234795</v>
       </c>
       <c r="F138" t="n">
-        <v>0.6062689999999999</v>
+        <v>0.614987</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.249572</v>
+        <v>0.247565</v>
       </c>
       <c r="C139" t="n">
-        <v>0.631453</v>
+        <v>0.618672</v>
       </c>
       <c r="D139" t="n">
-        <v>0.682023</v>
+        <v>0.668635</v>
       </c>
       <c r="E139" t="n">
-        <v>0.257066</v>
+        <v>0.228631</v>
       </c>
       <c r="F139" t="n">
-        <v>0.6126239999999999</v>
+        <v>0.609667</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.248399</v>
+        <v>0.24277</v>
       </c>
       <c r="C140" t="n">
-        <v>0.628578</v>
+        <v>0.615683</v>
       </c>
       <c r="D140" t="n">
-        <v>0.677464</v>
+        <v>0.670968</v>
       </c>
       <c r="E140" t="n">
-        <v>0.251196</v>
+        <v>0.223562</v>
       </c>
       <c r="F140" t="n">
-        <v>0.605647</v>
+        <v>0.603721</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.241361</v>
+        <v>0.237741</v>
       </c>
       <c r="C141" t="n">
-        <v>0.623031</v>
+        <v>0.6026820000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>0.677887</v>
+        <v>0.668241</v>
       </c>
       <c r="E141" t="n">
-        <v>0.247795</v>
+        <v>0.220639</v>
       </c>
       <c r="F141" t="n">
-        <v>0.6047</v>
+        <v>0.598425</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.233741</v>
+        <v>0.233401</v>
       </c>
       <c r="C142" t="n">
-        <v>0.608831</v>
+        <v>0.598714</v>
       </c>
       <c r="D142" t="n">
-        <v>0.679017</v>
+        <v>0.667843</v>
       </c>
       <c r="E142" t="n">
-        <v>0.245374</v>
+        <v>0.213548</v>
       </c>
       <c r="F142" t="n">
-        <v>0.597706</v>
+        <v>0.595572</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.232486</v>
+        <v>0.227158</v>
       </c>
       <c r="C143" t="n">
-        <v>0.605788</v>
+        <v>0.595441</v>
       </c>
       <c r="D143" t="n">
-        <v>0.671859</v>
+        <v>0.671156</v>
       </c>
       <c r="E143" t="n">
-        <v>0.242714</v>
+        <v>0.214174</v>
       </c>
       <c r="F143" t="n">
-        <v>0.605311</v>
+        <v>0.590804</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.196971</v>
+        <v>0.196818</v>
       </c>
       <c r="C2" t="n">
-        <v>0.438073</v>
+        <v>0.453582</v>
       </c>
       <c r="D2" t="n">
-        <v>0.504495</v>
+        <v>0.509383</v>
       </c>
       <c r="E2" t="n">
-        <v>0.176417</v>
+        <v>0.198527</v>
       </c>
       <c r="F2" t="n">
-        <v>0.438508</v>
+        <v>0.428481</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.187177</v>
+        <v>0.189509</v>
       </c>
       <c r="C3" t="n">
-        <v>0.438562</v>
+        <v>0.441789</v>
       </c>
       <c r="D3" t="n">
-        <v>0.49895</v>
+        <v>0.505125</v>
       </c>
       <c r="E3" t="n">
-        <v>0.173596</v>
+        <v>0.192216</v>
       </c>
       <c r="F3" t="n">
-        <v>0.434133</v>
+        <v>0.431943</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.184692</v>
+        <v>0.192315</v>
       </c>
       <c r="C4" t="n">
-        <v>0.441892</v>
+        <v>0.442927</v>
       </c>
       <c r="D4" t="n">
-        <v>0.501887</v>
+        <v>0.507795</v>
       </c>
       <c r="E4" t="n">
-        <v>0.168762</v>
+        <v>0.187379</v>
       </c>
       <c r="F4" t="n">
-        <v>0.441392</v>
+        <v>0.424386</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.185516</v>
+        <v>0.187387</v>
       </c>
       <c r="C5" t="n">
-        <v>0.43084</v>
+        <v>0.434309</v>
       </c>
       <c r="D5" t="n">
-        <v>0.515598</v>
+        <v>0.501609</v>
       </c>
       <c r="E5" t="n">
-        <v>0.165885</v>
+        <v>0.185048</v>
       </c>
       <c r="F5" t="n">
-        <v>0.432901</v>
+        <v>0.426578</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.181654</v>
+        <v>0.181382</v>
       </c>
       <c r="C6" t="n">
-        <v>0.432514</v>
+        <v>0.433807</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5004</v>
+        <v>0.496524</v>
       </c>
       <c r="E6" t="n">
-        <v>0.168868</v>
+        <v>0.181339</v>
       </c>
       <c r="F6" t="n">
-        <v>0.432697</v>
+        <v>0.421317</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.182465</v>
+        <v>0.182197</v>
       </c>
       <c r="C7" t="n">
-        <v>0.431955</v>
+        <v>0.431877</v>
       </c>
       <c r="D7" t="n">
-        <v>0.509284</v>
+        <v>0.511344</v>
       </c>
       <c r="E7" t="n">
-        <v>0.162168</v>
+        <v>0.17912</v>
       </c>
       <c r="F7" t="n">
-        <v>0.423047</v>
+        <v>0.417687</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.179931</v>
+        <v>0.176135</v>
       </c>
       <c r="C8" t="n">
-        <v>0.433541</v>
+        <v>0.42308</v>
       </c>
       <c r="D8" t="n">
-        <v>0.513648</v>
+        <v>0.512352</v>
       </c>
       <c r="E8" t="n">
-        <v>0.159074</v>
+        <v>0.176612</v>
       </c>
       <c r="F8" t="n">
-        <v>0.42554</v>
+        <v>0.417156</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.172386</v>
+        <v>0.170704</v>
       </c>
       <c r="C9" t="n">
-        <v>0.419944</v>
+        <v>0.425805</v>
       </c>
       <c r="D9" t="n">
-        <v>0.511257</v>
+        <v>0.513444</v>
       </c>
       <c r="E9" t="n">
-        <v>0.211209</v>
+        <v>0.231626</v>
       </c>
       <c r="F9" t="n">
-        <v>0.472126</v>
+        <v>0.462306</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.22616</v>
+        <v>0.221956</v>
       </c>
       <c r="C10" t="n">
-        <v>0.467928</v>
+        <v>0.469971</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5127</v>
+        <v>0.508346</v>
       </c>
       <c r="E10" t="n">
-        <v>0.204351</v>
+        <v>0.230794</v>
       </c>
       <c r="F10" t="n">
-        <v>0.458888</v>
+        <v>0.459238</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.213303</v>
+        <v>0.218711</v>
       </c>
       <c r="C11" t="n">
-        <v>0.463587</v>
+        <v>0.46491</v>
       </c>
       <c r="D11" t="n">
-        <v>0.509022</v>
+        <v>0.519977</v>
       </c>
       <c r="E11" t="n">
-        <v>0.199183</v>
+        <v>0.220793</v>
       </c>
       <c r="F11" t="n">
-        <v>0.45443</v>
+        <v>0.456184</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.217031</v>
+        <v>0.212475</v>
       </c>
       <c r="C12" t="n">
-        <v>0.463657</v>
+        <v>0.454643</v>
       </c>
       <c r="D12" t="n">
-        <v>0.511854</v>
+        <v>0.507559</v>
       </c>
       <c r="E12" t="n">
-        <v>0.19561</v>
+        <v>0.21865</v>
       </c>
       <c r="F12" t="n">
-        <v>0.455339</v>
+        <v>0.44718</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.210299</v>
+        <v>0.212866</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4602</v>
+        <v>0.451882</v>
       </c>
       <c r="D13" t="n">
-        <v>0.50188</v>
+        <v>0.509508</v>
       </c>
       <c r="E13" t="n">
-        <v>0.19136</v>
+        <v>0.213405</v>
       </c>
       <c r="F13" t="n">
-        <v>0.451357</v>
+        <v>0.451148</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.208029</v>
+        <v>0.206156</v>
       </c>
       <c r="C14" t="n">
-        <v>0.445593</v>
+        <v>0.45271</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5102139999999999</v>
+        <v>0.511307</v>
       </c>
       <c r="E14" t="n">
-        <v>0.187867</v>
+        <v>0.213536</v>
       </c>
       <c r="F14" t="n">
-        <v>0.448601</v>
+        <v>0.452264</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.205651</v>
+        <v>0.20513</v>
       </c>
       <c r="C15" t="n">
-        <v>0.451053</v>
+        <v>0.446394</v>
       </c>
       <c r="D15" t="n">
-        <v>0.501937</v>
+        <v>0.50376</v>
       </c>
       <c r="E15" t="n">
-        <v>0.184353</v>
+        <v>0.203696</v>
       </c>
       <c r="F15" t="n">
-        <v>0.447202</v>
+        <v>0.437671</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.200101</v>
+        <v>0.199586</v>
       </c>
       <c r="C16" t="n">
-        <v>0.446763</v>
+        <v>0.45317</v>
       </c>
       <c r="D16" t="n">
-        <v>0.500165</v>
+        <v>0.505737</v>
       </c>
       <c r="E16" t="n">
-        <v>0.186657</v>
+        <v>0.201862</v>
       </c>
       <c r="F16" t="n">
-        <v>0.438847</v>
+        <v>0.43395</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.198461</v>
+        <v>0.197295</v>
       </c>
       <c r="C17" t="n">
-        <v>0.449994</v>
+        <v>0.446991</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5237579999999999</v>
+        <v>0.513523</v>
       </c>
       <c r="E17" t="n">
-        <v>0.179524</v>
+        <v>0.199604</v>
       </c>
       <c r="F17" t="n">
-        <v>0.451947</v>
+        <v>0.432466</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.196049</v>
+        <v>0.194138</v>
       </c>
       <c r="C18" t="n">
-        <v>0.451004</v>
+        <v>0.443731</v>
       </c>
       <c r="D18" t="n">
-        <v>0.50652</v>
+        <v>0.503126</v>
       </c>
       <c r="E18" t="n">
-        <v>0.180414</v>
+        <v>0.197155</v>
       </c>
       <c r="F18" t="n">
-        <v>0.443959</v>
+        <v>0.428495</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.198943</v>
+        <v>0.191635</v>
       </c>
       <c r="C19" t="n">
-        <v>0.440069</v>
+        <v>0.439381</v>
       </c>
       <c r="D19" t="n">
-        <v>0.505424</v>
+        <v>0.510697</v>
       </c>
       <c r="E19" t="n">
-        <v>0.173337</v>
+        <v>0.190845</v>
       </c>
       <c r="F19" t="n">
-        <v>0.439022</v>
+        <v>0.433614</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.191788</v>
+        <v>0.190024</v>
       </c>
       <c r="C20" t="n">
-        <v>0.438361</v>
+        <v>0.43768</v>
       </c>
       <c r="D20" t="n">
-        <v>0.497549</v>
+        <v>0.5123760000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.169323</v>
+        <v>0.186517</v>
       </c>
       <c r="F20" t="n">
-        <v>0.427716</v>
+        <v>0.423773</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.186199</v>
+        <v>0.18611</v>
       </c>
       <c r="C21" t="n">
-        <v>0.430596</v>
+        <v>0.438175</v>
       </c>
       <c r="D21" t="n">
-        <v>0.512772</v>
+        <v>0.518859</v>
       </c>
       <c r="E21" t="n">
-        <v>0.165204</v>
+        <v>0.187005</v>
       </c>
       <c r="F21" t="n">
-        <v>0.431611</v>
+        <v>0.417593</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.18405</v>
+        <v>0.181686</v>
       </c>
       <c r="C22" t="n">
-        <v>0.427835</v>
+        <v>0.433599</v>
       </c>
       <c r="D22" t="n">
-        <v>0.523784</v>
+        <v>0.516191</v>
       </c>
       <c r="E22" t="n">
-        <v>0.171421</v>
+        <v>0.179667</v>
       </c>
       <c r="F22" t="n">
-        <v>0.43072</v>
+        <v>0.415455</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.179461</v>
+        <v>0.176948</v>
       </c>
       <c r="C23" t="n">
-        <v>0.433514</v>
+        <v>0.433734</v>
       </c>
       <c r="D23" t="n">
-        <v>0.520684</v>
+        <v>0.528426</v>
       </c>
       <c r="E23" t="n">
-        <v>0.215988</v>
+        <v>0.23627</v>
       </c>
       <c r="F23" t="n">
-        <v>0.479262</v>
+        <v>0.470619</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.23114</v>
+        <v>0.227886</v>
       </c>
       <c r="C24" t="n">
-        <v>0.465929</v>
+        <v>0.464063</v>
       </c>
       <c r="D24" t="n">
-        <v>0.520351</v>
+        <v>0.515501</v>
       </c>
       <c r="E24" t="n">
-        <v>0.213919</v>
+        <v>0.230355</v>
       </c>
       <c r="F24" t="n">
-        <v>0.464323</v>
+        <v>0.463222</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.224778</v>
+        <v>0.225207</v>
       </c>
       <c r="C25" t="n">
-        <v>0.465614</v>
+        <v>0.467041</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5061099999999999</v>
+        <v>0.513009</v>
       </c>
       <c r="E25" t="n">
-        <v>0.205183</v>
+        <v>0.228424</v>
       </c>
       <c r="F25" t="n">
-        <v>0.461013</v>
+        <v>0.456672</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.219093</v>
+        <v>0.222967</v>
       </c>
       <c r="C26" t="n">
-        <v>0.456649</v>
+        <v>0.464684</v>
       </c>
       <c r="D26" t="n">
-        <v>0.50701</v>
+        <v>0.518168</v>
       </c>
       <c r="E26" t="n">
-        <v>0.200471</v>
+        <v>0.221428</v>
       </c>
       <c r="F26" t="n">
-        <v>0.453377</v>
+        <v>0.44845</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.215719</v>
+        <v>0.216781</v>
       </c>
       <c r="C27" t="n">
-        <v>0.454957</v>
+        <v>0.456938</v>
       </c>
       <c r="D27" t="n">
-        <v>0.505988</v>
+        <v>0.517026</v>
       </c>
       <c r="E27" t="n">
-        <v>0.197926</v>
+        <v>0.217851</v>
       </c>
       <c r="F27" t="n">
-        <v>0.453638</v>
+        <v>0.463907</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.213953</v>
+        <v>0.212586</v>
       </c>
       <c r="C28" t="n">
-        <v>0.448428</v>
+        <v>0.4564</v>
       </c>
       <c r="D28" t="n">
-        <v>0.504188</v>
+        <v>0.5072950000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>0.19377</v>
+        <v>0.216233</v>
       </c>
       <c r="F28" t="n">
-        <v>0.447758</v>
+        <v>0.441015</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.209238</v>
+        <v>0.209579</v>
       </c>
       <c r="C29" t="n">
-        <v>0.445</v>
+        <v>0.45091</v>
       </c>
       <c r="D29" t="n">
-        <v>0.50382</v>
+        <v>0.517898</v>
       </c>
       <c r="E29" t="n">
-        <v>0.190481</v>
+        <v>0.211935</v>
       </c>
       <c r="F29" t="n">
-        <v>0.447591</v>
+        <v>0.443239</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.207049</v>
+        <v>0.205689</v>
       </c>
       <c r="C30" t="n">
-        <v>0.442473</v>
+        <v>0.445339</v>
       </c>
       <c r="D30" t="n">
-        <v>0.505502</v>
+        <v>0.507603</v>
       </c>
       <c r="E30" t="n">
-        <v>0.187031</v>
+        <v>0.207178</v>
       </c>
       <c r="F30" t="n">
-        <v>0.439698</v>
+        <v>0.437049</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.201552</v>
+        <v>0.202255</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4406</v>
+        <v>0.447219</v>
       </c>
       <c r="D31" t="n">
-        <v>0.504301</v>
+        <v>0.505738</v>
       </c>
       <c r="E31" t="n">
-        <v>0.184041</v>
+        <v>0.202719</v>
       </c>
       <c r="F31" t="n">
-        <v>0.43862</v>
+        <v>0.442351</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.20157</v>
+        <v>0.202424</v>
       </c>
       <c r="C32" t="n">
-        <v>0.442439</v>
+        <v>0.441195</v>
       </c>
       <c r="D32" t="n">
-        <v>0.502916</v>
+        <v>0.507354</v>
       </c>
       <c r="E32" t="n">
-        <v>0.18027</v>
+        <v>0.199332</v>
       </c>
       <c r="F32" t="n">
-        <v>0.43628</v>
+        <v>0.432593</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.196191</v>
+        <v>0.194557</v>
       </c>
       <c r="C33" t="n">
-        <v>0.434557</v>
+        <v>0.439195</v>
       </c>
       <c r="D33" t="n">
-        <v>0.502499</v>
+        <v>0.516105</v>
       </c>
       <c r="E33" t="n">
-        <v>0.177443</v>
+        <v>0.194814</v>
       </c>
       <c r="F33" t="n">
-        <v>0.433314</v>
+        <v>0.432509</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.195572</v>
+        <v>0.191711</v>
       </c>
       <c r="C34" t="n">
-        <v>0.433735</v>
+        <v>0.437209</v>
       </c>
       <c r="D34" t="n">
-        <v>0.501074</v>
+        <v>0.508759</v>
       </c>
       <c r="E34" t="n">
-        <v>0.173422</v>
+        <v>0.191173</v>
       </c>
       <c r="F34" t="n">
-        <v>0.42959</v>
+        <v>0.427203</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.191614</v>
+        <v>0.188593</v>
       </c>
       <c r="C35" t="n">
-        <v>0.433895</v>
+        <v>0.430691</v>
       </c>
       <c r="D35" t="n">
-        <v>0.530065</v>
+        <v>0.527863</v>
       </c>
       <c r="E35" t="n">
-        <v>0.170293</v>
+        <v>0.189209</v>
       </c>
       <c r="F35" t="n">
-        <v>0.425989</v>
+        <v>0.422099</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.187128</v>
+        <v>0.183647</v>
       </c>
       <c r="C36" t="n">
-        <v>0.429308</v>
+        <v>0.43184</v>
       </c>
       <c r="D36" t="n">
-        <v>0.521998</v>
+        <v>0.521475</v>
       </c>
       <c r="E36" t="n">
-        <v>0.167134</v>
+        <v>0.183775</v>
       </c>
       <c r="F36" t="n">
-        <v>0.426052</v>
+        <v>0.417109</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.181915</v>
+        <v>0.178169</v>
       </c>
       <c r="C37" t="n">
-        <v>0.426771</v>
+        <v>0.422949</v>
       </c>
       <c r="D37" t="n">
-        <v>0.524421</v>
+        <v>0.528352</v>
       </c>
       <c r="E37" t="n">
-        <v>0.229701</v>
+        <v>0.25062</v>
       </c>
       <c r="F37" t="n">
-        <v>0.472216</v>
+        <v>0.472849</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.233202</v>
+        <v>0.232993</v>
       </c>
       <c r="C38" t="n">
-        <v>0.472846</v>
+        <v>0.475169</v>
       </c>
       <c r="D38" t="n">
-        <v>0.528313</v>
+        <v>0.526343</v>
       </c>
       <c r="E38" t="n">
-        <v>0.224081</v>
+        <v>0.244223</v>
       </c>
       <c r="F38" t="n">
-        <v>0.470644</v>
+        <v>0.468143</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.230029</v>
+        <v>0.228939</v>
       </c>
       <c r="C39" t="n">
-        <v>0.468908</v>
+        <v>0.482306</v>
       </c>
       <c r="D39" t="n">
-        <v>0.523689</v>
+        <v>0.525618</v>
       </c>
       <c r="E39" t="n">
-        <v>0.220602</v>
+        <v>0.243304</v>
       </c>
       <c r="F39" t="n">
-        <v>0.467009</v>
+        <v>0.467089</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.23043</v>
+        <v>0.225066</v>
       </c>
       <c r="C40" t="n">
-        <v>0.463832</v>
+        <v>0.480504</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5179319999999999</v>
+        <v>0.528021</v>
       </c>
       <c r="E40" t="n">
-        <v>0.214013</v>
+        <v>0.23541</v>
       </c>
       <c r="F40" t="n">
-        <v>0.457585</v>
+        <v>0.467944</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.221788</v>
+        <v>0.221653</v>
       </c>
       <c r="C41" t="n">
-        <v>0.468106</v>
+        <v>0.46397</v>
       </c>
       <c r="D41" t="n">
-        <v>0.52094</v>
+        <v>0.525826</v>
       </c>
       <c r="E41" t="n">
-        <v>0.209751</v>
+        <v>0.230623</v>
       </c>
       <c r="F41" t="n">
-        <v>0.475524</v>
+        <v>0.452786</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.217931</v>
+        <v>0.216629</v>
       </c>
       <c r="C42" t="n">
-        <v>0.490906</v>
+        <v>0.466255</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5160090000000001</v>
+        <v>0.532872</v>
       </c>
       <c r="E42" t="n">
-        <v>0.205426</v>
+        <v>0.225611</v>
       </c>
       <c r="F42" t="n">
-        <v>0.47794</v>
+        <v>0.462918</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.214076</v>
+        <v>0.213591</v>
       </c>
       <c r="C43" t="n">
-        <v>0.459922</v>
+        <v>0.482268</v>
       </c>
       <c r="D43" t="n">
-        <v>0.527548</v>
+        <v>0.5336379999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>0.201613</v>
+        <v>0.228714</v>
       </c>
       <c r="F43" t="n">
-        <v>0.455866</v>
+        <v>0.444656</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.210753</v>
+        <v>0.209101</v>
       </c>
       <c r="C44" t="n">
-        <v>0.457491</v>
+        <v>0.465029</v>
       </c>
       <c r="D44" t="n">
-        <v>0.520408</v>
+        <v>0.5276960000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>0.197226</v>
+        <v>0.216219</v>
       </c>
       <c r="F44" t="n">
-        <v>0.455361</v>
+        <v>0.467515</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.20574</v>
+        <v>0.205271</v>
       </c>
       <c r="C45" t="n">
-        <v>0.450207</v>
+        <v>0.475445</v>
       </c>
       <c r="D45" t="n">
-        <v>0.527881</v>
+        <v>0.541452</v>
       </c>
       <c r="E45" t="n">
-        <v>0.194874</v>
+        <v>0.21208</v>
       </c>
       <c r="F45" t="n">
-        <v>0.446697</v>
+        <v>0.464967</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.202921</v>
+        <v>0.201311</v>
       </c>
       <c r="C46" t="n">
-        <v>0.45135</v>
+        <v>0.48168</v>
       </c>
       <c r="D46" t="n">
-        <v>0.530775</v>
+        <v>0.54025</v>
       </c>
       <c r="E46" t="n">
-        <v>0.188651</v>
+        <v>0.207987</v>
       </c>
       <c r="F46" t="n">
-        <v>0.445706</v>
+        <v>0.470981</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.200017</v>
+        <v>0.204291</v>
       </c>
       <c r="C47" t="n">
-        <v>0.445194</v>
+        <v>0.482408</v>
       </c>
       <c r="D47" t="n">
-        <v>0.528242</v>
+        <v>0.546274</v>
       </c>
       <c r="E47" t="n">
-        <v>0.186177</v>
+        <v>0.204096</v>
       </c>
       <c r="F47" t="n">
-        <v>0.441695</v>
+        <v>0.465599</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.197312</v>
+        <v>0.194351</v>
       </c>
       <c r="C48" t="n">
-        <v>0.450567</v>
+        <v>0.48684</v>
       </c>
       <c r="D48" t="n">
-        <v>0.529067</v>
+        <v>0.551073</v>
       </c>
       <c r="E48" t="n">
-        <v>0.181895</v>
+        <v>0.198937</v>
       </c>
       <c r="F48" t="n">
-        <v>0.443877</v>
+        <v>0.474943</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.192922</v>
+        <v>0.191425</v>
       </c>
       <c r="C49" t="n">
-        <v>0.442806</v>
+        <v>0.486961</v>
       </c>
       <c r="D49" t="n">
-        <v>0.546752</v>
+        <v>0.553538</v>
       </c>
       <c r="E49" t="n">
-        <v>0.178529</v>
+        <v>0.194999</v>
       </c>
       <c r="F49" t="n">
-        <v>0.443574</v>
+        <v>0.468069</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.18937</v>
+        <v>0.186824</v>
       </c>
       <c r="C50" t="n">
-        <v>0.443341</v>
+        <v>0.44448</v>
       </c>
       <c r="D50" t="n">
-        <v>0.634669</v>
+        <v>0.617815</v>
       </c>
       <c r="E50" t="n">
-        <v>0.175522</v>
+        <v>0.191564</v>
       </c>
       <c r="F50" t="n">
-        <v>0.478302</v>
+        <v>0.429824</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.187602</v>
+        <v>0.182467</v>
       </c>
       <c r="C51" t="n">
-        <v>0.492247</v>
+        <v>0.442117</v>
       </c>
       <c r="D51" t="n">
-        <v>0.633594</v>
+        <v>0.626874</v>
       </c>
       <c r="E51" t="n">
-        <v>0.231274</v>
+        <v>0.252664</v>
       </c>
       <c r="F51" t="n">
-        <v>0.510999</v>
+        <v>0.536328</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.178027</v>
+        <v>0.17356</v>
       </c>
       <c r="C52" t="n">
-        <v>0.462553</v>
+        <v>0.438994</v>
       </c>
       <c r="D52" t="n">
-        <v>0.636121</v>
+        <v>0.612053</v>
       </c>
       <c r="E52" t="n">
-        <v>0.226027</v>
+        <v>0.248828</v>
       </c>
       <c r="F52" t="n">
-        <v>0.488365</v>
+        <v>0.489671</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.237977</v>
+        <v>0.236748</v>
       </c>
       <c r="C53" t="n">
-        <v>0.501627</v>
+        <v>0.505081</v>
       </c>
       <c r="D53" t="n">
-        <v>0.624861</v>
+        <v>0.616946</v>
       </c>
       <c r="E53" t="n">
-        <v>0.222128</v>
+        <v>0.242149</v>
       </c>
       <c r="F53" t="n">
-        <v>0.492696</v>
+        <v>0.48511</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.233475</v>
+        <v>0.233579</v>
       </c>
       <c r="C54" t="n">
-        <v>0.498002</v>
+        <v>0.507765</v>
       </c>
       <c r="D54" t="n">
-        <v>0.624302</v>
+        <v>0.608957</v>
       </c>
       <c r="E54" t="n">
-        <v>0.215404</v>
+        <v>0.237091</v>
       </c>
       <c r="F54" t="n">
-        <v>0.483545</v>
+        <v>0.487805</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.228508</v>
+        <v>0.229282</v>
       </c>
       <c r="C55" t="n">
-        <v>0.501362</v>
+        <v>0.513108</v>
       </c>
       <c r="D55" t="n">
-        <v>0.62614</v>
+        <v>0.611747</v>
       </c>
       <c r="E55" t="n">
-        <v>0.211878</v>
+        <v>0.234824</v>
       </c>
       <c r="F55" t="n">
-        <v>0.484431</v>
+        <v>0.484127</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.22678</v>
+        <v>0.224671</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5031639999999999</v>
+        <v>0.503958</v>
       </c>
       <c r="D56" t="n">
-        <v>0.61977</v>
+        <v>0.62208</v>
       </c>
       <c r="E56" t="n">
-        <v>0.208104</v>
+        <v>0.228117</v>
       </c>
       <c r="F56" t="n">
-        <v>0.48749</v>
+        <v>0.488325</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.220532</v>
+        <v>0.219398</v>
       </c>
       <c r="C57" t="n">
-        <v>0.496046</v>
+        <v>0.538792</v>
       </c>
       <c r="D57" t="n">
-        <v>0.615494</v>
+        <v>0.61691</v>
       </c>
       <c r="E57" t="n">
-        <v>0.20243</v>
+        <v>0.222438</v>
       </c>
       <c r="F57" t="n">
-        <v>0.499281</v>
+        <v>0.507006</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.216358</v>
+        <v>0.216506</v>
       </c>
       <c r="C58" t="n">
-        <v>0.500668</v>
+        <v>0.503992</v>
       </c>
       <c r="D58" t="n">
-        <v>0.615954</v>
+        <v>0.6318859999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>0.19858</v>
+        <v>0.219238</v>
       </c>
       <c r="F58" t="n">
-        <v>0.489608</v>
+        <v>0.523806</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.213698</v>
+        <v>0.211852</v>
       </c>
       <c r="C59" t="n">
-        <v>0.497811</v>
+        <v>0.555113</v>
       </c>
       <c r="D59" t="n">
-        <v>0.619444</v>
+        <v>0.637761</v>
       </c>
       <c r="E59" t="n">
-        <v>0.197723</v>
+        <v>0.213813</v>
       </c>
       <c r="F59" t="n">
-        <v>0.484847</v>
+        <v>0.509705</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.208323</v>
+        <v>0.207238</v>
       </c>
       <c r="C60" t="n">
-        <v>0.501198</v>
+        <v>0.520548</v>
       </c>
       <c r="D60" t="n">
-        <v>0.617463</v>
+        <v>0.627219</v>
       </c>
       <c r="E60" t="n">
-        <v>0.19038</v>
+        <v>0.209751</v>
       </c>
       <c r="F60" t="n">
-        <v>0.492581</v>
+        <v>0.526051</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.203932</v>
+        <v>0.204591</v>
       </c>
       <c r="C61" t="n">
-        <v>0.513803</v>
+        <v>0.515066</v>
       </c>
       <c r="D61" t="n">
-        <v>0.618356</v>
+        <v>0.624095</v>
       </c>
       <c r="E61" t="n">
-        <v>0.187463</v>
+        <v>0.205217</v>
       </c>
       <c r="F61" t="n">
-        <v>0.491954</v>
+        <v>0.506773</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.2014</v>
+        <v>0.200211</v>
       </c>
       <c r="C62" t="n">
-        <v>0.509013</v>
+        <v>0.547977</v>
       </c>
       <c r="D62" t="n">
-        <v>0.614073</v>
+        <v>0.609294</v>
       </c>
       <c r="E62" t="n">
-        <v>0.186181</v>
+        <v>0.201819</v>
       </c>
       <c r="F62" t="n">
-        <v>0.493697</v>
+        <v>0.484393</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.199448</v>
+        <v>0.195581</v>
       </c>
       <c r="C63" t="n">
-        <v>0.511097</v>
+        <v>0.518414</v>
       </c>
       <c r="D63" t="n">
-        <v>0.624717</v>
+        <v>0.614359</v>
       </c>
       <c r="E63" t="n">
-        <v>0.180351</v>
+        <v>0.197298</v>
       </c>
       <c r="F63" t="n">
-        <v>0.490789</v>
+        <v>0.515689</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.194707</v>
+        <v>0.192341</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5126500000000001</v>
+        <v>0.525536</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7263269999999999</v>
+        <v>0.71622</v>
       </c>
       <c r="E64" t="n">
-        <v>0.177192</v>
+        <v>0.194479</v>
       </c>
       <c r="F64" t="n">
-        <v>0.498038</v>
+        <v>0.486747</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.189935</v>
+        <v>0.186355</v>
       </c>
       <c r="C65" t="n">
-        <v>0.509985</v>
+        <v>0.525796</v>
       </c>
       <c r="D65" t="n">
-        <v>0.723367</v>
+        <v>0.711188</v>
       </c>
       <c r="E65" t="n">
-        <v>0.174276</v>
+        <v>0.19045</v>
       </c>
       <c r="F65" t="n">
-        <v>0.497154</v>
+        <v>0.513922</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.183558</v>
+        <v>0.180897</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5285879999999999</v>
+        <v>0.5390200000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.716333</v>
+        <v>0.711583</v>
       </c>
       <c r="E66" t="n">
-        <v>0.230134</v>
+        <v>0.255295</v>
       </c>
       <c r="F66" t="n">
-        <v>0.55545</v>
+        <v>0.571358</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.24777</v>
+        <v>0.245134</v>
       </c>
       <c r="C67" t="n">
-        <v>0.596793</v>
+        <v>0.603772</v>
       </c>
       <c r="D67" t="n">
-        <v>0.715328</v>
+        <v>0.706516</v>
       </c>
       <c r="E67" t="n">
-        <v>0.225631</v>
+        <v>0.249004</v>
       </c>
       <c r="F67" t="n">
-        <v>0.561677</v>
+        <v>0.567819</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.246116</v>
+        <v>0.243489</v>
       </c>
       <c r="C68" t="n">
-        <v>0.576947</v>
+        <v>0.596422</v>
       </c>
       <c r="D68" t="n">
-        <v>0.697817</v>
+        <v>0.70466</v>
       </c>
       <c r="E68" t="n">
-        <v>0.219464</v>
+        <v>0.245468</v>
       </c>
       <c r="F68" t="n">
-        <v>0.564948</v>
+        <v>0.553329</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.235835</v>
+        <v>0.243325</v>
       </c>
       <c r="C69" t="n">
-        <v>0.582658</v>
+        <v>0.597431</v>
       </c>
       <c r="D69" t="n">
-        <v>0.697919</v>
+        <v>0.693671</v>
       </c>
       <c r="E69" t="n">
-        <v>0.217781</v>
+        <v>0.237528</v>
       </c>
       <c r="F69" t="n">
-        <v>0.567689</v>
+        <v>0.5571430000000001</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.230901</v>
+        <v>0.235848</v>
       </c>
       <c r="C70" t="n">
-        <v>0.577009</v>
+        <v>0.5960800000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.692825</v>
+        <v>0.690789</v>
       </c>
       <c r="E70" t="n">
-        <v>0.213275</v>
+        <v>0.233548</v>
       </c>
       <c r="F70" t="n">
-        <v>0.556898</v>
+        <v>0.552539</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.225503</v>
+        <v>0.230587</v>
       </c>
       <c r="C71" t="n">
-        <v>0.585713</v>
+        <v>0.582916</v>
       </c>
       <c r="D71" t="n">
-        <v>0.689876</v>
+        <v>0.691439</v>
       </c>
       <c r="E71" t="n">
-        <v>0.206384</v>
+        <v>0.228682</v>
       </c>
       <c r="F71" t="n">
-        <v>0.546776</v>
+        <v>0.551655</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.222008</v>
+        <v>0.225713</v>
       </c>
       <c r="C72" t="n">
-        <v>0.573006</v>
+        <v>0.583928</v>
       </c>
       <c r="D72" t="n">
-        <v>0.690628</v>
+        <v>0.691245</v>
       </c>
       <c r="E72" t="n">
-        <v>0.202021</v>
+        <v>0.224547</v>
       </c>
       <c r="F72" t="n">
-        <v>0.541285</v>
+        <v>0.541513</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.221914</v>
+        <v>0.218773</v>
       </c>
       <c r="C73" t="n">
-        <v>0.566906</v>
+        <v>0.5793199999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.684416</v>
+        <v>0.683265</v>
       </c>
       <c r="E73" t="n">
-        <v>0.19777</v>
+        <v>0.218512</v>
       </c>
       <c r="F73" t="n">
-        <v>0.539614</v>
+        <v>0.547453</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.216601</v>
+        <v>0.216004</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5621699999999999</v>
+        <v>0.579607</v>
       </c>
       <c r="D74" t="n">
-        <v>0.682144</v>
+        <v>0.697343</v>
       </c>
       <c r="E74" t="n">
-        <v>0.194524</v>
+        <v>0.218798</v>
       </c>
       <c r="F74" t="n">
-        <v>0.540031</v>
+        <v>0.547273</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.213028</v>
+        <v>0.209975</v>
       </c>
       <c r="C75" t="n">
-        <v>0.562787</v>
+        <v>0.5685829999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.675972</v>
+        <v>0.669782</v>
       </c>
       <c r="E75" t="n">
-        <v>0.192608</v>
+        <v>0.208777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.542296</v>
+        <v>0.531118</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.207895</v>
+        <v>0.204842</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5678299999999999</v>
+        <v>0.562576</v>
       </c>
       <c r="D76" t="n">
-        <v>0.682415</v>
+        <v>0.66944</v>
       </c>
       <c r="E76" t="n">
-        <v>0.188309</v>
+        <v>0.204864</v>
       </c>
       <c r="F76" t="n">
-        <v>0.543637</v>
+        <v>0.523983</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.206002</v>
+        <v>0.201308</v>
       </c>
       <c r="C77" t="n">
-        <v>0.555043</v>
+        <v>0.5581199999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.685191</v>
+        <v>0.66295</v>
       </c>
       <c r="E77" t="n">
-        <v>0.184803</v>
+        <v>0.200553</v>
       </c>
       <c r="F77" t="n">
-        <v>0.541387</v>
+        <v>0.526567</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.206498</v>
+        <v>0.196821</v>
       </c>
       <c r="C78" t="n">
-        <v>0.560634</v>
+        <v>0.558594</v>
       </c>
       <c r="D78" t="n">
-        <v>0.787343</v>
+        <v>0.750744</v>
       </c>
       <c r="E78" t="n">
-        <v>0.181</v>
+        <v>0.197281</v>
       </c>
       <c r="F78" t="n">
-        <v>0.534045</v>
+        <v>0.527715</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.197068</v>
+        <v>0.19198</v>
       </c>
       <c r="C79" t="n">
-        <v>0.565291</v>
+        <v>0.558111</v>
       </c>
       <c r="D79" t="n">
-        <v>0.766008</v>
+        <v>0.754958</v>
       </c>
       <c r="E79" t="n">
-        <v>0.176229</v>
+        <v>0.193839</v>
       </c>
       <c r="F79" t="n">
-        <v>0.52481</v>
+        <v>0.515994</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.193846</v>
+        <v>0.184949</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5429580000000001</v>
+        <v>0.546789</v>
       </c>
       <c r="D80" t="n">
-        <v>0.747943</v>
+        <v>0.747892</v>
       </c>
       <c r="E80" t="n">
-        <v>0.236483</v>
+        <v>0.260713</v>
       </c>
       <c r="F80" t="n">
-        <v>0.5723</v>
+        <v>0.581681</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.25151</v>
+        <v>0.251584</v>
       </c>
       <c r="C81" t="n">
-        <v>0.603497</v>
+        <v>0.597774</v>
       </c>
       <c r="D81" t="n">
-        <v>0.748815</v>
+        <v>0.727479</v>
       </c>
       <c r="E81" t="n">
-        <v>0.231648</v>
+        <v>0.255532</v>
       </c>
       <c r="F81" t="n">
-        <v>0.568623</v>
+        <v>0.563101</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.2483</v>
+        <v>0.247005</v>
       </c>
       <c r="C82" t="n">
-        <v>0.593471</v>
+        <v>0.592279</v>
       </c>
       <c r="D82" t="n">
-        <v>0.735336</v>
+        <v>0.725591</v>
       </c>
       <c r="E82" t="n">
-        <v>0.226854</v>
+        <v>0.248452</v>
       </c>
       <c r="F82" t="n">
-        <v>0.566245</v>
+        <v>0.562743</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.242061</v>
+        <v>0.243841</v>
       </c>
       <c r="C83" t="n">
-        <v>0.600799</v>
+        <v>0.58663</v>
       </c>
       <c r="D83" t="n">
-        <v>0.732158</v>
+        <v>0.7241880000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>0.222726</v>
+        <v>0.242228</v>
       </c>
       <c r="F83" t="n">
-        <v>0.558688</v>
+        <v>0.554067</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.23768</v>
+        <v>0.237466</v>
       </c>
       <c r="C84" t="n">
-        <v>0.628538</v>
+        <v>0.62085</v>
       </c>
       <c r="D84" t="n">
-        <v>0.749978</v>
+        <v>0.745565</v>
       </c>
       <c r="E84" t="n">
-        <v>0.219195</v>
+        <v>0.237629</v>
       </c>
       <c r="F84" t="n">
-        <v>0.59588</v>
+        <v>0.588595</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.232484</v>
+        <v>0.237107</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6155620000000001</v>
+        <v>0.612031</v>
       </c>
       <c r="D85" t="n">
-        <v>0.748745</v>
+        <v>0.746313</v>
       </c>
       <c r="E85" t="n">
-        <v>0.213883</v>
+        <v>0.237173</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5952190000000001</v>
+        <v>0.583554</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.228785</v>
+        <v>0.226852</v>
       </c>
       <c r="C86" t="n">
-        <v>0.613085</v>
+        <v>0.608206</v>
       </c>
       <c r="D86" t="n">
-        <v>0.738305</v>
+        <v>0.734374</v>
       </c>
       <c r="E86" t="n">
-        <v>0.209646</v>
+        <v>0.227887</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5902809999999999</v>
+        <v>0.582091</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.224105</v>
+        <v>0.224016</v>
       </c>
       <c r="C87" t="n">
-        <v>0.610498</v>
+        <v>0.603772</v>
       </c>
       <c r="D87" t="n">
-        <v>0.74315</v>
+        <v>0.734208</v>
       </c>
       <c r="E87" t="n">
-        <v>0.207337</v>
+        <v>0.223119</v>
       </c>
       <c r="F87" t="n">
-        <v>0.583592</v>
+        <v>0.57339</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.218602</v>
+        <v>0.218831</v>
       </c>
       <c r="C88" t="n">
-        <v>0.602973</v>
+        <v>0.594072</v>
       </c>
       <c r="D88" t="n">
-        <v>0.732086</v>
+        <v>0.740707</v>
       </c>
       <c r="E88" t="n">
-        <v>0.200242</v>
+        <v>0.22471</v>
       </c>
       <c r="F88" t="n">
-        <v>0.581407</v>
+        <v>0.571616</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.21472</v>
+        <v>0.214928</v>
       </c>
       <c r="C89" t="n">
-        <v>0.600413</v>
+        <v>0.593328</v>
       </c>
       <c r="D89" t="n">
-        <v>0.724531</v>
+        <v>0.720374</v>
       </c>
       <c r="E89" t="n">
-        <v>0.196631</v>
+        <v>0.215554</v>
       </c>
       <c r="F89" t="n">
-        <v>0.577565</v>
+        <v>0.566705</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.212816</v>
+        <v>0.209832</v>
       </c>
       <c r="C90" t="n">
-        <v>0.600844</v>
+        <v>0.588233</v>
       </c>
       <c r="D90" t="n">
-        <v>0.724171</v>
+        <v>0.719112</v>
       </c>
       <c r="E90" t="n">
-        <v>0.192163</v>
+        <v>0.209397</v>
       </c>
       <c r="F90" t="n">
-        <v>0.606134</v>
+        <v>0.560733</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.212032</v>
+        <v>0.205651</v>
       </c>
       <c r="C91" t="n">
-        <v>0.5939950000000001</v>
+        <v>0.585745</v>
       </c>
       <c r="D91" t="n">
-        <v>0.720905</v>
+        <v>0.721252</v>
       </c>
       <c r="E91" t="n">
-        <v>0.188536</v>
+        <v>0.205133</v>
       </c>
       <c r="F91" t="n">
-        <v>0.5754629999999999</v>
+        <v>0.565495</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.204194</v>
+        <v>0.201533</v>
       </c>
       <c r="C92" t="n">
-        <v>0.592788</v>
+        <v>0.579928</v>
       </c>
       <c r="D92" t="n">
-        <v>0.674044</v>
+        <v>0.670311</v>
       </c>
       <c r="E92" t="n">
-        <v>0.187224</v>
+        <v>0.20284</v>
       </c>
       <c r="F92" t="n">
-        <v>0.5718760000000001</v>
+        <v>0.554319</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.200068</v>
+        <v>0.196707</v>
       </c>
       <c r="C93" t="n">
-        <v>0.592823</v>
+        <v>0.578711</v>
       </c>
       <c r="D93" t="n">
-        <v>0.667941</v>
+        <v>0.673502</v>
       </c>
       <c r="E93" t="n">
-        <v>0.181219</v>
+        <v>0.196697</v>
       </c>
       <c r="F93" t="n">
-        <v>0.56691</v>
+        <v>0.554225</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.193149</v>
+        <v>0.189416</v>
       </c>
       <c r="C94" t="n">
-        <v>0.589107</v>
+        <v>0.57248</v>
       </c>
       <c r="D94" t="n">
-        <v>0.666222</v>
+        <v>0.6643829999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>0.2422</v>
+        <v>0.26157</v>
       </c>
       <c r="F94" t="n">
-        <v>0.617368</v>
+        <v>0.608735</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.253643</v>
+        <v>0.254824</v>
       </c>
       <c r="C95" t="n">
-        <v>0.621928</v>
+        <v>0.6364610000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.664152</v>
+        <v>0.670647</v>
       </c>
       <c r="E95" t="n">
-        <v>0.235407</v>
+        <v>0.257508</v>
       </c>
       <c r="F95" t="n">
-        <v>0.613185</v>
+        <v>0.602759</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.249579</v>
+        <v>0.250978</v>
       </c>
       <c r="C96" t="n">
-        <v>0.617912</v>
+        <v>0.642574</v>
       </c>
       <c r="D96" t="n">
-        <v>0.663698</v>
+        <v>0.674453</v>
       </c>
       <c r="E96" t="n">
-        <v>0.230228</v>
+        <v>0.253389</v>
       </c>
       <c r="F96" t="n">
-        <v>0.608747</v>
+        <v>0.604791</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.2438</v>
+        <v>0.248068</v>
       </c>
       <c r="C97" t="n">
-        <v>0.618167</v>
+        <v>0.654169</v>
       </c>
       <c r="D97" t="n">
-        <v>0.661799</v>
+        <v>0.690269</v>
       </c>
       <c r="E97" t="n">
-        <v>0.224501</v>
+        <v>0.24701</v>
       </c>
       <c r="F97" t="n">
-        <v>0.604867</v>
+        <v>0.604979</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.241038</v>
+        <v>0.244864</v>
       </c>
       <c r="C98" t="n">
-        <v>0.611502</v>
+        <v>0.637876</v>
       </c>
       <c r="D98" t="n">
-        <v>0.664333</v>
+        <v>0.667744</v>
       </c>
       <c r="E98" t="n">
-        <v>0.221542</v>
+        <v>0.242573</v>
       </c>
       <c r="F98" t="n">
-        <v>0.602972</v>
+        <v>0.600033</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.23742</v>
+        <v>0.235377</v>
       </c>
       <c r="C99" t="n">
-        <v>0.603673</v>
+        <v>0.626565</v>
       </c>
       <c r="D99" t="n">
-        <v>0.66611</v>
+        <v>0.670104</v>
       </c>
       <c r="E99" t="n">
-        <v>0.220546</v>
+        <v>0.241888</v>
       </c>
       <c r="F99" t="n">
-        <v>0.595321</v>
+        <v>0.585946</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.228554</v>
+        <v>0.229441</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5965200000000001</v>
+        <v>0.606722</v>
       </c>
       <c r="D100" t="n">
-        <v>0.657355</v>
+        <v>0.659922</v>
       </c>
       <c r="E100" t="n">
-        <v>0.213312</v>
+        <v>0.229448</v>
       </c>
       <c r="F100" t="n">
-        <v>0.590132</v>
+        <v>0.5816</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.224015</v>
+        <v>0.225024</v>
       </c>
       <c r="C101" t="n">
-        <v>0.595206</v>
+        <v>0.6143690000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.659304</v>
+        <v>0.662762</v>
       </c>
       <c r="E101" t="n">
-        <v>0.209993</v>
+        <v>0.224457</v>
       </c>
       <c r="F101" t="n">
-        <v>0.588364</v>
+        <v>0.571547</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.219679</v>
+        <v>0.219644</v>
       </c>
       <c r="C102" t="n">
-        <v>0.588885</v>
+        <v>0.607412</v>
       </c>
       <c r="D102" t="n">
-        <v>0.656208</v>
+        <v>0.666593</v>
       </c>
       <c r="E102" t="n">
-        <v>0.204445</v>
+        <v>0.220897</v>
       </c>
       <c r="F102" t="n">
-        <v>0.582109</v>
+        <v>0.573752</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.215556</v>
+        <v>0.215415</v>
       </c>
       <c r="C103" t="n">
-        <v>0.585884</v>
+        <v>0.6055970000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>0.655848</v>
+        <v>0.6586689999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>0.197422</v>
+        <v>0.215616</v>
       </c>
       <c r="F103" t="n">
-        <v>0.579569</v>
+        <v>0.566523</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.212156</v>
+        <v>0.214329</v>
       </c>
       <c r="C104" t="n">
-        <v>0.584777</v>
+        <v>0.605528</v>
       </c>
       <c r="D104" t="n">
-        <v>0.664544</v>
+        <v>0.657791</v>
       </c>
       <c r="E104" t="n">
-        <v>0.19328</v>
+        <v>0.211031</v>
       </c>
       <c r="F104" t="n">
-        <v>0.574674</v>
+        <v>0.565678</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.208321</v>
+        <v>0.207142</v>
       </c>
       <c r="C105" t="n">
-        <v>0.580002</v>
+        <v>0.595955</v>
       </c>
       <c r="D105" t="n">
-        <v>0.668641</v>
+        <v>0.658175</v>
       </c>
       <c r="E105" t="n">
-        <v>0.19017</v>
+        <v>0.206392</v>
       </c>
       <c r="F105" t="n">
-        <v>0.580232</v>
+        <v>0.559992</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.204795</v>
+        <v>0.203584</v>
       </c>
       <c r="C106" t="n">
-        <v>0.580498</v>
+        <v>0.59313</v>
       </c>
       <c r="D106" t="n">
-        <v>0.659349</v>
+        <v>0.659185</v>
       </c>
       <c r="E106" t="n">
-        <v>0.185607</v>
+        <v>0.20225</v>
       </c>
       <c r="F106" t="n">
-        <v>0.568002</v>
+        <v>0.554243</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.199883</v>
+        <v>0.197194</v>
       </c>
       <c r="C107" t="n">
-        <v>0.574829</v>
+        <v>0.59634</v>
       </c>
       <c r="D107" t="n">
-        <v>0.662187</v>
+        <v>0.666755</v>
       </c>
       <c r="E107" t="n">
-        <v>0.183144</v>
+        <v>0.197849</v>
       </c>
       <c r="F107" t="n">
-        <v>0.565957</v>
+        <v>0.556237</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.194247</v>
+        <v>0.192262</v>
       </c>
       <c r="C108" t="n">
-        <v>0.574157</v>
+        <v>0.586598</v>
       </c>
       <c r="D108" t="n">
-        <v>0.661323</v>
+        <v>0.661508</v>
       </c>
       <c r="E108" t="n">
-        <v>0.242367</v>
+        <v>0.263207</v>
       </c>
       <c r="F108" t="n">
-        <v>0.618063</v>
+        <v>0.607216</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.186217</v>
+        <v>0.184489</v>
       </c>
       <c r="C109" t="n">
-        <v>0.568655</v>
+        <v>0.579527</v>
       </c>
       <c r="D109" t="n">
-        <v>0.662361</v>
+        <v>0.667293</v>
       </c>
       <c r="E109" t="n">
-        <v>0.236982</v>
+        <v>0.258764</v>
       </c>
       <c r="F109" t="n">
-        <v>0.613256</v>
+        <v>0.601566</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.249547</v>
+        <v>0.250218</v>
       </c>
       <c r="C110" t="n">
-        <v>0.619915</v>
+        <v>0.619067</v>
       </c>
       <c r="D110" t="n">
-        <v>0.665777</v>
+        <v>0.6651280000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>0.23118</v>
+        <v>0.251777</v>
       </c>
       <c r="F110" t="n">
-        <v>0.611846</v>
+        <v>0.59784</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.246205</v>
+        <v>0.246176</v>
       </c>
       <c r="C111" t="n">
-        <v>0.61527</v>
+        <v>0.61791</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6606</v>
+        <v>0.661188</v>
       </c>
       <c r="E111" t="n">
-        <v>0.229664</v>
+        <v>0.245937</v>
       </c>
       <c r="F111" t="n">
-        <v>0.605176</v>
+        <v>0.595947</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.23995</v>
+        <v>0.24111</v>
       </c>
       <c r="C112" t="n">
-        <v>0.613392</v>
+        <v>0.620245</v>
       </c>
       <c r="D112" t="n">
-        <v>0.665563</v>
+        <v>0.666091</v>
       </c>
       <c r="E112" t="n">
-        <v>0.223705</v>
+        <v>0.240755</v>
       </c>
       <c r="F112" t="n">
-        <v>0.603233</v>
+        <v>0.589656</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.2388</v>
+        <v>0.239369</v>
       </c>
       <c r="C113" t="n">
-        <v>0.604306</v>
+        <v>0.605456</v>
       </c>
       <c r="D113" t="n">
-        <v>0.657873</v>
+        <v>0.659224</v>
       </c>
       <c r="E113" t="n">
-        <v>0.218097</v>
+        <v>0.235455</v>
       </c>
       <c r="F113" t="n">
-        <v>0.596478</v>
+        <v>0.5842000000000001</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.231212</v>
+        <v>0.230869</v>
       </c>
       <c r="C114" t="n">
-        <v>0.603796</v>
+        <v>0.599695</v>
       </c>
       <c r="D114" t="n">
-        <v>0.65687</v>
+        <v>0.658604</v>
       </c>
       <c r="E114" t="n">
-        <v>0.212643</v>
+        <v>0.231662</v>
       </c>
       <c r="F114" t="n">
-        <v>0.592556</v>
+        <v>0.580003</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.225554</v>
+        <v>0.224869</v>
       </c>
       <c r="C115" t="n">
-        <v>0.607657</v>
+        <v>0.591845</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6536729999999999</v>
+        <v>0.660278</v>
       </c>
       <c r="E115" t="n">
-        <v>0.208367</v>
+        <v>0.227757</v>
       </c>
       <c r="F115" t="n">
-        <v>0.593202</v>
+        <v>0.574532</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.220696</v>
+        <v>0.223131</v>
       </c>
       <c r="C116" t="n">
-        <v>0.608993</v>
+        <v>0.591688</v>
       </c>
       <c r="D116" t="n">
-        <v>0.654305</v>
+        <v>0.664724</v>
       </c>
       <c r="E116" t="n">
-        <v>0.202701</v>
+        <v>0.221838</v>
       </c>
       <c r="F116" t="n">
-        <v>0.590083</v>
+        <v>0.572365</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.216486</v>
+        <v>0.217141</v>
       </c>
       <c r="C117" t="n">
-        <v>0.588832</v>
+        <v>0.600223</v>
       </c>
       <c r="D117" t="n">
-        <v>0.653681</v>
+        <v>0.659936</v>
       </c>
       <c r="E117" t="n">
-        <v>0.1986</v>
+        <v>0.218955</v>
       </c>
       <c r="F117" t="n">
-        <v>0.580313</v>
+        <v>0.5686600000000001</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.212955</v>
+        <v>0.211675</v>
       </c>
       <c r="C118" t="n">
-        <v>0.592045</v>
+        <v>0.587446</v>
       </c>
       <c r="D118" t="n">
-        <v>0.654431</v>
+        <v>0.656508</v>
       </c>
       <c r="E118" t="n">
-        <v>0.194545</v>
+        <v>0.211969</v>
       </c>
       <c r="F118" t="n">
-        <v>0.57737</v>
+        <v>0.564002</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.212359</v>
+        <v>0.208122</v>
       </c>
       <c r="C119" t="n">
-        <v>0.592043</v>
+        <v>0.5867</v>
       </c>
       <c r="D119" t="n">
-        <v>0.652606</v>
+        <v>0.658114</v>
       </c>
       <c r="E119" t="n">
-        <v>0.191034</v>
+        <v>0.207876</v>
       </c>
       <c r="F119" t="n">
-        <v>0.577453</v>
+        <v>0.56052</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.206132</v>
+        <v>0.204346</v>
       </c>
       <c r="C120" t="n">
-        <v>0.58245</v>
+        <v>0.583956</v>
       </c>
       <c r="D120" t="n">
-        <v>0.656529</v>
+        <v>0.657138</v>
       </c>
       <c r="E120" t="n">
-        <v>0.186973</v>
+        <v>0.202839</v>
       </c>
       <c r="F120" t="n">
-        <v>0.56986</v>
+        <v>0.556867</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.20088</v>
+        <v>0.20126</v>
       </c>
       <c r="C121" t="n">
-        <v>0.576059</v>
+        <v>0.58472</v>
       </c>
       <c r="D121" t="n">
-        <v>0.673362</v>
+        <v>0.67602</v>
       </c>
       <c r="E121" t="n">
-        <v>0.183523</v>
+        <v>0.199368</v>
       </c>
       <c r="F121" t="n">
-        <v>0.570381</v>
+        <v>0.561365</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.195264</v>
+        <v>0.192916</v>
       </c>
       <c r="C122" t="n">
-        <v>0.588471</v>
+        <v>0.575263</v>
       </c>
       <c r="D122" t="n">
-        <v>0.671742</v>
+        <v>0.677158</v>
       </c>
       <c r="E122" t="n">
-        <v>0.179334</v>
+        <v>0.196681</v>
       </c>
       <c r="F122" t="n">
-        <v>0.568246</v>
+        <v>0.55249</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.191018</v>
+        <v>0.183901</v>
       </c>
       <c r="C123" t="n">
-        <v>0.567394</v>
+        <v>0.590974</v>
       </c>
       <c r="D123" t="n">
-        <v>0.669014</v>
+        <v>0.6749230000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>0.23838</v>
+        <v>0.25861</v>
       </c>
       <c r="F123" t="n">
-        <v>0.616152</v>
+        <v>0.60258</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.249862</v>
+        <v>0.251519</v>
       </c>
       <c r="C124" t="n">
-        <v>0.616827</v>
+        <v>0.6226080000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.671098</v>
+        <v>0.671092</v>
       </c>
       <c r="E124" t="n">
-        <v>0.232546</v>
+        <v>0.255844</v>
       </c>
       <c r="F124" t="n">
-        <v>0.611417</v>
+        <v>0.602222</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.24661</v>
+        <v>0.246492</v>
       </c>
       <c r="C125" t="n">
-        <v>0.635155</v>
+        <v>0.61766</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6664099999999999</v>
+        <v>0.670349</v>
       </c>
       <c r="E125" t="n">
-        <v>0.229118</v>
+        <v>0.247626</v>
       </c>
       <c r="F125" t="n">
-        <v>0.620326</v>
+        <v>0.600085</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.244036</v>
+        <v>0.241265</v>
       </c>
       <c r="C126" t="n">
-        <v>0.608614</v>
+        <v>0.631724</v>
       </c>
       <c r="D126" t="n">
-        <v>0.667844</v>
+        <v>0.670359</v>
       </c>
       <c r="E126" t="n">
-        <v>0.221802</v>
+        <v>0.24173</v>
       </c>
       <c r="F126" t="n">
-        <v>0.603541</v>
+        <v>0.589236</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.236425</v>
+        <v>0.236912</v>
       </c>
       <c r="C127" t="n">
-        <v>0.613127</v>
+        <v>0.6055970000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>0.663516</v>
+        <v>0.667612</v>
       </c>
       <c r="E127" t="n">
-        <v>0.216786</v>
+        <v>0.23707</v>
       </c>
       <c r="F127" t="n">
-        <v>0.597769</v>
+        <v>0.593312</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.230802</v>
+        <v>0.231445</v>
       </c>
       <c r="C128" t="n">
-        <v>0.597752</v>
+        <v>0.605229</v>
       </c>
       <c r="D128" t="n">
-        <v>0.6676260000000001</v>
+        <v>0.668111</v>
       </c>
       <c r="E128" t="n">
-        <v>0.215537</v>
+        <v>0.23196</v>
       </c>
       <c r="F128" t="n">
-        <v>0.595892</v>
+        <v>0.580445</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.226548</v>
+        <v>0.226336</v>
       </c>
       <c r="C129" t="n">
-        <v>0.593573</v>
+        <v>0.618944</v>
       </c>
       <c r="D129" t="n">
-        <v>0.66692</v>
+        <v>0.666341</v>
       </c>
       <c r="E129" t="n">
-        <v>0.207825</v>
+        <v>0.226888</v>
       </c>
       <c r="F129" t="n">
-        <v>0.591543</v>
+        <v>0.579854</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.221977</v>
+        <v>0.222991</v>
       </c>
       <c r="C130" t="n">
-        <v>0.589475</v>
+        <v>0.610098</v>
       </c>
       <c r="D130" t="n">
-        <v>0.66105</v>
+        <v>0.666629</v>
       </c>
       <c r="E130" t="n">
-        <v>0.203383</v>
+        <v>0.222584</v>
       </c>
       <c r="F130" t="n">
-        <v>0.5875089999999999</v>
+        <v>0.574782</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.218413</v>
+        <v>0.218593</v>
       </c>
       <c r="C131" t="n">
-        <v>0.593166</v>
+        <v>0.590079</v>
       </c>
       <c r="D131" t="n">
-        <v>0.66428</v>
+        <v>0.663786</v>
       </c>
       <c r="E131" t="n">
-        <v>0.202452</v>
+        <v>0.218345</v>
       </c>
       <c r="F131" t="n">
-        <v>0.586369</v>
+        <v>0.572906</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.215524</v>
+        <v>0.21371</v>
       </c>
       <c r="C132" t="n">
-        <v>0.597328</v>
+        <v>0.588294</v>
       </c>
       <c r="D132" t="n">
-        <v>0.661883</v>
+        <v>0.664638</v>
       </c>
       <c r="E132" t="n">
-        <v>0.195125</v>
+        <v>0.216076</v>
       </c>
       <c r="F132" t="n">
-        <v>0.57846</v>
+        <v>0.568757</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.213822</v>
+        <v>0.210144</v>
       </c>
       <c r="C133" t="n">
-        <v>0.606182</v>
+        <v>0.597238</v>
       </c>
       <c r="D133" t="n">
-        <v>0.665106</v>
+        <v>0.666598</v>
       </c>
       <c r="E133" t="n">
-        <v>0.191107</v>
+        <v>0.208803</v>
       </c>
       <c r="F133" t="n">
-        <v>0.573979</v>
+        <v>0.564127</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.206501</v>
+        <v>0.205672</v>
       </c>
       <c r="C134" t="n">
-        <v>0.581524</v>
+        <v>0.579886</v>
       </c>
       <c r="D134" t="n">
-        <v>0.657443</v>
+        <v>0.662453</v>
       </c>
       <c r="E134" t="n">
-        <v>0.188142</v>
+        <v>0.20399</v>
       </c>
       <c r="F134" t="n">
-        <v>0.572997</v>
+        <v>0.569325</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.203263</v>
+        <v>0.202348</v>
       </c>
       <c r="C135" t="n">
-        <v>0.5757060000000001</v>
+        <v>0.5917210000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>0.674692</v>
+        <v>0.679472</v>
       </c>
       <c r="E135" t="n">
-        <v>0.184097</v>
+        <v>0.200256</v>
       </c>
       <c r="F135" t="n">
-        <v>0.5678800000000001</v>
+        <v>0.5565600000000001</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.197123</v>
+        <v>0.194112</v>
       </c>
       <c r="C136" t="n">
-        <v>0.572314</v>
+        <v>0.590881</v>
       </c>
       <c r="D136" t="n">
-        <v>0.682727</v>
+        <v>0.67804</v>
       </c>
       <c r="E136" t="n">
-        <v>0.181323</v>
+        <v>0.196357</v>
       </c>
       <c r="F136" t="n">
-        <v>0.565196</v>
+        <v>0.552302</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.192156</v>
+        <v>0.18665</v>
       </c>
       <c r="C137" t="n">
-        <v>0.566069</v>
+        <v>0.570209</v>
       </c>
       <c r="D137" t="n">
-        <v>0.672152</v>
+        <v>0.675105</v>
       </c>
       <c r="E137" t="n">
-        <v>0.238964</v>
+        <v>0.260648</v>
       </c>
       <c r="F137" t="n">
-        <v>0.615812</v>
+        <v>0.606361</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.25051</v>
+        <v>0.252672</v>
       </c>
       <c r="C138" t="n">
-        <v>0.612825</v>
+        <v>0.619274</v>
       </c>
       <c r="D138" t="n">
-        <v>0.6748769999999999</v>
+        <v>0.684119</v>
       </c>
       <c r="E138" t="n">
-        <v>0.234795</v>
+        <v>0.254465</v>
       </c>
       <c r="F138" t="n">
-        <v>0.614987</v>
+        <v>0.605806</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.247565</v>
+        <v>0.251748</v>
       </c>
       <c r="C139" t="n">
-        <v>0.618672</v>
+        <v>0.616569</v>
       </c>
       <c r="D139" t="n">
-        <v>0.668635</v>
+        <v>0.673383</v>
       </c>
       <c r="E139" t="n">
-        <v>0.228631</v>
+        <v>0.250973</v>
       </c>
       <c r="F139" t="n">
-        <v>0.609667</v>
+        <v>0.596011</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.24277</v>
+        <v>0.244008</v>
       </c>
       <c r="C140" t="n">
-        <v>0.615683</v>
+        <v>0.60795</v>
       </c>
       <c r="D140" t="n">
-        <v>0.670968</v>
+        <v>0.671084</v>
       </c>
       <c r="E140" t="n">
-        <v>0.223562</v>
+        <v>0.243853</v>
       </c>
       <c r="F140" t="n">
-        <v>0.603721</v>
+        <v>0.589049</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.237741</v>
+        <v>0.241698</v>
       </c>
       <c r="C141" t="n">
-        <v>0.6026820000000001</v>
+        <v>0.6062959999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.668241</v>
+        <v>0.669384</v>
       </c>
       <c r="E141" t="n">
-        <v>0.220639</v>
+        <v>0.238608</v>
       </c>
       <c r="F141" t="n">
-        <v>0.598425</v>
+        <v>0.584973</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.233401</v>
+        <v>0.231866</v>
       </c>
       <c r="C142" t="n">
-        <v>0.598714</v>
+        <v>0.598441</v>
       </c>
       <c r="D142" t="n">
-        <v>0.667843</v>
+        <v>0.669824</v>
       </c>
       <c r="E142" t="n">
-        <v>0.213548</v>
+        <v>0.241204</v>
       </c>
       <c r="F142" t="n">
-        <v>0.595572</v>
+        <v>0.582666</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.227158</v>
+        <v>0.227663</v>
       </c>
       <c r="C143" t="n">
-        <v>0.595441</v>
+        <v>0.593826</v>
       </c>
       <c r="D143" t="n">
-        <v>0.671156</v>
+        <v>0.667396</v>
       </c>
       <c r="E143" t="n">
-        <v>0.214174</v>
+        <v>0.228157</v>
       </c>
       <c r="F143" t="n">
-        <v>0.590804</v>
+        <v>0.577824</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.196818</v>
+        <v>0.197452</v>
       </c>
       <c r="C2" t="n">
-        <v>0.453582</v>
+        <v>0.455672</v>
       </c>
       <c r="D2" t="n">
-        <v>0.509383</v>
+        <v>0.522485</v>
       </c>
       <c r="E2" t="n">
-        <v>0.198527</v>
+        <v>0.182709</v>
       </c>
       <c r="F2" t="n">
-        <v>0.428481</v>
+        <v>0.448465</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.189509</v>
+        <v>0.194379</v>
       </c>
       <c r="C3" t="n">
-        <v>0.441789</v>
+        <v>0.448749</v>
       </c>
       <c r="D3" t="n">
-        <v>0.505125</v>
+        <v>0.507656</v>
       </c>
       <c r="E3" t="n">
-        <v>0.192216</v>
+        <v>0.175813</v>
       </c>
       <c r="F3" t="n">
-        <v>0.431943</v>
+        <v>0.44408</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.192315</v>
+        <v>0.204797</v>
       </c>
       <c r="C4" t="n">
-        <v>0.442927</v>
+        <v>0.459207</v>
       </c>
       <c r="D4" t="n">
-        <v>0.507795</v>
+        <v>0.521482</v>
       </c>
       <c r="E4" t="n">
-        <v>0.187379</v>
+        <v>0.175186</v>
       </c>
       <c r="F4" t="n">
-        <v>0.424386</v>
+        <v>0.446418</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.187387</v>
+        <v>0.196759</v>
       </c>
       <c r="C5" t="n">
-        <v>0.434309</v>
+        <v>0.452705</v>
       </c>
       <c r="D5" t="n">
-        <v>0.501609</v>
+        <v>0.5180979999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.185048</v>
+        <v>0.174318</v>
       </c>
       <c r="F5" t="n">
-        <v>0.426578</v>
+        <v>0.439048</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.181382</v>
+        <v>0.183126</v>
       </c>
       <c r="C6" t="n">
-        <v>0.433807</v>
+        <v>0.439905</v>
       </c>
       <c r="D6" t="n">
-        <v>0.496524</v>
+        <v>0.500542</v>
       </c>
       <c r="E6" t="n">
-        <v>0.181339</v>
+        <v>0.170536</v>
       </c>
       <c r="F6" t="n">
-        <v>0.421317</v>
+        <v>0.434652</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.182197</v>
+        <v>0.179509</v>
       </c>
       <c r="C7" t="n">
-        <v>0.431877</v>
+        <v>0.425311</v>
       </c>
       <c r="D7" t="n">
-        <v>0.511344</v>
+        <v>0.502918</v>
       </c>
       <c r="E7" t="n">
-        <v>0.17912</v>
+        <v>0.164988</v>
       </c>
       <c r="F7" t="n">
-        <v>0.417687</v>
+        <v>0.427174</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.176135</v>
+        <v>0.182546</v>
       </c>
       <c r="C8" t="n">
-        <v>0.42308</v>
+        <v>0.423604</v>
       </c>
       <c r="D8" t="n">
-        <v>0.512352</v>
+        <v>0.501982</v>
       </c>
       <c r="E8" t="n">
-        <v>0.176612</v>
+        <v>0.161361</v>
       </c>
       <c r="F8" t="n">
-        <v>0.417156</v>
+        <v>0.428763</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.170704</v>
+        <v>0.166895</v>
       </c>
       <c r="C9" t="n">
-        <v>0.425805</v>
+        <v>0.417848</v>
       </c>
       <c r="D9" t="n">
-        <v>0.513444</v>
+        <v>0.514066</v>
       </c>
       <c r="E9" t="n">
-        <v>0.231626</v>
+        <v>0.209175</v>
       </c>
       <c r="F9" t="n">
-        <v>0.462306</v>
+        <v>0.459991</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.221956</v>
+        <v>0.220024</v>
       </c>
       <c r="C10" t="n">
-        <v>0.469971</v>
+        <v>0.469528</v>
       </c>
       <c r="D10" t="n">
-        <v>0.508346</v>
+        <v>0.513099</v>
       </c>
       <c r="E10" t="n">
-        <v>0.230794</v>
+        <v>0.203534</v>
       </c>
       <c r="F10" t="n">
-        <v>0.459238</v>
+        <v>0.465761</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.218711</v>
+        <v>0.216436</v>
       </c>
       <c r="C11" t="n">
-        <v>0.46491</v>
+        <v>0.462887</v>
       </c>
       <c r="D11" t="n">
-        <v>0.519977</v>
+        <v>0.5037740000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.220793</v>
+        <v>0.199879</v>
       </c>
       <c r="F11" t="n">
-        <v>0.456184</v>
+        <v>0.457426</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.212475</v>
+        <v>0.213914</v>
       </c>
       <c r="C12" t="n">
-        <v>0.454643</v>
+        <v>0.464935</v>
       </c>
       <c r="D12" t="n">
-        <v>0.507559</v>
+        <v>0.505068</v>
       </c>
       <c r="E12" t="n">
-        <v>0.21865</v>
+        <v>0.196077</v>
       </c>
       <c r="F12" t="n">
-        <v>0.44718</v>
+        <v>0.454449</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.212866</v>
+        <v>0.206754</v>
       </c>
       <c r="C13" t="n">
-        <v>0.451882</v>
+        <v>0.458034</v>
       </c>
       <c r="D13" t="n">
-        <v>0.509508</v>
+        <v>0.50157</v>
       </c>
       <c r="E13" t="n">
-        <v>0.213405</v>
+        <v>0.192788</v>
       </c>
       <c r="F13" t="n">
-        <v>0.451148</v>
+        <v>0.453901</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.206156</v>
+        <v>0.205574</v>
       </c>
       <c r="C14" t="n">
-        <v>0.45271</v>
+        <v>0.450643</v>
       </c>
       <c r="D14" t="n">
-        <v>0.511307</v>
+        <v>0.496316</v>
       </c>
       <c r="E14" t="n">
-        <v>0.213536</v>
+        <v>0.188916</v>
       </c>
       <c r="F14" t="n">
-        <v>0.452264</v>
+        <v>0.443344</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.20513</v>
+        <v>0.201202</v>
       </c>
       <c r="C15" t="n">
-        <v>0.446394</v>
+        <v>0.449772</v>
       </c>
       <c r="D15" t="n">
-        <v>0.50376</v>
+        <v>0.497265</v>
       </c>
       <c r="E15" t="n">
-        <v>0.203696</v>
+        <v>0.186437</v>
       </c>
       <c r="F15" t="n">
-        <v>0.437671</v>
+        <v>0.442536</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.199586</v>
+        <v>0.199951</v>
       </c>
       <c r="C16" t="n">
-        <v>0.45317</v>
+        <v>0.443997</v>
       </c>
       <c r="D16" t="n">
-        <v>0.505737</v>
+        <v>0.499173</v>
       </c>
       <c r="E16" t="n">
-        <v>0.201862</v>
+        <v>0.184581</v>
       </c>
       <c r="F16" t="n">
-        <v>0.43395</v>
+        <v>0.438805</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.197295</v>
+        <v>0.195912</v>
       </c>
       <c r="C17" t="n">
-        <v>0.446991</v>
+        <v>0.441189</v>
       </c>
       <c r="D17" t="n">
-        <v>0.513523</v>
+        <v>0.496802</v>
       </c>
       <c r="E17" t="n">
-        <v>0.199604</v>
+        <v>0.185791</v>
       </c>
       <c r="F17" t="n">
-        <v>0.432466</v>
+        <v>0.438376</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.194138</v>
+        <v>0.194989</v>
       </c>
       <c r="C18" t="n">
-        <v>0.443731</v>
+        <v>0.443204</v>
       </c>
       <c r="D18" t="n">
-        <v>0.503126</v>
+        <v>0.500256</v>
       </c>
       <c r="E18" t="n">
-        <v>0.197155</v>
+        <v>0.176804</v>
       </c>
       <c r="F18" t="n">
-        <v>0.428495</v>
+        <v>0.436805</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.191635</v>
+        <v>0.190547</v>
       </c>
       <c r="C19" t="n">
-        <v>0.439381</v>
+        <v>0.435659</v>
       </c>
       <c r="D19" t="n">
-        <v>0.510697</v>
+        <v>0.499144</v>
       </c>
       <c r="E19" t="n">
-        <v>0.190845</v>
+        <v>0.173881</v>
       </c>
       <c r="F19" t="n">
-        <v>0.433614</v>
+        <v>0.448789</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.190024</v>
+        <v>0.190915</v>
       </c>
       <c r="C20" t="n">
-        <v>0.43768</v>
+        <v>0.434641</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5123760000000001</v>
+        <v>0.497774</v>
       </c>
       <c r="E20" t="n">
-        <v>0.186517</v>
+        <v>0.171122</v>
       </c>
       <c r="F20" t="n">
-        <v>0.423773</v>
+        <v>0.432164</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.18611</v>
+        <v>0.187091</v>
       </c>
       <c r="C21" t="n">
-        <v>0.438175</v>
+        <v>0.429389</v>
       </c>
       <c r="D21" t="n">
-        <v>0.518859</v>
+        <v>0.514944</v>
       </c>
       <c r="E21" t="n">
-        <v>0.187005</v>
+        <v>0.171473</v>
       </c>
       <c r="F21" t="n">
-        <v>0.417593</v>
+        <v>0.427255</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.181686</v>
+        <v>0.182948</v>
       </c>
       <c r="C22" t="n">
-        <v>0.433599</v>
+        <v>0.4274</v>
       </c>
       <c r="D22" t="n">
-        <v>0.516191</v>
+        <v>0.5167350000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.179667</v>
+        <v>0.164824</v>
       </c>
       <c r="F22" t="n">
-        <v>0.415455</v>
+        <v>0.425389</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.176948</v>
+        <v>0.176394</v>
       </c>
       <c r="C23" t="n">
-        <v>0.433734</v>
+        <v>0.415382</v>
       </c>
       <c r="D23" t="n">
-        <v>0.528426</v>
+        <v>0.509269</v>
       </c>
       <c r="E23" t="n">
-        <v>0.23627</v>
+        <v>0.216922</v>
       </c>
       <c r="F23" t="n">
-        <v>0.470619</v>
+        <v>0.468315</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.227886</v>
+        <v>0.230684</v>
       </c>
       <c r="C24" t="n">
-        <v>0.464063</v>
+        <v>0.471219</v>
       </c>
       <c r="D24" t="n">
-        <v>0.515501</v>
+        <v>0.508266</v>
       </c>
       <c r="E24" t="n">
-        <v>0.230355</v>
+        <v>0.213435</v>
       </c>
       <c r="F24" t="n">
-        <v>0.463222</v>
+        <v>0.468204</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.225207</v>
+        <v>0.227224</v>
       </c>
       <c r="C25" t="n">
-        <v>0.467041</v>
+        <v>0.467864</v>
       </c>
       <c r="D25" t="n">
-        <v>0.513009</v>
+        <v>0.512659</v>
       </c>
       <c r="E25" t="n">
-        <v>0.228424</v>
+        <v>0.21087</v>
       </c>
       <c r="F25" t="n">
-        <v>0.456672</v>
+        <v>0.46294</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.222967</v>
+        <v>0.223975</v>
       </c>
       <c r="C26" t="n">
-        <v>0.464684</v>
+        <v>0.464648</v>
       </c>
       <c r="D26" t="n">
-        <v>0.518168</v>
+        <v>0.506501</v>
       </c>
       <c r="E26" t="n">
-        <v>0.221428</v>
+        <v>0.208525</v>
       </c>
       <c r="F26" t="n">
-        <v>0.44845</v>
+        <v>0.459661</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.216781</v>
+        <v>0.219781</v>
       </c>
       <c r="C27" t="n">
-        <v>0.456938</v>
+        <v>0.472968</v>
       </c>
       <c r="D27" t="n">
-        <v>0.517026</v>
+        <v>0.516845</v>
       </c>
       <c r="E27" t="n">
-        <v>0.217851</v>
+        <v>0.198687</v>
       </c>
       <c r="F27" t="n">
-        <v>0.463907</v>
+        <v>0.461577</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.212586</v>
+        <v>0.216621</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4564</v>
+        <v>0.462701</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5072950000000001</v>
+        <v>0.510558</v>
       </c>
       <c r="E28" t="n">
-        <v>0.216233</v>
+        <v>0.195625</v>
       </c>
       <c r="F28" t="n">
-        <v>0.441015</v>
+        <v>0.457287</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.209579</v>
+        <v>0.213946</v>
       </c>
       <c r="C29" t="n">
-        <v>0.45091</v>
+        <v>0.4584</v>
       </c>
       <c r="D29" t="n">
-        <v>0.517898</v>
+        <v>0.514983</v>
       </c>
       <c r="E29" t="n">
-        <v>0.211935</v>
+        <v>0.193766</v>
       </c>
       <c r="F29" t="n">
-        <v>0.443239</v>
+        <v>0.456771</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.205689</v>
+        <v>0.208843</v>
       </c>
       <c r="C30" t="n">
-        <v>0.445339</v>
+        <v>0.452607</v>
       </c>
       <c r="D30" t="n">
-        <v>0.507603</v>
+        <v>0.5169820000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>0.207178</v>
+        <v>0.191062</v>
       </c>
       <c r="F30" t="n">
-        <v>0.437049</v>
+        <v>0.447511</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.202255</v>
+        <v>0.205557</v>
       </c>
       <c r="C31" t="n">
-        <v>0.447219</v>
+        <v>0.450292</v>
       </c>
       <c r="D31" t="n">
-        <v>0.505738</v>
+        <v>0.500848</v>
       </c>
       <c r="E31" t="n">
-        <v>0.202719</v>
+        <v>0.18633</v>
       </c>
       <c r="F31" t="n">
-        <v>0.442351</v>
+        <v>0.441266</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.202424</v>
+        <v>0.203182</v>
       </c>
       <c r="C32" t="n">
-        <v>0.441195</v>
+        <v>0.446352</v>
       </c>
       <c r="D32" t="n">
-        <v>0.507354</v>
+        <v>0.513064</v>
       </c>
       <c r="E32" t="n">
-        <v>0.199332</v>
+        <v>0.182335</v>
       </c>
       <c r="F32" t="n">
-        <v>0.432593</v>
+        <v>0.435996</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.194557</v>
+        <v>0.196819</v>
       </c>
       <c r="C33" t="n">
-        <v>0.439195</v>
+        <v>0.441009</v>
       </c>
       <c r="D33" t="n">
-        <v>0.516105</v>
+        <v>0.5139049999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>0.194814</v>
+        <v>0.181694</v>
       </c>
       <c r="F33" t="n">
-        <v>0.432509</v>
+        <v>0.436723</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.191711</v>
+        <v>0.194025</v>
       </c>
       <c r="C34" t="n">
-        <v>0.437209</v>
+        <v>0.435638</v>
       </c>
       <c r="D34" t="n">
-        <v>0.508759</v>
+        <v>0.498714</v>
       </c>
       <c r="E34" t="n">
-        <v>0.191173</v>
+        <v>0.176104</v>
       </c>
       <c r="F34" t="n">
-        <v>0.427203</v>
+        <v>0.4409</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.188593</v>
+        <v>0.191167</v>
       </c>
       <c r="C35" t="n">
-        <v>0.430691</v>
+        <v>0.438381</v>
       </c>
       <c r="D35" t="n">
-        <v>0.527863</v>
+        <v>0.524609</v>
       </c>
       <c r="E35" t="n">
-        <v>0.189209</v>
+        <v>0.173811</v>
       </c>
       <c r="F35" t="n">
-        <v>0.422099</v>
+        <v>0.431347</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.183647</v>
+        <v>0.187092</v>
       </c>
       <c r="C36" t="n">
-        <v>0.43184</v>
+        <v>0.440687</v>
       </c>
       <c r="D36" t="n">
-        <v>0.521475</v>
+        <v>0.526071</v>
       </c>
       <c r="E36" t="n">
-        <v>0.183775</v>
+        <v>0.170724</v>
       </c>
       <c r="F36" t="n">
-        <v>0.417109</v>
+        <v>0.432227</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.178169</v>
+        <v>0.181149</v>
       </c>
       <c r="C37" t="n">
-        <v>0.422949</v>
+        <v>0.427303</v>
       </c>
       <c r="D37" t="n">
-        <v>0.528352</v>
+        <v>0.531135</v>
       </c>
       <c r="E37" t="n">
-        <v>0.25062</v>
+        <v>0.230544</v>
       </c>
       <c r="F37" t="n">
-        <v>0.472849</v>
+        <v>0.479345</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.232993</v>
+        <v>0.234612</v>
       </c>
       <c r="C38" t="n">
-        <v>0.475169</v>
+        <v>0.499925</v>
       </c>
       <c r="D38" t="n">
-        <v>0.526343</v>
+        <v>0.5369969999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>0.244223</v>
+        <v>0.230692</v>
       </c>
       <c r="F38" t="n">
-        <v>0.468143</v>
+        <v>0.49346</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.228939</v>
+        <v>0.235417</v>
       </c>
       <c r="C39" t="n">
-        <v>0.482306</v>
+        <v>0.491126</v>
       </c>
       <c r="D39" t="n">
-        <v>0.525618</v>
+        <v>0.529956</v>
       </c>
       <c r="E39" t="n">
-        <v>0.243304</v>
+        <v>0.221473</v>
       </c>
       <c r="F39" t="n">
-        <v>0.467089</v>
+        <v>0.479312</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.225066</v>
+        <v>0.226354</v>
       </c>
       <c r="C40" t="n">
-        <v>0.480504</v>
+        <v>0.488555</v>
       </c>
       <c r="D40" t="n">
-        <v>0.528021</v>
+        <v>0.53908</v>
       </c>
       <c r="E40" t="n">
-        <v>0.23541</v>
+        <v>0.21706</v>
       </c>
       <c r="F40" t="n">
-        <v>0.467944</v>
+        <v>0.478965</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.221653</v>
+        <v>0.22648</v>
       </c>
       <c r="C41" t="n">
-        <v>0.46397</v>
+        <v>0.492763</v>
       </c>
       <c r="D41" t="n">
-        <v>0.525826</v>
+        <v>0.5334100000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>0.230623</v>
+        <v>0.21285</v>
       </c>
       <c r="F41" t="n">
-        <v>0.452786</v>
+        <v>0.472037</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.216629</v>
+        <v>0.218091</v>
       </c>
       <c r="C42" t="n">
-        <v>0.466255</v>
+        <v>0.485754</v>
       </c>
       <c r="D42" t="n">
-        <v>0.532872</v>
+        <v>0.541072</v>
       </c>
       <c r="E42" t="n">
-        <v>0.225611</v>
+        <v>0.208383</v>
       </c>
       <c r="F42" t="n">
-        <v>0.462918</v>
+        <v>0.459897</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.213591</v>
+        <v>0.219168</v>
       </c>
       <c r="C43" t="n">
-        <v>0.482268</v>
+        <v>0.486283</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5336379999999999</v>
+        <v>0.5282210000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>0.228714</v>
+        <v>0.203332</v>
       </c>
       <c r="F43" t="n">
-        <v>0.444656</v>
+        <v>0.474685</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.209101</v>
+        <v>0.212043</v>
       </c>
       <c r="C44" t="n">
-        <v>0.465029</v>
+        <v>0.462191</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5276960000000001</v>
+        <v>0.52472</v>
       </c>
       <c r="E44" t="n">
-        <v>0.216219</v>
+        <v>0.199935</v>
       </c>
       <c r="F44" t="n">
-        <v>0.467515</v>
+        <v>0.469308</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.205271</v>
+        <v>0.211436</v>
       </c>
       <c r="C45" t="n">
-        <v>0.475445</v>
+        <v>0.458722</v>
       </c>
       <c r="D45" t="n">
-        <v>0.541452</v>
+        <v>0.533502</v>
       </c>
       <c r="E45" t="n">
-        <v>0.21208</v>
+        <v>0.198892</v>
       </c>
       <c r="F45" t="n">
-        <v>0.464967</v>
+        <v>0.448723</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.201311</v>
+        <v>0.204056</v>
       </c>
       <c r="C46" t="n">
-        <v>0.48168</v>
+        <v>0.457041</v>
       </c>
       <c r="D46" t="n">
-        <v>0.54025</v>
+        <v>0.526741</v>
       </c>
       <c r="E46" t="n">
-        <v>0.207987</v>
+        <v>0.194313</v>
       </c>
       <c r="F46" t="n">
-        <v>0.470981</v>
+        <v>0.471057</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204291</v>
+        <v>0.200584</v>
       </c>
       <c r="C47" t="n">
-        <v>0.482408</v>
+        <v>0.488407</v>
       </c>
       <c r="D47" t="n">
-        <v>0.546274</v>
+        <v>0.5430430000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>0.204096</v>
+        <v>0.188864</v>
       </c>
       <c r="F47" t="n">
-        <v>0.465599</v>
+        <v>0.44767</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.194351</v>
+        <v>0.197432</v>
       </c>
       <c r="C48" t="n">
-        <v>0.48684</v>
+        <v>0.459217</v>
       </c>
       <c r="D48" t="n">
-        <v>0.551073</v>
+        <v>0.538602</v>
       </c>
       <c r="E48" t="n">
-        <v>0.198937</v>
+        <v>0.186868</v>
       </c>
       <c r="F48" t="n">
-        <v>0.474943</v>
+        <v>0.472378</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191425</v>
+        <v>0.192746</v>
       </c>
       <c r="C49" t="n">
-        <v>0.486961</v>
+        <v>0.451492</v>
       </c>
       <c r="D49" t="n">
-        <v>0.553538</v>
+        <v>0.5270089999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>0.194999</v>
+        <v>0.180973</v>
       </c>
       <c r="F49" t="n">
-        <v>0.468069</v>
+        <v>0.4549</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.186824</v>
+        <v>0.189074</v>
       </c>
       <c r="C50" t="n">
-        <v>0.44448</v>
+        <v>0.450483</v>
       </c>
       <c r="D50" t="n">
-        <v>0.617815</v>
+        <v>0.643984</v>
       </c>
       <c r="E50" t="n">
-        <v>0.191564</v>
+        <v>0.182763</v>
       </c>
       <c r="F50" t="n">
-        <v>0.429824</v>
+        <v>0.48875</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.182467</v>
+        <v>0.183054</v>
       </c>
       <c r="C51" t="n">
-        <v>0.442117</v>
+        <v>0.497874</v>
       </c>
       <c r="D51" t="n">
-        <v>0.626874</v>
+        <v>0.6368549999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>0.252664</v>
+        <v>0.234538</v>
       </c>
       <c r="F51" t="n">
-        <v>0.536328</v>
+        <v>0.497943</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.17356</v>
+        <v>0.176068</v>
       </c>
       <c r="C52" t="n">
-        <v>0.438994</v>
+        <v>0.443588</v>
       </c>
       <c r="D52" t="n">
-        <v>0.612053</v>
+        <v>0.621511</v>
       </c>
       <c r="E52" t="n">
-        <v>0.248828</v>
+        <v>0.229397</v>
       </c>
       <c r="F52" t="n">
-        <v>0.489671</v>
+        <v>0.503027</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.236748</v>
+        <v>0.238587</v>
       </c>
       <c r="C53" t="n">
-        <v>0.505081</v>
+        <v>0.520184</v>
       </c>
       <c r="D53" t="n">
-        <v>0.616946</v>
+        <v>0.63013</v>
       </c>
       <c r="E53" t="n">
-        <v>0.242149</v>
+        <v>0.223831</v>
       </c>
       <c r="F53" t="n">
-        <v>0.48511</v>
+        <v>0.504385</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.233579</v>
+        <v>0.236802</v>
       </c>
       <c r="C54" t="n">
-        <v>0.507765</v>
+        <v>0.511853</v>
       </c>
       <c r="D54" t="n">
-        <v>0.608957</v>
+        <v>0.621784</v>
       </c>
       <c r="E54" t="n">
-        <v>0.237091</v>
+        <v>0.220159</v>
       </c>
       <c r="F54" t="n">
-        <v>0.487805</v>
+        <v>0.498243</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.229282</v>
+        <v>0.235342</v>
       </c>
       <c r="C55" t="n">
-        <v>0.513108</v>
+        <v>0.510537</v>
       </c>
       <c r="D55" t="n">
-        <v>0.611747</v>
+        <v>0.625001</v>
       </c>
       <c r="E55" t="n">
-        <v>0.234824</v>
+        <v>0.216506</v>
       </c>
       <c r="F55" t="n">
-        <v>0.484127</v>
+        <v>0.502205</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.224671</v>
+        <v>0.225743</v>
       </c>
       <c r="C56" t="n">
-        <v>0.503958</v>
+        <v>0.556413</v>
       </c>
       <c r="D56" t="n">
-        <v>0.62208</v>
+        <v>0.639016</v>
       </c>
       <c r="E56" t="n">
-        <v>0.228117</v>
+        <v>0.212271</v>
       </c>
       <c r="F56" t="n">
-        <v>0.488325</v>
+        <v>0.510257</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.219398</v>
+        <v>0.224501</v>
       </c>
       <c r="C57" t="n">
-        <v>0.538792</v>
+        <v>0.521612</v>
       </c>
       <c r="D57" t="n">
-        <v>0.61691</v>
+        <v>0.624001</v>
       </c>
       <c r="E57" t="n">
-        <v>0.222438</v>
+        <v>0.206161</v>
       </c>
       <c r="F57" t="n">
-        <v>0.507006</v>
+        <v>0.498306</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.216506</v>
+        <v>0.219695</v>
       </c>
       <c r="C58" t="n">
-        <v>0.503992</v>
+        <v>0.507094</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6318859999999999</v>
+        <v>0.634669</v>
       </c>
       <c r="E58" t="n">
-        <v>0.219238</v>
+        <v>0.202668</v>
       </c>
       <c r="F58" t="n">
-        <v>0.523806</v>
+        <v>0.548507</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.211852</v>
+        <v>0.217304</v>
       </c>
       <c r="C59" t="n">
-        <v>0.555113</v>
+        <v>0.546246</v>
       </c>
       <c r="D59" t="n">
-        <v>0.637761</v>
+        <v>0.62619</v>
       </c>
       <c r="E59" t="n">
-        <v>0.213813</v>
+        <v>0.197837</v>
       </c>
       <c r="F59" t="n">
-        <v>0.509705</v>
+        <v>0.501955</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.207238</v>
+        <v>0.208915</v>
       </c>
       <c r="C60" t="n">
-        <v>0.520548</v>
+        <v>0.5191</v>
       </c>
       <c r="D60" t="n">
-        <v>0.627219</v>
+        <v>0.64488</v>
       </c>
       <c r="E60" t="n">
-        <v>0.209751</v>
+        <v>0.198862</v>
       </c>
       <c r="F60" t="n">
-        <v>0.526051</v>
+        <v>0.525309</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.204591</v>
+        <v>0.205598</v>
       </c>
       <c r="C61" t="n">
-        <v>0.515066</v>
+        <v>0.519842</v>
       </c>
       <c r="D61" t="n">
-        <v>0.624095</v>
+        <v>0.633502</v>
       </c>
       <c r="E61" t="n">
-        <v>0.205217</v>
+        <v>0.191525</v>
       </c>
       <c r="F61" t="n">
-        <v>0.506773</v>
+        <v>0.532742</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.200211</v>
+        <v>0.203735</v>
       </c>
       <c r="C62" t="n">
-        <v>0.547977</v>
+        <v>0.5417729999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.609294</v>
+        <v>0.636982</v>
       </c>
       <c r="E62" t="n">
-        <v>0.201819</v>
+        <v>0.189662</v>
       </c>
       <c r="F62" t="n">
-        <v>0.484393</v>
+        <v>0.538658</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.195581</v>
+        <v>0.199573</v>
       </c>
       <c r="C63" t="n">
-        <v>0.518414</v>
+        <v>0.543135</v>
       </c>
       <c r="D63" t="n">
-        <v>0.614359</v>
+        <v>0.629285</v>
       </c>
       <c r="E63" t="n">
-        <v>0.197298</v>
+        <v>0.182956</v>
       </c>
       <c r="F63" t="n">
-        <v>0.515689</v>
+        <v>0.531807</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.192341</v>
+        <v>0.196516</v>
       </c>
       <c r="C64" t="n">
-        <v>0.525536</v>
+        <v>0.5128470000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.71622</v>
+        <v>0.719314</v>
       </c>
       <c r="E64" t="n">
-        <v>0.194479</v>
+        <v>0.179564</v>
       </c>
       <c r="F64" t="n">
-        <v>0.486747</v>
+        <v>0.525742</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.186355</v>
+        <v>0.189828</v>
       </c>
       <c r="C65" t="n">
-        <v>0.525796</v>
+        <v>0.533672</v>
       </c>
       <c r="D65" t="n">
-        <v>0.711188</v>
+        <v>0.717283</v>
       </c>
       <c r="E65" t="n">
-        <v>0.19045</v>
+        <v>0.176044</v>
       </c>
       <c r="F65" t="n">
-        <v>0.513922</v>
+        <v>0.521414</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.180897</v>
+        <v>0.181315</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5390200000000001</v>
+        <v>0.5310820000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.711583</v>
+        <v>0.712332</v>
       </c>
       <c r="E66" t="n">
-        <v>0.255295</v>
+        <v>0.236475</v>
       </c>
       <c r="F66" t="n">
-        <v>0.571358</v>
+        <v>0.578681</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.245134</v>
+        <v>0.245981</v>
       </c>
       <c r="C67" t="n">
-        <v>0.603772</v>
+        <v>0.593237</v>
       </c>
       <c r="D67" t="n">
-        <v>0.706516</v>
+        <v>0.705667</v>
       </c>
       <c r="E67" t="n">
-        <v>0.249004</v>
+        <v>0.226296</v>
       </c>
       <c r="F67" t="n">
-        <v>0.567819</v>
+        <v>0.566011</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.243489</v>
+        <v>0.242736</v>
       </c>
       <c r="C68" t="n">
-        <v>0.596422</v>
+        <v>0.588328</v>
       </c>
       <c r="D68" t="n">
-        <v>0.70466</v>
+        <v>0.697202</v>
       </c>
       <c r="E68" t="n">
-        <v>0.245468</v>
+        <v>0.225826</v>
       </c>
       <c r="F68" t="n">
-        <v>0.553329</v>
+        <v>0.563808</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.243325</v>
+        <v>0.238241</v>
       </c>
       <c r="C69" t="n">
-        <v>0.597431</v>
+        <v>0.58636</v>
       </c>
       <c r="D69" t="n">
-        <v>0.693671</v>
+        <v>0.685539</v>
       </c>
       <c r="E69" t="n">
-        <v>0.237528</v>
+        <v>0.219234</v>
       </c>
       <c r="F69" t="n">
-        <v>0.5571430000000001</v>
+        <v>0.567595</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235848</v>
+        <v>0.236544</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5960800000000001</v>
+        <v>0.576385</v>
       </c>
       <c r="D70" t="n">
-        <v>0.690789</v>
+        <v>0.696785</v>
       </c>
       <c r="E70" t="n">
-        <v>0.233548</v>
+        <v>0.217382</v>
       </c>
       <c r="F70" t="n">
-        <v>0.552539</v>
+        <v>0.567451</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230587</v>
+        <v>0.230352</v>
       </c>
       <c r="C71" t="n">
-        <v>0.582916</v>
+        <v>0.578245</v>
       </c>
       <c r="D71" t="n">
-        <v>0.691439</v>
+        <v>0.681968</v>
       </c>
       <c r="E71" t="n">
-        <v>0.228682</v>
+        <v>0.208888</v>
       </c>
       <c r="F71" t="n">
-        <v>0.551655</v>
+        <v>0.565671</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.225713</v>
+        <v>0.228563</v>
       </c>
       <c r="C72" t="n">
-        <v>0.583928</v>
+        <v>0.5802929999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.691245</v>
+        <v>0.682941</v>
       </c>
       <c r="E72" t="n">
-        <v>0.224547</v>
+        <v>0.2061</v>
       </c>
       <c r="F72" t="n">
-        <v>0.541513</v>
+        <v>0.564531</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.218773</v>
+        <v>0.223651</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5793199999999999</v>
+        <v>0.573051</v>
       </c>
       <c r="D73" t="n">
-        <v>0.683265</v>
+        <v>0.681774</v>
       </c>
       <c r="E73" t="n">
-        <v>0.218512</v>
+        <v>0.20153</v>
       </c>
       <c r="F73" t="n">
-        <v>0.547453</v>
+        <v>0.554025</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.216004</v>
+        <v>0.222367</v>
       </c>
       <c r="C74" t="n">
-        <v>0.579607</v>
+        <v>0.576044</v>
       </c>
       <c r="D74" t="n">
-        <v>0.697343</v>
+        <v>0.682524</v>
       </c>
       <c r="E74" t="n">
-        <v>0.218798</v>
+        <v>0.198606</v>
       </c>
       <c r="F74" t="n">
-        <v>0.547273</v>
+        <v>0.546783</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.209975</v>
+        <v>0.214298</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5685829999999999</v>
+        <v>0.564982</v>
       </c>
       <c r="D75" t="n">
-        <v>0.669782</v>
+        <v>0.67328</v>
       </c>
       <c r="E75" t="n">
-        <v>0.208777</v>
+        <v>0.195985</v>
       </c>
       <c r="F75" t="n">
-        <v>0.531118</v>
+        <v>0.542006</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.204842</v>
+        <v>0.210933</v>
       </c>
       <c r="C76" t="n">
-        <v>0.562576</v>
+        <v>0.5673049999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.66944</v>
+        <v>0.6931659999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>0.204864</v>
+        <v>0.189994</v>
       </c>
       <c r="F76" t="n">
-        <v>0.523983</v>
+        <v>0.540593</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.201308</v>
+        <v>0.205927</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5581199999999999</v>
+        <v>0.558121</v>
       </c>
       <c r="D77" t="n">
-        <v>0.66295</v>
+        <v>0.672256</v>
       </c>
       <c r="E77" t="n">
-        <v>0.200553</v>
+        <v>0.188266</v>
       </c>
       <c r="F77" t="n">
-        <v>0.526567</v>
+        <v>0.544261</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.196821</v>
+        <v>0.201516</v>
       </c>
       <c r="C78" t="n">
-        <v>0.558594</v>
+        <v>0.54711</v>
       </c>
       <c r="D78" t="n">
-        <v>0.750744</v>
+        <v>0.754418</v>
       </c>
       <c r="E78" t="n">
-        <v>0.197281</v>
+        <v>0.183727</v>
       </c>
       <c r="F78" t="n">
-        <v>0.527715</v>
+        <v>0.532903</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.19198</v>
+        <v>0.197714</v>
       </c>
       <c r="C79" t="n">
-        <v>0.558111</v>
+        <v>0.5550079999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.754958</v>
+        <v>0.758873</v>
       </c>
       <c r="E79" t="n">
-        <v>0.193839</v>
+        <v>0.184962</v>
       </c>
       <c r="F79" t="n">
-        <v>0.515994</v>
+        <v>0.541045</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.184949</v>
+        <v>0.191119</v>
       </c>
       <c r="C80" t="n">
-        <v>0.546789</v>
+        <v>0.549732</v>
       </c>
       <c r="D80" t="n">
-        <v>0.747892</v>
+        <v>0.756696</v>
       </c>
       <c r="E80" t="n">
-        <v>0.260713</v>
+        <v>0.244654</v>
       </c>
       <c r="F80" t="n">
-        <v>0.581681</v>
+        <v>0.590593</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.251584</v>
+        <v>0.255326</v>
       </c>
       <c r="C81" t="n">
-        <v>0.597774</v>
+        <v>0.61147</v>
       </c>
       <c r="D81" t="n">
-        <v>0.727479</v>
+        <v>0.737644</v>
       </c>
       <c r="E81" t="n">
-        <v>0.255532</v>
+        <v>0.236352</v>
       </c>
       <c r="F81" t="n">
-        <v>0.563101</v>
+        <v>0.58023</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.247005</v>
+        <v>0.249681</v>
       </c>
       <c r="C82" t="n">
-        <v>0.592279</v>
+        <v>0.601267</v>
       </c>
       <c r="D82" t="n">
-        <v>0.725591</v>
+        <v>0.729528</v>
       </c>
       <c r="E82" t="n">
-        <v>0.248452</v>
+        <v>0.231778</v>
       </c>
       <c r="F82" t="n">
-        <v>0.562743</v>
+        <v>0.581304</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.243841</v>
+        <v>0.247693</v>
       </c>
       <c r="C83" t="n">
-        <v>0.58663</v>
+        <v>0.602541</v>
       </c>
       <c r="D83" t="n">
-        <v>0.7241880000000001</v>
+        <v>0.720896</v>
       </c>
       <c r="E83" t="n">
-        <v>0.242228</v>
+        <v>0.224461</v>
       </c>
       <c r="F83" t="n">
-        <v>0.554067</v>
+        <v>0.573898</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.237466</v>
+        <v>0.240052</v>
       </c>
       <c r="C84" t="n">
-        <v>0.62085</v>
+        <v>0.624073</v>
       </c>
       <c r="D84" t="n">
-        <v>0.745565</v>
+        <v>0.742045</v>
       </c>
       <c r="E84" t="n">
-        <v>0.237629</v>
+        <v>0.219963</v>
       </c>
       <c r="F84" t="n">
-        <v>0.588595</v>
+        <v>0.601172</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.237107</v>
+        <v>0.238085</v>
       </c>
       <c r="C85" t="n">
-        <v>0.612031</v>
+        <v>0.6269479999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.746313</v>
+        <v>0.742292</v>
       </c>
       <c r="E85" t="n">
-        <v>0.237173</v>
+        <v>0.216214</v>
       </c>
       <c r="F85" t="n">
-        <v>0.583554</v>
+        <v>0.601324</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.226852</v>
+        <v>0.233177</v>
       </c>
       <c r="C86" t="n">
-        <v>0.608206</v>
+        <v>0.612909</v>
       </c>
       <c r="D86" t="n">
-        <v>0.734374</v>
+        <v>0.730712</v>
       </c>
       <c r="E86" t="n">
-        <v>0.227887</v>
+        <v>0.210035</v>
       </c>
       <c r="F86" t="n">
-        <v>0.582091</v>
+        <v>0.6124810000000001</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.224016</v>
+        <v>0.226331</v>
       </c>
       <c r="C87" t="n">
-        <v>0.603772</v>
+        <v>0.614032</v>
       </c>
       <c r="D87" t="n">
-        <v>0.734208</v>
+        <v>0.732452</v>
       </c>
       <c r="E87" t="n">
-        <v>0.223119</v>
+        <v>0.206571</v>
       </c>
       <c r="F87" t="n">
-        <v>0.57339</v>
+        <v>0.592105</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.218831</v>
+        <v>0.220959</v>
       </c>
       <c r="C88" t="n">
-        <v>0.594072</v>
+        <v>0.610912</v>
       </c>
       <c r="D88" t="n">
-        <v>0.740707</v>
+        <v>0.743835</v>
       </c>
       <c r="E88" t="n">
-        <v>0.22471</v>
+        <v>0.202106</v>
       </c>
       <c r="F88" t="n">
-        <v>0.571616</v>
+        <v>0.587426</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.214928</v>
+        <v>0.218715</v>
       </c>
       <c r="C89" t="n">
-        <v>0.593328</v>
+        <v>0.602734</v>
       </c>
       <c r="D89" t="n">
-        <v>0.720374</v>
+        <v>0.741079</v>
       </c>
       <c r="E89" t="n">
-        <v>0.215554</v>
+        <v>0.198193</v>
       </c>
       <c r="F89" t="n">
-        <v>0.566705</v>
+        <v>0.587448</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.209832</v>
+        <v>0.21519</v>
       </c>
       <c r="C90" t="n">
-        <v>0.588233</v>
+        <v>0.603957</v>
       </c>
       <c r="D90" t="n">
-        <v>0.719112</v>
+        <v>0.718206</v>
       </c>
       <c r="E90" t="n">
-        <v>0.209397</v>
+        <v>0.200794</v>
       </c>
       <c r="F90" t="n">
-        <v>0.560733</v>
+        <v>0.579097</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.205651</v>
+        <v>0.214592</v>
       </c>
       <c r="C91" t="n">
-        <v>0.585745</v>
+        <v>0.606429</v>
       </c>
       <c r="D91" t="n">
-        <v>0.721252</v>
+        <v>0.729229</v>
       </c>
       <c r="E91" t="n">
-        <v>0.205133</v>
+        <v>0.192076</v>
       </c>
       <c r="F91" t="n">
-        <v>0.565495</v>
+        <v>0.575722</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.201533</v>
+        <v>0.206604</v>
       </c>
       <c r="C92" t="n">
-        <v>0.579928</v>
+        <v>0.592866</v>
       </c>
       <c r="D92" t="n">
-        <v>0.670311</v>
+        <v>0.680901</v>
       </c>
       <c r="E92" t="n">
-        <v>0.20284</v>
+        <v>0.187818</v>
       </c>
       <c r="F92" t="n">
-        <v>0.554319</v>
+        <v>0.5754280000000001</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.196707</v>
+        <v>0.198681</v>
       </c>
       <c r="C93" t="n">
-        <v>0.578711</v>
+        <v>0.593859</v>
       </c>
       <c r="D93" t="n">
-        <v>0.673502</v>
+        <v>0.686211</v>
       </c>
       <c r="E93" t="n">
-        <v>0.196697</v>
+        <v>0.183285</v>
       </c>
       <c r="F93" t="n">
-        <v>0.554225</v>
+        <v>0.569845</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.189416</v>
+        <v>0.19258</v>
       </c>
       <c r="C94" t="n">
-        <v>0.57248</v>
+        <v>0.585349</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6643829999999999</v>
+        <v>0.676911</v>
       </c>
       <c r="E94" t="n">
-        <v>0.26157</v>
+        <v>0.245795</v>
       </c>
       <c r="F94" t="n">
-        <v>0.608735</v>
+        <v>0.628549</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.254824</v>
+        <v>0.255375</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6364610000000001</v>
+        <v>0.642212</v>
       </c>
       <c r="D95" t="n">
-        <v>0.670647</v>
+        <v>0.670241</v>
       </c>
       <c r="E95" t="n">
-        <v>0.257508</v>
+        <v>0.237727</v>
       </c>
       <c r="F95" t="n">
-        <v>0.602759</v>
+        <v>0.618572</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.250978</v>
+        <v>0.250095</v>
       </c>
       <c r="C96" t="n">
-        <v>0.642574</v>
+        <v>0.631937</v>
       </c>
       <c r="D96" t="n">
-        <v>0.674453</v>
+        <v>0.676197</v>
       </c>
       <c r="E96" t="n">
-        <v>0.253389</v>
+        <v>0.23265</v>
       </c>
       <c r="F96" t="n">
-        <v>0.604791</v>
+        <v>0.6162260000000001</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.248068</v>
+        <v>0.247894</v>
       </c>
       <c r="C97" t="n">
-        <v>0.654169</v>
+        <v>0.626196</v>
       </c>
       <c r="D97" t="n">
-        <v>0.690269</v>
+        <v>0.672597</v>
       </c>
       <c r="E97" t="n">
-        <v>0.24701</v>
+        <v>0.229836</v>
       </c>
       <c r="F97" t="n">
-        <v>0.604979</v>
+        <v>0.608873</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.244864</v>
+        <v>0.245496</v>
       </c>
       <c r="C98" t="n">
-        <v>0.637876</v>
+        <v>0.626458</v>
       </c>
       <c r="D98" t="n">
-        <v>0.667744</v>
+        <v>0.66434</v>
       </c>
       <c r="E98" t="n">
-        <v>0.242573</v>
+        <v>0.223893</v>
       </c>
       <c r="F98" t="n">
-        <v>0.600033</v>
+        <v>0.606598</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.235377</v>
+        <v>0.238659</v>
       </c>
       <c r="C99" t="n">
-        <v>0.626565</v>
+        <v>0.615731</v>
       </c>
       <c r="D99" t="n">
-        <v>0.670104</v>
+        <v>0.669222</v>
       </c>
       <c r="E99" t="n">
-        <v>0.241888</v>
+        <v>0.218859</v>
       </c>
       <c r="F99" t="n">
-        <v>0.585946</v>
+        <v>0.595978</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.229441</v>
+        <v>0.230738</v>
       </c>
       <c r="C100" t="n">
-        <v>0.606722</v>
+        <v>0.616492</v>
       </c>
       <c r="D100" t="n">
-        <v>0.659922</v>
+        <v>0.6571399999999999</v>
       </c>
       <c r="E100" t="n">
-        <v>0.229448</v>
+        <v>0.212448</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5816</v>
+        <v>0.591901</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.225024</v>
+        <v>0.22808</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6143690000000001</v>
+        <v>0.605116</v>
       </c>
       <c r="D101" t="n">
-        <v>0.662762</v>
+        <v>0.675998</v>
       </c>
       <c r="E101" t="n">
-        <v>0.224457</v>
+        <v>0.210459</v>
       </c>
       <c r="F101" t="n">
-        <v>0.571547</v>
+        <v>0.591987</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.219644</v>
+        <v>0.221475</v>
       </c>
       <c r="C102" t="n">
-        <v>0.607412</v>
+        <v>0.602037</v>
       </c>
       <c r="D102" t="n">
-        <v>0.666593</v>
+        <v>0.669822</v>
       </c>
       <c r="E102" t="n">
-        <v>0.220897</v>
+        <v>0.204438</v>
       </c>
       <c r="F102" t="n">
-        <v>0.573752</v>
+        <v>0.588845</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.215415</v>
+        <v>0.217323</v>
       </c>
       <c r="C103" t="n">
-        <v>0.6055970000000001</v>
+        <v>0.601044</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6586689999999999</v>
+        <v>0.6545879999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>0.215616</v>
+        <v>0.201673</v>
       </c>
       <c r="F103" t="n">
-        <v>0.566523</v>
+        <v>0.585365</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.214329</v>
+        <v>0.215167</v>
       </c>
       <c r="C104" t="n">
-        <v>0.605528</v>
+        <v>0.6002769999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.657791</v>
+        <v>0.662359</v>
       </c>
       <c r="E104" t="n">
-        <v>0.211031</v>
+        <v>0.196184</v>
       </c>
       <c r="F104" t="n">
-        <v>0.565678</v>
+        <v>0.57608</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.207142</v>
+        <v>0.213502</v>
       </c>
       <c r="C105" t="n">
-        <v>0.595955</v>
+        <v>0.594027</v>
       </c>
       <c r="D105" t="n">
-        <v>0.658175</v>
+        <v>0.659826</v>
       </c>
       <c r="E105" t="n">
-        <v>0.206392</v>
+        <v>0.19268</v>
       </c>
       <c r="F105" t="n">
-        <v>0.559992</v>
+        <v>0.579484</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.203584</v>
+        <v>0.20535</v>
       </c>
       <c r="C106" t="n">
-        <v>0.59313</v>
+        <v>0.594832</v>
       </c>
       <c r="D106" t="n">
-        <v>0.659185</v>
+        <v>0.671574</v>
       </c>
       <c r="E106" t="n">
-        <v>0.20225</v>
+        <v>0.187827</v>
       </c>
       <c r="F106" t="n">
-        <v>0.554243</v>
+        <v>0.569322</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.197194</v>
+        <v>0.199278</v>
       </c>
       <c r="C107" t="n">
-        <v>0.59634</v>
+        <v>0.59656</v>
       </c>
       <c r="D107" t="n">
-        <v>0.666755</v>
+        <v>0.664689</v>
       </c>
       <c r="E107" t="n">
-        <v>0.197849</v>
+        <v>0.184125</v>
       </c>
       <c r="F107" t="n">
-        <v>0.556237</v>
+        <v>0.5658</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.192262</v>
+        <v>0.192924</v>
       </c>
       <c r="C108" t="n">
-        <v>0.586598</v>
+        <v>0.591097</v>
       </c>
       <c r="D108" t="n">
-        <v>0.661508</v>
+        <v>0.676723</v>
       </c>
       <c r="E108" t="n">
-        <v>0.263207</v>
+        <v>0.244886</v>
       </c>
       <c r="F108" t="n">
-        <v>0.607216</v>
+        <v>0.625905</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.184489</v>
+        <v>0.187243</v>
       </c>
       <c r="C109" t="n">
-        <v>0.579527</v>
+        <v>0.594781</v>
       </c>
       <c r="D109" t="n">
-        <v>0.667293</v>
+        <v>0.659327</v>
       </c>
       <c r="E109" t="n">
-        <v>0.258764</v>
+        <v>0.239685</v>
       </c>
       <c r="F109" t="n">
-        <v>0.601566</v>
+        <v>0.619775</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.250218</v>
+        <v>0.25145</v>
       </c>
       <c r="C110" t="n">
-        <v>0.619067</v>
+        <v>0.654868</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6651280000000001</v>
+        <v>0.660609</v>
       </c>
       <c r="E110" t="n">
-        <v>0.251777</v>
+        <v>0.234869</v>
       </c>
       <c r="F110" t="n">
-        <v>0.59784</v>
+        <v>0.618297</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.246176</v>
+        <v>0.246131</v>
       </c>
       <c r="C111" t="n">
-        <v>0.61791</v>
+        <v>0.634846</v>
       </c>
       <c r="D111" t="n">
-        <v>0.661188</v>
+        <v>0.666127</v>
       </c>
       <c r="E111" t="n">
-        <v>0.245937</v>
+        <v>0.232243</v>
       </c>
       <c r="F111" t="n">
-        <v>0.595947</v>
+        <v>0.613675</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.24111</v>
+        <v>0.245857</v>
       </c>
       <c r="C112" t="n">
-        <v>0.620245</v>
+        <v>0.626846</v>
       </c>
       <c r="D112" t="n">
-        <v>0.666091</v>
+        <v>0.661516</v>
       </c>
       <c r="E112" t="n">
-        <v>0.240755</v>
+        <v>0.229785</v>
       </c>
       <c r="F112" t="n">
-        <v>0.589656</v>
+        <v>0.609112</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.239369</v>
+        <v>0.238051</v>
       </c>
       <c r="C113" t="n">
-        <v>0.605456</v>
+        <v>0.606494</v>
       </c>
       <c r="D113" t="n">
-        <v>0.659224</v>
+        <v>0.661101</v>
       </c>
       <c r="E113" t="n">
-        <v>0.235455</v>
+        <v>0.219302</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5842000000000001</v>
+        <v>0.601027</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.230869</v>
+        <v>0.240342</v>
       </c>
       <c r="C114" t="n">
-        <v>0.599695</v>
+        <v>0.614846</v>
       </c>
       <c r="D114" t="n">
-        <v>0.658604</v>
+        <v>0.658949</v>
       </c>
       <c r="E114" t="n">
-        <v>0.231662</v>
+        <v>0.213827</v>
       </c>
       <c r="F114" t="n">
-        <v>0.580003</v>
+        <v>0.605851</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.224869</v>
+        <v>0.228215</v>
       </c>
       <c r="C115" t="n">
-        <v>0.591845</v>
+        <v>0.6020529999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.660278</v>
+        <v>0.657404</v>
       </c>
       <c r="E115" t="n">
-        <v>0.227757</v>
+        <v>0.209961</v>
       </c>
       <c r="F115" t="n">
-        <v>0.574532</v>
+        <v>0.587995</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.223131</v>
+        <v>0.2247</v>
       </c>
       <c r="C116" t="n">
-        <v>0.591688</v>
+        <v>0.596276</v>
       </c>
       <c r="D116" t="n">
-        <v>0.664724</v>
+        <v>0.660596</v>
       </c>
       <c r="E116" t="n">
-        <v>0.221838</v>
+        <v>0.204426</v>
       </c>
       <c r="F116" t="n">
-        <v>0.572365</v>
+        <v>0.594004</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.217141</v>
+        <v>0.217813</v>
       </c>
       <c r="C117" t="n">
-        <v>0.600223</v>
+        <v>0.605777</v>
       </c>
       <c r="D117" t="n">
-        <v>0.659936</v>
+        <v>0.654681</v>
       </c>
       <c r="E117" t="n">
-        <v>0.218955</v>
+        <v>0.205108</v>
       </c>
       <c r="F117" t="n">
-        <v>0.5686600000000001</v>
+        <v>0.584552</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.211675</v>
+        <v>0.215767</v>
       </c>
       <c r="C118" t="n">
-        <v>0.587446</v>
+        <v>0.593624</v>
       </c>
       <c r="D118" t="n">
-        <v>0.656508</v>
+        <v>0.66009</v>
       </c>
       <c r="E118" t="n">
-        <v>0.211969</v>
+        <v>0.197037</v>
       </c>
       <c r="F118" t="n">
-        <v>0.564002</v>
+        <v>0.583056</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.208122</v>
+        <v>0.210608</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5867</v>
+        <v>0.595626</v>
       </c>
       <c r="D119" t="n">
-        <v>0.658114</v>
+        <v>0.669292</v>
       </c>
       <c r="E119" t="n">
-        <v>0.207876</v>
+        <v>0.196977</v>
       </c>
       <c r="F119" t="n">
-        <v>0.56052</v>
+        <v>0.579433</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.204346</v>
+        <v>0.208657</v>
       </c>
       <c r="C120" t="n">
-        <v>0.583956</v>
+        <v>0.582031</v>
       </c>
       <c r="D120" t="n">
-        <v>0.657138</v>
+        <v>0.653465</v>
       </c>
       <c r="E120" t="n">
-        <v>0.202839</v>
+        <v>0.193106</v>
       </c>
       <c r="F120" t="n">
-        <v>0.556867</v>
+        <v>0.574694</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.20126</v>
+        <v>0.203533</v>
       </c>
       <c r="C121" t="n">
-        <v>0.58472</v>
+        <v>0.578291</v>
       </c>
       <c r="D121" t="n">
-        <v>0.67602</v>
+        <v>0.691604</v>
       </c>
       <c r="E121" t="n">
-        <v>0.199368</v>
+        <v>0.185759</v>
       </c>
       <c r="F121" t="n">
-        <v>0.561365</v>
+        <v>0.567935</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.192916</v>
+        <v>0.19881</v>
       </c>
       <c r="C122" t="n">
-        <v>0.575263</v>
+        <v>0.585277</v>
       </c>
       <c r="D122" t="n">
-        <v>0.677158</v>
+        <v>0.672608</v>
       </c>
       <c r="E122" t="n">
-        <v>0.196681</v>
+        <v>0.184406</v>
       </c>
       <c r="F122" t="n">
-        <v>0.55249</v>
+        <v>0.567631</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.183901</v>
+        <v>0.188685</v>
       </c>
       <c r="C123" t="n">
-        <v>0.590974</v>
+        <v>0.577902</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6749230000000001</v>
+        <v>0.674418</v>
       </c>
       <c r="E123" t="n">
-        <v>0.25861</v>
+        <v>0.243944</v>
       </c>
       <c r="F123" t="n">
-        <v>0.60258</v>
+        <v>0.632333</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.251519</v>
+        <v>0.251901</v>
       </c>
       <c r="C124" t="n">
-        <v>0.6226080000000001</v>
+        <v>0.623425</v>
       </c>
       <c r="D124" t="n">
-        <v>0.671092</v>
+        <v>0.687299</v>
       </c>
       <c r="E124" t="n">
-        <v>0.255844</v>
+        <v>0.241338</v>
       </c>
       <c r="F124" t="n">
-        <v>0.602222</v>
+        <v>0.622492</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.246492</v>
+        <v>0.250954</v>
       </c>
       <c r="C125" t="n">
-        <v>0.61766</v>
+        <v>0.641903</v>
       </c>
       <c r="D125" t="n">
-        <v>0.670349</v>
+        <v>0.6853050000000001</v>
       </c>
       <c r="E125" t="n">
-        <v>0.247626</v>
+        <v>0.23333</v>
       </c>
       <c r="F125" t="n">
-        <v>0.600085</v>
+        <v>0.62135</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.241265</v>
+        <v>0.242579</v>
       </c>
       <c r="C126" t="n">
-        <v>0.631724</v>
+        <v>0.638682</v>
       </c>
       <c r="D126" t="n">
-        <v>0.670359</v>
+        <v>0.673924</v>
       </c>
       <c r="E126" t="n">
-        <v>0.24173</v>
+        <v>0.224745</v>
       </c>
       <c r="F126" t="n">
-        <v>0.589236</v>
+        <v>0.6077979999999999</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.236912</v>
+        <v>0.238874</v>
       </c>
       <c r="C127" t="n">
-        <v>0.6055970000000001</v>
+        <v>0.622913</v>
       </c>
       <c r="D127" t="n">
-        <v>0.667612</v>
+        <v>0.670983</v>
       </c>
       <c r="E127" t="n">
-        <v>0.23707</v>
+        <v>0.220596</v>
       </c>
       <c r="F127" t="n">
-        <v>0.593312</v>
+        <v>0.606847</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.231445</v>
+        <v>0.234182</v>
       </c>
       <c r="C128" t="n">
-        <v>0.605229</v>
+        <v>0.616387</v>
       </c>
       <c r="D128" t="n">
-        <v>0.668111</v>
+        <v>0.676551</v>
       </c>
       <c r="E128" t="n">
-        <v>0.23196</v>
+        <v>0.217919</v>
       </c>
       <c r="F128" t="n">
-        <v>0.580445</v>
+        <v>0.594236</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.226336</v>
+        <v>0.232338</v>
       </c>
       <c r="C129" t="n">
-        <v>0.618944</v>
+        <v>0.6018019999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.666341</v>
+        <v>0.664374</v>
       </c>
       <c r="E129" t="n">
-        <v>0.226888</v>
+        <v>0.210589</v>
       </c>
       <c r="F129" t="n">
-        <v>0.579854</v>
+        <v>0.613228</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.222991</v>
+        <v>0.226483</v>
       </c>
       <c r="C130" t="n">
-        <v>0.610098</v>
+        <v>0.59996</v>
       </c>
       <c r="D130" t="n">
-        <v>0.666629</v>
+        <v>0.671179</v>
       </c>
       <c r="E130" t="n">
-        <v>0.222584</v>
+        <v>0.205347</v>
       </c>
       <c r="F130" t="n">
-        <v>0.574782</v>
+        <v>0.593136</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.218593</v>
+        <v>0.220138</v>
       </c>
       <c r="C131" t="n">
-        <v>0.590079</v>
+        <v>0.617951</v>
       </c>
       <c r="D131" t="n">
-        <v>0.663786</v>
+        <v>0.672892</v>
       </c>
       <c r="E131" t="n">
-        <v>0.218345</v>
+        <v>0.205318</v>
       </c>
       <c r="F131" t="n">
-        <v>0.572906</v>
+        <v>0.584912</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.21371</v>
+        <v>0.216868</v>
       </c>
       <c r="C132" t="n">
-        <v>0.588294</v>
+        <v>0.590122</v>
       </c>
       <c r="D132" t="n">
-        <v>0.664638</v>
+        <v>0.663462</v>
       </c>
       <c r="E132" t="n">
-        <v>0.216076</v>
+        <v>0.200643</v>
       </c>
       <c r="F132" t="n">
-        <v>0.568757</v>
+        <v>0.586871</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.210144</v>
+        <v>0.211418</v>
       </c>
       <c r="C133" t="n">
-        <v>0.597238</v>
+        <v>0.611764</v>
       </c>
       <c r="D133" t="n">
-        <v>0.666598</v>
+        <v>0.6622</v>
       </c>
       <c r="E133" t="n">
-        <v>0.208803</v>
+        <v>0.194046</v>
       </c>
       <c r="F133" t="n">
-        <v>0.564127</v>
+        <v>0.575055</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.205672</v>
+        <v>0.208266</v>
       </c>
       <c r="C134" t="n">
-        <v>0.579886</v>
+        <v>0.6057900000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>0.662453</v>
+        <v>0.660816</v>
       </c>
       <c r="E134" t="n">
-        <v>0.20399</v>
+        <v>0.192315</v>
       </c>
       <c r="F134" t="n">
-        <v>0.569325</v>
+        <v>0.585965</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.202348</v>
+        <v>0.206285</v>
       </c>
       <c r="C135" t="n">
-        <v>0.5917210000000001</v>
+        <v>0.586278</v>
       </c>
       <c r="D135" t="n">
-        <v>0.679472</v>
+        <v>0.683617</v>
       </c>
       <c r="E135" t="n">
-        <v>0.200256</v>
+        <v>0.190276</v>
       </c>
       <c r="F135" t="n">
-        <v>0.5565600000000001</v>
+        <v>0.5715</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.194112</v>
+        <v>0.197806</v>
       </c>
       <c r="C136" t="n">
-        <v>0.590881</v>
+        <v>0.589727</v>
       </c>
       <c r="D136" t="n">
-        <v>0.67804</v>
+        <v>0.684535</v>
       </c>
       <c r="E136" t="n">
-        <v>0.196357</v>
+        <v>0.185098</v>
       </c>
       <c r="F136" t="n">
-        <v>0.552302</v>
+        <v>0.586493</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.18665</v>
+        <v>0.190787</v>
       </c>
       <c r="C137" t="n">
-        <v>0.570209</v>
+        <v>0.575906</v>
       </c>
       <c r="D137" t="n">
-        <v>0.675105</v>
+        <v>0.673427</v>
       </c>
       <c r="E137" t="n">
-        <v>0.260648</v>
+        <v>0.243563</v>
       </c>
       <c r="F137" t="n">
-        <v>0.606361</v>
+        <v>0.619857</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.252672</v>
+        <v>0.254556</v>
       </c>
       <c r="C138" t="n">
-        <v>0.619274</v>
+        <v>0.626943</v>
       </c>
       <c r="D138" t="n">
-        <v>0.684119</v>
+        <v>0.689086</v>
       </c>
       <c r="E138" t="n">
-        <v>0.254465</v>
+        <v>0.242171</v>
       </c>
       <c r="F138" t="n">
-        <v>0.605806</v>
+        <v>0.6250830000000001</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.251748</v>
+        <v>0.254285</v>
       </c>
       <c r="C139" t="n">
-        <v>0.616569</v>
+        <v>0.658481</v>
       </c>
       <c r="D139" t="n">
-        <v>0.673383</v>
+        <v>0.68912</v>
       </c>
       <c r="E139" t="n">
-        <v>0.250973</v>
+        <v>0.233192</v>
       </c>
       <c r="F139" t="n">
-        <v>0.596011</v>
+        <v>0.630844</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.244008</v>
+        <v>0.249112</v>
       </c>
       <c r="C140" t="n">
-        <v>0.60795</v>
+        <v>0.627463</v>
       </c>
       <c r="D140" t="n">
-        <v>0.671084</v>
+        <v>0.684523</v>
       </c>
       <c r="E140" t="n">
-        <v>0.243853</v>
+        <v>0.227725</v>
       </c>
       <c r="F140" t="n">
-        <v>0.589049</v>
+        <v>0.605051</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.241698</v>
+        <v>0.240818</v>
       </c>
       <c r="C141" t="n">
-        <v>0.6062959999999999</v>
+        <v>0.606813</v>
       </c>
       <c r="D141" t="n">
-        <v>0.669384</v>
+        <v>0.678549</v>
       </c>
       <c r="E141" t="n">
-        <v>0.238608</v>
+        <v>0.224027</v>
       </c>
       <c r="F141" t="n">
-        <v>0.584973</v>
+        <v>0.602294</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.231866</v>
+        <v>0.236179</v>
       </c>
       <c r="C142" t="n">
-        <v>0.598441</v>
+        <v>0.609249</v>
       </c>
       <c r="D142" t="n">
-        <v>0.669824</v>
+        <v>0.679014</v>
       </c>
       <c r="E142" t="n">
-        <v>0.241204</v>
+        <v>0.217972</v>
       </c>
       <c r="F142" t="n">
-        <v>0.582666</v>
+        <v>0.599168</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.227663</v>
+        <v>0.239593</v>
       </c>
       <c r="C143" t="n">
-        <v>0.593826</v>
+        <v>0.601921</v>
       </c>
       <c r="D143" t="n">
-        <v>0.667396</v>
+        <v>0.670005</v>
       </c>
       <c r="E143" t="n">
-        <v>0.228157</v>
+        <v>0.210806</v>
       </c>
       <c r="F143" t="n">
-        <v>0.577824</v>
+        <v>0.593218</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.193303</v>
+        <v>0.242229</v>
       </c>
       <c r="C2" t="n">
-        <v>0.445885</v>
+        <v>0.701183</v>
       </c>
       <c r="D2" t="n">
-        <v>0.502088</v>
+        <v>0.583024</v>
       </c>
       <c r="E2" t="n">
-        <v>0.213075</v>
+        <v>0.1842</v>
       </c>
       <c r="F2" t="n">
-        <v>0.453865</v>
+        <v>0.564537</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.187929</v>
+        <v>0.262797</v>
       </c>
       <c r="C3" t="n">
-        <v>0.445058</v>
+        <v>0.501734</v>
       </c>
       <c r="D3" t="n">
-        <v>0.520174</v>
+        <v>0.614195</v>
       </c>
       <c r="E3" t="n">
-        <v>0.213183</v>
+        <v>0.2261</v>
       </c>
       <c r="F3" t="n">
-        <v>0.455454</v>
+        <v>0.582384</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.18804</v>
+        <v>0.269683</v>
       </c>
       <c r="C4" t="n">
-        <v>0.438938</v>
+        <v>0.472535</v>
       </c>
       <c r="D4" t="n">
-        <v>0.51102</v>
+        <v>0.77384</v>
       </c>
       <c r="E4" t="n">
-        <v>0.212791</v>
+        <v>0.364601</v>
       </c>
       <c r="F4" t="n">
-        <v>0.45355</v>
+        <v>0.678326</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.186032</v>
+        <v>0.257774</v>
       </c>
       <c r="C5" t="n">
-        <v>0.440772</v>
+        <v>0.757204</v>
       </c>
       <c r="D5" t="n">
-        <v>0.503462</v>
+        <v>0.614208</v>
       </c>
       <c r="E5" t="n">
-        <v>0.212464</v>
+        <v>0.33748</v>
       </c>
       <c r="F5" t="n">
-        <v>0.460437</v>
+        <v>0.510726</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.184536</v>
+        <v>0.231485</v>
       </c>
       <c r="C6" t="n">
-        <v>0.43578</v>
+        <v>0.480609</v>
       </c>
       <c r="D6" t="n">
-        <v>0.503461</v>
+        <v>0.563856</v>
       </c>
       <c r="E6" t="n">
-        <v>0.213503</v>
+        <v>0.260149</v>
       </c>
       <c r="F6" t="n">
-        <v>0.451325</v>
+        <v>0.604723</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.181316</v>
+        <v>0.23167</v>
       </c>
       <c r="C7" t="n">
-        <v>0.430461</v>
+        <v>0.501374</v>
       </c>
       <c r="D7" t="n">
-        <v>0.528396</v>
+        <v>0.59705</v>
       </c>
       <c r="E7" t="n">
-        <v>0.211767</v>
+        <v>0.184725</v>
       </c>
       <c r="F7" t="n">
-        <v>0.450304</v>
+        <v>0.52351</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.177817</v>
+        <v>0.303397</v>
       </c>
       <c r="C8" t="n">
-        <v>0.424545</v>
+        <v>0.581968</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5345220000000001</v>
+        <v>0.670138</v>
       </c>
       <c r="E8" t="n">
-        <v>0.217107</v>
+        <v>0.279143</v>
       </c>
       <c r="F8" t="n">
-        <v>0.447175</v>
+        <v>0.533844</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.165777</v>
+        <v>0.155219</v>
       </c>
       <c r="C9" t="n">
-        <v>0.41604</v>
+        <v>0.474664</v>
       </c>
       <c r="D9" t="n">
-        <v>0.527308</v>
+        <v>0.679912</v>
       </c>
       <c r="E9" t="n">
-        <v>0.225396</v>
+        <v>0.270065</v>
       </c>
       <c r="F9" t="n">
-        <v>0.464692</v>
+        <v>0.523492</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.218667</v>
+        <v>0.296131</v>
       </c>
       <c r="C10" t="n">
-        <v>0.468425</v>
+        <v>0.765761</v>
       </c>
       <c r="D10" t="n">
-        <v>0.510342</v>
+        <v>0.9755819999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.219877</v>
+        <v>0.369368</v>
       </c>
       <c r="F10" t="n">
-        <v>0.467203</v>
+        <v>0.78266</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.213842</v>
+        <v>0.287304</v>
       </c>
       <c r="C11" t="n">
-        <v>0.465418</v>
+        <v>0.610491</v>
       </c>
       <c r="D11" t="n">
-        <v>0.515406</v>
+        <v>0.809514</v>
       </c>
       <c r="E11" t="n">
-        <v>0.219925</v>
+        <v>0.332973</v>
       </c>
       <c r="F11" t="n">
-        <v>0.462703</v>
+        <v>0.5541</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.212804</v>
+        <v>0.38169</v>
       </c>
       <c r="C12" t="n">
-        <v>0.461039</v>
+        <v>0.556565</v>
       </c>
       <c r="D12" t="n">
-        <v>0.507154</v>
+        <v>0.7361529999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.218886</v>
+        <v>0.172874</v>
       </c>
       <c r="F12" t="n">
-        <v>0.464132</v>
+        <v>0.608952</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.206851</v>
+        <v>0.217105</v>
       </c>
       <c r="C13" t="n">
-        <v>0.454522</v>
+        <v>0.79774</v>
       </c>
       <c r="D13" t="n">
-        <v>0.510278</v>
+        <v>0.83414</v>
       </c>
       <c r="E13" t="n">
-        <v>0.218692</v>
+        <v>0.344193</v>
       </c>
       <c r="F13" t="n">
-        <v>0.460611</v>
+        <v>0.8478599999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.208024</v>
+        <v>0.337851</v>
       </c>
       <c r="C14" t="n">
-        <v>0.459953</v>
+        <v>0.704109</v>
       </c>
       <c r="D14" t="n">
-        <v>0.507615</v>
+        <v>0.8178569999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.219144</v>
+        <v>0.224289</v>
       </c>
       <c r="F14" t="n">
-        <v>0.45743</v>
+        <v>0.569126</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.202129</v>
+        <v>0.278465</v>
       </c>
       <c r="C15" t="n">
-        <v>0.450737</v>
+        <v>0.791581</v>
       </c>
       <c r="D15" t="n">
-        <v>0.514038</v>
+        <v>0.820042</v>
       </c>
       <c r="E15" t="n">
-        <v>0.22171</v>
+        <v>0.190139</v>
       </c>
       <c r="F15" t="n">
-        <v>0.457918</v>
+        <v>0.695154</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.203048</v>
+        <v>0.180466</v>
       </c>
       <c r="C16" t="n">
-        <v>0.448145</v>
+        <v>0.6044580000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.504516</v>
+        <v>0.908438</v>
       </c>
       <c r="E16" t="n">
-        <v>0.218901</v>
+        <v>0.291963</v>
       </c>
       <c r="F16" t="n">
-        <v>0.459509</v>
+        <v>0.558826</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.197951</v>
+        <v>0.235127</v>
       </c>
       <c r="C17" t="n">
-        <v>0.44882</v>
+        <v>0.63959</v>
       </c>
       <c r="D17" t="n">
-        <v>0.502185</v>
+        <v>0.799769</v>
       </c>
       <c r="E17" t="n">
-        <v>0.217354</v>
+        <v>0.228129</v>
       </c>
       <c r="F17" t="n">
-        <v>0.468204</v>
+        <v>0.621294</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.192303</v>
+        <v>0.298091</v>
       </c>
       <c r="C18" t="n">
-        <v>0.437952</v>
+        <v>0.663747</v>
       </c>
       <c r="D18" t="n">
-        <v>0.500797</v>
+        <v>0.825685</v>
       </c>
       <c r="E18" t="n">
-        <v>0.217688</v>
+        <v>0.284237</v>
       </c>
       <c r="F18" t="n">
-        <v>0.455244</v>
+        <v>0.773529</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.190017</v>
+        <v>0.283292</v>
       </c>
       <c r="C19" t="n">
-        <v>0.434114</v>
+        <v>0.861123</v>
       </c>
       <c r="D19" t="n">
-        <v>0.51256</v>
+        <v>0.969826</v>
       </c>
       <c r="E19" t="n">
-        <v>0.216535</v>
+        <v>0.269452</v>
       </c>
       <c r="F19" t="n">
-        <v>0.456402</v>
+        <v>0.820368</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188808</v>
+        <v>0.344768</v>
       </c>
       <c r="C20" t="n">
-        <v>0.437229</v>
+        <v>0.677739</v>
       </c>
       <c r="D20" t="n">
-        <v>0.511621</v>
+        <v>0.997683</v>
       </c>
       <c r="E20" t="n">
-        <v>0.220187</v>
+        <v>0.289803</v>
       </c>
       <c r="F20" t="n">
-        <v>0.459839</v>
+        <v>0.659139</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.184575</v>
+        <v>0.190291</v>
       </c>
       <c r="C21" t="n">
-        <v>0.428483</v>
+        <v>0.639449</v>
       </c>
       <c r="D21" t="n">
-        <v>0.514157</v>
+        <v>0.707544</v>
       </c>
       <c r="E21" t="n">
-        <v>0.215192</v>
+        <v>0.250695</v>
       </c>
       <c r="F21" t="n">
-        <v>0.45528</v>
+        <v>0.421412</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.179181</v>
+        <v>0.139736</v>
       </c>
       <c r="C22" t="n">
-        <v>0.42938</v>
+        <v>0.345341</v>
       </c>
       <c r="D22" t="n">
-        <v>0.514899</v>
+        <v>0.882846</v>
       </c>
       <c r="E22" t="n">
-        <v>0.218037</v>
+        <v>0.287847</v>
       </c>
       <c r="F22" t="n">
-        <v>0.450551</v>
+        <v>0.391138</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.171888</v>
+        <v>0.213464</v>
       </c>
       <c r="C23" t="n">
-        <v>0.418017</v>
+        <v>0.617167</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5139359999999999</v>
+        <v>0.773649</v>
       </c>
       <c r="E23" t="n">
-        <v>0.230022</v>
+        <v>0.273943</v>
       </c>
       <c r="F23" t="n">
-        <v>0.479144</v>
+        <v>0.67143</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.228966</v>
+        <v>0.401156</v>
       </c>
       <c r="C24" t="n">
-        <v>0.473149</v>
+        <v>0.766516</v>
       </c>
       <c r="D24" t="n">
-        <v>0.515633</v>
+        <v>0.806742</v>
       </c>
       <c r="E24" t="n">
-        <v>0.227731</v>
+        <v>0.326095</v>
       </c>
       <c r="F24" t="n">
-        <v>0.467815</v>
+        <v>0.7671</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.225897</v>
+        <v>0.357885</v>
       </c>
       <c r="C25" t="n">
-        <v>0.466378</v>
+        <v>0.833743</v>
       </c>
       <c r="D25" t="n">
-        <v>0.52122</v>
+        <v>0.815343</v>
       </c>
       <c r="E25" t="n">
-        <v>0.228203</v>
+        <v>0.371156</v>
       </c>
       <c r="F25" t="n">
-        <v>0.466111</v>
+        <v>0.745787</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.224562</v>
+        <v>0.330686</v>
       </c>
       <c r="C26" t="n">
-        <v>0.471661</v>
+        <v>0.82702</v>
       </c>
       <c r="D26" t="n">
-        <v>0.51088</v>
+        <v>0.796365</v>
       </c>
       <c r="E26" t="n">
-        <v>0.227295</v>
+        <v>0.324398</v>
       </c>
       <c r="F26" t="n">
-        <v>0.461572</v>
+        <v>0.798607</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.219212</v>
+        <v>0.35714</v>
       </c>
       <c r="C27" t="n">
-        <v>0.467317</v>
+        <v>0.717087</v>
       </c>
       <c r="D27" t="n">
-        <v>0.516492</v>
+        <v>0.748368</v>
       </c>
       <c r="E27" t="n">
-        <v>0.225448</v>
+        <v>0.268225</v>
       </c>
       <c r="F27" t="n">
-        <v>0.46447</v>
+        <v>0.821415</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.214738</v>
+        <v>0.336566</v>
       </c>
       <c r="C28" t="n">
-        <v>0.459463</v>
+        <v>0.568787</v>
       </c>
       <c r="D28" t="n">
-        <v>0.505603</v>
+        <v>0.761508</v>
       </c>
       <c r="E28" t="n">
-        <v>0.229479</v>
+        <v>0.324934</v>
       </c>
       <c r="F28" t="n">
-        <v>0.467568</v>
+        <v>0.566783</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.211227</v>
+        <v>0.340154</v>
       </c>
       <c r="C29" t="n">
-        <v>0.45454</v>
+        <v>0.588889</v>
       </c>
       <c r="D29" t="n">
-        <v>0.509274</v>
+        <v>0.928387</v>
       </c>
       <c r="E29" t="n">
-        <v>0.224383</v>
+        <v>0.358672</v>
       </c>
       <c r="F29" t="n">
-        <v>0.462145</v>
+        <v>0.689744</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.20763</v>
+        <v>0.328088</v>
       </c>
       <c r="C30" t="n">
-        <v>0.454171</v>
+        <v>0.681629</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5072140000000001</v>
+        <v>0.664791</v>
       </c>
       <c r="E30" t="n">
-        <v>0.224737</v>
+        <v>0.261919</v>
       </c>
       <c r="F30" t="n">
-        <v>0.459536</v>
+        <v>0.697086</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.203659</v>
+        <v>0.347954</v>
       </c>
       <c r="C31" t="n">
-        <v>0.44876</v>
+        <v>0.784752</v>
       </c>
       <c r="D31" t="n">
-        <v>0.505928</v>
+        <v>0.667265</v>
       </c>
       <c r="E31" t="n">
-        <v>0.222249</v>
+        <v>0.279041</v>
       </c>
       <c r="F31" t="n">
-        <v>0.462509</v>
+        <v>0.502458</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.201426</v>
+        <v>0.33898</v>
       </c>
       <c r="C32" t="n">
-        <v>0.446812</v>
+        <v>0.660443</v>
       </c>
       <c r="D32" t="n">
-        <v>0.518796</v>
+        <v>0.844902</v>
       </c>
       <c r="E32" t="n">
-        <v>0.222413</v>
+        <v>0.345806</v>
       </c>
       <c r="F32" t="n">
-        <v>0.462307</v>
+        <v>0.776072</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.198127</v>
+        <v>0.312353</v>
       </c>
       <c r="C33" t="n">
-        <v>0.442137</v>
+        <v>0.698801</v>
       </c>
       <c r="D33" t="n">
-        <v>0.504114</v>
+        <v>0.73328</v>
       </c>
       <c r="E33" t="n">
-        <v>0.220517</v>
+        <v>0.307798</v>
       </c>
       <c r="F33" t="n">
-        <v>0.459658</v>
+        <v>0.745781</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.193882</v>
+        <v>0.28768</v>
       </c>
       <c r="C34" t="n">
-        <v>0.438256</v>
+        <v>0.74077</v>
       </c>
       <c r="D34" t="n">
-        <v>0.508948</v>
+        <v>0.751012</v>
       </c>
       <c r="E34" t="n">
-        <v>0.222681</v>
+        <v>0.261977</v>
       </c>
       <c r="F34" t="n">
-        <v>0.462506</v>
+        <v>0.626125</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.191174</v>
+        <v>0.296155</v>
       </c>
       <c r="C35" t="n">
-        <v>0.443907</v>
+        <v>0.504038</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5264450000000001</v>
+        <v>0.699912</v>
       </c>
       <c r="E35" t="n">
-        <v>0.21939</v>
+        <v>0.286754</v>
       </c>
       <c r="F35" t="n">
-        <v>0.459153</v>
+        <v>0.776329</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.190043</v>
+        <v>0.302599</v>
       </c>
       <c r="C36" t="n">
-        <v>0.43195</v>
+        <v>0.629799</v>
       </c>
       <c r="D36" t="n">
-        <v>0.536184</v>
+        <v>0.789204</v>
       </c>
       <c r="E36" t="n">
-        <v>0.219222</v>
+        <v>0.283112</v>
       </c>
       <c r="F36" t="n">
-        <v>0.456652</v>
+        <v>0.423545</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.178253</v>
+        <v>0.224804</v>
       </c>
       <c r="C37" t="n">
-        <v>0.426147</v>
+        <v>0.355732</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5303369999999999</v>
+        <v>0.713928</v>
       </c>
       <c r="E37" t="n">
-        <v>0.245325</v>
+        <v>0.250648</v>
       </c>
       <c r="F37" t="n">
-        <v>0.475562</v>
+        <v>0.481676</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2313</v>
+        <v>0.342309</v>
       </c>
       <c r="C38" t="n">
-        <v>0.491762</v>
+        <v>0.816522</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5252289999999999</v>
+        <v>0.897919</v>
       </c>
       <c r="E38" t="n">
-        <v>0.243298</v>
+        <v>0.367527</v>
       </c>
       <c r="F38" t="n">
-        <v>0.479484</v>
+        <v>0.842953</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.232037</v>
+        <v>0.392093</v>
       </c>
       <c r="C39" t="n">
-        <v>0.483431</v>
+        <v>0.7687580000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.524735</v>
+        <v>0.945662</v>
       </c>
       <c r="E39" t="n">
-        <v>0.240199</v>
+        <v>0.314412</v>
       </c>
       <c r="F39" t="n">
-        <v>0.47691</v>
+        <v>0.756503</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.2281</v>
+        <v>0.332661</v>
       </c>
       <c r="C40" t="n">
-        <v>0.47562</v>
+        <v>0.7929850000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.533738</v>
+        <v>0.9185759999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>0.237676</v>
+        <v>0.302505</v>
       </c>
       <c r="F40" t="n">
-        <v>0.479051</v>
+        <v>0.859144</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.223237</v>
+        <v>0.337287</v>
       </c>
       <c r="C41" t="n">
-        <v>0.490912</v>
+        <v>0.8046180000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.533641</v>
+        <v>0.930386</v>
       </c>
       <c r="E41" t="n">
-        <v>0.238535</v>
+        <v>0.280943</v>
       </c>
       <c r="F41" t="n">
-        <v>0.48006</v>
+        <v>0.7879429999999999</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.217086</v>
+        <v>0.36413</v>
       </c>
       <c r="C42" t="n">
-        <v>0.487205</v>
+        <v>0.790649</v>
       </c>
       <c r="D42" t="n">
-        <v>0.531945</v>
+        <v>1.09846</v>
       </c>
       <c r="E42" t="n">
-        <v>0.237954</v>
+        <v>0.330122</v>
       </c>
       <c r="F42" t="n">
-        <v>0.486848</v>
+        <v>0.720851</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.217403</v>
+        <v>0.335041</v>
       </c>
       <c r="C43" t="n">
-        <v>0.486205</v>
+        <v>0.837525</v>
       </c>
       <c r="D43" t="n">
-        <v>0.531617</v>
+        <v>0.741502</v>
       </c>
       <c r="E43" t="n">
-        <v>0.233007</v>
+        <v>0.351256</v>
       </c>
       <c r="F43" t="n">
-        <v>0.486256</v>
+        <v>0.757192</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.211039</v>
+        <v>0.348848</v>
       </c>
       <c r="C44" t="n">
-        <v>0.490175</v>
+        <v>0.823074</v>
       </c>
       <c r="D44" t="n">
-        <v>0.541611</v>
+        <v>0.934569</v>
       </c>
       <c r="E44" t="n">
-        <v>0.231851</v>
+        <v>0.336983</v>
       </c>
       <c r="F44" t="n">
-        <v>0.471556</v>
+        <v>0.760035</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.208637</v>
+        <v>0.33351</v>
       </c>
       <c r="C45" t="n">
-        <v>0.45786</v>
+        <v>0.787815</v>
       </c>
       <c r="D45" t="n">
-        <v>0.524585</v>
+        <v>0.75143</v>
       </c>
       <c r="E45" t="n">
-        <v>0.232173</v>
+        <v>0.314609</v>
       </c>
       <c r="F45" t="n">
-        <v>0.477299</v>
+        <v>0.731806</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.204804</v>
+        <v>0.275346</v>
       </c>
       <c r="C46" t="n">
-        <v>0.489485</v>
+        <v>0.803503</v>
       </c>
       <c r="D46" t="n">
-        <v>0.545539</v>
+        <v>0.910068</v>
       </c>
       <c r="E46" t="n">
-        <v>0.228991</v>
+        <v>0.285433</v>
       </c>
       <c r="F46" t="n">
-        <v>0.493181</v>
+        <v>0.825484</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.202397</v>
+        <v>0.321247</v>
       </c>
       <c r="C47" t="n">
-        <v>0.495517</v>
+        <v>0.752162</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5509039999999999</v>
+        <v>0.915898</v>
       </c>
       <c r="E47" t="n">
-        <v>0.227468</v>
+        <v>0.27247</v>
       </c>
       <c r="F47" t="n">
-        <v>0.492018</v>
+        <v>0.803527</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.199111</v>
+        <v>0.29275</v>
       </c>
       <c r="C48" t="n">
-        <v>0.492032</v>
+        <v>0.74083</v>
       </c>
       <c r="D48" t="n">
-        <v>0.53176</v>
+        <v>0.950469</v>
       </c>
       <c r="E48" t="n">
-        <v>0.229064</v>
+        <v>0.285611</v>
       </c>
       <c r="F48" t="n">
-        <v>0.476889</v>
+        <v>0.777819</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.195274</v>
+        <v>0.292276</v>
       </c>
       <c r="C49" t="n">
-        <v>0.450862</v>
+        <v>0.758687</v>
       </c>
       <c r="D49" t="n">
-        <v>0.528308</v>
+        <v>0.894165</v>
       </c>
       <c r="E49" t="n">
-        <v>0.226997</v>
+        <v>0.311562</v>
       </c>
       <c r="F49" t="n">
-        <v>0.477905</v>
+        <v>0.781474</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.190205</v>
+        <v>0.305635</v>
       </c>
       <c r="C50" t="n">
-        <v>0.451824</v>
+        <v>0.746159</v>
       </c>
       <c r="D50" t="n">
-        <v>0.629838</v>
+        <v>0.986106</v>
       </c>
       <c r="E50" t="n">
-        <v>0.226054</v>
+        <v>0.315849</v>
       </c>
       <c r="F50" t="n">
-        <v>0.473542</v>
+        <v>0.8356209999999999</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.184926</v>
+        <v>0.254198</v>
       </c>
       <c r="C51" t="n">
-        <v>0.451025</v>
+        <v>0.688316</v>
       </c>
       <c r="D51" t="n">
-        <v>0.63486</v>
+        <v>0.756942</v>
       </c>
       <c r="E51" t="n">
-        <v>0.248308</v>
+        <v>0.235199</v>
       </c>
       <c r="F51" t="n">
-        <v>0.497258</v>
+        <v>0.497348</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176301</v>
+        <v>0.241185</v>
       </c>
       <c r="C52" t="n">
-        <v>0.447357</v>
+        <v>0.673654</v>
       </c>
       <c r="D52" t="n">
-        <v>0.612456</v>
+        <v>0.938897</v>
       </c>
       <c r="E52" t="n">
-        <v>0.242786</v>
+        <v>0.347621</v>
       </c>
       <c r="F52" t="n">
-        <v>0.503227</v>
+        <v>0.807568</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.236178</v>
+        <v>0.38966</v>
       </c>
       <c r="C53" t="n">
-        <v>0.505607</v>
+        <v>0.7329020000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.615619</v>
+        <v>0.8231579999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>0.241363</v>
+        <v>0.380731</v>
       </c>
       <c r="F53" t="n">
-        <v>0.498774</v>
+        <v>0.761477</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.232917</v>
+        <v>0.36918</v>
       </c>
       <c r="C54" t="n">
-        <v>0.510305</v>
+        <v>0.818901</v>
       </c>
       <c r="D54" t="n">
-        <v>0.614368</v>
+        <v>0.9179</v>
       </c>
       <c r="E54" t="n">
-        <v>0.24048</v>
+        <v>0.354248</v>
       </c>
       <c r="F54" t="n">
-        <v>0.500407</v>
+        <v>0.7962050000000001</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.230253</v>
+        <v>0.367675</v>
       </c>
       <c r="C55" t="n">
-        <v>0.509364</v>
+        <v>0.83528</v>
       </c>
       <c r="D55" t="n">
-        <v>0.610923</v>
+        <v>0.890131</v>
       </c>
       <c r="E55" t="n">
-        <v>0.242031</v>
+        <v>0.361531</v>
       </c>
       <c r="F55" t="n">
-        <v>0.501968</v>
+        <v>0.800311</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.226455</v>
+        <v>0.360975</v>
       </c>
       <c r="C56" t="n">
-        <v>0.51114</v>
+        <v>0.882343</v>
       </c>
       <c r="D56" t="n">
-        <v>0.625769</v>
+        <v>0.920329</v>
       </c>
       <c r="E56" t="n">
-        <v>0.236699</v>
+        <v>0.309483</v>
       </c>
       <c r="F56" t="n">
-        <v>0.502417</v>
+        <v>0.684522</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.220763</v>
+        <v>0.217745</v>
       </c>
       <c r="C57" t="n">
-        <v>0.508063</v>
+        <v>0.558101</v>
       </c>
       <c r="D57" t="n">
-        <v>0.616893</v>
+        <v>0.598912</v>
       </c>
       <c r="E57" t="n">
-        <v>0.234679</v>
+        <v>0.202568</v>
       </c>
       <c r="F57" t="n">
-        <v>0.505284</v>
+        <v>0.592159</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.219688</v>
+        <v>0.28138</v>
       </c>
       <c r="C58" t="n">
-        <v>0.511683</v>
+        <v>0.735638</v>
       </c>
       <c r="D58" t="n">
-        <v>0.615662</v>
+        <v>0.844355</v>
       </c>
       <c r="E58" t="n">
-        <v>0.23229</v>
+        <v>0.34589</v>
       </c>
       <c r="F58" t="n">
-        <v>0.515467</v>
+        <v>0.863745</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.212186</v>
+        <v>0.364568</v>
       </c>
       <c r="C59" t="n">
-        <v>0.519802</v>
+        <v>0.908173</v>
       </c>
       <c r="D59" t="n">
-        <v>0.615344</v>
+        <v>0.867999</v>
       </c>
       <c r="E59" t="n">
-        <v>0.230728</v>
+        <v>0.311502</v>
       </c>
       <c r="F59" t="n">
-        <v>0.518903</v>
+        <v>0.688479</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.208527</v>
+        <v>0.289184</v>
       </c>
       <c r="C60" t="n">
-        <v>0.561097</v>
+        <v>0.684782</v>
       </c>
       <c r="D60" t="n">
-        <v>0.634233</v>
+        <v>0.809345</v>
       </c>
       <c r="E60" t="n">
-        <v>0.232625</v>
+        <v>0.211085</v>
       </c>
       <c r="F60" t="n">
-        <v>0.515711</v>
+        <v>0.751111</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.206192</v>
+        <v>0.308191</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5184299999999999</v>
+        <v>0.79222</v>
       </c>
       <c r="D61" t="n">
-        <v>0.611652</v>
+        <v>0.838776</v>
       </c>
       <c r="E61" t="n">
-        <v>0.22905</v>
+        <v>0.344755</v>
       </c>
       <c r="F61" t="n">
-        <v>0.519302</v>
+        <v>0.781138</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.20281</v>
+        <v>0.273682</v>
       </c>
       <c r="C62" t="n">
-        <v>0.519795</v>
+        <v>0.784757</v>
       </c>
       <c r="D62" t="n">
-        <v>0.636753</v>
+        <v>0.814503</v>
       </c>
       <c r="E62" t="n">
-        <v>0.230063</v>
+        <v>0.310546</v>
       </c>
       <c r="F62" t="n">
-        <v>0.541574</v>
+        <v>0.727094</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.197891</v>
+        <v>0.284373</v>
       </c>
       <c r="C63" t="n">
-        <v>0.550307</v>
+        <v>0.6742010000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6226</v>
+        <v>0.970798</v>
       </c>
       <c r="E63" t="n">
-        <v>0.226304</v>
+        <v>0.333597</v>
       </c>
       <c r="F63" t="n">
-        <v>0.565802</v>
+        <v>0.7887</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.194223</v>
+        <v>0.287077</v>
       </c>
       <c r="C64" t="n">
-        <v>0.552767</v>
+        <v>0.778959</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7098680000000001</v>
+        <v>0.869572</v>
       </c>
       <c r="E64" t="n">
-        <v>0.225114</v>
+        <v>0.294831</v>
       </c>
       <c r="F64" t="n">
-        <v>0.540831</v>
+        <v>0.690993</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.19021</v>
+        <v>0.258635</v>
       </c>
       <c r="C65" t="n">
-        <v>0.516854</v>
+        <v>0.781103</v>
       </c>
       <c r="D65" t="n">
-        <v>0.706962</v>
+        <v>0.967326</v>
       </c>
       <c r="E65" t="n">
-        <v>0.224861</v>
+        <v>0.2416</v>
       </c>
       <c r="F65" t="n">
-        <v>0.533084</v>
+        <v>0.7408979999999999</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.180424</v>
+        <v>0.282465</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5149629999999999</v>
+        <v>0.648405</v>
       </c>
       <c r="D66" t="n">
-        <v>0.705221</v>
+        <v>1.0063</v>
       </c>
       <c r="E66" t="n">
-        <v>0.249499</v>
+        <v>0.350102</v>
       </c>
       <c r="F66" t="n">
-        <v>0.567754</v>
+        <v>0.936853</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.243929</v>
+        <v>0.347218</v>
       </c>
       <c r="C67" t="n">
-        <v>0.60668</v>
+        <v>0.917954</v>
       </c>
       <c r="D67" t="n">
-        <v>0.736026</v>
+        <v>0.967258</v>
       </c>
       <c r="E67" t="n">
-        <v>0.25952</v>
+        <v>0.350251</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5845900000000001</v>
+        <v>0.818191</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.247202</v>
+        <v>0.378161</v>
       </c>
       <c r="C68" t="n">
-        <v>0.593688</v>
+        <v>0.935883</v>
       </c>
       <c r="D68" t="n">
-        <v>0.697196</v>
+        <v>0.952033</v>
       </c>
       <c r="E68" t="n">
-        <v>0.244992</v>
+        <v>0.366913</v>
       </c>
       <c r="F68" t="n">
-        <v>0.5760110000000001</v>
+        <v>0.847437</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.237221</v>
+        <v>0.37803</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5988</v>
+        <v>0.879767</v>
       </c>
       <c r="D69" t="n">
-        <v>0.697295</v>
+        <v>1.07633</v>
       </c>
       <c r="E69" t="n">
-        <v>0.241647</v>
+        <v>0.308121</v>
       </c>
       <c r="F69" t="n">
-        <v>0.5796829999999999</v>
+        <v>0.862511</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.237206</v>
+        <v>0.3503</v>
       </c>
       <c r="C70" t="n">
-        <v>0.596579</v>
+        <v>0.932027</v>
       </c>
       <c r="D70" t="n">
-        <v>0.688254</v>
+        <v>0.990216</v>
       </c>
       <c r="E70" t="n">
-        <v>0.242283</v>
+        <v>0.292482</v>
       </c>
       <c r="F70" t="n">
-        <v>0.575886</v>
+        <v>0.946424</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.229881</v>
+        <v>0.367628</v>
       </c>
       <c r="C71" t="n">
-        <v>0.582307</v>
+        <v>0.908114</v>
       </c>
       <c r="D71" t="n">
-        <v>0.681801</v>
+        <v>0.950989</v>
       </c>
       <c r="E71" t="n">
-        <v>0.237585</v>
+        <v>0.325844</v>
       </c>
       <c r="F71" t="n">
-        <v>0.5654169999999999</v>
+        <v>0.89619</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.22657</v>
+        <v>0.328406</v>
       </c>
       <c r="C72" t="n">
-        <v>0.586223</v>
+        <v>0.941106</v>
       </c>
       <c r="D72" t="n">
-        <v>0.676746</v>
+        <v>1.01904</v>
       </c>
       <c r="E72" t="n">
-        <v>0.237348</v>
+        <v>0.26445</v>
       </c>
       <c r="F72" t="n">
-        <v>0.571043</v>
+        <v>0.897639</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219034</v>
+        <v>0.344669</v>
       </c>
       <c r="C73" t="n">
-        <v>0.585172</v>
+        <v>0.8723919999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.685338</v>
+        <v>1.0382</v>
       </c>
       <c r="E73" t="n">
-        <v>0.235605</v>
+        <v>0.322863</v>
       </c>
       <c r="F73" t="n">
-        <v>0.5651929999999999</v>
+        <v>0.830006</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.218463</v>
+        <v>0.321313</v>
       </c>
       <c r="C74" t="n">
-        <v>0.573187</v>
+        <v>0.92353</v>
       </c>
       <c r="D74" t="n">
-        <v>0.671752</v>
+        <v>0.986112</v>
       </c>
       <c r="E74" t="n">
-        <v>0.235379</v>
+        <v>0.322339</v>
       </c>
       <c r="F74" t="n">
-        <v>0.565111</v>
+        <v>0.8525</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.215246</v>
+        <v>0.308925</v>
       </c>
       <c r="C75" t="n">
-        <v>0.567797</v>
+        <v>0.902972</v>
       </c>
       <c r="D75" t="n">
-        <v>0.67988</v>
+        <v>1.01801</v>
       </c>
       <c r="E75" t="n">
-        <v>0.232484</v>
+        <v>0.315693</v>
       </c>
       <c r="F75" t="n">
-        <v>0.569844</v>
+        <v>0.83851</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.209634</v>
+        <v>0.321012</v>
       </c>
       <c r="C76" t="n">
-        <v>0.566651</v>
+        <v>0.946224</v>
       </c>
       <c r="D76" t="n">
-        <v>0.668633</v>
+        <v>1.01352</v>
       </c>
       <c r="E76" t="n">
-        <v>0.231027</v>
+        <v>0.304665</v>
       </c>
       <c r="F76" t="n">
-        <v>0.565844</v>
+        <v>0.820524</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.203043</v>
+        <v>0.287831</v>
       </c>
       <c r="C77" t="n">
-        <v>0.564113</v>
+        <v>0.875051</v>
       </c>
       <c r="D77" t="n">
-        <v>0.665477</v>
+        <v>0.978986</v>
       </c>
       <c r="E77" t="n">
-        <v>0.228757</v>
+        <v>0.268792</v>
       </c>
       <c r="F77" t="n">
-        <v>0.569343</v>
+        <v>0.844483</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.200932</v>
+        <v>0.304158</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5596139999999999</v>
+        <v>0.836859</v>
       </c>
       <c r="D78" t="n">
-        <v>0.750302</v>
+        <v>1.08029</v>
       </c>
       <c r="E78" t="n">
-        <v>0.229899</v>
+        <v>0.313454</v>
       </c>
       <c r="F78" t="n">
-        <v>0.558918</v>
+        <v>0.892042</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.192811</v>
+        <v>0.232886</v>
       </c>
       <c r="C79" t="n">
-        <v>0.556984</v>
+        <v>0.8478059999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.755697</v>
+        <v>1.08154</v>
       </c>
       <c r="E79" t="n">
-        <v>0.226477</v>
+        <v>0.287044</v>
       </c>
       <c r="F79" t="n">
-        <v>0.559045</v>
+        <v>0.7967610000000001</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.186965</v>
+        <v>0.281365</v>
       </c>
       <c r="C80" t="n">
-        <v>0.541069</v>
+        <v>0.851752</v>
       </c>
       <c r="D80" t="n">
-        <v>0.748468</v>
+        <v>1.03516</v>
       </c>
       <c r="E80" t="n">
-        <v>0.253173</v>
+        <v>0.378177</v>
       </c>
       <c r="F80" t="n">
-        <v>0.581425</v>
+        <v>0.953663</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.253198</v>
+        <v>0.381457</v>
       </c>
       <c r="C81" t="n">
-        <v>0.605168</v>
+        <v>0.943921</v>
       </c>
       <c r="D81" t="n">
-        <v>0.739505</v>
+        <v>1.01489</v>
       </c>
       <c r="E81" t="n">
-        <v>0.251068</v>
+        <v>0.346303</v>
       </c>
       <c r="F81" t="n">
-        <v>0.5796750000000001</v>
+        <v>0.981665</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.251356</v>
+        <v>0.372557</v>
       </c>
       <c r="C82" t="n">
-        <v>0.610282</v>
+        <v>0.881727</v>
       </c>
       <c r="D82" t="n">
-        <v>0.732973</v>
+        <v>1.03148</v>
       </c>
       <c r="E82" t="n">
-        <v>0.250497</v>
+        <v>0.342315</v>
       </c>
       <c r="F82" t="n">
-        <v>0.579296</v>
+        <v>0.881603</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.243681</v>
+        <v>0.327769</v>
       </c>
       <c r="C83" t="n">
-        <v>0.60031</v>
+        <v>0.962248</v>
       </c>
       <c r="D83" t="n">
-        <v>0.730416</v>
+        <v>1.06707</v>
       </c>
       <c r="E83" t="n">
-        <v>0.247501</v>
+        <v>0.303031</v>
       </c>
       <c r="F83" t="n">
-        <v>0.580867</v>
+        <v>0.868848</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.237739</v>
+        <v>0.349873</v>
       </c>
       <c r="C84" t="n">
-        <v>0.623648</v>
+        <v>1.00374</v>
       </c>
       <c r="D84" t="n">
-        <v>0.755423</v>
+        <v>1.07016</v>
       </c>
       <c r="E84" t="n">
-        <v>0.245733</v>
+        <v>0.328102</v>
       </c>
       <c r="F84" t="n">
-        <v>0.6050450000000001</v>
+        <v>0.924952</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.235623</v>
+        <v>0.349576</v>
       </c>
       <c r="C85" t="n">
-        <v>0.626004</v>
+        <v>1.0064</v>
       </c>
       <c r="D85" t="n">
-        <v>0.753649</v>
+        <v>1.08101</v>
       </c>
       <c r="E85" t="n">
-        <v>0.244769</v>
+        <v>0.371451</v>
       </c>
       <c r="F85" t="n">
-        <v>0.599638</v>
+        <v>0.982499</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.229193</v>
+        <v>0.316608</v>
       </c>
       <c r="C86" t="n">
-        <v>0.616887</v>
+        <v>1.04782</v>
       </c>
       <c r="D86" t="n">
-        <v>0.747676</v>
+        <v>1.16403</v>
       </c>
       <c r="E86" t="n">
-        <v>0.241041</v>
+        <v>0.321846</v>
       </c>
       <c r="F86" t="n">
-        <v>0.595853</v>
+        <v>0.975097</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.225504</v>
+        <v>0.315965</v>
       </c>
       <c r="C87" t="n">
-        <v>0.618201</v>
+        <v>0.9631960000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>0.7346819999999999</v>
+        <v>1.13959</v>
       </c>
       <c r="E87" t="n">
-        <v>0.239051</v>
+        <v>0.329768</v>
       </c>
       <c r="F87" t="n">
-        <v>0.597356</v>
+        <v>0.964174</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.220624</v>
+        <v>0.338233</v>
       </c>
       <c r="C88" t="n">
-        <v>0.611054</v>
+        <v>0.965096</v>
       </c>
       <c r="D88" t="n">
-        <v>0.726339</v>
+        <v>0.991719</v>
       </c>
       <c r="E88" t="n">
-        <v>0.237441</v>
+        <v>0.29566</v>
       </c>
       <c r="F88" t="n">
-        <v>0.590076</v>
+        <v>0.945651</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.216257</v>
+        <v>0.325697</v>
       </c>
       <c r="C89" t="n">
-        <v>0.606171</v>
+        <v>0.8822950000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>0.726371</v>
+        <v>0.976303</v>
       </c>
       <c r="E89" t="n">
-        <v>0.236502</v>
+        <v>0.301876</v>
       </c>
       <c r="F89" t="n">
-        <v>0.58931</v>
+        <v>0.927486</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.213278</v>
+        <v>0.317608</v>
       </c>
       <c r="C90" t="n">
-        <v>0.60401</v>
+        <v>0.9635320000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.725015</v>
+        <v>1.13937</v>
       </c>
       <c r="E90" t="n">
-        <v>0.235357</v>
+        <v>0.310643</v>
       </c>
       <c r="F90" t="n">
-        <v>0.587148</v>
+        <v>1.00276</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.207722</v>
+        <v>0.33156</v>
       </c>
       <c r="C91" t="n">
-        <v>0.60133</v>
+        <v>0.900164</v>
       </c>
       <c r="D91" t="n">
-        <v>0.716772</v>
+        <v>1.13031</v>
       </c>
       <c r="E91" t="n">
-        <v>0.237898</v>
+        <v>0.299172</v>
       </c>
       <c r="F91" t="n">
-        <v>0.586246</v>
+        <v>0.994262</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.203195</v>
+        <v>0.313095</v>
       </c>
       <c r="C92" t="n">
-        <v>0.602743</v>
+        <v>0.922489</v>
       </c>
       <c r="D92" t="n">
-        <v>0.679016</v>
+        <v>1.09438</v>
       </c>
       <c r="E92" t="n">
-        <v>0.235376</v>
+        <v>0.227061</v>
       </c>
       <c r="F92" t="n">
-        <v>0.586198</v>
+        <v>0.87695</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.197942</v>
+        <v>0.251328</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5948329999999999</v>
+        <v>0.934153</v>
       </c>
       <c r="D93" t="n">
-        <v>0.673122</v>
+        <v>1.07609</v>
       </c>
       <c r="E93" t="n">
-        <v>0.229654</v>
+        <v>0.285044</v>
       </c>
       <c r="F93" t="n">
-        <v>0.595157</v>
+        <v>0.94909</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.189972</v>
+        <v>0.288325</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5904740000000001</v>
+        <v>0.909968</v>
       </c>
       <c r="D94" t="n">
-        <v>0.67264</v>
+        <v>0.997815</v>
       </c>
       <c r="E94" t="n">
-        <v>0.256097</v>
+        <v>0.339282</v>
       </c>
       <c r="F94" t="n">
-        <v>0.608402</v>
+        <v>1.0355</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.255116</v>
+        <v>0.370538</v>
       </c>
       <c r="C95" t="n">
-        <v>0.635875</v>
+        <v>1.02599</v>
       </c>
       <c r="D95" t="n">
-        <v>0.665049</v>
+        <v>1.14298</v>
       </c>
       <c r="E95" t="n">
-        <v>0.253137</v>
+        <v>0.351275</v>
       </c>
       <c r="F95" t="n">
-        <v>0.602836</v>
+        <v>1.00434</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.251195</v>
+        <v>0.360273</v>
       </c>
       <c r="C96" t="n">
-        <v>0.635278</v>
+        <v>0.9552890000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.676522</v>
+        <v>1.08046</v>
       </c>
       <c r="E96" t="n">
-        <v>0.251124</v>
+        <v>0.289799</v>
       </c>
       <c r="F96" t="n">
-        <v>0.601179</v>
+        <v>0.902769</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.246008</v>
+        <v>0.358672</v>
       </c>
       <c r="C97" t="n">
-        <v>0.627453</v>
+        <v>0.955616</v>
       </c>
       <c r="D97" t="n">
-        <v>0.671372</v>
+        <v>1.06171</v>
       </c>
       <c r="E97" t="n">
-        <v>0.248426</v>
+        <v>0.296445</v>
       </c>
       <c r="F97" t="n">
-        <v>0.599329</v>
+        <v>0.945473</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.240471</v>
+        <v>0.336159</v>
       </c>
       <c r="C98" t="n">
-        <v>0.622116</v>
+        <v>1.00038</v>
       </c>
       <c r="D98" t="n">
-        <v>0.666358</v>
+        <v>1.12674</v>
       </c>
       <c r="E98" t="n">
-        <v>0.248065</v>
+        <v>0.290083</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5980259999999999</v>
+        <v>0.998768</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.237652</v>
+        <v>0.351204</v>
       </c>
       <c r="C99" t="n">
-        <v>0.61842</v>
+        <v>0.924547</v>
       </c>
       <c r="D99" t="n">
-        <v>0.665608</v>
+        <v>1.11871</v>
       </c>
       <c r="E99" t="n">
-        <v>0.24528</v>
+        <v>0.288242</v>
       </c>
       <c r="F99" t="n">
-        <v>0.597796</v>
+        <v>1.00105</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.23059</v>
+        <v>0.291205</v>
       </c>
       <c r="C100" t="n">
-        <v>0.615676</v>
+        <v>0.918785</v>
       </c>
       <c r="D100" t="n">
-        <v>0.670731</v>
+        <v>1.12838</v>
       </c>
       <c r="E100" t="n">
-        <v>0.24604</v>
+        <v>0.344082</v>
       </c>
       <c r="F100" t="n">
-        <v>0.59191</v>
+        <v>0.929416</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.226234</v>
+        <v>0.318273</v>
       </c>
       <c r="C101" t="n">
-        <v>0.612492</v>
+        <v>0.979697</v>
       </c>
       <c r="D101" t="n">
-        <v>0.664169</v>
+        <v>1.14104</v>
       </c>
       <c r="E101" t="n">
-        <v>0.24458</v>
+        <v>0.285292</v>
       </c>
       <c r="F101" t="n">
-        <v>0.59327</v>
+        <v>0.834534</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.223193</v>
+        <v>0.321807</v>
       </c>
       <c r="C102" t="n">
-        <v>0.609789</v>
+        <v>0.8740059999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6624139999999999</v>
+        <v>1.12794</v>
       </c>
       <c r="E102" t="n">
-        <v>0.240249</v>
+        <v>0.333176</v>
       </c>
       <c r="F102" t="n">
-        <v>0.591063</v>
+        <v>0.976416</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.219358</v>
+        <v>0.297134</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5948639999999999</v>
+        <v>0.857809</v>
       </c>
       <c r="D103" t="n">
-        <v>0.666404</v>
+        <v>1.11857</v>
       </c>
       <c r="E103" t="n">
-        <v>0.236795</v>
+        <v>0.291974</v>
       </c>
       <c r="F103" t="n">
-        <v>0.5923119999999999</v>
+        <v>0.952137</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.216081</v>
+        <v>0.312635</v>
       </c>
       <c r="C104" t="n">
-        <v>0.593811</v>
+        <v>0.8622610000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6586689999999999</v>
+        <v>1.12706</v>
       </c>
       <c r="E104" t="n">
-        <v>0.235219</v>
+        <v>0.241262</v>
       </c>
       <c r="F104" t="n">
-        <v>0.592689</v>
+        <v>0.964647</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.209794</v>
+        <v>0.261064</v>
       </c>
       <c r="C105" t="n">
-        <v>0.592858</v>
+        <v>0.857913</v>
       </c>
       <c r="D105" t="n">
-        <v>0.662234</v>
+        <v>0.94048</v>
       </c>
       <c r="E105" t="n">
-        <v>0.233333</v>
+        <v>0.287575</v>
       </c>
       <c r="F105" t="n">
-        <v>0.588006</v>
+        <v>0.924142</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.204541</v>
+        <v>0.28727</v>
       </c>
       <c r="C106" t="n">
-        <v>0.589836</v>
+        <v>0.826537</v>
       </c>
       <c r="D106" t="n">
-        <v>0.65883</v>
+        <v>1.06188</v>
       </c>
       <c r="E106" t="n">
-        <v>0.233378</v>
+        <v>0.299698</v>
       </c>
       <c r="F106" t="n">
-        <v>0.589249</v>
+        <v>0.958748</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.200958</v>
+        <v>0.306636</v>
       </c>
       <c r="C107" t="n">
-        <v>0.583777</v>
+        <v>0.829144</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6702</v>
+        <v>1.07151</v>
       </c>
       <c r="E107" t="n">
-        <v>0.230259</v>
+        <v>0.307188</v>
       </c>
       <c r="F107" t="n">
-        <v>0.592038</v>
+        <v>0.877874</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.193834</v>
+        <v>0.28884</v>
       </c>
       <c r="C108" t="n">
-        <v>0.585853</v>
+        <v>0.851501</v>
       </c>
       <c r="D108" t="n">
-        <v>0.666612</v>
+        <v>1.0356</v>
       </c>
       <c r="E108" t="n">
-        <v>0.2629</v>
+        <v>0.321462</v>
       </c>
       <c r="F108" t="n">
-        <v>0.607625</v>
+        <v>0.894714</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.183578</v>
+        <v>0.279074</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5891459999999999</v>
+        <v>0.831391</v>
       </c>
       <c r="D109" t="n">
-        <v>0.67025</v>
+        <v>1.168</v>
       </c>
       <c r="E109" t="n">
-        <v>0.259681</v>
+        <v>0.380071</v>
       </c>
       <c r="F109" t="n">
-        <v>0.610575</v>
+        <v>0.99783</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.250913</v>
+        <v>0.349807</v>
       </c>
       <c r="C110" t="n">
-        <v>0.635006</v>
+        <v>1.10069</v>
       </c>
       <c r="D110" t="n">
-        <v>0.663803</v>
+        <v>1.10019</v>
       </c>
       <c r="E110" t="n">
-        <v>0.258765</v>
+        <v>0.269645</v>
       </c>
       <c r="F110" t="n">
-        <v>0.608468</v>
+        <v>1.02631</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.251469</v>
+        <v>0.326162</v>
       </c>
       <c r="C111" t="n">
-        <v>0.646246</v>
+        <v>0.996723</v>
       </c>
       <c r="D111" t="n">
-        <v>0.681006</v>
+        <v>1.08607</v>
       </c>
       <c r="E111" t="n">
-        <v>0.253087</v>
+        <v>0.293545</v>
       </c>
       <c r="F111" t="n">
-        <v>0.617774</v>
+        <v>1.02756</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.245208</v>
+        <v>0.352017</v>
       </c>
       <c r="C112" t="n">
-        <v>0.631621</v>
+        <v>0.9937820000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.665663</v>
+        <v>1.11486</v>
       </c>
       <c r="E112" t="n">
-        <v>0.247131</v>
+        <v>0.312444</v>
       </c>
       <c r="F112" t="n">
-        <v>0.613076</v>
+        <v>0.969234</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.239354</v>
+        <v>0.390854</v>
       </c>
       <c r="C113" t="n">
-        <v>0.614893</v>
+        <v>1.05043</v>
       </c>
       <c r="D113" t="n">
-        <v>0.676643</v>
+        <v>0.970234</v>
       </c>
       <c r="E113" t="n">
-        <v>0.246517</v>
+        <v>0.297625</v>
       </c>
       <c r="F113" t="n">
-        <v>0.609606</v>
+        <v>1.03204</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.234243</v>
+        <v>0.331283</v>
       </c>
       <c r="C114" t="n">
-        <v>0.623648</v>
+        <v>0.989098</v>
       </c>
       <c r="D114" t="n">
-        <v>0.671471</v>
+        <v>0.947834</v>
       </c>
       <c r="E114" t="n">
-        <v>0.244732</v>
+        <v>0.305379</v>
       </c>
       <c r="F114" t="n">
-        <v>0.598397</v>
+        <v>0.977536</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.229543</v>
+        <v>0.340599</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6231</v>
+        <v>0.880261</v>
       </c>
       <c r="D115" t="n">
-        <v>0.662405</v>
+        <v>1.07956</v>
       </c>
       <c r="E115" t="n">
-        <v>0.247949</v>
+        <v>0.291024</v>
       </c>
       <c r="F115" t="n">
-        <v>0.600041</v>
+        <v>0.92592</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.226759</v>
+        <v>0.329438</v>
       </c>
       <c r="C116" t="n">
-        <v>0.614625</v>
+        <v>0.952721</v>
       </c>
       <c r="D116" t="n">
-        <v>0.672484</v>
+        <v>0.913342</v>
       </c>
       <c r="E116" t="n">
-        <v>0.242961</v>
+        <v>0.257099</v>
       </c>
       <c r="F116" t="n">
-        <v>0.596979</v>
+        <v>0.926558</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.219837</v>
+        <v>0.317913</v>
       </c>
       <c r="C117" t="n">
-        <v>0.62323</v>
+        <v>0.8324319999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.661431</v>
+        <v>0.913336</v>
       </c>
       <c r="E117" t="n">
-        <v>0.237469</v>
+        <v>0.246622</v>
       </c>
       <c r="F117" t="n">
-        <v>0.606253</v>
+        <v>0.781027</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.216349</v>
+        <v>0.270102</v>
       </c>
       <c r="C118" t="n">
-        <v>0.60816</v>
+        <v>0.890875</v>
       </c>
       <c r="D118" t="n">
-        <v>0.670975</v>
+        <v>1.10331</v>
       </c>
       <c r="E118" t="n">
-        <v>0.237947</v>
+        <v>0.290096</v>
       </c>
       <c r="F118" t="n">
-        <v>0.607585</v>
+        <v>0.895298</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.21118</v>
+        <v>0.276849</v>
       </c>
       <c r="C119" t="n">
-        <v>0.594425</v>
+        <v>0.842693</v>
       </c>
       <c r="D119" t="n">
-        <v>0.671166</v>
+        <v>1.09957</v>
       </c>
       <c r="E119" t="n">
-        <v>0.234146</v>
+        <v>0.300299</v>
       </c>
       <c r="F119" t="n">
-        <v>0.603982</v>
+        <v>0.9049430000000001</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.211561</v>
+        <v>0.272521</v>
       </c>
       <c r="C120" t="n">
-        <v>0.593414</v>
+        <v>0.916201</v>
       </c>
       <c r="D120" t="n">
-        <v>0.665621</v>
+        <v>0.939041</v>
       </c>
       <c r="E120" t="n">
-        <v>0.23822</v>
+        <v>0.279006</v>
       </c>
       <c r="F120" t="n">
-        <v>0.598141</v>
+        <v>0.877206</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.201878</v>
+        <v>0.269674</v>
       </c>
       <c r="C121" t="n">
-        <v>0.604974</v>
+        <v>0.888424</v>
       </c>
       <c r="D121" t="n">
-        <v>0.679755</v>
+        <v>1.15564</v>
       </c>
       <c r="E121" t="n">
-        <v>0.233401</v>
+        <v>0.28625</v>
       </c>
       <c r="F121" t="n">
-        <v>0.598146</v>
+        <v>0.930212</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.194578</v>
+        <v>0.270245</v>
       </c>
       <c r="C122" t="n">
-        <v>0.598169</v>
+        <v>0.8817160000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>0.68448</v>
+        <v>1.07428</v>
       </c>
       <c r="E122" t="n">
-        <v>0.233492</v>
+        <v>0.23662</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5886400000000001</v>
+        <v>1.02727</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.185528</v>
+        <v>0.281582</v>
       </c>
       <c r="C123" t="n">
-        <v>0.570898</v>
+        <v>0.971373</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6949340000000001</v>
+        <v>0.990358</v>
       </c>
       <c r="E123" t="n">
-        <v>0.259362</v>
+        <v>0.285544</v>
       </c>
       <c r="F123" t="n">
-        <v>0.61337</v>
+        <v>1.08259</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.254648</v>
+        <v>0.358297</v>
       </c>
       <c r="C124" t="n">
-        <v>0.636141</v>
+        <v>0.91351</v>
       </c>
       <c r="D124" t="n">
-        <v>0.680358</v>
+        <v>1.07714</v>
       </c>
       <c r="E124" t="n">
-        <v>0.258882</v>
+        <v>0.312235</v>
       </c>
       <c r="F124" t="n">
-        <v>0.610684</v>
+        <v>1.0705</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.251839</v>
+        <v>0.373396</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6226660000000001</v>
+        <v>1.06697</v>
       </c>
       <c r="D125" t="n">
-        <v>0.680704</v>
+        <v>1.21431</v>
       </c>
       <c r="E125" t="n">
-        <v>0.255546</v>
+        <v>0.281697</v>
       </c>
       <c r="F125" t="n">
-        <v>0.605113</v>
+        <v>1.01586</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.242387</v>
+        <v>0.372347</v>
       </c>
       <c r="C126" t="n">
-        <v>0.634567</v>
+        <v>1.03692</v>
       </c>
       <c r="D126" t="n">
-        <v>0.680735</v>
+        <v>1.0743</v>
       </c>
       <c r="E126" t="n">
-        <v>0.251577</v>
+        <v>0.337381</v>
       </c>
       <c r="F126" t="n">
-        <v>0.600765</v>
+        <v>0.905814</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.242849</v>
+        <v>0.324137</v>
       </c>
       <c r="C127" t="n">
-        <v>0.618081</v>
+        <v>0.999842</v>
       </c>
       <c r="D127" t="n">
-        <v>0.691886</v>
+        <v>1.00629</v>
       </c>
       <c r="E127" t="n">
-        <v>0.246577</v>
+        <v>0.252104</v>
       </c>
       <c r="F127" t="n">
-        <v>0.622382</v>
+        <v>0.872582</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.233936</v>
+        <v>0.330613</v>
       </c>
       <c r="C128" t="n">
-        <v>0.614682</v>
+        <v>0.92997</v>
       </c>
       <c r="D128" t="n">
-        <v>0.670955</v>
+        <v>1.03983</v>
       </c>
       <c r="E128" t="n">
-        <v>0.24417</v>
+        <v>0.288655</v>
       </c>
       <c r="F128" t="n">
-        <v>0.6135699999999999</v>
+        <v>0.946223</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.229353</v>
+        <v>0.305775</v>
       </c>
       <c r="C129" t="n">
-        <v>0.606521</v>
+        <v>1.01084</v>
       </c>
       <c r="D129" t="n">
-        <v>0.69126</v>
+        <v>1.07907</v>
       </c>
       <c r="E129" t="n">
-        <v>0.243368</v>
+        <v>0.336384</v>
       </c>
       <c r="F129" t="n">
-        <v>0.598317</v>
+        <v>0.90868</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.22889</v>
+        <v>0.305324</v>
       </c>
       <c r="C130" t="n">
-        <v>0.600898</v>
+        <v>1.04896</v>
       </c>
       <c r="D130" t="n">
-        <v>0.676358</v>
+        <v>1.02452</v>
       </c>
       <c r="E130" t="n">
-        <v>0.240256</v>
+        <v>0.251915</v>
       </c>
       <c r="F130" t="n">
-        <v>0.615058</v>
+        <v>0.899083</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.222344</v>
+        <v>0.299671</v>
       </c>
       <c r="C131" t="n">
-        <v>0.599149</v>
+        <v>0.856272</v>
       </c>
       <c r="D131" t="n">
-        <v>0.673817</v>
+        <v>0.916419</v>
       </c>
       <c r="E131" t="n">
-        <v>0.239699</v>
+        <v>0.322424</v>
       </c>
       <c r="F131" t="n">
-        <v>0.604209</v>
+        <v>0.947998</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.216092</v>
+        <v>0.259125</v>
       </c>
       <c r="C132" t="n">
-        <v>0.608037</v>
+        <v>0.8839900000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.674291</v>
+        <v>1.17508</v>
       </c>
       <c r="E132" t="n">
-        <v>0.240083</v>
+        <v>0.270786</v>
       </c>
       <c r="F132" t="n">
-        <v>0.620332</v>
+        <v>0.857003</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.211815</v>
+        <v>0.327916</v>
       </c>
       <c r="C133" t="n">
-        <v>0.602393</v>
+        <v>0.806043</v>
       </c>
       <c r="D133" t="n">
-        <v>0.676982</v>
+        <v>0.959064</v>
       </c>
       <c r="E133" t="n">
-        <v>0.23656</v>
+        <v>0.253611</v>
       </c>
       <c r="F133" t="n">
-        <v>0.59063</v>
+        <v>0.900914</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.208618</v>
+        <v>0.28294</v>
       </c>
       <c r="C134" t="n">
-        <v>0.595857</v>
+        <v>0.833806</v>
       </c>
       <c r="D134" t="n">
-        <v>0.670806</v>
+        <v>0.816513</v>
       </c>
       <c r="E134" t="n">
-        <v>0.23341</v>
+        <v>0.198068</v>
       </c>
       <c r="F134" t="n">
-        <v>0.600784</v>
+        <v>0.769126</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.203184</v>
+        <v>0.262037</v>
       </c>
       <c r="C135" t="n">
-        <v>0.594724</v>
+        <v>0.780214</v>
       </c>
       <c r="D135" t="n">
-        <v>0.692034</v>
+        <v>0.963351</v>
       </c>
       <c r="E135" t="n">
-        <v>0.235273</v>
+        <v>0.271943</v>
       </c>
       <c r="F135" t="n">
-        <v>0.598038</v>
+        <v>0.80709</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.197081</v>
+        <v>0.283796</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5939410000000001</v>
+        <v>0.780895</v>
       </c>
       <c r="D136" t="n">
-        <v>0.678355</v>
+        <v>0.890386</v>
       </c>
       <c r="E136" t="n">
-        <v>0.230172</v>
+        <v>0.26289</v>
       </c>
       <c r="F136" t="n">
-        <v>0.592202</v>
+        <v>0.807841</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.189143</v>
+        <v>0.255946</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5879259999999999</v>
+        <v>0.800991</v>
       </c>
       <c r="D137" t="n">
-        <v>0.675551</v>
+        <v>0.973858</v>
       </c>
       <c r="E137" t="n">
-        <v>0.256278</v>
+        <v>0.319136</v>
       </c>
       <c r="F137" t="n">
-        <v>0.609789</v>
+        <v>0.979258</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.254161</v>
+        <v>0.386971</v>
       </c>
       <c r="C138" t="n">
-        <v>0.6491479999999999</v>
+        <v>0.806138</v>
       </c>
       <c r="D138" t="n">
-        <v>0.684105</v>
+        <v>0.905493</v>
       </c>
       <c r="E138" t="n">
-        <v>0.257477</v>
+        <v>0.271902</v>
       </c>
       <c r="F138" t="n">
-        <v>0.6062689999999999</v>
+        <v>0.791697</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.249572</v>
+        <v>0.320142</v>
       </c>
       <c r="C139" t="n">
-        <v>0.631453</v>
+        <v>0.690183</v>
       </c>
       <c r="D139" t="n">
-        <v>0.682023</v>
+        <v>1.04942</v>
       </c>
       <c r="E139" t="n">
-        <v>0.257066</v>
+        <v>0.31476</v>
       </c>
       <c r="F139" t="n">
-        <v>0.6126239999999999</v>
+        <v>0.876468</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.248399</v>
+        <v>0.344313</v>
       </c>
       <c r="C140" t="n">
-        <v>0.628578</v>
+        <v>0.731845</v>
       </c>
       <c r="D140" t="n">
-        <v>0.677464</v>
+        <v>0.8058419999999999</v>
       </c>
       <c r="E140" t="n">
-        <v>0.251196</v>
+        <v>0.301571</v>
       </c>
       <c r="F140" t="n">
-        <v>0.605647</v>
+        <v>0.9056340000000001</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.241361</v>
+        <v>0.342634</v>
       </c>
       <c r="C141" t="n">
-        <v>0.623031</v>
+        <v>0.893853</v>
       </c>
       <c r="D141" t="n">
-        <v>0.677887</v>
+        <v>0.881036</v>
       </c>
       <c r="E141" t="n">
-        <v>0.247795</v>
+        <v>0.266537</v>
       </c>
       <c r="F141" t="n">
-        <v>0.6047</v>
+        <v>0.864108</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.233741</v>
+        <v>0.371194</v>
       </c>
       <c r="C142" t="n">
-        <v>0.608831</v>
+        <v>0.846353</v>
       </c>
       <c r="D142" t="n">
-        <v>0.679017</v>
+        <v>0.95921</v>
       </c>
       <c r="E142" t="n">
-        <v>0.245374</v>
+        <v>0.309738</v>
       </c>
       <c r="F142" t="n">
-        <v>0.597706</v>
+        <v>0.756004</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.232486</v>
+        <v>0.363267</v>
       </c>
       <c r="C143" t="n">
-        <v>0.605788</v>
+        <v>0.722793</v>
       </c>
       <c r="D143" t="n">
-        <v>0.671859</v>
+        <v>0.950473</v>
       </c>
       <c r="E143" t="n">
-        <v>0.242714</v>
+        <v>0.289594</v>
       </c>
       <c r="F143" t="n">
-        <v>0.605311</v>
+        <v>0.903794</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.242229</v>
+        <v>0.322726</v>
       </c>
       <c r="C2" t="n">
-        <v>0.701183</v>
+        <v>0.672515</v>
       </c>
       <c r="D2" t="n">
-        <v>0.583024</v>
+        <v>0.6938569999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1842</v>
+        <v>0.177579</v>
       </c>
       <c r="F2" t="n">
-        <v>0.564537</v>
+        <v>0.741119</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.262797</v>
+        <v>0.245536</v>
       </c>
       <c r="C3" t="n">
-        <v>0.501734</v>
+        <v>0.623042</v>
       </c>
       <c r="D3" t="n">
-        <v>0.614195</v>
+        <v>0.729502</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2261</v>
+        <v>0.217126</v>
       </c>
       <c r="F3" t="n">
-        <v>0.582384</v>
+        <v>0.669383</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.269683</v>
+        <v>0.236083</v>
       </c>
       <c r="C4" t="n">
-        <v>0.472535</v>
+        <v>0.712668</v>
       </c>
       <c r="D4" t="n">
-        <v>0.77384</v>
+        <v>0.762633</v>
       </c>
       <c r="E4" t="n">
-        <v>0.364601</v>
+        <v>0.312405</v>
       </c>
       <c r="F4" t="n">
-        <v>0.678326</v>
+        <v>0.645806</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.257774</v>
+        <v>0.246715</v>
       </c>
       <c r="C5" t="n">
-        <v>0.757204</v>
+        <v>0.680121</v>
       </c>
       <c r="D5" t="n">
-        <v>0.614208</v>
+        <v>0.614715</v>
       </c>
       <c r="E5" t="n">
-        <v>0.33748</v>
+        <v>0.270516</v>
       </c>
       <c r="F5" t="n">
-        <v>0.510726</v>
+        <v>0.71004</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.231485</v>
+        <v>0.255188</v>
       </c>
       <c r="C6" t="n">
-        <v>0.480609</v>
+        <v>0.680522</v>
       </c>
       <c r="D6" t="n">
-        <v>0.563856</v>
+        <v>0.917727</v>
       </c>
       <c r="E6" t="n">
-        <v>0.260149</v>
+        <v>0.241122</v>
       </c>
       <c r="F6" t="n">
-        <v>0.604723</v>
+        <v>0.60062</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.23167</v>
+        <v>0.2347</v>
       </c>
       <c r="C7" t="n">
-        <v>0.501374</v>
+        <v>0.639609</v>
       </c>
       <c r="D7" t="n">
-        <v>0.59705</v>
+        <v>0.784567</v>
       </c>
       <c r="E7" t="n">
-        <v>0.184725</v>
+        <v>0.218946</v>
       </c>
       <c r="F7" t="n">
-        <v>0.52351</v>
+        <v>0.749219</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.303397</v>
+        <v>0.267225</v>
       </c>
       <c r="C8" t="n">
-        <v>0.581968</v>
+        <v>0.643815</v>
       </c>
       <c r="D8" t="n">
-        <v>0.670138</v>
+        <v>0.910975</v>
       </c>
       <c r="E8" t="n">
-        <v>0.279143</v>
+        <v>0.175832</v>
       </c>
       <c r="F8" t="n">
-        <v>0.533844</v>
+        <v>0.742802</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.155219</v>
+        <v>0.229225</v>
       </c>
       <c r="C9" t="n">
-        <v>0.474664</v>
+        <v>0.584194</v>
       </c>
       <c r="D9" t="n">
-        <v>0.679912</v>
+        <v>0.822673</v>
       </c>
       <c r="E9" t="n">
-        <v>0.270065</v>
+        <v>0.33551</v>
       </c>
       <c r="F9" t="n">
-        <v>0.523492</v>
+        <v>0.733553</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.296131</v>
+        <v>0.350817</v>
       </c>
       <c r="C10" t="n">
-        <v>0.765761</v>
+        <v>0.720845</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9755819999999999</v>
+        <v>0.909979</v>
       </c>
       <c r="E10" t="n">
-        <v>0.369368</v>
+        <v>0.39804</v>
       </c>
       <c r="F10" t="n">
-        <v>0.78266</v>
+        <v>0.8069190000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.287304</v>
+        <v>0.303328</v>
       </c>
       <c r="C11" t="n">
-        <v>0.610491</v>
+        <v>0.634491</v>
       </c>
       <c r="D11" t="n">
-        <v>0.809514</v>
+        <v>1.07459</v>
       </c>
       <c r="E11" t="n">
-        <v>0.332973</v>
+        <v>0.426431</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5541</v>
+        <v>0.797278</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.38169</v>
+        <v>0.197025</v>
       </c>
       <c r="C12" t="n">
-        <v>0.556565</v>
+        <v>0.598797</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7361529999999999</v>
+        <v>0.667976</v>
       </c>
       <c r="E12" t="n">
-        <v>0.172874</v>
+        <v>0.216741</v>
       </c>
       <c r="F12" t="n">
-        <v>0.608952</v>
+        <v>0.551469</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.217105</v>
+        <v>0.23305</v>
       </c>
       <c r="C13" t="n">
-        <v>0.79774</v>
+        <v>0.679856</v>
       </c>
       <c r="D13" t="n">
-        <v>0.83414</v>
+        <v>0.645787</v>
       </c>
       <c r="E13" t="n">
-        <v>0.344193</v>
+        <v>0.276118</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8478599999999999</v>
+        <v>0.645221</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.337851</v>
+        <v>0.167917</v>
       </c>
       <c r="C14" t="n">
-        <v>0.704109</v>
+        <v>0.420334</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8178569999999999</v>
+        <v>0.554628</v>
       </c>
       <c r="E14" t="n">
-        <v>0.224289</v>
+        <v>0.283382</v>
       </c>
       <c r="F14" t="n">
-        <v>0.569126</v>
+        <v>0.714926</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.278465</v>
+        <v>0.22522</v>
       </c>
       <c r="C15" t="n">
-        <v>0.791581</v>
+        <v>0.486318</v>
       </c>
       <c r="D15" t="n">
-        <v>0.820042</v>
+        <v>0.728779</v>
       </c>
       <c r="E15" t="n">
-        <v>0.190139</v>
+        <v>0.199482</v>
       </c>
       <c r="F15" t="n">
-        <v>0.695154</v>
+        <v>0.529516</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.180466</v>
+        <v>0.245823</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6044580000000001</v>
+        <v>0.57675</v>
       </c>
       <c r="D16" t="n">
-        <v>0.908438</v>
+        <v>0.604598</v>
       </c>
       <c r="E16" t="n">
-        <v>0.291963</v>
+        <v>0.182999</v>
       </c>
       <c r="F16" t="n">
-        <v>0.558826</v>
+        <v>0.5617490000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.235127</v>
+        <v>0.230716</v>
       </c>
       <c r="C17" t="n">
-        <v>0.63959</v>
+        <v>0.552721</v>
       </c>
       <c r="D17" t="n">
-        <v>0.799769</v>
+        <v>0.74514</v>
       </c>
       <c r="E17" t="n">
-        <v>0.228129</v>
+        <v>0.229711</v>
       </c>
       <c r="F17" t="n">
-        <v>0.621294</v>
+        <v>0.52956</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.298091</v>
+        <v>0.211291</v>
       </c>
       <c r="C18" t="n">
-        <v>0.663747</v>
+        <v>0.570719</v>
       </c>
       <c r="D18" t="n">
-        <v>0.825685</v>
+        <v>0.596783</v>
       </c>
       <c r="E18" t="n">
-        <v>0.284237</v>
+        <v>0.23428</v>
       </c>
       <c r="F18" t="n">
-        <v>0.773529</v>
+        <v>0.6095120000000001</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.283292</v>
+        <v>0.233704</v>
       </c>
       <c r="C19" t="n">
-        <v>0.861123</v>
+        <v>0.679446</v>
       </c>
       <c r="D19" t="n">
-        <v>0.969826</v>
+        <v>0.83601</v>
       </c>
       <c r="E19" t="n">
-        <v>0.269452</v>
+        <v>0.239034</v>
       </c>
       <c r="F19" t="n">
-        <v>0.820368</v>
+        <v>0.528173</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.344768</v>
+        <v>0.191689</v>
       </c>
       <c r="C20" t="n">
-        <v>0.677739</v>
+        <v>0.451634</v>
       </c>
       <c r="D20" t="n">
-        <v>0.997683</v>
+        <v>1.10563</v>
       </c>
       <c r="E20" t="n">
-        <v>0.289803</v>
+        <v>0.355068</v>
       </c>
       <c r="F20" t="n">
-        <v>0.659139</v>
+        <v>0.776894</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.190291</v>
+        <v>0.343823</v>
       </c>
       <c r="C21" t="n">
-        <v>0.639449</v>
+        <v>0.46296</v>
       </c>
       <c r="D21" t="n">
-        <v>0.707544</v>
+        <v>0.739544</v>
       </c>
       <c r="E21" t="n">
-        <v>0.250695</v>
+        <v>0.177372</v>
       </c>
       <c r="F21" t="n">
-        <v>0.421412</v>
+        <v>0.6488930000000001</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.139736</v>
+        <v>0.212332</v>
       </c>
       <c r="C22" t="n">
-        <v>0.345341</v>
+        <v>0.492614</v>
       </c>
       <c r="D22" t="n">
-        <v>0.882846</v>
+        <v>0.869476</v>
       </c>
       <c r="E22" t="n">
-        <v>0.287847</v>
+        <v>0.302995</v>
       </c>
       <c r="F22" t="n">
-        <v>0.391138</v>
+        <v>0.574766</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.213464</v>
+        <v>0.269085</v>
       </c>
       <c r="C23" t="n">
-        <v>0.617167</v>
+        <v>0.704832</v>
       </c>
       <c r="D23" t="n">
-        <v>0.773649</v>
+        <v>0.79656</v>
       </c>
       <c r="E23" t="n">
-        <v>0.273943</v>
+        <v>0.286499</v>
       </c>
       <c r="F23" t="n">
-        <v>0.67143</v>
+        <v>0.759342</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.401156</v>
+        <v>0.347584</v>
       </c>
       <c r="C24" t="n">
-        <v>0.766516</v>
+        <v>0.6886370000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.806742</v>
+        <v>0.871418</v>
       </c>
       <c r="E24" t="n">
-        <v>0.326095</v>
+        <v>0.297117</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7671</v>
+        <v>0.755145</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.357885</v>
+        <v>0.329831</v>
       </c>
       <c r="C25" t="n">
-        <v>0.833743</v>
+        <v>0.616524</v>
       </c>
       <c r="D25" t="n">
-        <v>0.815343</v>
+        <v>0.740516</v>
       </c>
       <c r="E25" t="n">
-        <v>0.371156</v>
+        <v>0.287522</v>
       </c>
       <c r="F25" t="n">
-        <v>0.745787</v>
+        <v>0.655616</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.330686</v>
+        <v>0.366098</v>
       </c>
       <c r="C26" t="n">
-        <v>0.82702</v>
+        <v>0.6704059999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.796365</v>
+        <v>0.730216</v>
       </c>
       <c r="E26" t="n">
-        <v>0.324398</v>
+        <v>0.268249</v>
       </c>
       <c r="F26" t="n">
-        <v>0.798607</v>
+        <v>0.72809</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.35714</v>
+        <v>0.332238</v>
       </c>
       <c r="C27" t="n">
-        <v>0.717087</v>
+        <v>0.671076</v>
       </c>
       <c r="D27" t="n">
-        <v>0.748368</v>
+        <v>0.784066</v>
       </c>
       <c r="E27" t="n">
-        <v>0.268225</v>
+        <v>0.285921</v>
       </c>
       <c r="F27" t="n">
-        <v>0.821415</v>
+        <v>0.8074519999999999</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.336566</v>
+        <v>0.309577</v>
       </c>
       <c r="C28" t="n">
-        <v>0.568787</v>
+        <v>0.629086</v>
       </c>
       <c r="D28" t="n">
-        <v>0.761508</v>
+        <v>0.650104</v>
       </c>
       <c r="E28" t="n">
-        <v>0.324934</v>
+        <v>0.233343</v>
       </c>
       <c r="F28" t="n">
-        <v>0.566783</v>
+        <v>0.592289</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.340154</v>
+        <v>0.27359</v>
       </c>
       <c r="C29" t="n">
-        <v>0.588889</v>
+        <v>0.73106</v>
       </c>
       <c r="D29" t="n">
-        <v>0.928387</v>
+        <v>0.654527</v>
       </c>
       <c r="E29" t="n">
-        <v>0.358672</v>
+        <v>0.311831</v>
       </c>
       <c r="F29" t="n">
-        <v>0.689744</v>
+        <v>0.56862</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.328088</v>
+        <v>0.272506</v>
       </c>
       <c r="C30" t="n">
-        <v>0.681629</v>
+        <v>0.514647</v>
       </c>
       <c r="D30" t="n">
-        <v>0.664791</v>
+        <v>0.621937</v>
       </c>
       <c r="E30" t="n">
-        <v>0.261919</v>
+        <v>0.319138</v>
       </c>
       <c r="F30" t="n">
-        <v>0.697086</v>
+        <v>0.780887</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.347954</v>
+        <v>0.296694</v>
       </c>
       <c r="C31" t="n">
-        <v>0.784752</v>
+        <v>0.581662</v>
       </c>
       <c r="D31" t="n">
-        <v>0.667265</v>
+        <v>0.648761</v>
       </c>
       <c r="E31" t="n">
-        <v>0.279041</v>
+        <v>0.307202</v>
       </c>
       <c r="F31" t="n">
-        <v>0.502458</v>
+        <v>0.551644</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.33898</v>
+        <v>0.278716</v>
       </c>
       <c r="C32" t="n">
-        <v>0.660443</v>
+        <v>0.488633</v>
       </c>
       <c r="D32" t="n">
-        <v>0.844902</v>
+        <v>0.692752</v>
       </c>
       <c r="E32" t="n">
-        <v>0.345806</v>
+        <v>0.300398</v>
       </c>
       <c r="F32" t="n">
-        <v>0.776072</v>
+        <v>0.57695</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.312353</v>
+        <v>0.306086</v>
       </c>
       <c r="C33" t="n">
-        <v>0.698801</v>
+        <v>0.597187</v>
       </c>
       <c r="D33" t="n">
-        <v>0.73328</v>
+        <v>0.79765</v>
       </c>
       <c r="E33" t="n">
-        <v>0.307798</v>
+        <v>0.253278</v>
       </c>
       <c r="F33" t="n">
-        <v>0.745781</v>
+        <v>0.592975</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.28768</v>
+        <v>0.285663</v>
       </c>
       <c r="C34" t="n">
-        <v>0.74077</v>
+        <v>0.498379</v>
       </c>
       <c r="D34" t="n">
-        <v>0.751012</v>
+        <v>0.679085</v>
       </c>
       <c r="E34" t="n">
-        <v>0.261977</v>
+        <v>0.242161</v>
       </c>
       <c r="F34" t="n">
-        <v>0.626125</v>
+        <v>0.636976</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.296155</v>
+        <v>0.274128</v>
       </c>
       <c r="C35" t="n">
-        <v>0.504038</v>
+        <v>0.692172</v>
       </c>
       <c r="D35" t="n">
-        <v>0.699912</v>
+        <v>0.740905</v>
       </c>
       <c r="E35" t="n">
-        <v>0.286754</v>
+        <v>0.249872</v>
       </c>
       <c r="F35" t="n">
-        <v>0.776329</v>
+        <v>0.573501</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.302599</v>
+        <v>0.253097</v>
       </c>
       <c r="C36" t="n">
-        <v>0.629799</v>
+        <v>0.484599</v>
       </c>
       <c r="D36" t="n">
-        <v>0.789204</v>
+        <v>1.08754</v>
       </c>
       <c r="E36" t="n">
-        <v>0.283112</v>
+        <v>0.280802</v>
       </c>
       <c r="F36" t="n">
-        <v>0.423545</v>
+        <v>0.564608</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.224804</v>
+        <v>0.282555</v>
       </c>
       <c r="C37" t="n">
-        <v>0.355732</v>
+        <v>0.484334</v>
       </c>
       <c r="D37" t="n">
-        <v>0.713928</v>
+        <v>0.842022</v>
       </c>
       <c r="E37" t="n">
-        <v>0.250648</v>
+        <v>0.312443</v>
       </c>
       <c r="F37" t="n">
-        <v>0.481676</v>
+        <v>0.752285</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.342309</v>
+        <v>0.347538</v>
       </c>
       <c r="C38" t="n">
-        <v>0.816522</v>
+        <v>0.710163</v>
       </c>
       <c r="D38" t="n">
-        <v>0.897919</v>
+        <v>0.673071</v>
       </c>
       <c r="E38" t="n">
-        <v>0.367527</v>
+        <v>0.216522</v>
       </c>
       <c r="F38" t="n">
-        <v>0.842953</v>
+        <v>0.776697</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.392093</v>
+        <v>0.344985</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7687580000000001</v>
+        <v>0.714996</v>
       </c>
       <c r="D39" t="n">
-        <v>0.945662</v>
+        <v>0.770495</v>
       </c>
       <c r="E39" t="n">
-        <v>0.314412</v>
+        <v>0.315981</v>
       </c>
       <c r="F39" t="n">
-        <v>0.756503</v>
+        <v>0.670573</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.332661</v>
+        <v>0.315351</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7929850000000001</v>
+        <v>0.714341</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9185759999999999</v>
+        <v>0.864823</v>
       </c>
       <c r="E40" t="n">
-        <v>0.302505</v>
+        <v>0.330435</v>
       </c>
       <c r="F40" t="n">
-        <v>0.859144</v>
+        <v>0.757962</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.337287</v>
+        <v>0.339539</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8046180000000001</v>
+        <v>0.75669</v>
       </c>
       <c r="D41" t="n">
-        <v>0.930386</v>
+        <v>0.845028</v>
       </c>
       <c r="E41" t="n">
-        <v>0.280943</v>
+        <v>0.33526</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7879429999999999</v>
+        <v>0.742776</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.36413</v>
+        <v>0.294459</v>
       </c>
       <c r="C42" t="n">
-        <v>0.790649</v>
+        <v>0.733805</v>
       </c>
       <c r="D42" t="n">
-        <v>1.09846</v>
+        <v>0.838573</v>
       </c>
       <c r="E42" t="n">
-        <v>0.330122</v>
+        <v>0.207649</v>
       </c>
       <c r="F42" t="n">
-        <v>0.720851</v>
+        <v>0.759548</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.335041</v>
+        <v>0.281088</v>
       </c>
       <c r="C43" t="n">
-        <v>0.837525</v>
+        <v>0.6147010000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.741502</v>
+        <v>0.919319</v>
       </c>
       <c r="E43" t="n">
-        <v>0.351256</v>
+        <v>0.281003</v>
       </c>
       <c r="F43" t="n">
-        <v>0.757192</v>
+        <v>0.70597</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.348848</v>
+        <v>0.330242</v>
       </c>
       <c r="C44" t="n">
-        <v>0.823074</v>
+        <v>0.72509</v>
       </c>
       <c r="D44" t="n">
-        <v>0.934569</v>
+        <v>0.846541</v>
       </c>
       <c r="E44" t="n">
-        <v>0.336983</v>
+        <v>0.290595</v>
       </c>
       <c r="F44" t="n">
-        <v>0.760035</v>
+        <v>0.6801700000000001</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.33351</v>
+        <v>0.358283</v>
       </c>
       <c r="C45" t="n">
-        <v>0.787815</v>
+        <v>0.746927</v>
       </c>
       <c r="D45" t="n">
-        <v>0.75143</v>
+        <v>0.828529</v>
       </c>
       <c r="E45" t="n">
-        <v>0.314609</v>
+        <v>0.303071</v>
       </c>
       <c r="F45" t="n">
-        <v>0.731806</v>
+        <v>0.654739</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.275346</v>
+        <v>0.299785</v>
       </c>
       <c r="C46" t="n">
-        <v>0.803503</v>
+        <v>0.632981</v>
       </c>
       <c r="D46" t="n">
-        <v>0.910068</v>
+        <v>0.888497</v>
       </c>
       <c r="E46" t="n">
-        <v>0.285433</v>
+        <v>0.299041</v>
       </c>
       <c r="F46" t="n">
-        <v>0.825484</v>
+        <v>0.715811</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.321247</v>
+        <v>0.256867</v>
       </c>
       <c r="C47" t="n">
-        <v>0.752162</v>
+        <v>0.7358440000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.915898</v>
+        <v>0.707185</v>
       </c>
       <c r="E47" t="n">
-        <v>0.27247</v>
+        <v>0.195735</v>
       </c>
       <c r="F47" t="n">
-        <v>0.803527</v>
+        <v>0.773152</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.29275</v>
+        <v>0.286726</v>
       </c>
       <c r="C48" t="n">
-        <v>0.74083</v>
+        <v>0.7036750000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.950469</v>
+        <v>0.91906</v>
       </c>
       <c r="E48" t="n">
-        <v>0.285611</v>
+        <v>0.25861</v>
       </c>
       <c r="F48" t="n">
-        <v>0.777819</v>
+        <v>0.7468129999999999</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.292276</v>
+        <v>0.260116</v>
       </c>
       <c r="C49" t="n">
-        <v>0.758687</v>
+        <v>0.662045</v>
       </c>
       <c r="D49" t="n">
-        <v>0.894165</v>
+        <v>0.838072</v>
       </c>
       <c r="E49" t="n">
-        <v>0.311562</v>
+        <v>0.251476</v>
       </c>
       <c r="F49" t="n">
-        <v>0.781474</v>
+        <v>0.663525</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.305635</v>
+        <v>0.301201</v>
       </c>
       <c r="C50" t="n">
-        <v>0.746159</v>
+        <v>0.6150369999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.986106</v>
+        <v>0.830093</v>
       </c>
       <c r="E50" t="n">
-        <v>0.315849</v>
+        <v>0.249426</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8356209999999999</v>
+        <v>0.665826</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.254198</v>
+        <v>0.236341</v>
       </c>
       <c r="C51" t="n">
-        <v>0.688316</v>
+        <v>0.616351</v>
       </c>
       <c r="D51" t="n">
-        <v>0.756942</v>
+        <v>0.897822</v>
       </c>
       <c r="E51" t="n">
-        <v>0.235199</v>
+        <v>0.356788</v>
       </c>
       <c r="F51" t="n">
-        <v>0.497348</v>
+        <v>0.783985</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.241185</v>
+        <v>0.265607</v>
       </c>
       <c r="C52" t="n">
-        <v>0.673654</v>
+        <v>0.5295570000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.938897</v>
+        <v>0.876839</v>
       </c>
       <c r="E52" t="n">
-        <v>0.347621</v>
+        <v>0.381052</v>
       </c>
       <c r="F52" t="n">
-        <v>0.807568</v>
+        <v>0.734858</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.38966</v>
+        <v>0.353013</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7329020000000001</v>
+        <v>0.7559360000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8231579999999999</v>
+        <v>0.8742799999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>0.380731</v>
+        <v>0.37581</v>
       </c>
       <c r="F53" t="n">
-        <v>0.761477</v>
+        <v>0.715981</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.36918</v>
+        <v>0.365048</v>
       </c>
       <c r="C54" t="n">
-        <v>0.818901</v>
+        <v>0.720311</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9179</v>
+        <v>0.871148</v>
       </c>
       <c r="E54" t="n">
-        <v>0.354248</v>
+        <v>0.337866</v>
       </c>
       <c r="F54" t="n">
-        <v>0.7962050000000001</v>
+        <v>0.7612989999999999</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.367675</v>
+        <v>0.285859</v>
       </c>
       <c r="C55" t="n">
-        <v>0.83528</v>
+        <v>0.731595</v>
       </c>
       <c r="D55" t="n">
-        <v>0.890131</v>
+        <v>0.784769</v>
       </c>
       <c r="E55" t="n">
-        <v>0.361531</v>
+        <v>0.315905</v>
       </c>
       <c r="F55" t="n">
-        <v>0.800311</v>
+        <v>0.674445</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.360975</v>
+        <v>0.322837</v>
       </c>
       <c r="C56" t="n">
-        <v>0.882343</v>
+        <v>0.714496</v>
       </c>
       <c r="D56" t="n">
-        <v>0.920329</v>
+        <v>0.7821669999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>0.309483</v>
+        <v>0.309482</v>
       </c>
       <c r="F56" t="n">
-        <v>0.684522</v>
+        <v>0.742442</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.217745</v>
+        <v>0.328862</v>
       </c>
       <c r="C57" t="n">
-        <v>0.558101</v>
+        <v>0.744667</v>
       </c>
       <c r="D57" t="n">
-        <v>0.598912</v>
+        <v>0.888974</v>
       </c>
       <c r="E57" t="n">
-        <v>0.202568</v>
+        <v>0.259778</v>
       </c>
       <c r="F57" t="n">
-        <v>0.592159</v>
+        <v>0.775679</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.28138</v>
+        <v>0.305325</v>
       </c>
       <c r="C58" t="n">
-        <v>0.735638</v>
+        <v>0.753003</v>
       </c>
       <c r="D58" t="n">
-        <v>0.844355</v>
+        <v>1.02128</v>
       </c>
       <c r="E58" t="n">
-        <v>0.34589</v>
+        <v>0.308753</v>
       </c>
       <c r="F58" t="n">
-        <v>0.863745</v>
+        <v>0.742135</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.364568</v>
+        <v>0.310332</v>
       </c>
       <c r="C59" t="n">
-        <v>0.908173</v>
+        <v>0.723532</v>
       </c>
       <c r="D59" t="n">
-        <v>0.867999</v>
+        <v>0.902578</v>
       </c>
       <c r="E59" t="n">
-        <v>0.311502</v>
+        <v>0.333531</v>
       </c>
       <c r="F59" t="n">
-        <v>0.688479</v>
+        <v>0.778622</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.289184</v>
+        <v>0.306495</v>
       </c>
       <c r="C60" t="n">
-        <v>0.684782</v>
+        <v>0.814795</v>
       </c>
       <c r="D60" t="n">
-        <v>0.809345</v>
+        <v>0.725815</v>
       </c>
       <c r="E60" t="n">
-        <v>0.211085</v>
+        <v>0.227099</v>
       </c>
       <c r="F60" t="n">
-        <v>0.751111</v>
+        <v>0.75153</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.308191</v>
+        <v>0.306775</v>
       </c>
       <c r="C61" t="n">
-        <v>0.79222</v>
+        <v>0.792027</v>
       </c>
       <c r="D61" t="n">
-        <v>0.838776</v>
+        <v>0.936325</v>
       </c>
       <c r="E61" t="n">
-        <v>0.344755</v>
+        <v>0.263689</v>
       </c>
       <c r="F61" t="n">
-        <v>0.781138</v>
+        <v>0.734645</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.273682</v>
+        <v>0.321012</v>
       </c>
       <c r="C62" t="n">
-        <v>0.784757</v>
+        <v>0.717807</v>
       </c>
       <c r="D62" t="n">
-        <v>0.814503</v>
+        <v>0.8689170000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>0.310546</v>
+        <v>0.262095</v>
       </c>
       <c r="F62" t="n">
-        <v>0.727094</v>
+        <v>0.652373</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.284373</v>
+        <v>0.297855</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6742010000000001</v>
+        <v>0.74931</v>
       </c>
       <c r="D63" t="n">
-        <v>0.970798</v>
+        <v>0.852945</v>
       </c>
       <c r="E63" t="n">
-        <v>0.333597</v>
+        <v>0.25128</v>
       </c>
       <c r="F63" t="n">
-        <v>0.7887</v>
+        <v>0.851781</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.287077</v>
+        <v>0.258241</v>
       </c>
       <c r="C64" t="n">
-        <v>0.778959</v>
+        <v>0.786013</v>
       </c>
       <c r="D64" t="n">
-        <v>0.869572</v>
+        <v>0.929122</v>
       </c>
       <c r="E64" t="n">
-        <v>0.294831</v>
+        <v>0.298041</v>
       </c>
       <c r="F64" t="n">
-        <v>0.690993</v>
+        <v>0.762289</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.258635</v>
+        <v>0.260991</v>
       </c>
       <c r="C65" t="n">
-        <v>0.781103</v>
+        <v>0.720383</v>
       </c>
       <c r="D65" t="n">
-        <v>0.967326</v>
+        <v>0.92415</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2416</v>
+        <v>0.228131</v>
       </c>
       <c r="F65" t="n">
-        <v>0.7408979999999999</v>
+        <v>0.687898</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.282465</v>
+        <v>0.225915</v>
       </c>
       <c r="C66" t="n">
-        <v>0.648405</v>
+        <v>0.769022</v>
       </c>
       <c r="D66" t="n">
-        <v>1.0063</v>
+        <v>0.983267</v>
       </c>
       <c r="E66" t="n">
-        <v>0.350102</v>
+        <v>0.283543</v>
       </c>
       <c r="F66" t="n">
-        <v>0.936853</v>
+        <v>0.811396</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.347218</v>
+        <v>0.350209</v>
       </c>
       <c r="C67" t="n">
-        <v>0.917954</v>
+        <v>0.924473</v>
       </c>
       <c r="D67" t="n">
-        <v>0.967258</v>
+        <v>0.947979</v>
       </c>
       <c r="E67" t="n">
-        <v>0.350251</v>
+        <v>0.336327</v>
       </c>
       <c r="F67" t="n">
-        <v>0.818191</v>
+        <v>0.8529910000000001</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.378161</v>
+        <v>0.356558</v>
       </c>
       <c r="C68" t="n">
-        <v>0.935883</v>
+        <v>0.874075</v>
       </c>
       <c r="D68" t="n">
-        <v>0.952033</v>
+        <v>0.907793</v>
       </c>
       <c r="E68" t="n">
-        <v>0.366913</v>
+        <v>0.334532</v>
       </c>
       <c r="F68" t="n">
-        <v>0.847437</v>
+        <v>0.7750359999999999</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.37803</v>
+        <v>0.312764</v>
       </c>
       <c r="C69" t="n">
-        <v>0.879767</v>
+        <v>0.9973959999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>1.07633</v>
+        <v>0.9896200000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>0.308121</v>
+        <v>0.335275</v>
       </c>
       <c r="F69" t="n">
-        <v>0.862511</v>
+        <v>0.808693</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3503</v>
+        <v>0.362334</v>
       </c>
       <c r="C70" t="n">
-        <v>0.932027</v>
+        <v>0.824423</v>
       </c>
       <c r="D70" t="n">
-        <v>0.990216</v>
+        <v>1.00075</v>
       </c>
       <c r="E70" t="n">
-        <v>0.292482</v>
+        <v>0.352389</v>
       </c>
       <c r="F70" t="n">
-        <v>0.946424</v>
+        <v>0.8564580000000001</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.367628</v>
+        <v>0.310439</v>
       </c>
       <c r="C71" t="n">
-        <v>0.908114</v>
+        <v>0.912956</v>
       </c>
       <c r="D71" t="n">
-        <v>0.950989</v>
+        <v>0.9416020000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>0.325844</v>
+        <v>0.319176</v>
       </c>
       <c r="F71" t="n">
-        <v>0.89619</v>
+        <v>0.8695349999999999</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.328406</v>
+        <v>0.317805</v>
       </c>
       <c r="C72" t="n">
-        <v>0.941106</v>
+        <v>0.811959</v>
       </c>
       <c r="D72" t="n">
-        <v>1.01904</v>
+        <v>0.934853</v>
       </c>
       <c r="E72" t="n">
-        <v>0.26445</v>
+        <v>0.34623</v>
       </c>
       <c r="F72" t="n">
-        <v>0.897639</v>
+        <v>0.93931</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.344669</v>
+        <v>0.298649</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8723919999999999</v>
+        <v>0.903926</v>
       </c>
       <c r="D73" t="n">
-        <v>1.0382</v>
+        <v>1.00901</v>
       </c>
       <c r="E73" t="n">
-        <v>0.322863</v>
+        <v>0.34433</v>
       </c>
       <c r="F73" t="n">
-        <v>0.830006</v>
+        <v>0.859334</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.321313</v>
+        <v>0.309892</v>
       </c>
       <c r="C74" t="n">
-        <v>0.92353</v>
+        <v>0.8494660000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.986112</v>
+        <v>1.02024</v>
       </c>
       <c r="E74" t="n">
-        <v>0.322339</v>
+        <v>0.290438</v>
       </c>
       <c r="F74" t="n">
-        <v>0.8525</v>
+        <v>0.877875</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.308925</v>
+        <v>0.298105</v>
       </c>
       <c r="C75" t="n">
-        <v>0.902972</v>
+        <v>0.868683</v>
       </c>
       <c r="D75" t="n">
-        <v>1.01801</v>
+        <v>0.973172</v>
       </c>
       <c r="E75" t="n">
-        <v>0.315693</v>
+        <v>0.287443</v>
       </c>
       <c r="F75" t="n">
-        <v>0.83851</v>
+        <v>0.8202199999999999</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.321012</v>
+        <v>0.26139</v>
       </c>
       <c r="C76" t="n">
-        <v>0.946224</v>
+        <v>0.87003</v>
       </c>
       <c r="D76" t="n">
-        <v>1.01352</v>
+        <v>1.02229</v>
       </c>
       <c r="E76" t="n">
-        <v>0.304665</v>
+        <v>0.318366</v>
       </c>
       <c r="F76" t="n">
-        <v>0.820524</v>
+        <v>0.8077260000000001</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.287831</v>
+        <v>0.310168</v>
       </c>
       <c r="C77" t="n">
-        <v>0.875051</v>
+        <v>0.891643</v>
       </c>
       <c r="D77" t="n">
-        <v>0.978986</v>
+        <v>1.05919</v>
       </c>
       <c r="E77" t="n">
-        <v>0.268792</v>
+        <v>0.235142</v>
       </c>
       <c r="F77" t="n">
-        <v>0.844483</v>
+        <v>0.736303</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.304158</v>
+        <v>0.308119</v>
       </c>
       <c r="C78" t="n">
-        <v>0.836859</v>
+        <v>0.8010969999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>1.08029</v>
+        <v>0.938939</v>
       </c>
       <c r="E78" t="n">
-        <v>0.313454</v>
+        <v>0.284092</v>
       </c>
       <c r="F78" t="n">
-        <v>0.892042</v>
+        <v>0.826614</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.232886</v>
+        <v>0.250601</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8478059999999999</v>
+        <v>0.839639</v>
       </c>
       <c r="D79" t="n">
-        <v>1.08154</v>
+        <v>1.04673</v>
       </c>
       <c r="E79" t="n">
-        <v>0.287044</v>
+        <v>0.266561</v>
       </c>
       <c r="F79" t="n">
-        <v>0.7967610000000001</v>
+        <v>0.812324</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.281365</v>
+        <v>0.255571</v>
       </c>
       <c r="C80" t="n">
-        <v>0.851752</v>
+        <v>0.812708</v>
       </c>
       <c r="D80" t="n">
-        <v>1.03516</v>
+        <v>1.00139</v>
       </c>
       <c r="E80" t="n">
-        <v>0.378177</v>
+        <v>0.322157</v>
       </c>
       <c r="F80" t="n">
-        <v>0.953663</v>
+        <v>0.848819</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.381457</v>
+        <v>0.347428</v>
       </c>
       <c r="C81" t="n">
-        <v>0.943921</v>
+        <v>0.943675</v>
       </c>
       <c r="D81" t="n">
-        <v>1.01489</v>
+        <v>0.966605</v>
       </c>
       <c r="E81" t="n">
-        <v>0.346303</v>
+        <v>0.275391</v>
       </c>
       <c r="F81" t="n">
-        <v>0.981665</v>
+        <v>0.828732</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.372557</v>
+        <v>0.297842</v>
       </c>
       <c r="C82" t="n">
-        <v>0.881727</v>
+        <v>0.988858</v>
       </c>
       <c r="D82" t="n">
-        <v>1.03148</v>
+        <v>0.975559</v>
       </c>
       <c r="E82" t="n">
-        <v>0.342315</v>
+        <v>0.290342</v>
       </c>
       <c r="F82" t="n">
-        <v>0.881603</v>
+        <v>0.900318</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.327769</v>
+        <v>0.300024</v>
       </c>
       <c r="C83" t="n">
-        <v>0.962248</v>
+        <v>0.911023</v>
       </c>
       <c r="D83" t="n">
-        <v>1.06707</v>
+        <v>1.06921</v>
       </c>
       <c r="E83" t="n">
-        <v>0.303031</v>
+        <v>0.339797</v>
       </c>
       <c r="F83" t="n">
-        <v>0.868848</v>
+        <v>0.907328</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.349873</v>
+        <v>0.323184</v>
       </c>
       <c r="C84" t="n">
-        <v>1.00374</v>
+        <v>0.949821</v>
       </c>
       <c r="D84" t="n">
-        <v>1.07016</v>
+        <v>0.993949</v>
       </c>
       <c r="E84" t="n">
-        <v>0.328102</v>
+        <v>0.355178</v>
       </c>
       <c r="F84" t="n">
-        <v>0.924952</v>
+        <v>0.936033</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.349576</v>
+        <v>0.298479</v>
       </c>
       <c r="C85" t="n">
-        <v>1.0064</v>
+        <v>1.00342</v>
       </c>
       <c r="D85" t="n">
-        <v>1.08101</v>
+        <v>1.11468</v>
       </c>
       <c r="E85" t="n">
-        <v>0.371451</v>
+        <v>0.360266</v>
       </c>
       <c r="F85" t="n">
-        <v>0.982499</v>
+        <v>1.02418</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.316608</v>
+        <v>0.251007</v>
       </c>
       <c r="C86" t="n">
-        <v>1.04782</v>
+        <v>0.990585</v>
       </c>
       <c r="D86" t="n">
-        <v>1.16403</v>
+        <v>1.16652</v>
       </c>
       <c r="E86" t="n">
-        <v>0.321846</v>
+        <v>0.33809</v>
       </c>
       <c r="F86" t="n">
-        <v>0.975097</v>
+        <v>1.02326</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.315965</v>
+        <v>0.305614</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9631960000000001</v>
+        <v>0.966537</v>
       </c>
       <c r="D87" t="n">
-        <v>1.13959</v>
+        <v>1.07415</v>
       </c>
       <c r="E87" t="n">
-        <v>0.329768</v>
+        <v>0.350198</v>
       </c>
       <c r="F87" t="n">
-        <v>0.964174</v>
+        <v>0.987626</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.338233</v>
+        <v>0.324827</v>
       </c>
       <c r="C88" t="n">
-        <v>0.965096</v>
+        <v>1.0366</v>
       </c>
       <c r="D88" t="n">
-        <v>0.991719</v>
+        <v>1.17493</v>
       </c>
       <c r="E88" t="n">
-        <v>0.29566</v>
+        <v>0.304991</v>
       </c>
       <c r="F88" t="n">
-        <v>0.945651</v>
+        <v>1.02451</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.325697</v>
+        <v>0.31647</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8822950000000001</v>
+        <v>0.965107</v>
       </c>
       <c r="D89" t="n">
-        <v>0.976303</v>
+        <v>1.12774</v>
       </c>
       <c r="E89" t="n">
-        <v>0.301876</v>
+        <v>0.277312</v>
       </c>
       <c r="F89" t="n">
-        <v>0.927486</v>
+        <v>0.853732</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.317608</v>
+        <v>0.268577</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9635320000000001</v>
+        <v>0.942963</v>
       </c>
       <c r="D90" t="n">
-        <v>1.13937</v>
+        <v>1.09546</v>
       </c>
       <c r="E90" t="n">
-        <v>0.310643</v>
+        <v>0.325138</v>
       </c>
       <c r="F90" t="n">
-        <v>1.00276</v>
+        <v>0.88562</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.33156</v>
+        <v>0.310834</v>
       </c>
       <c r="C91" t="n">
-        <v>0.900164</v>
+        <v>0.941652</v>
       </c>
       <c r="D91" t="n">
-        <v>1.13031</v>
+        <v>1.15664</v>
       </c>
       <c r="E91" t="n">
-        <v>0.299172</v>
+        <v>0.256946</v>
       </c>
       <c r="F91" t="n">
-        <v>0.994262</v>
+        <v>0.952975</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.313095</v>
+        <v>0.252569</v>
       </c>
       <c r="C92" t="n">
-        <v>0.922489</v>
+        <v>0.910323</v>
       </c>
       <c r="D92" t="n">
-        <v>1.09438</v>
+        <v>1.0014</v>
       </c>
       <c r="E92" t="n">
-        <v>0.227061</v>
+        <v>0.252363</v>
       </c>
       <c r="F92" t="n">
-        <v>0.87695</v>
+        <v>0.800329</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.251328</v>
+        <v>0.284395</v>
       </c>
       <c r="C93" t="n">
-        <v>0.934153</v>
+        <v>0.881041</v>
       </c>
       <c r="D93" t="n">
-        <v>1.07609</v>
+        <v>1.07677</v>
       </c>
       <c r="E93" t="n">
-        <v>0.285044</v>
+        <v>0.244458</v>
       </c>
       <c r="F93" t="n">
-        <v>0.94909</v>
+        <v>0.965648</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.288325</v>
+        <v>0.258027</v>
       </c>
       <c r="C94" t="n">
-        <v>0.909968</v>
+        <v>0.901871</v>
       </c>
       <c r="D94" t="n">
-        <v>0.997815</v>
+        <v>1.21477</v>
       </c>
       <c r="E94" t="n">
-        <v>0.339282</v>
+        <v>0.349296</v>
       </c>
       <c r="F94" t="n">
-        <v>1.0355</v>
+        <v>1.01499</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.370538</v>
+        <v>0.321371</v>
       </c>
       <c r="C95" t="n">
-        <v>1.02599</v>
+        <v>1.0175</v>
       </c>
       <c r="D95" t="n">
-        <v>1.14298</v>
+        <v>1.06955</v>
       </c>
       <c r="E95" t="n">
-        <v>0.351275</v>
+        <v>0.324433</v>
       </c>
       <c r="F95" t="n">
-        <v>1.00434</v>
+        <v>1.02549</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.360273</v>
+        <v>0.344642</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9552890000000001</v>
+        <v>1.02166</v>
       </c>
       <c r="D96" t="n">
-        <v>1.08046</v>
+        <v>1.01604</v>
       </c>
       <c r="E96" t="n">
-        <v>0.289799</v>
+        <v>0.364873</v>
       </c>
       <c r="F96" t="n">
-        <v>0.902769</v>
+        <v>1.04942</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.358672</v>
+        <v>0.351206</v>
       </c>
       <c r="C97" t="n">
-        <v>0.955616</v>
+        <v>0.940144</v>
       </c>
       <c r="D97" t="n">
-        <v>1.06171</v>
+        <v>1.03331</v>
       </c>
       <c r="E97" t="n">
-        <v>0.296445</v>
+        <v>0.297771</v>
       </c>
       <c r="F97" t="n">
-        <v>0.945473</v>
+        <v>1.00392</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.336159</v>
+        <v>0.351666</v>
       </c>
       <c r="C98" t="n">
-        <v>1.00038</v>
+        <v>1.01788</v>
       </c>
       <c r="D98" t="n">
-        <v>1.12674</v>
+        <v>1.06766</v>
       </c>
       <c r="E98" t="n">
-        <v>0.290083</v>
+        <v>0.313889</v>
       </c>
       <c r="F98" t="n">
-        <v>0.998768</v>
+        <v>0.989655</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.351204</v>
+        <v>0.285885</v>
       </c>
       <c r="C99" t="n">
-        <v>0.924547</v>
+        <v>0.990028</v>
       </c>
       <c r="D99" t="n">
-        <v>1.11871</v>
+        <v>1.05287</v>
       </c>
       <c r="E99" t="n">
-        <v>0.288242</v>
+        <v>0.242938</v>
       </c>
       <c r="F99" t="n">
-        <v>1.00105</v>
+        <v>0.993903</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.291205</v>
+        <v>0.329725</v>
       </c>
       <c r="C100" t="n">
-        <v>0.918785</v>
+        <v>1.12369</v>
       </c>
       <c r="D100" t="n">
-        <v>1.12838</v>
+        <v>1.09361</v>
       </c>
       <c r="E100" t="n">
-        <v>0.344082</v>
+        <v>0.323769</v>
       </c>
       <c r="F100" t="n">
-        <v>0.929416</v>
+        <v>1.03004</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.318273</v>
+        <v>0.344137</v>
       </c>
       <c r="C101" t="n">
-        <v>0.979697</v>
+        <v>1.08796</v>
       </c>
       <c r="D101" t="n">
-        <v>1.14104</v>
+        <v>1.07525</v>
       </c>
       <c r="E101" t="n">
-        <v>0.285292</v>
+        <v>0.310398</v>
       </c>
       <c r="F101" t="n">
-        <v>0.834534</v>
+        <v>0.957834</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.321807</v>
+        <v>0.342912</v>
       </c>
       <c r="C102" t="n">
-        <v>0.8740059999999999</v>
+        <v>1.05018</v>
       </c>
       <c r="D102" t="n">
-        <v>1.12794</v>
+        <v>1.09257</v>
       </c>
       <c r="E102" t="n">
-        <v>0.333176</v>
+        <v>0.312491</v>
       </c>
       <c r="F102" t="n">
-        <v>0.976416</v>
+        <v>1.00728</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.297134</v>
+        <v>0.292008</v>
       </c>
       <c r="C103" t="n">
-        <v>0.857809</v>
+        <v>0.9586479999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>1.11857</v>
+        <v>1.1169</v>
       </c>
       <c r="E103" t="n">
-        <v>0.291974</v>
+        <v>0.286678</v>
       </c>
       <c r="F103" t="n">
-        <v>0.952137</v>
+        <v>0.845644</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.312635</v>
+        <v>0.227787</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8622610000000001</v>
+        <v>0.9528489999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>1.12706</v>
+        <v>1.11382</v>
       </c>
       <c r="E104" t="n">
-        <v>0.241262</v>
+        <v>0.264952</v>
       </c>
       <c r="F104" t="n">
-        <v>0.964647</v>
+        <v>0.934499</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.261064</v>
+        <v>0.285447</v>
       </c>
       <c r="C105" t="n">
-        <v>0.857913</v>
+        <v>1.03</v>
       </c>
       <c r="D105" t="n">
-        <v>0.94048</v>
+        <v>1.13901</v>
       </c>
       <c r="E105" t="n">
-        <v>0.287575</v>
+        <v>0.31427</v>
       </c>
       <c r="F105" t="n">
-        <v>0.924142</v>
+        <v>1.00278</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.28727</v>
+        <v>0.27869</v>
       </c>
       <c r="C106" t="n">
-        <v>0.826537</v>
+        <v>0.992265</v>
       </c>
       <c r="D106" t="n">
-        <v>1.06188</v>
+        <v>1.11096</v>
       </c>
       <c r="E106" t="n">
-        <v>0.299698</v>
+        <v>0.286772</v>
       </c>
       <c r="F106" t="n">
-        <v>0.958748</v>
+        <v>0.9824580000000001</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.306636</v>
+        <v>0.257438</v>
       </c>
       <c r="C107" t="n">
-        <v>0.829144</v>
+        <v>0.894814</v>
       </c>
       <c r="D107" t="n">
-        <v>1.07151</v>
+        <v>1.15697</v>
       </c>
       <c r="E107" t="n">
-        <v>0.307188</v>
+        <v>0.257695</v>
       </c>
       <c r="F107" t="n">
-        <v>0.877874</v>
+        <v>0.959411</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.28884</v>
+        <v>0.231109</v>
       </c>
       <c r="C108" t="n">
-        <v>0.851501</v>
+        <v>0.964609</v>
       </c>
       <c r="D108" t="n">
-        <v>1.0356</v>
+        <v>1.14194</v>
       </c>
       <c r="E108" t="n">
-        <v>0.321462</v>
+        <v>0.358233</v>
       </c>
       <c r="F108" t="n">
-        <v>0.894714</v>
+        <v>1.03919</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.279074</v>
+        <v>0.274818</v>
       </c>
       <c r="C109" t="n">
-        <v>0.831391</v>
+        <v>0.944372</v>
       </c>
       <c r="D109" t="n">
-        <v>1.168</v>
+        <v>1.05662</v>
       </c>
       <c r="E109" t="n">
-        <v>0.380071</v>
+        <v>0.383621</v>
       </c>
       <c r="F109" t="n">
-        <v>0.99783</v>
+        <v>1.00439</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.349807</v>
+        <v>0.357861</v>
       </c>
       <c r="C110" t="n">
-        <v>1.10069</v>
+        <v>1.1322</v>
       </c>
       <c r="D110" t="n">
-        <v>1.10019</v>
+        <v>1.09392</v>
       </c>
       <c r="E110" t="n">
-        <v>0.269645</v>
+        <v>0.314642</v>
       </c>
       <c r="F110" t="n">
-        <v>1.02631</v>
+        <v>0.970852</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.326162</v>
+        <v>0.287886</v>
       </c>
       <c r="C111" t="n">
-        <v>0.996723</v>
+        <v>1.07378</v>
       </c>
       <c r="D111" t="n">
-        <v>1.08607</v>
+        <v>1.09298</v>
       </c>
       <c r="E111" t="n">
-        <v>0.293545</v>
+        <v>0.335307</v>
       </c>
       <c r="F111" t="n">
-        <v>1.02756</v>
+        <v>0.9988629999999999</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.352017</v>
+        <v>0.327012</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9937820000000001</v>
+        <v>1.0919</v>
       </c>
       <c r="D112" t="n">
-        <v>1.11486</v>
+        <v>0.917912</v>
       </c>
       <c r="E112" t="n">
-        <v>0.312444</v>
+        <v>0.347631</v>
       </c>
       <c r="F112" t="n">
-        <v>0.969234</v>
+        <v>0.918367</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.390854</v>
+        <v>0.365949</v>
       </c>
       <c r="C113" t="n">
-        <v>1.05043</v>
+        <v>0.93428</v>
       </c>
       <c r="D113" t="n">
-        <v>0.970234</v>
+        <v>1.01253</v>
       </c>
       <c r="E113" t="n">
-        <v>0.297625</v>
+        <v>0.317634</v>
       </c>
       <c r="F113" t="n">
-        <v>1.03204</v>
+        <v>1.03593</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.331283</v>
+        <v>0.327373</v>
       </c>
       <c r="C114" t="n">
-        <v>0.989098</v>
+        <v>0.966124</v>
       </c>
       <c r="D114" t="n">
-        <v>0.947834</v>
+        <v>0.943737</v>
       </c>
       <c r="E114" t="n">
-        <v>0.305379</v>
+        <v>0.334039</v>
       </c>
       <c r="F114" t="n">
-        <v>0.977536</v>
+        <v>1.03831</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.340599</v>
+        <v>0.321227</v>
       </c>
       <c r="C115" t="n">
-        <v>0.880261</v>
+        <v>0.963182</v>
       </c>
       <c r="D115" t="n">
-        <v>1.07956</v>
+        <v>1.08385</v>
       </c>
       <c r="E115" t="n">
-        <v>0.291024</v>
+        <v>0.284092</v>
       </c>
       <c r="F115" t="n">
-        <v>0.92592</v>
+        <v>0.995853</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.329438</v>
+        <v>0.337009</v>
       </c>
       <c r="C116" t="n">
-        <v>0.952721</v>
+        <v>0.979961</v>
       </c>
       <c r="D116" t="n">
-        <v>0.913342</v>
+        <v>1.05487</v>
       </c>
       <c r="E116" t="n">
-        <v>0.257099</v>
+        <v>0.310603</v>
       </c>
       <c r="F116" t="n">
-        <v>0.926558</v>
+        <v>0.931513</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.317913</v>
+        <v>0.304198</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8324319999999999</v>
+        <v>0.947926</v>
       </c>
       <c r="D117" t="n">
-        <v>0.913336</v>
+        <v>1.01042</v>
       </c>
       <c r="E117" t="n">
-        <v>0.246622</v>
+        <v>0.268445</v>
       </c>
       <c r="F117" t="n">
-        <v>0.781027</v>
+        <v>0.979039</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.270102</v>
+        <v>0.283452</v>
       </c>
       <c r="C118" t="n">
-        <v>0.890875</v>
+        <v>1.07083</v>
       </c>
       <c r="D118" t="n">
-        <v>1.10331</v>
+        <v>0.97253</v>
       </c>
       <c r="E118" t="n">
-        <v>0.290096</v>
+        <v>0.262159</v>
       </c>
       <c r="F118" t="n">
-        <v>0.895298</v>
+        <v>1.02767</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.276849</v>
+        <v>0.309053</v>
       </c>
       <c r="C119" t="n">
-        <v>0.842693</v>
+        <v>0.91022</v>
       </c>
       <c r="D119" t="n">
-        <v>1.09957</v>
+        <v>1.03846</v>
       </c>
       <c r="E119" t="n">
-        <v>0.300299</v>
+        <v>0.270697</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9049430000000001</v>
+        <v>0.893167</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.272521</v>
+        <v>0.284971</v>
       </c>
       <c r="C120" t="n">
-        <v>0.916201</v>
+        <v>0.951187</v>
       </c>
       <c r="D120" t="n">
-        <v>0.939041</v>
+        <v>1.07925</v>
       </c>
       <c r="E120" t="n">
-        <v>0.279006</v>
+        <v>0.278568</v>
       </c>
       <c r="F120" t="n">
-        <v>0.877206</v>
+        <v>0.898908</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.269674</v>
+        <v>0.282572</v>
       </c>
       <c r="C121" t="n">
-        <v>0.888424</v>
+        <v>0.875183</v>
       </c>
       <c r="D121" t="n">
-        <v>1.15564</v>
+        <v>1.13412</v>
       </c>
       <c r="E121" t="n">
-        <v>0.28625</v>
+        <v>0.283421</v>
       </c>
       <c r="F121" t="n">
-        <v>0.930212</v>
+        <v>0.873664</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.270245</v>
+        <v>0.232929</v>
       </c>
       <c r="C122" t="n">
-        <v>0.8817160000000001</v>
+        <v>0.921246</v>
       </c>
       <c r="D122" t="n">
-        <v>1.07428</v>
+        <v>1.19859</v>
       </c>
       <c r="E122" t="n">
-        <v>0.23662</v>
+        <v>0.290858</v>
       </c>
       <c r="F122" t="n">
-        <v>1.02727</v>
+        <v>0.957968</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.281582</v>
+        <v>0.257525</v>
       </c>
       <c r="C123" t="n">
-        <v>0.971373</v>
+        <v>0.882368</v>
       </c>
       <c r="D123" t="n">
-        <v>0.990358</v>
+        <v>1.19078</v>
       </c>
       <c r="E123" t="n">
-        <v>0.285544</v>
+        <v>0.357558</v>
       </c>
       <c r="F123" t="n">
-        <v>1.08259</v>
+        <v>0.989459</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.358297</v>
+        <v>0.386834</v>
       </c>
       <c r="C124" t="n">
-        <v>0.91351</v>
+        <v>1.06652</v>
       </c>
       <c r="D124" t="n">
-        <v>1.07714</v>
+        <v>1.11833</v>
       </c>
       <c r="E124" t="n">
-        <v>0.312235</v>
+        <v>0.297326</v>
       </c>
       <c r="F124" t="n">
-        <v>1.0705</v>
+        <v>1.00378</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.373396</v>
+        <v>0.307478</v>
       </c>
       <c r="C125" t="n">
-        <v>1.06697</v>
+        <v>1.05608</v>
       </c>
       <c r="D125" t="n">
-        <v>1.21431</v>
+        <v>1.04637</v>
       </c>
       <c r="E125" t="n">
-        <v>0.281697</v>
+        <v>0.346412</v>
       </c>
       <c r="F125" t="n">
-        <v>1.01586</v>
+        <v>1.00346</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.372347</v>
+        <v>0.320742</v>
       </c>
       <c r="C126" t="n">
-        <v>1.03692</v>
+        <v>1.00215</v>
       </c>
       <c r="D126" t="n">
-        <v>1.0743</v>
+        <v>1.07386</v>
       </c>
       <c r="E126" t="n">
-        <v>0.337381</v>
+        <v>0.340328</v>
       </c>
       <c r="F126" t="n">
-        <v>0.905814</v>
+        <v>1.01834</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.324137</v>
+        <v>0.317117</v>
       </c>
       <c r="C127" t="n">
-        <v>0.999842</v>
+        <v>1.00709</v>
       </c>
       <c r="D127" t="n">
-        <v>1.00629</v>
+        <v>1.07483</v>
       </c>
       <c r="E127" t="n">
-        <v>0.252104</v>
+        <v>0.330746</v>
       </c>
       <c r="F127" t="n">
-        <v>0.872582</v>
+        <v>0.934072</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.330613</v>
+        <v>0.335825</v>
       </c>
       <c r="C128" t="n">
-        <v>0.92997</v>
+        <v>0.985474</v>
       </c>
       <c r="D128" t="n">
-        <v>1.03983</v>
+        <v>1.02906</v>
       </c>
       <c r="E128" t="n">
-        <v>0.288655</v>
+        <v>0.324108</v>
       </c>
       <c r="F128" t="n">
-        <v>0.946223</v>
+        <v>1.10047</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.305775</v>
+        <v>0.329692</v>
       </c>
       <c r="C129" t="n">
-        <v>1.01084</v>
+        <v>0.846077</v>
       </c>
       <c r="D129" t="n">
-        <v>1.07907</v>
+        <v>1.06679</v>
       </c>
       <c r="E129" t="n">
-        <v>0.336384</v>
+        <v>0.285894</v>
       </c>
       <c r="F129" t="n">
-        <v>0.90868</v>
+        <v>0.99358</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.305324</v>
+        <v>0.301269</v>
       </c>
       <c r="C130" t="n">
-        <v>1.04896</v>
+        <v>0.921026</v>
       </c>
       <c r="D130" t="n">
-        <v>1.02452</v>
+        <v>1.17962</v>
       </c>
       <c r="E130" t="n">
-        <v>0.251915</v>
+        <v>0.294212</v>
       </c>
       <c r="F130" t="n">
-        <v>0.899083</v>
+        <v>1.07134</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.299671</v>
+        <v>0.320066</v>
       </c>
       <c r="C131" t="n">
-        <v>0.856272</v>
+        <v>0.94242</v>
       </c>
       <c r="D131" t="n">
-        <v>0.916419</v>
+        <v>1.07052</v>
       </c>
       <c r="E131" t="n">
-        <v>0.322424</v>
+        <v>0.32393</v>
       </c>
       <c r="F131" t="n">
-        <v>0.947998</v>
+        <v>0.9773849999999999</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.259125</v>
+        <v>0.292426</v>
       </c>
       <c r="C132" t="n">
-        <v>0.8839900000000001</v>
+        <v>0.91476</v>
       </c>
       <c r="D132" t="n">
-        <v>1.17508</v>
+        <v>0.945726</v>
       </c>
       <c r="E132" t="n">
-        <v>0.270786</v>
+        <v>0.280082</v>
       </c>
       <c r="F132" t="n">
-        <v>0.857003</v>
+        <v>0.965306</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.327916</v>
+        <v>0.279932</v>
       </c>
       <c r="C133" t="n">
-        <v>0.806043</v>
+        <v>0.8649</v>
       </c>
       <c r="D133" t="n">
-        <v>0.959064</v>
+        <v>1.07785</v>
       </c>
       <c r="E133" t="n">
-        <v>0.253611</v>
+        <v>0.298781</v>
       </c>
       <c r="F133" t="n">
-        <v>0.900914</v>
+        <v>0.874794</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.28294</v>
+        <v>0.286996</v>
       </c>
       <c r="C134" t="n">
-        <v>0.833806</v>
+        <v>0.923619</v>
       </c>
       <c r="D134" t="n">
-        <v>0.816513</v>
+        <v>1.01786</v>
       </c>
       <c r="E134" t="n">
-        <v>0.198068</v>
+        <v>0.259943</v>
       </c>
       <c r="F134" t="n">
-        <v>0.769126</v>
+        <v>0.869041</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.262037</v>
+        <v>0.238329</v>
       </c>
       <c r="C135" t="n">
-        <v>0.780214</v>
+        <v>0.73691</v>
       </c>
       <c r="D135" t="n">
-        <v>0.963351</v>
+        <v>1.11977</v>
       </c>
       <c r="E135" t="n">
-        <v>0.271943</v>
+        <v>0.297222</v>
       </c>
       <c r="F135" t="n">
-        <v>0.80709</v>
+        <v>0.828406</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.283796</v>
+        <v>0.271392</v>
       </c>
       <c r="C136" t="n">
-        <v>0.780895</v>
+        <v>0.862693</v>
       </c>
       <c r="D136" t="n">
-        <v>0.890386</v>
+        <v>0.996314</v>
       </c>
       <c r="E136" t="n">
-        <v>0.26289</v>
+        <v>0.281263</v>
       </c>
       <c r="F136" t="n">
-        <v>0.807841</v>
+        <v>0.924169</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.255946</v>
+        <v>0.241766</v>
       </c>
       <c r="C137" t="n">
-        <v>0.800991</v>
+        <v>0.8066410000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>0.973858</v>
+        <v>0.904471</v>
       </c>
       <c r="E137" t="n">
-        <v>0.319136</v>
+        <v>0.375019</v>
       </c>
       <c r="F137" t="n">
-        <v>0.979258</v>
+        <v>1.01151</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.386971</v>
+        <v>0.408602</v>
       </c>
       <c r="C138" t="n">
-        <v>0.806138</v>
+        <v>0.846753</v>
       </c>
       <c r="D138" t="n">
-        <v>0.905493</v>
+        <v>1.20758</v>
       </c>
       <c r="E138" t="n">
-        <v>0.271902</v>
+        <v>0.370909</v>
       </c>
       <c r="F138" t="n">
-        <v>0.791697</v>
+        <v>0.936482</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.320142</v>
+        <v>0.377187</v>
       </c>
       <c r="C139" t="n">
-        <v>0.690183</v>
+        <v>0.793594</v>
       </c>
       <c r="D139" t="n">
-        <v>1.04942</v>
+        <v>1.0144</v>
       </c>
       <c r="E139" t="n">
-        <v>0.31476</v>
+        <v>0.336769</v>
       </c>
       <c r="F139" t="n">
-        <v>0.876468</v>
+        <v>0.944219</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.344313</v>
+        <v>0.34279</v>
       </c>
       <c r="C140" t="n">
-        <v>0.731845</v>
+        <v>0.784009</v>
       </c>
       <c r="D140" t="n">
-        <v>0.8058419999999999</v>
+        <v>0.883808</v>
       </c>
       <c r="E140" t="n">
-        <v>0.301571</v>
+        <v>0.29884</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9056340000000001</v>
+        <v>1.00993</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.342634</v>
+        <v>0.338579</v>
       </c>
       <c r="C141" t="n">
-        <v>0.893853</v>
+        <v>1.05331</v>
       </c>
       <c r="D141" t="n">
-        <v>0.881036</v>
+        <v>0.9957859999999999</v>
       </c>
       <c r="E141" t="n">
-        <v>0.266537</v>
+        <v>0.334033</v>
       </c>
       <c r="F141" t="n">
-        <v>0.864108</v>
+        <v>1.012</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.371194</v>
+        <v>0.331506</v>
       </c>
       <c r="C142" t="n">
-        <v>0.846353</v>
+        <v>0.953799</v>
       </c>
       <c r="D142" t="n">
-        <v>0.95921</v>
+        <v>0.95752</v>
       </c>
       <c r="E142" t="n">
-        <v>0.309738</v>
+        <v>0.271178</v>
       </c>
       <c r="F142" t="n">
-        <v>0.756004</v>
+        <v>0.906771</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.363267</v>
+        <v>0.27378</v>
       </c>
       <c r="C143" t="n">
-        <v>0.722793</v>
+        <v>0.877636</v>
       </c>
       <c r="D143" t="n">
-        <v>0.950473</v>
+        <v>0.976345</v>
       </c>
       <c r="E143" t="n">
-        <v>0.289594</v>
+        <v>0.305915</v>
       </c>
       <c r="F143" t="n">
-        <v>0.903794</v>
+        <v>0.961228</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.197452</v>
+        <v>0.273357</v>
       </c>
       <c r="C2" t="n">
-        <v>0.455672</v>
+        <v>0.692299</v>
       </c>
       <c r="D2" t="n">
-        <v>0.522485</v>
+        <v>0.696199</v>
       </c>
       <c r="E2" t="n">
-        <v>0.182709</v>
+        <v>0.174912</v>
       </c>
       <c r="F2" t="n">
-        <v>0.448465</v>
+        <v>0.498834</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.194379</v>
+        <v>0.196033</v>
       </c>
       <c r="C3" t="n">
-        <v>0.448749</v>
+        <v>0.5854510000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.507656</v>
+        <v>0.543461</v>
       </c>
       <c r="E3" t="n">
-        <v>0.175813</v>
+        <v>0.202876</v>
       </c>
       <c r="F3" t="n">
-        <v>0.44408</v>
+        <v>0.611671</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.204797</v>
+        <v>0.229679</v>
       </c>
       <c r="C4" t="n">
-        <v>0.459207</v>
+        <v>0.552742</v>
       </c>
       <c r="D4" t="n">
-        <v>0.521482</v>
+        <v>0.701251</v>
       </c>
       <c r="E4" t="n">
-        <v>0.175186</v>
+        <v>0.304139</v>
       </c>
       <c r="F4" t="n">
-        <v>0.446418</v>
+        <v>0.501214</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.196759</v>
+        <v>0.240644</v>
       </c>
       <c r="C5" t="n">
-        <v>0.452705</v>
+        <v>0.620745</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5180979999999999</v>
+        <v>0.70424</v>
       </c>
       <c r="E5" t="n">
-        <v>0.174318</v>
+        <v>0.259605</v>
       </c>
       <c r="F5" t="n">
-        <v>0.439048</v>
+        <v>0.511755</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.183126</v>
+        <v>0.156491</v>
       </c>
       <c r="C6" t="n">
-        <v>0.439905</v>
+        <v>0.508845</v>
       </c>
       <c r="D6" t="n">
-        <v>0.500542</v>
+        <v>0.6315229999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.170536</v>
+        <v>0.160417</v>
       </c>
       <c r="F6" t="n">
-        <v>0.434652</v>
+        <v>0.535695</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.179509</v>
+        <v>0.193741</v>
       </c>
       <c r="C7" t="n">
-        <v>0.425311</v>
+        <v>0.6134309999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.502918</v>
+        <v>0.674193</v>
       </c>
       <c r="E7" t="n">
-        <v>0.164988</v>
+        <v>0.144928</v>
       </c>
       <c r="F7" t="n">
-        <v>0.427174</v>
+        <v>0.472783</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.182546</v>
+        <v>0.225456</v>
       </c>
       <c r="C8" t="n">
-        <v>0.423604</v>
+        <v>0.540404</v>
       </c>
       <c r="D8" t="n">
-        <v>0.501982</v>
+        <v>0.720241</v>
       </c>
       <c r="E8" t="n">
-        <v>0.161361</v>
+        <v>0.22521</v>
       </c>
       <c r="F8" t="n">
-        <v>0.428763</v>
+        <v>0.578946</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.166895</v>
+        <v>0.183177</v>
       </c>
       <c r="C9" t="n">
-        <v>0.417848</v>
+        <v>0.513775</v>
       </c>
       <c r="D9" t="n">
-        <v>0.514066</v>
+        <v>0.67294</v>
       </c>
       <c r="E9" t="n">
-        <v>0.209175</v>
+        <v>0.216641</v>
       </c>
       <c r="F9" t="n">
-        <v>0.459991</v>
+        <v>0.612561</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.220024</v>
+        <v>0.254547</v>
       </c>
       <c r="C10" t="n">
-        <v>0.469528</v>
+        <v>0.657292</v>
       </c>
       <c r="D10" t="n">
-        <v>0.513099</v>
+        <v>0.711636</v>
       </c>
       <c r="E10" t="n">
-        <v>0.203534</v>
+        <v>0.318915</v>
       </c>
       <c r="F10" t="n">
-        <v>0.465761</v>
+        <v>0.543488</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.216436</v>
+        <v>0.276478</v>
       </c>
       <c r="C11" t="n">
-        <v>0.462887</v>
+        <v>0.621838</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5037740000000001</v>
+        <v>0.588516</v>
       </c>
       <c r="E11" t="n">
-        <v>0.199879</v>
+        <v>0.320192</v>
       </c>
       <c r="F11" t="n">
-        <v>0.457426</v>
+        <v>0.615525</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.213914</v>
+        <v>0.279655</v>
       </c>
       <c r="C12" t="n">
-        <v>0.464935</v>
+        <v>0.568987</v>
       </c>
       <c r="D12" t="n">
-        <v>0.505068</v>
+        <v>0.529292</v>
       </c>
       <c r="E12" t="n">
-        <v>0.196077</v>
+        <v>0.23931</v>
       </c>
       <c r="F12" t="n">
-        <v>0.454449</v>
+        <v>0.632528</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.206754</v>
+        <v>0.256841</v>
       </c>
       <c r="C13" t="n">
-        <v>0.458034</v>
+        <v>0.615499</v>
       </c>
       <c r="D13" t="n">
-        <v>0.50157</v>
+        <v>0.772915</v>
       </c>
       <c r="E13" t="n">
-        <v>0.192788</v>
+        <v>0.219366</v>
       </c>
       <c r="F13" t="n">
-        <v>0.453901</v>
+        <v>0.601275</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.205574</v>
+        <v>0.272853</v>
       </c>
       <c r="C14" t="n">
-        <v>0.450643</v>
+        <v>0.5906940000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.496316</v>
+        <v>0.668388</v>
       </c>
       <c r="E14" t="n">
-        <v>0.188916</v>
+        <v>0.311236</v>
       </c>
       <c r="F14" t="n">
-        <v>0.443344</v>
+        <v>0.523878</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.201202</v>
+        <v>0.227038</v>
       </c>
       <c r="C15" t="n">
-        <v>0.449772</v>
+        <v>0.649264</v>
       </c>
       <c r="D15" t="n">
-        <v>0.497265</v>
+        <v>0.761194</v>
       </c>
       <c r="E15" t="n">
-        <v>0.186437</v>
+        <v>0.21442</v>
       </c>
       <c r="F15" t="n">
-        <v>0.442536</v>
+        <v>0.703354</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.199951</v>
+        <v>0.286501</v>
       </c>
       <c r="C16" t="n">
-        <v>0.443997</v>
+        <v>0.490102</v>
       </c>
       <c r="D16" t="n">
-        <v>0.499173</v>
+        <v>0.692953</v>
       </c>
       <c r="E16" t="n">
-        <v>0.184581</v>
+        <v>0.183007</v>
       </c>
       <c r="F16" t="n">
-        <v>0.438805</v>
+        <v>0.609764</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.195912</v>
+        <v>0.219801</v>
       </c>
       <c r="C17" t="n">
-        <v>0.441189</v>
+        <v>0.526593</v>
       </c>
       <c r="D17" t="n">
-        <v>0.496802</v>
+        <v>0.608535</v>
       </c>
       <c r="E17" t="n">
-        <v>0.185791</v>
+        <v>0.327952</v>
       </c>
       <c r="F17" t="n">
-        <v>0.438376</v>
+        <v>0.510361</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.194989</v>
+        <v>0.256657</v>
       </c>
       <c r="C18" t="n">
-        <v>0.443204</v>
+        <v>0.689507</v>
       </c>
       <c r="D18" t="n">
-        <v>0.500256</v>
+        <v>0.460476</v>
       </c>
       <c r="E18" t="n">
-        <v>0.176804</v>
+        <v>0.285326</v>
       </c>
       <c r="F18" t="n">
-        <v>0.436805</v>
+        <v>0.592398</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.190547</v>
+        <v>0.178576</v>
       </c>
       <c r="C19" t="n">
-        <v>0.435659</v>
+        <v>0.529988</v>
       </c>
       <c r="D19" t="n">
-        <v>0.499144</v>
+        <v>0.6692979999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>0.173881</v>
+        <v>0.285616</v>
       </c>
       <c r="F19" t="n">
-        <v>0.448789</v>
+        <v>0.539059</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.190915</v>
+        <v>0.174894</v>
       </c>
       <c r="C20" t="n">
-        <v>0.434641</v>
+        <v>0.505162</v>
       </c>
       <c r="D20" t="n">
-        <v>0.497774</v>
+        <v>0.782636</v>
       </c>
       <c r="E20" t="n">
-        <v>0.171122</v>
+        <v>0.215672</v>
       </c>
       <c r="F20" t="n">
-        <v>0.432164</v>
+        <v>0.549333</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.187091</v>
+        <v>0.240416</v>
       </c>
       <c r="C21" t="n">
-        <v>0.429389</v>
+        <v>0.56234</v>
       </c>
       <c r="D21" t="n">
-        <v>0.514944</v>
+        <v>0.53527</v>
       </c>
       <c r="E21" t="n">
-        <v>0.171473</v>
+        <v>0.208897</v>
       </c>
       <c r="F21" t="n">
-        <v>0.427255</v>
+        <v>0.6238359999999999</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.182948</v>
+        <v>0.25367</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4274</v>
+        <v>0.497864</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5167350000000001</v>
+        <v>0.6327199999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.164824</v>
+        <v>0.169607</v>
       </c>
       <c r="F22" t="n">
-        <v>0.425389</v>
+        <v>0.524692</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.176394</v>
+        <v>0.187386</v>
       </c>
       <c r="C23" t="n">
-        <v>0.415382</v>
+        <v>0.609263</v>
       </c>
       <c r="D23" t="n">
-        <v>0.509269</v>
+        <v>0.525656</v>
       </c>
       <c r="E23" t="n">
-        <v>0.216922</v>
+        <v>0.330886</v>
       </c>
       <c r="F23" t="n">
-        <v>0.468315</v>
+        <v>0.739263</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.230684</v>
+        <v>0.30479</v>
       </c>
       <c r="C24" t="n">
-        <v>0.471219</v>
+        <v>0.622097</v>
       </c>
       <c r="D24" t="n">
-        <v>0.508266</v>
+        <v>0.6298280000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>0.213435</v>
+        <v>0.311078</v>
       </c>
       <c r="F24" t="n">
-        <v>0.468204</v>
+        <v>0.70186</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.227224</v>
+        <v>0.330723</v>
       </c>
       <c r="C25" t="n">
-        <v>0.467864</v>
+        <v>0.646909</v>
       </c>
       <c r="D25" t="n">
-        <v>0.512659</v>
+        <v>0.612993</v>
       </c>
       <c r="E25" t="n">
-        <v>0.21087</v>
+        <v>0.312596</v>
       </c>
       <c r="F25" t="n">
-        <v>0.46294</v>
+        <v>0.7068950000000001</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.223975</v>
+        <v>0.299112</v>
       </c>
       <c r="C26" t="n">
-        <v>0.464648</v>
+        <v>0.804172</v>
       </c>
       <c r="D26" t="n">
-        <v>0.506501</v>
+        <v>0.735735</v>
       </c>
       <c r="E26" t="n">
-        <v>0.208525</v>
+        <v>0.23005</v>
       </c>
       <c r="F26" t="n">
-        <v>0.459661</v>
+        <v>0.574337</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.219781</v>
+        <v>0.324968</v>
       </c>
       <c r="C27" t="n">
-        <v>0.472968</v>
+        <v>0.810732</v>
       </c>
       <c r="D27" t="n">
-        <v>0.516845</v>
+        <v>0.877022</v>
       </c>
       <c r="E27" t="n">
-        <v>0.198687</v>
+        <v>0.313005</v>
       </c>
       <c r="F27" t="n">
-        <v>0.461577</v>
+        <v>0.738744</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.216621</v>
+        <v>0.264666</v>
       </c>
       <c r="C28" t="n">
-        <v>0.462701</v>
+        <v>0.749645</v>
       </c>
       <c r="D28" t="n">
-        <v>0.510558</v>
+        <v>0.7710669999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>0.195625</v>
+        <v>0.286815</v>
       </c>
       <c r="F28" t="n">
-        <v>0.457287</v>
+        <v>0.714245</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.213946</v>
+        <v>0.251407</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4584</v>
+        <v>0.813398</v>
       </c>
       <c r="D29" t="n">
-        <v>0.514983</v>
+        <v>0.693554</v>
       </c>
       <c r="E29" t="n">
-        <v>0.193766</v>
+        <v>0.239847</v>
       </c>
       <c r="F29" t="n">
-        <v>0.456771</v>
+        <v>0.771346</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.208843</v>
+        <v>0.319622</v>
       </c>
       <c r="C30" t="n">
-        <v>0.452607</v>
+        <v>0.795791</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5169820000000001</v>
+        <v>0.625078</v>
       </c>
       <c r="E30" t="n">
-        <v>0.191062</v>
+        <v>0.313493</v>
       </c>
       <c r="F30" t="n">
-        <v>0.447511</v>
+        <v>0.661206</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.205557</v>
+        <v>0.304203</v>
       </c>
       <c r="C31" t="n">
-        <v>0.450292</v>
+        <v>0.506026</v>
       </c>
       <c r="D31" t="n">
-        <v>0.500848</v>
+        <v>0.57095</v>
       </c>
       <c r="E31" t="n">
-        <v>0.18633</v>
+        <v>0.240307</v>
       </c>
       <c r="F31" t="n">
-        <v>0.441266</v>
+        <v>0.607047</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.203182</v>
+        <v>0.323292</v>
       </c>
       <c r="C32" t="n">
-        <v>0.446352</v>
+        <v>0.532792</v>
       </c>
       <c r="D32" t="n">
-        <v>0.513064</v>
+        <v>0.78095</v>
       </c>
       <c r="E32" t="n">
-        <v>0.182335</v>
+        <v>0.193611</v>
       </c>
       <c r="F32" t="n">
-        <v>0.435996</v>
+        <v>0.583292</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.196819</v>
+        <v>0.279046</v>
       </c>
       <c r="C33" t="n">
-        <v>0.441009</v>
+        <v>0.458772</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5139049999999999</v>
+        <v>0.533879</v>
       </c>
       <c r="E33" t="n">
-        <v>0.181694</v>
+        <v>0.305804</v>
       </c>
       <c r="F33" t="n">
-        <v>0.436723</v>
+        <v>0.47415</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.194025</v>
+        <v>0.258206</v>
       </c>
       <c r="C34" t="n">
-        <v>0.435638</v>
+        <v>0.544947</v>
       </c>
       <c r="D34" t="n">
-        <v>0.498714</v>
+        <v>0.657065</v>
       </c>
       <c r="E34" t="n">
-        <v>0.176104</v>
+        <v>0.279795</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4409</v>
+        <v>0.558605</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.191167</v>
+        <v>0.188129</v>
       </c>
       <c r="C35" t="n">
-        <v>0.438381</v>
+        <v>0.440441</v>
       </c>
       <c r="D35" t="n">
-        <v>0.524609</v>
+        <v>0.77525</v>
       </c>
       <c r="E35" t="n">
-        <v>0.173811</v>
+        <v>0.312754</v>
       </c>
       <c r="F35" t="n">
-        <v>0.431347</v>
+        <v>0.6627</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.187092</v>
+        <v>0.281581</v>
       </c>
       <c r="C36" t="n">
-        <v>0.440687</v>
+        <v>0.589067</v>
       </c>
       <c r="D36" t="n">
-        <v>0.526071</v>
+        <v>0.880646</v>
       </c>
       <c r="E36" t="n">
-        <v>0.170724</v>
+        <v>0.322645</v>
       </c>
       <c r="F36" t="n">
-        <v>0.432227</v>
+        <v>0.573258</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.181149</v>
+        <v>0.24373</v>
       </c>
       <c r="C37" t="n">
-        <v>0.427303</v>
+        <v>0.48581</v>
       </c>
       <c r="D37" t="n">
-        <v>0.531135</v>
+        <v>0.758091</v>
       </c>
       <c r="E37" t="n">
-        <v>0.230544</v>
+        <v>0.358776</v>
       </c>
       <c r="F37" t="n">
-        <v>0.479345</v>
+        <v>0.785088</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.234612</v>
+        <v>0.360067</v>
       </c>
       <c r="C38" t="n">
-        <v>0.499925</v>
+        <v>0.832385</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5369969999999999</v>
+        <v>0.931413</v>
       </c>
       <c r="E38" t="n">
-        <v>0.230692</v>
+        <v>0.279856</v>
       </c>
       <c r="F38" t="n">
-        <v>0.49346</v>
+        <v>0.685986</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.235417</v>
+        <v>0.366946</v>
       </c>
       <c r="C39" t="n">
-        <v>0.491126</v>
+        <v>0.739224</v>
       </c>
       <c r="D39" t="n">
-        <v>0.529956</v>
+        <v>0.561387</v>
       </c>
       <c r="E39" t="n">
-        <v>0.221473</v>
+        <v>0.333948</v>
       </c>
       <c r="F39" t="n">
-        <v>0.479312</v>
+        <v>0.758507</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.226354</v>
+        <v>0.337504</v>
       </c>
       <c r="C40" t="n">
-        <v>0.488555</v>
+        <v>0.774382</v>
       </c>
       <c r="D40" t="n">
-        <v>0.53908</v>
+        <v>0.835001</v>
       </c>
       <c r="E40" t="n">
-        <v>0.21706</v>
+        <v>0.290585</v>
       </c>
       <c r="F40" t="n">
-        <v>0.478965</v>
+        <v>0.819869</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.22648</v>
+        <v>0.291442</v>
       </c>
       <c r="C41" t="n">
-        <v>0.492763</v>
+        <v>0.840425</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5334100000000001</v>
+        <v>0.8933489999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>0.21285</v>
+        <v>0.298722</v>
       </c>
       <c r="F41" t="n">
-        <v>0.472037</v>
+        <v>0.783155</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.218091</v>
+        <v>0.334197</v>
       </c>
       <c r="C42" t="n">
-        <v>0.485754</v>
+        <v>0.803862</v>
       </c>
       <c r="D42" t="n">
-        <v>0.541072</v>
+        <v>0.879379</v>
       </c>
       <c r="E42" t="n">
-        <v>0.208383</v>
+        <v>0.290534</v>
       </c>
       <c r="F42" t="n">
-        <v>0.459897</v>
+        <v>0.697528</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.219168</v>
+        <v>0.326808</v>
       </c>
       <c r="C43" t="n">
-        <v>0.486283</v>
+        <v>0.764287</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5282210000000001</v>
+        <v>0.9279500000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>0.203332</v>
+        <v>0.347962</v>
       </c>
       <c r="F43" t="n">
-        <v>0.474685</v>
+        <v>0.817459</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.212043</v>
+        <v>0.306664</v>
       </c>
       <c r="C44" t="n">
-        <v>0.462191</v>
+        <v>0.90963</v>
       </c>
       <c r="D44" t="n">
-        <v>0.52472</v>
+        <v>0.826044</v>
       </c>
       <c r="E44" t="n">
-        <v>0.199935</v>
+        <v>0.345911</v>
       </c>
       <c r="F44" t="n">
-        <v>0.469308</v>
+        <v>0.821407</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.211436</v>
+        <v>0.290227</v>
       </c>
       <c r="C45" t="n">
-        <v>0.458722</v>
+        <v>0.8273430000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.533502</v>
+        <v>0.779362</v>
       </c>
       <c r="E45" t="n">
-        <v>0.198892</v>
+        <v>0.330174</v>
       </c>
       <c r="F45" t="n">
-        <v>0.448723</v>
+        <v>0.756628</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.204056</v>
+        <v>0.329795</v>
       </c>
       <c r="C46" t="n">
-        <v>0.457041</v>
+        <v>0.721153</v>
       </c>
       <c r="D46" t="n">
-        <v>0.526741</v>
+        <v>0.8914840000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>0.194313</v>
+        <v>0.277072</v>
       </c>
       <c r="F46" t="n">
-        <v>0.471057</v>
+        <v>0.763505</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.200584</v>
+        <v>0.294295</v>
       </c>
       <c r="C47" t="n">
-        <v>0.488407</v>
+        <v>0.677447</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5430430000000001</v>
+        <v>0.879315</v>
       </c>
       <c r="E47" t="n">
-        <v>0.188864</v>
+        <v>0.27113</v>
       </c>
       <c r="F47" t="n">
-        <v>0.44767</v>
+        <v>0.713235</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.197432</v>
+        <v>0.28699</v>
       </c>
       <c r="C48" t="n">
-        <v>0.459217</v>
+        <v>0.694601</v>
       </c>
       <c r="D48" t="n">
-        <v>0.538602</v>
+        <v>0.548962</v>
       </c>
       <c r="E48" t="n">
-        <v>0.186868</v>
+        <v>0.303663</v>
       </c>
       <c r="F48" t="n">
-        <v>0.472378</v>
+        <v>0.63472</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.192746</v>
+        <v>0.237168</v>
       </c>
       <c r="C49" t="n">
-        <v>0.451492</v>
+        <v>0.644452</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5270089999999999</v>
+        <v>0.81575</v>
       </c>
       <c r="E49" t="n">
-        <v>0.180973</v>
+        <v>0.252756</v>
       </c>
       <c r="F49" t="n">
-        <v>0.4549</v>
+        <v>0.679998</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.189074</v>
+        <v>0.259175</v>
       </c>
       <c r="C50" t="n">
-        <v>0.450483</v>
+        <v>0.63806</v>
       </c>
       <c r="D50" t="n">
-        <v>0.643984</v>
+        <v>0.861069</v>
       </c>
       <c r="E50" t="n">
-        <v>0.182763</v>
+        <v>0.205437</v>
       </c>
       <c r="F50" t="n">
-        <v>0.48875</v>
+        <v>0.712433</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.183054</v>
+        <v>0.266864</v>
       </c>
       <c r="C51" t="n">
-        <v>0.497874</v>
+        <v>0.685493</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6368549999999999</v>
+        <v>0.94958</v>
       </c>
       <c r="E51" t="n">
-        <v>0.234538</v>
+        <v>0.33141</v>
       </c>
       <c r="F51" t="n">
-        <v>0.497943</v>
+        <v>0.75589</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176068</v>
+        <v>0.261908</v>
       </c>
       <c r="C52" t="n">
-        <v>0.443588</v>
+        <v>0.7307439999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.621511</v>
+        <v>1.06975</v>
       </c>
       <c r="E52" t="n">
-        <v>0.229397</v>
+        <v>0.335971</v>
       </c>
       <c r="F52" t="n">
-        <v>0.503027</v>
+        <v>0.644182</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.238587</v>
+        <v>0.367274</v>
       </c>
       <c r="C53" t="n">
-        <v>0.520184</v>
+        <v>0.72259</v>
       </c>
       <c r="D53" t="n">
-        <v>0.63013</v>
+        <v>0.8018690000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>0.223831</v>
+        <v>0.355384</v>
       </c>
       <c r="F53" t="n">
-        <v>0.504385</v>
+        <v>0.791532</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.236802</v>
+        <v>0.344356</v>
       </c>
       <c r="C54" t="n">
-        <v>0.511853</v>
+        <v>0.7529090000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.621784</v>
+        <v>0.86895</v>
       </c>
       <c r="E54" t="n">
-        <v>0.220159</v>
+        <v>0.329741</v>
       </c>
       <c r="F54" t="n">
-        <v>0.498243</v>
+        <v>0.678526</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.235342</v>
+        <v>0.309813</v>
       </c>
       <c r="C55" t="n">
-        <v>0.510537</v>
+        <v>0.816116</v>
       </c>
       <c r="D55" t="n">
-        <v>0.625001</v>
+        <v>0.781963</v>
       </c>
       <c r="E55" t="n">
-        <v>0.216506</v>
+        <v>0.325483</v>
       </c>
       <c r="F55" t="n">
-        <v>0.502205</v>
+        <v>0.79236</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.225743</v>
+        <v>0.321207</v>
       </c>
       <c r="C56" t="n">
-        <v>0.556413</v>
+        <v>0.732847</v>
       </c>
       <c r="D56" t="n">
-        <v>0.639016</v>
+        <v>0.892138</v>
       </c>
       <c r="E56" t="n">
-        <v>0.212271</v>
+        <v>0.323476</v>
       </c>
       <c r="F56" t="n">
-        <v>0.510257</v>
+        <v>0.829219</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.224501</v>
+        <v>0.312718</v>
       </c>
       <c r="C57" t="n">
-        <v>0.521612</v>
+        <v>0.769583</v>
       </c>
       <c r="D57" t="n">
-        <v>0.624001</v>
+        <v>0.787167</v>
       </c>
       <c r="E57" t="n">
-        <v>0.206161</v>
+        <v>0.288644</v>
       </c>
       <c r="F57" t="n">
-        <v>0.498306</v>
+        <v>0.805361</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.219695</v>
+        <v>0.342391</v>
       </c>
       <c r="C58" t="n">
-        <v>0.507094</v>
+        <v>0.676144</v>
       </c>
       <c r="D58" t="n">
-        <v>0.634669</v>
+        <v>0.841299</v>
       </c>
       <c r="E58" t="n">
-        <v>0.202668</v>
+        <v>0.326695</v>
       </c>
       <c r="F58" t="n">
-        <v>0.548507</v>
+        <v>0.652154</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217304</v>
+        <v>0.32605</v>
       </c>
       <c r="C59" t="n">
-        <v>0.546246</v>
+        <v>0.776674</v>
       </c>
       <c r="D59" t="n">
-        <v>0.62619</v>
+        <v>0.712093</v>
       </c>
       <c r="E59" t="n">
-        <v>0.197837</v>
+        <v>0.354279</v>
       </c>
       <c r="F59" t="n">
-        <v>0.501955</v>
+        <v>0.706989</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.208915</v>
+        <v>0.302313</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5191</v>
+        <v>0.765465</v>
       </c>
       <c r="D60" t="n">
-        <v>0.64488</v>
+        <v>0.854112</v>
       </c>
       <c r="E60" t="n">
-        <v>0.198862</v>
+        <v>0.328168</v>
       </c>
       <c r="F60" t="n">
-        <v>0.525309</v>
+        <v>0.782825</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.205598</v>
+        <v>0.25345</v>
       </c>
       <c r="C61" t="n">
-        <v>0.519842</v>
+        <v>0.723722</v>
       </c>
       <c r="D61" t="n">
-        <v>0.633502</v>
+        <v>0.943967</v>
       </c>
       <c r="E61" t="n">
-        <v>0.191525</v>
+        <v>0.325314</v>
       </c>
       <c r="F61" t="n">
-        <v>0.532742</v>
+        <v>0.839839</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.203735</v>
+        <v>0.303217</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5417729999999999</v>
+        <v>0.718921</v>
       </c>
       <c r="D62" t="n">
-        <v>0.636982</v>
+        <v>0.824057</v>
       </c>
       <c r="E62" t="n">
-        <v>0.189662</v>
+        <v>0.28912</v>
       </c>
       <c r="F62" t="n">
-        <v>0.538658</v>
+        <v>0.715364</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.199573</v>
+        <v>0.308929</v>
       </c>
       <c r="C63" t="n">
-        <v>0.543135</v>
+        <v>0.784574</v>
       </c>
       <c r="D63" t="n">
-        <v>0.629285</v>
+        <v>0.977061</v>
       </c>
       <c r="E63" t="n">
-        <v>0.182956</v>
+        <v>0.282624</v>
       </c>
       <c r="F63" t="n">
-        <v>0.531807</v>
+        <v>0.851759</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.196516</v>
+        <v>0.249764</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5128470000000001</v>
+        <v>0.791734</v>
       </c>
       <c r="D64" t="n">
-        <v>0.719314</v>
+        <v>0.804805</v>
       </c>
       <c r="E64" t="n">
-        <v>0.179564</v>
+        <v>0.286409</v>
       </c>
       <c r="F64" t="n">
-        <v>0.525742</v>
+        <v>0.738788</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.189828</v>
+        <v>0.272858</v>
       </c>
       <c r="C65" t="n">
-        <v>0.533672</v>
+        <v>0.774178</v>
       </c>
       <c r="D65" t="n">
-        <v>0.717283</v>
+        <v>0.786004</v>
       </c>
       <c r="E65" t="n">
-        <v>0.176044</v>
+        <v>0.205186</v>
       </c>
       <c r="F65" t="n">
-        <v>0.521414</v>
+        <v>0.733085</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.181315</v>
+        <v>0.249119</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5310820000000001</v>
+        <v>0.732905</v>
       </c>
       <c r="D66" t="n">
-        <v>0.712332</v>
+        <v>0.969894</v>
       </c>
       <c r="E66" t="n">
-        <v>0.236475</v>
+        <v>0.32405</v>
       </c>
       <c r="F66" t="n">
-        <v>0.578681</v>
+        <v>0.900933</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.245981</v>
+        <v>0.361501</v>
       </c>
       <c r="C67" t="n">
-        <v>0.593237</v>
+        <v>0.873979</v>
       </c>
       <c r="D67" t="n">
-        <v>0.705667</v>
+        <v>0.844007</v>
       </c>
       <c r="E67" t="n">
-        <v>0.226296</v>
+        <v>0.388542</v>
       </c>
       <c r="F67" t="n">
-        <v>0.566011</v>
+        <v>0.914569</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.242736</v>
+        <v>0.388432</v>
       </c>
       <c r="C68" t="n">
-        <v>0.588328</v>
+        <v>0.89055</v>
       </c>
       <c r="D68" t="n">
-        <v>0.697202</v>
+        <v>0.90252</v>
       </c>
       <c r="E68" t="n">
-        <v>0.225826</v>
+        <v>0.332974</v>
       </c>
       <c r="F68" t="n">
-        <v>0.563808</v>
+        <v>0.894111</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.238241</v>
+        <v>0.351032</v>
       </c>
       <c r="C69" t="n">
-        <v>0.58636</v>
+        <v>0.9108039999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.685539</v>
+        <v>0.9435750000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>0.219234</v>
+        <v>0.333489</v>
       </c>
       <c r="F69" t="n">
-        <v>0.567595</v>
+        <v>0.792057</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.236544</v>
+        <v>0.323544</v>
       </c>
       <c r="C70" t="n">
-        <v>0.576385</v>
+        <v>0.965991</v>
       </c>
       <c r="D70" t="n">
-        <v>0.696785</v>
+        <v>1.06537</v>
       </c>
       <c r="E70" t="n">
-        <v>0.217382</v>
+        <v>0.353748</v>
       </c>
       <c r="F70" t="n">
-        <v>0.567451</v>
+        <v>0.893976</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230352</v>
+        <v>0.311543</v>
       </c>
       <c r="C71" t="n">
-        <v>0.578245</v>
+        <v>0.90804</v>
       </c>
       <c r="D71" t="n">
-        <v>0.681968</v>
+        <v>0.933847</v>
       </c>
       <c r="E71" t="n">
-        <v>0.208888</v>
+        <v>0.330227</v>
       </c>
       <c r="F71" t="n">
-        <v>0.565671</v>
+        <v>0.916926</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.228563</v>
+        <v>0.347035</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5802929999999999</v>
+        <v>0.9525400000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.682941</v>
+        <v>0.814095</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2061</v>
+        <v>0.308463</v>
       </c>
       <c r="F72" t="n">
-        <v>0.564531</v>
+        <v>0.839543</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.223651</v>
+        <v>0.343426</v>
       </c>
       <c r="C73" t="n">
-        <v>0.573051</v>
+        <v>0.8149</v>
       </c>
       <c r="D73" t="n">
-        <v>0.681774</v>
+        <v>0.831045</v>
       </c>
       <c r="E73" t="n">
-        <v>0.20153</v>
+        <v>0.324684</v>
       </c>
       <c r="F73" t="n">
-        <v>0.554025</v>
+        <v>0.779821</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.222367</v>
+        <v>0.321461</v>
       </c>
       <c r="C74" t="n">
-        <v>0.576044</v>
+        <v>0.9106</v>
       </c>
       <c r="D74" t="n">
-        <v>0.682524</v>
+        <v>0.969697</v>
       </c>
       <c r="E74" t="n">
-        <v>0.198606</v>
+        <v>0.295075</v>
       </c>
       <c r="F74" t="n">
-        <v>0.546783</v>
+        <v>0.891745</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.214298</v>
+        <v>0.303765</v>
       </c>
       <c r="C75" t="n">
-        <v>0.564982</v>
+        <v>0.744416</v>
       </c>
       <c r="D75" t="n">
-        <v>0.67328</v>
+        <v>0.97596</v>
       </c>
       <c r="E75" t="n">
-        <v>0.195985</v>
+        <v>0.257617</v>
       </c>
       <c r="F75" t="n">
-        <v>0.542006</v>
+        <v>0.747044</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.210933</v>
+        <v>0.259879</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5673049999999999</v>
+        <v>0.8718</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6931659999999999</v>
+        <v>1.01958</v>
       </c>
       <c r="E76" t="n">
-        <v>0.189994</v>
+        <v>0.266523</v>
       </c>
       <c r="F76" t="n">
-        <v>0.540593</v>
+        <v>0.925834</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.205927</v>
+        <v>0.285492</v>
       </c>
       <c r="C77" t="n">
-        <v>0.558121</v>
+        <v>0.890138</v>
       </c>
       <c r="D77" t="n">
-        <v>0.672256</v>
+        <v>1.10909</v>
       </c>
       <c r="E77" t="n">
-        <v>0.188266</v>
+        <v>0.320455</v>
       </c>
       <c r="F77" t="n">
-        <v>0.544261</v>
+        <v>0.939314</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.201516</v>
+        <v>0.261722</v>
       </c>
       <c r="C78" t="n">
-        <v>0.54711</v>
+        <v>0.6924360000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.754418</v>
+        <v>1.06537</v>
       </c>
       <c r="E78" t="n">
-        <v>0.183727</v>
+        <v>0.303128</v>
       </c>
       <c r="F78" t="n">
-        <v>0.532903</v>
+        <v>0.830738</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.197714</v>
+        <v>0.264449</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5550079999999999</v>
+        <v>0.873115</v>
       </c>
       <c r="D79" t="n">
-        <v>0.758873</v>
+        <v>0.99077</v>
       </c>
       <c r="E79" t="n">
-        <v>0.184962</v>
+        <v>0.255905</v>
       </c>
       <c r="F79" t="n">
-        <v>0.541045</v>
+        <v>0.830425</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.191119</v>
+        <v>0.269434</v>
       </c>
       <c r="C80" t="n">
-        <v>0.549732</v>
+        <v>0.861303</v>
       </c>
       <c r="D80" t="n">
-        <v>0.756696</v>
+        <v>1.04366</v>
       </c>
       <c r="E80" t="n">
-        <v>0.244654</v>
+        <v>0.308848</v>
       </c>
       <c r="F80" t="n">
-        <v>0.590593</v>
+        <v>0.863883</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.255326</v>
+        <v>0.361287</v>
       </c>
       <c r="C81" t="n">
-        <v>0.61147</v>
+        <v>0.920957</v>
       </c>
       <c r="D81" t="n">
-        <v>0.737644</v>
+        <v>1.01713</v>
       </c>
       <c r="E81" t="n">
-        <v>0.236352</v>
+        <v>0.386469</v>
       </c>
       <c r="F81" t="n">
-        <v>0.58023</v>
+        <v>0.8703419999999999</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.249681</v>
+        <v>0.350056</v>
       </c>
       <c r="C82" t="n">
-        <v>0.601267</v>
+        <v>0.953107</v>
       </c>
       <c r="D82" t="n">
-        <v>0.729528</v>
+        <v>1.13321</v>
       </c>
       <c r="E82" t="n">
-        <v>0.231778</v>
+        <v>0.276137</v>
       </c>
       <c r="F82" t="n">
-        <v>0.581304</v>
+        <v>0.874354</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.247693</v>
+        <v>0.31354</v>
       </c>
       <c r="C83" t="n">
-        <v>0.602541</v>
+        <v>0.91173</v>
       </c>
       <c r="D83" t="n">
-        <v>0.720896</v>
+        <v>1.10266</v>
       </c>
       <c r="E83" t="n">
-        <v>0.224461</v>
+        <v>0.381862</v>
       </c>
       <c r="F83" t="n">
-        <v>0.573898</v>
+        <v>0.917098</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.240052</v>
+        <v>0.339216</v>
       </c>
       <c r="C84" t="n">
-        <v>0.624073</v>
+        <v>0.962116</v>
       </c>
       <c r="D84" t="n">
-        <v>0.742045</v>
+        <v>1.14543</v>
       </c>
       <c r="E84" t="n">
-        <v>0.219963</v>
+        <v>0.356867</v>
       </c>
       <c r="F84" t="n">
-        <v>0.601172</v>
+        <v>0.8739130000000001</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.238085</v>
+        <v>0.317935</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6269479999999999</v>
+        <v>1.05755</v>
       </c>
       <c r="D85" t="n">
-        <v>0.742292</v>
+        <v>1.08747</v>
       </c>
       <c r="E85" t="n">
-        <v>0.216214</v>
+        <v>0.332624</v>
       </c>
       <c r="F85" t="n">
-        <v>0.601324</v>
+        <v>0.937106</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.233177</v>
+        <v>0.326706</v>
       </c>
       <c r="C86" t="n">
-        <v>0.612909</v>
+        <v>0.915697</v>
       </c>
       <c r="D86" t="n">
-        <v>0.730712</v>
+        <v>1.05486</v>
       </c>
       <c r="E86" t="n">
-        <v>0.210035</v>
+        <v>0.351949</v>
       </c>
       <c r="F86" t="n">
-        <v>0.6124810000000001</v>
+        <v>1.02486</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.226331</v>
+        <v>0.313485</v>
       </c>
       <c r="C87" t="n">
-        <v>0.614032</v>
+        <v>1.00429</v>
       </c>
       <c r="D87" t="n">
-        <v>0.732452</v>
+        <v>1.08827</v>
       </c>
       <c r="E87" t="n">
-        <v>0.206571</v>
+        <v>0.305127</v>
       </c>
       <c r="F87" t="n">
-        <v>0.592105</v>
+        <v>0.874752</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.220959</v>
+        <v>0.283656</v>
       </c>
       <c r="C88" t="n">
-        <v>0.610912</v>
+        <v>0.836986</v>
       </c>
       <c r="D88" t="n">
-        <v>0.743835</v>
+        <v>1.13517</v>
       </c>
       <c r="E88" t="n">
-        <v>0.202106</v>
+        <v>0.259401</v>
       </c>
       <c r="F88" t="n">
-        <v>0.587426</v>
+        <v>0.922633</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.218715</v>
+        <v>0.319293</v>
       </c>
       <c r="C89" t="n">
-        <v>0.602734</v>
+        <v>0.906361</v>
       </c>
       <c r="D89" t="n">
-        <v>0.741079</v>
+        <v>1.16325</v>
       </c>
       <c r="E89" t="n">
-        <v>0.198193</v>
+        <v>0.26215</v>
       </c>
       <c r="F89" t="n">
-        <v>0.587448</v>
+        <v>1.00344</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.21519</v>
+        <v>0.305131</v>
       </c>
       <c r="C90" t="n">
-        <v>0.603957</v>
+        <v>1.06397</v>
       </c>
       <c r="D90" t="n">
-        <v>0.718206</v>
+        <v>1.15108</v>
       </c>
       <c r="E90" t="n">
-        <v>0.200794</v>
+        <v>0.25184</v>
       </c>
       <c r="F90" t="n">
-        <v>0.579097</v>
+        <v>1.04467</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.214592</v>
+        <v>0.318567</v>
       </c>
       <c r="C91" t="n">
-        <v>0.606429</v>
+        <v>1.05392</v>
       </c>
       <c r="D91" t="n">
-        <v>0.729229</v>
+        <v>1.23093</v>
       </c>
       <c r="E91" t="n">
-        <v>0.192076</v>
+        <v>0.290315</v>
       </c>
       <c r="F91" t="n">
-        <v>0.575722</v>
+        <v>0.875704</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.206604</v>
+        <v>0.343576</v>
       </c>
       <c r="C92" t="n">
-        <v>0.592866</v>
+        <v>0.920689</v>
       </c>
       <c r="D92" t="n">
-        <v>0.680901</v>
+        <v>1.16081</v>
       </c>
       <c r="E92" t="n">
-        <v>0.187818</v>
+        <v>0.320758</v>
       </c>
       <c r="F92" t="n">
-        <v>0.5754280000000001</v>
+        <v>0.959102</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.198681</v>
+        <v>0.287991</v>
       </c>
       <c r="C93" t="n">
-        <v>0.593859</v>
+        <v>0.907271</v>
       </c>
       <c r="D93" t="n">
-        <v>0.686211</v>
+        <v>1.17653</v>
       </c>
       <c r="E93" t="n">
-        <v>0.183285</v>
+        <v>0.251635</v>
       </c>
       <c r="F93" t="n">
-        <v>0.569845</v>
+        <v>1.0556</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.19258</v>
+        <v>0.266068</v>
       </c>
       <c r="C94" t="n">
-        <v>0.585349</v>
+        <v>0.924485</v>
       </c>
       <c r="D94" t="n">
-        <v>0.676911</v>
+        <v>1.17619</v>
       </c>
       <c r="E94" t="n">
-        <v>0.245795</v>
+        <v>0.360476</v>
       </c>
       <c r="F94" t="n">
-        <v>0.628549</v>
+        <v>1.08818</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.255375</v>
+        <v>0.373691</v>
       </c>
       <c r="C95" t="n">
-        <v>0.642212</v>
+        <v>1.06422</v>
       </c>
       <c r="D95" t="n">
-        <v>0.670241</v>
+        <v>1.14706</v>
       </c>
       <c r="E95" t="n">
-        <v>0.237727</v>
+        <v>0.363455</v>
       </c>
       <c r="F95" t="n">
-        <v>0.618572</v>
+        <v>1.00026</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.250095</v>
+        <v>0.329709</v>
       </c>
       <c r="C96" t="n">
-        <v>0.631937</v>
+        <v>1.10189</v>
       </c>
       <c r="D96" t="n">
-        <v>0.676197</v>
+        <v>1.13659</v>
       </c>
       <c r="E96" t="n">
-        <v>0.23265</v>
+        <v>0.356347</v>
       </c>
       <c r="F96" t="n">
-        <v>0.6162260000000001</v>
+        <v>0.979749</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.247894</v>
+        <v>0.367093</v>
       </c>
       <c r="C97" t="n">
-        <v>0.626196</v>
+        <v>1.04323</v>
       </c>
       <c r="D97" t="n">
-        <v>0.672597</v>
+        <v>1.17289</v>
       </c>
       <c r="E97" t="n">
-        <v>0.229836</v>
+        <v>0.35614</v>
       </c>
       <c r="F97" t="n">
-        <v>0.608873</v>
+        <v>1.01997</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.245496</v>
+        <v>0.371084</v>
       </c>
       <c r="C98" t="n">
-        <v>0.626458</v>
+        <v>1.05909</v>
       </c>
       <c r="D98" t="n">
-        <v>0.66434</v>
+        <v>1.25013</v>
       </c>
       <c r="E98" t="n">
-        <v>0.223893</v>
+        <v>0.347297</v>
       </c>
       <c r="F98" t="n">
-        <v>0.606598</v>
+        <v>1.02097</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.238659</v>
+        <v>0.329614</v>
       </c>
       <c r="C99" t="n">
-        <v>0.615731</v>
+        <v>1.09454</v>
       </c>
       <c r="D99" t="n">
-        <v>0.669222</v>
+        <v>1.10823</v>
       </c>
       <c r="E99" t="n">
-        <v>0.218859</v>
+        <v>0.37952</v>
       </c>
       <c r="F99" t="n">
-        <v>0.595978</v>
+        <v>1.01526</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.230738</v>
+        <v>0.31346</v>
       </c>
       <c r="C100" t="n">
-        <v>0.616492</v>
+        <v>1.0079</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6571399999999999</v>
+        <v>1.02308</v>
       </c>
       <c r="E100" t="n">
-        <v>0.212448</v>
+        <v>0.317746</v>
       </c>
       <c r="F100" t="n">
-        <v>0.591901</v>
+        <v>0.952133</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.22808</v>
+        <v>0.281771</v>
       </c>
       <c r="C101" t="n">
-        <v>0.605116</v>
+        <v>0.998205</v>
       </c>
       <c r="D101" t="n">
-        <v>0.675998</v>
+        <v>0.95795</v>
       </c>
       <c r="E101" t="n">
-        <v>0.210459</v>
+        <v>0.359356</v>
       </c>
       <c r="F101" t="n">
-        <v>0.591987</v>
+        <v>0.947338</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.221475</v>
+        <v>0.324483</v>
       </c>
       <c r="C102" t="n">
-        <v>0.602037</v>
+        <v>0.914718</v>
       </c>
       <c r="D102" t="n">
-        <v>0.669822</v>
+        <v>0.978567</v>
       </c>
       <c r="E102" t="n">
-        <v>0.204438</v>
+        <v>0.236315</v>
       </c>
       <c r="F102" t="n">
-        <v>0.588845</v>
+        <v>0.99315</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.217323</v>
+        <v>0.299327</v>
       </c>
       <c r="C103" t="n">
-        <v>0.601044</v>
+        <v>0.938781</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6545879999999999</v>
+        <v>1.06551</v>
       </c>
       <c r="E103" t="n">
-        <v>0.201673</v>
+        <v>0.267444</v>
       </c>
       <c r="F103" t="n">
-        <v>0.585365</v>
+        <v>1.0081</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.215167</v>
+        <v>0.30693</v>
       </c>
       <c r="C104" t="n">
-        <v>0.6002769999999999</v>
+        <v>0.901044</v>
       </c>
       <c r="D104" t="n">
-        <v>0.662359</v>
+        <v>1.13279</v>
       </c>
       <c r="E104" t="n">
-        <v>0.196184</v>
+        <v>0.336607</v>
       </c>
       <c r="F104" t="n">
-        <v>0.57608</v>
+        <v>1.06316</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.213502</v>
+        <v>0.271134</v>
       </c>
       <c r="C105" t="n">
-        <v>0.594027</v>
+        <v>0.913791</v>
       </c>
       <c r="D105" t="n">
-        <v>0.659826</v>
+        <v>1.04381</v>
       </c>
       <c r="E105" t="n">
-        <v>0.19268</v>
+        <v>0.319472</v>
       </c>
       <c r="F105" t="n">
-        <v>0.579484</v>
+        <v>1.00225</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.20535</v>
+        <v>0.326376</v>
       </c>
       <c r="C106" t="n">
-        <v>0.594832</v>
+        <v>0.999874</v>
       </c>
       <c r="D106" t="n">
-        <v>0.671574</v>
+        <v>1.07745</v>
       </c>
       <c r="E106" t="n">
-        <v>0.187827</v>
+        <v>0.286484</v>
       </c>
       <c r="F106" t="n">
-        <v>0.569322</v>
+        <v>1.01882</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.199278</v>
+        <v>0.309192</v>
       </c>
       <c r="C107" t="n">
-        <v>0.59656</v>
+        <v>0.922244</v>
       </c>
       <c r="D107" t="n">
-        <v>0.664689</v>
+        <v>1.07237</v>
       </c>
       <c r="E107" t="n">
-        <v>0.184125</v>
+        <v>0.26418</v>
       </c>
       <c r="F107" t="n">
-        <v>0.5658</v>
+        <v>0.916613</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.192924</v>
+        <v>0.308967</v>
       </c>
       <c r="C108" t="n">
-        <v>0.591097</v>
+        <v>0.824308</v>
       </c>
       <c r="D108" t="n">
-        <v>0.676723</v>
+        <v>1.03374</v>
       </c>
       <c r="E108" t="n">
-        <v>0.244886</v>
+        <v>0.347669</v>
       </c>
       <c r="F108" t="n">
-        <v>0.625905</v>
+        <v>1.09254</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.187243</v>
+        <v>0.25928</v>
       </c>
       <c r="C109" t="n">
-        <v>0.594781</v>
+        <v>0.824771</v>
       </c>
       <c r="D109" t="n">
-        <v>0.659327</v>
+        <v>1.07223</v>
       </c>
       <c r="E109" t="n">
-        <v>0.239685</v>
+        <v>0.365196</v>
       </c>
       <c r="F109" t="n">
-        <v>0.619775</v>
+        <v>1.05696</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.25145</v>
+        <v>0.360765</v>
       </c>
       <c r="C110" t="n">
-        <v>0.654868</v>
+        <v>0.892385</v>
       </c>
       <c r="D110" t="n">
-        <v>0.660609</v>
+        <v>1.17421</v>
       </c>
       <c r="E110" t="n">
-        <v>0.234869</v>
+        <v>0.340054</v>
       </c>
       <c r="F110" t="n">
-        <v>0.618297</v>
+        <v>1.05472</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.246131</v>
+        <v>0.320418</v>
       </c>
       <c r="C111" t="n">
-        <v>0.634846</v>
+        <v>0.980226</v>
       </c>
       <c r="D111" t="n">
-        <v>0.666127</v>
+        <v>1.06036</v>
       </c>
       <c r="E111" t="n">
-        <v>0.232243</v>
+        <v>0.380484</v>
       </c>
       <c r="F111" t="n">
-        <v>0.613675</v>
+        <v>0.931659</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.245857</v>
+        <v>0.32165</v>
       </c>
       <c r="C112" t="n">
-        <v>0.626846</v>
+        <v>0.992677</v>
       </c>
       <c r="D112" t="n">
-        <v>0.661516</v>
+        <v>1.14656</v>
       </c>
       <c r="E112" t="n">
-        <v>0.229785</v>
+        <v>0.248247</v>
       </c>
       <c r="F112" t="n">
-        <v>0.609112</v>
+        <v>1.01898</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.238051</v>
+        <v>0.349454</v>
       </c>
       <c r="C113" t="n">
-        <v>0.606494</v>
+        <v>0.992268</v>
       </c>
       <c r="D113" t="n">
-        <v>0.661101</v>
+        <v>1.1749</v>
       </c>
       <c r="E113" t="n">
-        <v>0.219302</v>
+        <v>0.330523</v>
       </c>
       <c r="F113" t="n">
-        <v>0.601027</v>
+        <v>0.981063</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.240342</v>
+        <v>0.331669</v>
       </c>
       <c r="C114" t="n">
-        <v>0.614846</v>
+        <v>0.96578</v>
       </c>
       <c r="D114" t="n">
-        <v>0.658949</v>
+        <v>1.00834</v>
       </c>
       <c r="E114" t="n">
-        <v>0.213827</v>
+        <v>0.360363</v>
       </c>
       <c r="F114" t="n">
-        <v>0.605851</v>
+        <v>0.9847</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.228215</v>
+        <v>0.301834</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6020529999999999</v>
+        <v>0.869453</v>
       </c>
       <c r="D115" t="n">
-        <v>0.657404</v>
+        <v>0.98639</v>
       </c>
       <c r="E115" t="n">
-        <v>0.209961</v>
+        <v>0.319109</v>
       </c>
       <c r="F115" t="n">
-        <v>0.587995</v>
+        <v>0.935578</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.2247</v>
+        <v>0.305839</v>
       </c>
       <c r="C116" t="n">
-        <v>0.596276</v>
+        <v>0.974098</v>
       </c>
       <c r="D116" t="n">
-        <v>0.660596</v>
+        <v>1.15913</v>
       </c>
       <c r="E116" t="n">
-        <v>0.204426</v>
+        <v>0.334946</v>
       </c>
       <c r="F116" t="n">
-        <v>0.594004</v>
+        <v>1.00648</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.217813</v>
+        <v>0.284475</v>
       </c>
       <c r="C117" t="n">
-        <v>0.605777</v>
+        <v>0.93811</v>
       </c>
       <c r="D117" t="n">
-        <v>0.654681</v>
+        <v>1.05523</v>
       </c>
       <c r="E117" t="n">
-        <v>0.205108</v>
+        <v>0.286045</v>
       </c>
       <c r="F117" t="n">
-        <v>0.584552</v>
+        <v>0.936452</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.215767</v>
+        <v>0.277902</v>
       </c>
       <c r="C118" t="n">
-        <v>0.593624</v>
+        <v>1.00114</v>
       </c>
       <c r="D118" t="n">
-        <v>0.66009</v>
+        <v>0.983285</v>
       </c>
       <c r="E118" t="n">
-        <v>0.197037</v>
+        <v>0.324437</v>
       </c>
       <c r="F118" t="n">
-        <v>0.583056</v>
+        <v>0.91069</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.210608</v>
+        <v>0.322945</v>
       </c>
       <c r="C119" t="n">
-        <v>0.595626</v>
+        <v>0.892187</v>
       </c>
       <c r="D119" t="n">
-        <v>0.669292</v>
+        <v>1.04676</v>
       </c>
       <c r="E119" t="n">
-        <v>0.196977</v>
+        <v>0.331093</v>
       </c>
       <c r="F119" t="n">
-        <v>0.579433</v>
+        <v>0.912933</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.208657</v>
+        <v>0.312175</v>
       </c>
       <c r="C120" t="n">
-        <v>0.582031</v>
+        <v>0.9140200000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.653465</v>
+        <v>1.15074</v>
       </c>
       <c r="E120" t="n">
-        <v>0.193106</v>
+        <v>0.295673</v>
       </c>
       <c r="F120" t="n">
-        <v>0.574694</v>
+        <v>0.981768</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.203533</v>
+        <v>0.275269</v>
       </c>
       <c r="C121" t="n">
-        <v>0.578291</v>
+        <v>0.920833</v>
       </c>
       <c r="D121" t="n">
-        <v>0.691604</v>
+        <v>1.21756</v>
       </c>
       <c r="E121" t="n">
-        <v>0.185759</v>
+        <v>0.290907</v>
       </c>
       <c r="F121" t="n">
-        <v>0.567935</v>
+        <v>0.940894</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.19881</v>
+        <v>0.285106</v>
       </c>
       <c r="C122" t="n">
-        <v>0.585277</v>
+        <v>0.933436</v>
       </c>
       <c r="D122" t="n">
-        <v>0.672608</v>
+        <v>1.21475</v>
       </c>
       <c r="E122" t="n">
-        <v>0.184406</v>
+        <v>0.25266</v>
       </c>
       <c r="F122" t="n">
-        <v>0.567631</v>
+        <v>0.978936</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.188685</v>
+        <v>0.276855</v>
       </c>
       <c r="C123" t="n">
-        <v>0.577902</v>
+        <v>0.85248</v>
       </c>
       <c r="D123" t="n">
-        <v>0.674418</v>
+        <v>1.07459</v>
       </c>
       <c r="E123" t="n">
-        <v>0.243944</v>
+        <v>0.402819</v>
       </c>
       <c r="F123" t="n">
-        <v>0.632333</v>
+        <v>1.06648</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.251901</v>
+        <v>0.367212</v>
       </c>
       <c r="C124" t="n">
-        <v>0.623425</v>
+        <v>1.06279</v>
       </c>
       <c r="D124" t="n">
-        <v>0.687299</v>
+        <v>1.18213</v>
       </c>
       <c r="E124" t="n">
-        <v>0.241338</v>
+        <v>0.334377</v>
       </c>
       <c r="F124" t="n">
-        <v>0.622492</v>
+        <v>1.07203</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.250954</v>
+        <v>0.328365</v>
       </c>
       <c r="C125" t="n">
-        <v>0.641903</v>
+        <v>0.905156</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6853050000000001</v>
+        <v>1.20168</v>
       </c>
       <c r="E125" t="n">
-        <v>0.23333</v>
+        <v>0.364035</v>
       </c>
       <c r="F125" t="n">
-        <v>0.62135</v>
+        <v>1.05434</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.242579</v>
+        <v>0.309212</v>
       </c>
       <c r="C126" t="n">
-        <v>0.638682</v>
+        <v>1.05999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.673924</v>
+        <v>1.1562</v>
       </c>
       <c r="E126" t="n">
-        <v>0.224745</v>
+        <v>0.334551</v>
       </c>
       <c r="F126" t="n">
-        <v>0.6077979999999999</v>
+        <v>1.02659</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.238874</v>
+        <v>0.346368</v>
       </c>
       <c r="C127" t="n">
-        <v>0.622913</v>
+        <v>1.03015</v>
       </c>
       <c r="D127" t="n">
-        <v>0.670983</v>
+        <v>0.991</v>
       </c>
       <c r="E127" t="n">
-        <v>0.220596</v>
+        <v>0.270393</v>
       </c>
       <c r="F127" t="n">
-        <v>0.606847</v>
+        <v>1.01397</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.234182</v>
+        <v>0.247924</v>
       </c>
       <c r="C128" t="n">
-        <v>0.616387</v>
+        <v>0.8159690000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>0.676551</v>
+        <v>1.05794</v>
       </c>
       <c r="E128" t="n">
-        <v>0.217919</v>
+        <v>0.28137</v>
       </c>
       <c r="F128" t="n">
-        <v>0.594236</v>
+        <v>0.998079</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.232338</v>
+        <v>0.338187</v>
       </c>
       <c r="C129" t="n">
-        <v>0.6018019999999999</v>
+        <v>0.990274</v>
       </c>
       <c r="D129" t="n">
-        <v>0.664374</v>
+        <v>1.09087</v>
       </c>
       <c r="E129" t="n">
-        <v>0.210589</v>
+        <v>0.317077</v>
       </c>
       <c r="F129" t="n">
-        <v>0.613228</v>
+        <v>0.966102</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.226483</v>
+        <v>0.278991</v>
       </c>
       <c r="C130" t="n">
-        <v>0.59996</v>
+        <v>0.995211</v>
       </c>
       <c r="D130" t="n">
-        <v>0.671179</v>
+        <v>1.1787</v>
       </c>
       <c r="E130" t="n">
-        <v>0.205347</v>
+        <v>0.276255</v>
       </c>
       <c r="F130" t="n">
-        <v>0.593136</v>
+        <v>0.950385</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.220138</v>
+        <v>0.279278</v>
       </c>
       <c r="C131" t="n">
-        <v>0.617951</v>
+        <v>0.930026</v>
       </c>
       <c r="D131" t="n">
-        <v>0.672892</v>
+        <v>0.984855</v>
       </c>
       <c r="E131" t="n">
-        <v>0.205318</v>
+        <v>0.29027</v>
       </c>
       <c r="F131" t="n">
-        <v>0.584912</v>
+        <v>1.02866</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.216868</v>
+        <v>0.301522</v>
       </c>
       <c r="C132" t="n">
-        <v>0.590122</v>
+        <v>0.913535</v>
       </c>
       <c r="D132" t="n">
-        <v>0.663462</v>
+        <v>1.10851</v>
       </c>
       <c r="E132" t="n">
-        <v>0.200643</v>
+        <v>0.324781</v>
       </c>
       <c r="F132" t="n">
-        <v>0.586871</v>
+        <v>0.954189</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.211418</v>
+        <v>0.233553</v>
       </c>
       <c r="C133" t="n">
-        <v>0.611764</v>
+        <v>0.991451</v>
       </c>
       <c r="D133" t="n">
-        <v>0.6622</v>
+        <v>1.09181</v>
       </c>
       <c r="E133" t="n">
-        <v>0.194046</v>
+        <v>0.266019</v>
       </c>
       <c r="F133" t="n">
-        <v>0.575055</v>
+        <v>0.925655</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.208266</v>
+        <v>0.26269</v>
       </c>
       <c r="C134" t="n">
-        <v>0.6057900000000001</v>
+        <v>0.969431</v>
       </c>
       <c r="D134" t="n">
-        <v>0.660816</v>
+        <v>1.03508</v>
       </c>
       <c r="E134" t="n">
-        <v>0.192315</v>
+        <v>0.3383</v>
       </c>
       <c r="F134" t="n">
-        <v>0.585965</v>
+        <v>0.964203</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.206285</v>
+        <v>0.27533</v>
       </c>
       <c r="C135" t="n">
-        <v>0.586278</v>
+        <v>0.831626</v>
       </c>
       <c r="D135" t="n">
-        <v>0.683617</v>
+        <v>0.98506</v>
       </c>
       <c r="E135" t="n">
-        <v>0.190276</v>
+        <v>0.281364</v>
       </c>
       <c r="F135" t="n">
-        <v>0.5715</v>
+        <v>0.911727</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.197806</v>
+        <v>0.233151</v>
       </c>
       <c r="C136" t="n">
-        <v>0.589727</v>
+        <v>0.726444</v>
       </c>
       <c r="D136" t="n">
-        <v>0.684535</v>
+        <v>0.892505</v>
       </c>
       <c r="E136" t="n">
-        <v>0.185098</v>
+        <v>0.285105</v>
       </c>
       <c r="F136" t="n">
-        <v>0.586493</v>
+        <v>0.868327</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.190787</v>
+        <v>0.26235</v>
       </c>
       <c r="C137" t="n">
-        <v>0.575906</v>
+        <v>0.638229</v>
       </c>
       <c r="D137" t="n">
-        <v>0.673427</v>
+        <v>0.906518</v>
       </c>
       <c r="E137" t="n">
-        <v>0.243563</v>
+        <v>0.348542</v>
       </c>
       <c r="F137" t="n">
-        <v>0.619857</v>
+        <v>1.07683</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.254556</v>
+        <v>0.329252</v>
       </c>
       <c r="C138" t="n">
-        <v>0.626943</v>
+        <v>0.811914</v>
       </c>
       <c r="D138" t="n">
-        <v>0.689086</v>
+        <v>0.811178</v>
       </c>
       <c r="E138" t="n">
-        <v>0.242171</v>
+        <v>0.29895</v>
       </c>
       <c r="F138" t="n">
-        <v>0.6250830000000001</v>
+        <v>0.931792</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.254285</v>
+        <v>0.336879</v>
       </c>
       <c r="C139" t="n">
-        <v>0.658481</v>
+        <v>0.898332</v>
       </c>
       <c r="D139" t="n">
-        <v>0.68912</v>
+        <v>1.03494</v>
       </c>
       <c r="E139" t="n">
-        <v>0.233192</v>
+        <v>0.305718</v>
       </c>
       <c r="F139" t="n">
-        <v>0.630844</v>
+        <v>0.961831</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.249112</v>
+        <v>0.349011</v>
       </c>
       <c r="C140" t="n">
-        <v>0.627463</v>
+        <v>0.837608</v>
       </c>
       <c r="D140" t="n">
-        <v>0.684523</v>
+        <v>0.877876</v>
       </c>
       <c r="E140" t="n">
-        <v>0.227725</v>
+        <v>0.320965</v>
       </c>
       <c r="F140" t="n">
-        <v>0.605051</v>
+        <v>0.782076</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.240818</v>
+        <v>0.347092</v>
       </c>
       <c r="C141" t="n">
-        <v>0.606813</v>
+        <v>0.85332</v>
       </c>
       <c r="D141" t="n">
-        <v>0.678549</v>
+        <v>1.08066</v>
       </c>
       <c r="E141" t="n">
-        <v>0.224027</v>
+        <v>0.27743</v>
       </c>
       <c r="F141" t="n">
-        <v>0.602294</v>
+        <v>0.78177</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.236179</v>
+        <v>0.338317</v>
       </c>
       <c r="C142" t="n">
-        <v>0.609249</v>
+        <v>0.727521</v>
       </c>
       <c r="D142" t="n">
-        <v>0.679014</v>
+        <v>0.863253</v>
       </c>
       <c r="E142" t="n">
-        <v>0.217972</v>
+        <v>0.28154</v>
       </c>
       <c r="F142" t="n">
-        <v>0.599168</v>
+        <v>0.7475579999999999</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.239593</v>
+        <v>0.293419</v>
       </c>
       <c r="C143" t="n">
-        <v>0.601921</v>
+        <v>0.793048</v>
       </c>
       <c r="D143" t="n">
-        <v>0.670005</v>
+        <v>0.844198</v>
       </c>
       <c r="E143" t="n">
-        <v>0.210806</v>
+        <v>0.304748</v>
       </c>
       <c r="F143" t="n">
-        <v>0.593218</v>
+        <v>0.764725</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.273357</v>
+        <v>0.203101</v>
       </c>
       <c r="C2" t="n">
-        <v>0.692299</v>
+        <v>0.766352</v>
       </c>
       <c r="D2" t="n">
-        <v>0.696199</v>
+        <v>0.786153</v>
       </c>
       <c r="E2" t="n">
-        <v>0.174912</v>
+        <v>0.188597</v>
       </c>
       <c r="F2" t="n">
-        <v>0.498834</v>
+        <v>0.512899</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.196033</v>
+        <v>0.230283</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5854510000000001</v>
+        <v>0.530731</v>
       </c>
       <c r="D3" t="n">
-        <v>0.543461</v>
+        <v>0.5633590000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.202876</v>
+        <v>0.163662</v>
       </c>
       <c r="F3" t="n">
-        <v>0.611671</v>
+        <v>0.626345</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.229679</v>
+        <v>0.242845</v>
       </c>
       <c r="C4" t="n">
-        <v>0.552742</v>
+        <v>0.420538</v>
       </c>
       <c r="D4" t="n">
-        <v>0.701251</v>
+        <v>0.57997</v>
       </c>
       <c r="E4" t="n">
-        <v>0.304139</v>
+        <v>0.223719</v>
       </c>
       <c r="F4" t="n">
-        <v>0.501214</v>
+        <v>0.675565</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.240644</v>
+        <v>0.205145</v>
       </c>
       <c r="C5" t="n">
-        <v>0.620745</v>
+        <v>0.491536</v>
       </c>
       <c r="D5" t="n">
-        <v>0.70424</v>
+        <v>0.488354</v>
       </c>
       <c r="E5" t="n">
-        <v>0.259605</v>
+        <v>0.196483</v>
       </c>
       <c r="F5" t="n">
-        <v>0.511755</v>
+        <v>0.492845</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.156491</v>
+        <v>0.262356</v>
       </c>
       <c r="C6" t="n">
-        <v>0.508845</v>
+        <v>0.459627</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6315229999999999</v>
+        <v>0.5349739999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.160417</v>
+        <v>0.22658</v>
       </c>
       <c r="F6" t="n">
-        <v>0.535695</v>
+        <v>0.521446</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.193741</v>
+        <v>0.207944</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6134309999999999</v>
+        <v>0.456788</v>
       </c>
       <c r="D7" t="n">
-        <v>0.674193</v>
+        <v>0.534932</v>
       </c>
       <c r="E7" t="n">
-        <v>0.144928</v>
+        <v>0.298452</v>
       </c>
       <c r="F7" t="n">
-        <v>0.472783</v>
+        <v>0.5157</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.225456</v>
+        <v>0.168298</v>
       </c>
       <c r="C8" t="n">
-        <v>0.540404</v>
+        <v>0.534507</v>
       </c>
       <c r="D8" t="n">
-        <v>0.720241</v>
+        <v>0.506339</v>
       </c>
       <c r="E8" t="n">
-        <v>0.22521</v>
+        <v>0.156062</v>
       </c>
       <c r="F8" t="n">
-        <v>0.578946</v>
+        <v>0.546825</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.183177</v>
+        <v>0.178346</v>
       </c>
       <c r="C9" t="n">
-        <v>0.513775</v>
+        <v>0.423749</v>
       </c>
       <c r="D9" t="n">
-        <v>0.67294</v>
+        <v>0.642</v>
       </c>
       <c r="E9" t="n">
-        <v>0.216641</v>
+        <v>0.226616</v>
       </c>
       <c r="F9" t="n">
-        <v>0.612561</v>
+        <v>0.576214</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.254547</v>
+        <v>0.25188</v>
       </c>
       <c r="C10" t="n">
-        <v>0.657292</v>
+        <v>0.579085</v>
       </c>
       <c r="D10" t="n">
-        <v>0.711636</v>
+        <v>0.6042110000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>0.318915</v>
+        <v>0.248604</v>
       </c>
       <c r="F10" t="n">
-        <v>0.543488</v>
+        <v>0.59659</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.276478</v>
+        <v>0.214515</v>
       </c>
       <c r="C11" t="n">
-        <v>0.621838</v>
+        <v>0.57173</v>
       </c>
       <c r="D11" t="n">
-        <v>0.588516</v>
+        <v>0.6289</v>
       </c>
       <c r="E11" t="n">
-        <v>0.320192</v>
+        <v>0.221132</v>
       </c>
       <c r="F11" t="n">
-        <v>0.615525</v>
+        <v>0.676909</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.279655</v>
+        <v>0.267593</v>
       </c>
       <c r="C12" t="n">
-        <v>0.568987</v>
+        <v>0.516548</v>
       </c>
       <c r="D12" t="n">
-        <v>0.529292</v>
+        <v>0.549643</v>
       </c>
       <c r="E12" t="n">
-        <v>0.23931</v>
+        <v>0.207461</v>
       </c>
       <c r="F12" t="n">
-        <v>0.632528</v>
+        <v>0.5274990000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.256841</v>
+        <v>0.257949</v>
       </c>
       <c r="C13" t="n">
-        <v>0.615499</v>
+        <v>0.560735</v>
       </c>
       <c r="D13" t="n">
-        <v>0.772915</v>
+        <v>0.533343</v>
       </c>
       <c r="E13" t="n">
-        <v>0.219366</v>
+        <v>0.237591</v>
       </c>
       <c r="F13" t="n">
-        <v>0.601275</v>
+        <v>0.501342</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.272853</v>
+        <v>0.22451</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5906940000000001</v>
+        <v>0.519719</v>
       </c>
       <c r="D14" t="n">
-        <v>0.668388</v>
+        <v>0.500031</v>
       </c>
       <c r="E14" t="n">
-        <v>0.311236</v>
+        <v>0.220252</v>
       </c>
       <c r="F14" t="n">
-        <v>0.523878</v>
+        <v>0.674718</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.227038</v>
+        <v>0.262131</v>
       </c>
       <c r="C15" t="n">
-        <v>0.649264</v>
+        <v>0.629244</v>
       </c>
       <c r="D15" t="n">
-        <v>0.761194</v>
+        <v>0.6137010000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.21442</v>
+        <v>0.259957</v>
       </c>
       <c r="F15" t="n">
-        <v>0.703354</v>
+        <v>0.698402</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.286501</v>
+        <v>0.215707</v>
       </c>
       <c r="C16" t="n">
-        <v>0.490102</v>
+        <v>0.463614</v>
       </c>
       <c r="D16" t="n">
-        <v>0.692953</v>
+        <v>0.709804</v>
       </c>
       <c r="E16" t="n">
-        <v>0.183007</v>
+        <v>0.257342</v>
       </c>
       <c r="F16" t="n">
-        <v>0.609764</v>
+        <v>0.647774</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.219801</v>
+        <v>0.244031</v>
       </c>
       <c r="C17" t="n">
-        <v>0.526593</v>
+        <v>0.622096</v>
       </c>
       <c r="D17" t="n">
-        <v>0.608535</v>
+        <v>0.646811</v>
       </c>
       <c r="E17" t="n">
-        <v>0.327952</v>
+        <v>0.171013</v>
       </c>
       <c r="F17" t="n">
-        <v>0.510361</v>
+        <v>0.579135</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.256657</v>
+        <v>0.266182</v>
       </c>
       <c r="C18" t="n">
-        <v>0.689507</v>
+        <v>0.480317</v>
       </c>
       <c r="D18" t="n">
-        <v>0.460476</v>
+        <v>0.5431589999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.285326</v>
+        <v>0.299565</v>
       </c>
       <c r="F18" t="n">
-        <v>0.592398</v>
+        <v>0.669669</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.178576</v>
+        <v>0.198387</v>
       </c>
       <c r="C19" t="n">
-        <v>0.529988</v>
+        <v>0.584588</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6692979999999999</v>
+        <v>0.906433</v>
       </c>
       <c r="E19" t="n">
-        <v>0.285616</v>
+        <v>0.296897</v>
       </c>
       <c r="F19" t="n">
-        <v>0.539059</v>
+        <v>0.562395</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.174894</v>
+        <v>0.223102</v>
       </c>
       <c r="C20" t="n">
-        <v>0.505162</v>
+        <v>0.633094</v>
       </c>
       <c r="D20" t="n">
-        <v>0.782636</v>
+        <v>0.725939</v>
       </c>
       <c r="E20" t="n">
-        <v>0.215672</v>
+        <v>0.213304</v>
       </c>
       <c r="F20" t="n">
-        <v>0.549333</v>
+        <v>0.530931</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.240416</v>
+        <v>0.197123</v>
       </c>
       <c r="C21" t="n">
-        <v>0.56234</v>
+        <v>0.402745</v>
       </c>
       <c r="D21" t="n">
-        <v>0.53527</v>
+        <v>0.7451</v>
       </c>
       <c r="E21" t="n">
-        <v>0.208897</v>
+        <v>0.188063</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6238359999999999</v>
+        <v>0.491731</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.25367</v>
+        <v>0.193972</v>
       </c>
       <c r="C22" t="n">
-        <v>0.497864</v>
+        <v>0.461714</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6327199999999999</v>
+        <v>0.721764</v>
       </c>
       <c r="E22" t="n">
-        <v>0.169607</v>
+        <v>0.186941</v>
       </c>
       <c r="F22" t="n">
-        <v>0.524692</v>
+        <v>0.468569</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.187386</v>
+        <v>0.161538</v>
       </c>
       <c r="C23" t="n">
-        <v>0.609263</v>
+        <v>0.616933</v>
       </c>
       <c r="D23" t="n">
-        <v>0.525656</v>
+        <v>0.759117</v>
       </c>
       <c r="E23" t="n">
-        <v>0.330886</v>
+        <v>0.286671</v>
       </c>
       <c r="F23" t="n">
-        <v>0.739263</v>
+        <v>0.562225</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.30479</v>
+        <v>0.323778</v>
       </c>
       <c r="C24" t="n">
-        <v>0.622097</v>
+        <v>0.530869</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6298280000000001</v>
+        <v>0.64084</v>
       </c>
       <c r="E24" t="n">
-        <v>0.311078</v>
+        <v>0.338392</v>
       </c>
       <c r="F24" t="n">
-        <v>0.70186</v>
+        <v>0.529131</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.330723</v>
+        <v>0.268376</v>
       </c>
       <c r="C25" t="n">
-        <v>0.646909</v>
+        <v>0.501175</v>
       </c>
       <c r="D25" t="n">
-        <v>0.612993</v>
+        <v>0.715537</v>
       </c>
       <c r="E25" t="n">
-        <v>0.312596</v>
+        <v>0.367731</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7068950000000001</v>
+        <v>0.7156979999999999</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.299112</v>
+        <v>0.279423</v>
       </c>
       <c r="C26" t="n">
-        <v>0.804172</v>
+        <v>0.7047</v>
       </c>
       <c r="D26" t="n">
-        <v>0.735735</v>
+        <v>0.921942</v>
       </c>
       <c r="E26" t="n">
-        <v>0.23005</v>
+        <v>0.326461</v>
       </c>
       <c r="F26" t="n">
-        <v>0.574337</v>
+        <v>0.722792</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.324968</v>
+        <v>0.341432</v>
       </c>
       <c r="C27" t="n">
-        <v>0.810732</v>
+        <v>0.7434190000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.877022</v>
+        <v>0.928692</v>
       </c>
       <c r="E27" t="n">
-        <v>0.313005</v>
+        <v>0.288145</v>
       </c>
       <c r="F27" t="n">
-        <v>0.738744</v>
+        <v>0.7337669999999999</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.264666</v>
+        <v>0.316245</v>
       </c>
       <c r="C28" t="n">
-        <v>0.749645</v>
+        <v>0.734482</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7710669999999999</v>
+        <v>0.78313</v>
       </c>
       <c r="E28" t="n">
-        <v>0.286815</v>
+        <v>0.318606</v>
       </c>
       <c r="F28" t="n">
-        <v>0.714245</v>
+        <v>0.811416</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.251407</v>
+        <v>0.333347</v>
       </c>
       <c r="C29" t="n">
-        <v>0.813398</v>
+        <v>0.81204</v>
       </c>
       <c r="D29" t="n">
-        <v>0.693554</v>
+        <v>0.905014</v>
       </c>
       <c r="E29" t="n">
-        <v>0.239847</v>
+        <v>0.202962</v>
       </c>
       <c r="F29" t="n">
-        <v>0.771346</v>
+        <v>0.653151</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.319622</v>
+        <v>0.266111</v>
       </c>
       <c r="C30" t="n">
-        <v>0.795791</v>
+        <v>0.551631</v>
       </c>
       <c r="D30" t="n">
-        <v>0.625078</v>
+        <v>0.784238</v>
       </c>
       <c r="E30" t="n">
-        <v>0.313493</v>
+        <v>0.306047</v>
       </c>
       <c r="F30" t="n">
-        <v>0.661206</v>
+        <v>0.672901</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.304203</v>
+        <v>0.292537</v>
       </c>
       <c r="C31" t="n">
-        <v>0.506026</v>
+        <v>0.570357</v>
       </c>
       <c r="D31" t="n">
-        <v>0.57095</v>
+        <v>0.664683</v>
       </c>
       <c r="E31" t="n">
-        <v>0.240307</v>
+        <v>0.249966</v>
       </c>
       <c r="F31" t="n">
-        <v>0.607047</v>
+        <v>0.542842</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.323292</v>
+        <v>0.287497</v>
       </c>
       <c r="C32" t="n">
-        <v>0.532792</v>
+        <v>0.5656060000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.78095</v>
+        <v>0.647634</v>
       </c>
       <c r="E32" t="n">
-        <v>0.193611</v>
+        <v>0.30645</v>
       </c>
       <c r="F32" t="n">
-        <v>0.583292</v>
+        <v>0.6413450000000001</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.279046</v>
+        <v>0.248027</v>
       </c>
       <c r="C33" t="n">
-        <v>0.458772</v>
+        <v>0.638419</v>
       </c>
       <c r="D33" t="n">
-        <v>0.533879</v>
+        <v>0.608436</v>
       </c>
       <c r="E33" t="n">
-        <v>0.305804</v>
+        <v>0.273823</v>
       </c>
       <c r="F33" t="n">
-        <v>0.47415</v>
+        <v>0.406518</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.258206</v>
+        <v>0.262876</v>
       </c>
       <c r="C34" t="n">
-        <v>0.544947</v>
+        <v>0.57842</v>
       </c>
       <c r="D34" t="n">
-        <v>0.657065</v>
+        <v>0.644903</v>
       </c>
       <c r="E34" t="n">
-        <v>0.279795</v>
+        <v>0.301584</v>
       </c>
       <c r="F34" t="n">
-        <v>0.558605</v>
+        <v>0.445877</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.188129</v>
+        <v>0.298463</v>
       </c>
       <c r="C35" t="n">
-        <v>0.440441</v>
+        <v>0.642764</v>
       </c>
       <c r="D35" t="n">
-        <v>0.77525</v>
+        <v>0.717486</v>
       </c>
       <c r="E35" t="n">
-        <v>0.312754</v>
+        <v>0.242291</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6627</v>
+        <v>0.580793</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.281581</v>
+        <v>0.203767</v>
       </c>
       <c r="C36" t="n">
-        <v>0.589067</v>
+        <v>0.563105</v>
       </c>
       <c r="D36" t="n">
-        <v>0.880646</v>
+        <v>0.566245</v>
       </c>
       <c r="E36" t="n">
-        <v>0.322645</v>
+        <v>0.224127</v>
       </c>
       <c r="F36" t="n">
-        <v>0.573258</v>
+        <v>0.77751</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.24373</v>
+        <v>0.266498</v>
       </c>
       <c r="C37" t="n">
-        <v>0.48581</v>
+        <v>0.629532</v>
       </c>
       <c r="D37" t="n">
-        <v>0.758091</v>
+        <v>0.5524559999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>0.358776</v>
+        <v>0.312979</v>
       </c>
       <c r="F37" t="n">
-        <v>0.785088</v>
+        <v>0.696414</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.360067</v>
+        <v>0.370813</v>
       </c>
       <c r="C38" t="n">
-        <v>0.832385</v>
+        <v>0.772842</v>
       </c>
       <c r="D38" t="n">
-        <v>0.931413</v>
+        <v>0.892373</v>
       </c>
       <c r="E38" t="n">
-        <v>0.279856</v>
+        <v>0.334806</v>
       </c>
       <c r="F38" t="n">
-        <v>0.685986</v>
+        <v>0.719509</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.366946</v>
+        <v>0.394722</v>
       </c>
       <c r="C39" t="n">
-        <v>0.739224</v>
+        <v>0.745777</v>
       </c>
       <c r="D39" t="n">
-        <v>0.561387</v>
+        <v>0.858308</v>
       </c>
       <c r="E39" t="n">
-        <v>0.333948</v>
+        <v>0.345932</v>
       </c>
       <c r="F39" t="n">
-        <v>0.758507</v>
+        <v>0.759216</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.337504</v>
+        <v>0.321435</v>
       </c>
       <c r="C40" t="n">
-        <v>0.774382</v>
+        <v>0.720612</v>
       </c>
       <c r="D40" t="n">
-        <v>0.835001</v>
+        <v>0.94576</v>
       </c>
       <c r="E40" t="n">
-        <v>0.290585</v>
+        <v>0.287528</v>
       </c>
       <c r="F40" t="n">
-        <v>0.819869</v>
+        <v>0.503398</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.291442</v>
+        <v>0.295327</v>
       </c>
       <c r="C41" t="n">
-        <v>0.840425</v>
+        <v>0.706004</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8933489999999999</v>
+        <v>0.911919</v>
       </c>
       <c r="E41" t="n">
-        <v>0.298722</v>
+        <v>0.376548</v>
       </c>
       <c r="F41" t="n">
-        <v>0.783155</v>
+        <v>0.592761</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.334197</v>
+        <v>0.326829</v>
       </c>
       <c r="C42" t="n">
-        <v>0.803862</v>
+        <v>0.785937</v>
       </c>
       <c r="D42" t="n">
-        <v>0.879379</v>
+        <v>0.941693</v>
       </c>
       <c r="E42" t="n">
-        <v>0.290534</v>
+        <v>0.271816</v>
       </c>
       <c r="F42" t="n">
-        <v>0.697528</v>
+        <v>0.783464</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.326808</v>
+        <v>0.313708</v>
       </c>
       <c r="C43" t="n">
-        <v>0.764287</v>
+        <v>0.871714</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9279500000000001</v>
+        <v>0.96901</v>
       </c>
       <c r="E43" t="n">
-        <v>0.347962</v>
+        <v>0.349908</v>
       </c>
       <c r="F43" t="n">
-        <v>0.817459</v>
+        <v>0.641025</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.306664</v>
+        <v>0.267782</v>
       </c>
       <c r="C44" t="n">
-        <v>0.90963</v>
+        <v>0.724099</v>
       </c>
       <c r="D44" t="n">
-        <v>0.826044</v>
+        <v>0.732725</v>
       </c>
       <c r="E44" t="n">
-        <v>0.345911</v>
+        <v>0.254369</v>
       </c>
       <c r="F44" t="n">
-        <v>0.821407</v>
+        <v>0.641643</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.290227</v>
+        <v>0.287067</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8273430000000001</v>
+        <v>0.794059</v>
       </c>
       <c r="D45" t="n">
-        <v>0.779362</v>
+        <v>0.899173</v>
       </c>
       <c r="E45" t="n">
-        <v>0.330174</v>
+        <v>0.319925</v>
       </c>
       <c r="F45" t="n">
-        <v>0.756628</v>
+        <v>0.721039</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.329795</v>
+        <v>0.259338</v>
       </c>
       <c r="C46" t="n">
-        <v>0.721153</v>
+        <v>0.713549</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8914840000000001</v>
+        <v>1.01233</v>
       </c>
       <c r="E46" t="n">
-        <v>0.277072</v>
+        <v>0.285998</v>
       </c>
       <c r="F46" t="n">
-        <v>0.763505</v>
+        <v>0.724952</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.294295</v>
+        <v>0.245158</v>
       </c>
       <c r="C47" t="n">
-        <v>0.677447</v>
+        <v>0.753946</v>
       </c>
       <c r="D47" t="n">
-        <v>0.879315</v>
+        <v>0.84415</v>
       </c>
       <c r="E47" t="n">
-        <v>0.27113</v>
+        <v>0.197176</v>
       </c>
       <c r="F47" t="n">
-        <v>0.713235</v>
+        <v>0.695002</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.28699</v>
+        <v>0.267364</v>
       </c>
       <c r="C48" t="n">
-        <v>0.694601</v>
+        <v>0.7834410000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.548962</v>
+        <v>1.02396</v>
       </c>
       <c r="E48" t="n">
-        <v>0.303663</v>
+        <v>0.303863</v>
       </c>
       <c r="F48" t="n">
-        <v>0.63472</v>
+        <v>0.717214</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.237168</v>
+        <v>0.195055</v>
       </c>
       <c r="C49" t="n">
-        <v>0.644452</v>
+        <v>0.721801</v>
       </c>
       <c r="D49" t="n">
-        <v>0.81575</v>
+        <v>0.717202</v>
       </c>
       <c r="E49" t="n">
-        <v>0.252756</v>
+        <v>0.2665</v>
       </c>
       <c r="F49" t="n">
-        <v>0.679998</v>
+        <v>0.634266</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.259175</v>
+        <v>0.255272</v>
       </c>
       <c r="C50" t="n">
-        <v>0.63806</v>
+        <v>0.586777</v>
       </c>
       <c r="D50" t="n">
-        <v>0.861069</v>
+        <v>0.805646</v>
       </c>
       <c r="E50" t="n">
-        <v>0.205437</v>
+        <v>0.268762</v>
       </c>
       <c r="F50" t="n">
-        <v>0.712433</v>
+        <v>0.716208</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.266864</v>
+        <v>0.232922</v>
       </c>
       <c r="C51" t="n">
-        <v>0.685493</v>
+        <v>0.61106</v>
       </c>
       <c r="D51" t="n">
-        <v>0.94958</v>
+        <v>0.604832</v>
       </c>
       <c r="E51" t="n">
-        <v>0.33141</v>
+        <v>0.274335</v>
       </c>
       <c r="F51" t="n">
-        <v>0.75589</v>
+        <v>0.708094</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.261908</v>
+        <v>0.253182</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7307439999999999</v>
+        <v>0.533776</v>
       </c>
       <c r="D52" t="n">
-        <v>1.06975</v>
+        <v>0.790798</v>
       </c>
       <c r="E52" t="n">
-        <v>0.335971</v>
+        <v>0.305616</v>
       </c>
       <c r="F52" t="n">
-        <v>0.644182</v>
+        <v>0.88039</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.367274</v>
+        <v>0.357755</v>
       </c>
       <c r="C53" t="n">
-        <v>0.72259</v>
+        <v>0.812322</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8018690000000001</v>
+        <v>1.03077</v>
       </c>
       <c r="E53" t="n">
-        <v>0.355384</v>
+        <v>0.353779</v>
       </c>
       <c r="F53" t="n">
-        <v>0.791532</v>
+        <v>0.675664</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.344356</v>
+        <v>0.305219</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7529090000000001</v>
+        <v>0.7849080000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.86895</v>
+        <v>0.828549</v>
       </c>
       <c r="E54" t="n">
-        <v>0.329741</v>
+        <v>0.276748</v>
       </c>
       <c r="F54" t="n">
-        <v>0.678526</v>
+        <v>0.730361</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.309813</v>
+        <v>0.339313</v>
       </c>
       <c r="C55" t="n">
-        <v>0.816116</v>
+        <v>0.855928</v>
       </c>
       <c r="D55" t="n">
-        <v>0.781963</v>
+        <v>0.789283</v>
       </c>
       <c r="E55" t="n">
-        <v>0.325483</v>
+        <v>0.356807</v>
       </c>
       <c r="F55" t="n">
-        <v>0.79236</v>
+        <v>0.89978</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.321207</v>
+        <v>0.331499</v>
       </c>
       <c r="C56" t="n">
-        <v>0.732847</v>
+        <v>0.873654</v>
       </c>
       <c r="D56" t="n">
-        <v>0.892138</v>
+        <v>0.995497</v>
       </c>
       <c r="E56" t="n">
-        <v>0.323476</v>
+        <v>0.34888</v>
       </c>
       <c r="F56" t="n">
-        <v>0.829219</v>
+        <v>0.913061</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.312718</v>
+        <v>0.350751</v>
       </c>
       <c r="C57" t="n">
-        <v>0.769583</v>
+        <v>0.875659</v>
       </c>
       <c r="D57" t="n">
-        <v>0.787167</v>
+        <v>0.965848</v>
       </c>
       <c r="E57" t="n">
-        <v>0.288644</v>
+        <v>0.364223</v>
       </c>
       <c r="F57" t="n">
-        <v>0.805361</v>
+        <v>0.795337</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.342391</v>
+        <v>0.290854</v>
       </c>
       <c r="C58" t="n">
-        <v>0.676144</v>
+        <v>0.715358</v>
       </c>
       <c r="D58" t="n">
-        <v>0.841299</v>
+        <v>0.911921</v>
       </c>
       <c r="E58" t="n">
-        <v>0.326695</v>
+        <v>0.288542</v>
       </c>
       <c r="F58" t="n">
-        <v>0.652154</v>
+        <v>0.780549</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.32605</v>
+        <v>0.325978</v>
       </c>
       <c r="C59" t="n">
-        <v>0.776674</v>
+        <v>0.7955179999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.712093</v>
+        <v>0.980945</v>
       </c>
       <c r="E59" t="n">
-        <v>0.354279</v>
+        <v>0.322012</v>
       </c>
       <c r="F59" t="n">
-        <v>0.706989</v>
+        <v>0.811544</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.302313</v>
+        <v>0.346309</v>
       </c>
       <c r="C60" t="n">
-        <v>0.765465</v>
+        <v>0.868606</v>
       </c>
       <c r="D60" t="n">
-        <v>0.854112</v>
+        <v>0.974584</v>
       </c>
       <c r="E60" t="n">
-        <v>0.328168</v>
+        <v>0.311237</v>
       </c>
       <c r="F60" t="n">
-        <v>0.782825</v>
+        <v>0.8945149999999999</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.25345</v>
+        <v>0.299764</v>
       </c>
       <c r="C61" t="n">
-        <v>0.723722</v>
+        <v>0.854639</v>
       </c>
       <c r="D61" t="n">
-        <v>0.943967</v>
+        <v>0.877771</v>
       </c>
       <c r="E61" t="n">
-        <v>0.325314</v>
+        <v>0.311073</v>
       </c>
       <c r="F61" t="n">
-        <v>0.839839</v>
+        <v>0.869403</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.303217</v>
+        <v>0.310726</v>
       </c>
       <c r="C62" t="n">
-        <v>0.718921</v>
+        <v>0.8136330000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.824057</v>
+        <v>0.990839</v>
       </c>
       <c r="E62" t="n">
-        <v>0.28912</v>
+        <v>0.297871</v>
       </c>
       <c r="F62" t="n">
-        <v>0.715364</v>
+        <v>0.906049</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.308929</v>
+        <v>0.270534</v>
       </c>
       <c r="C63" t="n">
-        <v>0.784574</v>
+        <v>0.768355</v>
       </c>
       <c r="D63" t="n">
-        <v>0.977061</v>
+        <v>0.8907620000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>0.282624</v>
+        <v>0.281112</v>
       </c>
       <c r="F63" t="n">
-        <v>0.851759</v>
+        <v>0.830416</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.249764</v>
+        <v>0.288725</v>
       </c>
       <c r="C64" t="n">
-        <v>0.791734</v>
+        <v>0.794214</v>
       </c>
       <c r="D64" t="n">
-        <v>0.804805</v>
+        <v>0.955344</v>
       </c>
       <c r="E64" t="n">
-        <v>0.286409</v>
+        <v>0.340815</v>
       </c>
       <c r="F64" t="n">
-        <v>0.738788</v>
+        <v>0.85447</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.272858</v>
+        <v>0.25603</v>
       </c>
       <c r="C65" t="n">
-        <v>0.774178</v>
+        <v>0.817482</v>
       </c>
       <c r="D65" t="n">
-        <v>0.786004</v>
+        <v>0.984778</v>
       </c>
       <c r="E65" t="n">
-        <v>0.205186</v>
+        <v>0.332199</v>
       </c>
       <c r="F65" t="n">
-        <v>0.733085</v>
+        <v>0.798594</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.249119</v>
+        <v>0.285154</v>
       </c>
       <c r="C66" t="n">
-        <v>0.732905</v>
+        <v>0.77803</v>
       </c>
       <c r="D66" t="n">
-        <v>0.969894</v>
+        <v>1.07952</v>
       </c>
       <c r="E66" t="n">
-        <v>0.32405</v>
+        <v>0.372724</v>
       </c>
       <c r="F66" t="n">
-        <v>0.900933</v>
+        <v>0.861797</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.361501</v>
+        <v>0.352398</v>
       </c>
       <c r="C67" t="n">
-        <v>0.873979</v>
+        <v>0.9239270000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.844007</v>
+        <v>0.925403</v>
       </c>
       <c r="E67" t="n">
-        <v>0.388542</v>
+        <v>0.342545</v>
       </c>
       <c r="F67" t="n">
-        <v>0.914569</v>
+        <v>0.914297</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.388432</v>
+        <v>0.390909</v>
       </c>
       <c r="C68" t="n">
-        <v>0.89055</v>
+        <v>0.992545</v>
       </c>
       <c r="D68" t="n">
-        <v>0.90252</v>
+        <v>0.98023</v>
       </c>
       <c r="E68" t="n">
-        <v>0.332974</v>
+        <v>0.394626</v>
       </c>
       <c r="F68" t="n">
-        <v>0.894111</v>
+        <v>0.955053</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.351032</v>
+        <v>0.382143</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9108039999999999</v>
+        <v>0.960252</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9435750000000001</v>
+        <v>0.984608</v>
       </c>
       <c r="E69" t="n">
-        <v>0.333489</v>
+        <v>0.345389</v>
       </c>
       <c r="F69" t="n">
-        <v>0.792057</v>
+        <v>0.969038</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.323544</v>
+        <v>0.353353</v>
       </c>
       <c r="C70" t="n">
-        <v>0.965991</v>
+        <v>1.02798</v>
       </c>
       <c r="D70" t="n">
-        <v>1.06537</v>
+        <v>1.08988</v>
       </c>
       <c r="E70" t="n">
-        <v>0.353748</v>
+        <v>0.331951</v>
       </c>
       <c r="F70" t="n">
-        <v>0.893976</v>
+        <v>0.924306</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.311543</v>
+        <v>0.346561</v>
       </c>
       <c r="C71" t="n">
-        <v>0.90804</v>
+        <v>0.925368</v>
       </c>
       <c r="D71" t="n">
-        <v>0.933847</v>
+        <v>1.02907</v>
       </c>
       <c r="E71" t="n">
-        <v>0.330227</v>
+        <v>0.2739</v>
       </c>
       <c r="F71" t="n">
-        <v>0.916926</v>
+        <v>0.870265</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.347035</v>
+        <v>0.323042</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9525400000000001</v>
+        <v>0.963601</v>
       </c>
       <c r="D72" t="n">
-        <v>0.814095</v>
+        <v>0.957214</v>
       </c>
       <c r="E72" t="n">
-        <v>0.308463</v>
+        <v>0.297196</v>
       </c>
       <c r="F72" t="n">
-        <v>0.839543</v>
+        <v>0.981248</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.343426</v>
+        <v>0.305245</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8149</v>
+        <v>0.954749</v>
       </c>
       <c r="D73" t="n">
-        <v>0.831045</v>
+        <v>1.01107</v>
       </c>
       <c r="E73" t="n">
-        <v>0.324684</v>
+        <v>0.359591</v>
       </c>
       <c r="F73" t="n">
-        <v>0.779821</v>
+        <v>0.999067</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.321461</v>
+        <v>0.332615</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9106</v>
+        <v>0.9513</v>
       </c>
       <c r="D74" t="n">
-        <v>0.969697</v>
+        <v>1.06443</v>
       </c>
       <c r="E74" t="n">
-        <v>0.295075</v>
+        <v>0.370236</v>
       </c>
       <c r="F74" t="n">
-        <v>0.891745</v>
+        <v>0.9617830000000001</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.303765</v>
+        <v>0.289249</v>
       </c>
       <c r="C75" t="n">
-        <v>0.744416</v>
+        <v>0.916228</v>
       </c>
       <c r="D75" t="n">
-        <v>0.97596</v>
+        <v>1.01491</v>
       </c>
       <c r="E75" t="n">
-        <v>0.257617</v>
+        <v>0.267483</v>
       </c>
       <c r="F75" t="n">
-        <v>0.747044</v>
+        <v>0.888414</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.259879</v>
+        <v>0.285794</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8718</v>
+        <v>0.935015</v>
       </c>
       <c r="D76" t="n">
-        <v>1.01958</v>
+        <v>1.053</v>
       </c>
       <c r="E76" t="n">
-        <v>0.266523</v>
+        <v>0.341898</v>
       </c>
       <c r="F76" t="n">
-        <v>0.925834</v>
+        <v>0.939692</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.285492</v>
+        <v>0.336654</v>
       </c>
       <c r="C77" t="n">
-        <v>0.890138</v>
+        <v>0.909532</v>
       </c>
       <c r="D77" t="n">
-        <v>1.10909</v>
+        <v>0.943865</v>
       </c>
       <c r="E77" t="n">
-        <v>0.320455</v>
+        <v>0.293239</v>
       </c>
       <c r="F77" t="n">
-        <v>0.939314</v>
+        <v>0.927254</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.261722</v>
+        <v>0.306814</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6924360000000001</v>
+        <v>0.855483</v>
       </c>
       <c r="D78" t="n">
-        <v>1.06537</v>
+        <v>1.09157</v>
       </c>
       <c r="E78" t="n">
-        <v>0.303128</v>
+        <v>0.300833</v>
       </c>
       <c r="F78" t="n">
-        <v>0.830738</v>
+        <v>0.868104</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.264449</v>
+        <v>0.292519</v>
       </c>
       <c r="C79" t="n">
-        <v>0.873115</v>
+        <v>0.915188</v>
       </c>
       <c r="D79" t="n">
-        <v>0.99077</v>
+        <v>1.09518</v>
       </c>
       <c r="E79" t="n">
-        <v>0.255905</v>
+        <v>0.32225</v>
       </c>
       <c r="F79" t="n">
-        <v>0.830425</v>
+        <v>0.886408</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.269434</v>
+        <v>0.243587</v>
       </c>
       <c r="C80" t="n">
-        <v>0.861303</v>
+        <v>0.876229</v>
       </c>
       <c r="D80" t="n">
-        <v>1.04366</v>
+        <v>1.09617</v>
       </c>
       <c r="E80" t="n">
-        <v>0.308848</v>
+        <v>0.375143</v>
       </c>
       <c r="F80" t="n">
-        <v>0.863883</v>
+        <v>1.07212</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.361287</v>
+        <v>0.369567</v>
       </c>
       <c r="C81" t="n">
-        <v>0.920957</v>
+        <v>0.983919</v>
       </c>
       <c r="D81" t="n">
-        <v>1.01713</v>
+        <v>1.09709</v>
       </c>
       <c r="E81" t="n">
-        <v>0.386469</v>
+        <v>0.36713</v>
       </c>
       <c r="F81" t="n">
-        <v>0.8703419999999999</v>
+        <v>0.994264</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.350056</v>
+        <v>0.375033</v>
       </c>
       <c r="C82" t="n">
-        <v>0.953107</v>
+        <v>1.00788</v>
       </c>
       <c r="D82" t="n">
-        <v>1.13321</v>
+        <v>1.1342</v>
       </c>
       <c r="E82" t="n">
-        <v>0.276137</v>
+        <v>0.316627</v>
       </c>
       <c r="F82" t="n">
-        <v>0.874354</v>
+        <v>0.951854</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.31354</v>
+        <v>0.322532</v>
       </c>
       <c r="C83" t="n">
-        <v>0.91173</v>
+        <v>0.921288</v>
       </c>
       <c r="D83" t="n">
-        <v>1.10266</v>
+        <v>1.08254</v>
       </c>
       <c r="E83" t="n">
-        <v>0.381862</v>
+        <v>0.334626</v>
       </c>
       <c r="F83" t="n">
-        <v>0.917098</v>
+        <v>0.929567</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.339216</v>
+        <v>0.352677</v>
       </c>
       <c r="C84" t="n">
-        <v>0.962116</v>
+        <v>1.12564</v>
       </c>
       <c r="D84" t="n">
-        <v>1.14543</v>
+        <v>1.14961</v>
       </c>
       <c r="E84" t="n">
-        <v>0.356867</v>
+        <v>0.347336</v>
       </c>
       <c r="F84" t="n">
-        <v>0.8739130000000001</v>
+        <v>1.09627</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.317935</v>
+        <v>0.387199</v>
       </c>
       <c r="C85" t="n">
-        <v>1.05755</v>
+        <v>1.04651</v>
       </c>
       <c r="D85" t="n">
-        <v>1.08747</v>
+        <v>1.20423</v>
       </c>
       <c r="E85" t="n">
-        <v>0.332624</v>
+        <v>0.300871</v>
       </c>
       <c r="F85" t="n">
-        <v>0.937106</v>
+        <v>1.06223</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.326706</v>
+        <v>0.352401</v>
       </c>
       <c r="C86" t="n">
-        <v>0.915697</v>
+        <v>1.06036</v>
       </c>
       <c r="D86" t="n">
-        <v>1.05486</v>
+        <v>1.15229</v>
       </c>
       <c r="E86" t="n">
-        <v>0.351949</v>
+        <v>0.286279</v>
       </c>
       <c r="F86" t="n">
-        <v>1.02486</v>
+        <v>1.02372</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.313485</v>
+        <v>0.332742</v>
       </c>
       <c r="C87" t="n">
-        <v>1.00429</v>
+        <v>1.0583</v>
       </c>
       <c r="D87" t="n">
-        <v>1.08827</v>
+        <v>1.14153</v>
       </c>
       <c r="E87" t="n">
-        <v>0.305127</v>
+        <v>0.337025</v>
       </c>
       <c r="F87" t="n">
-        <v>0.874752</v>
+        <v>1.03064</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.283656</v>
+        <v>0.337466</v>
       </c>
       <c r="C88" t="n">
-        <v>0.836986</v>
+        <v>1.02903</v>
       </c>
       <c r="D88" t="n">
-        <v>1.13517</v>
+        <v>1.21525</v>
       </c>
       <c r="E88" t="n">
-        <v>0.259401</v>
+        <v>0.316937</v>
       </c>
       <c r="F88" t="n">
-        <v>0.922633</v>
+        <v>1.00496</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.319293</v>
+        <v>0.340879</v>
       </c>
       <c r="C89" t="n">
-        <v>0.906361</v>
+        <v>1.04382</v>
       </c>
       <c r="D89" t="n">
-        <v>1.16325</v>
+        <v>1.19512</v>
       </c>
       <c r="E89" t="n">
-        <v>0.26215</v>
+        <v>0.332923</v>
       </c>
       <c r="F89" t="n">
-        <v>1.00344</v>
+        <v>1.01286</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.305131</v>
+        <v>0.303914</v>
       </c>
       <c r="C90" t="n">
-        <v>1.06397</v>
+        <v>0.987531</v>
       </c>
       <c r="D90" t="n">
-        <v>1.15108</v>
+        <v>1.12625</v>
       </c>
       <c r="E90" t="n">
-        <v>0.25184</v>
+        <v>0.308728</v>
       </c>
       <c r="F90" t="n">
-        <v>1.04467</v>
+        <v>0.894501</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.318567</v>
+        <v>0.290573</v>
       </c>
       <c r="C91" t="n">
-        <v>1.05392</v>
+        <v>0.984985</v>
       </c>
       <c r="D91" t="n">
-        <v>1.23093</v>
+        <v>1.15156</v>
       </c>
       <c r="E91" t="n">
-        <v>0.290315</v>
+        <v>0.323345</v>
       </c>
       <c r="F91" t="n">
-        <v>0.875704</v>
+        <v>0.963209</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.343576</v>
+        <v>0.289868</v>
       </c>
       <c r="C92" t="n">
-        <v>0.920689</v>
+        <v>0.932134</v>
       </c>
       <c r="D92" t="n">
-        <v>1.16081</v>
+        <v>1.15238</v>
       </c>
       <c r="E92" t="n">
-        <v>0.320758</v>
+        <v>0.319544</v>
       </c>
       <c r="F92" t="n">
-        <v>0.959102</v>
+        <v>1.05081</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.287991</v>
+        <v>0.249465</v>
       </c>
       <c r="C93" t="n">
-        <v>0.907271</v>
+        <v>0.861722</v>
       </c>
       <c r="D93" t="n">
-        <v>1.17653</v>
+        <v>1.16307</v>
       </c>
       <c r="E93" t="n">
-        <v>0.251635</v>
+        <v>0.25903</v>
       </c>
       <c r="F93" t="n">
-        <v>1.0556</v>
+        <v>0.9431890000000001</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.266068</v>
+        <v>0.265925</v>
       </c>
       <c r="C94" t="n">
-        <v>0.924485</v>
+        <v>0.929347</v>
       </c>
       <c r="D94" t="n">
-        <v>1.17619</v>
+        <v>1.13743</v>
       </c>
       <c r="E94" t="n">
-        <v>0.360476</v>
+        <v>0.345795</v>
       </c>
       <c r="F94" t="n">
-        <v>1.08818</v>
+        <v>1.10126</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.373691</v>
+        <v>0.390989</v>
       </c>
       <c r="C95" t="n">
-        <v>1.06422</v>
+        <v>1.11794</v>
       </c>
       <c r="D95" t="n">
-        <v>1.14706</v>
+        <v>1.16064</v>
       </c>
       <c r="E95" t="n">
-        <v>0.363455</v>
+        <v>0.387502</v>
       </c>
       <c r="F95" t="n">
-        <v>1.00026</v>
+        <v>1.13831</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.329709</v>
+        <v>0.385559</v>
       </c>
       <c r="C96" t="n">
-        <v>1.10189</v>
+        <v>1.13589</v>
       </c>
       <c r="D96" t="n">
-        <v>1.13659</v>
+        <v>1.09408</v>
       </c>
       <c r="E96" t="n">
-        <v>0.356347</v>
+        <v>0.361544</v>
       </c>
       <c r="F96" t="n">
-        <v>0.979749</v>
+        <v>1.09628</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.367093</v>
+        <v>0.313779</v>
       </c>
       <c r="C97" t="n">
-        <v>1.04323</v>
+        <v>1.09491</v>
       </c>
       <c r="D97" t="n">
-        <v>1.17289</v>
+        <v>1.10827</v>
       </c>
       <c r="E97" t="n">
-        <v>0.35614</v>
+        <v>0.364856</v>
       </c>
       <c r="F97" t="n">
-        <v>1.01997</v>
+        <v>1.1471</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.371084</v>
+        <v>0.349422</v>
       </c>
       <c r="C98" t="n">
-        <v>1.05909</v>
+        <v>1.07695</v>
       </c>
       <c r="D98" t="n">
-        <v>1.25013</v>
+        <v>1.23755</v>
       </c>
       <c r="E98" t="n">
-        <v>0.347297</v>
+        <v>0.372716</v>
       </c>
       <c r="F98" t="n">
-        <v>1.02097</v>
+        <v>1.10805</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.329614</v>
+        <v>0.391163</v>
       </c>
       <c r="C99" t="n">
-        <v>1.09454</v>
+        <v>1.03541</v>
       </c>
       <c r="D99" t="n">
-        <v>1.10823</v>
+        <v>1.25191</v>
       </c>
       <c r="E99" t="n">
-        <v>0.37952</v>
+        <v>0.331369</v>
       </c>
       <c r="F99" t="n">
-        <v>1.01526</v>
+        <v>0.979123</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.31346</v>
+        <v>0.329748</v>
       </c>
       <c r="C100" t="n">
-        <v>1.0079</v>
+        <v>0.953734</v>
       </c>
       <c r="D100" t="n">
-        <v>1.02308</v>
+        <v>1.11392</v>
       </c>
       <c r="E100" t="n">
-        <v>0.317746</v>
+        <v>0.307602</v>
       </c>
       <c r="F100" t="n">
-        <v>0.952133</v>
+        <v>0.947505</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.281771</v>
+        <v>0.262453</v>
       </c>
       <c r="C101" t="n">
-        <v>0.998205</v>
+        <v>0.882148</v>
       </c>
       <c r="D101" t="n">
-        <v>0.95795</v>
+        <v>1.0845</v>
       </c>
       <c r="E101" t="n">
-        <v>0.359356</v>
+        <v>0.323317</v>
       </c>
       <c r="F101" t="n">
-        <v>0.947338</v>
+        <v>0.899734</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.324483</v>
+        <v>0.323854</v>
       </c>
       <c r="C102" t="n">
-        <v>0.914718</v>
+        <v>0.9698560000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.978567</v>
+        <v>1.11435</v>
       </c>
       <c r="E102" t="n">
-        <v>0.236315</v>
+        <v>0.293262</v>
       </c>
       <c r="F102" t="n">
-        <v>0.99315</v>
+        <v>0.962295</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.299327</v>
+        <v>0.35121</v>
       </c>
       <c r="C103" t="n">
-        <v>0.938781</v>
+        <v>0.9951410000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>1.06551</v>
+        <v>1.04013</v>
       </c>
       <c r="E103" t="n">
-        <v>0.267444</v>
+        <v>0.307701</v>
       </c>
       <c r="F103" t="n">
-        <v>1.0081</v>
+        <v>0.920777</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.30693</v>
+        <v>0.264611</v>
       </c>
       <c r="C104" t="n">
-        <v>0.901044</v>
+        <v>0.927798</v>
       </c>
       <c r="D104" t="n">
-        <v>1.13279</v>
+        <v>0.904439</v>
       </c>
       <c r="E104" t="n">
-        <v>0.336607</v>
+        <v>0.279261</v>
       </c>
       <c r="F104" t="n">
-        <v>1.06316</v>
+        <v>0.88705</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.271134</v>
+        <v>0.263667</v>
       </c>
       <c r="C105" t="n">
-        <v>0.913791</v>
+        <v>0.940533</v>
       </c>
       <c r="D105" t="n">
-        <v>1.04381</v>
+        <v>1.08262</v>
       </c>
       <c r="E105" t="n">
-        <v>0.319472</v>
+        <v>0.266452</v>
       </c>
       <c r="F105" t="n">
-        <v>1.00225</v>
+        <v>0.95477</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.326376</v>
+        <v>0.283161</v>
       </c>
       <c r="C106" t="n">
-        <v>0.999874</v>
+        <v>0.956456</v>
       </c>
       <c r="D106" t="n">
-        <v>1.07745</v>
+        <v>1.09293</v>
       </c>
       <c r="E106" t="n">
-        <v>0.286484</v>
+        <v>0.33303</v>
       </c>
       <c r="F106" t="n">
-        <v>1.01882</v>
+        <v>0.912734</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.309192</v>
+        <v>0.256388</v>
       </c>
       <c r="C107" t="n">
-        <v>0.922244</v>
+        <v>1.00617</v>
       </c>
       <c r="D107" t="n">
-        <v>1.07237</v>
+        <v>1.03927</v>
       </c>
       <c r="E107" t="n">
-        <v>0.26418</v>
+        <v>0.304607</v>
       </c>
       <c r="F107" t="n">
-        <v>0.916613</v>
+        <v>1.0194</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.308967</v>
+        <v>0.260732</v>
       </c>
       <c r="C108" t="n">
-        <v>0.824308</v>
+        <v>0.855111</v>
       </c>
       <c r="D108" t="n">
-        <v>1.03374</v>
+        <v>1.12179</v>
       </c>
       <c r="E108" t="n">
-        <v>0.347669</v>
+        <v>0.302801</v>
       </c>
       <c r="F108" t="n">
-        <v>1.09254</v>
+        <v>0.971093</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.25928</v>
+        <v>0.274572</v>
       </c>
       <c r="C109" t="n">
-        <v>0.824771</v>
+        <v>0.874507</v>
       </c>
       <c r="D109" t="n">
-        <v>1.07223</v>
+        <v>0.906882</v>
       </c>
       <c r="E109" t="n">
-        <v>0.365196</v>
+        <v>0.369444</v>
       </c>
       <c r="F109" t="n">
-        <v>1.05696</v>
+        <v>0.966042</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.360765</v>
+        <v>0.322641</v>
       </c>
       <c r="C110" t="n">
-        <v>0.892385</v>
+        <v>0.945041</v>
       </c>
       <c r="D110" t="n">
-        <v>1.17421</v>
+        <v>1.07899</v>
       </c>
       <c r="E110" t="n">
-        <v>0.340054</v>
+        <v>0.33672</v>
       </c>
       <c r="F110" t="n">
-        <v>1.05472</v>
+        <v>1.03598</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.320418</v>
+        <v>0.361414</v>
       </c>
       <c r="C111" t="n">
-        <v>0.980226</v>
+        <v>0.989614</v>
       </c>
       <c r="D111" t="n">
-        <v>1.06036</v>
+        <v>1.03533</v>
       </c>
       <c r="E111" t="n">
-        <v>0.380484</v>
+        <v>0.330287</v>
       </c>
       <c r="F111" t="n">
-        <v>0.931659</v>
+        <v>1.06289</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.32165</v>
+        <v>0.357407</v>
       </c>
       <c r="C112" t="n">
-        <v>0.992677</v>
+        <v>0.96544</v>
       </c>
       <c r="D112" t="n">
-        <v>1.14656</v>
+        <v>1.0628</v>
       </c>
       <c r="E112" t="n">
-        <v>0.248247</v>
+        <v>0.359882</v>
       </c>
       <c r="F112" t="n">
-        <v>1.01898</v>
+        <v>1.02604</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.349454</v>
+        <v>0.31011</v>
       </c>
       <c r="C113" t="n">
-        <v>0.992268</v>
+        <v>0.838135</v>
       </c>
       <c r="D113" t="n">
-        <v>1.1749</v>
+        <v>1.01054</v>
       </c>
       <c r="E113" t="n">
-        <v>0.330523</v>
+        <v>0.334576</v>
       </c>
       <c r="F113" t="n">
-        <v>0.981063</v>
+        <v>0.895172</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.331669</v>
+        <v>0.300496</v>
       </c>
       <c r="C114" t="n">
-        <v>0.96578</v>
+        <v>0.910426</v>
       </c>
       <c r="D114" t="n">
-        <v>1.00834</v>
+        <v>0.996335</v>
       </c>
       <c r="E114" t="n">
-        <v>0.360363</v>
+        <v>0.368355</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9847</v>
+        <v>0.988016</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.301834</v>
+        <v>0.283294</v>
       </c>
       <c r="C115" t="n">
-        <v>0.869453</v>
+        <v>0.977637</v>
       </c>
       <c r="D115" t="n">
-        <v>0.98639</v>
+        <v>1.01062</v>
       </c>
       <c r="E115" t="n">
-        <v>0.319109</v>
+        <v>0.332893</v>
       </c>
       <c r="F115" t="n">
-        <v>0.935578</v>
+        <v>0.971629</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.305839</v>
+        <v>0.334821</v>
       </c>
       <c r="C116" t="n">
-        <v>0.974098</v>
+        <v>1.00996</v>
       </c>
       <c r="D116" t="n">
-        <v>1.15913</v>
+        <v>1.17485</v>
       </c>
       <c r="E116" t="n">
-        <v>0.334946</v>
+        <v>0.332617</v>
       </c>
       <c r="F116" t="n">
-        <v>1.00648</v>
+        <v>1.01939</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.284475</v>
+        <v>0.321916</v>
       </c>
       <c r="C117" t="n">
-        <v>0.93811</v>
+        <v>0.8932020000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>1.05523</v>
+        <v>1.09284</v>
       </c>
       <c r="E117" t="n">
-        <v>0.286045</v>
+        <v>0.293801</v>
       </c>
       <c r="F117" t="n">
-        <v>0.936452</v>
+        <v>0.974378</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.277902</v>
+        <v>0.279924</v>
       </c>
       <c r="C118" t="n">
-        <v>1.00114</v>
+        <v>0.959244</v>
       </c>
       <c r="D118" t="n">
-        <v>0.983285</v>
+        <v>0.989584</v>
       </c>
       <c r="E118" t="n">
-        <v>0.324437</v>
+        <v>0.320593</v>
       </c>
       <c r="F118" t="n">
-        <v>0.91069</v>
+        <v>0.955253</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.322945</v>
+        <v>0.234956</v>
       </c>
       <c r="C119" t="n">
-        <v>0.892187</v>
+        <v>0.8967270000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>1.04676</v>
+        <v>1.05503</v>
       </c>
       <c r="E119" t="n">
-        <v>0.331093</v>
+        <v>0.298157</v>
       </c>
       <c r="F119" t="n">
-        <v>0.912933</v>
+        <v>0.9043020000000001</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.312175</v>
+        <v>0.291252</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9140200000000001</v>
+        <v>0.9955889999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>1.15074</v>
+        <v>1.04938</v>
       </c>
       <c r="E120" t="n">
-        <v>0.295673</v>
+        <v>0.315705</v>
       </c>
       <c r="F120" t="n">
-        <v>0.981768</v>
+        <v>0.960967</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.275269</v>
+        <v>0.253077</v>
       </c>
       <c r="C121" t="n">
-        <v>0.920833</v>
+        <v>0.925914</v>
       </c>
       <c r="D121" t="n">
-        <v>1.21756</v>
+        <v>1.26934</v>
       </c>
       <c r="E121" t="n">
-        <v>0.290907</v>
+        <v>0.268999</v>
       </c>
       <c r="F121" t="n">
-        <v>0.940894</v>
+        <v>1.01492</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.285106</v>
+        <v>0.259748</v>
       </c>
       <c r="C122" t="n">
-        <v>0.933436</v>
+        <v>0.873884</v>
       </c>
       <c r="D122" t="n">
-        <v>1.21475</v>
+        <v>1.23076</v>
       </c>
       <c r="E122" t="n">
-        <v>0.25266</v>
+        <v>0.30754</v>
       </c>
       <c r="F122" t="n">
-        <v>0.978936</v>
+        <v>1.02081</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.276855</v>
+        <v>0.263889</v>
       </c>
       <c r="C123" t="n">
-        <v>0.85248</v>
+        <v>0.868797</v>
       </c>
       <c r="D123" t="n">
-        <v>1.07459</v>
+        <v>1.14197</v>
       </c>
       <c r="E123" t="n">
-        <v>0.402819</v>
+        <v>0.275481</v>
       </c>
       <c r="F123" t="n">
-        <v>1.06648</v>
+        <v>1.13735</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.367212</v>
+        <v>0.368169</v>
       </c>
       <c r="C124" t="n">
-        <v>1.06279</v>
+        <v>1.07243</v>
       </c>
       <c r="D124" t="n">
-        <v>1.18213</v>
+        <v>1.06575</v>
       </c>
       <c r="E124" t="n">
-        <v>0.334377</v>
+        <v>0.33678</v>
       </c>
       <c r="F124" t="n">
-        <v>1.07203</v>
+        <v>1.08762</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.328365</v>
+        <v>0.34623</v>
       </c>
       <c r="C125" t="n">
-        <v>0.905156</v>
+        <v>0.984805</v>
       </c>
       <c r="D125" t="n">
-        <v>1.20168</v>
+        <v>1.12846</v>
       </c>
       <c r="E125" t="n">
-        <v>0.364035</v>
+        <v>0.311236</v>
       </c>
       <c r="F125" t="n">
-        <v>1.05434</v>
+        <v>1.03467</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.309212</v>
+        <v>0.335562</v>
       </c>
       <c r="C126" t="n">
-        <v>1.05999</v>
+        <v>1.04167</v>
       </c>
       <c r="D126" t="n">
-        <v>1.1562</v>
+        <v>1.05165</v>
       </c>
       <c r="E126" t="n">
-        <v>0.334551</v>
+        <v>0.348218</v>
       </c>
       <c r="F126" t="n">
-        <v>1.02659</v>
+        <v>1.00438</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.346368</v>
+        <v>0.268712</v>
       </c>
       <c r="C127" t="n">
-        <v>1.03015</v>
+        <v>0.875928</v>
       </c>
       <c r="D127" t="n">
-        <v>0.991</v>
+        <v>1.15413</v>
       </c>
       <c r="E127" t="n">
-        <v>0.270393</v>
+        <v>0.331678</v>
       </c>
       <c r="F127" t="n">
-        <v>1.01397</v>
+        <v>1.03048</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.247924</v>
+        <v>0.266588</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8159690000000001</v>
+        <v>0.937589</v>
       </c>
       <c r="D128" t="n">
-        <v>1.05794</v>
+        <v>1.07289</v>
       </c>
       <c r="E128" t="n">
-        <v>0.28137</v>
+        <v>0.348178</v>
       </c>
       <c r="F128" t="n">
-        <v>0.998079</v>
+        <v>1.07901</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.338187</v>
+        <v>0.314353</v>
       </c>
       <c r="C129" t="n">
-        <v>0.990274</v>
+        <v>1.00788</v>
       </c>
       <c r="D129" t="n">
-        <v>1.09087</v>
+        <v>0.960267</v>
       </c>
       <c r="E129" t="n">
-        <v>0.317077</v>
+        <v>0.261317</v>
       </c>
       <c r="F129" t="n">
-        <v>0.966102</v>
+        <v>0.943146</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.278991</v>
+        <v>0.31167</v>
       </c>
       <c r="C130" t="n">
-        <v>0.995211</v>
+        <v>0.853294</v>
       </c>
       <c r="D130" t="n">
-        <v>1.1787</v>
+        <v>1.07148</v>
       </c>
       <c r="E130" t="n">
-        <v>0.276255</v>
+        <v>0.339255</v>
       </c>
       <c r="F130" t="n">
-        <v>0.950385</v>
+        <v>1.00323</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.279278</v>
+        <v>0.312705</v>
       </c>
       <c r="C131" t="n">
-        <v>0.930026</v>
+        <v>0.939307</v>
       </c>
       <c r="D131" t="n">
-        <v>0.984855</v>
+        <v>1.00431</v>
       </c>
       <c r="E131" t="n">
-        <v>0.29027</v>
+        <v>0.37417</v>
       </c>
       <c r="F131" t="n">
-        <v>1.02866</v>
+        <v>1.04527</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.301522</v>
+        <v>0.288527</v>
       </c>
       <c r="C132" t="n">
-        <v>0.913535</v>
+        <v>0.842867</v>
       </c>
       <c r="D132" t="n">
-        <v>1.10851</v>
+        <v>1.03661</v>
       </c>
       <c r="E132" t="n">
-        <v>0.324781</v>
+        <v>0.344998</v>
       </c>
       <c r="F132" t="n">
-        <v>0.954189</v>
+        <v>0.948991</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.233553</v>
+        <v>0.300133</v>
       </c>
       <c r="C133" t="n">
-        <v>0.991451</v>
+        <v>0.869135</v>
       </c>
       <c r="D133" t="n">
-        <v>1.09181</v>
+        <v>0.845664</v>
       </c>
       <c r="E133" t="n">
-        <v>0.266019</v>
+        <v>0.299616</v>
       </c>
       <c r="F133" t="n">
-        <v>0.925655</v>
+        <v>1.03286</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.26269</v>
+        <v>0.281231</v>
       </c>
       <c r="C134" t="n">
-        <v>0.969431</v>
+        <v>0.916629</v>
       </c>
       <c r="D134" t="n">
-        <v>1.03508</v>
+        <v>1.00871</v>
       </c>
       <c r="E134" t="n">
-        <v>0.3383</v>
+        <v>0.294884</v>
       </c>
       <c r="F134" t="n">
-        <v>0.964203</v>
+        <v>0.881463</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.27533</v>
+        <v>0.284614</v>
       </c>
       <c r="C135" t="n">
-        <v>0.831626</v>
+        <v>0.793826</v>
       </c>
       <c r="D135" t="n">
-        <v>0.98506</v>
+        <v>1.03069</v>
       </c>
       <c r="E135" t="n">
-        <v>0.281364</v>
+        <v>0.26968</v>
       </c>
       <c r="F135" t="n">
-        <v>0.911727</v>
+        <v>0.923556</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.233151</v>
+        <v>0.276212</v>
       </c>
       <c r="C136" t="n">
-        <v>0.726444</v>
+        <v>0.829826</v>
       </c>
       <c r="D136" t="n">
-        <v>0.892505</v>
+        <v>1.0108</v>
       </c>
       <c r="E136" t="n">
-        <v>0.285105</v>
+        <v>0.310851</v>
       </c>
       <c r="F136" t="n">
-        <v>0.868327</v>
+        <v>0.908071</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.26235</v>
+        <v>0.270945</v>
       </c>
       <c r="C137" t="n">
-        <v>0.638229</v>
+        <v>0.915063</v>
       </c>
       <c r="D137" t="n">
-        <v>0.906518</v>
+        <v>1.07581</v>
       </c>
       <c r="E137" t="n">
-        <v>0.348542</v>
+        <v>0.366581</v>
       </c>
       <c r="F137" t="n">
-        <v>1.07683</v>
+        <v>0.962387</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.329252</v>
+        <v>0.311438</v>
       </c>
       <c r="C138" t="n">
-        <v>0.811914</v>
+        <v>0.857281</v>
       </c>
       <c r="D138" t="n">
-        <v>0.811178</v>
+        <v>0.928078</v>
       </c>
       <c r="E138" t="n">
-        <v>0.29895</v>
+        <v>0.331752</v>
       </c>
       <c r="F138" t="n">
-        <v>0.931792</v>
+        <v>0.838268</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.336879</v>
+        <v>0.33676</v>
       </c>
       <c r="C139" t="n">
-        <v>0.898332</v>
+        <v>0.908025</v>
       </c>
       <c r="D139" t="n">
-        <v>1.03494</v>
+        <v>0.853764</v>
       </c>
       <c r="E139" t="n">
-        <v>0.305718</v>
+        <v>0.348597</v>
       </c>
       <c r="F139" t="n">
-        <v>0.961831</v>
+        <v>0.876368</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.349011</v>
+        <v>0.29865</v>
       </c>
       <c r="C140" t="n">
-        <v>0.837608</v>
+        <v>0.829956</v>
       </c>
       <c r="D140" t="n">
-        <v>0.877876</v>
+        <v>0.997463</v>
       </c>
       <c r="E140" t="n">
-        <v>0.320965</v>
+        <v>0.349053</v>
       </c>
       <c r="F140" t="n">
-        <v>0.782076</v>
+        <v>0.878001</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.347092</v>
+        <v>0.347347</v>
       </c>
       <c r="C141" t="n">
-        <v>0.85332</v>
+        <v>0.97807</v>
       </c>
       <c r="D141" t="n">
-        <v>1.08066</v>
+        <v>0.996063</v>
       </c>
       <c r="E141" t="n">
-        <v>0.27743</v>
+        <v>0.27703</v>
       </c>
       <c r="F141" t="n">
-        <v>0.78177</v>
+        <v>1.0058</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.338317</v>
+        <v>0.319691</v>
       </c>
       <c r="C142" t="n">
-        <v>0.727521</v>
+        <v>0.886147</v>
       </c>
       <c r="D142" t="n">
-        <v>0.863253</v>
+        <v>1.0241</v>
       </c>
       <c r="E142" t="n">
-        <v>0.28154</v>
+        <v>0.333838</v>
       </c>
       <c r="F142" t="n">
-        <v>0.7475579999999999</v>
+        <v>0.869502</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.293419</v>
+        <v>0.29691</v>
       </c>
       <c r="C143" t="n">
-        <v>0.793048</v>
+        <v>0.721668</v>
       </c>
       <c r="D143" t="n">
-        <v>0.844198</v>
+        <v>0.93064</v>
       </c>
       <c r="E143" t="n">
-        <v>0.304748</v>
+        <v>0.310907</v>
       </c>
       <c r="F143" t="n">
-        <v>0.764725</v>
+        <v>0.902545</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.203101</v>
+        <v>0.147098</v>
       </c>
       <c r="C2" t="n">
-        <v>0.766352</v>
+        <v>0.36207</v>
       </c>
       <c r="D2" t="n">
-        <v>0.786153</v>
+        <v>0.417662</v>
       </c>
       <c r="E2" t="n">
-        <v>0.188597</v>
+        <v>0.143655</v>
       </c>
       <c r="F2" t="n">
-        <v>0.512899</v>
+        <v>0.353851</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.230283</v>
+        <v>0.144167</v>
       </c>
       <c r="C3" t="n">
-        <v>0.530731</v>
+        <v>0.359381</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5633590000000001</v>
+        <v>0.417731</v>
       </c>
       <c r="E3" t="n">
-        <v>0.163662</v>
+        <v>0.141787</v>
       </c>
       <c r="F3" t="n">
-        <v>0.626345</v>
+        <v>0.353963</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.242845</v>
+        <v>0.139974</v>
       </c>
       <c r="C4" t="n">
-        <v>0.420538</v>
+        <v>0.354457</v>
       </c>
       <c r="D4" t="n">
-        <v>0.57997</v>
+        <v>0.416964</v>
       </c>
       <c r="E4" t="n">
-        <v>0.223719</v>
+        <v>0.139909</v>
       </c>
       <c r="F4" t="n">
-        <v>0.675565</v>
+        <v>0.349431</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.205145</v>
+        <v>0.139312</v>
       </c>
       <c r="C5" t="n">
-        <v>0.491536</v>
+        <v>0.351261</v>
       </c>
       <c r="D5" t="n">
-        <v>0.488354</v>
+        <v>0.418013</v>
       </c>
       <c r="E5" t="n">
-        <v>0.196483</v>
+        <v>0.138256</v>
       </c>
       <c r="F5" t="n">
-        <v>0.492845</v>
+        <v>0.349448</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.262356</v>
+        <v>0.136576</v>
       </c>
       <c r="C6" t="n">
-        <v>0.459627</v>
+        <v>0.34204</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5349739999999999</v>
+        <v>0.418986</v>
       </c>
       <c r="E6" t="n">
-        <v>0.22658</v>
+        <v>0.136516</v>
       </c>
       <c r="F6" t="n">
-        <v>0.521446</v>
+        <v>0.345814</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.207944</v>
+        <v>0.132063</v>
       </c>
       <c r="C7" t="n">
-        <v>0.456788</v>
+        <v>0.336564</v>
       </c>
       <c r="D7" t="n">
-        <v>0.534932</v>
+        <v>0.426269</v>
       </c>
       <c r="E7" t="n">
-        <v>0.298452</v>
+        <v>0.133804</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5157</v>
+        <v>0.343825</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.168298</v>
+        <v>0.128538</v>
       </c>
       <c r="C8" t="n">
-        <v>0.534507</v>
+        <v>0.328292</v>
       </c>
       <c r="D8" t="n">
-        <v>0.506339</v>
+        <v>0.42611</v>
       </c>
       <c r="E8" t="n">
-        <v>0.156062</v>
+        <v>0.130798</v>
       </c>
       <c r="F8" t="n">
-        <v>0.546825</v>
+        <v>0.341037</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.178346</v>
+        <v>0.123835</v>
       </c>
       <c r="C9" t="n">
-        <v>0.423749</v>
+        <v>0.329411</v>
       </c>
       <c r="D9" t="n">
-        <v>0.642</v>
+        <v>0.425827</v>
       </c>
       <c r="E9" t="n">
-        <v>0.226616</v>
+        <v>0.166243</v>
       </c>
       <c r="F9" t="n">
-        <v>0.576214</v>
+        <v>0.385904</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.25188</v>
+        <v>0.173606</v>
       </c>
       <c r="C10" t="n">
-        <v>0.579085</v>
+        <v>0.380432</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6042110000000001</v>
+        <v>0.425914</v>
       </c>
       <c r="E10" t="n">
-        <v>0.248604</v>
+        <v>0.188765</v>
       </c>
       <c r="F10" t="n">
-        <v>0.59659</v>
+        <v>0.380366</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.214515</v>
+        <v>0.170728</v>
       </c>
       <c r="C11" t="n">
-        <v>0.57173</v>
+        <v>0.377881</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6289</v>
+        <v>0.427473</v>
       </c>
       <c r="E11" t="n">
-        <v>0.221132</v>
+        <v>0.161329</v>
       </c>
       <c r="F11" t="n">
-        <v>0.676909</v>
+        <v>0.375907</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.267593</v>
+        <v>0.167184</v>
       </c>
       <c r="C12" t="n">
-        <v>0.516548</v>
+        <v>0.375035</v>
       </c>
       <c r="D12" t="n">
-        <v>0.549643</v>
+        <v>0.427309</v>
       </c>
       <c r="E12" t="n">
-        <v>0.207461</v>
+        <v>0.161058</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5274990000000001</v>
+        <v>0.376317</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.257949</v>
+        <v>0.164129</v>
       </c>
       <c r="C13" t="n">
-        <v>0.560735</v>
+        <v>0.375917</v>
       </c>
       <c r="D13" t="n">
-        <v>0.533343</v>
+        <v>0.426353</v>
       </c>
       <c r="E13" t="n">
-        <v>0.237591</v>
+        <v>0.158831</v>
       </c>
       <c r="F13" t="n">
-        <v>0.501342</v>
+        <v>0.374302</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.22451</v>
+        <v>0.16216</v>
       </c>
       <c r="C14" t="n">
-        <v>0.519719</v>
+        <v>0.369815</v>
       </c>
       <c r="D14" t="n">
-        <v>0.500031</v>
+        <v>0.426497</v>
       </c>
       <c r="E14" t="n">
-        <v>0.220252</v>
+        <v>0.155643</v>
       </c>
       <c r="F14" t="n">
-        <v>0.674718</v>
+        <v>0.369502</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.262131</v>
+        <v>0.157164</v>
       </c>
       <c r="C15" t="n">
-        <v>0.629244</v>
+        <v>0.369229</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6137010000000001</v>
+        <v>0.426526</v>
       </c>
       <c r="E15" t="n">
-        <v>0.259957</v>
+        <v>0.15322</v>
       </c>
       <c r="F15" t="n">
-        <v>0.698402</v>
+        <v>0.363927</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.215707</v>
+        <v>0.152921</v>
       </c>
       <c r="C16" t="n">
-        <v>0.463614</v>
+        <v>0.363101</v>
       </c>
       <c r="D16" t="n">
-        <v>0.709804</v>
+        <v>0.426281</v>
       </c>
       <c r="E16" t="n">
-        <v>0.257342</v>
+        <v>0.150882</v>
       </c>
       <c r="F16" t="n">
-        <v>0.647774</v>
+        <v>0.361156</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.244031</v>
+        <v>0.149501</v>
       </c>
       <c r="C17" t="n">
-        <v>0.622096</v>
+        <v>0.359322</v>
       </c>
       <c r="D17" t="n">
-        <v>0.646811</v>
+        <v>0.426336</v>
       </c>
       <c r="E17" t="n">
-        <v>0.171013</v>
+        <v>0.14839</v>
       </c>
       <c r="F17" t="n">
-        <v>0.579135</v>
+        <v>0.364521</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.266182</v>
+        <v>0.147091</v>
       </c>
       <c r="C18" t="n">
-        <v>0.480317</v>
+        <v>0.352817</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5431589999999999</v>
+        <v>0.426207</v>
       </c>
       <c r="E18" t="n">
-        <v>0.299565</v>
+        <v>0.146698</v>
       </c>
       <c r="F18" t="n">
-        <v>0.669669</v>
+        <v>0.35923</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.198387</v>
+        <v>0.143873</v>
       </c>
       <c r="C19" t="n">
-        <v>0.584588</v>
+        <v>0.350924</v>
       </c>
       <c r="D19" t="n">
-        <v>0.906433</v>
+        <v>0.426755</v>
       </c>
       <c r="E19" t="n">
-        <v>0.296897</v>
+        <v>0.144008</v>
       </c>
       <c r="F19" t="n">
-        <v>0.562395</v>
+        <v>0.357812</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.223102</v>
+        <v>0.142145</v>
       </c>
       <c r="C20" t="n">
-        <v>0.633094</v>
+        <v>0.348146</v>
       </c>
       <c r="D20" t="n">
-        <v>0.725939</v>
+        <v>0.425353</v>
       </c>
       <c r="E20" t="n">
-        <v>0.213304</v>
+        <v>0.142278</v>
       </c>
       <c r="F20" t="n">
-        <v>0.530931</v>
+        <v>0.35373</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.197123</v>
+        <v>0.13773</v>
       </c>
       <c r="C21" t="n">
-        <v>0.402745</v>
+        <v>0.343571</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7451</v>
+        <v>0.434323</v>
       </c>
       <c r="E21" t="n">
-        <v>0.188063</v>
+        <v>0.139079</v>
       </c>
       <c r="F21" t="n">
-        <v>0.491731</v>
+        <v>0.350225</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.193972</v>
+        <v>0.134275</v>
       </c>
       <c r="C22" t="n">
-        <v>0.461714</v>
+        <v>0.337794</v>
       </c>
       <c r="D22" t="n">
-        <v>0.721764</v>
+        <v>0.433884</v>
       </c>
       <c r="E22" t="n">
-        <v>0.186941</v>
+        <v>0.137114</v>
       </c>
       <c r="F22" t="n">
-        <v>0.468569</v>
+        <v>0.347016</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.161538</v>
+        <v>0.130389</v>
       </c>
       <c r="C23" t="n">
-        <v>0.616933</v>
+        <v>0.332066</v>
       </c>
       <c r="D23" t="n">
-        <v>0.759117</v>
+        <v>0.433209</v>
       </c>
       <c r="E23" t="n">
-        <v>0.286671</v>
+        <v>0.167724</v>
       </c>
       <c r="F23" t="n">
-        <v>0.562225</v>
+        <v>0.38833</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.323778</v>
+        <v>0.175408</v>
       </c>
       <c r="C24" t="n">
-        <v>0.530869</v>
+        <v>0.382792</v>
       </c>
       <c r="D24" t="n">
-        <v>0.64084</v>
+        <v>0.433196</v>
       </c>
       <c r="E24" t="n">
-        <v>0.338392</v>
+        <v>0.165423</v>
       </c>
       <c r="F24" t="n">
-        <v>0.529131</v>
+        <v>0.386483</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.268376</v>
+        <v>0.172721</v>
       </c>
       <c r="C25" t="n">
-        <v>0.501175</v>
+        <v>0.382248</v>
       </c>
       <c r="D25" t="n">
-        <v>0.715537</v>
+        <v>0.432376</v>
       </c>
       <c r="E25" t="n">
-        <v>0.367731</v>
+        <v>0.162847</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7156979999999999</v>
+        <v>0.375381</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.279423</v>
+        <v>0.169881</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7047</v>
+        <v>0.379954</v>
       </c>
       <c r="D26" t="n">
-        <v>0.921942</v>
+        <v>0.43295</v>
       </c>
       <c r="E26" t="n">
-        <v>0.326461</v>
+        <v>0.160868</v>
       </c>
       <c r="F26" t="n">
-        <v>0.722792</v>
+        <v>0.376545</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.341432</v>
+        <v>0.166341</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7434190000000001</v>
+        <v>0.376092</v>
       </c>
       <c r="D27" t="n">
-        <v>0.928692</v>
+        <v>0.431297</v>
       </c>
       <c r="E27" t="n">
-        <v>0.288145</v>
+        <v>0.158483</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7337669999999999</v>
+        <v>0.373141</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.316245</v>
+        <v>0.162639</v>
       </c>
       <c r="C28" t="n">
-        <v>0.734482</v>
+        <v>0.370998</v>
       </c>
       <c r="D28" t="n">
-        <v>0.78313</v>
+        <v>0.432718</v>
       </c>
       <c r="E28" t="n">
-        <v>0.318606</v>
+        <v>0.156559</v>
       </c>
       <c r="F28" t="n">
-        <v>0.811416</v>
+        <v>0.369204</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.333347</v>
+        <v>0.159691</v>
       </c>
       <c r="C29" t="n">
-        <v>0.81204</v>
+        <v>0.365401</v>
       </c>
       <c r="D29" t="n">
-        <v>0.905014</v>
+        <v>0.431441</v>
       </c>
       <c r="E29" t="n">
-        <v>0.202962</v>
+        <v>0.154583</v>
       </c>
       <c r="F29" t="n">
-        <v>0.653151</v>
+        <v>0.365573</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.266111</v>
+        <v>0.156631</v>
       </c>
       <c r="C30" t="n">
-        <v>0.551631</v>
+        <v>0.363224</v>
       </c>
       <c r="D30" t="n">
-        <v>0.784238</v>
+        <v>0.432025</v>
       </c>
       <c r="E30" t="n">
-        <v>0.306047</v>
+        <v>0.152529</v>
       </c>
       <c r="F30" t="n">
-        <v>0.672901</v>
+        <v>0.365701</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.292537</v>
+        <v>0.153064</v>
       </c>
       <c r="C31" t="n">
-        <v>0.570357</v>
+        <v>0.358767</v>
       </c>
       <c r="D31" t="n">
-        <v>0.664683</v>
+        <v>0.429748</v>
       </c>
       <c r="E31" t="n">
-        <v>0.249966</v>
+        <v>0.149789</v>
       </c>
       <c r="F31" t="n">
-        <v>0.542842</v>
+        <v>0.362496</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.287497</v>
+        <v>0.150123</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5656060000000001</v>
+        <v>0.354928</v>
       </c>
       <c r="D32" t="n">
-        <v>0.647634</v>
+        <v>0.430784</v>
       </c>
       <c r="E32" t="n">
-        <v>0.30645</v>
+        <v>0.147948</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6413450000000001</v>
+        <v>0.364368</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.248027</v>
+        <v>0.146829</v>
       </c>
       <c r="C33" t="n">
-        <v>0.638419</v>
+        <v>0.35319</v>
       </c>
       <c r="D33" t="n">
-        <v>0.608436</v>
+        <v>0.430933</v>
       </c>
       <c r="E33" t="n">
-        <v>0.273823</v>
+        <v>0.146327</v>
       </c>
       <c r="F33" t="n">
-        <v>0.406518</v>
+        <v>0.359263</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.262876</v>
+        <v>0.143846</v>
       </c>
       <c r="C34" t="n">
-        <v>0.57842</v>
+        <v>0.350877</v>
       </c>
       <c r="D34" t="n">
-        <v>0.644903</v>
+        <v>0.430536</v>
       </c>
       <c r="E34" t="n">
-        <v>0.301584</v>
+        <v>0.144354</v>
       </c>
       <c r="F34" t="n">
-        <v>0.445877</v>
+        <v>0.357054</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.298463</v>
+        <v>0.1409</v>
       </c>
       <c r="C35" t="n">
-        <v>0.642764</v>
+        <v>0.350371</v>
       </c>
       <c r="D35" t="n">
-        <v>0.717486</v>
+        <v>0.439536</v>
       </c>
       <c r="E35" t="n">
-        <v>0.242291</v>
+        <v>0.141805</v>
       </c>
       <c r="F35" t="n">
-        <v>0.580793</v>
+        <v>0.35211</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.203767</v>
+        <v>0.137309</v>
       </c>
       <c r="C36" t="n">
-        <v>0.563105</v>
+        <v>0.341033</v>
       </c>
       <c r="D36" t="n">
-        <v>0.566245</v>
+        <v>0.439191</v>
       </c>
       <c r="E36" t="n">
-        <v>0.224127</v>
+        <v>0.138909</v>
       </c>
       <c r="F36" t="n">
-        <v>0.77751</v>
+        <v>0.347149</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.266498</v>
+        <v>0.133057</v>
       </c>
       <c r="C37" t="n">
-        <v>0.629532</v>
+        <v>0.33986</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5524559999999999</v>
+        <v>0.437763</v>
       </c>
       <c r="E37" t="n">
-        <v>0.312979</v>
+        <v>0.172649</v>
       </c>
       <c r="F37" t="n">
-        <v>0.696414</v>
+        <v>0.389537</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.370813</v>
+        <v>0.177169</v>
       </c>
       <c r="C38" t="n">
-        <v>0.772842</v>
+        <v>0.386925</v>
       </c>
       <c r="D38" t="n">
-        <v>0.892373</v>
+        <v>0.437503</v>
       </c>
       <c r="E38" t="n">
-        <v>0.334806</v>
+        <v>0.169635</v>
       </c>
       <c r="F38" t="n">
-        <v>0.719509</v>
+        <v>0.385464</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.394722</v>
+        <v>0.174265</v>
       </c>
       <c r="C39" t="n">
-        <v>0.745777</v>
+        <v>0.384706</v>
       </c>
       <c r="D39" t="n">
-        <v>0.858308</v>
+        <v>0.435893</v>
       </c>
       <c r="E39" t="n">
-        <v>0.345932</v>
+        <v>0.166412</v>
       </c>
       <c r="F39" t="n">
-        <v>0.759216</v>
+        <v>0.380424</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.321435</v>
+        <v>0.171317</v>
       </c>
       <c r="C40" t="n">
-        <v>0.720612</v>
+        <v>0.382452</v>
       </c>
       <c r="D40" t="n">
-        <v>0.94576</v>
+        <v>0.4356</v>
       </c>
       <c r="E40" t="n">
-        <v>0.287528</v>
+        <v>0.163626</v>
       </c>
       <c r="F40" t="n">
-        <v>0.503398</v>
+        <v>0.375773</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.295327</v>
+        <v>0.167594</v>
       </c>
       <c r="C41" t="n">
-        <v>0.706004</v>
+        <v>0.375356</v>
       </c>
       <c r="D41" t="n">
-        <v>0.911919</v>
+        <v>0.435659</v>
       </c>
       <c r="E41" t="n">
-        <v>0.376548</v>
+        <v>0.160903</v>
       </c>
       <c r="F41" t="n">
-        <v>0.592761</v>
+        <v>0.376525</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.326829</v>
+        <v>0.163812</v>
       </c>
       <c r="C42" t="n">
-        <v>0.785937</v>
+        <v>0.375962</v>
       </c>
       <c r="D42" t="n">
-        <v>0.941693</v>
+        <v>0.435211</v>
       </c>
       <c r="E42" t="n">
-        <v>0.271816</v>
+        <v>0.159237</v>
       </c>
       <c r="F42" t="n">
-        <v>0.783464</v>
+        <v>0.374945</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.313708</v>
+        <v>0.160463</v>
       </c>
       <c r="C43" t="n">
-        <v>0.871714</v>
+        <v>0.372647</v>
       </c>
       <c r="D43" t="n">
-        <v>0.96901</v>
+        <v>0.434091</v>
       </c>
       <c r="E43" t="n">
-        <v>0.349908</v>
+        <v>0.157167</v>
       </c>
       <c r="F43" t="n">
-        <v>0.641025</v>
+        <v>0.371459</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.267782</v>
+        <v>0.157012</v>
       </c>
       <c r="C44" t="n">
-        <v>0.724099</v>
+        <v>0.368919</v>
       </c>
       <c r="D44" t="n">
-        <v>0.732725</v>
+        <v>0.434139</v>
       </c>
       <c r="E44" t="n">
-        <v>0.254369</v>
+        <v>0.154914</v>
       </c>
       <c r="F44" t="n">
-        <v>0.641643</v>
+        <v>0.369023</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.287067</v>
+        <v>0.153771</v>
       </c>
       <c r="C45" t="n">
-        <v>0.794059</v>
+        <v>0.365702</v>
       </c>
       <c r="D45" t="n">
-        <v>0.899173</v>
+        <v>0.435232</v>
       </c>
       <c r="E45" t="n">
-        <v>0.319925</v>
+        <v>0.152593</v>
       </c>
       <c r="F45" t="n">
-        <v>0.721039</v>
+        <v>0.366211</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.259338</v>
+        <v>0.150604</v>
       </c>
       <c r="C46" t="n">
-        <v>0.713549</v>
+        <v>0.364203</v>
       </c>
       <c r="D46" t="n">
-        <v>1.01233</v>
+        <v>0.433089</v>
       </c>
       <c r="E46" t="n">
-        <v>0.285998</v>
+        <v>0.150798</v>
       </c>
       <c r="F46" t="n">
-        <v>0.724952</v>
+        <v>0.362722</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.245158</v>
+        <v>0.147439</v>
       </c>
       <c r="C47" t="n">
-        <v>0.753946</v>
+        <v>0.35801</v>
       </c>
       <c r="D47" t="n">
-        <v>0.84415</v>
+        <v>0.433642</v>
       </c>
       <c r="E47" t="n">
-        <v>0.197176</v>
+        <v>0.148616</v>
       </c>
       <c r="F47" t="n">
-        <v>0.695002</v>
+        <v>0.359393</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.267364</v>
+        <v>0.144538</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7834410000000001</v>
+        <v>0.353722</v>
       </c>
       <c r="D48" t="n">
-        <v>1.02396</v>
+        <v>0.433515</v>
       </c>
       <c r="E48" t="n">
-        <v>0.303863</v>
+        <v>0.146397</v>
       </c>
       <c r="F48" t="n">
-        <v>0.717214</v>
+        <v>0.357311</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.195055</v>
+        <v>0.14162</v>
       </c>
       <c r="C49" t="n">
-        <v>0.721801</v>
+        <v>0.352934</v>
       </c>
       <c r="D49" t="n">
-        <v>0.717202</v>
+        <v>0.433224</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2665</v>
+        <v>0.144524</v>
       </c>
       <c r="F49" t="n">
-        <v>0.634266</v>
+        <v>0.354269</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.255272</v>
+        <v>0.137984</v>
       </c>
       <c r="C50" t="n">
-        <v>0.586777</v>
+        <v>0.347539</v>
       </c>
       <c r="D50" t="n">
-        <v>0.805646</v>
+        <v>0.441986</v>
       </c>
       <c r="E50" t="n">
-        <v>0.268762</v>
+        <v>0.142063</v>
       </c>
       <c r="F50" t="n">
-        <v>0.716208</v>
+        <v>0.351558</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.232922</v>
+        <v>0.133893</v>
       </c>
       <c r="C51" t="n">
-        <v>0.61106</v>
+        <v>0.338367</v>
       </c>
       <c r="D51" t="n">
-        <v>0.604832</v>
+        <v>0.439817</v>
       </c>
       <c r="E51" t="n">
-        <v>0.274335</v>
+        <v>0.175069</v>
       </c>
       <c r="F51" t="n">
-        <v>0.708094</v>
+        <v>0.389022</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.253182</v>
+        <v>0.128277</v>
       </c>
       <c r="C52" t="n">
-        <v>0.533776</v>
+        <v>0.333677</v>
       </c>
       <c r="D52" t="n">
-        <v>0.790798</v>
+        <v>0.440406</v>
       </c>
       <c r="E52" t="n">
-        <v>0.305616</v>
+        <v>0.171281</v>
       </c>
       <c r="F52" t="n">
-        <v>0.88039</v>
+        <v>0.386252</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.357755</v>
+        <v>0.174163</v>
       </c>
       <c r="C53" t="n">
-        <v>0.812322</v>
+        <v>0.389854</v>
       </c>
       <c r="D53" t="n">
-        <v>1.03077</v>
+        <v>0.439389</v>
       </c>
       <c r="E53" t="n">
-        <v>0.353779</v>
+        <v>0.169575</v>
       </c>
       <c r="F53" t="n">
-        <v>0.675664</v>
+        <v>0.38826</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.305219</v>
+        <v>0.172004</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7849080000000001</v>
+        <v>0.388284</v>
       </c>
       <c r="D54" t="n">
-        <v>0.828549</v>
+        <v>0.440277</v>
       </c>
       <c r="E54" t="n">
-        <v>0.276748</v>
+        <v>0.165997</v>
       </c>
       <c r="F54" t="n">
-        <v>0.730361</v>
+        <v>0.381241</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.339313</v>
+        <v>0.168385</v>
       </c>
       <c r="C55" t="n">
-        <v>0.855928</v>
+        <v>0.385987</v>
       </c>
       <c r="D55" t="n">
-        <v>0.789283</v>
+        <v>0.437496</v>
       </c>
       <c r="E55" t="n">
-        <v>0.356807</v>
+        <v>0.163228</v>
       </c>
       <c r="F55" t="n">
-        <v>0.89978</v>
+        <v>0.377023</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.331499</v>
+        <v>0.164978</v>
       </c>
       <c r="C56" t="n">
-        <v>0.873654</v>
+        <v>0.38402</v>
       </c>
       <c r="D56" t="n">
-        <v>0.995497</v>
+        <v>0.436212</v>
       </c>
       <c r="E56" t="n">
-        <v>0.34888</v>
+        <v>0.161016</v>
       </c>
       <c r="F56" t="n">
-        <v>0.913061</v>
+        <v>0.380922</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.350751</v>
+        <v>0.161577</v>
       </c>
       <c r="C57" t="n">
-        <v>0.875659</v>
+        <v>0.383776</v>
       </c>
       <c r="D57" t="n">
-        <v>0.965848</v>
+        <v>0.441375</v>
       </c>
       <c r="E57" t="n">
-        <v>0.364223</v>
+        <v>0.158965</v>
       </c>
       <c r="F57" t="n">
-        <v>0.795337</v>
+        <v>0.381911</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.290854</v>
+        <v>0.158055</v>
       </c>
       <c r="C58" t="n">
-        <v>0.715358</v>
+        <v>0.375596</v>
       </c>
       <c r="D58" t="n">
-        <v>0.911921</v>
+        <v>0.439832</v>
       </c>
       <c r="E58" t="n">
-        <v>0.288542</v>
+        <v>0.15673</v>
       </c>
       <c r="F58" t="n">
-        <v>0.780549</v>
+        <v>0.375515</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.325978</v>
+        <v>0.155124</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7955179999999999</v>
+        <v>0.386214</v>
       </c>
       <c r="D59" t="n">
-        <v>0.980945</v>
+        <v>0.441453</v>
       </c>
       <c r="E59" t="n">
-        <v>0.322012</v>
+        <v>0.154583</v>
       </c>
       <c r="F59" t="n">
-        <v>0.811544</v>
+        <v>0.36681</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.346309</v>
+        <v>0.151816</v>
       </c>
       <c r="C60" t="n">
-        <v>0.868606</v>
+        <v>0.37293</v>
       </c>
       <c r="D60" t="n">
-        <v>0.974584</v>
+        <v>0.438703</v>
       </c>
       <c r="E60" t="n">
-        <v>0.311237</v>
+        <v>0.152336</v>
       </c>
       <c r="F60" t="n">
-        <v>0.8945149999999999</v>
+        <v>0.376826</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.299764</v>
+        <v>0.14871</v>
       </c>
       <c r="C61" t="n">
-        <v>0.854639</v>
+        <v>0.382434</v>
       </c>
       <c r="D61" t="n">
-        <v>0.877771</v>
+        <v>0.448356</v>
       </c>
       <c r="E61" t="n">
-        <v>0.311073</v>
+        <v>0.150301</v>
       </c>
       <c r="F61" t="n">
-        <v>0.869403</v>
+        <v>0.388765</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.310726</v>
+        <v>0.145824</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8136330000000001</v>
+        <v>0.378163</v>
       </c>
       <c r="D62" t="n">
-        <v>0.990839</v>
+        <v>0.448261</v>
       </c>
       <c r="E62" t="n">
-        <v>0.297871</v>
+        <v>0.147899</v>
       </c>
       <c r="F62" t="n">
-        <v>0.906049</v>
+        <v>0.372083</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.270534</v>
+        <v>0.142893</v>
       </c>
       <c r="C63" t="n">
-        <v>0.768355</v>
+        <v>0.374525</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8907620000000001</v>
+        <v>0.45371</v>
       </c>
       <c r="E63" t="n">
-        <v>0.281112</v>
+        <v>0.145789</v>
       </c>
       <c r="F63" t="n">
-        <v>0.830416</v>
+        <v>0.382723</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.288725</v>
+        <v>0.139607</v>
       </c>
       <c r="C64" t="n">
-        <v>0.794214</v>
+        <v>0.391016</v>
       </c>
       <c r="D64" t="n">
-        <v>0.955344</v>
+        <v>0.5085499999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>0.340815</v>
+        <v>0.143455</v>
       </c>
       <c r="F64" t="n">
-        <v>0.85447</v>
+        <v>0.392685</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.25603</v>
+        <v>0.135396</v>
       </c>
       <c r="C65" t="n">
-        <v>0.817482</v>
+        <v>0.39817</v>
       </c>
       <c r="D65" t="n">
-        <v>0.984778</v>
+        <v>0.511829</v>
       </c>
       <c r="E65" t="n">
-        <v>0.332199</v>
+        <v>0.14064</v>
       </c>
       <c r="F65" t="n">
-        <v>0.798594</v>
+        <v>0.384962</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.285154</v>
+        <v>0.130456</v>
       </c>
       <c r="C66" t="n">
-        <v>0.77803</v>
+        <v>0.395125</v>
       </c>
       <c r="D66" t="n">
-        <v>1.07952</v>
+        <v>0.517249</v>
       </c>
       <c r="E66" t="n">
-        <v>0.372724</v>
+        <v>0.172754</v>
       </c>
       <c r="F66" t="n">
-        <v>0.861797</v>
+        <v>0.475355</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.352398</v>
+        <v>0.175596</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9239270000000001</v>
+        <v>0.513191</v>
       </c>
       <c r="D67" t="n">
-        <v>0.925403</v>
+        <v>0.520459</v>
       </c>
       <c r="E67" t="n">
-        <v>0.342545</v>
+        <v>0.16968</v>
       </c>
       <c r="F67" t="n">
-        <v>0.914297</v>
+        <v>0.477467</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.390909</v>
+        <v>0.173051</v>
       </c>
       <c r="C68" t="n">
-        <v>0.992545</v>
+        <v>0.5103490000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.98023</v>
+        <v>0.522733</v>
       </c>
       <c r="E68" t="n">
-        <v>0.394626</v>
+        <v>0.167088</v>
       </c>
       <c r="F68" t="n">
-        <v>0.955053</v>
+        <v>0.481212</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.382143</v>
+        <v>0.16953</v>
       </c>
       <c r="C69" t="n">
-        <v>0.960252</v>
+        <v>0.515124</v>
       </c>
       <c r="D69" t="n">
-        <v>0.984608</v>
+        <v>0.528783</v>
       </c>
       <c r="E69" t="n">
-        <v>0.345389</v>
+        <v>0.16473</v>
       </c>
       <c r="F69" t="n">
-        <v>0.969038</v>
+        <v>0.482116</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.353353</v>
+        <v>0.16608</v>
       </c>
       <c r="C70" t="n">
-        <v>1.02798</v>
+        <v>0.509891</v>
       </c>
       <c r="D70" t="n">
-        <v>1.08988</v>
+        <v>0.530663</v>
       </c>
       <c r="E70" t="n">
-        <v>0.331951</v>
+        <v>0.162255</v>
       </c>
       <c r="F70" t="n">
-        <v>0.924306</v>
+        <v>0.480138</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.346561</v>
+        <v>0.162678</v>
       </c>
       <c r="C71" t="n">
-        <v>0.925368</v>
+        <v>0.507622</v>
       </c>
       <c r="D71" t="n">
-        <v>1.02907</v>
+        <v>0.533515</v>
       </c>
       <c r="E71" t="n">
-        <v>0.2739</v>
+        <v>0.160098</v>
       </c>
       <c r="F71" t="n">
-        <v>0.870265</v>
+        <v>0.475893</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.323042</v>
+        <v>0.159271</v>
       </c>
       <c r="C72" t="n">
-        <v>0.963601</v>
+        <v>0.505556</v>
       </c>
       <c r="D72" t="n">
-        <v>0.957214</v>
+        <v>0.535656</v>
       </c>
       <c r="E72" t="n">
-        <v>0.297196</v>
+        <v>0.157702</v>
       </c>
       <c r="F72" t="n">
-        <v>0.981248</v>
+        <v>0.478667</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.305245</v>
+        <v>0.155749</v>
       </c>
       <c r="C73" t="n">
-        <v>0.954749</v>
+        <v>0.505132</v>
       </c>
       <c r="D73" t="n">
-        <v>1.01107</v>
+        <v>0.537641</v>
       </c>
       <c r="E73" t="n">
-        <v>0.359591</v>
+        <v>0.155446</v>
       </c>
       <c r="F73" t="n">
-        <v>0.999067</v>
+        <v>0.472942</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.332615</v>
+        <v>0.152442</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9513</v>
+        <v>0.498357</v>
       </c>
       <c r="D74" t="n">
-        <v>1.06443</v>
+        <v>0.540415</v>
       </c>
       <c r="E74" t="n">
-        <v>0.370236</v>
+        <v>0.153213</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9617830000000001</v>
+        <v>0.474359</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.289249</v>
+        <v>0.14962</v>
       </c>
       <c r="C75" t="n">
-        <v>0.916228</v>
+        <v>0.497374</v>
       </c>
       <c r="D75" t="n">
-        <v>1.01491</v>
+        <v>0.541708</v>
       </c>
       <c r="E75" t="n">
-        <v>0.267483</v>
+        <v>0.15083</v>
       </c>
       <c r="F75" t="n">
-        <v>0.888414</v>
+        <v>0.47347</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.285794</v>
+        <v>0.146488</v>
       </c>
       <c r="C76" t="n">
-        <v>0.935015</v>
+        <v>0.490491</v>
       </c>
       <c r="D76" t="n">
-        <v>1.053</v>
+        <v>0.543256</v>
       </c>
       <c r="E76" t="n">
-        <v>0.341898</v>
+        <v>0.148559</v>
       </c>
       <c r="F76" t="n">
-        <v>0.939692</v>
+        <v>0.472615</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.336654</v>
+        <v>0.143188</v>
       </c>
       <c r="C77" t="n">
-        <v>0.909532</v>
+        <v>0.489061</v>
       </c>
       <c r="D77" t="n">
-        <v>0.943865</v>
+        <v>0.543869</v>
       </c>
       <c r="E77" t="n">
-        <v>0.293239</v>
+        <v>0.146141</v>
       </c>
       <c r="F77" t="n">
-        <v>0.927254</v>
+        <v>0.464488</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.306814</v>
+        <v>0.139932</v>
       </c>
       <c r="C78" t="n">
-        <v>0.855483</v>
+        <v>0.480707</v>
       </c>
       <c r="D78" t="n">
-        <v>1.09157</v>
+        <v>0.569753</v>
       </c>
       <c r="E78" t="n">
-        <v>0.300833</v>
+        <v>0.144109</v>
       </c>
       <c r="F78" t="n">
-        <v>0.868104</v>
+        <v>0.465759</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.292519</v>
+        <v>0.136039</v>
       </c>
       <c r="C79" t="n">
-        <v>0.915188</v>
+        <v>0.474835</v>
       </c>
       <c r="D79" t="n">
-        <v>1.09518</v>
+        <v>0.569414</v>
       </c>
       <c r="E79" t="n">
-        <v>0.32225</v>
+        <v>0.141504</v>
       </c>
       <c r="F79" t="n">
-        <v>0.886408</v>
+        <v>0.459129</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.243587</v>
+        <v>0.131338</v>
       </c>
       <c r="C80" t="n">
-        <v>0.876229</v>
+        <v>0.471602</v>
       </c>
       <c r="D80" t="n">
-        <v>1.09617</v>
+        <v>0.569906</v>
       </c>
       <c r="E80" t="n">
-        <v>0.375143</v>
+        <v>0.17453</v>
       </c>
       <c r="F80" t="n">
-        <v>1.07212</v>
+        <v>0.501898</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.369567</v>
+        <v>0.177379</v>
       </c>
       <c r="C81" t="n">
-        <v>0.983919</v>
+        <v>0.531073</v>
       </c>
       <c r="D81" t="n">
-        <v>1.09709</v>
+        <v>0.570232</v>
       </c>
       <c r="E81" t="n">
-        <v>0.36713</v>
+        <v>0.199802</v>
       </c>
       <c r="F81" t="n">
-        <v>0.994264</v>
+        <v>0.497811</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.375033</v>
+        <v>0.174192</v>
       </c>
       <c r="C82" t="n">
-        <v>1.00788</v>
+        <v>0.527417</v>
       </c>
       <c r="D82" t="n">
-        <v>1.1342</v>
+        <v>0.5697140000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>0.316627</v>
+        <v>0.168108</v>
       </c>
       <c r="F82" t="n">
-        <v>0.951854</v>
+        <v>0.495169</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.322532</v>
+        <v>0.171156</v>
       </c>
       <c r="C83" t="n">
-        <v>0.921288</v>
+        <v>0.519434</v>
       </c>
       <c r="D83" t="n">
-        <v>1.08254</v>
+        <v>0.569122</v>
       </c>
       <c r="E83" t="n">
-        <v>0.334626</v>
+        <v>0.170782</v>
       </c>
       <c r="F83" t="n">
-        <v>0.929567</v>
+        <v>0.490129</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.352677</v>
+        <v>0.167581</v>
       </c>
       <c r="C84" t="n">
-        <v>1.12564</v>
+        <v>0.554128</v>
       </c>
       <c r="D84" t="n">
-        <v>1.14961</v>
+        <v>0.601877</v>
       </c>
       <c r="E84" t="n">
-        <v>0.347336</v>
+        <v>0.163046</v>
       </c>
       <c r="F84" t="n">
-        <v>1.09627</v>
+        <v>0.540314</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.387199</v>
+        <v>0.163599</v>
       </c>
       <c r="C85" t="n">
-        <v>1.04651</v>
+        <v>0.552152</v>
       </c>
       <c r="D85" t="n">
-        <v>1.20423</v>
+        <v>0.601626</v>
       </c>
       <c r="E85" t="n">
-        <v>0.300871</v>
+        <v>0.160598</v>
       </c>
       <c r="F85" t="n">
-        <v>1.06223</v>
+        <v>0.532956</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.352401</v>
+        <v>0.160296</v>
       </c>
       <c r="C86" t="n">
-        <v>1.06036</v>
+        <v>0.5407729999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>1.15229</v>
+        <v>0.601657</v>
       </c>
       <c r="E86" t="n">
-        <v>0.286279</v>
+        <v>0.158526</v>
       </c>
       <c r="F86" t="n">
-        <v>1.02372</v>
+        <v>0.5350510000000001</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.332742</v>
+        <v>0.156897</v>
       </c>
       <c r="C87" t="n">
-        <v>1.0583</v>
+        <v>0.542907</v>
       </c>
       <c r="D87" t="n">
-        <v>1.14153</v>
+        <v>0.601637</v>
       </c>
       <c r="E87" t="n">
-        <v>0.337025</v>
+        <v>0.156058</v>
       </c>
       <c r="F87" t="n">
-        <v>1.03064</v>
+        <v>0.527142</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.337466</v>
+        <v>0.153331</v>
       </c>
       <c r="C88" t="n">
-        <v>1.02903</v>
+        <v>0.531929</v>
       </c>
       <c r="D88" t="n">
-        <v>1.21525</v>
+        <v>0.602261</v>
       </c>
       <c r="E88" t="n">
-        <v>0.316937</v>
+        <v>0.153967</v>
       </c>
       <c r="F88" t="n">
-        <v>1.00496</v>
+        <v>0.525574</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.340879</v>
+        <v>0.150212</v>
       </c>
       <c r="C89" t="n">
-        <v>1.04382</v>
+        <v>0.525262</v>
       </c>
       <c r="D89" t="n">
-        <v>1.19512</v>
+        <v>0.601709</v>
       </c>
       <c r="E89" t="n">
-        <v>0.332923</v>
+        <v>0.151897</v>
       </c>
       <c r="F89" t="n">
-        <v>1.01286</v>
+        <v>0.521985</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.303914</v>
+        <v>0.147099</v>
       </c>
       <c r="C90" t="n">
-        <v>0.987531</v>
+        <v>0.525089</v>
       </c>
       <c r="D90" t="n">
-        <v>1.12625</v>
+        <v>0.601589</v>
       </c>
       <c r="E90" t="n">
-        <v>0.308728</v>
+        <v>0.149489</v>
       </c>
       <c r="F90" t="n">
-        <v>0.894501</v>
+        <v>0.5223449999999999</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.290573</v>
+        <v>0.14398</v>
       </c>
       <c r="C91" t="n">
-        <v>0.984985</v>
+        <v>0.5179280000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>1.15156</v>
+        <v>0.600387</v>
       </c>
       <c r="E91" t="n">
-        <v>0.323345</v>
+        <v>0.14714</v>
       </c>
       <c r="F91" t="n">
-        <v>0.963209</v>
+        <v>0.517883</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.289868</v>
+        <v>0.140752</v>
       </c>
       <c r="C92" t="n">
-        <v>0.932134</v>
+        <v>0.512314</v>
       </c>
       <c r="D92" t="n">
-        <v>1.15238</v>
+        <v>0.6013770000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>0.319544</v>
+        <v>0.14496</v>
       </c>
       <c r="F92" t="n">
-        <v>1.05081</v>
+        <v>0.5167</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.249465</v>
+        <v>0.137051</v>
       </c>
       <c r="C93" t="n">
-        <v>0.861722</v>
+        <v>0.50483</v>
       </c>
       <c r="D93" t="n">
-        <v>1.16307</v>
+        <v>0.601803</v>
       </c>
       <c r="E93" t="n">
-        <v>0.25903</v>
+        <v>0.142219</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9431890000000001</v>
+        <v>0.512281</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.265925</v>
+        <v>0.132378</v>
       </c>
       <c r="C94" t="n">
-        <v>0.929347</v>
+        <v>0.499606</v>
       </c>
       <c r="D94" t="n">
-        <v>1.13743</v>
+        <v>0.600146</v>
       </c>
       <c r="E94" t="n">
-        <v>0.345795</v>
+        <v>0.185811</v>
       </c>
       <c r="F94" t="n">
-        <v>1.10126</v>
+        <v>0.548807</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.390989</v>
+        <v>0.177317</v>
       </c>
       <c r="C95" t="n">
-        <v>1.11794</v>
+        <v>0.56504</v>
       </c>
       <c r="D95" t="n">
-        <v>1.16064</v>
+        <v>0.600306</v>
       </c>
       <c r="E95" t="n">
-        <v>0.387502</v>
+        <v>0.202182</v>
       </c>
       <c r="F95" t="n">
-        <v>1.13831</v>
+        <v>0.543771</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.385559</v>
+        <v>0.174794</v>
       </c>
       <c r="C96" t="n">
-        <v>1.13589</v>
+        <v>0.556647</v>
       </c>
       <c r="D96" t="n">
-        <v>1.09408</v>
+        <v>0.599739</v>
       </c>
       <c r="E96" t="n">
-        <v>0.361544</v>
+        <v>0.17106</v>
       </c>
       <c r="F96" t="n">
-        <v>1.09628</v>
+        <v>0.542864</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.313779</v>
+        <v>0.172143</v>
       </c>
       <c r="C97" t="n">
-        <v>1.09491</v>
+        <v>0.552748</v>
       </c>
       <c r="D97" t="n">
-        <v>1.10827</v>
+        <v>0.5999719999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>0.364856</v>
+        <v>0.167507</v>
       </c>
       <c r="F97" t="n">
-        <v>1.1471</v>
+        <v>0.538786</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.349422</v>
+        <v>0.167979</v>
       </c>
       <c r="C98" t="n">
-        <v>1.07695</v>
+        <v>0.552341</v>
       </c>
       <c r="D98" t="n">
-        <v>1.23755</v>
+        <v>0.599581</v>
       </c>
       <c r="E98" t="n">
-        <v>0.372716</v>
+        <v>0.186999</v>
       </c>
       <c r="F98" t="n">
-        <v>1.10805</v>
+        <v>0.5357150000000001</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.391163</v>
+        <v>0.164184</v>
       </c>
       <c r="C99" t="n">
-        <v>1.03541</v>
+        <v>0.546655</v>
       </c>
       <c r="D99" t="n">
-        <v>1.25191</v>
+        <v>0.599453</v>
       </c>
       <c r="E99" t="n">
-        <v>0.331369</v>
+        <v>0.16244</v>
       </c>
       <c r="F99" t="n">
-        <v>0.979123</v>
+        <v>0.532788</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.329748</v>
+        <v>0.160714</v>
       </c>
       <c r="C100" t="n">
-        <v>0.953734</v>
+        <v>0.543764</v>
       </c>
       <c r="D100" t="n">
-        <v>1.11392</v>
+        <v>0.599198</v>
       </c>
       <c r="E100" t="n">
-        <v>0.307602</v>
+        <v>0.159396</v>
       </c>
       <c r="F100" t="n">
-        <v>0.947505</v>
+        <v>0.529878</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.262453</v>
+        <v>0.157395</v>
       </c>
       <c r="C101" t="n">
-        <v>0.882148</v>
+        <v>0.538805</v>
       </c>
       <c r="D101" t="n">
-        <v>1.0845</v>
+        <v>0.598815</v>
       </c>
       <c r="E101" t="n">
-        <v>0.323317</v>
+        <v>0.173322</v>
       </c>
       <c r="F101" t="n">
-        <v>0.899734</v>
+        <v>0.527048</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.323854</v>
+        <v>0.153813</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9698560000000001</v>
+        <v>0.534646</v>
       </c>
       <c r="D102" t="n">
-        <v>1.11435</v>
+        <v>0.598332</v>
       </c>
       <c r="E102" t="n">
-        <v>0.293262</v>
+        <v>0.155488</v>
       </c>
       <c r="F102" t="n">
-        <v>0.962295</v>
+        <v>0.526291</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.35121</v>
+        <v>0.150496</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9951410000000001</v>
+        <v>0.53204</v>
       </c>
       <c r="D103" t="n">
-        <v>1.04013</v>
+        <v>0.5982189999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>0.307701</v>
+        <v>0.15214</v>
       </c>
       <c r="F103" t="n">
-        <v>0.920777</v>
+        <v>0.520837</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.264611</v>
+        <v>0.147452</v>
       </c>
       <c r="C104" t="n">
-        <v>0.927798</v>
+        <v>0.527797</v>
       </c>
       <c r="D104" t="n">
-        <v>0.904439</v>
+        <v>0.598448</v>
       </c>
       <c r="E104" t="n">
-        <v>0.279261</v>
+        <v>0.149897</v>
       </c>
       <c r="F104" t="n">
-        <v>0.88705</v>
+        <v>0.520972</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.263667</v>
+        <v>0.144558</v>
       </c>
       <c r="C105" t="n">
-        <v>0.940533</v>
+        <v>0.523228</v>
       </c>
       <c r="D105" t="n">
-        <v>1.08262</v>
+        <v>0.597506</v>
       </c>
       <c r="E105" t="n">
-        <v>0.266452</v>
+        <v>0.147564</v>
       </c>
       <c r="F105" t="n">
-        <v>0.95477</v>
+        <v>0.522178</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.283161</v>
+        <v>0.141438</v>
       </c>
       <c r="C106" t="n">
-        <v>0.956456</v>
+        <v>0.522555</v>
       </c>
       <c r="D106" t="n">
-        <v>1.09293</v>
+        <v>0.598067</v>
       </c>
       <c r="E106" t="n">
-        <v>0.33303</v>
+        <v>0.145492</v>
       </c>
       <c r="F106" t="n">
-        <v>0.912734</v>
+        <v>0.513817</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.256388</v>
+        <v>0.137717</v>
       </c>
       <c r="C107" t="n">
-        <v>1.00617</v>
+        <v>0.513277</v>
       </c>
       <c r="D107" t="n">
-        <v>1.03927</v>
+        <v>0.584009</v>
       </c>
       <c r="E107" t="n">
-        <v>0.304607</v>
+        <v>0.142864</v>
       </c>
       <c r="F107" t="n">
-        <v>1.0194</v>
+        <v>0.511166</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.260732</v>
+        <v>0.133645</v>
       </c>
       <c r="C108" t="n">
-        <v>0.855111</v>
+        <v>0.505917</v>
       </c>
       <c r="D108" t="n">
-        <v>1.12179</v>
+        <v>0.584139</v>
       </c>
       <c r="E108" t="n">
-        <v>0.302801</v>
+        <v>0.208949</v>
       </c>
       <c r="F108" t="n">
-        <v>0.971093</v>
+        <v>0.555312</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.274572</v>
+        <v>0.12794</v>
       </c>
       <c r="C109" t="n">
-        <v>0.874507</v>
+        <v>0.500603</v>
       </c>
       <c r="D109" t="n">
-        <v>0.906882</v>
+        <v>0.583981</v>
       </c>
       <c r="E109" t="n">
-        <v>0.369444</v>
+        <v>0.203288</v>
       </c>
       <c r="F109" t="n">
-        <v>0.966042</v>
+        <v>0.546133</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.322641</v>
+        <v>0.175531</v>
       </c>
       <c r="C110" t="n">
-        <v>0.945041</v>
+        <v>0.566941</v>
       </c>
       <c r="D110" t="n">
-        <v>1.07899</v>
+        <v>0.585346</v>
       </c>
       <c r="E110" t="n">
-        <v>0.33672</v>
+        <v>0.197881</v>
       </c>
       <c r="F110" t="n">
-        <v>1.03598</v>
+        <v>0.545563</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.361414</v>
+        <v>0.17254</v>
       </c>
       <c r="C111" t="n">
-        <v>0.989614</v>
+        <v>0.560729</v>
       </c>
       <c r="D111" t="n">
-        <v>1.03533</v>
+        <v>0.586346</v>
       </c>
       <c r="E111" t="n">
-        <v>0.330287</v>
+        <v>0.192871</v>
       </c>
       <c r="F111" t="n">
-        <v>1.06289</v>
+        <v>0.542391</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.357407</v>
+        <v>0.168623</v>
       </c>
       <c r="C112" t="n">
-        <v>0.96544</v>
+        <v>0.557507</v>
       </c>
       <c r="D112" t="n">
-        <v>1.0628</v>
+        <v>0.586134</v>
       </c>
       <c r="E112" t="n">
-        <v>0.359882</v>
+        <v>0.172659</v>
       </c>
       <c r="F112" t="n">
-        <v>1.02604</v>
+        <v>0.53667</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.31011</v>
+        <v>0.165843</v>
       </c>
       <c r="C113" t="n">
-        <v>0.838135</v>
+        <v>0.543167</v>
       </c>
       <c r="D113" t="n">
-        <v>1.01054</v>
+        <v>0.58714</v>
       </c>
       <c r="E113" t="n">
-        <v>0.334576</v>
+        <v>0.177393</v>
       </c>
       <c r="F113" t="n">
-        <v>0.895172</v>
+        <v>0.534385</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.300496</v>
+        <v>0.162115</v>
       </c>
       <c r="C114" t="n">
-        <v>0.910426</v>
+        <v>0.540506</v>
       </c>
       <c r="D114" t="n">
-        <v>0.996335</v>
+        <v>0.587221</v>
       </c>
       <c r="E114" t="n">
-        <v>0.368355</v>
+        <v>0.178831</v>
       </c>
       <c r="F114" t="n">
-        <v>0.988016</v>
+        <v>0.532498</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.283294</v>
+        <v>0.15844</v>
       </c>
       <c r="C115" t="n">
-        <v>0.977637</v>
+        <v>0.536257</v>
       </c>
       <c r="D115" t="n">
-        <v>1.01062</v>
+        <v>0.587775</v>
       </c>
       <c r="E115" t="n">
-        <v>0.332893</v>
+        <v>0.16773</v>
       </c>
       <c r="F115" t="n">
-        <v>0.971629</v>
+        <v>0.530918</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.334821</v>
+        <v>0.154928</v>
       </c>
       <c r="C116" t="n">
-        <v>1.00996</v>
+        <v>0.526114</v>
       </c>
       <c r="D116" t="n">
-        <v>1.17485</v>
+        <v>0.587484</v>
       </c>
       <c r="E116" t="n">
-        <v>0.332617</v>
+        <v>0.155369</v>
       </c>
       <c r="F116" t="n">
-        <v>1.01939</v>
+        <v>0.528935</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.321916</v>
+        <v>0.151424</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8932020000000001</v>
+        <v>0.538932</v>
       </c>
       <c r="D117" t="n">
-        <v>1.09284</v>
+        <v>0.588104</v>
       </c>
       <c r="E117" t="n">
-        <v>0.293801</v>
+        <v>0.162268</v>
       </c>
       <c r="F117" t="n">
-        <v>0.974378</v>
+        <v>0.525532</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.279924</v>
+        <v>0.148476</v>
       </c>
       <c r="C118" t="n">
-        <v>0.959244</v>
+        <v>0.533946</v>
       </c>
       <c r="D118" t="n">
-        <v>0.989584</v>
+        <v>0.5882810000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>0.320593</v>
+        <v>0.161793</v>
       </c>
       <c r="F118" t="n">
-        <v>0.955253</v>
+        <v>0.523684</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.234956</v>
+        <v>0.145508</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8967270000000001</v>
+        <v>0.516053</v>
       </c>
       <c r="D119" t="n">
-        <v>1.05503</v>
+        <v>0.588473</v>
       </c>
       <c r="E119" t="n">
-        <v>0.298157</v>
+        <v>0.147998</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9043020000000001</v>
+        <v>0.524536</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.291252</v>
+        <v>0.142445</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9955889999999999</v>
+        <v>0.507229</v>
       </c>
       <c r="D120" t="n">
-        <v>1.04938</v>
+        <v>0.588816</v>
       </c>
       <c r="E120" t="n">
-        <v>0.315705</v>
+        <v>0.145717</v>
       </c>
       <c r="F120" t="n">
-        <v>0.960967</v>
+        <v>0.5167929999999999</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.253077</v>
+        <v>0.138682</v>
       </c>
       <c r="C121" t="n">
-        <v>0.925914</v>
+        <v>0.511119</v>
       </c>
       <c r="D121" t="n">
-        <v>1.26934</v>
+        <v>0.610138</v>
       </c>
       <c r="E121" t="n">
-        <v>0.268999</v>
+        <v>0.143342</v>
       </c>
       <c r="F121" t="n">
-        <v>1.01492</v>
+        <v>0.516738</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.259748</v>
+        <v>0.134544</v>
       </c>
       <c r="C122" t="n">
-        <v>0.873884</v>
+        <v>0.506425</v>
       </c>
       <c r="D122" t="n">
-        <v>1.23076</v>
+        <v>0.60911</v>
       </c>
       <c r="E122" t="n">
-        <v>0.30754</v>
+        <v>0.140687</v>
       </c>
       <c r="F122" t="n">
-        <v>1.02081</v>
+        <v>0.513981</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.263889</v>
+        <v>0.12911</v>
       </c>
       <c r="C123" t="n">
-        <v>0.868797</v>
+        <v>0.490184</v>
       </c>
       <c r="D123" t="n">
-        <v>1.14197</v>
+        <v>0.608506</v>
       </c>
       <c r="E123" t="n">
-        <v>0.275481</v>
+        <v>0.192363</v>
       </c>
       <c r="F123" t="n">
-        <v>1.13735</v>
+        <v>0.547411</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.368169</v>
+        <v>0.175854</v>
       </c>
       <c r="C124" t="n">
-        <v>1.07243</v>
+        <v>0.54867</v>
       </c>
       <c r="D124" t="n">
-        <v>1.06575</v>
+        <v>0.6072959999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>0.33678</v>
+        <v>0.198067</v>
       </c>
       <c r="F124" t="n">
-        <v>1.08762</v>
+        <v>0.548328</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.34623</v>
+        <v>0.173145</v>
       </c>
       <c r="C125" t="n">
-        <v>0.984805</v>
+        <v>0.543751</v>
       </c>
       <c r="D125" t="n">
-        <v>1.12846</v>
+        <v>0.606841</v>
       </c>
       <c r="E125" t="n">
-        <v>0.311236</v>
+        <v>0.193914</v>
       </c>
       <c r="F125" t="n">
-        <v>1.03467</v>
+        <v>0.542984</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.335562</v>
+        <v>0.169842</v>
       </c>
       <c r="C126" t="n">
-        <v>1.04167</v>
+        <v>0.560348</v>
       </c>
       <c r="D126" t="n">
-        <v>1.05165</v>
+        <v>0.605271</v>
       </c>
       <c r="E126" t="n">
-        <v>0.348218</v>
+        <v>0.186763</v>
       </c>
       <c r="F126" t="n">
-        <v>1.00438</v>
+        <v>0.539278</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.268712</v>
+        <v>0.165695</v>
       </c>
       <c r="C127" t="n">
-        <v>0.875928</v>
+        <v>0.535989</v>
       </c>
       <c r="D127" t="n">
-        <v>1.15413</v>
+        <v>0.604851</v>
       </c>
       <c r="E127" t="n">
-        <v>0.331678</v>
+        <v>0.184072</v>
       </c>
       <c r="F127" t="n">
-        <v>1.03048</v>
+        <v>0.537057</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.266588</v>
+        <v>0.162093</v>
       </c>
       <c r="C128" t="n">
-        <v>0.937589</v>
+        <v>0.532027</v>
       </c>
       <c r="D128" t="n">
-        <v>1.07289</v>
+        <v>0.603537</v>
       </c>
       <c r="E128" t="n">
-        <v>0.348178</v>
+        <v>0.163267</v>
       </c>
       <c r="F128" t="n">
-        <v>1.07901</v>
+        <v>0.535664</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.314353</v>
+        <v>0.158918</v>
       </c>
       <c r="C129" t="n">
-        <v>1.00788</v>
+        <v>0.535205</v>
       </c>
       <c r="D129" t="n">
-        <v>0.960267</v>
+        <v>0.6036899999999999</v>
       </c>
       <c r="E129" t="n">
-        <v>0.261317</v>
+        <v>0.163255</v>
       </c>
       <c r="F129" t="n">
-        <v>0.943146</v>
+        <v>0.53101</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.31167</v>
+        <v>0.155216</v>
       </c>
       <c r="C130" t="n">
-        <v>0.853294</v>
+        <v>0.523973</v>
       </c>
       <c r="D130" t="n">
-        <v>1.07148</v>
+        <v>0.603596</v>
       </c>
       <c r="E130" t="n">
-        <v>0.339255</v>
+        <v>0.171383</v>
       </c>
       <c r="F130" t="n">
-        <v>1.00323</v>
+        <v>0.526996</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.312705</v>
+        <v>0.151966</v>
       </c>
       <c r="C131" t="n">
-        <v>0.939307</v>
+        <v>0.538201</v>
       </c>
       <c r="D131" t="n">
-        <v>1.00431</v>
+        <v>0.602694</v>
       </c>
       <c r="E131" t="n">
-        <v>0.37417</v>
+        <v>0.153773</v>
       </c>
       <c r="F131" t="n">
-        <v>1.04527</v>
+        <v>0.525517</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.288527</v>
+        <v>0.14879</v>
       </c>
       <c r="C132" t="n">
-        <v>0.842867</v>
+        <v>0.515286</v>
       </c>
       <c r="D132" t="n">
-        <v>1.03661</v>
+        <v>0.60231</v>
       </c>
       <c r="E132" t="n">
-        <v>0.344998</v>
+        <v>0.15147</v>
       </c>
       <c r="F132" t="n">
-        <v>0.948991</v>
+        <v>0.5228429999999999</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.300133</v>
+        <v>0.145987</v>
       </c>
       <c r="C133" t="n">
-        <v>0.869135</v>
+        <v>0.511543</v>
       </c>
       <c r="D133" t="n">
-        <v>0.845664</v>
+        <v>0.60154</v>
       </c>
       <c r="E133" t="n">
-        <v>0.299616</v>
+        <v>0.148769</v>
       </c>
       <c r="F133" t="n">
-        <v>1.03286</v>
+        <v>0.5162910000000001</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.281231</v>
+        <v>0.142687</v>
       </c>
       <c r="C134" t="n">
-        <v>0.916629</v>
+        <v>0.52561</v>
       </c>
       <c r="D134" t="n">
-        <v>1.00871</v>
+        <v>0.601151</v>
       </c>
       <c r="E134" t="n">
-        <v>0.294884</v>
+        <v>0.146488</v>
       </c>
       <c r="F134" t="n">
-        <v>0.881463</v>
+        <v>0.516674</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.284614</v>
+        <v>0.139357</v>
       </c>
       <c r="C135" t="n">
-        <v>0.793826</v>
+        <v>0.511351</v>
       </c>
       <c r="D135" t="n">
-        <v>1.03069</v>
+        <v>0.614652</v>
       </c>
       <c r="E135" t="n">
-        <v>0.26968</v>
+        <v>0.143972</v>
       </c>
       <c r="F135" t="n">
-        <v>0.923556</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.276212</v>
+        <v>0.135315</v>
       </c>
       <c r="C136" t="n">
-        <v>0.829826</v>
+        <v>0.495559</v>
       </c>
       <c r="D136" t="n">
-        <v>1.0108</v>
+        <v>0.614418</v>
       </c>
       <c r="E136" t="n">
-        <v>0.310851</v>
+        <v>0.141224</v>
       </c>
       <c r="F136" t="n">
-        <v>0.908071</v>
+        <v>0.513637</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.270945</v>
+        <v>0.130455</v>
       </c>
       <c r="C137" t="n">
-        <v>0.915063</v>
+        <v>0.504518</v>
       </c>
       <c r="D137" t="n">
-        <v>1.07581</v>
+        <v>0.613472</v>
       </c>
       <c r="E137" t="n">
-        <v>0.366581</v>
+        <v>0.204933</v>
       </c>
       <c r="F137" t="n">
-        <v>0.962387</v>
+        <v>0.548038</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.311438</v>
+        <v>0.176468</v>
       </c>
       <c r="C138" t="n">
-        <v>0.857281</v>
+        <v>0.561971</v>
       </c>
       <c r="D138" t="n">
-        <v>0.928078</v>
+        <v>0.610968</v>
       </c>
       <c r="E138" t="n">
-        <v>0.331752</v>
+        <v>0.20017</v>
       </c>
       <c r="F138" t="n">
-        <v>0.838268</v>
+        <v>0.54726</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.33676</v>
+        <v>0.173362</v>
       </c>
       <c r="C139" t="n">
-        <v>0.908025</v>
+        <v>0.543551</v>
       </c>
       <c r="D139" t="n">
-        <v>0.853764</v>
+        <v>0.610465</v>
       </c>
       <c r="E139" t="n">
-        <v>0.348597</v>
+        <v>0.195056</v>
       </c>
       <c r="F139" t="n">
-        <v>0.876368</v>
+        <v>0.544007</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.29865</v>
+        <v>0.170245</v>
       </c>
       <c r="C140" t="n">
-        <v>0.829956</v>
+        <v>0.546041</v>
       </c>
       <c r="D140" t="n">
-        <v>0.997463</v>
+        <v>0.6098</v>
       </c>
       <c r="E140" t="n">
-        <v>0.349053</v>
+        <v>0.190163</v>
       </c>
       <c r="F140" t="n">
-        <v>0.878001</v>
+        <v>0.537791</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.347347</v>
+        <v>0.166555</v>
       </c>
       <c r="C141" t="n">
-        <v>0.97807</v>
+        <v>0.535044</v>
       </c>
       <c r="D141" t="n">
-        <v>0.996063</v>
+        <v>0.60851</v>
       </c>
       <c r="E141" t="n">
-        <v>0.27703</v>
+        <v>0.176559</v>
       </c>
       <c r="F141" t="n">
-        <v>1.0058</v>
+        <v>0.53528</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.319691</v>
+        <v>0.163153</v>
       </c>
       <c r="C142" t="n">
-        <v>0.886147</v>
+        <v>0.530778</v>
       </c>
       <c r="D142" t="n">
-        <v>1.0241</v>
+        <v>0.607607</v>
       </c>
       <c r="E142" t="n">
-        <v>0.333838</v>
+        <v>0.179485</v>
       </c>
       <c r="F142" t="n">
-        <v>0.869502</v>
+        <v>0.532353</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.29691</v>
+        <v>0.159388</v>
       </c>
       <c r="C143" t="n">
-        <v>0.721668</v>
+        <v>0.540467</v>
       </c>
       <c r="D143" t="n">
-        <v>0.93064</v>
+        <v>0.607507</v>
       </c>
       <c r="E143" t="n">
-        <v>0.310907</v>
+        <v>0.172601</v>
       </c>
       <c r="F143" t="n">
-        <v>0.902545</v>
+        <v>0.52826</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.147098</v>
+        <v>0.146098</v>
       </c>
       <c r="C2" t="n">
-        <v>0.36207</v>
+        <v>0.362098</v>
       </c>
       <c r="D2" t="n">
-        <v>0.417662</v>
+        <v>0.400161</v>
       </c>
       <c r="E2" t="n">
-        <v>0.143655</v>
+        <v>0.137208</v>
       </c>
       <c r="F2" t="n">
-        <v>0.353851</v>
+        <v>0.360525</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.144167</v>
+        <v>0.143077</v>
       </c>
       <c r="C3" t="n">
-        <v>0.359381</v>
+        <v>0.357708</v>
       </c>
       <c r="D3" t="n">
-        <v>0.417731</v>
+        <v>0.400759</v>
       </c>
       <c r="E3" t="n">
-        <v>0.141787</v>
+        <v>0.135447</v>
       </c>
       <c r="F3" t="n">
-        <v>0.353963</v>
+        <v>0.359603</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.139974</v>
+        <v>0.142177</v>
       </c>
       <c r="C4" t="n">
-        <v>0.354457</v>
+        <v>0.354137</v>
       </c>
       <c r="D4" t="n">
-        <v>0.416964</v>
+        <v>0.400607</v>
       </c>
       <c r="E4" t="n">
-        <v>0.139909</v>
+        <v>0.134566</v>
       </c>
       <c r="F4" t="n">
-        <v>0.349431</v>
+        <v>0.358296</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.139312</v>
+        <v>0.138937</v>
       </c>
       <c r="C5" t="n">
-        <v>0.351261</v>
+        <v>0.351098</v>
       </c>
       <c r="D5" t="n">
-        <v>0.418013</v>
+        <v>0.402911</v>
       </c>
       <c r="E5" t="n">
-        <v>0.138256</v>
+        <v>0.132717</v>
       </c>
       <c r="F5" t="n">
-        <v>0.349448</v>
+        <v>0.356339</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.136576</v>
+        <v>0.13675</v>
       </c>
       <c r="C6" t="n">
-        <v>0.34204</v>
+        <v>0.342874</v>
       </c>
       <c r="D6" t="n">
-        <v>0.418986</v>
+        <v>0.404039</v>
       </c>
       <c r="E6" t="n">
-        <v>0.136516</v>
+        <v>0.130751</v>
       </c>
       <c r="F6" t="n">
-        <v>0.345814</v>
+        <v>0.354723</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.132063</v>
+        <v>0.132992</v>
       </c>
       <c r="C7" t="n">
-        <v>0.336564</v>
+        <v>0.336913</v>
       </c>
       <c r="D7" t="n">
-        <v>0.426269</v>
+        <v>0.406807</v>
       </c>
       <c r="E7" t="n">
-        <v>0.133804</v>
+        <v>0.129098</v>
       </c>
       <c r="F7" t="n">
-        <v>0.343825</v>
+        <v>0.352043</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.128538</v>
+        <v>0.129387</v>
       </c>
       <c r="C8" t="n">
-        <v>0.328292</v>
+        <v>0.331398</v>
       </c>
       <c r="D8" t="n">
-        <v>0.42611</v>
+        <v>0.407129</v>
       </c>
       <c r="E8" t="n">
-        <v>0.130798</v>
+        <v>0.126717</v>
       </c>
       <c r="F8" t="n">
-        <v>0.341037</v>
+        <v>0.348373</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.123835</v>
+        <v>0.125227</v>
       </c>
       <c r="C9" t="n">
-        <v>0.329411</v>
+        <v>0.331314</v>
       </c>
       <c r="D9" t="n">
-        <v>0.425827</v>
+        <v>0.407321</v>
       </c>
       <c r="E9" t="n">
-        <v>0.166243</v>
+        <v>0.158807</v>
       </c>
       <c r="F9" t="n">
-        <v>0.385904</v>
+        <v>0.386436</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.173606</v>
+        <v>0.172928</v>
       </c>
       <c r="C10" t="n">
-        <v>0.380432</v>
+        <v>0.379952</v>
       </c>
       <c r="D10" t="n">
-        <v>0.425914</v>
+        <v>0.406775</v>
       </c>
       <c r="E10" t="n">
-        <v>0.188765</v>
+        <v>0.155348</v>
       </c>
       <c r="F10" t="n">
-        <v>0.380366</v>
+        <v>0.38849</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.170728</v>
+        <v>0.169175</v>
       </c>
       <c r="C11" t="n">
-        <v>0.377881</v>
+        <v>0.376578</v>
       </c>
       <c r="D11" t="n">
-        <v>0.427473</v>
+        <v>0.407961</v>
       </c>
       <c r="E11" t="n">
-        <v>0.161329</v>
+        <v>0.153133</v>
       </c>
       <c r="F11" t="n">
-        <v>0.375907</v>
+        <v>0.384359</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.167184</v>
+        <v>0.165713</v>
       </c>
       <c r="C12" t="n">
-        <v>0.375035</v>
+        <v>0.374986</v>
       </c>
       <c r="D12" t="n">
-        <v>0.427309</v>
+        <v>0.40736</v>
       </c>
       <c r="E12" t="n">
-        <v>0.161058</v>
+        <v>0.15481</v>
       </c>
       <c r="F12" t="n">
-        <v>0.376317</v>
+        <v>0.380959</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.164129</v>
+        <v>0.16367</v>
       </c>
       <c r="C13" t="n">
-        <v>0.375917</v>
+        <v>0.375813</v>
       </c>
       <c r="D13" t="n">
-        <v>0.426353</v>
+        <v>0.407971</v>
       </c>
       <c r="E13" t="n">
-        <v>0.158831</v>
+        <v>0.149499</v>
       </c>
       <c r="F13" t="n">
-        <v>0.374302</v>
+        <v>0.375865</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.16216</v>
+        <v>0.159465</v>
       </c>
       <c r="C14" t="n">
-        <v>0.369815</v>
+        <v>0.368912</v>
       </c>
       <c r="D14" t="n">
-        <v>0.426497</v>
+        <v>0.408497</v>
       </c>
       <c r="E14" t="n">
-        <v>0.155643</v>
+        <v>0.14873</v>
       </c>
       <c r="F14" t="n">
-        <v>0.369502</v>
+        <v>0.375047</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.157164</v>
+        <v>0.157281</v>
       </c>
       <c r="C15" t="n">
-        <v>0.369229</v>
+        <v>0.368795</v>
       </c>
       <c r="D15" t="n">
-        <v>0.426526</v>
+        <v>0.408921</v>
       </c>
       <c r="E15" t="n">
-        <v>0.15322</v>
+        <v>0.145883</v>
       </c>
       <c r="F15" t="n">
-        <v>0.363927</v>
+        <v>0.372158</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.152921</v>
+        <v>0.153819</v>
       </c>
       <c r="C16" t="n">
-        <v>0.363101</v>
+        <v>0.362984</v>
       </c>
       <c r="D16" t="n">
-        <v>0.426281</v>
+        <v>0.409706</v>
       </c>
       <c r="E16" t="n">
-        <v>0.150882</v>
+        <v>0.144748</v>
       </c>
       <c r="F16" t="n">
-        <v>0.361156</v>
+        <v>0.368303</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.149501</v>
+        <v>0.150797</v>
       </c>
       <c r="C17" t="n">
-        <v>0.359322</v>
+        <v>0.360545</v>
       </c>
       <c r="D17" t="n">
-        <v>0.426336</v>
+        <v>0.408837</v>
       </c>
       <c r="E17" t="n">
-        <v>0.14839</v>
+        <v>0.142289</v>
       </c>
       <c r="F17" t="n">
-        <v>0.364521</v>
+        <v>0.366926</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.147091</v>
+        <v>0.148168</v>
       </c>
       <c r="C18" t="n">
-        <v>0.352817</v>
+        <v>0.356544</v>
       </c>
       <c r="D18" t="n">
-        <v>0.426207</v>
+        <v>0.408417</v>
       </c>
       <c r="E18" t="n">
-        <v>0.146698</v>
+        <v>0.141346</v>
       </c>
       <c r="F18" t="n">
-        <v>0.35923</v>
+        <v>0.364531</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.143873</v>
+        <v>0.144717</v>
       </c>
       <c r="C19" t="n">
-        <v>0.350924</v>
+        <v>0.35293</v>
       </c>
       <c r="D19" t="n">
-        <v>0.426755</v>
+        <v>0.410235</v>
       </c>
       <c r="E19" t="n">
-        <v>0.144008</v>
+        <v>0.139259</v>
       </c>
       <c r="F19" t="n">
-        <v>0.357812</v>
+        <v>0.361756</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.142145</v>
+        <v>0.140794</v>
       </c>
       <c r="C20" t="n">
-        <v>0.348146</v>
+        <v>0.350577</v>
       </c>
       <c r="D20" t="n">
-        <v>0.425353</v>
+        <v>0.410189</v>
       </c>
       <c r="E20" t="n">
-        <v>0.142278</v>
+        <v>0.136983</v>
       </c>
       <c r="F20" t="n">
-        <v>0.35373</v>
+        <v>0.359417</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.13773</v>
+        <v>0.138738</v>
       </c>
       <c r="C21" t="n">
-        <v>0.343571</v>
+        <v>0.338994</v>
       </c>
       <c r="D21" t="n">
-        <v>0.434323</v>
+        <v>0.412196</v>
       </c>
       <c r="E21" t="n">
-        <v>0.139079</v>
+        <v>0.134802</v>
       </c>
       <c r="F21" t="n">
-        <v>0.350225</v>
+        <v>0.355299</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.134275</v>
+        <v>0.135244</v>
       </c>
       <c r="C22" t="n">
-        <v>0.337794</v>
+        <v>0.336305</v>
       </c>
       <c r="D22" t="n">
-        <v>0.433884</v>
+        <v>0.410642</v>
       </c>
       <c r="E22" t="n">
-        <v>0.137114</v>
+        <v>0.132112</v>
       </c>
       <c r="F22" t="n">
-        <v>0.347016</v>
+        <v>0.353651</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.130389</v>
+        <v>0.128864</v>
       </c>
       <c r="C23" t="n">
-        <v>0.332066</v>
+        <v>0.335088</v>
       </c>
       <c r="D23" t="n">
-        <v>0.433209</v>
+        <v>0.412389</v>
       </c>
       <c r="E23" t="n">
-        <v>0.167724</v>
+        <v>0.160572</v>
       </c>
       <c r="F23" t="n">
-        <v>0.38833</v>
+        <v>0.390439</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.175408</v>
+        <v>0.17655</v>
       </c>
       <c r="C24" t="n">
-        <v>0.382792</v>
+        <v>0.383712</v>
       </c>
       <c r="D24" t="n">
-        <v>0.433196</v>
+        <v>0.412273</v>
       </c>
       <c r="E24" t="n">
-        <v>0.165423</v>
+        <v>0.1586</v>
       </c>
       <c r="F24" t="n">
-        <v>0.386483</v>
+        <v>0.386214</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.172721</v>
+        <v>0.173602</v>
       </c>
       <c r="C25" t="n">
-        <v>0.382248</v>
+        <v>0.380493</v>
       </c>
       <c r="D25" t="n">
-        <v>0.432376</v>
+        <v>0.412954</v>
       </c>
       <c r="E25" t="n">
-        <v>0.162847</v>
+        <v>0.155371</v>
       </c>
       <c r="F25" t="n">
-        <v>0.375381</v>
+        <v>0.384465</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.169881</v>
+        <v>0.170337</v>
       </c>
       <c r="C26" t="n">
-        <v>0.379954</v>
+        <v>0.378617</v>
       </c>
       <c r="D26" t="n">
-        <v>0.43295</v>
+        <v>0.413503</v>
       </c>
       <c r="E26" t="n">
-        <v>0.160868</v>
+        <v>0.154287</v>
       </c>
       <c r="F26" t="n">
-        <v>0.376545</v>
+        <v>0.382892</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.166341</v>
+        <v>0.16694</v>
       </c>
       <c r="C27" t="n">
-        <v>0.376092</v>
+        <v>0.375429</v>
       </c>
       <c r="D27" t="n">
-        <v>0.431297</v>
+        <v>0.412653</v>
       </c>
       <c r="E27" t="n">
-        <v>0.158483</v>
+        <v>0.152649</v>
       </c>
       <c r="F27" t="n">
-        <v>0.373141</v>
+        <v>0.38416</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.162639</v>
+        <v>0.163475</v>
       </c>
       <c r="C28" t="n">
-        <v>0.370998</v>
+        <v>0.371975</v>
       </c>
       <c r="D28" t="n">
-        <v>0.432718</v>
+        <v>0.412645</v>
       </c>
       <c r="E28" t="n">
-        <v>0.156559</v>
+        <v>0.150696</v>
       </c>
       <c r="F28" t="n">
-        <v>0.369204</v>
+        <v>0.37898</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.159691</v>
+        <v>0.159903</v>
       </c>
       <c r="C29" t="n">
-        <v>0.365401</v>
+        <v>0.368272</v>
       </c>
       <c r="D29" t="n">
-        <v>0.431441</v>
+        <v>0.412504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.154583</v>
+        <v>0.148814</v>
       </c>
       <c r="F29" t="n">
-        <v>0.365573</v>
+        <v>0.376851</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.156631</v>
+        <v>0.156497</v>
       </c>
       <c r="C30" t="n">
-        <v>0.363224</v>
+        <v>0.365581</v>
       </c>
       <c r="D30" t="n">
-        <v>0.432025</v>
+        <v>0.413012</v>
       </c>
       <c r="E30" t="n">
-        <v>0.152529</v>
+        <v>0.146538</v>
       </c>
       <c r="F30" t="n">
-        <v>0.365701</v>
+        <v>0.375589</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.153064</v>
+        <v>0.153557</v>
       </c>
       <c r="C31" t="n">
-        <v>0.358767</v>
+        <v>0.363193</v>
       </c>
       <c r="D31" t="n">
-        <v>0.429748</v>
+        <v>0.413961</v>
       </c>
       <c r="E31" t="n">
-        <v>0.149789</v>
+        <v>0.144471</v>
       </c>
       <c r="F31" t="n">
-        <v>0.362496</v>
+        <v>0.371564</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.150123</v>
+        <v>0.150187</v>
       </c>
       <c r="C32" t="n">
-        <v>0.354928</v>
+        <v>0.358446</v>
       </c>
       <c r="D32" t="n">
-        <v>0.430784</v>
+        <v>0.413625</v>
       </c>
       <c r="E32" t="n">
-        <v>0.147948</v>
+        <v>0.142652</v>
       </c>
       <c r="F32" t="n">
-        <v>0.364368</v>
+        <v>0.369293</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.146829</v>
+        <v>0.147443</v>
       </c>
       <c r="C33" t="n">
-        <v>0.35319</v>
+        <v>0.354861</v>
       </c>
       <c r="D33" t="n">
-        <v>0.430933</v>
+        <v>0.412765</v>
       </c>
       <c r="E33" t="n">
-        <v>0.146327</v>
+        <v>0.141243</v>
       </c>
       <c r="F33" t="n">
-        <v>0.359263</v>
+        <v>0.367927</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.143846</v>
+        <v>0.144321</v>
       </c>
       <c r="C34" t="n">
-        <v>0.350877</v>
+        <v>0.350509</v>
       </c>
       <c r="D34" t="n">
-        <v>0.430536</v>
+        <v>0.41338</v>
       </c>
       <c r="E34" t="n">
-        <v>0.144354</v>
+        <v>0.139555</v>
       </c>
       <c r="F34" t="n">
-        <v>0.357054</v>
+        <v>0.365848</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1409</v>
+        <v>0.14082</v>
       </c>
       <c r="C35" t="n">
-        <v>0.350371</v>
+        <v>0.347093</v>
       </c>
       <c r="D35" t="n">
-        <v>0.439536</v>
+        <v>0.416858</v>
       </c>
       <c r="E35" t="n">
-        <v>0.141805</v>
+        <v>0.136738</v>
       </c>
       <c r="F35" t="n">
-        <v>0.35211</v>
+        <v>0.360472</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.137309</v>
+        <v>0.137121</v>
       </c>
       <c r="C36" t="n">
-        <v>0.341033</v>
+        <v>0.343062</v>
       </c>
       <c r="D36" t="n">
-        <v>0.439191</v>
+        <v>0.417333</v>
       </c>
       <c r="E36" t="n">
-        <v>0.138909</v>
+        <v>0.134062</v>
       </c>
       <c r="F36" t="n">
-        <v>0.347149</v>
+        <v>0.356594</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.133057</v>
+        <v>0.132534</v>
       </c>
       <c r="C37" t="n">
-        <v>0.33986</v>
+        <v>0.336106</v>
       </c>
       <c r="D37" t="n">
-        <v>0.437763</v>
+        <v>0.41606</v>
       </c>
       <c r="E37" t="n">
-        <v>0.172649</v>
+        <v>0.164409</v>
       </c>
       <c r="F37" t="n">
-        <v>0.389537</v>
+        <v>0.393827</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.177169</v>
+        <v>0.17691</v>
       </c>
       <c r="C38" t="n">
-        <v>0.386925</v>
+        <v>0.386617</v>
       </c>
       <c r="D38" t="n">
-        <v>0.437503</v>
+        <v>0.41585</v>
       </c>
       <c r="E38" t="n">
-        <v>0.169635</v>
+        <v>0.161805</v>
       </c>
       <c r="F38" t="n">
-        <v>0.385464</v>
+        <v>0.391808</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.174265</v>
+        <v>0.174436</v>
       </c>
       <c r="C39" t="n">
-        <v>0.384706</v>
+        <v>0.379911</v>
       </c>
       <c r="D39" t="n">
-        <v>0.435893</v>
+        <v>0.415237</v>
       </c>
       <c r="E39" t="n">
-        <v>0.166412</v>
+        <v>0.159144</v>
       </c>
       <c r="F39" t="n">
-        <v>0.380424</v>
+        <v>0.388486</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.171317</v>
+        <v>0.171269</v>
       </c>
       <c r="C40" t="n">
-        <v>0.382452</v>
+        <v>0.385205</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4356</v>
+        <v>0.416114</v>
       </c>
       <c r="E40" t="n">
-        <v>0.163626</v>
+        <v>0.156932</v>
       </c>
       <c r="F40" t="n">
-        <v>0.375773</v>
+        <v>0.386068</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.167594</v>
+        <v>0.167639</v>
       </c>
       <c r="C41" t="n">
-        <v>0.375356</v>
+        <v>0.378516</v>
       </c>
       <c r="D41" t="n">
-        <v>0.435659</v>
+        <v>0.414563</v>
       </c>
       <c r="E41" t="n">
-        <v>0.160903</v>
+        <v>0.154401</v>
       </c>
       <c r="F41" t="n">
-        <v>0.376525</v>
+        <v>0.382236</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.163812</v>
+        <v>0.163866</v>
       </c>
       <c r="C42" t="n">
-        <v>0.375962</v>
+        <v>0.376065</v>
       </c>
       <c r="D42" t="n">
-        <v>0.435211</v>
+        <v>0.415716</v>
       </c>
       <c r="E42" t="n">
-        <v>0.159237</v>
+        <v>0.152672</v>
       </c>
       <c r="F42" t="n">
-        <v>0.374945</v>
+        <v>0.380086</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.160463</v>
+        <v>0.160718</v>
       </c>
       <c r="C43" t="n">
-        <v>0.372647</v>
+        <v>0.374638</v>
       </c>
       <c r="D43" t="n">
-        <v>0.434091</v>
+        <v>0.41481</v>
       </c>
       <c r="E43" t="n">
-        <v>0.157167</v>
+        <v>0.150678</v>
       </c>
       <c r="F43" t="n">
-        <v>0.371459</v>
+        <v>0.377663</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.157012</v>
+        <v>0.157255</v>
       </c>
       <c r="C44" t="n">
-        <v>0.368919</v>
+        <v>0.370038</v>
       </c>
       <c r="D44" t="n">
-        <v>0.434139</v>
+        <v>0.415485</v>
       </c>
       <c r="E44" t="n">
-        <v>0.154914</v>
+        <v>0.148583</v>
       </c>
       <c r="F44" t="n">
-        <v>0.369023</v>
+        <v>0.374575</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.153771</v>
+        <v>0.154164</v>
       </c>
       <c r="C45" t="n">
-        <v>0.365702</v>
+        <v>0.364878</v>
       </c>
       <c r="D45" t="n">
-        <v>0.435232</v>
+        <v>0.413867</v>
       </c>
       <c r="E45" t="n">
-        <v>0.152593</v>
+        <v>0.146669</v>
       </c>
       <c r="F45" t="n">
-        <v>0.366211</v>
+        <v>0.371596</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.150604</v>
+        <v>0.150989</v>
       </c>
       <c r="C46" t="n">
-        <v>0.364203</v>
+        <v>0.35917</v>
       </c>
       <c r="D46" t="n">
-        <v>0.433089</v>
+        <v>0.414704</v>
       </c>
       <c r="E46" t="n">
-        <v>0.150798</v>
+        <v>0.144913</v>
       </c>
       <c r="F46" t="n">
-        <v>0.362722</v>
+        <v>0.370087</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.147439</v>
+        <v>0.148096</v>
       </c>
       <c r="C47" t="n">
-        <v>0.35801</v>
+        <v>0.359926</v>
       </c>
       <c r="D47" t="n">
-        <v>0.433642</v>
+        <v>0.415122</v>
       </c>
       <c r="E47" t="n">
-        <v>0.148616</v>
+        <v>0.142677</v>
       </c>
       <c r="F47" t="n">
-        <v>0.359393</v>
+        <v>0.367184</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.144538</v>
+        <v>0.144918</v>
       </c>
       <c r="C48" t="n">
-        <v>0.353722</v>
+        <v>0.353387</v>
       </c>
       <c r="D48" t="n">
-        <v>0.433515</v>
+        <v>0.415644</v>
       </c>
       <c r="E48" t="n">
-        <v>0.146397</v>
+        <v>0.14096</v>
       </c>
       <c r="F48" t="n">
-        <v>0.357311</v>
+        <v>0.366998</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.14162</v>
+        <v>0.141842</v>
       </c>
       <c r="C49" t="n">
-        <v>0.352934</v>
+        <v>0.348507</v>
       </c>
       <c r="D49" t="n">
-        <v>0.433224</v>
+        <v>0.415146</v>
       </c>
       <c r="E49" t="n">
-        <v>0.144524</v>
+        <v>0.138585</v>
       </c>
       <c r="F49" t="n">
-        <v>0.354269</v>
+        <v>0.361695</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.137984</v>
+        <v>0.13838</v>
       </c>
       <c r="C50" t="n">
-        <v>0.347539</v>
+        <v>0.343449</v>
       </c>
       <c r="D50" t="n">
-        <v>0.441986</v>
+        <v>0.41769</v>
       </c>
       <c r="E50" t="n">
-        <v>0.142063</v>
+        <v>0.13641</v>
       </c>
       <c r="F50" t="n">
-        <v>0.351558</v>
+        <v>0.35942</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.133893</v>
+        <v>0.134314</v>
       </c>
       <c r="C51" t="n">
-        <v>0.338367</v>
+        <v>0.337491</v>
       </c>
       <c r="D51" t="n">
-        <v>0.439817</v>
+        <v>0.416746</v>
       </c>
       <c r="E51" t="n">
-        <v>0.175069</v>
+        <v>0.167351</v>
       </c>
       <c r="F51" t="n">
-        <v>0.389022</v>
+        <v>0.396828</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.128277</v>
+        <v>0.128772</v>
       </c>
       <c r="C52" t="n">
-        <v>0.333677</v>
+        <v>0.331749</v>
       </c>
       <c r="D52" t="n">
-        <v>0.440406</v>
+        <v>0.416873</v>
       </c>
       <c r="E52" t="n">
-        <v>0.171281</v>
+        <v>0.164373</v>
       </c>
       <c r="F52" t="n">
-        <v>0.386252</v>
+        <v>0.393382</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.174163</v>
+        <v>0.175096</v>
       </c>
       <c r="C53" t="n">
-        <v>0.389854</v>
+        <v>0.388674</v>
       </c>
       <c r="D53" t="n">
-        <v>0.439389</v>
+        <v>0.418039</v>
       </c>
       <c r="E53" t="n">
-        <v>0.169575</v>
+        <v>0.161093</v>
       </c>
       <c r="F53" t="n">
-        <v>0.38826</v>
+        <v>0.39441</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.172004</v>
+        <v>0.17216</v>
       </c>
       <c r="C54" t="n">
-        <v>0.388284</v>
+        <v>0.386785</v>
       </c>
       <c r="D54" t="n">
-        <v>0.440277</v>
+        <v>0.41677</v>
       </c>
       <c r="E54" t="n">
-        <v>0.165997</v>
+        <v>0.15835</v>
       </c>
       <c r="F54" t="n">
-        <v>0.381241</v>
+        <v>0.39084</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.168385</v>
+        <v>0.168473</v>
       </c>
       <c r="C55" t="n">
-        <v>0.385987</v>
+        <v>0.381164</v>
       </c>
       <c r="D55" t="n">
-        <v>0.437496</v>
+        <v>0.416647</v>
       </c>
       <c r="E55" t="n">
-        <v>0.163228</v>
+        <v>0.156795</v>
       </c>
       <c r="F55" t="n">
-        <v>0.377023</v>
+        <v>0.387737</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.164978</v>
+        <v>0.165741</v>
       </c>
       <c r="C56" t="n">
-        <v>0.38402</v>
+        <v>0.385392</v>
       </c>
       <c r="D56" t="n">
-        <v>0.436212</v>
+        <v>0.417386</v>
       </c>
       <c r="E56" t="n">
-        <v>0.161016</v>
+        <v>0.154477</v>
       </c>
       <c r="F56" t="n">
-        <v>0.380922</v>
+        <v>0.390736</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.161577</v>
+        <v>0.16187</v>
       </c>
       <c r="C57" t="n">
-        <v>0.383776</v>
+        <v>0.390681</v>
       </c>
       <c r="D57" t="n">
-        <v>0.441375</v>
+        <v>0.418255</v>
       </c>
       <c r="E57" t="n">
-        <v>0.158965</v>
+        <v>0.152437</v>
       </c>
       <c r="F57" t="n">
-        <v>0.381911</v>
+        <v>0.385156</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.158055</v>
+        <v>0.15855</v>
       </c>
       <c r="C58" t="n">
-        <v>0.375596</v>
+        <v>0.376727</v>
       </c>
       <c r="D58" t="n">
-        <v>0.439832</v>
+        <v>0.418486</v>
       </c>
       <c r="E58" t="n">
-        <v>0.15673</v>
+        <v>0.150357</v>
       </c>
       <c r="F58" t="n">
-        <v>0.375515</v>
+        <v>0.38051</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.155124</v>
+        <v>0.155348</v>
       </c>
       <c r="C59" t="n">
-        <v>0.386214</v>
+        <v>0.3737</v>
       </c>
       <c r="D59" t="n">
-        <v>0.441453</v>
+        <v>0.421622</v>
       </c>
       <c r="E59" t="n">
-        <v>0.154583</v>
+        <v>0.14822</v>
       </c>
       <c r="F59" t="n">
-        <v>0.36681</v>
+        <v>0.383847</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.151816</v>
+        <v>0.151993</v>
       </c>
       <c r="C60" t="n">
-        <v>0.37293</v>
+        <v>0.385363</v>
       </c>
       <c r="D60" t="n">
-        <v>0.438703</v>
+        <v>0.424888</v>
       </c>
       <c r="E60" t="n">
-        <v>0.152336</v>
+        <v>0.146271</v>
       </c>
       <c r="F60" t="n">
-        <v>0.376826</v>
+        <v>0.389617</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.14871</v>
+        <v>0.148912</v>
       </c>
       <c r="C61" t="n">
-        <v>0.382434</v>
+        <v>0.384086</v>
       </c>
       <c r="D61" t="n">
-        <v>0.448356</v>
+        <v>0.424061</v>
       </c>
       <c r="E61" t="n">
-        <v>0.150301</v>
+        <v>0.144289</v>
       </c>
       <c r="F61" t="n">
-        <v>0.388765</v>
+        <v>0.386247</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.145824</v>
+        <v>0.145772</v>
       </c>
       <c r="C62" t="n">
-        <v>0.378163</v>
+        <v>0.377862</v>
       </c>
       <c r="D62" t="n">
-        <v>0.448261</v>
+        <v>0.433962</v>
       </c>
       <c r="E62" t="n">
-        <v>0.147899</v>
+        <v>0.14209</v>
       </c>
       <c r="F62" t="n">
-        <v>0.372083</v>
+        <v>0.391746</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.142893</v>
+        <v>0.142769</v>
       </c>
       <c r="C63" t="n">
-        <v>0.374525</v>
+        <v>0.390276</v>
       </c>
       <c r="D63" t="n">
-        <v>0.45371</v>
+        <v>0.43096</v>
       </c>
       <c r="E63" t="n">
-        <v>0.145789</v>
+        <v>0.139697</v>
       </c>
       <c r="F63" t="n">
-        <v>0.382723</v>
+        <v>0.392847</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.139607</v>
+        <v>0.139504</v>
       </c>
       <c r="C64" t="n">
-        <v>0.391016</v>
+        <v>0.391284</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5085499999999999</v>
+        <v>0.486331</v>
       </c>
       <c r="E64" t="n">
-        <v>0.143455</v>
+        <v>0.137524</v>
       </c>
       <c r="F64" t="n">
-        <v>0.392685</v>
+        <v>0.392145</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.135396</v>
+        <v>0.135358</v>
       </c>
       <c r="C65" t="n">
-        <v>0.39817</v>
+        <v>0.397298</v>
       </c>
       <c r="D65" t="n">
-        <v>0.511829</v>
+        <v>0.489956</v>
       </c>
       <c r="E65" t="n">
-        <v>0.14064</v>
+        <v>0.135129</v>
       </c>
       <c r="F65" t="n">
-        <v>0.384962</v>
+        <v>0.400061</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.130456</v>
+        <v>0.130519</v>
       </c>
       <c r="C66" t="n">
-        <v>0.395125</v>
+        <v>0.393201</v>
       </c>
       <c r="D66" t="n">
-        <v>0.517249</v>
+        <v>0.495299</v>
       </c>
       <c r="E66" t="n">
-        <v>0.172754</v>
+        <v>0.165603</v>
       </c>
       <c r="F66" t="n">
-        <v>0.475355</v>
+        <v>0.484059</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.175596</v>
+        <v>0.175719</v>
       </c>
       <c r="C67" t="n">
-        <v>0.513191</v>
+        <v>0.515879</v>
       </c>
       <c r="D67" t="n">
-        <v>0.520459</v>
+        <v>0.498391</v>
       </c>
       <c r="E67" t="n">
-        <v>0.16968</v>
+        <v>0.162325</v>
       </c>
       <c r="F67" t="n">
-        <v>0.477467</v>
+        <v>0.485084</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.173051</v>
+        <v>0.172882</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5103490000000001</v>
+        <v>0.516474</v>
       </c>
       <c r="D68" t="n">
-        <v>0.522733</v>
+        <v>0.501891</v>
       </c>
       <c r="E68" t="n">
-        <v>0.167088</v>
+        <v>0.159911</v>
       </c>
       <c r="F68" t="n">
-        <v>0.481212</v>
+        <v>0.486538</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.16953</v>
+        <v>0.169668</v>
       </c>
       <c r="C69" t="n">
-        <v>0.515124</v>
+        <v>0.519506</v>
       </c>
       <c r="D69" t="n">
-        <v>0.528783</v>
+        <v>0.504786</v>
       </c>
       <c r="E69" t="n">
-        <v>0.16473</v>
+        <v>0.157761</v>
       </c>
       <c r="F69" t="n">
-        <v>0.482116</v>
+        <v>0.477618</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.16608</v>
+        <v>0.166592</v>
       </c>
       <c r="C70" t="n">
-        <v>0.509891</v>
+        <v>0.518648</v>
       </c>
       <c r="D70" t="n">
-        <v>0.530663</v>
+        <v>0.50856</v>
       </c>
       <c r="E70" t="n">
-        <v>0.162255</v>
+        <v>0.15562</v>
       </c>
       <c r="F70" t="n">
-        <v>0.480138</v>
+        <v>0.486769</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.162678</v>
+        <v>0.162653</v>
       </c>
       <c r="C71" t="n">
-        <v>0.507622</v>
+        <v>0.517501</v>
       </c>
       <c r="D71" t="n">
-        <v>0.533515</v>
+        <v>0.512259</v>
       </c>
       <c r="E71" t="n">
-        <v>0.160098</v>
+        <v>0.153158</v>
       </c>
       <c r="F71" t="n">
-        <v>0.475893</v>
+        <v>0.483907</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.159271</v>
+        <v>0.159513</v>
       </c>
       <c r="C72" t="n">
-        <v>0.505556</v>
+        <v>0.511342</v>
       </c>
       <c r="D72" t="n">
-        <v>0.535656</v>
+        <v>0.51422</v>
       </c>
       <c r="E72" t="n">
-        <v>0.157702</v>
+        <v>0.151194</v>
       </c>
       <c r="F72" t="n">
-        <v>0.478667</v>
+        <v>0.483205</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.155749</v>
+        <v>0.156068</v>
       </c>
       <c r="C73" t="n">
-        <v>0.505132</v>
+        <v>0.507596</v>
       </c>
       <c r="D73" t="n">
-        <v>0.537641</v>
+        <v>0.515909</v>
       </c>
       <c r="E73" t="n">
-        <v>0.155446</v>
+        <v>0.149136</v>
       </c>
       <c r="F73" t="n">
-        <v>0.472942</v>
+        <v>0.480571</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.152442</v>
+        <v>0.153075</v>
       </c>
       <c r="C74" t="n">
-        <v>0.498357</v>
+        <v>0.505561</v>
       </c>
       <c r="D74" t="n">
-        <v>0.540415</v>
+        <v>0.5182870000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>0.153213</v>
+        <v>0.147051</v>
       </c>
       <c r="F74" t="n">
-        <v>0.474359</v>
+        <v>0.478169</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.14962</v>
+        <v>0.149619</v>
       </c>
       <c r="C75" t="n">
-        <v>0.497374</v>
+        <v>0.498396</v>
       </c>
       <c r="D75" t="n">
-        <v>0.541708</v>
+        <v>0.520492</v>
       </c>
       <c r="E75" t="n">
-        <v>0.15083</v>
+        <v>0.144832</v>
       </c>
       <c r="F75" t="n">
-        <v>0.47347</v>
+        <v>0.475038</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.146488</v>
+        <v>0.146795</v>
       </c>
       <c r="C76" t="n">
-        <v>0.490491</v>
+        <v>0.494046</v>
       </c>
       <c r="D76" t="n">
-        <v>0.543256</v>
+        <v>0.52303</v>
       </c>
       <c r="E76" t="n">
-        <v>0.148559</v>
+        <v>0.142746</v>
       </c>
       <c r="F76" t="n">
-        <v>0.472615</v>
+        <v>0.475576</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.143188</v>
+        <v>0.143564</v>
       </c>
       <c r="C77" t="n">
-        <v>0.489061</v>
+        <v>0.492057</v>
       </c>
       <c r="D77" t="n">
-        <v>0.543869</v>
+        <v>0.525448</v>
       </c>
       <c r="E77" t="n">
-        <v>0.146141</v>
+        <v>0.140567</v>
       </c>
       <c r="F77" t="n">
-        <v>0.464488</v>
+        <v>0.4711</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.139932</v>
+        <v>0.140118</v>
       </c>
       <c r="C78" t="n">
-        <v>0.480707</v>
+        <v>0.482809</v>
       </c>
       <c r="D78" t="n">
-        <v>0.569753</v>
+        <v>0.547508</v>
       </c>
       <c r="E78" t="n">
-        <v>0.144109</v>
+        <v>0.138311</v>
       </c>
       <c r="F78" t="n">
-        <v>0.465759</v>
+        <v>0.470779</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.136039</v>
+        <v>0.136151</v>
       </c>
       <c r="C79" t="n">
-        <v>0.474835</v>
+        <v>0.479581</v>
       </c>
       <c r="D79" t="n">
-        <v>0.569414</v>
+        <v>0.546798</v>
       </c>
       <c r="E79" t="n">
-        <v>0.141504</v>
+        <v>0.135851</v>
       </c>
       <c r="F79" t="n">
-        <v>0.459129</v>
+        <v>0.466698</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.131338</v>
+        <v>0.131746</v>
       </c>
       <c r="C80" t="n">
-        <v>0.471602</v>
+        <v>0.469762</v>
       </c>
       <c r="D80" t="n">
-        <v>0.569906</v>
+        <v>0.546418</v>
       </c>
       <c r="E80" t="n">
-        <v>0.17453</v>
+        <v>0.166692</v>
       </c>
       <c r="F80" t="n">
-        <v>0.501898</v>
+        <v>0.5040750000000001</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.177379</v>
+        <v>0.177356</v>
       </c>
       <c r="C81" t="n">
-        <v>0.531073</v>
+        <v>0.5309469999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.570232</v>
+        <v>0.547025</v>
       </c>
       <c r="E81" t="n">
-        <v>0.199802</v>
+        <v>0.163537</v>
       </c>
       <c r="F81" t="n">
-        <v>0.497811</v>
+        <v>0.500817</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.174192</v>
+        <v>0.17491</v>
       </c>
       <c r="C82" t="n">
-        <v>0.527417</v>
+        <v>0.528204</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5697140000000001</v>
+        <v>0.547287</v>
       </c>
       <c r="E82" t="n">
-        <v>0.168108</v>
+        <v>0.160937</v>
       </c>
       <c r="F82" t="n">
-        <v>0.495169</v>
+        <v>0.499592</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.171156</v>
+        <v>0.171423</v>
       </c>
       <c r="C83" t="n">
-        <v>0.519434</v>
+        <v>0.524995</v>
       </c>
       <c r="D83" t="n">
-        <v>0.569122</v>
+        <v>0.546434</v>
       </c>
       <c r="E83" t="n">
-        <v>0.170782</v>
+        <v>0.158529</v>
       </c>
       <c r="F83" t="n">
-        <v>0.490129</v>
+        <v>0.495056</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.167581</v>
+        <v>0.167315</v>
       </c>
       <c r="C84" t="n">
-        <v>0.554128</v>
+        <v>0.558411</v>
       </c>
       <c r="D84" t="n">
-        <v>0.601877</v>
+        <v>0.5914430000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>0.163046</v>
+        <v>0.156342</v>
       </c>
       <c r="F84" t="n">
-        <v>0.540314</v>
+        <v>0.54101</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.163599</v>
+        <v>0.163922</v>
       </c>
       <c r="C85" t="n">
-        <v>0.552152</v>
+        <v>0.550831</v>
       </c>
       <c r="D85" t="n">
-        <v>0.601626</v>
+        <v>0.590584</v>
       </c>
       <c r="E85" t="n">
-        <v>0.160598</v>
+        <v>0.154113</v>
       </c>
       <c r="F85" t="n">
-        <v>0.532956</v>
+        <v>0.536313</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.160296</v>
+        <v>0.16037</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5407729999999999</v>
+        <v>0.549221</v>
       </c>
       <c r="D86" t="n">
-        <v>0.601657</v>
+        <v>0.592098</v>
       </c>
       <c r="E86" t="n">
-        <v>0.158526</v>
+        <v>0.151995</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5350510000000001</v>
+        <v>0.534896</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.156897</v>
+        <v>0.157204</v>
       </c>
       <c r="C87" t="n">
-        <v>0.542907</v>
+        <v>0.544005</v>
       </c>
       <c r="D87" t="n">
-        <v>0.601637</v>
+        <v>0.594747</v>
       </c>
       <c r="E87" t="n">
-        <v>0.156058</v>
+        <v>0.149858</v>
       </c>
       <c r="F87" t="n">
-        <v>0.527142</v>
+        <v>0.533201</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.153331</v>
+        <v>0.153765</v>
       </c>
       <c r="C88" t="n">
-        <v>0.531929</v>
+        <v>0.534558</v>
       </c>
       <c r="D88" t="n">
-        <v>0.602261</v>
+        <v>0.593563</v>
       </c>
       <c r="E88" t="n">
-        <v>0.153967</v>
+        <v>0.147707</v>
       </c>
       <c r="F88" t="n">
-        <v>0.525574</v>
+        <v>0.5305</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.150212</v>
+        <v>0.150539</v>
       </c>
       <c r="C89" t="n">
-        <v>0.525262</v>
+        <v>0.533973</v>
       </c>
       <c r="D89" t="n">
-        <v>0.601709</v>
+        <v>0.594917</v>
       </c>
       <c r="E89" t="n">
-        <v>0.151897</v>
+        <v>0.145625</v>
       </c>
       <c r="F89" t="n">
-        <v>0.521985</v>
+        <v>0.526156</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.147099</v>
+        <v>0.147391</v>
       </c>
       <c r="C90" t="n">
-        <v>0.525089</v>
+        <v>0.528884</v>
       </c>
       <c r="D90" t="n">
-        <v>0.601589</v>
+        <v>0.594832</v>
       </c>
       <c r="E90" t="n">
-        <v>0.149489</v>
+        <v>0.143218</v>
       </c>
       <c r="F90" t="n">
-        <v>0.5223449999999999</v>
+        <v>0.525031</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.14398</v>
+        <v>0.1443</v>
       </c>
       <c r="C91" t="n">
-        <v>0.5179280000000001</v>
+        <v>0.520815</v>
       </c>
       <c r="D91" t="n">
-        <v>0.600387</v>
+        <v>0.59506</v>
       </c>
       <c r="E91" t="n">
-        <v>0.14714</v>
+        <v>0.141172</v>
       </c>
       <c r="F91" t="n">
-        <v>0.517883</v>
+        <v>0.518223</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.140752</v>
+        <v>0.140714</v>
       </c>
       <c r="C92" t="n">
-        <v>0.512314</v>
+        <v>0.517975</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6013770000000001</v>
+        <v>0.592252</v>
       </c>
       <c r="E92" t="n">
-        <v>0.14496</v>
+        <v>0.138888</v>
       </c>
       <c r="F92" t="n">
-        <v>0.5167</v>
+        <v>0.51707</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.137051</v>
+        <v>0.137034</v>
       </c>
       <c r="C93" t="n">
-        <v>0.50483</v>
+        <v>0.509977</v>
       </c>
       <c r="D93" t="n">
-        <v>0.601803</v>
+        <v>0.5928949999999999</v>
       </c>
       <c r="E93" t="n">
-        <v>0.142219</v>
+        <v>0.136497</v>
       </c>
       <c r="F93" t="n">
-        <v>0.512281</v>
+        <v>0.513872</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.132378</v>
+        <v>0.132371</v>
       </c>
       <c r="C94" t="n">
-        <v>0.499606</v>
+        <v>0.505369</v>
       </c>
       <c r="D94" t="n">
-        <v>0.600146</v>
+        <v>0.592238</v>
       </c>
       <c r="E94" t="n">
-        <v>0.185811</v>
+        <v>0.166503</v>
       </c>
       <c r="F94" t="n">
-        <v>0.548807</v>
+        <v>0.554092</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.177317</v>
+        <v>0.17749</v>
       </c>
       <c r="C95" t="n">
-        <v>0.56504</v>
+        <v>0.549832</v>
       </c>
       <c r="D95" t="n">
-        <v>0.600306</v>
+        <v>0.592751</v>
       </c>
       <c r="E95" t="n">
-        <v>0.202182</v>
+        <v>0.163584</v>
       </c>
       <c r="F95" t="n">
-        <v>0.543771</v>
+        <v>0.551598</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.174794</v>
+        <v>0.175364</v>
       </c>
       <c r="C96" t="n">
-        <v>0.556647</v>
+        <v>0.547206</v>
       </c>
       <c r="D96" t="n">
-        <v>0.599739</v>
+        <v>0.591515</v>
       </c>
       <c r="E96" t="n">
-        <v>0.17106</v>
+        <v>0.160877</v>
       </c>
       <c r="F96" t="n">
-        <v>0.542864</v>
+        <v>0.551688</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.172143</v>
+        <v>0.171982</v>
       </c>
       <c r="C97" t="n">
-        <v>0.552748</v>
+        <v>0.547956</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5999719999999999</v>
+        <v>0.592024</v>
       </c>
       <c r="E97" t="n">
-        <v>0.167507</v>
+        <v>0.158903</v>
       </c>
       <c r="F97" t="n">
-        <v>0.538786</v>
+        <v>0.544899</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.167979</v>
+        <v>0.167905</v>
       </c>
       <c r="C98" t="n">
-        <v>0.552341</v>
+        <v>0.539745</v>
       </c>
       <c r="D98" t="n">
-        <v>0.599581</v>
+        <v>0.591909</v>
       </c>
       <c r="E98" t="n">
-        <v>0.186999</v>
+        <v>0.156806</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5357150000000001</v>
+        <v>0.5415219999999999</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.164184</v>
+        <v>0.164848</v>
       </c>
       <c r="C99" t="n">
-        <v>0.546655</v>
+        <v>0.5357690000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.599453</v>
+        <v>0.589822</v>
       </c>
       <c r="E99" t="n">
-        <v>0.16244</v>
+        <v>0.154228</v>
       </c>
       <c r="F99" t="n">
-        <v>0.532788</v>
+        <v>0.538836</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.160714</v>
+        <v>0.16135</v>
       </c>
       <c r="C100" t="n">
-        <v>0.543764</v>
+        <v>0.532384</v>
       </c>
       <c r="D100" t="n">
-        <v>0.599198</v>
+        <v>0.590278</v>
       </c>
       <c r="E100" t="n">
-        <v>0.159396</v>
+        <v>0.152394</v>
       </c>
       <c r="F100" t="n">
-        <v>0.529878</v>
+        <v>0.536098</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.157395</v>
+        <v>0.157978</v>
       </c>
       <c r="C101" t="n">
-        <v>0.538805</v>
+        <v>0.527898</v>
       </c>
       <c r="D101" t="n">
-        <v>0.598815</v>
+        <v>0.590993</v>
       </c>
       <c r="E101" t="n">
-        <v>0.173322</v>
+        <v>0.150232</v>
       </c>
       <c r="F101" t="n">
-        <v>0.527048</v>
+        <v>0.530432</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.153813</v>
+        <v>0.154418</v>
       </c>
       <c r="C102" t="n">
-        <v>0.534646</v>
+        <v>0.5342249999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.598332</v>
+        <v>0.591967</v>
       </c>
       <c r="E102" t="n">
-        <v>0.155488</v>
+        <v>0.148123</v>
       </c>
       <c r="F102" t="n">
-        <v>0.526291</v>
+        <v>0.52888</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.150496</v>
+        <v>0.151256</v>
       </c>
       <c r="C103" t="n">
-        <v>0.53204</v>
+        <v>0.529344</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5982189999999999</v>
+        <v>0.590572</v>
       </c>
       <c r="E103" t="n">
-        <v>0.15214</v>
+        <v>0.145733</v>
       </c>
       <c r="F103" t="n">
-        <v>0.520837</v>
+        <v>0.526207</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.147452</v>
+        <v>0.148191</v>
       </c>
       <c r="C104" t="n">
-        <v>0.527797</v>
+        <v>0.5265030000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.598448</v>
+        <v>0.593213</v>
       </c>
       <c r="E104" t="n">
-        <v>0.149897</v>
+        <v>0.14368</v>
       </c>
       <c r="F104" t="n">
-        <v>0.520972</v>
+        <v>0.522979</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.144558</v>
+        <v>0.144862</v>
       </c>
       <c r="C105" t="n">
-        <v>0.523228</v>
+        <v>0.518779</v>
       </c>
       <c r="D105" t="n">
-        <v>0.597506</v>
+        <v>0.589934</v>
       </c>
       <c r="E105" t="n">
-        <v>0.147564</v>
+        <v>0.141525</v>
       </c>
       <c r="F105" t="n">
-        <v>0.522178</v>
+        <v>0.5206190000000001</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.141438</v>
+        <v>0.141629</v>
       </c>
       <c r="C106" t="n">
-        <v>0.522555</v>
+        <v>0.517334</v>
       </c>
       <c r="D106" t="n">
-        <v>0.598067</v>
+        <v>0.590958</v>
       </c>
       <c r="E106" t="n">
-        <v>0.145492</v>
+        <v>0.139419</v>
       </c>
       <c r="F106" t="n">
-        <v>0.513817</v>
+        <v>0.514126</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.137717</v>
+        <v>0.137742</v>
       </c>
       <c r="C107" t="n">
-        <v>0.513277</v>
+        <v>0.511538</v>
       </c>
       <c r="D107" t="n">
-        <v>0.584009</v>
+        <v>0.573865</v>
       </c>
       <c r="E107" t="n">
-        <v>0.142864</v>
+        <v>0.137092</v>
       </c>
       <c r="F107" t="n">
-        <v>0.511166</v>
+        <v>0.51402</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.133645</v>
+        <v>0.133584</v>
       </c>
       <c r="C108" t="n">
-        <v>0.505917</v>
+        <v>0.50464</v>
       </c>
       <c r="D108" t="n">
-        <v>0.584139</v>
+        <v>0.573546</v>
       </c>
       <c r="E108" t="n">
-        <v>0.208949</v>
+        <v>0.167975</v>
       </c>
       <c r="F108" t="n">
-        <v>0.555312</v>
+        <v>0.555413</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.12794</v>
+        <v>0.128157</v>
       </c>
       <c r="C109" t="n">
-        <v>0.500603</v>
+        <v>0.498236</v>
       </c>
       <c r="D109" t="n">
-        <v>0.583981</v>
+        <v>0.574794</v>
       </c>
       <c r="E109" t="n">
-        <v>0.203288</v>
+        <v>0.164883</v>
       </c>
       <c r="F109" t="n">
-        <v>0.546133</v>
+        <v>0.554075</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.175531</v>
+        <v>0.175434</v>
       </c>
       <c r="C110" t="n">
-        <v>0.566941</v>
+        <v>0.551173</v>
       </c>
       <c r="D110" t="n">
-        <v>0.585346</v>
+        <v>0.575025</v>
       </c>
       <c r="E110" t="n">
-        <v>0.197881</v>
+        <v>0.162565</v>
       </c>
       <c r="F110" t="n">
-        <v>0.545563</v>
+        <v>0.549217</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.17254</v>
+        <v>0.172048</v>
       </c>
       <c r="C111" t="n">
-        <v>0.560729</v>
+        <v>0.542845</v>
       </c>
       <c r="D111" t="n">
-        <v>0.586346</v>
+        <v>0.576226</v>
       </c>
       <c r="E111" t="n">
-        <v>0.192871</v>
+        <v>0.160221</v>
       </c>
       <c r="F111" t="n">
-        <v>0.542391</v>
+        <v>0.547288</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.168623</v>
+        <v>0.168723</v>
       </c>
       <c r="C112" t="n">
-        <v>0.557507</v>
+        <v>0.540092</v>
       </c>
       <c r="D112" t="n">
-        <v>0.586134</v>
+        <v>0.575779</v>
       </c>
       <c r="E112" t="n">
-        <v>0.172659</v>
+        <v>0.158074</v>
       </c>
       <c r="F112" t="n">
-        <v>0.53667</v>
+        <v>0.540654</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.165843</v>
+        <v>0.165279</v>
       </c>
       <c r="C113" t="n">
-        <v>0.543167</v>
+        <v>0.554074</v>
       </c>
       <c r="D113" t="n">
-        <v>0.58714</v>
+        <v>0.576901</v>
       </c>
       <c r="E113" t="n">
-        <v>0.177393</v>
+        <v>0.155242</v>
       </c>
       <c r="F113" t="n">
-        <v>0.534385</v>
+        <v>0.537555</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.162115</v>
+        <v>0.162405</v>
       </c>
       <c r="C114" t="n">
-        <v>0.540506</v>
+        <v>0.550135</v>
       </c>
       <c r="D114" t="n">
-        <v>0.587221</v>
+        <v>0.578233</v>
       </c>
       <c r="E114" t="n">
-        <v>0.178831</v>
+        <v>0.153081</v>
       </c>
       <c r="F114" t="n">
-        <v>0.532498</v>
+        <v>0.534586</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.15844</v>
+        <v>0.158191</v>
       </c>
       <c r="C115" t="n">
-        <v>0.536257</v>
+        <v>0.5280820000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.587775</v>
+        <v>0.5785940000000001</v>
       </c>
       <c r="E115" t="n">
-        <v>0.16773</v>
+        <v>0.150746</v>
       </c>
       <c r="F115" t="n">
-        <v>0.530918</v>
+        <v>0.531169</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.154928</v>
+        <v>0.154666</v>
       </c>
       <c r="C116" t="n">
-        <v>0.526114</v>
+        <v>0.525651</v>
       </c>
       <c r="D116" t="n">
-        <v>0.587484</v>
+        <v>0.579206</v>
       </c>
       <c r="E116" t="n">
-        <v>0.155369</v>
+        <v>0.14861</v>
       </c>
       <c r="F116" t="n">
-        <v>0.528935</v>
+        <v>0.529276</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.151424</v>
+        <v>0.151674</v>
       </c>
       <c r="C117" t="n">
-        <v>0.538932</v>
+        <v>0.527678</v>
       </c>
       <c r="D117" t="n">
-        <v>0.588104</v>
+        <v>0.58008</v>
       </c>
       <c r="E117" t="n">
-        <v>0.162268</v>
+        <v>0.146365</v>
       </c>
       <c r="F117" t="n">
-        <v>0.525532</v>
+        <v>0.527176</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.148476</v>
+        <v>0.148607</v>
       </c>
       <c r="C118" t="n">
-        <v>0.533946</v>
+        <v>0.52423</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5882810000000001</v>
+        <v>0.580342</v>
       </c>
       <c r="E118" t="n">
-        <v>0.161793</v>
+        <v>0.144105</v>
       </c>
       <c r="F118" t="n">
-        <v>0.523684</v>
+        <v>0.524499</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.145508</v>
+        <v>0.145504</v>
       </c>
       <c r="C119" t="n">
-        <v>0.516053</v>
+        <v>0.511789</v>
       </c>
       <c r="D119" t="n">
-        <v>0.588473</v>
+        <v>0.581142</v>
       </c>
       <c r="E119" t="n">
-        <v>0.147998</v>
+        <v>0.141974</v>
       </c>
       <c r="F119" t="n">
-        <v>0.524536</v>
+        <v>0.520269</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.142445</v>
+        <v>0.142231</v>
       </c>
       <c r="C120" t="n">
-        <v>0.507229</v>
+        <v>0.524466</v>
       </c>
       <c r="D120" t="n">
-        <v>0.588816</v>
+        <v>0.5821</v>
       </c>
       <c r="E120" t="n">
-        <v>0.145717</v>
+        <v>0.139756</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5167929999999999</v>
+        <v>0.516908</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.138682</v>
+        <v>0.138799</v>
       </c>
       <c r="C121" t="n">
-        <v>0.511119</v>
+        <v>0.500157</v>
       </c>
       <c r="D121" t="n">
-        <v>0.610138</v>
+        <v>0.595461</v>
       </c>
       <c r="E121" t="n">
-        <v>0.143342</v>
+        <v>0.137395</v>
       </c>
       <c r="F121" t="n">
-        <v>0.516738</v>
+        <v>0.514072</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.134544</v>
+        <v>0.134557</v>
       </c>
       <c r="C122" t="n">
-        <v>0.506425</v>
+        <v>0.504477</v>
       </c>
       <c r="D122" t="n">
-        <v>0.60911</v>
+        <v>0.595579</v>
       </c>
       <c r="E122" t="n">
-        <v>0.140687</v>
+        <v>0.134849</v>
       </c>
       <c r="F122" t="n">
-        <v>0.513981</v>
+        <v>0.5121520000000001</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.12911</v>
+        <v>0.12959</v>
       </c>
       <c r="C123" t="n">
-        <v>0.490184</v>
+        <v>0.492659</v>
       </c>
       <c r="D123" t="n">
-        <v>0.608506</v>
+        <v>0.594735</v>
       </c>
       <c r="E123" t="n">
-        <v>0.192363</v>
+        <v>0.16715</v>
       </c>
       <c r="F123" t="n">
-        <v>0.547411</v>
+        <v>0.552138</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.175854</v>
+        <v>0.176676</v>
       </c>
       <c r="C124" t="n">
-        <v>0.54867</v>
+        <v>0.566951</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6072959999999999</v>
+        <v>0.5947750000000001</v>
       </c>
       <c r="E124" t="n">
-        <v>0.198067</v>
+        <v>0.164614</v>
       </c>
       <c r="F124" t="n">
-        <v>0.548328</v>
+        <v>0.547862</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.173145</v>
+        <v>0.173075</v>
       </c>
       <c r="C125" t="n">
-        <v>0.543751</v>
+        <v>0.542435</v>
       </c>
       <c r="D125" t="n">
-        <v>0.606841</v>
+        <v>0.594027</v>
       </c>
       <c r="E125" t="n">
-        <v>0.193914</v>
+        <v>0.16106</v>
       </c>
       <c r="F125" t="n">
-        <v>0.542984</v>
+        <v>0.545617</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.169842</v>
+        <v>0.169502</v>
       </c>
       <c r="C126" t="n">
-        <v>0.560348</v>
+        <v>0.546311</v>
       </c>
       <c r="D126" t="n">
-        <v>0.605271</v>
+        <v>0.594052</v>
       </c>
       <c r="E126" t="n">
-        <v>0.186763</v>
+        <v>0.158384</v>
       </c>
       <c r="F126" t="n">
-        <v>0.539278</v>
+        <v>0.5425</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.165695</v>
+        <v>0.165905</v>
       </c>
       <c r="C127" t="n">
-        <v>0.535989</v>
+        <v>0.535254</v>
       </c>
       <c r="D127" t="n">
-        <v>0.604851</v>
+        <v>0.594222</v>
       </c>
       <c r="E127" t="n">
-        <v>0.184072</v>
+        <v>0.155943</v>
       </c>
       <c r="F127" t="n">
-        <v>0.537057</v>
+        <v>0.53937</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.162093</v>
+        <v>0.162741</v>
       </c>
       <c r="C128" t="n">
-        <v>0.532027</v>
+        <v>0.553063</v>
       </c>
       <c r="D128" t="n">
-        <v>0.603537</v>
+        <v>0.5940260000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>0.163267</v>
+        <v>0.153413</v>
       </c>
       <c r="F128" t="n">
-        <v>0.535664</v>
+        <v>0.537229</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.158918</v>
+        <v>0.158781</v>
       </c>
       <c r="C129" t="n">
-        <v>0.535205</v>
+        <v>0.534139</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6036899999999999</v>
+        <v>0.593536</v>
       </c>
       <c r="E129" t="n">
-        <v>0.163255</v>
+        <v>0.151223</v>
       </c>
       <c r="F129" t="n">
-        <v>0.53101</v>
+        <v>0.534682</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.155216</v>
+        <v>0.155801</v>
       </c>
       <c r="C130" t="n">
-        <v>0.523973</v>
+        <v>0.531923</v>
       </c>
       <c r="D130" t="n">
-        <v>0.603596</v>
+        <v>0.593627</v>
       </c>
       <c r="E130" t="n">
-        <v>0.171383</v>
+        <v>0.149182</v>
       </c>
       <c r="F130" t="n">
-        <v>0.526996</v>
+        <v>0.5303600000000001</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.151966</v>
+        <v>0.152537</v>
       </c>
       <c r="C131" t="n">
-        <v>0.538201</v>
+        <v>0.51855</v>
       </c>
       <c r="D131" t="n">
-        <v>0.602694</v>
+        <v>0.593948</v>
       </c>
       <c r="E131" t="n">
-        <v>0.153773</v>
+        <v>0.147036</v>
       </c>
       <c r="F131" t="n">
-        <v>0.525517</v>
+        <v>0.525779</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.14879</v>
+        <v>0.148968</v>
       </c>
       <c r="C132" t="n">
-        <v>0.515286</v>
+        <v>0.524984</v>
       </c>
       <c r="D132" t="n">
-        <v>0.60231</v>
+        <v>0.593712</v>
       </c>
       <c r="E132" t="n">
-        <v>0.15147</v>
+        <v>0.144656</v>
       </c>
       <c r="F132" t="n">
-        <v>0.5228429999999999</v>
+        <v>0.525435</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.145987</v>
+        <v>0.145984</v>
       </c>
       <c r="C133" t="n">
-        <v>0.511543</v>
+        <v>0.518321</v>
       </c>
       <c r="D133" t="n">
-        <v>0.60154</v>
+        <v>0.594033</v>
       </c>
       <c r="E133" t="n">
-        <v>0.148769</v>
+        <v>0.142394</v>
       </c>
       <c r="F133" t="n">
-        <v>0.5162910000000001</v>
+        <v>0.519579</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.142687</v>
+        <v>0.142949</v>
       </c>
       <c r="C134" t="n">
-        <v>0.52561</v>
+        <v>0.505653</v>
       </c>
       <c r="D134" t="n">
-        <v>0.601151</v>
+        <v>0.593626</v>
       </c>
       <c r="E134" t="n">
-        <v>0.146488</v>
+        <v>0.140235</v>
       </c>
       <c r="F134" t="n">
-        <v>0.516674</v>
+        <v>0.5164609999999999</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.139357</v>
+        <v>0.139641</v>
       </c>
       <c r="C135" t="n">
-        <v>0.511351</v>
+        <v>0.501295</v>
       </c>
       <c r="D135" t="n">
-        <v>0.614652</v>
+        <v>0.601012</v>
       </c>
       <c r="E135" t="n">
-        <v>0.143972</v>
+        <v>0.137971</v>
       </c>
       <c r="F135" t="n">
-        <v>0.514</v>
+        <v>0.513659</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.135315</v>
+        <v>0.135345</v>
       </c>
       <c r="C136" t="n">
-        <v>0.495559</v>
+        <v>0.500112</v>
       </c>
       <c r="D136" t="n">
-        <v>0.614418</v>
+        <v>0.600953</v>
       </c>
       <c r="E136" t="n">
-        <v>0.141224</v>
+        <v>0.135472</v>
       </c>
       <c r="F136" t="n">
-        <v>0.513637</v>
+        <v>0.510422</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.130455</v>
+        <v>0.130683</v>
       </c>
       <c r="C137" t="n">
-        <v>0.504518</v>
+        <v>0.487935</v>
       </c>
       <c r="D137" t="n">
-        <v>0.613472</v>
+        <v>0.599457</v>
       </c>
       <c r="E137" t="n">
-        <v>0.204933</v>
+        <v>0.171391</v>
       </c>
       <c r="F137" t="n">
-        <v>0.548038</v>
+        <v>0.552376</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.176468</v>
+        <v>0.176678</v>
       </c>
       <c r="C138" t="n">
-        <v>0.561971</v>
+        <v>0.542937</v>
       </c>
       <c r="D138" t="n">
-        <v>0.610968</v>
+        <v>0.599115</v>
       </c>
       <c r="E138" t="n">
-        <v>0.20017</v>
+        <v>0.167683</v>
       </c>
       <c r="F138" t="n">
-        <v>0.54726</v>
+        <v>0.549972</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.173362</v>
+        <v>0.173431</v>
       </c>
       <c r="C139" t="n">
-        <v>0.543551</v>
+        <v>0.540098</v>
       </c>
       <c r="D139" t="n">
-        <v>0.610465</v>
+        <v>0.598642</v>
       </c>
       <c r="E139" t="n">
-        <v>0.195056</v>
+        <v>0.163747</v>
       </c>
       <c r="F139" t="n">
-        <v>0.544007</v>
+        <v>0.545389</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.170245</v>
+        <v>0.170173</v>
       </c>
       <c r="C140" t="n">
-        <v>0.546041</v>
+        <v>0.544481</v>
       </c>
       <c r="D140" t="n">
-        <v>0.6098</v>
+        <v>0.598147</v>
       </c>
       <c r="E140" t="n">
-        <v>0.190163</v>
+        <v>0.159318</v>
       </c>
       <c r="F140" t="n">
-        <v>0.537791</v>
+        <v>0.542251</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.166555</v>
+        <v>0.167295</v>
       </c>
       <c r="C141" t="n">
-        <v>0.535044</v>
+        <v>0.554659</v>
       </c>
       <c r="D141" t="n">
-        <v>0.60851</v>
+        <v>0.59754</v>
       </c>
       <c r="E141" t="n">
-        <v>0.176559</v>
+        <v>0.156169</v>
       </c>
       <c r="F141" t="n">
-        <v>0.53528</v>
+        <v>0.538977</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.163153</v>
+        <v>0.162959</v>
       </c>
       <c r="C142" t="n">
-        <v>0.530778</v>
+        <v>0.528976</v>
       </c>
       <c r="D142" t="n">
-        <v>0.607607</v>
+        <v>0.597859</v>
       </c>
       <c r="E142" t="n">
-        <v>0.179485</v>
+        <v>0.15489</v>
       </c>
       <c r="F142" t="n">
-        <v>0.532353</v>
+        <v>0.535548</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.159388</v>
+        <v>0.159512</v>
       </c>
       <c r="C143" t="n">
-        <v>0.540467</v>
+        <v>0.544767</v>
       </c>
       <c r="D143" t="n">
-        <v>0.607507</v>
+        <v>0.597352</v>
       </c>
       <c r="E143" t="n">
-        <v>0.172601</v>
+        <v>0.152399</v>
       </c>
       <c r="F143" t="n">
-        <v>0.52826</v>
+        <v>0.532572</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.322726</v>
+        <v>0.144169</v>
       </c>
       <c r="C2" t="n">
-        <v>0.672515</v>
+        <v>0.355077</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6938569999999999</v>
+        <v>0.416479</v>
       </c>
       <c r="E2" t="n">
-        <v>0.177579</v>
+        <v>0.135226</v>
       </c>
       <c r="F2" t="n">
-        <v>0.741119</v>
+        <v>0.35737</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.245536</v>
+        <v>0.140079</v>
       </c>
       <c r="C3" t="n">
-        <v>0.623042</v>
+        <v>0.353899</v>
       </c>
       <c r="D3" t="n">
-        <v>0.729502</v>
+        <v>0.413806</v>
       </c>
       <c r="E3" t="n">
-        <v>0.217126</v>
+        <v>0.135011</v>
       </c>
       <c r="F3" t="n">
-        <v>0.669383</v>
+        <v>0.356684</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.236083</v>
+        <v>0.139319</v>
       </c>
       <c r="C4" t="n">
-        <v>0.712668</v>
+        <v>0.349825</v>
       </c>
       <c r="D4" t="n">
-        <v>0.762633</v>
+        <v>0.41555</v>
       </c>
       <c r="E4" t="n">
-        <v>0.312405</v>
+        <v>0.133005</v>
       </c>
       <c r="F4" t="n">
-        <v>0.645806</v>
+        <v>0.354229</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.246715</v>
+        <v>0.138229</v>
       </c>
       <c r="C5" t="n">
-        <v>0.680121</v>
+        <v>0.34364</v>
       </c>
       <c r="D5" t="n">
-        <v>0.614715</v>
+        <v>0.416439</v>
       </c>
       <c r="E5" t="n">
-        <v>0.270516</v>
+        <v>0.131482</v>
       </c>
       <c r="F5" t="n">
-        <v>0.71004</v>
+        <v>0.352602</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.255188</v>
+        <v>0.134781</v>
       </c>
       <c r="C6" t="n">
-        <v>0.680522</v>
+        <v>0.336591</v>
       </c>
       <c r="D6" t="n">
-        <v>0.917727</v>
+        <v>0.417447</v>
       </c>
       <c r="E6" t="n">
-        <v>0.241122</v>
+        <v>0.130144</v>
       </c>
       <c r="F6" t="n">
-        <v>0.60062</v>
+        <v>0.349375</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2347</v>
+        <v>0.130902</v>
       </c>
       <c r="C7" t="n">
-        <v>0.639609</v>
+        <v>0.333112</v>
       </c>
       <c r="D7" t="n">
-        <v>0.784567</v>
+        <v>0.422157</v>
       </c>
       <c r="E7" t="n">
-        <v>0.218946</v>
+        <v>0.12835</v>
       </c>
       <c r="F7" t="n">
-        <v>0.749219</v>
+        <v>0.346776</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.267225</v>
+        <v>0.127569</v>
       </c>
       <c r="C8" t="n">
-        <v>0.643815</v>
+        <v>0.330071</v>
       </c>
       <c r="D8" t="n">
-        <v>0.910975</v>
+        <v>0.422647</v>
       </c>
       <c r="E8" t="n">
-        <v>0.175832</v>
+        <v>0.126573</v>
       </c>
       <c r="F8" t="n">
-        <v>0.742802</v>
+        <v>0.344494</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.229225</v>
+        <v>0.122903</v>
       </c>
       <c r="C9" t="n">
-        <v>0.584194</v>
+        <v>0.323408</v>
       </c>
       <c r="D9" t="n">
-        <v>0.822673</v>
+        <v>0.423722</v>
       </c>
       <c r="E9" t="n">
-        <v>0.33551</v>
+        <v>0.156609</v>
       </c>
       <c r="F9" t="n">
-        <v>0.733553</v>
+        <v>0.38298</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.350817</v>
+        <v>0.171158</v>
       </c>
       <c r="C10" t="n">
-        <v>0.720845</v>
+        <v>0.375501</v>
       </c>
       <c r="D10" t="n">
-        <v>0.909979</v>
+        <v>0.420557</v>
       </c>
       <c r="E10" t="n">
-        <v>0.39804</v>
+        <v>0.154622</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8069190000000001</v>
+        <v>0.379861</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.303328</v>
+        <v>0.170679</v>
       </c>
       <c r="C11" t="n">
-        <v>0.634491</v>
+        <v>0.376365</v>
       </c>
       <c r="D11" t="n">
-        <v>1.07459</v>
+        <v>0.421661</v>
       </c>
       <c r="E11" t="n">
-        <v>0.426431</v>
+        <v>0.152192</v>
       </c>
       <c r="F11" t="n">
-        <v>0.797278</v>
+        <v>0.376624</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.197025</v>
+        <v>0.165704</v>
       </c>
       <c r="C12" t="n">
-        <v>0.598797</v>
+        <v>0.370514</v>
       </c>
       <c r="D12" t="n">
-        <v>0.667976</v>
+        <v>0.422737</v>
       </c>
       <c r="E12" t="n">
-        <v>0.216741</v>
+        <v>0.149893</v>
       </c>
       <c r="F12" t="n">
-        <v>0.551469</v>
+        <v>0.373281</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.23305</v>
+        <v>0.16316</v>
       </c>
       <c r="C13" t="n">
-        <v>0.679856</v>
+        <v>0.367083</v>
       </c>
       <c r="D13" t="n">
-        <v>0.645787</v>
+        <v>0.423062</v>
       </c>
       <c r="E13" t="n">
-        <v>0.276118</v>
+        <v>0.148393</v>
       </c>
       <c r="F13" t="n">
-        <v>0.645221</v>
+        <v>0.37157</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.167917</v>
+        <v>0.159847</v>
       </c>
       <c r="C14" t="n">
-        <v>0.420334</v>
+        <v>0.364355</v>
       </c>
       <c r="D14" t="n">
-        <v>0.554628</v>
+        <v>0.423026</v>
       </c>
       <c r="E14" t="n">
-        <v>0.283382</v>
+        <v>0.146886</v>
       </c>
       <c r="F14" t="n">
-        <v>0.714926</v>
+        <v>0.368754</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.22522</v>
+        <v>0.155706</v>
       </c>
       <c r="C15" t="n">
-        <v>0.486318</v>
+        <v>0.361817</v>
       </c>
       <c r="D15" t="n">
-        <v>0.728779</v>
+        <v>0.422687</v>
       </c>
       <c r="E15" t="n">
-        <v>0.199482</v>
+        <v>0.145209</v>
       </c>
       <c r="F15" t="n">
-        <v>0.529516</v>
+        <v>0.365965</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.245823</v>
+        <v>0.153389</v>
       </c>
       <c r="C16" t="n">
-        <v>0.57675</v>
+        <v>0.359536</v>
       </c>
       <c r="D16" t="n">
-        <v>0.604598</v>
+        <v>0.422029</v>
       </c>
       <c r="E16" t="n">
-        <v>0.182999</v>
+        <v>0.143078</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5617490000000001</v>
+        <v>0.363165</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.230716</v>
+        <v>0.150836</v>
       </c>
       <c r="C17" t="n">
-        <v>0.552721</v>
+        <v>0.355185</v>
       </c>
       <c r="D17" t="n">
-        <v>0.74514</v>
+        <v>0.422777</v>
       </c>
       <c r="E17" t="n">
-        <v>0.229711</v>
+        <v>0.141244</v>
       </c>
       <c r="F17" t="n">
-        <v>0.52956</v>
+        <v>0.361429</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.211291</v>
+        <v>0.146735</v>
       </c>
       <c r="C18" t="n">
-        <v>0.570719</v>
+        <v>0.351324</v>
       </c>
       <c r="D18" t="n">
-        <v>0.596783</v>
+        <v>0.422532</v>
       </c>
       <c r="E18" t="n">
-        <v>0.23428</v>
+        <v>0.140943</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6095120000000001</v>
+        <v>0.35993</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.233704</v>
+        <v>0.144109</v>
       </c>
       <c r="C19" t="n">
-        <v>0.679446</v>
+        <v>0.347914</v>
       </c>
       <c r="D19" t="n">
-        <v>0.83601</v>
+        <v>0.422659</v>
       </c>
       <c r="E19" t="n">
-        <v>0.239034</v>
+        <v>0.13869</v>
       </c>
       <c r="F19" t="n">
-        <v>0.528173</v>
+        <v>0.356682</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.191689</v>
+        <v>0.141458</v>
       </c>
       <c r="C20" t="n">
-        <v>0.451634</v>
+        <v>0.34577</v>
       </c>
       <c r="D20" t="n">
-        <v>1.10563</v>
+        <v>0.422212</v>
       </c>
       <c r="E20" t="n">
-        <v>0.355068</v>
+        <v>0.13627</v>
       </c>
       <c r="F20" t="n">
-        <v>0.776894</v>
+        <v>0.355227</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.343823</v>
+        <v>0.138357</v>
       </c>
       <c r="C21" t="n">
-        <v>0.46296</v>
+        <v>0.339267</v>
       </c>
       <c r="D21" t="n">
-        <v>0.739544</v>
+        <v>0.43037</v>
       </c>
       <c r="E21" t="n">
-        <v>0.177372</v>
+        <v>0.133329</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6488930000000001</v>
+        <v>0.351766</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.212332</v>
+        <v>0.133172</v>
       </c>
       <c r="C22" t="n">
-        <v>0.492614</v>
+        <v>0.332068</v>
       </c>
       <c r="D22" t="n">
-        <v>0.869476</v>
+        <v>0.431791</v>
       </c>
       <c r="E22" t="n">
-        <v>0.302995</v>
+        <v>0.13163</v>
       </c>
       <c r="F22" t="n">
-        <v>0.574766</v>
+        <v>0.348984</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.269085</v>
+        <v>0.129013</v>
       </c>
       <c r="C23" t="n">
-        <v>0.704832</v>
+        <v>0.325642</v>
       </c>
       <c r="D23" t="n">
-        <v>0.79656</v>
+        <v>0.43124</v>
       </c>
       <c r="E23" t="n">
-        <v>0.286499</v>
+        <v>0.158345</v>
       </c>
       <c r="F23" t="n">
-        <v>0.759342</v>
+        <v>0.386897</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.347584</v>
+        <v>0.175582</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6886370000000001</v>
+        <v>0.376395</v>
       </c>
       <c r="D24" t="n">
-        <v>0.871418</v>
+        <v>0.428978</v>
       </c>
       <c r="E24" t="n">
-        <v>0.297117</v>
+        <v>0.157556</v>
       </c>
       <c r="F24" t="n">
-        <v>0.755145</v>
+        <v>0.383556</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.329831</v>
+        <v>0.17197</v>
       </c>
       <c r="C25" t="n">
-        <v>0.616524</v>
+        <v>0.379023</v>
       </c>
       <c r="D25" t="n">
-        <v>0.740516</v>
+        <v>0.4287</v>
       </c>
       <c r="E25" t="n">
-        <v>0.287522</v>
+        <v>0.155099</v>
       </c>
       <c r="F25" t="n">
-        <v>0.655616</v>
+        <v>0.38095</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.366098</v>
+        <v>0.169165</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6704059999999999</v>
+        <v>0.373397</v>
       </c>
       <c r="D26" t="n">
-        <v>0.730216</v>
+        <v>0.429546</v>
       </c>
       <c r="E26" t="n">
-        <v>0.268249</v>
+        <v>0.153762</v>
       </c>
       <c r="F26" t="n">
-        <v>0.72809</v>
+        <v>0.378589</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.332238</v>
+        <v>0.165734</v>
       </c>
       <c r="C27" t="n">
-        <v>0.671076</v>
+        <v>0.371078</v>
       </c>
       <c r="D27" t="n">
-        <v>0.784066</v>
+        <v>0.429325</v>
       </c>
       <c r="E27" t="n">
-        <v>0.285921</v>
+        <v>0.152161</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8074519999999999</v>
+        <v>0.375613</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.309577</v>
+        <v>0.162584</v>
       </c>
       <c r="C28" t="n">
-        <v>0.629086</v>
+        <v>0.367397</v>
       </c>
       <c r="D28" t="n">
-        <v>0.650104</v>
+        <v>0.427827</v>
       </c>
       <c r="E28" t="n">
-        <v>0.233343</v>
+        <v>0.149693</v>
       </c>
       <c r="F28" t="n">
-        <v>0.592289</v>
+        <v>0.374527</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.27359</v>
+        <v>0.159532</v>
       </c>
       <c r="C29" t="n">
-        <v>0.73106</v>
+        <v>0.366691</v>
       </c>
       <c r="D29" t="n">
-        <v>0.654527</v>
+        <v>0.428211</v>
       </c>
       <c r="E29" t="n">
-        <v>0.311831</v>
+        <v>0.148089</v>
       </c>
       <c r="F29" t="n">
-        <v>0.56862</v>
+        <v>0.371699</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.272506</v>
+        <v>0.156036</v>
       </c>
       <c r="C30" t="n">
-        <v>0.514647</v>
+        <v>0.361186</v>
       </c>
       <c r="D30" t="n">
-        <v>0.621937</v>
+        <v>0.427769</v>
       </c>
       <c r="E30" t="n">
-        <v>0.319138</v>
+        <v>0.145749</v>
       </c>
       <c r="F30" t="n">
-        <v>0.780887</v>
+        <v>0.369193</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.296694</v>
+        <v>0.153282</v>
       </c>
       <c r="C31" t="n">
-        <v>0.581662</v>
+        <v>0.357561</v>
       </c>
       <c r="D31" t="n">
-        <v>0.648761</v>
+        <v>0.426393</v>
       </c>
       <c r="E31" t="n">
-        <v>0.307202</v>
+        <v>0.143922</v>
       </c>
       <c r="F31" t="n">
-        <v>0.551644</v>
+        <v>0.366647</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.278716</v>
+        <v>0.149877</v>
       </c>
       <c r="C32" t="n">
-        <v>0.488633</v>
+        <v>0.355367</v>
       </c>
       <c r="D32" t="n">
-        <v>0.692752</v>
+        <v>0.427859</v>
       </c>
       <c r="E32" t="n">
-        <v>0.300398</v>
+        <v>0.142362</v>
       </c>
       <c r="F32" t="n">
-        <v>0.57695</v>
+        <v>0.362721</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.306086</v>
+        <v>0.146824</v>
       </c>
       <c r="C33" t="n">
-        <v>0.597187</v>
+        <v>0.351308</v>
       </c>
       <c r="D33" t="n">
-        <v>0.79765</v>
+        <v>0.426309</v>
       </c>
       <c r="E33" t="n">
-        <v>0.253278</v>
+        <v>0.140293</v>
       </c>
       <c r="F33" t="n">
-        <v>0.592975</v>
+        <v>0.36069</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.285663</v>
+        <v>0.143964</v>
       </c>
       <c r="C34" t="n">
-        <v>0.498379</v>
+        <v>0.34474</v>
       </c>
       <c r="D34" t="n">
-        <v>0.679085</v>
+        <v>0.424967</v>
       </c>
       <c r="E34" t="n">
-        <v>0.242161</v>
+        <v>0.13864</v>
       </c>
       <c r="F34" t="n">
-        <v>0.636976</v>
+        <v>0.356996</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.274128</v>
+        <v>0.140692</v>
       </c>
       <c r="C35" t="n">
-        <v>0.692172</v>
+        <v>0.344853</v>
       </c>
       <c r="D35" t="n">
-        <v>0.740905</v>
+        <v>0.435361</v>
       </c>
       <c r="E35" t="n">
-        <v>0.249872</v>
+        <v>0.136528</v>
       </c>
       <c r="F35" t="n">
-        <v>0.573501</v>
+        <v>0.356201</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.253097</v>
+        <v>0.137366</v>
       </c>
       <c r="C36" t="n">
-        <v>0.484599</v>
+        <v>0.338773</v>
       </c>
       <c r="D36" t="n">
-        <v>1.08754</v>
+        <v>0.435292</v>
       </c>
       <c r="E36" t="n">
-        <v>0.280802</v>
+        <v>0.133505</v>
       </c>
       <c r="F36" t="n">
-        <v>0.564608</v>
+        <v>0.352438</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.282555</v>
+        <v>0.132848</v>
       </c>
       <c r="C37" t="n">
-        <v>0.484334</v>
+        <v>0.331515</v>
       </c>
       <c r="D37" t="n">
-        <v>0.842022</v>
+        <v>0.434861</v>
       </c>
       <c r="E37" t="n">
-        <v>0.312443</v>
+        <v>0.163602</v>
       </c>
       <c r="F37" t="n">
-        <v>0.752285</v>
+        <v>0.39038</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.347538</v>
+        <v>0.176145</v>
       </c>
       <c r="C38" t="n">
-        <v>0.710163</v>
+        <v>0.382172</v>
       </c>
       <c r="D38" t="n">
-        <v>0.673071</v>
+        <v>0.433999</v>
       </c>
       <c r="E38" t="n">
-        <v>0.216522</v>
+        <v>0.160804</v>
       </c>
       <c r="F38" t="n">
-        <v>0.776697</v>
+        <v>0.387745</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.344985</v>
+        <v>0.173582</v>
       </c>
       <c r="C39" t="n">
-        <v>0.714996</v>
+        <v>0.380294</v>
       </c>
       <c r="D39" t="n">
-        <v>0.770495</v>
+        <v>0.434131</v>
       </c>
       <c r="E39" t="n">
-        <v>0.315981</v>
+        <v>0.158318</v>
       </c>
       <c r="F39" t="n">
-        <v>0.670573</v>
+        <v>0.384346</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.315351</v>
+        <v>0.170759</v>
       </c>
       <c r="C40" t="n">
-        <v>0.714341</v>
+        <v>0.3787</v>
       </c>
       <c r="D40" t="n">
-        <v>0.864823</v>
+        <v>0.432965</v>
       </c>
       <c r="E40" t="n">
-        <v>0.330435</v>
+        <v>0.156866</v>
       </c>
       <c r="F40" t="n">
-        <v>0.757962</v>
+        <v>0.381282</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.339539</v>
+        <v>0.167161</v>
       </c>
       <c r="C41" t="n">
-        <v>0.75669</v>
+        <v>0.379935</v>
       </c>
       <c r="D41" t="n">
-        <v>0.845028</v>
+        <v>0.431156</v>
       </c>
       <c r="E41" t="n">
-        <v>0.33526</v>
+        <v>0.154211</v>
       </c>
       <c r="F41" t="n">
-        <v>0.742776</v>
+        <v>0.378708</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.294459</v>
+        <v>0.164053</v>
       </c>
       <c r="C42" t="n">
-        <v>0.733805</v>
+        <v>0.372285</v>
       </c>
       <c r="D42" t="n">
-        <v>0.838573</v>
+        <v>0.432685</v>
       </c>
       <c r="E42" t="n">
-        <v>0.207649</v>
+        <v>0.152027</v>
       </c>
       <c r="F42" t="n">
-        <v>0.759548</v>
+        <v>0.376811</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.281088</v>
+        <v>0.160154</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6147010000000001</v>
+        <v>0.367774</v>
       </c>
       <c r="D43" t="n">
-        <v>0.919319</v>
+        <v>0.430313</v>
       </c>
       <c r="E43" t="n">
-        <v>0.281003</v>
+        <v>0.150372</v>
       </c>
       <c r="F43" t="n">
-        <v>0.70597</v>
+        <v>0.37352</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.330242</v>
+        <v>0.156614</v>
       </c>
       <c r="C44" t="n">
-        <v>0.72509</v>
+        <v>0.365075</v>
       </c>
       <c r="D44" t="n">
-        <v>0.846541</v>
+        <v>0.43136</v>
       </c>
       <c r="E44" t="n">
-        <v>0.290595</v>
+        <v>0.148107</v>
       </c>
       <c r="F44" t="n">
-        <v>0.6801700000000001</v>
+        <v>0.370254</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.358283</v>
+        <v>0.153258</v>
       </c>
       <c r="C45" t="n">
-        <v>0.746927</v>
+        <v>0.361668</v>
       </c>
       <c r="D45" t="n">
-        <v>0.828529</v>
+        <v>0.430833</v>
       </c>
       <c r="E45" t="n">
-        <v>0.303071</v>
+        <v>0.146039</v>
       </c>
       <c r="F45" t="n">
-        <v>0.654739</v>
+        <v>0.367066</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.299785</v>
+        <v>0.150448</v>
       </c>
       <c r="C46" t="n">
-        <v>0.632981</v>
+        <v>0.358246</v>
       </c>
       <c r="D46" t="n">
-        <v>0.888497</v>
+        <v>0.430901</v>
       </c>
       <c r="E46" t="n">
-        <v>0.299041</v>
+        <v>0.144441</v>
       </c>
       <c r="F46" t="n">
-        <v>0.715811</v>
+        <v>0.36473</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.256867</v>
+        <v>0.147288</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7358440000000001</v>
+        <v>0.355726</v>
       </c>
       <c r="D47" t="n">
-        <v>0.707185</v>
+        <v>0.428888</v>
       </c>
       <c r="E47" t="n">
-        <v>0.195735</v>
+        <v>0.142044</v>
       </c>
       <c r="F47" t="n">
-        <v>0.773152</v>
+        <v>0.363079</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.286726</v>
+        <v>0.144344</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7036750000000001</v>
+        <v>0.34993</v>
       </c>
       <c r="D48" t="n">
-        <v>0.91906</v>
+        <v>0.42904</v>
       </c>
       <c r="E48" t="n">
-        <v>0.25861</v>
+        <v>0.140089</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7468129999999999</v>
+        <v>0.359296</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.260116</v>
+        <v>0.141384</v>
       </c>
       <c r="C49" t="n">
-        <v>0.662045</v>
+        <v>0.345327</v>
       </c>
       <c r="D49" t="n">
-        <v>0.838072</v>
+        <v>0.427381</v>
       </c>
       <c r="E49" t="n">
-        <v>0.251476</v>
+        <v>0.138054</v>
       </c>
       <c r="F49" t="n">
-        <v>0.663525</v>
+        <v>0.359618</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.301201</v>
+        <v>0.137905</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6150369999999999</v>
+        <v>0.340884</v>
       </c>
       <c r="D50" t="n">
-        <v>0.830093</v>
+        <v>0.438221</v>
       </c>
       <c r="E50" t="n">
-        <v>0.249426</v>
+        <v>0.135537</v>
       </c>
       <c r="F50" t="n">
-        <v>0.665826</v>
+        <v>0.354911</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.236341</v>
+        <v>0.133743</v>
       </c>
       <c r="C51" t="n">
-        <v>0.616351</v>
+        <v>0.334985</v>
       </c>
       <c r="D51" t="n">
-        <v>0.897822</v>
+        <v>0.438667</v>
       </c>
       <c r="E51" t="n">
-        <v>0.356788</v>
+        <v>0.166471</v>
       </c>
       <c r="F51" t="n">
-        <v>0.783985</v>
+        <v>0.395305</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.265607</v>
+        <v>0.128704</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5295570000000001</v>
+        <v>0.327824</v>
       </c>
       <c r="D52" t="n">
-        <v>0.876839</v>
+        <v>0.438561</v>
       </c>
       <c r="E52" t="n">
-        <v>0.381052</v>
+        <v>0.16341</v>
       </c>
       <c r="F52" t="n">
-        <v>0.734858</v>
+        <v>0.393755</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.353013</v>
+        <v>0.173981</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7559360000000001</v>
+        <v>0.385138</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8742799999999999</v>
+        <v>0.438098</v>
       </c>
       <c r="E53" t="n">
-        <v>0.37581</v>
+        <v>0.160851</v>
       </c>
       <c r="F53" t="n">
-        <v>0.715981</v>
+        <v>0.390349</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.365048</v>
+        <v>0.171416</v>
       </c>
       <c r="C54" t="n">
-        <v>0.720311</v>
+        <v>0.391685</v>
       </c>
       <c r="D54" t="n">
-        <v>0.871148</v>
+        <v>0.437296</v>
       </c>
       <c r="E54" t="n">
-        <v>0.337866</v>
+        <v>0.157864</v>
       </c>
       <c r="F54" t="n">
-        <v>0.7612989999999999</v>
+        <v>0.387137</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.285859</v>
+        <v>0.168086</v>
       </c>
       <c r="C55" t="n">
-        <v>0.731595</v>
+        <v>0.383058</v>
       </c>
       <c r="D55" t="n">
-        <v>0.784769</v>
+        <v>0.436289</v>
       </c>
       <c r="E55" t="n">
-        <v>0.315905</v>
+        <v>0.156106</v>
       </c>
       <c r="F55" t="n">
-        <v>0.674445</v>
+        <v>0.386117</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.322837</v>
+        <v>0.165282</v>
       </c>
       <c r="C56" t="n">
-        <v>0.714496</v>
+        <v>0.389182</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7821669999999999</v>
+        <v>0.440123</v>
       </c>
       <c r="E56" t="n">
-        <v>0.309482</v>
+        <v>0.154041</v>
       </c>
       <c r="F56" t="n">
-        <v>0.742442</v>
+        <v>0.386093</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.328862</v>
+        <v>0.161829</v>
       </c>
       <c r="C57" t="n">
-        <v>0.744667</v>
+        <v>0.385465</v>
       </c>
       <c r="D57" t="n">
-        <v>0.888974</v>
+        <v>0.438853</v>
       </c>
       <c r="E57" t="n">
-        <v>0.259778</v>
+        <v>0.152223</v>
       </c>
       <c r="F57" t="n">
-        <v>0.775679</v>
+        <v>0.383482</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.305325</v>
+        <v>0.15795</v>
       </c>
       <c r="C58" t="n">
-        <v>0.753003</v>
+        <v>0.38125</v>
       </c>
       <c r="D58" t="n">
-        <v>1.02128</v>
+        <v>0.43885</v>
       </c>
       <c r="E58" t="n">
-        <v>0.308753</v>
+        <v>0.149872</v>
       </c>
       <c r="F58" t="n">
-        <v>0.742135</v>
+        <v>0.38668</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.310332</v>
+        <v>0.154759</v>
       </c>
       <c r="C59" t="n">
-        <v>0.723532</v>
+        <v>0.378007</v>
       </c>
       <c r="D59" t="n">
-        <v>0.902578</v>
+        <v>0.440208</v>
       </c>
       <c r="E59" t="n">
-        <v>0.333531</v>
+        <v>0.147603</v>
       </c>
       <c r="F59" t="n">
-        <v>0.778622</v>
+        <v>0.387533</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.306495</v>
+        <v>0.151323</v>
       </c>
       <c r="C60" t="n">
-        <v>0.814795</v>
+        <v>0.391011</v>
       </c>
       <c r="D60" t="n">
-        <v>0.725815</v>
+        <v>0.442747</v>
       </c>
       <c r="E60" t="n">
-        <v>0.227099</v>
+        <v>0.145527</v>
       </c>
       <c r="F60" t="n">
-        <v>0.75153</v>
+        <v>0.378486</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.306775</v>
+        <v>0.148427</v>
       </c>
       <c r="C61" t="n">
-        <v>0.792027</v>
+        <v>0.380519</v>
       </c>
       <c r="D61" t="n">
-        <v>0.936325</v>
+        <v>0.44265</v>
       </c>
       <c r="E61" t="n">
-        <v>0.263689</v>
+        <v>0.14384</v>
       </c>
       <c r="F61" t="n">
-        <v>0.734645</v>
+        <v>0.384081</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.321012</v>
+        <v>0.145452</v>
       </c>
       <c r="C62" t="n">
-        <v>0.717807</v>
+        <v>0.382781</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8689170000000001</v>
+        <v>0.447628</v>
       </c>
       <c r="E62" t="n">
-        <v>0.262095</v>
+        <v>0.14148</v>
       </c>
       <c r="F62" t="n">
-        <v>0.652373</v>
+        <v>0.387128</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.297855</v>
+        <v>0.142374</v>
       </c>
       <c r="C63" t="n">
-        <v>0.74931</v>
+        <v>0.393649</v>
       </c>
       <c r="D63" t="n">
-        <v>0.852945</v>
+        <v>0.448532</v>
       </c>
       <c r="E63" t="n">
-        <v>0.25128</v>
+        <v>0.138992</v>
       </c>
       <c r="F63" t="n">
-        <v>0.851781</v>
+        <v>0.390277</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.258241</v>
+        <v>0.139077</v>
       </c>
       <c r="C64" t="n">
-        <v>0.786013</v>
+        <v>0.404008</v>
       </c>
       <c r="D64" t="n">
-        <v>0.929122</v>
+        <v>0.504821</v>
       </c>
       <c r="E64" t="n">
-        <v>0.298041</v>
+        <v>0.136911</v>
       </c>
       <c r="F64" t="n">
-        <v>0.762289</v>
+        <v>0.398229</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.260991</v>
+        <v>0.134901</v>
       </c>
       <c r="C65" t="n">
-        <v>0.720383</v>
+        <v>0.398213</v>
       </c>
       <c r="D65" t="n">
-        <v>0.92415</v>
+        <v>0.508275</v>
       </c>
       <c r="E65" t="n">
-        <v>0.228131</v>
+        <v>0.134684</v>
       </c>
       <c r="F65" t="n">
-        <v>0.687898</v>
+        <v>0.393407</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.225915</v>
+        <v>0.130154</v>
       </c>
       <c r="C66" t="n">
-        <v>0.769022</v>
+        <v>0.396873</v>
       </c>
       <c r="D66" t="n">
-        <v>0.983267</v>
+        <v>0.51558</v>
       </c>
       <c r="E66" t="n">
-        <v>0.283543</v>
+        <v>0.16543</v>
       </c>
       <c r="F66" t="n">
-        <v>0.811396</v>
+        <v>0.482503</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.350209</v>
+        <v>0.175639</v>
       </c>
       <c r="C67" t="n">
-        <v>0.924473</v>
+        <v>0.5139049999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.947979</v>
+        <v>0.519985</v>
       </c>
       <c r="E67" t="n">
-        <v>0.336327</v>
+        <v>0.162518</v>
       </c>
       <c r="F67" t="n">
-        <v>0.8529910000000001</v>
+        <v>0.482765</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.356558</v>
+        <v>0.17242</v>
       </c>
       <c r="C68" t="n">
-        <v>0.874075</v>
+        <v>0.515315</v>
       </c>
       <c r="D68" t="n">
-        <v>0.907793</v>
+        <v>0.522262</v>
       </c>
       <c r="E68" t="n">
-        <v>0.334532</v>
+        <v>0.159541</v>
       </c>
       <c r="F68" t="n">
-        <v>0.7750359999999999</v>
+        <v>0.48466</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.312764</v>
+        <v>0.169303</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9973959999999999</v>
+        <v>0.508752</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9896200000000001</v>
+        <v>0.525733</v>
       </c>
       <c r="E69" t="n">
-        <v>0.335275</v>
+        <v>0.157461</v>
       </c>
       <c r="F69" t="n">
-        <v>0.808693</v>
+        <v>0.485068</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.362334</v>
+        <v>0.165611</v>
       </c>
       <c r="C70" t="n">
-        <v>0.824423</v>
+        <v>0.509054</v>
       </c>
       <c r="D70" t="n">
-        <v>1.00075</v>
+        <v>0.527773</v>
       </c>
       <c r="E70" t="n">
-        <v>0.352389</v>
+        <v>0.15535</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8564580000000001</v>
+        <v>0.48603</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.310439</v>
+        <v>0.16203</v>
       </c>
       <c r="C71" t="n">
-        <v>0.912956</v>
+        <v>0.508372</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9416020000000001</v>
+        <v>0.531679</v>
       </c>
       <c r="E71" t="n">
-        <v>0.319176</v>
+        <v>0.152786</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8695349999999999</v>
+        <v>0.485686</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.317805</v>
+        <v>0.158425</v>
       </c>
       <c r="C72" t="n">
-        <v>0.811959</v>
+        <v>0.510307</v>
       </c>
       <c r="D72" t="n">
-        <v>0.934853</v>
+        <v>0.533758</v>
       </c>
       <c r="E72" t="n">
-        <v>0.34623</v>
+        <v>0.151028</v>
       </c>
       <c r="F72" t="n">
-        <v>0.93931</v>
+        <v>0.482277</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.298649</v>
+        <v>0.155037</v>
       </c>
       <c r="C73" t="n">
-        <v>0.903926</v>
+        <v>0.504601</v>
       </c>
       <c r="D73" t="n">
-        <v>1.00901</v>
+        <v>0.5352749999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>0.34433</v>
+        <v>0.148702</v>
       </c>
       <c r="F73" t="n">
-        <v>0.859334</v>
+        <v>0.481689</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.309892</v>
+        <v>0.151799</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8494660000000001</v>
+        <v>0.501071</v>
       </c>
       <c r="D74" t="n">
-        <v>1.02024</v>
+        <v>0.536868</v>
       </c>
       <c r="E74" t="n">
-        <v>0.290438</v>
+        <v>0.146525</v>
       </c>
       <c r="F74" t="n">
-        <v>0.877875</v>
+        <v>0.478878</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.298105</v>
+        <v>0.149023</v>
       </c>
       <c r="C75" t="n">
-        <v>0.868683</v>
+        <v>0.496427</v>
       </c>
       <c r="D75" t="n">
-        <v>0.973172</v>
+        <v>0.53872</v>
       </c>
       <c r="E75" t="n">
-        <v>0.287443</v>
+        <v>0.144446</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8202199999999999</v>
+        <v>0.477646</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.26139</v>
+        <v>0.145776</v>
       </c>
       <c r="C76" t="n">
-        <v>0.87003</v>
+        <v>0.49272</v>
       </c>
       <c r="D76" t="n">
-        <v>1.02229</v>
+        <v>0.538187</v>
       </c>
       <c r="E76" t="n">
-        <v>0.318366</v>
+        <v>0.142292</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8077260000000001</v>
+        <v>0.475116</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.310168</v>
+        <v>0.142755</v>
       </c>
       <c r="C77" t="n">
-        <v>0.891643</v>
+        <v>0.488442</v>
       </c>
       <c r="D77" t="n">
-        <v>1.05919</v>
+        <v>0.540831</v>
       </c>
       <c r="E77" t="n">
-        <v>0.235142</v>
+        <v>0.140303</v>
       </c>
       <c r="F77" t="n">
-        <v>0.736303</v>
+        <v>0.473793</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.308119</v>
+        <v>0.139491</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8010969999999999</v>
+        <v>0.484024</v>
       </c>
       <c r="D78" t="n">
-        <v>0.938939</v>
+        <v>0.568818</v>
       </c>
       <c r="E78" t="n">
-        <v>0.284092</v>
+        <v>0.137782</v>
       </c>
       <c r="F78" t="n">
-        <v>0.826614</v>
+        <v>0.470335</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.250601</v>
+        <v>0.135645</v>
       </c>
       <c r="C79" t="n">
-        <v>0.839639</v>
+        <v>0.479558</v>
       </c>
       <c r="D79" t="n">
-        <v>1.04673</v>
+        <v>0.570237</v>
       </c>
       <c r="E79" t="n">
-        <v>0.266561</v>
+        <v>0.135591</v>
       </c>
       <c r="F79" t="n">
-        <v>0.812324</v>
+        <v>0.467439</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.255571</v>
+        <v>0.130994</v>
       </c>
       <c r="C80" t="n">
-        <v>0.812708</v>
+        <v>0.472241</v>
       </c>
       <c r="D80" t="n">
-        <v>1.00139</v>
+        <v>0.568912</v>
       </c>
       <c r="E80" t="n">
-        <v>0.322157</v>
+        <v>0.166645</v>
       </c>
       <c r="F80" t="n">
-        <v>0.848819</v>
+        <v>0.5053800000000001</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.347428</v>
+        <v>0.177221</v>
       </c>
       <c r="C81" t="n">
-        <v>0.943675</v>
+        <v>0.531748</v>
       </c>
       <c r="D81" t="n">
-        <v>0.966605</v>
+        <v>0.569015</v>
       </c>
       <c r="E81" t="n">
-        <v>0.275391</v>
+        <v>0.163626</v>
       </c>
       <c r="F81" t="n">
-        <v>0.828732</v>
+        <v>0.501745</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.297842</v>
+        <v>0.174064</v>
       </c>
       <c r="C82" t="n">
-        <v>0.988858</v>
+        <v>0.52933</v>
       </c>
       <c r="D82" t="n">
-        <v>0.975559</v>
+        <v>0.568199</v>
       </c>
       <c r="E82" t="n">
-        <v>0.290342</v>
+        <v>0.160687</v>
       </c>
       <c r="F82" t="n">
-        <v>0.900318</v>
+        <v>0.498655</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.300024</v>
+        <v>0.170846</v>
       </c>
       <c r="C83" t="n">
-        <v>0.911023</v>
+        <v>0.5225919999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>1.06921</v>
+        <v>0.56831</v>
       </c>
       <c r="E83" t="n">
-        <v>0.339797</v>
+        <v>0.158433</v>
       </c>
       <c r="F83" t="n">
-        <v>0.907328</v>
+        <v>0.497115</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.323184</v>
+        <v>0.166995</v>
       </c>
       <c r="C84" t="n">
-        <v>0.949821</v>
+        <v>0.553007</v>
       </c>
       <c r="D84" t="n">
-        <v>0.993949</v>
+        <v>0.60671</v>
       </c>
       <c r="E84" t="n">
-        <v>0.355178</v>
+        <v>0.155782</v>
       </c>
       <c r="F84" t="n">
-        <v>0.936033</v>
+        <v>0.543302</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.298479</v>
+        <v>0.163525</v>
       </c>
       <c r="C85" t="n">
-        <v>1.00342</v>
+        <v>0.547349</v>
       </c>
       <c r="D85" t="n">
-        <v>1.11468</v>
+        <v>0.606895</v>
       </c>
       <c r="E85" t="n">
-        <v>0.360266</v>
+        <v>0.153489</v>
       </c>
       <c r="F85" t="n">
-        <v>1.02418</v>
+        <v>0.538283</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.251007</v>
+        <v>0.159867</v>
       </c>
       <c r="C86" t="n">
-        <v>0.990585</v>
+        <v>0.543058</v>
       </c>
       <c r="D86" t="n">
-        <v>1.16652</v>
+        <v>0.60463</v>
       </c>
       <c r="E86" t="n">
-        <v>0.33809</v>
+        <v>0.151449</v>
       </c>
       <c r="F86" t="n">
-        <v>1.02326</v>
+        <v>0.537905</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.305614</v>
+        <v>0.15628</v>
       </c>
       <c r="C87" t="n">
-        <v>0.966537</v>
+        <v>0.5384910000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>1.07415</v>
+        <v>0.605905</v>
       </c>
       <c r="E87" t="n">
-        <v>0.350198</v>
+        <v>0.149616</v>
       </c>
       <c r="F87" t="n">
-        <v>0.987626</v>
+        <v>0.535117</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.324827</v>
+        <v>0.153034</v>
       </c>
       <c r="C88" t="n">
-        <v>1.0366</v>
+        <v>0.5314990000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>1.17493</v>
+        <v>0.606868</v>
       </c>
       <c r="E88" t="n">
-        <v>0.304991</v>
+        <v>0.147586</v>
       </c>
       <c r="F88" t="n">
-        <v>1.02451</v>
+        <v>0.530465</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.31647</v>
+        <v>0.149984</v>
       </c>
       <c r="C89" t="n">
-        <v>0.965107</v>
+        <v>0.526963</v>
       </c>
       <c r="D89" t="n">
-        <v>1.12774</v>
+        <v>0.607402</v>
       </c>
       <c r="E89" t="n">
-        <v>0.277312</v>
+        <v>0.145286</v>
       </c>
       <c r="F89" t="n">
-        <v>0.853732</v>
+        <v>0.528922</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.268577</v>
+        <v>0.146581</v>
       </c>
       <c r="C90" t="n">
-        <v>0.942963</v>
+        <v>0.523138</v>
       </c>
       <c r="D90" t="n">
-        <v>1.09546</v>
+        <v>0.6055739999999999</v>
       </c>
       <c r="E90" t="n">
-        <v>0.325138</v>
+        <v>0.143158</v>
       </c>
       <c r="F90" t="n">
-        <v>0.88562</v>
+        <v>0.525053</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.310834</v>
+        <v>0.143631</v>
       </c>
       <c r="C91" t="n">
-        <v>0.941652</v>
+        <v>0.519222</v>
       </c>
       <c r="D91" t="n">
-        <v>1.15664</v>
+        <v>0.605264</v>
       </c>
       <c r="E91" t="n">
-        <v>0.256946</v>
+        <v>0.140742</v>
       </c>
       <c r="F91" t="n">
-        <v>0.952975</v>
+        <v>0.5223139999999999</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.252569</v>
+        <v>0.140415</v>
       </c>
       <c r="C92" t="n">
-        <v>0.910323</v>
+        <v>0.513686</v>
       </c>
       <c r="D92" t="n">
-        <v>1.0014</v>
+        <v>0.6071530000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>0.252363</v>
+        <v>0.138566</v>
       </c>
       <c r="F92" t="n">
-        <v>0.800329</v>
+        <v>0.519082</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.284395</v>
+        <v>0.136678</v>
       </c>
       <c r="C93" t="n">
-        <v>0.881041</v>
+        <v>0.510096</v>
       </c>
       <c r="D93" t="n">
-        <v>1.07677</v>
+        <v>0.604904</v>
       </c>
       <c r="E93" t="n">
-        <v>0.244458</v>
+        <v>0.136124</v>
       </c>
       <c r="F93" t="n">
-        <v>0.965648</v>
+        <v>0.516307</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.258027</v>
+        <v>0.132241</v>
       </c>
       <c r="C94" t="n">
-        <v>0.901871</v>
+        <v>0.503906</v>
       </c>
       <c r="D94" t="n">
-        <v>1.21477</v>
+        <v>0.607532</v>
       </c>
       <c r="E94" t="n">
-        <v>0.349296</v>
+        <v>0.168988</v>
       </c>
       <c r="F94" t="n">
-        <v>1.01499</v>
+        <v>0.556189</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.321371</v>
+        <v>0.177269</v>
       </c>
       <c r="C95" t="n">
-        <v>1.0175</v>
+        <v>0.56463</v>
       </c>
       <c r="D95" t="n">
-        <v>1.06955</v>
+        <v>0.606145</v>
       </c>
       <c r="E95" t="n">
-        <v>0.324433</v>
+        <v>0.164266</v>
       </c>
       <c r="F95" t="n">
-        <v>1.02549</v>
+        <v>0.552186</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.344642</v>
+        <v>0.174182</v>
       </c>
       <c r="C96" t="n">
-        <v>1.02166</v>
+        <v>0.561368</v>
       </c>
       <c r="D96" t="n">
-        <v>1.01604</v>
+        <v>0.604085</v>
       </c>
       <c r="E96" t="n">
-        <v>0.364873</v>
+        <v>0.161528</v>
       </c>
       <c r="F96" t="n">
-        <v>1.04942</v>
+        <v>0.549427</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.351206</v>
+        <v>0.170817</v>
       </c>
       <c r="C97" t="n">
-        <v>0.940144</v>
+        <v>0.5583320000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>1.03331</v>
+        <v>0.603787</v>
       </c>
       <c r="E97" t="n">
-        <v>0.297771</v>
+        <v>0.159459</v>
       </c>
       <c r="F97" t="n">
-        <v>1.00392</v>
+        <v>0.545701</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.351666</v>
+        <v>0.1674</v>
       </c>
       <c r="C98" t="n">
-        <v>1.01788</v>
+        <v>0.5554519999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>1.06766</v>
+        <v>0.604104</v>
       </c>
       <c r="E98" t="n">
-        <v>0.313889</v>
+        <v>0.156975</v>
       </c>
       <c r="F98" t="n">
-        <v>0.989655</v>
+        <v>0.543548</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.285885</v>
+        <v>0.163869</v>
       </c>
       <c r="C99" t="n">
-        <v>0.990028</v>
+        <v>0.551522</v>
       </c>
       <c r="D99" t="n">
-        <v>1.05287</v>
+        <v>0.603622</v>
       </c>
       <c r="E99" t="n">
-        <v>0.242938</v>
+        <v>0.154445</v>
       </c>
       <c r="F99" t="n">
-        <v>0.993903</v>
+        <v>0.541982</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.329725</v>
+        <v>0.16021</v>
       </c>
       <c r="C100" t="n">
-        <v>1.12369</v>
+        <v>0.5484290000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>1.09361</v>
+        <v>0.602973</v>
       </c>
       <c r="E100" t="n">
-        <v>0.323769</v>
+        <v>0.152225</v>
       </c>
       <c r="F100" t="n">
-        <v>1.03004</v>
+        <v>0.537259</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.344137</v>
+        <v>0.15672</v>
       </c>
       <c r="C101" t="n">
-        <v>1.08796</v>
+        <v>0.543484</v>
       </c>
       <c r="D101" t="n">
-        <v>1.07525</v>
+        <v>0.602708</v>
       </c>
       <c r="E101" t="n">
-        <v>0.310398</v>
+        <v>0.150209</v>
       </c>
       <c r="F101" t="n">
-        <v>0.957834</v>
+        <v>0.535427</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.342912</v>
+        <v>0.153308</v>
       </c>
       <c r="C102" t="n">
-        <v>1.05018</v>
+        <v>0.524751</v>
       </c>
       <c r="D102" t="n">
-        <v>1.09257</v>
+        <v>0.6014890000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>0.312491</v>
+        <v>0.148032</v>
       </c>
       <c r="F102" t="n">
-        <v>1.00728</v>
+        <v>0.53125</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.292008</v>
+        <v>0.150092</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9586479999999999</v>
+        <v>0.51942</v>
       </c>
       <c r="D103" t="n">
-        <v>1.1169</v>
+        <v>0.601946</v>
       </c>
       <c r="E103" t="n">
-        <v>0.286678</v>
+        <v>0.145784</v>
       </c>
       <c r="F103" t="n">
-        <v>0.845644</v>
+        <v>0.528946</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.227787</v>
+        <v>0.147171</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9528489999999999</v>
+        <v>0.5150439999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>1.11382</v>
+        <v>0.602274</v>
       </c>
       <c r="E104" t="n">
-        <v>0.264952</v>
+        <v>0.143531</v>
       </c>
       <c r="F104" t="n">
-        <v>0.934499</v>
+        <v>0.524419</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.285447</v>
+        <v>0.144136</v>
       </c>
       <c r="C105" t="n">
-        <v>1.03</v>
+        <v>0.51255</v>
       </c>
       <c r="D105" t="n">
-        <v>1.13901</v>
+        <v>0.602291</v>
       </c>
       <c r="E105" t="n">
-        <v>0.31427</v>
+        <v>0.141603</v>
       </c>
       <c r="F105" t="n">
-        <v>1.00278</v>
+        <v>0.524744</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.27869</v>
+        <v>0.140934</v>
       </c>
       <c r="C106" t="n">
-        <v>0.992265</v>
+        <v>0.506817</v>
       </c>
       <c r="D106" t="n">
-        <v>1.11096</v>
+        <v>0.600559</v>
       </c>
       <c r="E106" t="n">
-        <v>0.286772</v>
+        <v>0.139227</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9824580000000001</v>
+        <v>0.520177</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.257438</v>
+        <v>0.137303</v>
       </c>
       <c r="C107" t="n">
-        <v>0.894814</v>
+        <v>0.500926</v>
       </c>
       <c r="D107" t="n">
-        <v>1.15697</v>
+        <v>0.58566</v>
       </c>
       <c r="E107" t="n">
-        <v>0.257695</v>
+        <v>0.136734</v>
       </c>
       <c r="F107" t="n">
-        <v>0.959411</v>
+        <v>0.517142</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.231109</v>
+        <v>0.133038</v>
       </c>
       <c r="C108" t="n">
-        <v>0.964609</v>
+        <v>0.497024</v>
       </c>
       <c r="D108" t="n">
-        <v>1.14194</v>
+        <v>0.586023</v>
       </c>
       <c r="E108" t="n">
-        <v>0.358233</v>
+        <v>0.17026</v>
       </c>
       <c r="F108" t="n">
-        <v>1.03919</v>
+        <v>0.5571660000000001</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.274818</v>
+        <v>0.127306</v>
       </c>
       <c r="C109" t="n">
-        <v>0.944372</v>
+        <v>0.488096</v>
       </c>
       <c r="D109" t="n">
-        <v>1.05662</v>
+        <v>0.586711</v>
       </c>
       <c r="E109" t="n">
-        <v>0.383621</v>
+        <v>0.165743</v>
       </c>
       <c r="F109" t="n">
-        <v>1.00439</v>
+        <v>0.552552</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.357861</v>
+        <v>0.174977</v>
       </c>
       <c r="C110" t="n">
-        <v>1.1322</v>
+        <v>0.5463980000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>1.09392</v>
+        <v>0.587122</v>
       </c>
       <c r="E110" t="n">
-        <v>0.314642</v>
+        <v>0.163588</v>
       </c>
       <c r="F110" t="n">
-        <v>0.970852</v>
+        <v>0.5505409999999999</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.287886</v>
+        <v>0.171667</v>
       </c>
       <c r="C111" t="n">
-        <v>1.07378</v>
+        <v>0.542512</v>
       </c>
       <c r="D111" t="n">
-        <v>1.09298</v>
+        <v>0.5872849999999999</v>
       </c>
       <c r="E111" t="n">
-        <v>0.335307</v>
+        <v>0.160218</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9988629999999999</v>
+        <v>0.553437</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.327012</v>
+        <v>0.168087</v>
       </c>
       <c r="C112" t="n">
-        <v>1.0919</v>
+        <v>0.541444</v>
       </c>
       <c r="D112" t="n">
-        <v>0.917912</v>
+        <v>0.587558</v>
       </c>
       <c r="E112" t="n">
-        <v>0.347631</v>
+        <v>0.157863</v>
       </c>
       <c r="F112" t="n">
-        <v>0.918367</v>
+        <v>0.54421</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.365949</v>
+        <v>0.164459</v>
       </c>
       <c r="C113" t="n">
-        <v>0.93428</v>
+        <v>0.542988</v>
       </c>
       <c r="D113" t="n">
-        <v>1.01253</v>
+        <v>0.587664</v>
       </c>
       <c r="E113" t="n">
-        <v>0.317634</v>
+        <v>0.155231</v>
       </c>
       <c r="F113" t="n">
-        <v>1.03593</v>
+        <v>0.540557</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.327373</v>
+        <v>0.161047</v>
       </c>
       <c r="C114" t="n">
-        <v>0.966124</v>
+        <v>0.5391010000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.943737</v>
+        <v>0.588467</v>
       </c>
       <c r="E114" t="n">
-        <v>0.334039</v>
+        <v>0.152928</v>
       </c>
       <c r="F114" t="n">
-        <v>1.03831</v>
+        <v>0.537948</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.321227</v>
+        <v>0.157484</v>
       </c>
       <c r="C115" t="n">
-        <v>0.963182</v>
+        <v>0.529493</v>
       </c>
       <c r="D115" t="n">
-        <v>1.08385</v>
+        <v>0.589452</v>
       </c>
       <c r="E115" t="n">
-        <v>0.284092</v>
+        <v>0.150429</v>
       </c>
       <c r="F115" t="n">
-        <v>0.995853</v>
+        <v>0.536067</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.337009</v>
+        <v>0.153924</v>
       </c>
       <c r="C116" t="n">
-        <v>0.979961</v>
+        <v>0.524744</v>
       </c>
       <c r="D116" t="n">
-        <v>1.05487</v>
+        <v>0.589337</v>
       </c>
       <c r="E116" t="n">
-        <v>0.310603</v>
+        <v>0.148396</v>
       </c>
       <c r="F116" t="n">
-        <v>0.931513</v>
+        <v>0.53259</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.304198</v>
+        <v>0.150655</v>
       </c>
       <c r="C117" t="n">
-        <v>0.947926</v>
+        <v>0.536351</v>
       </c>
       <c r="D117" t="n">
-        <v>1.01042</v>
+        <v>0.589445</v>
       </c>
       <c r="E117" t="n">
-        <v>0.268445</v>
+        <v>0.14598</v>
       </c>
       <c r="F117" t="n">
-        <v>0.979039</v>
+        <v>0.5292249999999999</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.283452</v>
+        <v>0.147641</v>
       </c>
       <c r="C118" t="n">
-        <v>1.07083</v>
+        <v>0.524611</v>
       </c>
       <c r="D118" t="n">
-        <v>0.97253</v>
+        <v>0.591058</v>
       </c>
       <c r="E118" t="n">
-        <v>0.262159</v>
+        <v>0.143809</v>
       </c>
       <c r="F118" t="n">
-        <v>1.02767</v>
+        <v>0.5262829999999999</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.309053</v>
+        <v>0.144561</v>
       </c>
       <c r="C119" t="n">
-        <v>0.91022</v>
+        <v>0.510813</v>
       </c>
       <c r="D119" t="n">
-        <v>1.03846</v>
+        <v>0.590928</v>
       </c>
       <c r="E119" t="n">
-        <v>0.270697</v>
+        <v>0.141778</v>
       </c>
       <c r="F119" t="n">
-        <v>0.893167</v>
+        <v>0.524581</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.284971</v>
+        <v>0.141582</v>
       </c>
       <c r="C120" t="n">
-        <v>0.951187</v>
+        <v>0.515383</v>
       </c>
       <c r="D120" t="n">
-        <v>1.07925</v>
+        <v>0.591144</v>
       </c>
       <c r="E120" t="n">
-        <v>0.278568</v>
+        <v>0.139366</v>
       </c>
       <c r="F120" t="n">
-        <v>0.898908</v>
+        <v>0.521237</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.282572</v>
+        <v>0.137873</v>
       </c>
       <c r="C121" t="n">
-        <v>0.875183</v>
+        <v>0.512536</v>
       </c>
       <c r="D121" t="n">
-        <v>1.13412</v>
+        <v>0.609815</v>
       </c>
       <c r="E121" t="n">
-        <v>0.283421</v>
+        <v>0.137044</v>
       </c>
       <c r="F121" t="n">
-        <v>0.873664</v>
+        <v>0.518236</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.232929</v>
+        <v>0.133535</v>
       </c>
       <c r="C122" t="n">
-        <v>0.921246</v>
+        <v>0.506976</v>
       </c>
       <c r="D122" t="n">
-        <v>1.19859</v>
+        <v>0.609362</v>
       </c>
       <c r="E122" t="n">
-        <v>0.290858</v>
+        <v>0.134511</v>
       </c>
       <c r="F122" t="n">
-        <v>0.957968</v>
+        <v>0.513938</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.257525</v>
+        <v>0.128741</v>
       </c>
       <c r="C123" t="n">
-        <v>0.882368</v>
+        <v>0.506003</v>
       </c>
       <c r="D123" t="n">
-        <v>1.19078</v>
+        <v>0.6099250000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>0.357558</v>
+        <v>0.17013</v>
       </c>
       <c r="F123" t="n">
-        <v>0.989459</v>
+        <v>0.55488</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.386834</v>
+        <v>0.175303</v>
       </c>
       <c r="C124" t="n">
-        <v>1.06652</v>
+        <v>0.546578</v>
       </c>
       <c r="D124" t="n">
-        <v>1.11833</v>
+        <v>0.607936</v>
       </c>
       <c r="E124" t="n">
-        <v>0.297326</v>
+        <v>0.166784</v>
       </c>
       <c r="F124" t="n">
-        <v>1.00378</v>
+        <v>0.552071</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.307478</v>
+        <v>0.172031</v>
       </c>
       <c r="C125" t="n">
-        <v>1.05608</v>
+        <v>0.563621</v>
       </c>
       <c r="D125" t="n">
-        <v>1.04637</v>
+        <v>0.607086</v>
       </c>
       <c r="E125" t="n">
-        <v>0.346412</v>
+        <v>0.162562</v>
       </c>
       <c r="F125" t="n">
-        <v>1.00346</v>
+        <v>0.547934</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.320742</v>
+        <v>0.168682</v>
       </c>
       <c r="C126" t="n">
-        <v>1.00215</v>
+        <v>0.538619</v>
       </c>
       <c r="D126" t="n">
-        <v>1.07386</v>
+        <v>0.607515</v>
       </c>
       <c r="E126" t="n">
-        <v>0.340328</v>
+        <v>0.159713</v>
       </c>
       <c r="F126" t="n">
-        <v>1.01834</v>
+        <v>0.545396</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.317117</v>
+        <v>0.165093</v>
       </c>
       <c r="C127" t="n">
-        <v>1.00709</v>
+        <v>0.541602</v>
       </c>
       <c r="D127" t="n">
-        <v>1.07483</v>
+        <v>0.606145</v>
       </c>
       <c r="E127" t="n">
-        <v>0.330746</v>
+        <v>0.156469</v>
       </c>
       <c r="F127" t="n">
-        <v>0.934072</v>
+        <v>0.540036</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.335825</v>
+        <v>0.161445</v>
       </c>
       <c r="C128" t="n">
-        <v>0.985474</v>
+        <v>0.537602</v>
       </c>
       <c r="D128" t="n">
-        <v>1.02906</v>
+        <v>0.607028</v>
       </c>
       <c r="E128" t="n">
-        <v>0.324108</v>
+        <v>0.153654</v>
       </c>
       <c r="F128" t="n">
-        <v>1.10047</v>
+        <v>0.540936</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.329692</v>
+        <v>0.157829</v>
       </c>
       <c r="C129" t="n">
-        <v>0.846077</v>
+        <v>0.526973</v>
       </c>
       <c r="D129" t="n">
-        <v>1.06679</v>
+        <v>0.605362</v>
       </c>
       <c r="E129" t="n">
-        <v>0.285894</v>
+        <v>0.151027</v>
       </c>
       <c r="F129" t="n">
-        <v>0.99358</v>
+        <v>0.5354719999999999</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.301269</v>
+        <v>0.15434</v>
       </c>
       <c r="C130" t="n">
-        <v>0.921026</v>
+        <v>0.543442</v>
       </c>
       <c r="D130" t="n">
-        <v>1.17962</v>
+        <v>0.605564</v>
       </c>
       <c r="E130" t="n">
-        <v>0.294212</v>
+        <v>0.148952</v>
       </c>
       <c r="F130" t="n">
-        <v>1.07134</v>
+        <v>0.533428</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.320066</v>
+        <v>0.151137</v>
       </c>
       <c r="C131" t="n">
-        <v>0.94242</v>
+        <v>0.518617</v>
       </c>
       <c r="D131" t="n">
-        <v>1.07052</v>
+        <v>0.604216</v>
       </c>
       <c r="E131" t="n">
-        <v>0.32393</v>
+        <v>0.146987</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9773849999999999</v>
+        <v>0.529036</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.292426</v>
+        <v>0.148171</v>
       </c>
       <c r="C132" t="n">
-        <v>0.91476</v>
+        <v>0.523182</v>
       </c>
       <c r="D132" t="n">
-        <v>0.945726</v>
+        <v>0.605009</v>
       </c>
       <c r="E132" t="n">
-        <v>0.280082</v>
+        <v>0.14436</v>
       </c>
       <c r="F132" t="n">
-        <v>0.965306</v>
+        <v>0.527128</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.279932</v>
+        <v>0.145002</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8649</v>
+        <v>0.509123</v>
       </c>
       <c r="D133" t="n">
-        <v>1.07785</v>
+        <v>0.603859</v>
       </c>
       <c r="E133" t="n">
-        <v>0.298781</v>
+        <v>0.141976</v>
       </c>
       <c r="F133" t="n">
-        <v>0.874794</v>
+        <v>0.524101</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.286996</v>
+        <v>0.14199</v>
       </c>
       <c r="C134" t="n">
-        <v>0.923619</v>
+        <v>0.505565</v>
       </c>
       <c r="D134" t="n">
-        <v>1.01786</v>
+        <v>0.604495</v>
       </c>
       <c r="E134" t="n">
-        <v>0.259943</v>
+        <v>0.139798</v>
       </c>
       <c r="F134" t="n">
-        <v>0.869041</v>
+        <v>0.52028</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.238329</v>
+        <v>0.138599</v>
       </c>
       <c r="C135" t="n">
-        <v>0.73691</v>
+        <v>0.517364</v>
       </c>
       <c r="D135" t="n">
-        <v>1.11977</v>
+        <v>0.615494</v>
       </c>
       <c r="E135" t="n">
-        <v>0.297222</v>
+        <v>0.137459</v>
       </c>
       <c r="F135" t="n">
-        <v>0.828406</v>
+        <v>0.519316</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.271392</v>
+        <v>0.134355</v>
       </c>
       <c r="C136" t="n">
-        <v>0.862693</v>
+        <v>0.493762</v>
       </c>
       <c r="D136" t="n">
-        <v>0.996314</v>
+        <v>0.614179</v>
       </c>
       <c r="E136" t="n">
-        <v>0.281263</v>
+        <v>0.135036</v>
       </c>
       <c r="F136" t="n">
-        <v>0.924169</v>
+        <v>0.51679</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.241766</v>
+        <v>0.129626</v>
       </c>
       <c r="C137" t="n">
-        <v>0.8066410000000001</v>
+        <v>0.487632</v>
       </c>
       <c r="D137" t="n">
-        <v>0.904471</v>
+        <v>0.61374</v>
       </c>
       <c r="E137" t="n">
-        <v>0.375019</v>
+        <v>0.174248</v>
       </c>
       <c r="F137" t="n">
-        <v>1.01151</v>
+        <v>0.55506</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.408602</v>
+        <v>0.175752</v>
       </c>
       <c r="C138" t="n">
-        <v>0.846753</v>
+        <v>0.565311</v>
       </c>
       <c r="D138" t="n">
-        <v>1.20758</v>
+        <v>0.612639</v>
       </c>
       <c r="E138" t="n">
-        <v>0.370909</v>
+        <v>0.170763</v>
       </c>
       <c r="F138" t="n">
-        <v>0.936482</v>
+        <v>0.550554</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.377187</v>
+        <v>0.172625</v>
       </c>
       <c r="C139" t="n">
-        <v>0.793594</v>
+        <v>0.540975</v>
       </c>
       <c r="D139" t="n">
-        <v>1.0144</v>
+        <v>0.611246</v>
       </c>
       <c r="E139" t="n">
-        <v>0.336769</v>
+        <v>0.169445</v>
       </c>
       <c r="F139" t="n">
-        <v>0.944219</v>
+        <v>0.548143</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.34279</v>
+        <v>0.169354</v>
       </c>
       <c r="C140" t="n">
-        <v>0.784009</v>
+        <v>0.55868</v>
       </c>
       <c r="D140" t="n">
-        <v>0.883808</v>
+        <v>0.610874</v>
       </c>
       <c r="E140" t="n">
-        <v>0.29884</v>
+        <v>0.162514</v>
       </c>
       <c r="F140" t="n">
-        <v>1.00993</v>
+        <v>0.544346</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.338579</v>
+        <v>0.165893</v>
       </c>
       <c r="C141" t="n">
-        <v>1.05331</v>
+        <v>0.53225</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9957859999999999</v>
+        <v>0.61009</v>
       </c>
       <c r="E141" t="n">
-        <v>0.334033</v>
+        <v>0.159237</v>
       </c>
       <c r="F141" t="n">
-        <v>1.012</v>
+        <v>0.543111</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.331506</v>
+        <v>0.162151</v>
       </c>
       <c r="C142" t="n">
-        <v>0.953799</v>
+        <v>0.5294990000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.95752</v>
+        <v>0.609846</v>
       </c>
       <c r="E142" t="n">
-        <v>0.271178</v>
+        <v>0.156238</v>
       </c>
       <c r="F142" t="n">
-        <v>0.906771</v>
+        <v>0.540331</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.27378</v>
+        <v>0.158635</v>
       </c>
       <c r="C143" t="n">
-        <v>0.877636</v>
+        <v>0.525114</v>
       </c>
       <c r="D143" t="n">
-        <v>0.976345</v>
+        <v>0.608648</v>
       </c>
       <c r="E143" t="n">
-        <v>0.305915</v>
+        <v>0.152467</v>
       </c>
       <c r="F143" t="n">
-        <v>0.961228</v>
+        <v>0.536557</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running erasure.xlsx
+++ b/vs-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.144169</v>
+        <v>0.145592</v>
       </c>
       <c r="C2" t="n">
-        <v>0.355077</v>
+        <v>0.356754</v>
       </c>
       <c r="D2" t="n">
-        <v>0.416479</v>
+        <v>0.420067</v>
       </c>
       <c r="E2" t="n">
-        <v>0.135226</v>
+        <v>0.141342</v>
       </c>
       <c r="F2" t="n">
-        <v>0.35737</v>
+        <v>0.341612</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.140079</v>
+        <v>0.141032</v>
       </c>
       <c r="C3" t="n">
-        <v>0.353899</v>
+        <v>0.347691</v>
       </c>
       <c r="D3" t="n">
-        <v>0.413806</v>
+        <v>0.417638</v>
       </c>
       <c r="E3" t="n">
-        <v>0.135011</v>
+        <v>0.139687</v>
       </c>
       <c r="F3" t="n">
-        <v>0.356684</v>
+        <v>0.34513</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.139319</v>
+        <v>0.13863</v>
       </c>
       <c r="C4" t="n">
-        <v>0.349825</v>
+        <v>0.352311</v>
       </c>
       <c r="D4" t="n">
-        <v>0.41555</v>
+        <v>0.419607</v>
       </c>
       <c r="E4" t="n">
-        <v>0.133005</v>
+        <v>0.138995</v>
       </c>
       <c r="F4" t="n">
-        <v>0.354229</v>
+        <v>0.337284</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.138229</v>
+        <v>0.13711</v>
       </c>
       <c r="C5" t="n">
-        <v>0.34364</v>
+        <v>0.346217</v>
       </c>
       <c r="D5" t="n">
-        <v>0.416439</v>
+        <v>0.420191</v>
       </c>
       <c r="E5" t="n">
-        <v>0.131482</v>
+        <v>0.137189</v>
       </c>
       <c r="F5" t="n">
-        <v>0.352602</v>
+        <v>0.336549</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.134781</v>
+        <v>0.134214</v>
       </c>
       <c r="C6" t="n">
-        <v>0.336591</v>
+        <v>0.340444</v>
       </c>
       <c r="D6" t="n">
-        <v>0.417447</v>
+        <v>0.420587</v>
       </c>
       <c r="E6" t="n">
-        <v>0.130144</v>
+        <v>0.136624</v>
       </c>
       <c r="F6" t="n">
-        <v>0.349375</v>
+        <v>0.331994</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.130902</v>
+        <v>0.130864</v>
       </c>
       <c r="C7" t="n">
-        <v>0.333112</v>
+        <v>0.332973</v>
       </c>
       <c r="D7" t="n">
-        <v>0.422157</v>
+        <v>0.427136</v>
       </c>
       <c r="E7" t="n">
-        <v>0.12835</v>
+        <v>0.134146</v>
       </c>
       <c r="F7" t="n">
-        <v>0.346776</v>
+        <v>0.330866</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.127569</v>
+        <v>0.126728</v>
       </c>
       <c r="C8" t="n">
-        <v>0.330071</v>
+        <v>0.331233</v>
       </c>
       <c r="D8" t="n">
-        <v>0.422647</v>
+        <v>0.424693</v>
       </c>
       <c r="E8" t="n">
-        <v>0.126573</v>
+        <v>0.131088</v>
       </c>
       <c r="F8" t="n">
-        <v>0.344494</v>
+        <v>0.327305</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.122903</v>
+        <v>0.123934</v>
       </c>
       <c r="C9" t="n">
-        <v>0.323408</v>
+        <v>0.323611</v>
       </c>
       <c r="D9" t="n">
-        <v>0.423722</v>
+        <v>0.427787</v>
       </c>
       <c r="E9" t="n">
-        <v>0.156609</v>
+        <v>0.160907</v>
       </c>
       <c r="F9" t="n">
-        <v>0.38298</v>
+        <v>0.362353</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.171158</v>
+        <v>0.172596</v>
       </c>
       <c r="C10" t="n">
-        <v>0.375501</v>
+        <v>0.380954</v>
       </c>
       <c r="D10" t="n">
-        <v>0.420557</v>
+        <v>0.426954</v>
       </c>
       <c r="E10" t="n">
-        <v>0.154622</v>
+        <v>0.15937</v>
       </c>
       <c r="F10" t="n">
-        <v>0.379861</v>
+        <v>0.36015</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.170679</v>
+        <v>0.168738</v>
       </c>
       <c r="C11" t="n">
-        <v>0.376365</v>
+        <v>0.379728</v>
       </c>
       <c r="D11" t="n">
-        <v>0.421661</v>
+        <v>0.427924</v>
       </c>
       <c r="E11" t="n">
-        <v>0.152192</v>
+        <v>0.157329</v>
       </c>
       <c r="F11" t="n">
-        <v>0.376624</v>
+        <v>0.358986</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.165704</v>
+        <v>0.165894</v>
       </c>
       <c r="C12" t="n">
-        <v>0.370514</v>
+        <v>0.370287</v>
       </c>
       <c r="D12" t="n">
-        <v>0.422737</v>
+        <v>0.427061</v>
       </c>
       <c r="E12" t="n">
-        <v>0.149893</v>
+        <v>0.156172</v>
       </c>
       <c r="F12" t="n">
-        <v>0.373281</v>
+        <v>0.356976</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.16316</v>
+        <v>0.161723</v>
       </c>
       <c r="C13" t="n">
-        <v>0.367083</v>
+        <v>0.369995</v>
       </c>
       <c r="D13" t="n">
-        <v>0.423062</v>
+        <v>0.428097</v>
       </c>
       <c r="E13" t="n">
-        <v>0.148393</v>
+        <v>0.154663</v>
       </c>
       <c r="F13" t="n">
-        <v>0.37157</v>
+        <v>0.353907</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.159847</v>
+        <v>0.158526</v>
       </c>
       <c r="C14" t="n">
-        <v>0.364355</v>
+        <v>0.366465</v>
       </c>
       <c r="D14" t="n">
-        <v>0.423026</v>
+        <v>0.426845</v>
       </c>
       <c r="E14" t="n">
-        <v>0.146886</v>
+        <v>0.151615</v>
       </c>
       <c r="F14" t="n">
-        <v>0.368754</v>
+        <v>0.351624</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.155706</v>
+        <v>0.155848</v>
       </c>
       <c r="C15" t="n">
-        <v>0.361817</v>
+        <v>0.366592</v>
       </c>
       <c r="D15" t="n">
-        <v>0.422687</v>
+        <v>0.427106</v>
       </c>
       <c r="E15" t="n">
-        <v>0.145209</v>
+        <v>0.149752</v>
       </c>
       <c r="F15" t="n">
-        <v>0.365965</v>
+        <v>0.347813</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.153389</v>
+        <v>0.15232</v>
       </c>
       <c r="C16" t="n">
-        <v>0.359536</v>
+        <v>0.362891</v>
       </c>
       <c r="D16" t="n">
-        <v>0.422029</v>
+        <v>0.427202</v>
       </c>
       <c r="E16" t="n">
-        <v>0.143078</v>
+        <v>0.148261</v>
       </c>
       <c r="F16" t="n">
-        <v>0.363165</v>
+        <v>0.346987</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.150836</v>
+        <v>0.149242</v>
       </c>
       <c r="C17" t="n">
-        <v>0.355185</v>
+        <v>0.357204</v>
       </c>
       <c r="D17" t="n">
-        <v>0.422777</v>
+        <v>0.425883</v>
       </c>
       <c r="E17" t="n">
-        <v>0.141244</v>
+        <v>0.146362</v>
       </c>
       <c r="F17" t="n">
-        <v>0.361429</v>
+        <v>0.344251</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.146735</v>
+        <v>0.146365</v>
       </c>
       <c r="C18" t="n">
-        <v>0.351324</v>
+        <v>0.352637</v>
       </c>
       <c r="D18" t="n">
-        <v>0.422532</v>
+        <v>0.42669</v>
       </c>
       <c r="E18" t="n">
-        <v>0.140943</v>
+        <v>0.144681</v>
       </c>
       <c r="F18" t="n">
-        <v>0.35993</v>
+        <v>0.3422</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.144109</v>
+        <v>0.143347</v>
       </c>
       <c r="C19" t="n">
-        <v>0.347914</v>
+        <v>0.351621</v>
       </c>
       <c r="D19" t="n">
-        <v>0.422659</v>
+        <v>0.426382</v>
       </c>
       <c r="E19" t="n">
-        <v>0.13869</v>
+        <v>0.143741</v>
       </c>
       <c r="F19" t="n">
-        <v>0.356682</v>
+        <v>0.341318</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.141458</v>
+        <v>0.140407</v>
       </c>
       <c r="C20" t="n">
-        <v>0.34577</v>
+        <v>0.345198</v>
       </c>
       <c r="D20" t="n">
-        <v>0.422212</v>
+        <v>0.425739</v>
       </c>
       <c r="E20" t="n">
-        <v>0.13627</v>
+        <v>0.141972</v>
       </c>
       <c r="F20" t="n">
-        <v>0.355227</v>
+        <v>0.338165</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.138357</v>
+        <v>0.137578</v>
       </c>
       <c r="C21" t="n">
-        <v>0.339267</v>
+        <v>0.343205</v>
       </c>
       <c r="D21" t="n">
-        <v>0.43037</v>
+        <v>0.435436</v>
       </c>
       <c r="E21" t="n">
-        <v>0.133329</v>
+        <v>0.13918</v>
       </c>
       <c r="F21" t="n">
-        <v>0.351766</v>
+        <v>0.335785</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.133172</v>
+        <v>0.131894</v>
       </c>
       <c r="C22" t="n">
-        <v>0.332068</v>
+        <v>0.334245</v>
       </c>
       <c r="D22" t="n">
-        <v>0.431791</v>
+        <v>0.435142</v>
       </c>
       <c r="E22" t="n">
-        <v>0.13163</v>
+        <v>0.137079</v>
       </c>
       <c r="F22" t="n">
-        <v>0.348984</v>
+        <v>0.332127</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.129013</v>
+        <v>0.128682</v>
       </c>
       <c r="C23" t="n">
-        <v>0.325642</v>
+        <v>0.328487</v>
       </c>
       <c r="D23" t="n">
-        <v>0.43124</v>
+        <v>0.434891</v>
       </c>
       <c r="E23" t="n">
-        <v>0.158345</v>
+        <v>0.163755</v>
       </c>
       <c r="F23" t="n">
-        <v>0.386897</v>
+        <v>0.367048</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.175582</v>
+        <v>0.175732</v>
       </c>
       <c r="C24" t="n">
-        <v>0.376395</v>
+        <v>0.380283</v>
       </c>
       <c r="D24" t="n">
-        <v>0.428978</v>
+        <v>0.434143</v>
       </c>
       <c r="E24" t="n">
-        <v>0.157556</v>
+        <v>0.162278</v>
       </c>
       <c r="F24" t="n">
-        <v>0.383556</v>
+        <v>0.362356</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.17197</v>
+        <v>0.172991</v>
       </c>
       <c r="C25" t="n">
-        <v>0.379023</v>
+        <v>0.37869</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4287</v>
+        <v>0.434499</v>
       </c>
       <c r="E25" t="n">
-        <v>0.155099</v>
+        <v>0.160372</v>
       </c>
       <c r="F25" t="n">
-        <v>0.38095</v>
+        <v>0.361287</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.169165</v>
+        <v>0.169724</v>
       </c>
       <c r="C26" t="n">
-        <v>0.373397</v>
+        <v>0.377765</v>
       </c>
       <c r="D26" t="n">
-        <v>0.429546</v>
+        <v>0.433181</v>
       </c>
       <c r="E26" t="n">
-        <v>0.153762</v>
+        <v>0.158806</v>
       </c>
       <c r="F26" t="n">
-        <v>